--- a/Tests/Validation/Eucalyptus/Observed.xlsx
+++ b/Tests/Validation/Eucalyptus/Observed.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hol353\Repos\ApsimX\Tests\Validation\Eucalyptus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Tests\Validation\Eucalyptus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DBEF2E-9421-4183-9796-FD477717070D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14050" yWindow="0" windowWidth="18140" windowHeight="13390" tabRatio="653" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14052" yWindow="0" windowWidth="18144" windowHeight="13392" tabRatio="653" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="GympieBiomass" sheetId="1" r:id="rId1"/>
@@ -46,7 +45,7 @@
     <definedName name="SYear">#REF!</definedName>
     <definedName name="WYear">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -574,15 +573,6 @@
     <t>Eucalyptus.BelowGround.Wt</t>
   </si>
   <si>
-    <t>Eucalyptus.Stem.DBH.Value()</t>
-  </si>
-  <si>
-    <t>Eucalyptus.Stem.Ht.Value()</t>
-  </si>
-  <si>
-    <t>Eucalyptus.RootShootRatio.Value()</t>
-  </si>
-  <si>
     <t>SLA</t>
   </si>
   <si>
@@ -651,11 +641,20 @@
   <si>
     <t>ItacambiraSiteCultC3336</t>
   </si>
+  <si>
+    <t>Eucalyptus.RootShootRatio</t>
+  </si>
+  <si>
+    <t>Eucalyptus.Stem.DBH</t>
+  </si>
+  <si>
+    <t>Eucalyptus.Stem.Ht</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-C09]dd\-mmm\-yy;@"/>
@@ -887,10 +886,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="0.0" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="0.0" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal_FM_data" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal_FM_data" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -906,7 +905,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1213,7 +1212,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A9A8-4835-88AB-C87A67808D44}"/>
             </c:ext>
@@ -1366,7 +1365,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A9A8-4835-88AB-C87A67808D44}"/>
             </c:ext>
@@ -1380,11 +1379,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="419945336"/>
-        <c:axId val="419941808"/>
+        <c:axId val="526311008"/>
+        <c:axId val="526311400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="419945336"/>
+        <c:axId val="526311008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1394,12 +1393,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="419941808"/>
+        <c:crossAx val="526311400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="419941808"/>
+        <c:axId val="526311400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,7 +1409,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="419945336"/>
+        <c:crossAx val="526311008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1446,7 +1445,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1753,7 +1752,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7F2A-4DC7-84CC-D37B5F56AF8A}"/>
             </c:ext>
@@ -1906,7 +1905,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7F2A-4DC7-84CC-D37B5F56AF8A}"/>
             </c:ext>
@@ -1920,11 +1919,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="419948472"/>
-        <c:axId val="419942984"/>
+        <c:axId val="215851872"/>
+        <c:axId val="215854616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="419948472"/>
+        <c:axId val="215851872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1934,12 +1933,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="419942984"/>
+        <c:crossAx val="215854616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="419942984"/>
+        <c:axId val="215854616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,7 +1949,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="419948472"/>
+        <c:crossAx val="215851872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1986,7 +1985,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2293,7 +2292,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F7EE-453F-8BC2-513A65D02121}"/>
             </c:ext>
@@ -2446,7 +2445,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F7EE-453F-8BC2-513A65D02121}"/>
             </c:ext>
@@ -2460,11 +2459,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="419946512"/>
-        <c:axId val="419946904"/>
+        <c:axId val="521101888"/>
+        <c:axId val="521107768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="419946512"/>
+        <c:axId val="521101888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2474,12 +2473,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="419946904"/>
+        <c:crossAx val="521107768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="419946904"/>
+        <c:axId val="521107768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2490,7 +2489,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="419946512"/>
+        <c:crossAx val="521101888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2526,7 +2525,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2833,7 +2832,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E814-47CB-AA29-2A2E81424D13}"/>
             </c:ext>
@@ -2986,7 +2985,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E814-47CB-AA29-2A2E81424D13}"/>
             </c:ext>
@@ -3000,11 +2999,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="419944552"/>
-        <c:axId val="419946120"/>
+        <c:axId val="172117872"/>
+        <c:axId val="172115128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="419944552"/>
+        <c:axId val="172117872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3014,12 +3013,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="419946120"/>
+        <c:crossAx val="172115128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="419946120"/>
+        <c:axId val="172115128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3030,7 +3029,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="419944552"/>
+        <c:crossAx val="172117872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3066,7 +3065,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3371,7 +3370,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-458F-47C6-8858-AEEDCFAAB176}"/>
             </c:ext>
@@ -3524,7 +3523,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-458F-47C6-8858-AEEDCFAAB176}"/>
             </c:ext>
@@ -3538,11 +3537,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="421342520"/>
-        <c:axId val="421342912"/>
+        <c:axId val="730021408"/>
+        <c:axId val="730010040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="421342520"/>
+        <c:axId val="730021408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3552,12 +3551,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="421342912"/>
+        <c:crossAx val="730010040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="421342912"/>
+        <c:axId val="730010040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3568,7 +3567,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="421342520"/>
+        <c:crossAx val="730021408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3590,7 +3589,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3897,7 +3896,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4491-41EB-8B21-E4CDAC8E2E5D}"/>
             </c:ext>
@@ -4050,7 +4049,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4491-41EB-8B21-E4CDAC8E2E5D}"/>
             </c:ext>
@@ -4064,11 +4063,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="421338208"/>
-        <c:axId val="421344480"/>
+        <c:axId val="730012000"/>
+        <c:axId val="730017096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="421338208"/>
+        <c:axId val="730012000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4078,12 +4077,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="421344480"/>
+        <c:crossAx val="730017096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="421344480"/>
+        <c:axId val="730017096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4094,7 +4093,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="421338208"/>
+        <c:crossAx val="730012000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4130,7 +4129,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4437,7 +4436,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-83A0-40D9-B85A-4AF04933AF38}"/>
             </c:ext>
@@ -4590,7 +4589,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-83A0-40D9-B85A-4AF04933AF38}"/>
             </c:ext>
@@ -4604,11 +4603,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="421344088"/>
-        <c:axId val="421345264"/>
+        <c:axId val="730017880"/>
+        <c:axId val="730017488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="421344088"/>
+        <c:axId val="730017880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4618,12 +4617,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="421345264"/>
+        <c:crossAx val="730017488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="421345264"/>
+        <c:axId val="730017488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4634,7 +4633,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="421344088"/>
+        <c:crossAx val="730017880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4689,7 +4688,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4725,7 +4724,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4761,7 +4760,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4797,7 +4796,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4833,7 +4832,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4869,7 +4868,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4905,7 +4904,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5039,23 +5038,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5091,23 +5073,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5283,18 +5248,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="Y2" sqref="Y2:Y41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="5" max="5" width="28.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" customWidth="1"/>
+    <col min="5" max="5" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -9066,14 +9032,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -12406,18 +12373,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -14055,19 +14023,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.54296875" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -16231,16 +16200,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="17" max="17" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -17248,14 +17218,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E9" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
   </cols>
@@ -17274,7 +17245,7 @@
       <c r="D2" s="42"/>
       <c r="E2" s="42"/>
     </row>
-    <row r="3" spans="1:12" ht="28.5" thickBot="1">
+    <row r="3" spans="1:12" ht="28.2" thickBot="1">
       <c r="B3" s="9" t="s">
         <v>80</v>
       </c>
@@ -17567,7 +17538,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.5">
+    <row r="20" spans="1:8" ht="14.4">
       <c r="A20" s="41" t="s">
         <v>88</v>
       </c>
@@ -17584,7 +17555,7 @@
         <v>17.676767676767678</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.5">
+    <row r="21" spans="1:8" ht="14.4">
       <c r="A21" s="41"/>
       <c r="B21" s="13">
         <v>2</v>
@@ -17599,7 +17570,7 @@
         <v>122.14452214452214</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.5">
+    <row r="22" spans="1:8" ht="14.4">
       <c r="A22" s="41"/>
       <c r="B22" s="13">
         <v>3</v>
@@ -17859,33 +17830,34 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:R854"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="510" topLeftCell="A416" activePane="bottomLeft"/>
+      <pane ySplit="516" topLeftCell="A416" activePane="bottomLeft"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="D428" sqref="D428"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="34.7265625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" style="20" customWidth="1"/>
-    <col min="3" max="4" width="9.1796875" style="20"/>
-    <col min="5" max="5" width="26.7265625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" style="20" customWidth="1"/>
-    <col min="7" max="7" width="25.26953125" style="20" customWidth="1"/>
-    <col min="8" max="8" width="22.453125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="21.81640625" style="20" customWidth="1"/>
-    <col min="10" max="10" width="23.81640625" style="20" customWidth="1"/>
-    <col min="11" max="11" width="17.81640625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="15.7265625" style="20" customWidth="1"/>
-    <col min="13" max="14" width="25.54296875" style="20" customWidth="1"/>
+    <col min="1" max="1" width="34.77734375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" style="20" customWidth="1"/>
+    <col min="3" max="4" width="9.21875" style="20"/>
+    <col min="5" max="5" width="26.77734375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" style="20" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="21.77734375" style="20" customWidth="1"/>
+    <col min="10" max="10" width="23.77734375" style="20" customWidth="1"/>
+    <col min="11" max="11" width="17.77734375" style="20" customWidth="1"/>
+    <col min="12" max="12" width="15.77734375" style="20" customWidth="1"/>
+    <col min="13" max="14" width="25.5546875" style="20" customWidth="1"/>
     <col min="15" max="15" width="20" style="20" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" style="20" customWidth="1"/>
-    <col min="17" max="17" width="10.1796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.1796875" style="20"/>
+    <col min="17" max="17" width="10.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.21875" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -17899,7 +17871,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>71</v>
@@ -17926,27 +17898,27 @@
         <v>77</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="N1" s="20" t="s">
         <v>170</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R1" s="20" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="14.5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="14.4">
       <c r="A2" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B2" s="21">
         <v>36289.727143239521</v>
@@ -17963,9 +17935,9 @@
       </c>
       <c r="Q2" s="21"/>
     </row>
-    <row r="3" spans="1:18" ht="14.5">
+    <row r="3" spans="1:18" ht="14.4">
       <c r="A3" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B3" s="21">
         <v>36379.277894616091</v>
@@ -17982,9 +17954,9 @@
       </c>
       <c r="Q3" s="21"/>
     </row>
-    <row r="4" spans="1:18" ht="14.5">
+    <row r="4" spans="1:18" ht="14.4">
       <c r="A4" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B4" s="21">
         <v>36441.525523860502</v>
@@ -18001,9 +17973,9 @@
       </c>
       <c r="Q4" s="21"/>
     </row>
-    <row r="5" spans="1:18" ht="14.5">
+    <row r="5" spans="1:18" ht="14.4">
       <c r="A5" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B5" s="21">
         <v>36510.69924862343</v>
@@ -18020,9 +17992,9 @@
       </c>
       <c r="Q5" s="21"/>
     </row>
-    <row r="6" spans="1:18" ht="14.5">
+    <row r="6" spans="1:18" ht="14.4">
       <c r="A6" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B6" s="21">
         <v>36538.455968950751</v>
@@ -18039,9 +18011,9 @@
       </c>
       <c r="Q6" s="21"/>
     </row>
-    <row r="7" spans="1:18" ht="14.5">
+    <row r="7" spans="1:18" ht="14.4">
       <c r="A7" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B7" s="21">
         <v>36566.09056668706</v>
@@ -18058,9 +18030,9 @@
       </c>
       <c r="Q7" s="21"/>
     </row>
-    <row r="8" spans="1:18" ht="14.5">
+    <row r="8" spans="1:18" ht="14.4">
       <c r="A8" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B8" s="21">
         <v>36596.83056745182</v>
@@ -18077,9 +18049,9 @@
       </c>
       <c r="Q8" s="21"/>
     </row>
-    <row r="9" spans="1:18" ht="14.5">
+    <row r="9" spans="1:18" ht="14.4">
       <c r="A9" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B9" s="21">
         <v>36593.201781890486</v>
@@ -18100,9 +18072,9 @@
       </c>
       <c r="Q9" s="21"/>
     </row>
-    <row r="10" spans="1:18" ht="14.5">
+    <row r="10" spans="1:18" ht="14.4">
       <c r="A10" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B10" s="21">
         <v>36628.163735087182</v>
@@ -18117,9 +18089,9 @@
       </c>
       <c r="Q10" s="21"/>
     </row>
-    <row r="11" spans="1:18" ht="14.5">
+    <row r="11" spans="1:18" ht="14.4">
       <c r="A11" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B11" s="21">
         <v>36659.200319287243</v>
@@ -18137,9 +18109,9 @@
       </c>
       <c r="Q11" s="21"/>
     </row>
-    <row r="12" spans="1:18" ht="14.5">
+    <row r="12" spans="1:18" ht="14.4">
       <c r="A12" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B12" s="21">
         <v>36755.729504435607</v>
@@ -18156,9 +18128,9 @@
       </c>
       <c r="Q12" s="21"/>
     </row>
-    <row r="13" spans="1:18" ht="14.5">
+    <row r="13" spans="1:18" ht="14.4">
       <c r="A13" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B13" s="21">
         <v>36810.981253823797</v>
@@ -18175,9 +18147,9 @@
       </c>
       <c r="Q13" s="21"/>
     </row>
-    <row r="14" spans="1:18" ht="14.5">
+    <row r="14" spans="1:18" ht="14.4">
       <c r="A14" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B14" s="21">
         <v>36845.48960882533</v>
@@ -18194,9 +18166,9 @@
       </c>
       <c r="Q14" s="21"/>
     </row>
-    <row r="15" spans="1:18" ht="14.5">
+    <row r="15" spans="1:18" ht="14.4">
       <c r="A15" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B15" s="21">
         <v>36866.250449296414</v>
@@ -18213,9 +18185,9 @@
       </c>
       <c r="Q15" s="21"/>
     </row>
-    <row r="16" spans="1:18" ht="14.5">
+    <row r="16" spans="1:18" ht="14.4">
       <c r="A16" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B16" s="21">
         <v>36907.615115478737</v>
@@ -18232,9 +18204,9 @@
       </c>
       <c r="Q16" s="21"/>
     </row>
-    <row r="17" spans="1:17" ht="14.5">
+    <row r="17" spans="1:17" ht="14.4">
       <c r="A17" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B17" s="21">
         <v>36935.145036708469</v>
@@ -18251,9 +18223,9 @@
       </c>
       <c r="Q17" s="21"/>
     </row>
-    <row r="18" spans="1:17" ht="14.5">
+    <row r="18" spans="1:17" ht="14.4">
       <c r="A18" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B18" s="21">
         <v>36966.11183657081</v>
@@ -18274,9 +18246,9 @@
       </c>
       <c r="Q18" s="21"/>
     </row>
-    <row r="19" spans="1:17" ht="14.5">
+    <row r="19" spans="1:17" ht="14.4">
       <c r="A19" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B19" s="21">
         <v>36969.723176047723</v>
@@ -18294,9 +18266,9 @@
       </c>
       <c r="Q19" s="21"/>
     </row>
-    <row r="20" spans="1:17" ht="14.5">
+    <row r="20" spans="1:17" ht="14.4">
       <c r="A20" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B20" s="21">
         <v>37028.219897139796</v>
@@ -18314,9 +18286,9 @@
       </c>
       <c r="Q20" s="21"/>
     </row>
-    <row r="21" spans="1:17" ht="14.5">
+    <row r="21" spans="1:17" ht="14.4">
       <c r="A21" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B21" s="21">
         <v>37059.15180483328</v>
@@ -18333,9 +18305,9 @@
       </c>
       <c r="Q21" s="21"/>
     </row>
-    <row r="22" spans="1:17" ht="14.5">
+    <row r="22" spans="1:17" ht="14.4">
       <c r="A22" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B22" s="21">
         <v>37086.786402569589</v>
@@ -18352,9 +18324,9 @@
       </c>
       <c r="Q22" s="21"/>
     </row>
-    <row r="23" spans="1:17" ht="14.5">
+    <row r="23" spans="1:17" ht="14.4">
       <c r="A23" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B23" s="21">
         <v>37121.17263498011</v>
@@ -18371,9 +18343,9 @@
       </c>
       <c r="Q23" s="21"/>
     </row>
-    <row r="24" spans="1:17" ht="14.5">
+    <row r="24" spans="1:17" ht="14.4">
       <c r="A24" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B24" s="21">
         <v>37148.754894463134</v>
@@ -18390,9 +18362,9 @@
       </c>
       <c r="Q24" s="21"/>
     </row>
-    <row r="25" spans="1:17" ht="14.5">
+    <row r="25" spans="1:17" ht="14.4">
       <c r="A25" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B25" s="21">
         <v>37172.847937060265</v>
@@ -18410,9 +18382,9 @@
       </c>
       <c r="Q25" s="21"/>
     </row>
-    <row r="26" spans="1:17" ht="14.5">
+    <row r="26" spans="1:17" ht="14.4">
       <c r="A26" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B26" s="21">
         <v>37207.3039538085</v>
@@ -18430,9 +18402,9 @@
       </c>
       <c r="Q26" s="21"/>
     </row>
-    <row r="27" spans="1:17" ht="14.5">
+    <row r="27" spans="1:17" ht="14.4">
       <c r="A27" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B27" s="21">
         <v>37238.253307586412</v>
@@ -18449,9 +18421,9 @@
       </c>
       <c r="Q27" s="21"/>
     </row>
-    <row r="28" spans="1:17" ht="14.5">
+    <row r="28" spans="1:17" ht="14.4">
       <c r="A28" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B28" s="21">
         <v>37269.185215279897</v>
@@ -18468,9 +18440,9 @@
       </c>
       <c r="Q28" s="21"/>
     </row>
-    <row r="29" spans="1:17" ht="14.5">
+    <row r="29" spans="1:17" ht="14.4">
       <c r="A29" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B29" s="21">
         <v>37303.554001605997</v>
@@ -18487,9 +18459,9 @@
       </c>
       <c r="Q29" s="21"/>
     </row>
-    <row r="30" spans="1:17" ht="14.5">
+    <row r="30" spans="1:17" ht="14.4">
       <c r="A30" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B30" s="21">
         <v>37327.664490287549</v>
@@ -18506,9 +18478,9 @@
       </c>
       <c r="Q30" s="21"/>
     </row>
-    <row r="31" spans="1:17" ht="14.5">
+    <row r="31" spans="1:17" ht="14.4">
       <c r="A31" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B31" s="21">
         <v>37355.159519348425</v>
@@ -18529,9 +18501,9 @@
       </c>
       <c r="Q31" s="21"/>
     </row>
-    <row r="32" spans="1:17" ht="14.5">
+    <row r="32" spans="1:17" ht="14.4">
       <c r="A32" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B32" s="21">
         <v>37389.580643927809</v>
@@ -18547,9 +18519,9 @@
       <c r="P32" s="22"/>
       <c r="Q32" s="21"/>
     </row>
-    <row r="33" spans="1:17" ht="14.5">
+    <row r="33" spans="1:17" ht="14.4">
       <c r="A33" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B33" s="21">
         <v>37427.456093224224</v>
@@ -18565,9 +18537,9 @@
       <c r="P33" s="22"/>
       <c r="Q33" s="21"/>
     </row>
-    <row r="34" spans="1:17" ht="14.5">
+    <row r="34" spans="1:17" ht="14.4">
       <c r="A34" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B34" s="21">
         <v>37451.531689736919</v>
@@ -18584,9 +18556,9 @@
       </c>
       <c r="Q34" s="21"/>
     </row>
-    <row r="35" spans="1:17" ht="14.5">
+    <row r="35" spans="1:17" ht="14.4">
       <c r="A35" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B35" s="21">
         <v>37485.970260400733</v>
@@ -18603,9 +18575,9 @@
       </c>
       <c r="Q35" s="21"/>
     </row>
-    <row r="36" spans="1:17" ht="14.5">
+    <row r="36" spans="1:17" ht="14.4">
       <c r="A36" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B36" s="21">
         <v>37513.465289461608</v>
@@ -18622,9 +18594,9 @@
       </c>
       <c r="Q36" s="21"/>
     </row>
-    <row r="37" spans="1:17" ht="14.5">
+    <row r="37" spans="1:17" ht="14.4">
       <c r="A37" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B37" s="21">
         <v>37540.960318522484</v>
@@ -18641,9 +18613,9 @@
       </c>
       <c r="Q37" s="21"/>
     </row>
-    <row r="38" spans="1:17" ht="14.5">
+    <row r="38" spans="1:17" ht="14.4">
       <c r="A38" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B38" s="21">
         <v>37568.490239752216</v>
@@ -18660,9 +18632,9 @@
       </c>
       <c r="Q38" s="21"/>
     </row>
-    <row r="39" spans="1:17" ht="14.5">
+    <row r="39" spans="1:17" ht="14.4">
       <c r="A39" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B39" s="21">
         <v>37613.187108060571</v>
@@ -18679,9 +18651,9 @@
       </c>
       <c r="Q39" s="21"/>
     </row>
-    <row r="40" spans="1:17" ht="14.5">
+    <row r="40" spans="1:17" ht="14.4">
       <c r="A40" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B40" s="21">
         <v>37633.808379856222</v>
@@ -18698,9 +18670,9 @@
       </c>
       <c r="Q40" s="21"/>
     </row>
-    <row r="41" spans="1:17" ht="14.5">
+    <row r="41" spans="1:17" ht="14.4">
       <c r="A41" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B41" s="21">
         <v>37664.757733634142</v>
@@ -18717,9 +18689,9 @@
       </c>
       <c r="Q41" s="21"/>
     </row>
-    <row r="42" spans="1:17" ht="14.5">
+    <row r="42" spans="1:17" ht="14.4">
       <c r="A42" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B42" s="21">
         <v>37688.868222315694</v>
@@ -18736,9 +18708,9 @@
       </c>
       <c r="Q42" s="21"/>
     </row>
-    <row r="43" spans="1:17" ht="14.5">
+    <row r="43" spans="1:17" ht="14.4">
       <c r="A43" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B43" s="21">
         <v>37761.095011853773</v>
@@ -18759,9 +18731,9 @@
       </c>
       <c r="Q43" s="21"/>
     </row>
-    <row r="44" spans="1:17" ht="14.5">
+    <row r="44" spans="1:17" ht="14.4">
       <c r="A44" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B44" s="21">
         <v>36383.255601866011</v>
@@ -18778,9 +18750,9 @@
       </c>
       <c r="Q44" s="21"/>
     </row>
-    <row r="45" spans="1:17" ht="14.5">
+    <row r="45" spans="1:17" ht="14.4">
       <c r="A45" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B45" s="21">
         <v>36445.590461532578</v>
@@ -18797,9 +18769,9 @@
       </c>
       <c r="Q45" s="21"/>
     </row>
-    <row r="46" spans="1:17" ht="14.5">
+    <row r="46" spans="1:17" ht="14.4">
       <c r="A46" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B46" s="21">
         <v>36504.24419738452</v>
@@ -18816,9 +18788,9 @@
       </c>
       <c r="Q46" s="21"/>
     </row>
-    <row r="47" spans="1:17" ht="14.5">
+    <row r="47" spans="1:17" ht="14.4">
       <c r="A47" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B47" s="21">
         <v>36538.717660217189</v>
@@ -18835,9 +18807,9 @@
       </c>
       <c r="Q47" s="21"/>
     </row>
-    <row r="48" spans="1:17" ht="14.5">
+    <row r="48" spans="1:17" ht="14.4">
       <c r="A48" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B48" s="21">
         <v>36566.282473615785</v>
@@ -18851,9 +18823,9 @@
       </c>
       <c r="Q48" s="21"/>
     </row>
-    <row r="49" spans="1:17" ht="14.5">
+    <row r="49" spans="1:17" ht="14.4">
       <c r="A49" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B49" s="21">
         <v>36596.987582211688</v>
@@ -18874,9 +18846,9 @@
       </c>
       <c r="Q49" s="21"/>
     </row>
-    <row r="50" spans="1:17" ht="14.5">
+    <row r="50" spans="1:17" ht="14.4">
       <c r="A50" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B50" s="21">
         <v>36600.843166870603</v>
@@ -18894,9 +18866,9 @@
       </c>
       <c r="Q50" s="21"/>
     </row>
-    <row r="51" spans="1:17" ht="14.5">
+    <row r="51" spans="1:17" ht="14.4">
       <c r="A51" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B51" s="21">
         <v>36628.442872438049</v>
@@ -18914,9 +18886,9 @@
       </c>
       <c r="Q51" s="21"/>
     </row>
-    <row r="52" spans="1:17" ht="14.5">
+    <row r="52" spans="1:17" ht="14.4">
       <c r="A52" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B52" s="21">
         <v>36663.021011777302</v>
@@ -18933,9 +18905,9 @@
       </c>
       <c r="Q52" s="21"/>
     </row>
-    <row r="53" spans="1:17" ht="14.5">
+    <row r="53" spans="1:17" ht="14.4">
       <c r="A53" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B53" s="21">
         <v>36756.060980039765</v>
@@ -18952,9 +18924,9 @@
       </c>
       <c r="Q53" s="21"/>
     </row>
-    <row r="54" spans="1:17" ht="14.5">
+    <row r="54" spans="1:17" ht="14.4">
       <c r="A54" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B54" s="21">
         <v>36811.173160752522</v>
@@ -18971,9 +18943,9 @@
       </c>
       <c r="Q54" s="21"/>
     </row>
-    <row r="55" spans="1:17" ht="14.5">
+    <row r="55" spans="1:17" ht="14.4">
       <c r="A55" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B55" s="21">
         <v>36842.227191037011</v>
@@ -18990,9 +18962,9 @@
       </c>
       <c r="Q55" s="21"/>
     </row>
-    <row r="56" spans="1:17" ht="14.5">
+    <row r="56" spans="1:17" ht="14.4">
       <c r="A56" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B56" s="21">
         <v>36869.826896604463</v>
@@ -19009,9 +18981,9 @@
       </c>
       <c r="Q56" s="21"/>
     </row>
-    <row r="57" spans="1:17" ht="14.5">
+    <row r="57" spans="1:17" ht="14.4">
       <c r="A57" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B57" s="21">
         <v>36911.104332364637</v>
@@ -19028,9 +19000,9 @@
       </c>
       <c r="Q57" s="21"/>
     </row>
-    <row r="58" spans="1:17" ht="14.5">
+    <row r="58" spans="1:17" ht="14.4">
       <c r="A58" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B58" s="21">
         <v>36935.162482792904</v>
@@ -19047,9 +19019,9 @@
       </c>
       <c r="Q58" s="21"/>
     </row>
-    <row r="59" spans="1:17" ht="14.5">
+    <row r="59" spans="1:17" ht="14.4">
       <c r="A59" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B59" s="21">
         <v>36976.405026384215</v>
@@ -19070,9 +19042,9 @@
       </c>
       <c r="Q59" s="21"/>
     </row>
-    <row r="60" spans="1:17" ht="14.5">
+    <row r="60" spans="1:17" ht="14.4">
       <c r="A60" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B60" s="21">
         <v>36993.711542138262</v>
@@ -19090,9 +19062,9 @@
       </c>
       <c r="Q60" s="21"/>
     </row>
-    <row r="61" spans="1:17" ht="14.5">
+    <row r="61" spans="1:17" ht="14.4">
       <c r="A61" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B61" s="21">
         <v>37028.045436295499</v>
@@ -19110,9 +19082,9 @@
       </c>
       <c r="Q61" s="21"/>
     </row>
-    <row r="62" spans="1:17" ht="14.5">
+    <row r="62" spans="1:17" ht="14.4">
       <c r="A62" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B62" s="21">
         <v>37354.967612419699</v>
@@ -19133,9 +19105,9 @@
       </c>
       <c r="Q62" s="21"/>
     </row>
-    <row r="63" spans="1:17" ht="14.5">
+    <row r="63" spans="1:17" ht="14.4">
       <c r="A63" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B63" s="21">
         <v>37396.349724686443</v>
@@ -19153,9 +19125,9 @@
       </c>
       <c r="Q63" s="21"/>
     </row>
-    <row r="64" spans="1:17" ht="14.5">
+    <row r="64" spans="1:17" ht="14.4">
       <c r="A64" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B64" s="21">
         <v>37423.879645916182</v>
@@ -19173,9 +19145,9 @@
       </c>
       <c r="Q64" s="21"/>
     </row>
-    <row r="65" spans="1:17" ht="14.5">
+    <row r="65" spans="1:17" ht="14.4">
       <c r="A65" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B65" s="21">
         <v>37451.427013230343</v>
@@ -19192,9 +19164,9 @@
       </c>
       <c r="Q65" s="21"/>
     </row>
-    <row r="66" spans="1:17" ht="14.5">
+    <row r="66" spans="1:17" ht="14.4">
       <c r="A66" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B66" s="21">
         <v>37489.267570357908</v>
@@ -19211,9 +19183,9 @@
       </c>
       <c r="Q66" s="21"/>
     </row>
-    <row r="67" spans="1:17" ht="14.5">
+    <row r="67" spans="1:17" ht="14.4">
       <c r="A67" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B67" s="21">
         <v>37513.30827470174</v>
@@ -19230,9 +19202,9 @@
       </c>
       <c r="Q67" s="21"/>
     </row>
-    <row r="68" spans="1:17" ht="14.5">
+    <row r="68" spans="1:17" ht="14.4">
       <c r="A68" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B68" s="21">
         <v>37544.240182395224</v>
@@ -19249,9 +19221,9 @@
       </c>
       <c r="Q68" s="21"/>
     </row>
-    <row r="69" spans="1:17" ht="14.5">
+    <row r="69" spans="1:17" ht="14.4">
       <c r="A69" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B69" s="21">
         <v>37575.241874426429</v>
@@ -19268,9 +19240,9 @@
       </c>
       <c r="Q69" s="21"/>
     </row>
-    <row r="70" spans="1:17" ht="14.5">
+    <row r="70" spans="1:17" ht="14.4">
       <c r="A70" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B70" s="21">
         <v>37606.191228204341</v>
@@ -19287,9 +19259,9 @@
       </c>
       <c r="Q70" s="21"/>
     </row>
-    <row r="71" spans="1:17" ht="14.5">
+    <row r="71" spans="1:17" ht="14.4">
       <c r="A71" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B71" s="21">
         <v>37633.721149434074</v>
@@ -19306,9 +19278,9 @@
       </c>
       <c r="Q71" s="21"/>
     </row>
-    <row r="72" spans="1:17" ht="14.5">
+    <row r="72" spans="1:17" ht="14.4">
       <c r="A72" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B72" s="21">
         <v>37668.107381844595</v>
@@ -19325,9 +19297,9 @@
       </c>
       <c r="Q72" s="21"/>
     </row>
-    <row r="73" spans="1:17" ht="14.5">
+    <row r="73" spans="1:17" ht="14.4">
       <c r="A73" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B73" s="21">
         <v>37692.165532272862</v>
@@ -19344,9 +19316,9 @@
       </c>
       <c r="Q73" s="21"/>
     </row>
-    <row r="74" spans="1:17" ht="14.5">
+    <row r="74" spans="1:17" ht="14.4">
       <c r="A74" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B74" s="21">
         <v>37770.623481633018</v>
@@ -19367,9 +19339,9 @@
       </c>
       <c r="Q74" s="21"/>
     </row>
-    <row r="75" spans="1:17" ht="14.5">
+    <row r="75" spans="1:17" ht="14.4">
       <c r="A75" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B75" s="21">
         <v>37773.589315986028</v>
@@ -19386,9 +19358,9 @@
       </c>
       <c r="Q75" s="21"/>
     </row>
-    <row r="76" spans="1:17" ht="14.5">
+    <row r="76" spans="1:17" ht="14.4">
       <c r="A76" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B76" s="21">
         <v>37773.662008004489</v>
@@ -19402,9 +19374,9 @@
       </c>
       <c r="Q76" s="21"/>
     </row>
-    <row r="77" spans="1:17" ht="14.5">
+    <row r="77" spans="1:17" ht="14.4">
       <c r="A77" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B77" s="24">
         <v>35972</v>
@@ -19421,9 +19393,9 @@
       <c r="M77" s="26"/>
       <c r="N77" s="26"/>
     </row>
-    <row r="78" spans="1:17" ht="14.5">
+    <row r="78" spans="1:17" ht="14.4">
       <c r="A78" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B78" s="24">
         <v>36050</v>
@@ -19440,9 +19412,9 @@
       <c r="M78" s="26"/>
       <c r="N78" s="26"/>
     </row>
-    <row r="79" spans="1:17" ht="14.5">
+    <row r="79" spans="1:17" ht="14.4">
       <c r="A79" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B79" s="24">
         <v>36118</v>
@@ -19458,9 +19430,9 @@
       <c r="M79" s="26"/>
       <c r="N79" s="26"/>
     </row>
-    <row r="80" spans="1:17" ht="14.5">
+    <row r="80" spans="1:17" ht="14.4">
       <c r="A80" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B80" s="24">
         <v>36195</v>
@@ -19476,9 +19448,9 @@
       <c r="M80" s="26"/>
       <c r="N80" s="26"/>
     </row>
-    <row r="81" spans="1:16" ht="14.5">
+    <row r="81" spans="1:16" ht="14.4">
       <c r="A81" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B81" s="24">
         <v>36229</v>
@@ -19494,9 +19466,9 @@
       <c r="M81" s="26"/>
       <c r="N81" s="26"/>
     </row>
-    <row r="82" spans="1:16" ht="14.5">
+    <row r="82" spans="1:16" ht="14.4">
       <c r="A82" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B82" s="24">
         <v>36263</v>
@@ -19512,9 +19484,9 @@
       <c r="M82" s="26"/>
       <c r="N82" s="26"/>
     </row>
-    <row r="83" spans="1:16" ht="14.5">
+    <row r="83" spans="1:16" ht="14.4">
       <c r="A83" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B83" s="24">
         <v>36279</v>
@@ -19533,9 +19505,9 @@
       <c r="N83" s="26"/>
       <c r="O83" s="27"/>
     </row>
-    <row r="84" spans="1:16" ht="14.5">
+    <row r="84" spans="1:16" ht="14.4">
       <c r="A84" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B84" s="24">
         <v>36297</v>
@@ -19551,9 +19523,9 @@
       <c r="M84" s="26"/>
       <c r="N84" s="26"/>
     </row>
-    <row r="85" spans="1:16" ht="14.5">
+    <row r="85" spans="1:16" ht="14.4">
       <c r="A85" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B85" s="24">
         <v>36341</v>
@@ -19569,9 +19541,9 @@
       <c r="M85" s="26"/>
       <c r="N85" s="26"/>
     </row>
-    <row r="86" spans="1:16" ht="14.5">
+    <row r="86" spans="1:16" ht="14.4">
       <c r="A86" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B86" s="24">
         <v>36375</v>
@@ -19587,9 +19559,9 @@
       <c r="M86" s="26"/>
       <c r="N86" s="26"/>
     </row>
-    <row r="87" spans="1:16" ht="14.5">
+    <row r="87" spans="1:16" ht="14.4">
       <c r="A87" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B87" s="24">
         <v>36409</v>
@@ -19605,9 +19577,9 @@
       <c r="M87" s="26"/>
       <c r="N87" s="26"/>
     </row>
-    <row r="88" spans="1:16" ht="14.5">
+    <row r="88" spans="1:16" ht="14.4">
       <c r="A88" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B88" s="24">
         <v>36443</v>
@@ -19623,9 +19595,9 @@
       <c r="M88" s="26"/>
       <c r="N88" s="26"/>
     </row>
-    <row r="89" spans="1:16" ht="14.5">
+    <row r="89" spans="1:16" ht="14.4">
       <c r="A89" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B89" s="24">
         <v>36484</v>
@@ -19641,9 +19613,9 @@
       <c r="M89" s="26"/>
       <c r="N89" s="26"/>
     </row>
-    <row r="90" spans="1:16" ht="14.5">
+    <row r="90" spans="1:16" ht="14.4">
       <c r="A90" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B90" s="24">
         <v>36520</v>
@@ -19659,9 +19631,9 @@
       <c r="M90" s="26"/>
       <c r="N90" s="26"/>
     </row>
-    <row r="91" spans="1:16" ht="14.5">
+    <row r="91" spans="1:16" ht="14.4">
       <c r="A91" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B91" s="24">
         <v>36555</v>
@@ -19677,9 +19649,9 @@
       <c r="M91" s="26"/>
       <c r="N91" s="26"/>
     </row>
-    <row r="92" spans="1:16" ht="14.5">
+    <row r="92" spans="1:16" ht="14.4">
       <c r="A92" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B92" s="24">
         <v>36589</v>
@@ -19695,9 +19667,9 @@
       <c r="M92" s="26"/>
       <c r="N92" s="26"/>
     </row>
-    <row r="93" spans="1:16" ht="14.5">
+    <row r="93" spans="1:16" ht="14.4">
       <c r="A93" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B93" s="24">
         <v>36629</v>
@@ -19713,9 +19685,9 @@
       <c r="M93" s="26"/>
       <c r="N93" s="26"/>
     </row>
-    <row r="94" spans="1:16" ht="14.5">
+    <row r="94" spans="1:16" ht="14.4">
       <c r="A94" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B94" s="24">
         <v>36643</v>
@@ -19733,9 +19705,9 @@
       <c r="O94" s="27"/>
       <c r="P94" s="27"/>
     </row>
-    <row r="95" spans="1:16" ht="14.5">
+    <row r="95" spans="1:16" ht="14.4">
       <c r="A95" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B95" s="24">
         <v>36653</v>
@@ -19755,9 +19727,9 @@
       <c r="O95" s="27"/>
       <c r="P95" s="27"/>
     </row>
-    <row r="96" spans="1:16" ht="14.5">
+    <row r="96" spans="1:16" ht="14.4">
       <c r="A96" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B96" s="24">
         <v>36653</v>
@@ -19775,9 +19747,9 @@
       <c r="O96" s="27"/>
       <c r="P96" s="27"/>
     </row>
-    <row r="97" spans="1:16" ht="14.5">
+    <row r="97" spans="1:16" ht="14.4">
       <c r="A97" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B97" s="24">
         <v>36664</v>
@@ -19793,9 +19765,9 @@
       <c r="M97" s="26"/>
       <c r="N97" s="26"/>
     </row>
-    <row r="98" spans="1:16" ht="14.5">
+    <row r="98" spans="1:16" ht="14.4">
       <c r="A98" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B98" s="24">
         <v>36705</v>
@@ -19811,9 +19783,9 @@
       <c r="M98" s="26"/>
       <c r="N98" s="26"/>
     </row>
-    <row r="99" spans="1:16" ht="14.5">
+    <row r="99" spans="1:16" ht="14.4">
       <c r="A99" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B99" s="24">
         <v>36776</v>
@@ -19829,9 +19801,9 @@
       <c r="M99" s="26"/>
       <c r="N99" s="26"/>
     </row>
-    <row r="100" spans="1:16" ht="14.5">
+    <row r="100" spans="1:16" ht="14.4">
       <c r="A100" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B100" s="24">
         <v>36814</v>
@@ -19847,9 +19819,9 @@
       <c r="M100" s="26"/>
       <c r="N100" s="26"/>
     </row>
-    <row r="101" spans="1:16" ht="14.5">
+    <row r="101" spans="1:16" ht="14.4">
       <c r="A101" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B101" s="24">
         <v>36844</v>
@@ -19865,9 +19837,9 @@
       <c r="M101" s="26"/>
       <c r="N101" s="26"/>
     </row>
-    <row r="102" spans="1:16" ht="14.5">
+    <row r="102" spans="1:16" ht="14.4">
       <c r="A102" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B102" s="24">
         <v>36888</v>
@@ -19883,9 +19855,9 @@
       <c r="M102" s="26"/>
       <c r="N102" s="26"/>
     </row>
-    <row r="103" spans="1:16" ht="14.5">
+    <row r="103" spans="1:16" ht="14.4">
       <c r="A103" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B103" s="24">
         <v>36922</v>
@@ -19901,9 +19873,9 @@
       <c r="M103" s="26"/>
       <c r="N103" s="26"/>
     </row>
-    <row r="104" spans="1:16" ht="14.5">
+    <row r="104" spans="1:16" ht="14.4">
       <c r="A104" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B104" s="24">
         <v>36956</v>
@@ -19919,9 +19891,9 @@
       <c r="M104" s="26"/>
       <c r="N104" s="26"/>
     </row>
-    <row r="105" spans="1:16" ht="14.5">
+    <row r="105" spans="1:16" ht="14.4">
       <c r="A105" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B105" s="24">
         <v>36990</v>
@@ -19937,9 +19909,9 @@
       <c r="M105" s="26"/>
       <c r="N105" s="26"/>
     </row>
-    <row r="106" spans="1:16" ht="14.5">
+    <row r="106" spans="1:16" ht="14.4">
       <c r="A106" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B106" s="24">
         <v>37031</v>
@@ -19955,9 +19927,9 @@
       <c r="M106" s="26"/>
       <c r="N106" s="26"/>
     </row>
-    <row r="107" spans="1:16" ht="14.5">
+    <row r="107" spans="1:16" ht="14.4">
       <c r="A107" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B107" s="24">
         <v>37038</v>
@@ -19977,9 +19949,9 @@
       <c r="O107" s="27"/>
       <c r="P107" s="27"/>
     </row>
-    <row r="108" spans="1:16" ht="14.5">
+    <row r="108" spans="1:16" ht="14.4">
       <c r="A108" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B108" s="24">
         <v>37041</v>
@@ -19997,9 +19969,9 @@
       <c r="O108" s="27"/>
       <c r="P108" s="27"/>
     </row>
-    <row r="109" spans="1:16" ht="14.5">
+    <row r="109" spans="1:16" ht="14.4">
       <c r="A109" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B109" s="24">
         <v>37041</v>
@@ -20017,9 +19989,9 @@
       <c r="O109" s="27"/>
       <c r="P109" s="27"/>
     </row>
-    <row r="110" spans="1:16" ht="14.5">
+    <row r="110" spans="1:16" ht="14.4">
       <c r="A110" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B110" s="24">
         <v>37069</v>
@@ -20035,9 +20007,9 @@
       <c r="M110" s="26"/>
       <c r="N110" s="26"/>
     </row>
-    <row r="111" spans="1:16" ht="14.5">
+    <row r="111" spans="1:16" ht="14.4">
       <c r="A111" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B111" s="24">
         <v>37099</v>
@@ -20053,9 +20025,9 @@
       <c r="M111" s="26"/>
       <c r="N111" s="26"/>
     </row>
-    <row r="112" spans="1:16" ht="14.5">
+    <row r="112" spans="1:16" ht="14.4">
       <c r="A112" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B112" s="24">
         <v>37137</v>
@@ -20071,9 +20043,9 @@
       <c r="M112" s="26"/>
       <c r="N112" s="26"/>
     </row>
-    <row r="113" spans="1:16" ht="14.5">
+    <row r="113" spans="1:16" ht="14.4">
       <c r="A113" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B113" s="24">
         <v>37181</v>
@@ -20089,9 +20061,9 @@
       <c r="M113" s="26"/>
       <c r="N113" s="26"/>
     </row>
-    <row r="114" spans="1:16" ht="14.5">
+    <row r="114" spans="1:16" ht="14.4">
       <c r="A114" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B114" s="24">
         <v>37215</v>
@@ -20107,9 +20079,9 @@
       <c r="M114" s="26"/>
       <c r="N114" s="26"/>
     </row>
-    <row r="115" spans="1:16" ht="14.5">
+    <row r="115" spans="1:16" ht="14.4">
       <c r="A115" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B115" s="24">
         <v>37439</v>
@@ -20129,9 +20101,9 @@
       <c r="O115" s="27"/>
       <c r="P115" s="27"/>
     </row>
-    <row r="116" spans="1:16" ht="14.5">
+    <row r="116" spans="1:16" ht="14.4">
       <c r="A116" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B116" s="24">
         <v>37439</v>
@@ -20149,9 +20121,9 @@
       <c r="O116" s="27"/>
       <c r="P116" s="27"/>
     </row>
-    <row r="117" spans="1:16" ht="14.5">
+    <row r="117" spans="1:16" ht="14.4">
       <c r="A117" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B117" s="24">
         <v>37442</v>
@@ -20169,9 +20141,9 @@
       <c r="O117" s="27"/>
       <c r="P117" s="27"/>
     </row>
-    <row r="118" spans="1:16" ht="14.5">
+    <row r="118" spans="1:16" ht="14.4">
       <c r="A118" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B118" s="24">
         <v>35973</v>
@@ -20187,9 +20159,9 @@
       <c r="M118" s="26"/>
       <c r="N118" s="26"/>
     </row>
-    <row r="119" spans="1:16" ht="14.5">
+    <row r="119" spans="1:16" ht="14.4">
       <c r="A119" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B119" s="24">
         <v>36051</v>
@@ -20205,9 +20177,9 @@
       <c r="M119" s="26"/>
       <c r="N119" s="26"/>
     </row>
-    <row r="120" spans="1:16" ht="14.5">
+    <row r="120" spans="1:16" ht="14.4">
       <c r="A120" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B120" s="24">
         <v>36116</v>
@@ -20223,9 +20195,9 @@
       <c r="M120" s="26"/>
       <c r="N120" s="26"/>
     </row>
-    <row r="121" spans="1:16" ht="14.5">
+    <row r="121" spans="1:16" ht="14.4">
       <c r="A121" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B121" s="24">
         <v>36194</v>
@@ -20241,9 +20213,9 @@
       <c r="M121" s="26"/>
       <c r="N121" s="26"/>
     </row>
-    <row r="122" spans="1:16" ht="14.5">
+    <row r="122" spans="1:16" ht="14.4">
       <c r="A122" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B122" s="24">
         <v>36229</v>
@@ -20259,9 +20231,9 @@
       <c r="M122" s="26"/>
       <c r="N122" s="26"/>
     </row>
-    <row r="123" spans="1:16" ht="14.5">
+    <row r="123" spans="1:16" ht="14.4">
       <c r="A123" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B123" s="24">
         <v>36263</v>
@@ -20277,9 +20249,9 @@
       <c r="M123" s="26"/>
       <c r="N123" s="26"/>
     </row>
-    <row r="124" spans="1:16" ht="14.5">
+    <row r="124" spans="1:16" ht="14.4">
       <c r="A124" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B124" s="24">
         <v>36279</v>
@@ -20299,9 +20271,9 @@
       <c r="O124" s="27"/>
       <c r="P124" s="27"/>
     </row>
-    <row r="125" spans="1:16" ht="14.5">
+    <row r="125" spans="1:16" ht="14.4">
       <c r="A125" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B125" s="24">
         <v>36289</v>
@@ -20319,9 +20291,9 @@
       <c r="O125" s="27"/>
       <c r="P125" s="27"/>
     </row>
-    <row r="126" spans="1:16" ht="14.5">
+    <row r="126" spans="1:16" ht="14.4">
       <c r="A126" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B126" s="24">
         <v>36289</v>
@@ -20339,9 +20311,9 @@
       <c r="O126" s="27"/>
       <c r="P126" s="27"/>
     </row>
-    <row r="127" spans="1:16" ht="14.5">
+    <row r="127" spans="1:16" ht="14.4">
       <c r="A127" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B127" s="24">
         <v>36297</v>
@@ -20357,9 +20329,9 @@
       <c r="M127" s="26"/>
       <c r="N127" s="26"/>
     </row>
-    <row r="128" spans="1:16" ht="14.5">
+    <row r="128" spans="1:16" ht="14.4">
       <c r="A128" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B128" s="24">
         <v>36338</v>
@@ -20375,9 +20347,9 @@
       <c r="M128" s="26"/>
       <c r="N128" s="26"/>
     </row>
-    <row r="129" spans="1:16" ht="14.5">
+    <row r="129" spans="1:16" ht="14.4">
       <c r="A129" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B129" s="24">
         <v>36375</v>
@@ -20393,9 +20365,9 @@
       <c r="M129" s="26"/>
       <c r="N129" s="26"/>
     </row>
-    <row r="130" spans="1:16" ht="14.5">
+    <row r="130" spans="1:16" ht="14.4">
       <c r="A130" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B130" s="24">
         <v>36409</v>
@@ -20411,9 +20383,9 @@
       <c r="M130" s="26"/>
       <c r="N130" s="26"/>
     </row>
-    <row r="131" spans="1:16" ht="14.5">
+    <row r="131" spans="1:16" ht="14.4">
       <c r="A131" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B131" s="24">
         <v>36446</v>
@@ -20429,9 +20401,9 @@
       <c r="M131" s="26"/>
       <c r="N131" s="26"/>
     </row>
-    <row r="132" spans="1:16" ht="14.5">
+    <row r="132" spans="1:16" ht="14.4">
       <c r="A132" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B132" s="24">
         <v>36487</v>
@@ -20447,9 +20419,9 @@
       <c r="M132" s="26"/>
       <c r="N132" s="26"/>
     </row>
-    <row r="133" spans="1:16" ht="14.5">
+    <row r="133" spans="1:16" ht="14.4">
       <c r="A133" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B133" s="24">
         <v>36522</v>
@@ -20465,9 +20437,9 @@
       <c r="M133" s="26"/>
       <c r="N133" s="26"/>
     </row>
-    <row r="134" spans="1:16" ht="14.5">
+    <row r="134" spans="1:16" ht="14.4">
       <c r="A134" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B134" s="24">
         <v>36552</v>
@@ -20483,9 +20455,9 @@
       <c r="M134" s="26"/>
       <c r="N134" s="26"/>
     </row>
-    <row r="135" spans="1:16" ht="14.5">
+    <row r="135" spans="1:16" ht="14.4">
       <c r="A135" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B135" s="24">
         <v>36590</v>
@@ -20501,9 +20473,9 @@
       <c r="M135" s="26"/>
       <c r="N135" s="26"/>
     </row>
-    <row r="136" spans="1:16" ht="14.5">
+    <row r="136" spans="1:16" ht="14.4">
       <c r="A136" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B136" s="24">
         <v>36631</v>
@@ -20519,9 +20491,9 @@
       <c r="M136" s="26"/>
       <c r="N136" s="26"/>
     </row>
-    <row r="137" spans="1:16" ht="14.5">
+    <row r="137" spans="1:16" ht="14.4">
       <c r="A137" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B137" s="24">
         <v>36646</v>
@@ -20539,9 +20511,9 @@
       <c r="O137" s="27"/>
       <c r="P137" s="27"/>
     </row>
-    <row r="138" spans="1:16" ht="14.5">
+    <row r="138" spans="1:16" ht="14.4">
       <c r="A138" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B138" s="24">
         <v>36650</v>
@@ -20561,9 +20533,9 @@
       <c r="O138" s="27"/>
       <c r="P138" s="27"/>
     </row>
-    <row r="139" spans="1:16" ht="14.5">
+    <row r="139" spans="1:16" ht="14.4">
       <c r="A139" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B139" s="24">
         <v>36653</v>
@@ -20581,9 +20553,9 @@
       <c r="O139" s="27"/>
       <c r="P139" s="27"/>
     </row>
-    <row r="140" spans="1:16" ht="14.5">
+    <row r="140" spans="1:16" ht="14.4">
       <c r="A140" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B140" s="24">
         <v>36668</v>
@@ -20599,9 +20571,9 @@
       <c r="M140" s="26"/>
       <c r="N140" s="26"/>
     </row>
-    <row r="141" spans="1:16" ht="14.5">
+    <row r="141" spans="1:16" ht="14.4">
       <c r="A141" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B141" s="24">
         <v>36701</v>
@@ -20617,9 +20589,9 @@
       <c r="M141" s="26"/>
       <c r="N141" s="26"/>
     </row>
-    <row r="142" spans="1:16" ht="14.5">
+    <row r="142" spans="1:16" ht="14.4">
       <c r="A142" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B142" s="24">
         <v>36776</v>
@@ -20635,9 +20607,9 @@
       <c r="M142" s="26"/>
       <c r="N142" s="26"/>
     </row>
-    <row r="143" spans="1:16" ht="14.5">
+    <row r="143" spans="1:16" ht="14.4">
       <c r="A143" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B143" s="24">
         <v>36810</v>
@@ -20653,9 +20625,9 @@
       <c r="M143" s="26"/>
       <c r="N143" s="26"/>
     </row>
-    <row r="144" spans="1:16" ht="14.5">
+    <row r="144" spans="1:16" ht="14.4">
       <c r="A144" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B144" s="24">
         <v>36848</v>
@@ -20671,9 +20643,9 @@
       <c r="M144" s="26"/>
       <c r="N144" s="26"/>
     </row>
-    <row r="145" spans="1:16" ht="14.5">
+    <row r="145" spans="1:16" ht="14.4">
       <c r="A145" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B145" s="24">
         <v>36889</v>
@@ -20689,9 +20661,9 @@
       <c r="M145" s="26"/>
       <c r="N145" s="26"/>
     </row>
-    <row r="146" spans="1:16" ht="14.5">
+    <row r="146" spans="1:16" ht="14.4">
       <c r="A146" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B146" s="24">
         <v>36919</v>
@@ -20707,9 +20679,9 @@
       <c r="M146" s="26"/>
       <c r="N146" s="26"/>
     </row>
-    <row r="147" spans="1:16" ht="14.5">
+    <row r="147" spans="1:16" ht="14.4">
       <c r="A147" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B147" s="24">
         <v>36956</v>
@@ -20725,9 +20697,9 @@
       <c r="M147" s="26"/>
       <c r="N147" s="26"/>
     </row>
-    <row r="148" spans="1:16" ht="14.5">
+    <row r="148" spans="1:16" ht="14.4">
       <c r="A148" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B148" s="24">
         <v>36993</v>
@@ -20743,9 +20715,9 @@
       <c r="M148" s="26"/>
       <c r="N148" s="26"/>
     </row>
-    <row r="149" spans="1:16" ht="14.5">
+    <row r="149" spans="1:16" ht="14.4">
       <c r="A149" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B149" s="24">
         <v>37034</v>
@@ -20761,9 +20733,9 @@
       <c r="M149" s="26"/>
       <c r="N149" s="26"/>
     </row>
-    <row r="150" spans="1:16" ht="14.5">
+    <row r="150" spans="1:16" ht="14.4">
       <c r="A150" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B150" s="24">
         <v>37041</v>
@@ -20781,9 +20753,9 @@
       <c r="O150" s="27"/>
       <c r="P150" s="27"/>
     </row>
-    <row r="151" spans="1:16" ht="14.5">
+    <row r="151" spans="1:16" ht="14.4">
       <c r="A151" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B151" s="24">
         <v>37044</v>
@@ -20801,9 +20773,9 @@
       <c r="O151" s="27"/>
       <c r="P151" s="27"/>
     </row>
-    <row r="152" spans="1:16" ht="14.5">
+    <row r="152" spans="1:16" ht="14.4">
       <c r="A152" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B152" s="24">
         <v>37048</v>
@@ -20823,9 +20795,9 @@
       <c r="O152" s="27"/>
       <c r="P152" s="27"/>
     </row>
-    <row r="153" spans="1:16" ht="14.5">
+    <row r="153" spans="1:16" ht="14.4">
       <c r="A153" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B153" s="24">
         <v>37068</v>
@@ -20841,9 +20813,9 @@
       <c r="M153" s="26"/>
       <c r="N153" s="26"/>
     </row>
-    <row r="154" spans="1:16" ht="14.5">
+    <row r="154" spans="1:16" ht="14.4">
       <c r="A154" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B154" s="24">
         <v>37105</v>
@@ -20859,9 +20831,9 @@
       <c r="M154" s="26"/>
       <c r="N154" s="26"/>
     </row>
-    <row r="155" spans="1:16" ht="14.5">
+    <row r="155" spans="1:16" ht="14.4">
       <c r="A155" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B155" s="24">
         <v>37139</v>
@@ -20877,9 +20849,9 @@
       <c r="M155" s="26"/>
       <c r="N155" s="26"/>
     </row>
-    <row r="156" spans="1:16" ht="14.5">
+    <row r="156" spans="1:16" ht="14.4">
       <c r="A156" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B156" s="24">
         <v>37180</v>
@@ -20895,9 +20867,9 @@
       <c r="M156" s="26"/>
       <c r="N156" s="26"/>
     </row>
-    <row r="157" spans="1:16" ht="14.5">
+    <row r="157" spans="1:16" ht="14.4">
       <c r="A157" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B157" s="24">
         <v>37218</v>
@@ -20913,9 +20885,9 @@
       <c r="M157" s="26"/>
       <c r="N157" s="26"/>
     </row>
-    <row r="158" spans="1:16" ht="14.5">
+    <row r="158" spans="1:16" ht="14.4">
       <c r="A158" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B158" s="24">
         <v>37449</v>
@@ -20935,9 +20907,9 @@
       <c r="O158" s="27"/>
       <c r="P158" s="27"/>
     </row>
-    <row r="159" spans="1:16" ht="14.5">
+    <row r="159" spans="1:16" ht="14.4">
       <c r="A159" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B159" s="24">
         <v>37449</v>
@@ -20954,9 +20926,9 @@
       <c r="O159" s="27"/>
       <c r="P159" s="27"/>
     </row>
-    <row r="160" spans="1:16" ht="14.5">
+    <row r="160" spans="1:16" ht="14.4">
       <c r="A160" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B160" s="24">
         <v>37452</v>
@@ -20972,7 +20944,7 @@
       <c r="O160" s="27"/>
       <c r="P160" s="27"/>
     </row>
-    <row r="161" spans="1:16" ht="14.5">
+    <row r="161" spans="1:16" ht="14.4">
       <c r="A161" s="20" t="s">
         <v>59</v>
       </c>
@@ -21009,7 +20981,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="14.5">
+    <row r="162" spans="1:16" ht="14.4">
       <c r="A162" s="20" t="s">
         <v>59</v>
       </c>
@@ -21046,7 +21018,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="14.5">
+    <row r="163" spans="1:16" ht="14.4">
       <c r="A163" s="20" t="s">
         <v>59</v>
       </c>
@@ -21083,7 +21055,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="14.5">
+    <row r="164" spans="1:16" ht="14.4">
       <c r="A164" s="20" t="s">
         <v>59</v>
       </c>
@@ -21120,7 +21092,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="14.5">
+    <row r="165" spans="1:16" ht="14.4">
       <c r="A165" s="20" t="s">
         <v>59</v>
       </c>
@@ -21157,7 +21129,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="14.5">
+    <row r="166" spans="1:16" ht="14.4">
       <c r="A166" s="20" t="s">
         <v>59</v>
       </c>
@@ -21194,7 +21166,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="14.5">
+    <row r="167" spans="1:16" ht="14.4">
       <c r="A167" s="20" t="s">
         <v>59</v>
       </c>
@@ -21231,7 +21203,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="14.5">
+    <row r="168" spans="1:16" ht="14.4">
       <c r="A168" s="20" t="s">
         <v>59</v>
       </c>
@@ -21268,7 +21240,7 @@
         <v>1777.5</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="14.5">
+    <row r="169" spans="1:16" ht="14.4">
       <c r="A169" s="20" t="s">
         <v>59</v>
       </c>
@@ -21305,7 +21277,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="14.5">
+    <row r="170" spans="1:16" ht="14.4">
       <c r="A170" s="20" t="s">
         <v>59</v>
       </c>
@@ -21318,7 +21290,7 @@
       </c>
       <c r="D170" s="22"/>
     </row>
-    <row r="171" spans="1:16" ht="14.5">
+    <row r="171" spans="1:16" ht="14.4">
       <c r="A171" s="20" t="s">
         <v>59</v>
       </c>
@@ -21355,7 +21327,7 @@
         <v>2083.5</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="14.5">
+    <row r="172" spans="1:16" ht="14.4">
       <c r="A172" s="20" t="s">
         <v>59</v>
       </c>
@@ -21392,9 +21364,9 @@
         <v>2207.5</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="15.5">
+    <row r="173" spans="1:16" ht="15.6">
       <c r="A173" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B173" s="24">
         <v>37266</v>
@@ -21431,9 +21403,9 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="14.5">
+    <row r="174" spans="1:16" ht="14.4">
       <c r="A174" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B174" s="24">
         <v>37266</v>
@@ -21469,9 +21441,9 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="14.5">
+    <row r="175" spans="1:16" ht="14.4">
       <c r="A175" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B175" s="24">
         <v>37266</v>
@@ -21503,9 +21475,9 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="14.5">
+    <row r="176" spans="1:16" ht="14.4">
       <c r="A176" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B176" s="24">
         <v>37266</v>
@@ -21537,9 +21509,9 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="14.5">
+    <row r="177" spans="1:16" ht="14.4">
       <c r="A177" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B177" s="31">
         <v>37482.550000000003</v>
@@ -21554,9 +21526,9 @@
       <c r="O177" s="30"/>
       <c r="P177" s="30"/>
     </row>
-    <row r="178" spans="1:16" ht="14.5">
+    <row r="178" spans="1:16" ht="14.4">
       <c r="A178" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B178" s="31">
         <v>37482.550000000003</v>
@@ -21571,9 +21543,9 @@
       <c r="O178" s="30"/>
       <c r="P178" s="30"/>
     </row>
-    <row r="179" spans="1:16" ht="14.5">
+    <row r="179" spans="1:16" ht="14.4">
       <c r="A179" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B179" s="24">
         <v>37722</v>
@@ -21605,9 +21577,9 @@
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="14.5">
+    <row r="180" spans="1:16" ht="14.4">
       <c r="A180" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B180" s="24">
         <v>37722</v>
@@ -21639,9 +21611,9 @@
         <v>7.88</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="14.5">
+    <row r="181" spans="1:16" ht="14.4">
       <c r="A181" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B181" s="24">
         <v>37722</v>
@@ -21673,9 +21645,9 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="14.5">
+    <row r="182" spans="1:16" ht="14.4">
       <c r="A182" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B182" s="24">
         <v>37722</v>
@@ -21707,9 +21679,9 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="14.5">
+    <row r="183" spans="1:16" ht="14.4">
       <c r="A183" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B183" s="32">
         <v>37854.85</v>
@@ -21724,9 +21696,9 @@
       <c r="O183" s="30"/>
       <c r="P183" s="30"/>
     </row>
-    <row r="184" spans="1:16" ht="14.5">
+    <row r="184" spans="1:16" ht="14.4">
       <c r="A184" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B184" s="32">
         <v>37854.85</v>
@@ -21741,9 +21713,9 @@
       <c r="O184" s="30"/>
       <c r="P184" s="30"/>
     </row>
-    <row r="185" spans="1:16" ht="14.5">
+    <row r="185" spans="1:16" ht="14.4">
       <c r="A185" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B185" s="24">
         <v>37905</v>
@@ -21775,9 +21747,9 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="14.5">
+    <row r="186" spans="1:16" ht="14.4">
       <c r="A186" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B186" s="24">
         <v>37905</v>
@@ -21809,9 +21781,9 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="14.5">
+    <row r="187" spans="1:16" ht="14.4">
       <c r="A187" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B187" s="24">
         <v>37905</v>
@@ -21843,9 +21815,9 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="14.5">
+    <row r="188" spans="1:16" ht="14.4">
       <c r="A188" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B188" s="24">
         <v>37905</v>
@@ -21877,9 +21849,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="14.5">
+    <row r="189" spans="1:16" ht="14.4">
       <c r="A189" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B189" s="24">
         <v>38270</v>
@@ -21911,9 +21883,9 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="14.5">
+    <row r="190" spans="1:16" ht="14.4">
       <c r="A190" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B190" s="24">
         <v>38270</v>
@@ -21949,9 +21921,9 @@
         <v>20.149999999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="14.5">
+    <row r="191" spans="1:16" ht="14.4">
       <c r="A191" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B191" s="24">
         <v>38270</v>
@@ -21987,9 +21959,9 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="14.5">
+    <row r="192" spans="1:16" ht="14.4">
       <c r="A192" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B192" s="24">
         <v>38270</v>
@@ -22021,9 +21993,9 @@
         <v>20.22</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="14.5">
+    <row r="193" spans="1:16" ht="14.4">
       <c r="A193" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B193" s="24">
         <v>39000</v>
@@ -22055,9 +22027,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="14.5">
+    <row r="194" spans="1:16" ht="14.4">
       <c r="A194" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B194" s="24">
         <v>39000</v>
@@ -22091,9 +22063,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="14.5">
+    <row r="195" spans="1:16" ht="14.4">
       <c r="A195" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B195" s="24">
         <v>39000</v>
@@ -22127,9 +22099,9 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="14.5">
+    <row r="196" spans="1:16" ht="14.4">
       <c r="A196" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B196" s="24">
         <v>39000</v>
@@ -22163,9 +22135,9 @@
         <v>28.25</v>
       </c>
     </row>
-    <row r="197" spans="1:16" ht="14.5">
+    <row r="197" spans="1:16" ht="14.4">
       <c r="A197" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B197" s="32">
         <v>39187.1</v>
@@ -22184,9 +22156,9 @@
       <c r="O197" s="30"/>
       <c r="P197" s="30"/>
     </row>
-    <row r="198" spans="1:16" ht="14.5">
+    <row r="198" spans="1:16" ht="14.4">
       <c r="A198" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B198" s="32">
         <v>39187.1</v>
@@ -22205,9 +22177,9 @@
       <c r="O198" s="30"/>
       <c r="P198" s="30"/>
     </row>
-    <row r="199" spans="1:16" ht="14.5">
+    <row r="199" spans="1:16" ht="14.4">
       <c r="A199" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B199" s="24">
         <v>39485</v>
@@ -22239,9 +22211,9 @@
         <v>30.72</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="14.5">
+    <row r="200" spans="1:16" ht="14.4">
       <c r="A200" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B200" s="24">
         <v>39485</v>
@@ -22273,9 +22245,9 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="14.5">
+    <row r="201" spans="1:16" ht="14.4">
       <c r="A201" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B201" s="24">
         <v>39485</v>
@@ -22309,9 +22281,9 @@
         <v>30.57</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="14.5">
+    <row r="202" spans="1:16" ht="14.4">
       <c r="A202" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B202" s="24">
         <v>39485</v>
@@ -22345,9 +22317,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="15.5">
+    <row r="203" spans="1:16" ht="15.6">
       <c r="A203" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B203" s="24">
         <v>37722</v>
@@ -22384,9 +22356,9 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="14.5">
+    <row r="204" spans="1:16" ht="14.4">
       <c r="A204" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B204" s="24">
         <v>37722</v>
@@ -22422,9 +22394,9 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="14.5">
+    <row r="205" spans="1:16" ht="14.4">
       <c r="A205" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B205" s="24">
         <v>37722</v>
@@ -22456,9 +22428,9 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="14.5">
+    <row r="206" spans="1:16" ht="14.4">
       <c r="A206" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B206" s="32">
         <v>37939.550000000003</v>
@@ -22473,9 +22445,9 @@
       <c r="O206" s="30"/>
       <c r="P206" s="30"/>
     </row>
-    <row r="207" spans="1:16" ht="14.5">
+    <row r="207" spans="1:16" ht="14.4">
       <c r="A207" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B207" s="32">
         <v>37939.550000000003</v>
@@ -22490,9 +22462,9 @@
       <c r="O207" s="30"/>
       <c r="P207" s="30"/>
     </row>
-    <row r="208" spans="1:16" ht="14.5">
+    <row r="208" spans="1:16" ht="14.4">
       <c r="A208" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B208" s="24">
         <v>37722</v>
@@ -22524,9 +22496,9 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="14.5">
+    <row r="209" spans="1:16" ht="14.4">
       <c r="A209" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B209" s="24">
         <v>38178</v>
@@ -22559,9 +22531,9 @@
         <v>7.82</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="14.5">
+    <row r="210" spans="1:16" ht="14.4">
       <c r="A210" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B210" s="24">
         <v>38178</v>
@@ -22594,9 +22566,9 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="14.5">
+    <row r="211" spans="1:16" ht="14.4">
       <c r="A211" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B211" s="24">
         <v>38178</v>
@@ -22628,9 +22600,9 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="14.5">
+    <row r="212" spans="1:16" ht="14.4">
       <c r="A212" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B212" s="24">
         <v>38178</v>
@@ -22662,9 +22634,9 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="14.5">
+    <row r="213" spans="1:16" ht="14.4">
       <c r="A213" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B213" s="32">
         <v>38315.5</v>
@@ -22679,9 +22651,9 @@
       <c r="O213" s="30"/>
       <c r="P213" s="30"/>
     </row>
-    <row r="214" spans="1:16" ht="14.5">
+    <row r="214" spans="1:16" ht="14.4">
       <c r="A214" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B214" s="32">
         <v>38315.5</v>
@@ -22696,9 +22668,9 @@
       <c r="O214" s="30"/>
       <c r="P214" s="30"/>
     </row>
-    <row r="215" spans="1:16" ht="14.5">
+    <row r="215" spans="1:16" ht="14.4">
       <c r="A215" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B215" s="24">
         <v>38423</v>
@@ -22730,9 +22702,9 @@
         <v>14.25</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="14.5">
+    <row r="216" spans="1:16" ht="14.4">
       <c r="A216" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B216" s="24">
         <v>38423</v>
@@ -22764,9 +22736,9 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="14.5">
+    <row r="217" spans="1:16" ht="14.4">
       <c r="A217" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B217" s="24">
         <v>38423</v>
@@ -22798,9 +22770,9 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="14.5">
+    <row r="218" spans="1:16" ht="14.4">
       <c r="A218" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B218" s="24">
         <v>38423</v>
@@ -22832,9 +22804,9 @@
         <v>13.68</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="14.5">
+    <row r="219" spans="1:16" ht="14.4">
       <c r="A219" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B219" s="24">
         <v>38726</v>
@@ -22870,9 +22842,9 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="14.5">
+    <row r="220" spans="1:16" ht="14.4">
       <c r="A220" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B220" s="24">
         <v>38726</v>
@@ -22908,9 +22880,9 @@
         <v>16.649999999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="14.5">
+    <row r="221" spans="1:16" ht="14.4">
       <c r="A221" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B221" s="24">
         <v>38726</v>
@@ -22942,9 +22914,9 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="14.5">
+    <row r="222" spans="1:16" ht="14.4">
       <c r="A222" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B222" s="24">
         <v>38726</v>
@@ -22976,9 +22948,9 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="14.5">
+    <row r="223" spans="1:16" ht="14.4">
       <c r="A223" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B223" s="24">
         <v>39456</v>
@@ -23012,9 +22984,9 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="14.5">
+    <row r="224" spans="1:16" ht="14.4">
       <c r="A224" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B224" s="24">
         <v>39456</v>
@@ -23048,9 +23020,9 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="14.5">
+    <row r="225" spans="1:16" ht="14.4">
       <c r="A225" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B225" s="24">
         <v>39456</v>
@@ -23084,9 +23056,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="14.5">
+    <row r="226" spans="1:16" ht="14.4">
       <c r="A226" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B226" s="24">
         <v>39456</v>
@@ -23120,9 +23092,9 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="14.5">
+    <row r="227" spans="1:16" ht="14.4">
       <c r="A227" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B227" s="31">
         <v>39644.1</v>
@@ -23138,9 +23110,9 @@
       <c r="O227" s="30"/>
       <c r="P227" s="30"/>
     </row>
-    <row r="228" spans="1:16" ht="14.5">
+    <row r="228" spans="1:16" ht="14.4">
       <c r="A228" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B228" s="31">
         <v>39644.1</v>
@@ -23156,9 +23128,9 @@
       <c r="O228" s="30"/>
       <c r="P228" s="30"/>
     </row>
-    <row r="229" spans="1:16" ht="14.5">
+    <row r="229" spans="1:16" ht="14.4">
       <c r="A229" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B229" s="21">
         <v>31841.200000000001</v>
@@ -23172,9 +23144,9 @@
         <v>0.3671875</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="14.5">
+    <row r="230" spans="1:16" ht="14.4">
       <c r="A230" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B230" s="21">
         <v>31932.45</v>
@@ -23188,9 +23160,9 @@
         <v>0.55249999999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="14.5">
+    <row r="231" spans="1:16" ht="14.4">
       <c r="A231" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B231" s="21">
         <v>32023.7</v>
@@ -23204,9 +23176,9 @@
         <v>0.74156250000000001</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="14.5">
+    <row r="232" spans="1:16" ht="14.4">
       <c r="A232" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B232" s="21">
         <v>32114.95</v>
@@ -23222,9 +23194,9 @@
         <v>1.4156249999999999</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="14.5">
+    <row r="233" spans="1:16" ht="14.4">
       <c r="A233" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B233" s="21">
         <v>32206.2</v>
@@ -23240,9 +23212,9 @@
         <v>2.3687499999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="14.5">
+    <row r="234" spans="1:16" ht="14.4">
       <c r="A234" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B234" s="21">
         <v>32297.45</v>
@@ -23258,9 +23230,9 @@
         <v>3.0281250000000002</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="14.5">
+    <row r="235" spans="1:16" ht="14.4">
       <c r="A235" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B235" s="21">
         <v>32388.7</v>
@@ -23276,9 +23248,9 @@
         <v>3.6312500000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="14.5">
+    <row r="236" spans="1:16" ht="14.4">
       <c r="A236" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B236" s="21">
         <v>32479.95</v>
@@ -23294,9 +23266,9 @@
         <v>4.7750000000000004</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="14.5">
+    <row r="237" spans="1:16" ht="14.4">
       <c r="A237" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B237" s="21">
         <v>32571.200000000001</v>
@@ -23312,9 +23284,9 @@
         <v>5.8093750000000002</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="14.5">
+    <row r="238" spans="1:16" ht="14.4">
       <c r="A238" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B238" s="21">
         <v>32662.45</v>
@@ -23330,9 +23302,9 @@
         <v>6.1774193548387091</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="14.5">
+    <row r="239" spans="1:16" ht="14.4">
       <c r="A239" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B239" s="21">
         <v>32753.7</v>
@@ -23348,9 +23320,9 @@
         <v>6.4354838709677411</v>
       </c>
     </row>
-    <row r="240" spans="1:16" ht="14.5">
+    <row r="240" spans="1:16" ht="14.4">
       <c r="A240" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B240" s="21">
         <v>32844.949999999997</v>
@@ -23366,9 +23338,9 @@
         <v>7.1354838709677413</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="14.5">
+    <row r="241" spans="1:16" ht="14.4">
       <c r="A241" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B241" s="21">
         <v>32936.199999999997</v>
@@ -23384,9 +23356,9 @@
         <v>7.4709677419354845</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="14.5">
+    <row r="242" spans="1:16" ht="14.4">
       <c r="A242" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B242" s="21">
         <v>33027.449999999997</v>
@@ -23400,9 +23372,9 @@
       </c>
       <c r="P242" s="34"/>
     </row>
-    <row r="243" spans="1:16" ht="14.5">
+    <row r="243" spans="1:16" ht="14.4">
       <c r="A243" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B243" s="21">
         <v>33118.699999999997</v>
@@ -23418,9 +23390,9 @@
         <v>7.8483870967741947</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="14.5">
+    <row r="244" spans="1:16" ht="14.4">
       <c r="A244" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B244" s="21">
         <v>33209.949999999997</v>
@@ -23434,9 +23406,9 @@
       </c>
       <c r="P244" s="34"/>
     </row>
-    <row r="245" spans="1:16" ht="14.5">
+    <row r="245" spans="1:16" ht="14.4">
       <c r="A245" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B245" s="21">
         <v>33301.199999999997</v>
@@ -23450,9 +23422,9 @@
       </c>
       <c r="P245" s="34"/>
     </row>
-    <row r="246" spans="1:16" ht="14.5">
+    <row r="246" spans="1:16" ht="14.4">
       <c r="A246" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B246" s="21">
         <v>33392.449999999997</v>
@@ -23466,9 +23438,9 @@
       </c>
       <c r="P246" s="34"/>
     </row>
-    <row r="247" spans="1:16" ht="14.5">
+    <row r="247" spans="1:16" ht="14.4">
       <c r="A247" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B247" s="21">
         <v>33483.699999999997</v>
@@ -23484,9 +23456,9 @@
         <v>9.2225806451612904</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="14.5">
+    <row r="248" spans="1:16" ht="14.4">
       <c r="A248" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B248" s="21">
         <v>33848.699999999997</v>
@@ -23500,9 +23472,9 @@
       </c>
       <c r="P248" s="34"/>
     </row>
-    <row r="249" spans="1:16" ht="14.5">
+    <row r="249" spans="1:16" ht="14.4">
       <c r="A249" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B249" s="21">
         <v>34002</v>
@@ -23516,9 +23488,9 @@
       </c>
       <c r="P249" s="34"/>
     </row>
-    <row r="250" spans="1:16" ht="14.5">
+    <row r="250" spans="1:16" ht="14.4">
       <c r="A250" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B250" s="21">
         <v>34184.5</v>
@@ -23534,9 +23506,9 @@
         <v>12.043333333333331</v>
       </c>
     </row>
-    <row r="251" spans="1:16" ht="14.5">
+    <row r="251" spans="1:16" ht="14.4">
       <c r="A251" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B251" s="21">
         <v>34487.449999999997</v>
@@ -23552,9 +23524,9 @@
         <v>12.993333333333336</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="14.5">
+    <row r="252" spans="1:16" ht="14.4">
       <c r="A252" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B252" s="21">
         <v>35432.800000000003</v>
@@ -23570,9 +23542,9 @@
         <v>15.086206896551724</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="14.5">
+    <row r="253" spans="1:16" ht="14.4">
       <c r="A253" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B253" s="21">
         <v>31841.200000000001</v>
@@ -23586,9 +23558,9 @@
         <v>0.36343750000000002</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="14.5">
+    <row r="254" spans="1:16" ht="14.4">
       <c r="A254" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B254" s="21">
         <v>31932.45</v>
@@ -23602,9 +23574,9 @@
         <v>1.1825000000000001</v>
       </c>
     </row>
-    <row r="255" spans="1:16" ht="14.5">
+    <row r="255" spans="1:16" ht="14.4">
       <c r="A255" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B255" s="21">
         <v>32023.7</v>
@@ -23618,9 +23590,9 @@
         <v>2.3565624999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:16" ht="14.5">
+    <row r="256" spans="1:16" ht="14.4">
       <c r="A256" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B256" s="21">
         <v>32114.95</v>
@@ -23636,9 +23608,9 @@
         <v>4.8125</v>
       </c>
     </row>
-    <row r="257" spans="1:16" ht="14.5">
+    <row r="257" spans="1:16" ht="14.4">
       <c r="A257" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B257" s="21">
         <v>32206.2</v>
@@ -23654,9 +23626,9 @@
         <v>7.2218749999999998</v>
       </c>
     </row>
-    <row r="258" spans="1:16" ht="14.5">
+    <row r="258" spans="1:16" ht="14.4">
       <c r="A258" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B258" s="21">
         <v>32297.45</v>
@@ -23672,9 +23644,9 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="259" spans="1:16" ht="14.5">
+    <row r="259" spans="1:16" ht="14.4">
       <c r="A259" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B259" s="21">
         <v>32388.7</v>
@@ -23690,9 +23662,9 @@
         <v>9.7593750000000004</v>
       </c>
     </row>
-    <row r="260" spans="1:16" ht="14.5">
+    <row r="260" spans="1:16" ht="14.4">
       <c r="A260" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B260" s="21">
         <v>32479.95</v>
@@ -23708,9 +23680,9 @@
         <v>11.783870967741935</v>
       </c>
     </row>
-    <row r="261" spans="1:16" ht="14.5">
+    <row r="261" spans="1:16" ht="14.4">
       <c r="A261" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B261" s="21">
         <v>32571.200000000001</v>
@@ -23726,9 +23698,9 @@
         <v>13.635483870967741</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="14.5">
+    <row r="262" spans="1:16" ht="14.4">
       <c r="A262" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B262" s="21">
         <v>32662.45</v>
@@ -23744,9 +23716,9 @@
         <v>14.538709677419355</v>
       </c>
     </row>
-    <row r="263" spans="1:16" ht="14.5">
+    <row r="263" spans="1:16" ht="14.4">
       <c r="A263" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B263" s="21">
         <v>32753.7</v>
@@ -23762,9 +23734,9 @@
         <v>14.896774193548385</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="14.5">
+    <row r="264" spans="1:16" ht="14.4">
       <c r="A264" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B264" s="21">
         <v>32844.949999999997</v>
@@ -23780,9 +23752,9 @@
         <v>15.667741935483869</v>
       </c>
     </row>
-    <row r="265" spans="1:16" ht="14.5">
+    <row r="265" spans="1:16" ht="14.4">
       <c r="A265" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B265" s="21">
         <v>32936.199999999997</v>
@@ -23798,9 +23770,9 @@
         <v>16.36</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="14.5">
+    <row r="266" spans="1:16" ht="14.4">
       <c r="A266" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B266" s="21">
         <v>33027.449999999997</v>
@@ -23814,9 +23786,9 @@
       </c>
       <c r="P266" s="34"/>
     </row>
-    <row r="267" spans="1:16" ht="14.5">
+    <row r="267" spans="1:16" ht="14.4">
       <c r="A267" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B267" s="21">
         <v>33118.699999999997</v>
@@ -23832,9 +23804,9 @@
         <v>16.923333333333336</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="14.5">
+    <row r="268" spans="1:16" ht="14.4">
       <c r="A268" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B268" s="21">
         <v>33209.949999999997</v>
@@ -23848,9 +23820,9 @@
       </c>
       <c r="P268" s="34"/>
     </row>
-    <row r="269" spans="1:16" ht="14.5">
+    <row r="269" spans="1:16" ht="14.4">
       <c r="A269" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B269" s="21">
         <v>33301.199999999997</v>
@@ -23864,9 +23836,9 @@
       </c>
       <c r="P269" s="34"/>
     </row>
-    <row r="270" spans="1:16" ht="14.5">
+    <row r="270" spans="1:16" ht="14.4">
       <c r="A270" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B270" s="21">
         <v>33392.449999999997</v>
@@ -23880,9 +23852,9 @@
       </c>
       <c r="P270" s="34"/>
     </row>
-    <row r="271" spans="1:16" ht="14.5">
+    <row r="271" spans="1:16" ht="14.4">
       <c r="A271" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B271" s="21">
         <v>33483.699999999997</v>
@@ -23898,9 +23870,9 @@
         <v>18.386666666666667</v>
       </c>
     </row>
-    <row r="272" spans="1:16" ht="14.5">
+    <row r="272" spans="1:16" ht="14.4">
       <c r="A272" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B272" s="21">
         <v>33848.699999999997</v>
@@ -23914,9 +23886,9 @@
       </c>
       <c r="P272" s="34"/>
     </row>
-    <row r="273" spans="1:16" ht="14.5">
+    <row r="273" spans="1:16" ht="14.4">
       <c r="A273" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B273" s="21">
         <v>34002</v>
@@ -23930,9 +23902,9 @@
       </c>
       <c r="P273" s="34"/>
     </row>
-    <row r="274" spans="1:16" ht="14.5">
+    <row r="274" spans="1:16" ht="14.4">
       <c r="A274" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B274" s="21">
         <v>34184.5</v>
@@ -23948,9 +23920,9 @@
         <v>21.033333333333335</v>
       </c>
     </row>
-    <row r="275" spans="1:16" ht="14.5">
+    <row r="275" spans="1:16" ht="14.4">
       <c r="A275" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B275" s="21">
         <v>34487.449999999997</v>
@@ -23966,9 +23938,9 @@
         <v>21.746666666666666</v>
       </c>
     </row>
-    <row r="276" spans="1:16" ht="14.5">
+    <row r="276" spans="1:16" ht="14.4">
       <c r="A276" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B276" s="21">
         <v>35432.800000000003</v>
@@ -23984,9 +23956,9 @@
         <v>22.748275862068962</v>
       </c>
     </row>
-    <row r="277" spans="1:16" ht="14.5">
+    <row r="277" spans="1:16" ht="14.4">
       <c r="A277" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B277" s="21">
         <v>31841.200000000001</v>
@@ -24000,9 +23972,9 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="278" spans="1:16" ht="14.5">
+    <row r="278" spans="1:16" ht="14.4">
       <c r="A278" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B278" s="21">
         <v>31932.45</v>
@@ -24016,9 +23988,9 @@
         <v>0.55625000000000002</v>
       </c>
     </row>
-    <row r="279" spans="1:16" ht="14.5">
+    <row r="279" spans="1:16" ht="14.4">
       <c r="A279" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B279" s="21">
         <v>32023.7</v>
@@ -24032,9 +24004,9 @@
         <v>0.81562500000000004</v>
       </c>
     </row>
-    <row r="280" spans="1:16" ht="14.5">
+    <row r="280" spans="1:16" ht="14.4">
       <c r="A280" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B280" s="21">
         <v>32114.95</v>
@@ -24050,9 +24022,9 @@
         <v>1.815625</v>
       </c>
     </row>
-    <row r="281" spans="1:16" ht="14.5">
+    <row r="281" spans="1:16" ht="14.4">
       <c r="A281" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B281" s="21">
         <v>32206.2</v>
@@ -24068,9 +24040,9 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="282" spans="1:16" ht="14.5">
+    <row r="282" spans="1:16" ht="14.4">
       <c r="A282" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B282" s="21">
         <v>32297.45</v>
@@ -24086,9 +24058,9 @@
         <v>3.8312499999999998</v>
       </c>
     </row>
-    <row r="283" spans="1:16" ht="14.5">
+    <row r="283" spans="1:16" ht="14.4">
       <c r="A283" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B283" s="21">
         <v>32388.7</v>
@@ -24104,9 +24076,9 @@
         <v>4.21875</v>
       </c>
     </row>
-    <row r="284" spans="1:16" ht="14.5">
+    <row r="284" spans="1:16" ht="14.4">
       <c r="A284" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B284" s="21">
         <v>32479.95</v>
@@ -24122,9 +24094,9 @@
         <v>5.2093749999999996</v>
       </c>
     </row>
-    <row r="285" spans="1:16" ht="14.5">
+    <row r="285" spans="1:16" ht="14.4">
       <c r="A285" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B285" s="21">
         <v>32571.200000000001</v>
@@ -24140,9 +24112,9 @@
         <v>5.7374999999999998</v>
       </c>
     </row>
-    <row r="286" spans="1:16" ht="14.5">
+    <row r="286" spans="1:16" ht="14.4">
       <c r="A286" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B286" s="21">
         <v>32662.45</v>
@@ -24158,9 +24130,9 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="287" spans="1:16" ht="14.5">
+    <row r="287" spans="1:16" ht="14.4">
       <c r="A287" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B287" s="21">
         <v>32753.7</v>
@@ -24176,9 +24148,9 @@
         <v>6.0843749999999996</v>
       </c>
     </row>
-    <row r="288" spans="1:16" ht="14.5">
+    <row r="288" spans="1:16" ht="14.4">
       <c r="A288" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B288" s="21">
         <v>32844.949999999997</v>
@@ -24194,9 +24166,9 @@
         <v>6.46875</v>
       </c>
     </row>
-    <row r="289" spans="1:16" ht="14.5">
+    <row r="289" spans="1:16" ht="14.4">
       <c r="A289" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B289" s="21">
         <v>32936.199999999997</v>
@@ -24212,9 +24184,9 @@
         <v>6.7468750000000002</v>
       </c>
     </row>
-    <row r="290" spans="1:16" ht="14.5">
+    <row r="290" spans="1:16" ht="14.4">
       <c r="A290" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B290" s="21">
         <v>33027.449999999997</v>
@@ -24228,9 +24200,9 @@
       </c>
       <c r="P290" s="34"/>
     </row>
-    <row r="291" spans="1:16" ht="14.5">
+    <row r="291" spans="1:16" ht="14.4">
       <c r="A291" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B291" s="21">
         <v>33118.699999999997</v>
@@ -24246,9 +24218,9 @@
         <v>6.9937500000000004</v>
       </c>
     </row>
-    <row r="292" spans="1:16" ht="14.5">
+    <row r="292" spans="1:16" ht="14.4">
       <c r="A292" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B292" s="21">
         <v>33209.949999999997</v>
@@ -24262,9 +24234,9 @@
       </c>
       <c r="P292" s="34"/>
     </row>
-    <row r="293" spans="1:16" ht="14.5">
+    <row r="293" spans="1:16" ht="14.4">
       <c r="A293" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B293" s="21">
         <v>33301.199999999997</v>
@@ -24278,9 +24250,9 @@
       </c>
       <c r="P293" s="34"/>
     </row>
-    <row r="294" spans="1:16" ht="14.5">
+    <row r="294" spans="1:16" ht="14.4">
       <c r="A294" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B294" s="21">
         <v>33392.449999999997</v>
@@ -24294,9 +24266,9 @@
       </c>
       <c r="P294" s="34"/>
     </row>
-    <row r="295" spans="1:16" ht="14.5">
+    <row r="295" spans="1:16" ht="14.4">
       <c r="A295" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B295" s="21">
         <v>33483.699999999997</v>
@@ -24312,9 +24284,9 @@
         <v>8.6125000000000007</v>
       </c>
     </row>
-    <row r="296" spans="1:16" ht="14.5">
+    <row r="296" spans="1:16" ht="14.4">
       <c r="A296" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B296" s="21">
         <v>33848.699999999997</v>
@@ -24328,9 +24300,9 @@
       </c>
       <c r="P296" s="34"/>
     </row>
-    <row r="297" spans="1:16" ht="14.5">
+    <row r="297" spans="1:16" ht="14.4">
       <c r="A297" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B297" s="21">
         <v>34002</v>
@@ -24344,9 +24316,9 @@
       </c>
       <c r="P297" s="34"/>
     </row>
-    <row r="298" spans="1:16" ht="14.5">
+    <row r="298" spans="1:16" ht="14.4">
       <c r="A298" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B298" s="21">
         <v>34184.5</v>
@@ -24362,9 +24334,9 @@
         <v>10.987500000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:16" ht="14.5">
+    <row r="299" spans="1:16" ht="14.4">
       <c r="A299" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B299" s="21">
         <v>34487.449999999997</v>
@@ -24380,9 +24352,9 @@
         <v>12.24375</v>
       </c>
     </row>
-    <row r="300" spans="1:16" ht="14.5">
+    <row r="300" spans="1:16" ht="14.4">
       <c r="A300" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B300" s="21">
         <v>35432.800000000003</v>
@@ -24398,9 +24370,9 @@
         <v>13.481249999999999</v>
       </c>
     </row>
-    <row r="301" spans="1:16" ht="14.5">
+    <row r="301" spans="1:16" ht="14.4">
       <c r="A301" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B301" s="21">
         <v>31841.200000000001</v>
@@ -24414,9 +24386,9 @@
         <v>0.36749999999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:16" ht="14.5">
+    <row r="302" spans="1:16" ht="14.4">
       <c r="A302" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B302" s="21">
         <v>31932.45</v>
@@ -24430,9 +24402,9 @@
         <v>1.34375</v>
       </c>
     </row>
-    <row r="303" spans="1:16" ht="14.5">
+    <row r="303" spans="1:16" ht="14.4">
       <c r="A303" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B303" s="21">
         <v>32023.7</v>
@@ -24446,9 +24418,9 @@
         <v>2.5812499999999998</v>
       </c>
     </row>
-    <row r="304" spans="1:16" ht="14.5">
+    <row r="304" spans="1:16" ht="14.4">
       <c r="A304" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B304" s="21">
         <v>32114.95</v>
@@ -24464,9 +24436,9 @@
         <v>5.033333333333335</v>
       </c>
     </row>
-    <row r="305" spans="1:16" ht="14.5">
+    <row r="305" spans="1:16" ht="14.4">
       <c r="A305" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B305" s="21">
         <v>32206.2</v>
@@ -24482,9 +24454,9 @@
         <v>7.3793103448275854</v>
       </c>
     </row>
-    <row r="306" spans="1:16" ht="14.5">
+    <row r="306" spans="1:16" ht="14.4">
       <c r="A306" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B306" s="21">
         <v>32297.45</v>
@@ -24500,9 +24472,9 @@
         <v>9.35</v>
       </c>
     </row>
-    <row r="307" spans="1:16" ht="14.5">
+    <row r="307" spans="1:16" ht="14.4">
       <c r="A307" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B307" s="21">
         <v>32388.7</v>
@@ -24518,9 +24490,9 @@
         <v>10.286363636363635</v>
       </c>
     </row>
-    <row r="308" spans="1:16" ht="14.5">
+    <row r="308" spans="1:16" ht="14.4">
       <c r="A308" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B308" s="21">
         <v>32479.95</v>
@@ -24536,9 +24508,9 @@
         <v>11.88</v>
       </c>
     </row>
-    <row r="309" spans="1:16" ht="14.5">
+    <row r="309" spans="1:16" ht="14.4">
       <c r="A309" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B309" s="21">
         <v>32571.200000000001</v>
@@ -24554,9 +24526,9 @@
         <v>13.875</v>
       </c>
     </row>
-    <row r="310" spans="1:16" ht="14.5">
+    <row r="310" spans="1:16" ht="14.4">
       <c r="A310" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B310" s="21">
         <v>32662.45</v>
@@ -24572,9 +24544,9 @@
         <v>14.585000000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:16" ht="14.5">
+    <row r="311" spans="1:16" ht="14.4">
       <c r="A311" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B311" s="21">
         <v>32753.7</v>
@@ -24590,9 +24562,9 @@
         <v>14.955</v>
       </c>
     </row>
-    <row r="312" spans="1:16" ht="14.5">
+    <row r="312" spans="1:16" ht="14.4">
       <c r="A312" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B312" s="21">
         <v>32844.949999999997</v>
@@ -24608,9 +24580,9 @@
         <v>15.865</v>
       </c>
     </row>
-    <row r="313" spans="1:16" ht="14.5">
+    <row r="313" spans="1:16" ht="14.4">
       <c r="A313" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B313" s="21">
         <v>32936.199999999997</v>
@@ -24626,9 +24598,9 @@
         <v>16.675000000000001</v>
       </c>
     </row>
-    <row r="314" spans="1:16" ht="14.5">
+    <row r="314" spans="1:16" ht="14.4">
       <c r="A314" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B314" s="21">
         <v>33027.449999999997</v>
@@ -24642,9 +24614,9 @@
       </c>
       <c r="P314" s="34"/>
     </row>
-    <row r="315" spans="1:16" ht="14.5">
+    <row r="315" spans="1:16" ht="14.4">
       <c r="A315" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B315" s="21">
         <v>33118.699999999997</v>
@@ -24660,9 +24632,9 @@
         <v>17.065000000000001</v>
       </c>
     </row>
-    <row r="316" spans="1:16" ht="14.5">
+    <row r="316" spans="1:16" ht="14.4">
       <c r="A316" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B316" s="21">
         <v>33209.949999999997</v>
@@ -24676,9 +24648,9 @@
       </c>
       <c r="P316" s="34"/>
     </row>
-    <row r="317" spans="1:16" ht="14.5">
+    <row r="317" spans="1:16" ht="14.4">
       <c r="A317" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B317" s="21">
         <v>33301.199999999997</v>
@@ -24692,9 +24664,9 @@
       </c>
       <c r="P317" s="34"/>
     </row>
-    <row r="318" spans="1:16" ht="14.5">
+    <row r="318" spans="1:16" ht="14.4">
       <c r="A318" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B318" s="21">
         <v>33392.449999999997</v>
@@ -24708,9 +24680,9 @@
       </c>
       <c r="P318" s="34"/>
     </row>
-    <row r="319" spans="1:16" ht="14.5">
+    <row r="319" spans="1:16" ht="14.4">
       <c r="A319" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B319" s="21">
         <v>33483.699999999997</v>
@@ -24726,9 +24698,9 @@
         <v>18.565000000000001</v>
       </c>
     </row>
-    <row r="320" spans="1:16" ht="14.5">
+    <row r="320" spans="1:16" ht="14.4">
       <c r="A320" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B320" s="21">
         <v>33848.699999999997</v>
@@ -24742,9 +24714,9 @@
       </c>
       <c r="P320" s="34"/>
     </row>
-    <row r="321" spans="1:16" ht="14.5">
+    <row r="321" spans="1:16" ht="14.4">
       <c r="A321" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B321" s="21">
         <v>34002</v>
@@ -24758,9 +24730,9 @@
       </c>
       <c r="P321" s="34"/>
     </row>
-    <row r="322" spans="1:16" ht="14.5">
+    <row r="322" spans="1:16" ht="14.4">
       <c r="A322" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B322" s="21">
         <v>34184.5</v>
@@ -24776,9 +24748,9 @@
         <v>21.15789473684211</v>
       </c>
     </row>
-    <row r="323" spans="1:16" ht="14.5">
+    <row r="323" spans="1:16" ht="14.4">
       <c r="A323" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B323" s="21">
         <v>34487.449999999997</v>
@@ -24794,9 +24766,9 @@
         <v>21.826315789473682</v>
       </c>
     </row>
-    <row r="324" spans="1:16" ht="14.5">
+    <row r="324" spans="1:16" ht="14.4">
       <c r="A324" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B324" s="21">
         <v>35432.800000000003</v>
@@ -24812,9 +24784,9 @@
         <v>22.815789473684209</v>
       </c>
     </row>
-    <row r="325" spans="1:16" ht="14.5">
+    <row r="325" spans="1:16" ht="14.4">
       <c r="A325" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B325" s="24">
         <v>32052</v>
@@ -24849,9 +24821,9 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="326" spans="1:16" ht="14.5">
+    <row r="326" spans="1:16" ht="14.4">
       <c r="A326" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B326" s="24">
         <v>32191</v>
@@ -24886,9 +24858,9 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="327" spans="1:16" ht="14.5">
+    <row r="327" spans="1:16" ht="14.4">
       <c r="A327" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B327" s="24">
         <v>32337</v>
@@ -24923,9 +24895,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="328" spans="1:16" ht="14.5">
+    <row r="328" spans="1:16" ht="14.4">
       <c r="A328" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B328" s="24">
         <v>32472</v>
@@ -24960,9 +24932,9 @@
         <v>4.29</v>
       </c>
     </row>
-    <row r="329" spans="1:16" ht="14.5">
+    <row r="329" spans="1:16" ht="14.4">
       <c r="A329" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B329" s="24">
         <v>32688</v>
@@ -24997,9 +24969,9 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="330" spans="1:16" ht="14.5">
+    <row r="330" spans="1:16" ht="14.4">
       <c r="A330" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B330" s="24">
         <v>32943</v>
@@ -25034,9 +25006,9 @@
         <v>3.6865749439928703</v>
       </c>
     </row>
-    <row r="331" spans="1:16" ht="14.5">
+    <row r="331" spans="1:16" ht="14.4">
       <c r="A331" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B331" s="24">
         <v>33126</v>
@@ -25071,9 +25043,9 @@
         <v>3.7855418070094617</v>
       </c>
     </row>
-    <row r="332" spans="1:16" ht="14.5">
+    <row r="332" spans="1:16" ht="14.4">
       <c r="A332" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B332" s="24">
         <v>33308</v>
@@ -25108,9 +25080,9 @@
         <v>3.9889772338145639</v>
       </c>
     </row>
-    <row r="333" spans="1:16" ht="14.5">
+    <row r="333" spans="1:16" ht="14.4">
       <c r="A333" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B333" s="24">
         <v>33491</v>
@@ -25145,9 +25117,9 @@
         <v>4.5351055053411846</v>
       </c>
     </row>
-    <row r="334" spans="1:16" ht="14.5">
+    <row r="334" spans="1:16" ht="14.4">
       <c r="A334" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B334" s="24">
         <v>33856</v>
@@ -25182,9 +25154,9 @@
         <v>5.3922041846935125</v>
       </c>
     </row>
-    <row r="335" spans="1:16" ht="14.5">
+    <row r="335" spans="1:16" ht="14.4">
       <c r="A335" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B335" s="24">
         <v>32052</v>
@@ -25219,9 +25191,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="336" spans="1:16" ht="14.5">
+    <row r="336" spans="1:16" ht="14.4">
       <c r="A336" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B336" s="24">
         <v>32191</v>
@@ -25256,9 +25228,9 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="337" spans="1:11" ht="14.5">
+    <row r="337" spans="1:11" ht="14.4">
       <c r="A337" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B337" s="24">
         <v>32337</v>
@@ -25293,9 +25265,9 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="338" spans="1:11" ht="14.5">
+    <row r="338" spans="1:11" ht="14.4">
       <c r="A338" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B338" s="24">
         <v>32472</v>
@@ -25330,9 +25302,9 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="339" spans="1:11" ht="14.5">
+    <row r="339" spans="1:11" ht="14.4">
       <c r="A339" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B339" s="24">
         <v>32688</v>
@@ -25367,9 +25339,9 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="340" spans="1:11" ht="14.5">
+    <row r="340" spans="1:11" ht="14.4">
       <c r="A340" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B340" s="24">
         <v>32943</v>
@@ -25404,9 +25376,9 @@
         <v>0.8641386971188576</v>
       </c>
     </row>
-    <row r="341" spans="1:11" ht="14.5">
+    <row r="341" spans="1:11" ht="14.4">
       <c r="A341" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B341" s="24">
         <v>33126</v>
@@ -25441,9 +25413,9 @@
         <v>0.9262639277357525</v>
       </c>
     </row>
-    <row r="342" spans="1:11" ht="14.5">
+    <row r="342" spans="1:11" ht="14.4">
       <c r="A342" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B342" s="24">
         <v>33308</v>
@@ -25478,9 +25450,9 @@
         <v>1.091920584234471</v>
       </c>
     </row>
-    <row r="343" spans="1:11" ht="14.5">
+    <row r="343" spans="1:11" ht="14.4">
       <c r="A343" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B343" s="24">
         <v>33491</v>
@@ -25515,9 +25487,9 @@
         <v>1.4467260957771373</v>
       </c>
     </row>
-    <row r="344" spans="1:11" ht="14.5">
+    <row r="344" spans="1:11" ht="14.4">
       <c r="A344" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B344" s="24">
         <v>33856</v>
@@ -25552,9 +25524,9 @@
         <v>1.9418855403379214</v>
       </c>
     </row>
-    <row r="345" spans="1:11" ht="14.5">
+    <row r="345" spans="1:11" ht="14.4">
       <c r="A345" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B345" s="24">
         <v>32052</v>
@@ -25589,9 +25561,9 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="346" spans="1:11" ht="14.5">
+    <row r="346" spans="1:11" ht="14.4">
       <c r="A346" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B346" s="24">
         <v>32191</v>
@@ -25626,9 +25598,9 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="347" spans="1:11" ht="14.5">
+    <row r="347" spans="1:11" ht="14.4">
       <c r="A347" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B347" s="24">
         <v>32337</v>
@@ -25663,9 +25635,9 @@
         <v>4.8099999999999996</v>
       </c>
     </row>
-    <row r="348" spans="1:11" ht="14.5">
+    <row r="348" spans="1:11" ht="14.4">
       <c r="A348" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B348" s="24">
         <v>32472</v>
@@ -25700,9 +25672,9 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="349" spans="1:11" ht="14.5">
+    <row r="349" spans="1:11" ht="14.4">
       <c r="A349" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B349" s="24">
         <v>32688</v>
@@ -25737,9 +25709,9 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="350" spans="1:11" ht="14.5">
+    <row r="350" spans="1:11" ht="14.4">
       <c r="A350" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B350" s="24">
         <v>32943</v>
@@ -25774,9 +25746,9 @@
         <v>4.3050987125831597</v>
       </c>
     </row>
-    <row r="351" spans="1:11" ht="14.5">
+    <row r="351" spans="1:11" ht="14.4">
       <c r="A351" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B351" s="24">
         <v>33126</v>
@@ -25811,9 +25783,9 @@
         <v>4.5350863800777814</v>
       </c>
     </row>
-    <row r="352" spans="1:11" ht="14.5">
+    <row r="352" spans="1:11" ht="14.4">
       <c r="A352" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B352" s="24">
         <v>33308</v>
@@ -25848,9 +25820,9 @@
         <v>4.7366539061573079</v>
       </c>
     </row>
-    <row r="353" spans="1:16" ht="14.5">
+    <row r="353" spans="1:16" ht="14.4">
       <c r="A353" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B353" s="24">
         <v>33491</v>
@@ -25885,9 +25857,9 @@
         <v>5.0975221261983501</v>
       </c>
     </row>
-    <row r="354" spans="1:16" ht="14.5">
+    <row r="354" spans="1:16" ht="14.4">
       <c r="A354" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B354" s="24">
         <v>33856</v>
@@ -25922,9 +25894,9 @@
         <v>5.8077451577125405</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="14.5">
+    <row r="355" spans="1:16" ht="14.4">
       <c r="A355" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B355" s="24">
         <v>32052</v>
@@ -25959,9 +25931,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="356" spans="1:16" ht="14.5">
+    <row r="356" spans="1:16" ht="14.4">
       <c r="A356" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B356" s="24">
         <v>32191</v>
@@ -25996,9 +25968,9 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="357" spans="1:16" ht="14.5">
+    <row r="357" spans="1:16" ht="14.4">
       <c r="A357" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B357" s="24">
         <v>32337</v>
@@ -26033,9 +26005,9 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="358" spans="1:16" ht="14.5">
+    <row r="358" spans="1:16" ht="14.4">
       <c r="A358" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B358" s="24">
         <v>32472</v>
@@ -26070,9 +26042,9 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="359" spans="1:16" ht="14.5">
+    <row r="359" spans="1:16" ht="14.4">
       <c r="A359" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B359" s="24">
         <v>32688</v>
@@ -26107,9 +26079,9 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="360" spans="1:16" ht="14.5">
+    <row r="360" spans="1:16" ht="14.4">
       <c r="A360" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B360" s="24">
         <v>32943</v>
@@ -26144,9 +26116,9 @@
         <v>0.9511586455971146</v>
       </c>
     </row>
-    <row r="361" spans="1:16" ht="14.5">
+    <row r="361" spans="1:16" ht="14.4">
       <c r="A361" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B361" s="24">
         <v>33126</v>
@@ -26181,9 +26153,9 @@
         <v>1.0711441730922997</v>
       </c>
     </row>
-    <row r="362" spans="1:16" ht="14.5">
+    <row r="362" spans="1:16" ht="14.4">
       <c r="A362" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B362" s="24">
         <v>33308</v>
@@ -26218,9 +26190,9 @@
         <v>1.2346715502656165</v>
       </c>
     </row>
-    <row r="363" spans="1:16" ht="14.5">
+    <row r="363" spans="1:16" ht="14.4">
       <c r="A363" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B363" s="24">
         <v>33491</v>
@@ -26255,9 +26227,9 @@
         <v>1.5272434546987774</v>
       </c>
     </row>
-    <row r="364" spans="1:16" ht="14.5">
+    <row r="364" spans="1:16" ht="14.4">
       <c r="A364" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B364" s="24">
         <v>33856</v>
@@ -26292,9 +26264,9 @@
         <v>1.8928611151512691</v>
       </c>
     </row>
-    <row r="365" spans="1:16" ht="15.5">
+    <row r="365" spans="1:16" ht="15.6">
       <c r="A365" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B365" s="24">
         <v>36987</v>
@@ -26327,9 +26299,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:16" ht="14.5">
+    <row r="366" spans="1:16" ht="14.4">
       <c r="A366" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B366" s="24">
         <v>36987</v>
@@ -26361,9 +26333,9 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="367" spans="1:16" ht="14.5">
+    <row r="367" spans="1:16" ht="14.4">
       <c r="A367" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B367" s="24">
         <v>36987</v>
@@ -26395,9 +26367,9 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:16" ht="14.5">
+    <row r="368" spans="1:16" ht="14.4">
       <c r="A368" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B368" s="24">
         <v>36987</v>
@@ -26429,9 +26401,9 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="369" spans="1:16" ht="14.5">
+    <row r="369" spans="1:16" ht="14.4">
       <c r="A369" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B369" s="24">
         <v>37012.800000000003</v>
@@ -26446,9 +26418,9 @@
       <c r="O369" s="30"/>
       <c r="P369" s="30"/>
     </row>
-    <row r="370" spans="1:16" ht="14.5">
+    <row r="370" spans="1:16" ht="14.4">
       <c r="A370" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B370" s="24">
         <v>37012.800000000003</v>
@@ -26463,9 +26435,9 @@
       <c r="O370" s="30"/>
       <c r="P370" s="30"/>
     </row>
-    <row r="371" spans="1:16" ht="14.5">
+    <row r="371" spans="1:16" ht="14.4">
       <c r="A371" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B371" s="24">
         <v>37261</v>
@@ -26480,9 +26452,9 @@
       <c r="O371" s="30"/>
       <c r="P371" s="30"/>
     </row>
-    <row r="372" spans="1:16" ht="14.5">
+    <row r="372" spans="1:16" ht="14.4">
       <c r="A372" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B372" s="24">
         <v>37261</v>
@@ -26497,9 +26469,9 @@
       <c r="O372" s="30"/>
       <c r="P372" s="30"/>
     </row>
-    <row r="373" spans="1:16" ht="14.5">
+    <row r="373" spans="1:16" ht="14.4">
       <c r="A373" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B373" s="24">
         <v>37352</v>
@@ -26531,9 +26503,9 @@
         <v>4.37</v>
       </c>
     </row>
-    <row r="374" spans="1:16" ht="14.5">
+    <row r="374" spans="1:16" ht="14.4">
       <c r="A374" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B374" s="24">
         <v>37352</v>
@@ -26565,9 +26537,9 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="375" spans="1:16" ht="14.5">
+    <row r="375" spans="1:16" ht="14.4">
       <c r="A375" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B375" s="24">
         <v>37352</v>
@@ -26599,9 +26571,9 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="376" spans="1:16" ht="14.5">
+    <row r="376" spans="1:16" ht="14.4">
       <c r="A376" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B376" s="24">
         <v>37352</v>
@@ -26633,9 +26605,9 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="377" spans="1:16" ht="14.5">
+    <row r="377" spans="1:16" ht="14.4">
       <c r="A377" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B377" s="24">
         <v>37647.9</v>
@@ -26650,9 +26622,9 @@
       <c r="O377" s="30"/>
       <c r="P377" s="30"/>
     </row>
-    <row r="378" spans="1:16" ht="14.5">
+    <row r="378" spans="1:16" ht="14.4">
       <c r="A378" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B378" s="24">
         <v>37647.9</v>
@@ -26667,9 +26639,9 @@
       <c r="O378" s="30"/>
       <c r="P378" s="30"/>
     </row>
-    <row r="379" spans="1:16" ht="14.5">
+    <row r="379" spans="1:16" ht="14.4">
       <c r="A379" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B379" s="24">
         <v>37717</v>
@@ -26701,9 +26673,9 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="380" spans="1:16" ht="14.5">
+    <row r="380" spans="1:16" ht="14.4">
       <c r="A380" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B380" s="24">
         <v>37717</v>
@@ -26735,9 +26707,9 @@
         <v>11.35</v>
       </c>
     </row>
-    <row r="381" spans="1:16" ht="14.5">
+    <row r="381" spans="1:16" ht="14.4">
       <c r="A381" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B381" s="24">
         <v>37717</v>
@@ -26769,9 +26741,9 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="382" spans="1:16" ht="14.5">
+    <row r="382" spans="1:16" ht="14.4">
       <c r="A382" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B382" s="24">
         <v>37717</v>
@@ -26803,9 +26775,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="383" spans="1:16" ht="14.5">
+    <row r="383" spans="1:16" ht="14.4">
       <c r="A383" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B383" s="24">
         <v>38016.550000000003</v>
@@ -26820,9 +26792,9 @@
       <c r="O383" s="30"/>
       <c r="P383" s="30"/>
     </row>
-    <row r="384" spans="1:16" ht="14.5">
+    <row r="384" spans="1:16" ht="14.4">
       <c r="A384" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B384" s="24">
         <v>38016.550000000003</v>
@@ -26837,9 +26809,9 @@
       <c r="O384" s="30"/>
       <c r="P384" s="30"/>
     </row>
-    <row r="385" spans="1:16" ht="14.5">
+    <row r="385" spans="1:16" ht="14.4">
       <c r="A385" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B385" s="24">
         <v>38053</v>
@@ -26871,9 +26843,9 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="386" spans="1:16" ht="14.5">
+    <row r="386" spans="1:16" ht="14.4">
       <c r="A386" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B386" s="24">
         <v>38053</v>
@@ -26905,9 +26877,9 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="387" spans="1:16" ht="14.5">
+    <row r="387" spans="1:16" ht="14.4">
       <c r="A387" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B387" s="24">
         <v>38053</v>
@@ -26939,9 +26911,9 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="388" spans="1:16" ht="14.5">
+    <row r="388" spans="1:16" ht="14.4">
       <c r="A388" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B388" s="24">
         <v>38053</v>
@@ -26973,9 +26945,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="389" spans="1:16" ht="14.5">
+    <row r="389" spans="1:16" ht="14.4">
       <c r="A389" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B389" s="24">
         <v>38713.699999999997</v>
@@ -26990,9 +26962,9 @@
       <c r="O389" s="30"/>
       <c r="P389" s="30"/>
     </row>
-    <row r="390" spans="1:16" ht="14.5">
+    <row r="390" spans="1:16" ht="14.4">
       <c r="A390" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B390" s="24">
         <v>38713.699999999997</v>
@@ -27007,9 +26979,9 @@
       <c r="O390" s="30"/>
       <c r="P390" s="30"/>
     </row>
-    <row r="391" spans="1:16" ht="14.5">
+    <row r="391" spans="1:16" ht="14.4">
       <c r="A391" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B391" s="24">
         <v>38841</v>
@@ -27041,9 +27013,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="392" spans="1:16" ht="14.5">
+    <row r="392" spans="1:16" ht="14.4">
       <c r="A392" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B392" s="24">
         <v>38841</v>
@@ -27075,9 +27047,9 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="393" spans="1:16" ht="14.5">
+    <row r="393" spans="1:16" ht="14.4">
       <c r="A393" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B393" s="24">
         <v>38841</v>
@@ -27109,9 +27081,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="394" spans="1:16" ht="14.5">
+    <row r="394" spans="1:16" ht="14.4">
       <c r="A394" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B394" s="24">
         <v>38841</v>
@@ -27143,9 +27115,9 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="395" spans="1:16" ht="14.5">
+    <row r="395" spans="1:16" ht="14.4">
       <c r="A395" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B395" s="24">
         <v>39451</v>
@@ -27177,9 +27149,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="396" spans="1:16" ht="14.5">
+    <row r="396" spans="1:16" ht="14.4">
       <c r="A396" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B396" s="24">
         <v>39451</v>
@@ -27211,9 +27183,9 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="397" spans="1:16" ht="14.5">
+    <row r="397" spans="1:16" ht="14.4">
       <c r="A397" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B397" s="24">
         <v>39451</v>
@@ -27245,9 +27217,9 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="398" spans="1:16" ht="14.5">
+    <row r="398" spans="1:16" ht="14.4">
       <c r="A398" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B398" s="24">
         <v>39451</v>
@@ -27279,9 +27251,9 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="399" spans="1:16" ht="14.5">
+    <row r="399" spans="1:16" ht="14.4">
       <c r="A399" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B399" s="24">
         <v>39556.85</v>
@@ -27296,9 +27268,9 @@
       <c r="O399" s="30"/>
       <c r="P399" s="30"/>
     </row>
-    <row r="400" spans="1:16" ht="14.5">
+    <row r="400" spans="1:16" ht="14.4">
       <c r="A400" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B400" s="24">
         <v>39556.85</v>
@@ -27313,9 +27285,9 @@
       <c r="O400" s="30"/>
       <c r="P400" s="30"/>
     </row>
-    <row r="401" spans="1:16" ht="15.5">
+    <row r="401" spans="1:16" ht="15.6">
       <c r="A401" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B401" s="24">
         <v>37436</v>
@@ -27348,9 +27320,9 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="402" spans="1:16" ht="14.5">
+    <row r="402" spans="1:16" ht="14.4">
       <c r="A402" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B402" s="24">
         <v>37436</v>
@@ -27382,9 +27354,9 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="403" spans="1:16" ht="14.5">
+    <row r="403" spans="1:16" ht="14.4">
       <c r="A403" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B403" s="24">
         <v>37436</v>
@@ -27416,9 +27388,9 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="404" spans="1:16" ht="14.5">
+    <row r="404" spans="1:16" ht="14.4">
       <c r="A404" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B404" s="24">
         <v>37436</v>
@@ -27450,9 +27422,9 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="405" spans="1:16" ht="14.5">
+    <row r="405" spans="1:16" ht="14.4">
       <c r="A405" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B405" s="24">
         <v>37560.35</v>
@@ -27467,9 +27439,9 @@
       <c r="O405" s="30"/>
       <c r="P405" s="30"/>
     </row>
-    <row r="406" spans="1:16" ht="14.5">
+    <row r="406" spans="1:16" ht="14.4">
       <c r="A406" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B406" s="24">
         <v>37560.35</v>
@@ -27484,9 +27456,9 @@
       <c r="O406" s="30"/>
       <c r="P406" s="30"/>
     </row>
-    <row r="407" spans="1:16" ht="14.5">
+    <row r="407" spans="1:16" ht="14.4">
       <c r="A407" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B407" s="24">
         <v>37728.25</v>
@@ -27501,9 +27473,9 @@
       <c r="O407" s="30"/>
       <c r="P407" s="30"/>
     </row>
-    <row r="408" spans="1:16" ht="14.5">
+    <row r="408" spans="1:16" ht="14.4">
       <c r="A408" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B408" s="24">
         <v>37728.25</v>
@@ -27518,9 +27490,9 @@
       <c r="O408" s="30"/>
       <c r="P408" s="30"/>
     </row>
-    <row r="409" spans="1:16" ht="14.5">
+    <row r="409" spans="1:16" ht="14.4">
       <c r="A409" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B409" s="24">
         <v>37830</v>
@@ -27552,9 +27524,9 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="410" spans="1:16" ht="14.5">
+    <row r="410" spans="1:16" ht="14.4">
       <c r="A410" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B410" s="24">
         <v>37830</v>
@@ -27586,9 +27558,9 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="411" spans="1:16" ht="14.5">
+    <row r="411" spans="1:16" ht="14.4">
       <c r="A411" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B411" s="24">
         <v>37830</v>
@@ -27620,9 +27592,9 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="412" spans="1:16" ht="14.5">
+    <row r="412" spans="1:16" ht="14.4">
       <c r="A412" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B412" s="24">
         <v>37830</v>
@@ -27654,9 +27626,9 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="413" spans="1:16" ht="14.5">
+    <row r="413" spans="1:16" ht="14.4">
       <c r="A413" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B413" s="24">
         <v>38096.9</v>
@@ -27671,9 +27643,9 @@
       <c r="O413" s="30"/>
       <c r="P413" s="30"/>
     </row>
-    <row r="414" spans="1:16" ht="14.5">
+    <row r="414" spans="1:16" ht="14.4">
       <c r="A414" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B414" s="24">
         <v>38096.9</v>
@@ -27688,9 +27660,9 @@
       <c r="O414" s="30"/>
       <c r="P414" s="30"/>
     </row>
-    <row r="415" spans="1:16" ht="14.5">
+    <row r="415" spans="1:16" ht="14.4">
       <c r="A415" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B415" s="24">
         <v>38137</v>
@@ -27722,9 +27694,9 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="14.5">
+    <row r="416" spans="1:16" ht="14.4">
       <c r="A416" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B416" s="24">
         <v>38137</v>
@@ -27756,9 +27728,9 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="417" spans="1:16" ht="14.5">
+    <row r="417" spans="1:16" ht="14.4">
       <c r="A417" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B417" s="24">
         <v>38137</v>
@@ -27790,9 +27762,9 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="418" spans="1:16" ht="14.5">
+    <row r="418" spans="1:16" ht="14.4">
       <c r="A418" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B418" s="24">
         <v>38137</v>
@@ -27824,9 +27796,9 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="419" spans="1:16" ht="14.5">
+    <row r="419" spans="1:16" ht="14.4">
       <c r="A419" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B419" s="24">
         <v>38805</v>
@@ -27862,9 +27834,9 @@
         <v>21.69</v>
       </c>
     </row>
-    <row r="420" spans="1:16" ht="14.5">
+    <row r="420" spans="1:16" ht="14.4">
       <c r="A420" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B420" s="24">
         <v>38805</v>
@@ -27900,9 +27872,9 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="421" spans="1:16" ht="14.5">
+    <row r="421" spans="1:16" ht="14.4">
       <c r="A421" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B421" s="24">
         <v>38805</v>
@@ -27934,9 +27906,9 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="422" spans="1:16" ht="14.5">
+    <row r="422" spans="1:16" ht="14.4">
       <c r="A422" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B422" s="24">
         <v>38805</v>
@@ -27968,9 +27940,9 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="423" spans="1:16" ht="14.5">
+    <row r="423" spans="1:16" ht="14.4">
       <c r="A423" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B423" s="24">
         <v>39505</v>
@@ -28002,9 +27974,9 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="424" spans="1:16" ht="14.5">
+    <row r="424" spans="1:16" ht="14.4">
       <c r="A424" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B424" s="24">
         <v>39505</v>
@@ -28036,9 +28008,9 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="425" spans="1:16" ht="14.5">
+    <row r="425" spans="1:16" ht="14.4">
       <c r="A425" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B425" s="24">
         <v>39505</v>
@@ -28070,9 +28042,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="426" spans="1:16" ht="14.5">
+    <row r="426" spans="1:16" ht="14.4">
       <c r="A426" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B426" s="24">
         <v>39505</v>
@@ -28104,9 +28076,9 @@
         <v>24.32</v>
       </c>
     </row>
-    <row r="427" spans="1:16" ht="14.5">
+    <row r="427" spans="1:16" ht="14.4">
       <c r="A427" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B427" s="24">
         <v>39640.85</v>
@@ -28121,9 +28093,9 @@
       <c r="O427" s="30"/>
       <c r="P427" s="30"/>
     </row>
-    <row r="428" spans="1:16" ht="14.5">
+    <row r="428" spans="1:16" ht="14.4">
       <c r="A428" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B428" s="24">
         <v>39640.85</v>
@@ -28138,7 +28110,7 @@
       <c r="O428" s="30"/>
       <c r="P428" s="30"/>
     </row>
-    <row r="429" spans="1:16" ht="14.5">
+    <row r="429" spans="1:16" ht="14.4">
       <c r="A429" s="20" t="s">
         <v>111</v>
       </c>
@@ -28160,7 +28132,7 @@
         <v>2.1567505720823799</v>
       </c>
     </row>
-    <row r="430" spans="1:16" ht="14.5">
+    <row r="430" spans="1:16" ht="14.4">
       <c r="A430" s="20" t="s">
         <v>111</v>
       </c>
@@ -28182,7 +28154,7 @@
         <v>3.20938215102974</v>
       </c>
     </row>
-    <row r="431" spans="1:16" ht="14.5">
+    <row r="431" spans="1:16" ht="14.4">
       <c r="A431" s="20" t="s">
         <v>111</v>
       </c>
@@ -28198,7 +28170,7 @@
         <v>3.0778032036613201</v>
       </c>
     </row>
-    <row r="432" spans="1:16" ht="14.5">
+    <row r="432" spans="1:16" ht="14.4">
       <c r="A432" s="20" t="s">
         <v>111</v>
       </c>
@@ -28220,7 +28192,7 @@
         <v>3.8672768878718502</v>
       </c>
     </row>
-    <row r="433" spans="1:11" ht="14.5">
+    <row r="433" spans="1:11" ht="14.4">
       <c r="A433" s="20" t="s">
         <v>111</v>
       </c>
@@ -28242,7 +28214,7 @@
         <v>2.8203661327231102</v>
       </c>
     </row>
-    <row r="434" spans="1:11" ht="14.5">
+    <row r="434" spans="1:11" ht="14.4">
       <c r="A434" s="20" t="s">
         <v>115</v>
       </c>
@@ -28264,7 +28236,7 @@
         <v>2.43951612903225</v>
       </c>
     </row>
-    <row r="435" spans="1:11" ht="14.5">
+    <row r="435" spans="1:11" ht="14.4">
       <c r="A435" s="20" t="s">
         <v>115</v>
       </c>
@@ -28286,7 +28258,7 @@
         <v>3.03091397849462</v>
       </c>
     </row>
-    <row r="436" spans="1:11" ht="14.5">
+    <row r="436" spans="1:11" ht="14.4">
       <c r="A436" s="20" t="s">
         <v>115</v>
       </c>
@@ -28302,7 +28274,7 @@
         <v>3.0913978494623602</v>
       </c>
     </row>
-    <row r="437" spans="1:11" ht="14.5">
+    <row r="437" spans="1:11" ht="14.4">
       <c r="A437" s="20" t="s">
         <v>115</v>
       </c>
@@ -28324,7 +28296,7 @@
         <v>3.55510752688172</v>
       </c>
     </row>
-    <row r="438" spans="1:11" ht="14.5">
+    <row r="438" spans="1:11" ht="14.4">
       <c r="A438" s="20" t="s">
         <v>115</v>
       </c>
@@ -28346,7 +28318,7 @@
         <v>2.9704301075268802</v>
       </c>
     </row>
-    <row r="439" spans="1:11" ht="14.5">
+    <row r="439" spans="1:11" ht="14.4">
       <c r="A439" s="20" t="s">
         <v>114</v>
       </c>
@@ -28368,7 +28340,7 @@
         <v>2.2826086956521698</v>
       </c>
     </row>
-    <row r="440" spans="1:11" ht="14.5">
+    <row r="440" spans="1:11" ht="14.4">
       <c r="A440" s="20" t="s">
         <v>114</v>
       </c>
@@ -28390,7 +28362,7 @@
         <v>3.0720823798626999</v>
       </c>
     </row>
-    <row r="441" spans="1:11" ht="14.5">
+    <row r="441" spans="1:11" ht="14.4">
       <c r="A441" s="20" t="s">
         <v>114</v>
       </c>
@@ -28406,7 +28378,7 @@
         <v>3.2780320366132698</v>
       </c>
     </row>
-    <row r="442" spans="1:11" ht="14.5">
+    <row r="442" spans="1:11" ht="14.4">
       <c r="A442" s="20" t="s">
         <v>114</v>
       </c>
@@ -28428,7 +28400,7 @@
         <v>4.3821510297482797</v>
       </c>
     </row>
-    <row r="443" spans="1:11" ht="14.5">
+    <row r="443" spans="1:11" ht="14.4">
       <c r="A443" s="20" t="s">
         <v>114</v>
       </c>
@@ -28450,7 +28422,7 @@
         <v>2.9633867276887802</v>
       </c>
     </row>
-    <row r="444" spans="1:11" ht="14.5">
+    <row r="444" spans="1:11" ht="14.4">
       <c r="A444" s="20" t="s">
         <v>116</v>
       </c>
@@ -28472,7 +28444,7 @@
         <v>2.3118279569892399</v>
       </c>
     </row>
-    <row r="445" spans="1:11" ht="14.5">
+    <row r="445" spans="1:11" ht="14.4">
       <c r="A445" s="20" t="s">
         <v>116</v>
       </c>
@@ -28494,7 +28466,7 @@
         <v>2.9637096774193501</v>
       </c>
     </row>
-    <row r="446" spans="1:11" ht="14.5">
+    <row r="446" spans="1:11" ht="14.4">
       <c r="A446" s="20" t="s">
         <v>116</v>
       </c>
@@ -28510,7 +28482,7 @@
         <v>3.0443548387096699</v>
       </c>
     </row>
-    <row r="447" spans="1:11" ht="14.5">
+    <row r="447" spans="1:11" ht="14.4">
       <c r="A447" s="20" t="s">
         <v>116</v>
       </c>
@@ -28532,7 +28504,7 @@
         <v>4.67741935483871</v>
       </c>
     </row>
-    <row r="448" spans="1:11" ht="14.5">
+    <row r="448" spans="1:11" ht="14.4">
       <c r="A448" s="20" t="s">
         <v>116</v>
       </c>
@@ -28554,7 +28526,7 @@
         <v>2.9502688172043001</v>
       </c>
     </row>
-    <row r="449" spans="1:11" ht="14.5">
+    <row r="449" spans="1:11" ht="14.4">
       <c r="A449" s="20" t="s">
         <v>117</v>
       </c>
@@ -28576,7 +28548,7 @@
         <v>2.3857526881720399</v>
       </c>
     </row>
-    <row r="450" spans="1:11" ht="14.5">
+    <row r="450" spans="1:11" ht="14.4">
       <c r="A450" s="20" t="s">
         <v>117</v>
       </c>
@@ -28598,7 +28570,7 @@
         <v>2.9973118279569801</v>
       </c>
     </row>
-    <row r="451" spans="1:11" ht="14.5">
+    <row r="451" spans="1:11" ht="14.4">
       <c r="A451" s="20" t="s">
         <v>117</v>
       </c>
@@ -28614,7 +28586,7 @@
         <v>3.1854838709677402</v>
       </c>
     </row>
-    <row r="452" spans="1:11" ht="14.5">
+    <row r="452" spans="1:11" ht="14.4">
       <c r="A452" s="20" t="s">
         <v>117</v>
       </c>
@@ -28636,7 +28608,7 @@
         <v>3.8776881720430101</v>
       </c>
     </row>
-    <row r="453" spans="1:11" ht="14.5">
+    <row r="453" spans="1:11" ht="14.4">
       <c r="A453" s="20" t="s">
         <v>117</v>
       </c>
@@ -28658,7 +28630,7 @@
         <v>2.8696236559139701</v>
       </c>
     </row>
-    <row r="454" spans="1:11" ht="14.5">
+    <row r="454" spans="1:11" ht="14.4">
       <c r="A454" s="20" t="s">
         <v>118</v>
       </c>
@@ -28680,7 +28652,7 @@
         <v>2.2916666666666599</v>
       </c>
     </row>
-    <row r="455" spans="1:11" ht="14.5">
+    <row r="455" spans="1:11" ht="14.4">
       <c r="A455" s="20" t="s">
         <v>118</v>
       </c>
@@ -28702,7 +28674,7 @@
         <v>3.0913978494623602</v>
       </c>
     </row>
-    <row r="456" spans="1:11" ht="14.5">
+    <row r="456" spans="1:11" ht="14.4">
       <c r="A456" s="20" t="s">
         <v>118</v>
       </c>
@@ -28718,7 +28690,7 @@
         <v>3.3131720430107499</v>
       </c>
     </row>
-    <row r="457" spans="1:11" ht="14.5">
+    <row r="457" spans="1:11" ht="14.4">
       <c r="A457" s="20" t="s">
         <v>118</v>
       </c>
@@ -28740,7 +28712,7 @@
         <v>4.4422043010752601</v>
       </c>
     </row>
-    <row r="458" spans="1:11" ht="14.5">
+    <row r="458" spans="1:11" ht="14.4">
       <c r="A458" s="20" t="s">
         <v>118</v>
       </c>
@@ -28762,7 +28734,7 @@
         <v>2.9838709677419302</v>
       </c>
     </row>
-    <row r="459" spans="1:11" ht="14.5">
+    <row r="459" spans="1:11" ht="14.4">
       <c r="A459" s="20" t="s">
         <v>112</v>
       </c>
@@ -28784,7 +28756,7 @@
         <v>2.8203661327231102</v>
       </c>
     </row>
-    <row r="460" spans="1:11" ht="14.5">
+    <row r="460" spans="1:11" ht="14.4">
       <c r="A460" s="20" t="s">
         <v>112</v>
       </c>
@@ -28806,7 +28778,7 @@
         <v>2.8718535469107498</v>
       </c>
     </row>
-    <row r="461" spans="1:11" ht="14.5">
+    <row r="461" spans="1:11" ht="14.4">
       <c r="A461" s="20" t="s">
         <v>112</v>
       </c>
@@ -28822,7 +28794,7 @@
         <v>3.1807780320366099</v>
       </c>
     </row>
-    <row r="462" spans="1:11" ht="14.5">
+    <row r="462" spans="1:11" ht="14.4">
       <c r="A462" s="20" t="s">
         <v>112</v>
       </c>
@@ -28844,7 +28816,7 @@
         <v>4.3649885583524002</v>
       </c>
     </row>
-    <row r="463" spans="1:11" ht="14.5">
+    <row r="463" spans="1:11" ht="14.4">
       <c r="A463" s="20" t="s">
         <v>112</v>
       </c>
@@ -28866,7 +28838,7 @@
         <v>2.95766590389016</v>
       </c>
     </row>
-    <row r="464" spans="1:11" ht="14.5">
+    <row r="464" spans="1:11" ht="14.4">
       <c r="A464" s="20" t="s">
         <v>113</v>
       </c>
@@ -28888,7 +28860,7 @@
         <v>2.5286041189931301</v>
       </c>
     </row>
-    <row r="465" spans="1:11" ht="14.5">
+    <row r="465" spans="1:11" ht="14.4">
       <c r="A465" s="20" t="s">
         <v>113</v>
       </c>
@@ -28910,7 +28882,7 @@
         <v>3.1121281464530801</v>
       </c>
     </row>
-    <row r="466" spans="1:11" ht="14.5">
+    <row r="466" spans="1:11" ht="14.4">
       <c r="A466" s="20" t="s">
         <v>113</v>
       </c>
@@ -28926,7 +28898,7 @@
         <v>3.2379862700228799</v>
       </c>
     </row>
-    <row r="467" spans="1:11" ht="14.5">
+    <row r="467" spans="1:11" ht="14.4">
       <c r="A467" s="20" t="s">
         <v>113</v>
       </c>
@@ -28948,7 +28920,7 @@
         <v>4.6739130434782599</v>
       </c>
     </row>
-    <row r="468" spans="1:11" ht="14.5">
+    <row r="468" spans="1:11" ht="14.4">
       <c r="A468" s="20" t="s">
         <v>113</v>
       </c>
@@ -28970,7 +28942,7 @@
         <v>2.8832951945079999</v>
       </c>
     </row>
-    <row r="469" spans="1:11" ht="14.5">
+    <row r="469" spans="1:11" ht="14.4">
       <c r="A469" s="20" t="s">
         <v>148</v>
       </c>
@@ -28992,7 +28964,7 @@
         <v>2.4224806201550302</v>
       </c>
     </row>
-    <row r="470" spans="1:11" ht="14.5">
+    <row r="470" spans="1:11" ht="14.4">
       <c r="A470" s="20" t="s">
         <v>148</v>
       </c>
@@ -29014,7 +28986,7 @@
         <v>2.9457364341085199</v>
       </c>
     </row>
-    <row r="471" spans="1:11" ht="14.5">
+    <row r="471" spans="1:11" ht="14.4">
       <c r="A471" s="20" t="s">
         <v>148</v>
       </c>
@@ -29030,7 +29002,7 @@
         <v>2.9586563307493501</v>
       </c>
     </row>
-    <row r="472" spans="1:11" ht="14.5">
+    <row r="472" spans="1:11" ht="14.4">
       <c r="A472" s="20" t="s">
         <v>148</v>
       </c>
@@ -29052,7 +29024,7 @@
         <v>3.9857881136950901</v>
       </c>
     </row>
-    <row r="473" spans="1:11" ht="14.5">
+    <row r="473" spans="1:11" ht="14.4">
       <c r="A473" s="20" t="s">
         <v>148</v>
       </c>
@@ -29074,7 +29046,7 @@
         <v>2.9586563307493501</v>
       </c>
     </row>
-    <row r="474" spans="1:11" ht="14.5">
+    <row r="474" spans="1:11" ht="14.4">
       <c r="A474" s="20" t="s">
         <v>150</v>
       </c>
@@ -29096,7 +29068,7 @@
         <v>2.2997416020671801</v>
       </c>
     </row>
-    <row r="475" spans="1:11" ht="14.5">
+    <row r="475" spans="1:11" ht="14.4">
       <c r="A475" s="20" t="s">
         <v>150</v>
       </c>
@@ -29118,7 +29090,7 @@
         <v>3.0813953488372001</v>
       </c>
     </row>
-    <row r="476" spans="1:11" ht="14.5">
+    <row r="476" spans="1:11" ht="14.4">
       <c r="A476" s="20" t="s">
         <v>150</v>
       </c>
@@ -29134,7 +29106,7 @@
         <v>3.2945736434108501</v>
       </c>
     </row>
-    <row r="477" spans="1:11" ht="14.5">
+    <row r="477" spans="1:11" ht="14.4">
       <c r="A477" s="20" t="s">
         <v>150</v>
       </c>
@@ -29156,7 +29128,7 @@
         <v>4.3475452196382403</v>
       </c>
     </row>
-    <row r="478" spans="1:11" ht="14.5">
+    <row r="478" spans="1:11" ht="14.4">
       <c r="A478" s="20" t="s">
         <v>150</v>
       </c>
@@ -29178,7 +29150,7 @@
         <v>2.9586563307493501</v>
       </c>
     </row>
-    <row r="479" spans="1:11" ht="14.5">
+    <row r="479" spans="1:11" ht="14.4">
       <c r="A479" s="20" t="s">
         <v>151</v>
       </c>
@@ -29200,7 +29172,7 @@
         <v>2.54521963824289</v>
       </c>
     </row>
-    <row r="480" spans="1:11" ht="14.5">
+    <row r="480" spans="1:11" ht="14.4">
       <c r="A480" s="20" t="s">
         <v>151</v>
       </c>
@@ -29222,7 +29194,7 @@
         <v>2.9134366925064601</v>
       </c>
     </row>
-    <row r="481" spans="1:11" ht="14.5">
+    <row r="481" spans="1:11" ht="14.4">
       <c r="A481" s="20" t="s">
         <v>151</v>
       </c>
@@ -29238,7 +29210,7 @@
         <v>3.0426356589147199</v>
       </c>
     </row>
-    <row r="482" spans="1:11" ht="14.5">
+    <row r="482" spans="1:11" ht="14.4">
       <c r="A482" s="20" t="s">
         <v>151</v>
       </c>
@@ -29260,7 +29232,7 @@
         <v>4.3346253229974101</v>
       </c>
     </row>
-    <row r="483" spans="1:11" ht="14.5">
+    <row r="483" spans="1:11" ht="14.4">
       <c r="A483" s="20" t="s">
         <v>151</v>
       </c>
@@ -29282,7 +29254,7 @@
         <v>2.8617571059431501</v>
       </c>
     </row>
-    <row r="484" spans="1:11" ht="14.5">
+    <row r="484" spans="1:11" ht="14.4">
       <c r="A484" s="20" t="s">
         <v>149</v>
       </c>
@@ -29304,7 +29276,7 @@
         <v>2.3385012919896599</v>
       </c>
     </row>
-    <row r="485" spans="1:11" ht="14.5">
+    <row r="485" spans="1:11" ht="14.4">
       <c r="A485" s="20" t="s">
         <v>149</v>
       </c>
@@ -29326,7 +29298,7 @@
         <v>3.0490956072351398</v>
       </c>
     </row>
-    <row r="486" spans="1:11" ht="14.5">
+    <row r="486" spans="1:11" ht="14.4">
       <c r="A486" s="20" t="s">
         <v>149</v>
       </c>
@@ -29342,7 +29314,7 @@
         <v>3.02325581395348</v>
       </c>
     </row>
-    <row r="487" spans="1:11" ht="14.5">
+    <row r="487" spans="1:11" ht="14.4">
       <c r="A487" s="20" t="s">
         <v>149</v>
       </c>
@@ -29364,7 +29336,7 @@
         <v>4.3410852713178301</v>
       </c>
     </row>
-    <row r="488" spans="1:11" ht="14.5">
+    <row r="488" spans="1:11" ht="14.4">
       <c r="A488" s="20" t="s">
         <v>149</v>
       </c>
@@ -29386,7 +29358,7 @@
         <v>2.88113695090439</v>
       </c>
     </row>
-    <row r="489" spans="1:11" ht="14.5">
+    <row r="489" spans="1:11" ht="14.4">
       <c r="A489" s="20" t="s">
         <v>129</v>
       </c>
@@ -29408,7 +29380,7 @@
         <v>2.87121373921127</v>
       </c>
     </row>
-    <row r="490" spans="1:11" ht="14.5">
+    <row r="490" spans="1:11" ht="14.4">
       <c r="A490" s="20" t="s">
         <v>129</v>
       </c>
@@ -29430,7 +29402,7 @@
         <v>3.0913225372815498</v>
       </c>
     </row>
-    <row r="491" spans="1:11" ht="14.5">
+    <row r="491" spans="1:11" ht="14.4">
       <c r="A491" s="20" t="s">
         <v>129</v>
       </c>
@@ -29446,7 +29418,7 @@
         <v>3.3612447705315498</v>
       </c>
     </row>
-    <row r="492" spans="1:11" ht="14.5">
+    <row r="492" spans="1:11" ht="14.4">
       <c r="A492" s="20" t="s">
         <v>129</v>
       </c>
@@ -29468,7 +29440,7 @@
         <v>3.1958176815709098</v>
       </c>
     </row>
-    <row r="493" spans="1:11" ht="14.5">
+    <row r="493" spans="1:11" ht="14.4">
       <c r="A493" s="20" t="s">
         <v>129</v>
       </c>
@@ -29490,7 +29462,7 @@
         <v>3.0391220774652301</v>
       </c>
     </row>
-    <row r="494" spans="1:11" ht="14.5">
+    <row r="494" spans="1:11" ht="14.4">
       <c r="A494" s="20" t="s">
         <v>133</v>
       </c>
@@ -29512,7 +29484,7 @@
         <v>2.8117048346055902</v>
       </c>
     </row>
-    <row r="495" spans="1:11" ht="14.5">
+    <row r="495" spans="1:11" ht="14.4">
       <c r="A495" s="20" t="s">
         <v>133</v>
       </c>
@@ -29534,7 +29506,7 @@
         <v>2.9898218829516501</v>
       </c>
     </row>
-    <row r="496" spans="1:11" ht="14.5">
+    <row r="496" spans="1:11" ht="14.4">
       <c r="A496" s="20" t="s">
         <v>133</v>
       </c>
@@ -29550,7 +29522,7 @@
         <v>3.3333333333333299</v>
       </c>
     </row>
-    <row r="497" spans="1:11" ht="14.5">
+    <row r="497" spans="1:11" ht="14.4">
       <c r="A497" s="20" t="s">
         <v>133</v>
       </c>
@@ -29572,7 +29544,7 @@
         <v>3.23791348600508</v>
       </c>
     </row>
-    <row r="498" spans="1:11" ht="14.5">
+    <row r="498" spans="1:11" ht="14.4">
       <c r="A498" s="20" t="s">
         <v>133</v>
       </c>
@@ -29594,7 +29566,7 @@
         <v>3.0852417302798898</v>
       </c>
     </row>
-    <row r="499" spans="1:11" ht="14.5">
+    <row r="499" spans="1:11" ht="14.4">
       <c r="A499" s="20" t="s">
         <v>132</v>
       </c>
@@ -29616,7 +29588,7 @@
         <v>2.8961204568011301</v>
       </c>
     </row>
-    <row r="500" spans="1:11" ht="14.5">
+    <row r="500" spans="1:11" ht="14.4">
       <c r="A500" s="20" t="s">
         <v>132</v>
       </c>
@@ -29638,7 +29610,7 @@
         <v>3.3277007927434399</v>
       </c>
     </row>
-    <row r="501" spans="1:11" ht="14.5">
+    <row r="501" spans="1:11" ht="14.4">
       <c r="A501" s="20" t="s">
         <v>132</v>
       </c>
@@ -29654,7 +29626,7 @@
         <v>3.4918715529479698</v>
       </c>
     </row>
-    <row r="502" spans="1:11" ht="14.5">
+    <row r="502" spans="1:11" ht="14.4">
       <c r="A502" s="20" t="s">
         <v>132</v>
       </c>
@@ -29676,7 +29648,7 @@
         <v>3.2829126725881599</v>
       </c>
     </row>
-    <row r="503" spans="1:11" ht="14.5">
+    <row r="503" spans="1:11" ht="14.4">
       <c r="A503" s="20" t="s">
         <v>132</v>
       </c>
@@ -29698,7 +29670,7 @@
         <v>3.2816877520509502</v>
       </c>
     </row>
-    <row r="504" spans="1:11" ht="14.5">
+    <row r="504" spans="1:11" ht="14.4">
       <c r="A504" s="20" t="s">
         <v>134</v>
       </c>
@@ -29720,7 +29692,7 @@
         <v>2.8498727735368901</v>
       </c>
     </row>
-    <row r="505" spans="1:11" ht="14.5">
+    <row r="505" spans="1:11" ht="14.4">
       <c r="A505" s="20" t="s">
         <v>134</v>
       </c>
@@ -29742,7 +29714,7 @@
         <v>3.25063613231552</v>
       </c>
     </row>
-    <row r="506" spans="1:11" ht="14.5">
+    <row r="506" spans="1:11" ht="14.4">
       <c r="A506" s="20" t="s">
         <v>134</v>
       </c>
@@ -29758,7 +29730,7 @@
         <v>3.4860050890585201</v>
       </c>
     </row>
-    <row r="507" spans="1:11" ht="14.5">
+    <row r="507" spans="1:11" ht="14.4">
       <c r="A507" s="20" t="s">
         <v>134</v>
       </c>
@@ -29780,7 +29752,7 @@
         <v>3.52417302798982</v>
       </c>
     </row>
-    <row r="508" spans="1:11" ht="14.5">
+    <row r="508" spans="1:11" ht="14.4">
       <c r="A508" s="20" t="s">
         <v>134</v>
       </c>
@@ -29802,7 +29774,7 @@
         <v>3.0407124681933801</v>
       </c>
     </row>
-    <row r="509" spans="1:11" ht="14.5">
+    <row r="509" spans="1:11" ht="14.4">
       <c r="A509" s="20" t="s">
         <v>135</v>
       </c>
@@ -29824,7 +29796,7 @@
         <v>2.8307888040712399</v>
       </c>
     </row>
-    <row r="510" spans="1:11" ht="14.5">
+    <row r="510" spans="1:11" ht="14.4">
       <c r="A510" s="20" t="s">
         <v>135</v>
       </c>
@@ -29846,7 +29818,7 @@
         <v>3.21882951653944</v>
       </c>
     </row>
-    <row r="511" spans="1:11" ht="14.5">
+    <row r="511" spans="1:11" ht="14.4">
       <c r="A511" s="20" t="s">
         <v>135</v>
       </c>
@@ -29862,7 +29834,7 @@
         <v>3.3460559796437601</v>
       </c>
     </row>
-    <row r="512" spans="1:11" ht="14.5">
+    <row r="512" spans="1:11" ht="14.4">
       <c r="A512" s="20" t="s">
         <v>135</v>
       </c>
@@ -29884,7 +29856,7 @@
         <v>3.30152671755725</v>
       </c>
     </row>
-    <row r="513" spans="1:11" ht="14.5">
+    <row r="513" spans="1:11" ht="14.4">
       <c r="A513" s="20" t="s">
         <v>135</v>
       </c>
@@ -29906,7 +29878,7 @@
         <v>2.9898218829516501</v>
       </c>
     </row>
-    <row r="514" spans="1:11" ht="14.5">
+    <row r="514" spans="1:11" ht="14.4">
       <c r="A514" s="20" t="s">
         <v>136</v>
       </c>
@@ -29928,7 +29900,7 @@
         <v>2.9325699745547</v>
       </c>
     </row>
-    <row r="515" spans="1:11" ht="14.5">
+    <row r="515" spans="1:11" ht="14.4">
       <c r="A515" s="20" t="s">
         <v>136</v>
       </c>
@@ -29950,7 +29922,7 @@
         <v>3.3587786259541899</v>
       </c>
     </row>
-    <row r="516" spans="1:11" ht="14.5">
+    <row r="516" spans="1:11" ht="14.4">
       <c r="A516" s="20" t="s">
         <v>136</v>
       </c>
@@ -29966,7 +29938,7 @@
         <v>3.5305343511450298</v>
       </c>
     </row>
-    <row r="517" spans="1:11" ht="14.5">
+    <row r="517" spans="1:11" ht="14.4">
       <c r="A517" s="20" t="s">
         <v>136</v>
       </c>
@@ -29988,7 +29960,7 @@
         <v>3.30152671755725</v>
       </c>
     </row>
-    <row r="518" spans="1:11" ht="14.5">
+    <row r="518" spans="1:11" ht="14.4">
       <c r="A518" s="20" t="s">
         <v>136</v>
       </c>
@@ -30010,7 +29982,7 @@
         <v>3.1870229007633499</v>
       </c>
     </row>
-    <row r="519" spans="1:11" ht="14.5">
+    <row r="519" spans="1:11" ht="14.4">
       <c r="A519" s="20" t="s">
         <v>130</v>
       </c>
@@ -30032,7 +30004,7 @@
         <v>2.9023078759249699</v>
       </c>
     </row>
-    <row r="520" spans="1:11" ht="14.5">
+    <row r="520" spans="1:11" ht="14.4">
       <c r="A520" s="20" t="s">
         <v>130</v>
       </c>
@@ -30054,7 +30026,7 @@
         <v>3.3960764852946701</v>
       </c>
     </row>
-    <row r="521" spans="1:11" ht="14.5">
+    <row r="521" spans="1:11" ht="14.4">
       <c r="A521" s="20" t="s">
         <v>130</v>
       </c>
@@ -30070,7 +30042,7 @@
         <v>3.4918715529479698</v>
       </c>
     </row>
-    <row r="522" spans="1:11" ht="14.5">
+    <row r="522" spans="1:11" ht="14.4">
       <c r="A522" s="20" t="s">
         <v>130</v>
       </c>
@@ -30092,7 +30064,7 @@
         <v>3.2829126725881599</v>
       </c>
     </row>
-    <row r="523" spans="1:11" ht="14.5">
+    <row r="523" spans="1:11" ht="14.4">
       <c r="A523" s="20" t="s">
         <v>130</v>
       </c>
@@ -30114,7 +30086,7 @@
         <v>3.02049700365591</v>
       </c>
     </row>
-    <row r="524" spans="1:11" ht="14.5">
+    <row r="524" spans="1:11" ht="14.4">
       <c r="A524" s="20" t="s">
         <v>131</v>
       </c>
@@ -30136,7 +30108,7 @@
         <v>2.9023392841438702</v>
       </c>
     </row>
-    <row r="525" spans="1:11" ht="14.5">
+    <row r="525" spans="1:11" ht="14.4">
       <c r="A525" s="20" t="s">
         <v>131</v>
       </c>
@@ -30158,7 +30130,7 @@
         <v>3.43963968491274</v>
       </c>
     </row>
-    <row r="526" spans="1:11" ht="14.5">
+    <row r="526" spans="1:11" ht="14.4">
       <c r="A526" s="20" t="s">
         <v>131</v>
       </c>
@@ -30174,7 +30146,7 @@
         <v>3.4421209342060601</v>
       </c>
     </row>
-    <row r="527" spans="1:11" ht="14.5">
+    <row r="527" spans="1:11" ht="14.4">
       <c r="A527" s="20" t="s">
         <v>131</v>
       </c>
@@ -30196,7 +30168,7 @@
         <v>3.3140382175207601</v>
       </c>
     </row>
-    <row r="528" spans="1:11" ht="14.5">
+    <row r="528" spans="1:11" ht="14.4">
       <c r="A528" s="20" t="s">
         <v>131</v>
       </c>
@@ -30218,7 +30190,7 @@
         <v>3.2319371333090401</v>
       </c>
     </row>
-    <row r="529" spans="1:11" ht="14.5">
+    <row r="529" spans="1:11" ht="14.4">
       <c r="A529" s="20" t="s">
         <v>156</v>
       </c>
@@ -30240,7 +30212,7 @@
         <v>3.0890052356020901</v>
       </c>
     </row>
-    <row r="530" spans="1:11" ht="14.5">
+    <row r="530" spans="1:11" ht="14.4">
       <c r="A530" s="20" t="s">
         <v>156</v>
       </c>
@@ -30262,7 +30234,7 @@
         <v>3.4947643979057501</v>
       </c>
     </row>
-    <row r="531" spans="1:11" ht="14.5">
+    <row r="531" spans="1:11" ht="14.4">
       <c r="A531" s="20" t="s">
         <v>156</v>
       </c>
@@ -30278,7 +30250,7 @@
         <v>3.6452879581151798</v>
       </c>
     </row>
-    <row r="532" spans="1:11" ht="14.5">
+    <row r="532" spans="1:11" ht="14.4">
       <c r="A532" s="20" t="s">
         <v>156</v>
       </c>
@@ -30300,7 +30272,7 @@
         <v>3.48821989528795</v>
       </c>
     </row>
-    <row r="533" spans="1:11" ht="14.5">
+    <row r="533" spans="1:11" ht="14.4">
       <c r="A533" s="20" t="s">
         <v>156</v>
       </c>
@@ -30322,7 +30294,7 @@
         <v>3.3246073298429302</v>
       </c>
     </row>
-    <row r="534" spans="1:11" ht="14.5">
+    <row r="534" spans="1:11" ht="14.4">
       <c r="A534" s="20" t="s">
         <v>158</v>
       </c>
@@ -30344,7 +30316,7 @@
         <v>3.21989528795811</v>
       </c>
     </row>
-    <row r="535" spans="1:11" ht="14.5">
+    <row r="535" spans="1:11" ht="14.4">
       <c r="A535" s="20" t="s">
         <v>158</v>
       </c>
@@ -30366,7 +30338,7 @@
         <v>3.58638743455497</v>
       </c>
     </row>
-    <row r="536" spans="1:11" ht="14.5">
+    <row r="536" spans="1:11" ht="14.4">
       <c r="A536" s="20" t="s">
         <v>158</v>
       </c>
@@ -30382,7 +30354,7 @@
         <v>3.7238219895287901</v>
       </c>
     </row>
-    <row r="537" spans="1:11" ht="14.5">
+    <row r="537" spans="1:11" ht="14.4">
       <c r="A537" s="20" t="s">
         <v>158</v>
       </c>
@@ -30404,7 +30376,7 @@
         <v>3.5340314136125599</v>
       </c>
     </row>
-    <row r="538" spans="1:11" ht="14.5">
+    <row r="538" spans="1:11" ht="14.4">
       <c r="A538" s="20" t="s">
         <v>158</v>
       </c>
@@ -30426,7 +30398,7 @@
         <v>3.4358638743455501</v>
       </c>
     </row>
-    <row r="539" spans="1:11" ht="14.5">
+    <row r="539" spans="1:11" ht="14.4">
       <c r="A539" s="20" t="s">
         <v>159</v>
       </c>
@@ -30448,7 +30420,7 @@
         <v>3.2591623036649202</v>
       </c>
     </row>
-    <row r="540" spans="1:11" ht="14.5">
+    <row r="540" spans="1:11" ht="14.4">
       <c r="A540" s="20" t="s">
         <v>159</v>
       </c>
@@ -30470,7 +30442,7 @@
         <v>3.6845549738219798</v>
       </c>
     </row>
-    <row r="541" spans="1:11" ht="14.5">
+    <row r="541" spans="1:11" ht="14.4">
       <c r="A541" s="20" t="s">
         <v>159</v>
       </c>
@@ -30486,7 +30458,7 @@
         <v>3.7303664921465902</v>
       </c>
     </row>
-    <row r="542" spans="1:11" ht="14.5">
+    <row r="542" spans="1:11" ht="14.4">
       <c r="A542" s="20" t="s">
         <v>159</v>
       </c>
@@ -30508,7 +30480,7 @@
         <v>3.7827225130889999</v>
       </c>
     </row>
-    <row r="543" spans="1:11" ht="14.5">
+    <row r="543" spans="1:11" ht="14.4">
       <c r="A543" s="20" t="s">
         <v>159</v>
       </c>
@@ -30530,7 +30502,7 @@
         <v>3.6256544502617798</v>
       </c>
     </row>
-    <row r="544" spans="1:11" ht="14.5">
+    <row r="544" spans="1:11" ht="14.4">
       <c r="A544" s="20" t="s">
         <v>157</v>
       </c>
@@ -30552,7 +30524,7 @@
         <v>3.2264397905759101</v>
       </c>
     </row>
-    <row r="545" spans="1:11" ht="14.5">
+    <row r="545" spans="1:11" ht="14.4">
       <c r="A545" s="20" t="s">
         <v>157</v>
       </c>
@@ -30574,7 +30546,7 @@
         <v>3.52094240837696</v>
       </c>
     </row>
-    <row r="546" spans="1:11" ht="14.5">
+    <row r="546" spans="1:11" ht="14.4">
       <c r="A546" s="20" t="s">
         <v>157</v>
       </c>
@@ -30590,7 +30562,7 @@
         <v>3.7369109947643899</v>
       </c>
     </row>
-    <row r="547" spans="1:11" ht="14.5">
+    <row r="547" spans="1:11" ht="14.4">
       <c r="A547" s="20" t="s">
         <v>157</v>
       </c>
@@ -30612,7 +30584,7 @@
         <v>3.5994764397905699</v>
       </c>
     </row>
-    <row r="548" spans="1:11" ht="14.5">
+    <row r="548" spans="1:11" ht="14.4">
       <c r="A548" s="20" t="s">
         <v>157</v>
       </c>
@@ -30634,7 +30606,7 @@
         <v>3.4554973821989501</v>
       </c>
     </row>
-    <row r="549" spans="1:11" ht="14.5">
+    <row r="549" spans="1:11" ht="14.4">
       <c r="A549" s="36" t="s">
         <v>98</v>
       </c>
@@ -30653,7 +30625,7 @@
         <v>3223.776673212255</v>
       </c>
     </row>
-    <row r="550" spans="1:11" ht="14.5">
+    <row r="550" spans="1:11" ht="14.4">
       <c r="A550" s="36" t="s">
         <v>98</v>
       </c>
@@ -30672,7 +30644,7 @@
         <v>4350.9401736765158</v>
       </c>
     </row>
-    <row r="551" spans="1:11" ht="14.5">
+    <row r="551" spans="1:11" ht="14.4">
       <c r="A551" s="36" t="s">
         <v>99</v>
       </c>
@@ -30691,7 +30663,7 @@
         <v>2880.4943737493259</v>
       </c>
     </row>
-    <row r="552" spans="1:11" ht="14.5">
+    <row r="552" spans="1:11" ht="14.4">
       <c r="A552" s="36" t="s">
         <v>99</v>
       </c>
@@ -30710,7 +30682,7 @@
         <v>4041.1668333444882</v>
       </c>
     </row>
-    <row r="553" spans="1:11" ht="14.5">
+    <row r="553" spans="1:11" ht="14.4">
       <c r="A553" s="36" t="s">
         <v>100</v>
       </c>
@@ -30729,7 +30701,7 @@
         <v>3178.2856589627668</v>
       </c>
     </row>
-    <row r="554" spans="1:11" ht="14.5">
+    <row r="554" spans="1:11" ht="14.4">
       <c r="A554" s="36" t="s">
         <v>100</v>
       </c>
@@ -30748,7 +30720,7 @@
         <v>4343.4537116461033</v>
       </c>
     </row>
-    <row r="555" spans="1:11" ht="14.5">
+    <row r="555" spans="1:11" ht="14.4">
       <c r="A555" s="36" t="s">
         <v>101</v>
       </c>
@@ -30767,7 +30739,7 @@
         <v>2911.4125405441478</v>
       </c>
     </row>
-    <row r="556" spans="1:11" ht="14.5">
+    <row r="556" spans="1:11" ht="14.4">
       <c r="A556" s="36" t="s">
         <v>101</v>
       </c>
@@ -30786,7 +30758,7 @@
         <v>4022.0924552590864</v>
       </c>
     </row>
-    <row r="557" spans="1:11" ht="14.5">
+    <row r="557" spans="1:11" ht="14.4">
       <c r="A557" s="36" t="s">
         <v>106</v>
       </c>
@@ -30805,7 +30777,7 @@
         <v>3399.6403436953492</v>
       </c>
     </row>
-    <row r="558" spans="1:11" ht="14.5">
+    <row r="558" spans="1:11" ht="14.4">
       <c r="A558" s="36" t="s">
         <v>106</v>
       </c>
@@ -30824,7 +30796,7 @@
         <v>5446.9407568556717</v>
       </c>
     </row>
-    <row r="559" spans="1:11" ht="14.5">
+    <row r="559" spans="1:11" ht="14.4">
       <c r="A559" s="36" t="s">
         <v>107</v>
       </c>
@@ -30843,7 +30815,7 @@
         <v>3276.8695659997829</v>
       </c>
     </row>
-    <row r="560" spans="1:11" ht="14.5">
+    <row r="560" spans="1:11" ht="14.4">
       <c r="A560" s="36" t="s">
         <v>107</v>
       </c>
@@ -30862,7 +30834,7 @@
         <v>4960.2586596579185</v>
       </c>
     </row>
-    <row r="561" spans="1:7" ht="14.5">
+    <row r="561" spans="1:7" ht="14.4">
       <c r="A561" s="36" t="s">
         <v>108</v>
       </c>
@@ -30881,7 +30853,7 @@
         <v>3399.131659282496</v>
       </c>
     </row>
-    <row r="562" spans="1:7" ht="14.5">
+    <row r="562" spans="1:7" ht="14.4">
       <c r="A562" s="36" t="s">
         <v>108</v>
       </c>
@@ -30900,7 +30872,7 @@
         <v>5077.301901067307</v>
       </c>
     </row>
-    <row r="563" spans="1:7" ht="14.5">
+    <row r="563" spans="1:7" ht="14.4">
       <c r="A563" s="36" t="s">
         <v>109</v>
       </c>
@@ -30919,7 +30891,7 @@
         <v>3795.6716478942503</v>
       </c>
     </row>
-    <row r="564" spans="1:7" ht="14.5">
+    <row r="564" spans="1:7" ht="14.4">
       <c r="A564" s="36" t="s">
         <v>109</v>
       </c>
@@ -30938,7 +30910,7 @@
         <v>5740.0154061539515</v>
       </c>
     </row>
-    <row r="565" spans="1:7" ht="14.5">
+    <row r="565" spans="1:7" ht="14.4">
       <c r="A565" s="36" t="s">
         <v>110</v>
       </c>
@@ -30957,7 +30929,7 @@
         <v>3732.0886704159821</v>
       </c>
     </row>
-    <row r="566" spans="1:7" ht="14.5">
+    <row r="566" spans="1:7" ht="14.4">
       <c r="A566" s="36" t="s">
         <v>110</v>
       </c>
@@ -30976,7 +30948,7 @@
         <v>5564.2004988375256</v>
       </c>
     </row>
-    <row r="567" spans="1:7" ht="14.5">
+    <row r="567" spans="1:7" ht="14.4">
       <c r="A567" s="36" t="s">
         <v>93</v>
       </c>
@@ -30995,7 +30967,7 @@
         <v>4603.9257214211848</v>
       </c>
     </row>
-    <row r="568" spans="1:7" ht="14.5">
+    <row r="568" spans="1:7" ht="14.4">
       <c r="A568" s="36" t="s">
         <v>93</v>
       </c>
@@ -31014,7 +30986,7 @@
         <v>5680.7994844255018</v>
       </c>
     </row>
-    <row r="569" spans="1:7" ht="14.5">
+    <row r="569" spans="1:7" ht="14.4">
       <c r="A569" s="36" t="s">
         <v>94</v>
       </c>
@@ -31033,7 +31005,7 @@
         <v>4779.1133127390776</v>
       </c>
     </row>
-    <row r="570" spans="1:7" ht="14.5">
+    <row r="570" spans="1:7" ht="14.4">
       <c r="A570" s="36" t="s">
         <v>94</v>
       </c>
@@ -31052,7 +31024,7 @@
         <v>5949.6300157929227</v>
       </c>
     </row>
-    <row r="571" spans="1:7" ht="14.5">
+    <row r="571" spans="1:7" ht="14.4">
       <c r="A571" s="36" t="s">
         <v>95</v>
       </c>
@@ -31071,7 +31043,7 @@
         <v>4712.1718627953696</v>
       </c>
     </row>
-    <row r="572" spans="1:7" ht="14.5">
+    <row r="572" spans="1:7" ht="14.4">
       <c r="A572" s="36" t="s">
         <v>95</v>
       </c>
@@ -31090,7 +31062,7 @@
         <v>6134.885955643962</v>
       </c>
     </row>
-    <row r="573" spans="1:7" ht="14.5">
+    <row r="573" spans="1:7" ht="14.4">
       <c r="A573" s="36" t="s">
         <v>96</v>
       </c>
@@ -31109,7 +31081,7 @@
         <v>4381.3751847006806</v>
       </c>
     </row>
-    <row r="574" spans="1:7" ht="14.5">
+    <row r="574" spans="1:7" ht="14.4">
       <c r="A574" s="36" t="s">
         <v>96</v>
       </c>
@@ -31128,7 +31100,7 @@
         <v>6095.9162428213804</v>
       </c>
     </row>
-    <row r="575" spans="1:7" ht="14.5">
+    <row r="575" spans="1:7" ht="14.4">
       <c r="A575" s="36" t="s">
         <v>97</v>
       </c>
@@ -31147,7 +31119,7 @@
         <v>4625.7885341080582</v>
       </c>
     </row>
-    <row r="576" spans="1:7" ht="14.5">
+    <row r="576" spans="1:7" ht="14.4">
       <c r="A576" s="36" t="s">
         <v>97</v>
       </c>
@@ -31166,7 +31138,7 @@
         <v>5922.7847439018997</v>
       </c>
     </row>
-    <row r="577" spans="1:14" ht="14.5">
+    <row r="577" spans="1:14" ht="14.4">
       <c r="A577" s="36" t="s">
         <v>102</v>
       </c>
@@ -31185,7 +31157,7 @@
         <v>6957.403180581885</v>
       </c>
     </row>
-    <row r="578" spans="1:14" ht="14.5">
+    <row r="578" spans="1:14" ht="14.4">
       <c r="A578" s="36" t="s">
         <v>102</v>
       </c>
@@ -31204,7 +31176,7 @@
         <v>8832.6537211379964</v>
       </c>
     </row>
-    <row r="579" spans="1:14" ht="14.5">
+    <row r="579" spans="1:14" ht="14.4">
       <c r="A579" s="36" t="s">
         <v>103</v>
       </c>
@@ -31223,7 +31195,7 @@
         <v>7080.5168749053928</v>
       </c>
     </row>
-    <row r="580" spans="1:14" ht="14.5">
+    <row r="580" spans="1:14" ht="14.4">
       <c r="A580" s="36" t="s">
         <v>103</v>
       </c>
@@ -31242,7 +31214,7 @@
         <v>8909.8066338252029</v>
       </c>
     </row>
-    <row r="581" spans="1:14" ht="14.5">
+    <row r="581" spans="1:14" ht="14.4">
       <c r="A581" s="36" t="s">
         <v>104</v>
       </c>
@@ -31261,7 +31233,7 @@
         <v>7746.9637783104145</v>
       </c>
     </row>
-    <row r="582" spans="1:14" ht="14.5">
+    <row r="582" spans="1:14" ht="14.4">
       <c r="A582" s="36" t="s">
         <v>104</v>
       </c>
@@ -31280,7 +31252,7 @@
         <v>9870.4327258074645</v>
       </c>
     </row>
-    <row r="583" spans="1:14" ht="14.5">
+    <row r="583" spans="1:14" ht="14.4">
       <c r="A583" s="36" t="s">
         <v>105</v>
       </c>
@@ -31299,7 +31271,7 @@
         <v>6622.6044026118634</v>
       </c>
     </row>
-    <row r="584" spans="1:14" ht="14.5">
+    <row r="584" spans="1:14" ht="14.4">
       <c r="A584" s="36" t="s">
         <v>105</v>
       </c>
@@ -31318,7 +31290,7 @@
         <v>8307.3049535560003</v>
       </c>
     </row>
-    <row r="585" spans="1:14" ht="14.5">
+    <row r="585" spans="1:14" ht="14.4">
       <c r="A585" s="36" t="s">
         <v>164</v>
       </c>
@@ -31337,7 +31309,7 @@
         <v>6934.2136421292826</v>
       </c>
     </row>
-    <row r="586" spans="1:14" ht="14.5">
+    <row r="586" spans="1:14" ht="14.4">
       <c r="A586" s="36" t="s">
         <v>164</v>
       </c>
@@ -31356,7 +31328,7 @@
         <v>8841.7043896322921</v>
       </c>
     </row>
-    <row r="587" spans="1:14" ht="14.5">
+    <row r="587" spans="1:14" ht="14.4">
       <c r="A587" s="36" t="s">
         <v>165</v>
       </c>
@@ -31377,7 +31349,7 @@
       <c r="M587" s="26"/>
       <c r="N587" s="26"/>
     </row>
-    <row r="588" spans="1:14" ht="14.5">
+    <row r="588" spans="1:14" ht="14.4">
       <c r="A588" s="36" t="s">
         <v>165</v>
       </c>
@@ -31398,7 +31370,7 @@
       <c r="M588" s="26"/>
       <c r="N588" s="26"/>
     </row>
-    <row r="589" spans="1:14" ht="14.5">
+    <row r="589" spans="1:14" ht="14.4">
       <c r="A589" s="20" t="s">
         <v>123</v>
       </c>
@@ -31420,7 +31392,7 @@
       <c r="M589" s="26"/>
       <c r="N589" s="26"/>
     </row>
-    <row r="590" spans="1:14" ht="14.5">
+    <row r="590" spans="1:14" ht="14.4">
       <c r="A590" s="20" t="s">
         <v>123</v>
       </c>
@@ -31440,7 +31412,7 @@
       </c>
       <c r="K590" s="25"/>
     </row>
-    <row r="591" spans="1:14" ht="14.5">
+    <row r="591" spans="1:14" ht="14.4">
       <c r="A591" s="20" t="s">
         <v>123</v>
       </c>
@@ -31456,7 +31428,7 @@
         <v>3.8456315074694398</v>
       </c>
     </row>
-    <row r="592" spans="1:14" ht="14.5">
+    <row r="592" spans="1:14" ht="14.4">
       <c r="A592" s="20" t="s">
         <v>123</v>
       </c>
@@ -31478,7 +31450,7 @@
         <v>3.7498812378094102</v>
       </c>
     </row>
-    <row r="593" spans="1:11" ht="14.5">
+    <row r="593" spans="1:11" ht="14.4">
       <c r="A593" s="20" t="s">
         <v>123</v>
       </c>
@@ -31500,7 +31472,7 @@
         <v>4.1730518809136496</v>
       </c>
     </row>
-    <row r="594" spans="1:11" ht="14.5">
+    <row r="594" spans="1:11" ht="14.4">
       <c r="A594" s="20" t="s">
         <v>123</v>
       </c>
@@ -31522,7 +31494,7 @@
         <v>4.43663408391037</v>
       </c>
     </row>
-    <row r="595" spans="1:11" ht="14.5">
+    <row r="595" spans="1:11" ht="14.4">
       <c r="A595" s="20" t="s">
         <v>119</v>
       </c>
@@ -31542,7 +31514,7 @@
       </c>
       <c r="K595" s="25"/>
     </row>
-    <row r="596" spans="1:11" ht="14.5">
+    <row r="596" spans="1:11" ht="14.4">
       <c r="A596" s="20" t="s">
         <v>119</v>
       </c>
@@ -31562,7 +31534,7 @@
       </c>
       <c r="K596" s="25"/>
     </row>
-    <row r="597" spans="1:11" ht="14.5">
+    <row r="597" spans="1:11" ht="14.4">
       <c r="A597" s="20" t="s">
         <v>119</v>
       </c>
@@ -31578,7 +31550,7 @@
         <v>4.01719901719901</v>
       </c>
     </row>
-    <row r="598" spans="1:11" ht="14.5">
+    <row r="598" spans="1:11" ht="14.4">
       <c r="A598" s="20" t="s">
         <v>119</v>
       </c>
@@ -31600,7 +31572,7 @@
         <v>3.8636363636363602</v>
       </c>
     </row>
-    <row r="599" spans="1:11" ht="14.5">
+    <row r="599" spans="1:11" ht="14.4">
       <c r="A599" s="20" t="s">
         <v>119</v>
       </c>
@@ -31622,7 +31594,7 @@
         <v>4.1891891891891797</v>
       </c>
     </row>
-    <row r="600" spans="1:11" ht="14.5">
+    <row r="600" spans="1:11" ht="14.4">
       <c r="A600" s="20" t="s">
         <v>119</v>
       </c>
@@ -31644,7 +31616,7 @@
         <v>4.5761670761670699</v>
       </c>
     </row>
-    <row r="601" spans="1:11" ht="14.5">
+    <row r="601" spans="1:11" ht="14.4">
       <c r="A601" s="20" t="s">
         <v>126</v>
       </c>
@@ -31664,7 +31636,7 @@
       </c>
       <c r="K601" s="25"/>
     </row>
-    <row r="602" spans="1:11" ht="14.5">
+    <row r="602" spans="1:11" ht="14.4">
       <c r="A602" s="20" t="s">
         <v>126</v>
       </c>
@@ -31684,7 +31656,7 @@
       </c>
       <c r="K602" s="25"/>
     </row>
-    <row r="603" spans="1:11" ht="14.5">
+    <row r="603" spans="1:11" ht="14.4">
       <c r="A603" s="20" t="s">
         <v>126</v>
       </c>
@@ -31700,7 +31672,7 @@
         <v>3.7865298526230999</v>
       </c>
     </row>
-    <row r="604" spans="1:11" ht="14.5">
+    <row r="604" spans="1:11" ht="14.4">
       <c r="A604" s="20" t="s">
         <v>126</v>
       </c>
@@ -31722,7 +31694,7 @@
         <v>3.7262405758708699</v>
       </c>
     </row>
-    <row r="605" spans="1:11" ht="14.5">
+    <row r="605" spans="1:11" ht="14.4">
       <c r="A605" s="20" t="s">
         <v>126</v>
       </c>
@@ -31744,7 +31716,7 @@
         <v>4.18483029581565</v>
       </c>
     </row>
-    <row r="606" spans="1:11" ht="14.5">
+    <row r="606" spans="1:11" ht="14.4">
       <c r="A606" s="20" t="s">
         <v>126</v>
       </c>
@@ -31766,7 +31738,7 @@
         <v>4.3479816016408703</v>
       </c>
     </row>
-    <row r="607" spans="1:11" ht="14.5">
+    <row r="607" spans="1:11" ht="14.4">
       <c r="A607" s="20" t="s">
         <v>120</v>
       </c>
@@ -31786,7 +31758,7 @@
       </c>
       <c r="K607" s="25"/>
     </row>
-    <row r="608" spans="1:11" ht="14.5">
+    <row r="608" spans="1:11" ht="14.4">
       <c r="A608" s="20" t="s">
         <v>120</v>
       </c>
@@ -31806,7 +31778,7 @@
       </c>
       <c r="K608" s="25"/>
     </row>
-    <row r="609" spans="1:11" ht="14.5">
+    <row r="609" spans="1:11" ht="14.4">
       <c r="A609" s="20" t="s">
         <v>120</v>
       </c>
@@ -31822,7 +31794,7 @@
         <v>3.79606879606879</v>
       </c>
     </row>
-    <row r="610" spans="1:11" ht="14.5">
+    <row r="610" spans="1:11" ht="14.4">
       <c r="A610" s="20" t="s">
         <v>120</v>
       </c>
@@ -31844,7 +31816,7 @@
         <v>3.83292383292383</v>
       </c>
     </row>
-    <row r="611" spans="1:11" ht="14.5">
+    <row r="611" spans="1:11" ht="14.4">
       <c r="A611" s="20" t="s">
         <v>120</v>
       </c>
@@ -31866,7 +31838,7 @@
         <v>4.1154791154791104</v>
       </c>
     </row>
-    <row r="612" spans="1:11" ht="14.5">
+    <row r="612" spans="1:11" ht="14.4">
       <c r="A612" s="20" t="s">
         <v>120</v>
       </c>
@@ -31888,7 +31860,7 @@
         <v>4.6498771498771498</v>
       </c>
     </row>
-    <row r="613" spans="1:11" ht="14.5">
+    <row r="613" spans="1:11" ht="14.4">
       <c r="A613" s="20" t="s">
         <v>127</v>
       </c>
@@ -31908,7 +31880,7 @@
       </c>
       <c r="K613" s="25"/>
     </row>
-    <row r="614" spans="1:11" ht="14.5">
+    <row r="614" spans="1:11" ht="14.4">
       <c r="A614" s="20" t="s">
         <v>127</v>
       </c>
@@ -31928,7 +31900,7 @@
       </c>
       <c r="K614" s="25"/>
     </row>
-    <row r="615" spans="1:11" ht="14.5">
+    <row r="615" spans="1:11" ht="14.4">
       <c r="A615" s="20" t="s">
         <v>127</v>
       </c>
@@ -31944,7 +31916,7 @@
         <v>3.94018018320115</v>
       </c>
     </row>
-    <row r="616" spans="1:11" ht="14.5">
+    <row r="616" spans="1:11" ht="14.4">
       <c r="A616" s="20" t="s">
         <v>127</v>
       </c>
@@ -31966,7 +31938,7 @@
         <v>3.7084961073945499</v>
       </c>
     </row>
-    <row r="617" spans="1:11" ht="14.5">
+    <row r="617" spans="1:11" ht="14.4">
       <c r="A617" s="20" t="s">
         <v>127</v>
       </c>
@@ -31988,7 +31960,7 @@
         <v>4.2734827780851603</v>
       </c>
     </row>
-    <row r="618" spans="1:11" ht="14.5">
+    <row r="618" spans="1:11" ht="14.4">
       <c r="A618" s="20" t="s">
         <v>127</v>
       </c>
@@ -32010,7 +31982,7 @@
         <v>4.4839293798098598</v>
       </c>
     </row>
-    <row r="619" spans="1:11" ht="14.5">
+    <row r="619" spans="1:11" ht="14.4">
       <c r="A619" s="20" t="s">
         <v>128</v>
       </c>
@@ -32030,7 +32002,7 @@
       </c>
       <c r="K619" s="25"/>
     </row>
-    <row r="620" spans="1:11" ht="14.5">
+    <row r="620" spans="1:11" ht="14.4">
       <c r="A620" s="20" t="s">
         <v>128</v>
       </c>
@@ -32050,7 +32022,7 @@
       </c>
       <c r="K620" s="25"/>
     </row>
-    <row r="621" spans="1:11" ht="14.5">
+    <row r="621" spans="1:11" ht="14.4">
       <c r="A621" s="20" t="s">
         <v>128</v>
       </c>
@@ -32066,7 +32038,7 @@
         <v>3.9638208451396899</v>
       </c>
     </row>
-    <row r="622" spans="1:11" ht="14.5">
+    <row r="622" spans="1:11" ht="14.4">
       <c r="A622" s="20" t="s">
         <v>128</v>
       </c>
@@ -32088,7 +32060,7 @@
         <v>3.6907795829630698</v>
       </c>
     </row>
-    <row r="623" spans="1:11" ht="14.5">
+    <row r="623" spans="1:11" ht="14.4">
       <c r="A623" s="20" t="s">
         <v>128</v>
       </c>
@@ -32110,7 +32082,7 @@
         <v>4.2143950952612403</v>
       </c>
     </row>
-    <row r="624" spans="1:11" ht="14.5">
+    <row r="624" spans="1:11" ht="14.4">
       <c r="A624" s="20" t="s">
         <v>128</v>
       </c>
@@ -32132,7 +32104,7 @@
         <v>4.6139250764269599</v>
       </c>
     </row>
-    <row r="625" spans="1:11" ht="14.5">
+    <row r="625" spans="1:11" ht="14.4">
       <c r="A625" s="20" t="s">
         <v>121</v>
       </c>
@@ -32152,7 +32124,7 @@
       </c>
       <c r="K625" s="25"/>
     </row>
-    <row r="626" spans="1:11" ht="14.5">
+    <row r="626" spans="1:11" ht="14.4">
       <c r="A626" s="20" t="s">
         <v>121</v>
       </c>
@@ -32172,7 +32144,7 @@
       </c>
       <c r="K626" s="25"/>
     </row>
-    <row r="627" spans="1:11" ht="14.5">
+    <row r="627" spans="1:11" ht="14.4">
       <c r="A627" s="20" t="s">
         <v>121</v>
       </c>
@@ -32188,7 +32160,7 @@
         <v>4.2751842751842704</v>
       </c>
     </row>
-    <row r="628" spans="1:11" ht="14.5">
+    <row r="628" spans="1:11" ht="14.4">
       <c r="A628" s="20" t="s">
         <v>121</v>
       </c>
@@ -32210,7 +32182,7 @@
         <v>3.8452088452088402</v>
       </c>
     </row>
-    <row r="629" spans="1:11" ht="14.5">
+    <row r="629" spans="1:11" ht="14.4">
       <c r="A629" s="20" t="s">
         <v>121</v>
       </c>
@@ -32232,7 +32204,7 @@
         <v>4.1891891891891797</v>
       </c>
     </row>
-    <row r="630" spans="1:11" ht="14.5">
+    <row r="630" spans="1:11" ht="14.4">
       <c r="A630" s="20" t="s">
         <v>121</v>
       </c>
@@ -32254,7 +32226,7 @@
         <v>4.6253071253071196</v>
       </c>
     </row>
-    <row r="631" spans="1:11" ht="14.5">
+    <row r="631" spans="1:11" ht="14.4">
       <c r="A631" s="20" t="s">
         <v>122</v>
       </c>
@@ -32274,7 +32246,7 @@
       </c>
       <c r="K631" s="25"/>
     </row>
-    <row r="632" spans="1:11" ht="14.5">
+    <row r="632" spans="1:11" ht="14.4">
       <c r="A632" s="20" t="s">
         <v>122</v>
       </c>
@@ -32294,7 +32266,7 @@
       </c>
       <c r="K632" s="25"/>
     </row>
-    <row r="633" spans="1:11" ht="14.5">
+    <row r="633" spans="1:11" ht="14.4">
       <c r="A633" s="20" t="s">
         <v>122</v>
       </c>
@@ -32310,7 +32282,7 @@
         <v>3.8206388206388202</v>
       </c>
     </row>
-    <row r="634" spans="1:11" ht="14.5">
+    <row r="634" spans="1:11" ht="14.4">
       <c r="A634" s="20" t="s">
         <v>122</v>
       </c>
@@ -32332,7 +32304,7 @@
         <v>3.7469287469287398</v>
       </c>
     </row>
-    <row r="635" spans="1:11" ht="14.5">
+    <row r="635" spans="1:11" ht="14.4">
       <c r="A635" s="20" t="s">
         <v>122</v>
       </c>
@@ -32354,7 +32326,7 @@
         <v>4.2321867321867304</v>
       </c>
     </row>
-    <row r="636" spans="1:11" ht="14.5">
+    <row r="636" spans="1:11" ht="14.4">
       <c r="A636" s="20" t="s">
         <v>122</v>
       </c>
@@ -32376,7 +32348,7 @@
         <v>4.3918918918918903</v>
       </c>
     </row>
-    <row r="637" spans="1:11" ht="14.5">
+    <row r="637" spans="1:11" ht="14.4">
       <c r="A637" s="20" t="s">
         <v>124</v>
       </c>
@@ -32396,7 +32368,7 @@
       </c>
       <c r="K637" s="25"/>
     </row>
-    <row r="638" spans="1:11" ht="14.5">
+    <row r="638" spans="1:11" ht="14.4">
       <c r="A638" s="20" t="s">
         <v>124</v>
       </c>
@@ -32416,7 +32388,7 @@
       </c>
       <c r="K638" s="25"/>
     </row>
-    <row r="639" spans="1:11" ht="14.5">
+    <row r="639" spans="1:11" ht="14.4">
       <c r="A639" s="20" t="s">
         <v>124</v>
       </c>
@@ -32432,7 +32404,7 @@
         <v>3.8160806800462699</v>
       </c>
     </row>
-    <row r="640" spans="1:11" ht="14.5">
+    <row r="640" spans="1:11" ht="14.4">
       <c r="A640" s="20" t="s">
         <v>124</v>
       </c>
@@ -32454,7 +32426,7 @@
         <v>3.8089968646781598</v>
       </c>
     </row>
-    <row r="641" spans="1:11" ht="14.5">
+    <row r="641" spans="1:11" ht="14.4">
       <c r="A641" s="20" t="s">
         <v>124</v>
       </c>
@@ -32476,7 +32448,7 @@
         <v>4.1966785708297696</v>
       </c>
     </row>
-    <row r="642" spans="1:11" ht="14.5">
+    <row r="642" spans="1:11" ht="14.4">
       <c r="A642" s="20" t="s">
         <v>124</v>
       </c>
@@ -32498,7 +32470,7 @@
         <v>4.44844044285722</v>
       </c>
     </row>
-    <row r="643" spans="1:11" ht="14.5">
+    <row r="643" spans="1:11" ht="14.4">
       <c r="A643" s="20" t="s">
         <v>125</v>
       </c>
@@ -32518,7 +32490,7 @@
       </c>
       <c r="K643" s="25"/>
     </row>
-    <row r="644" spans="1:11" ht="14.5">
+    <row r="644" spans="1:11" ht="14.4">
       <c r="A644" s="20" t="s">
         <v>125</v>
       </c>
@@ -32538,7 +32510,7 @@
       </c>
       <c r="K644" s="25"/>
     </row>
-    <row r="645" spans="1:11" ht="14.5">
+    <row r="645" spans="1:11" ht="14.4">
       <c r="A645" s="20" t="s">
         <v>125</v>
       </c>
@@ -32554,7 +32526,7 @@
         <v>3.8456454794918602</v>
       </c>
     </row>
-    <row r="646" spans="1:11" ht="14.5">
+    <row r="646" spans="1:11" ht="14.4">
       <c r="A646" s="20" t="s">
         <v>125</v>
       </c>
@@ -32576,7 +32548,7 @@
         <v>3.7853422307172102</v>
       </c>
     </row>
-    <row r="647" spans="1:11" ht="14.5">
+    <row r="647" spans="1:11" ht="14.4">
       <c r="A647" s="20" t="s">
         <v>125</v>
       </c>
@@ -32598,7 +32570,7 @@
         <v>4.2439319506619899</v>
       </c>
     </row>
-    <row r="648" spans="1:11" ht="14.5">
+    <row r="648" spans="1:11" ht="14.4">
       <c r="A648" s="20" t="s">
         <v>125</v>
       </c>
@@ -32620,7 +32592,7 @@
         <v>3.95200051417042</v>
       </c>
     </row>
-    <row r="649" spans="1:11" ht="14.5">
+    <row r="649" spans="1:11" ht="14.4">
       <c r="A649" s="20" t="s">
         <v>152</v>
       </c>
@@ -32640,7 +32612,7 @@
       </c>
       <c r="K649" s="25"/>
     </row>
-    <row r="650" spans="1:11" ht="14.5">
+    <row r="650" spans="1:11" ht="14.4">
       <c r="A650" s="20" t="s">
         <v>152</v>
       </c>
@@ -32660,7 +32632,7 @@
       </c>
       <c r="K650" s="25"/>
     </row>
-    <row r="651" spans="1:11" ht="14.5">
+    <row r="651" spans="1:11" ht="14.4">
       <c r="A651" s="20" t="s">
         <v>152</v>
       </c>
@@ -32676,7 +32648,7 @@
         <v>3.5629921259842501</v>
       </c>
     </row>
-    <row r="652" spans="1:11" ht="14.5">
+    <row r="652" spans="1:11" ht="14.4">
       <c r="A652" s="20" t="s">
         <v>152</v>
       </c>
@@ -32698,7 +32670,7 @@
         <v>3.65485564304461</v>
       </c>
     </row>
-    <row r="653" spans="1:11" ht="14.5">
+    <row r="653" spans="1:11" ht="14.4">
       <c r="A653" s="20" t="s">
         <v>152</v>
       </c>
@@ -32720,7 +32692,7 @@
         <v>4.1141732283464503</v>
       </c>
     </row>
-    <row r="654" spans="1:11" ht="14.5">
+    <row r="654" spans="1:11" ht="14.4">
       <c r="A654" s="20" t="s">
         <v>152</v>
       </c>
@@ -32742,7 +32714,7 @@
         <v>4.4881889763779501</v>
       </c>
     </row>
-    <row r="655" spans="1:11" ht="14.5">
+    <row r="655" spans="1:11" ht="14.4">
       <c r="A655" s="20" t="s">
         <v>154</v>
       </c>
@@ -32762,7 +32734,7 @@
       </c>
       <c r="K655" s="25"/>
     </row>
-    <row r="656" spans="1:11" ht="14.5">
+    <row r="656" spans="1:11" ht="14.4">
       <c r="A656" s="20" t="s">
         <v>154</v>
       </c>
@@ -32782,7 +32754,7 @@
       </c>
       <c r="K656" s="25"/>
     </row>
-    <row r="657" spans="1:11" ht="14.5">
+    <row r="657" spans="1:11" ht="14.4">
       <c r="A657" s="20" t="s">
         <v>154</v>
       </c>
@@ -32798,7 +32770,7 @@
         <v>3.7795275590551101</v>
       </c>
     </row>
-    <row r="658" spans="1:11" ht="14.5">
+    <row r="658" spans="1:11" ht="14.4">
       <c r="A658" s="20" t="s">
         <v>154</v>
       </c>
@@ -32820,7 +32792,7 @@
         <v>3.70734908136482</v>
       </c>
     </row>
-    <row r="659" spans="1:11" ht="14.5">
+    <row r="659" spans="1:11" ht="14.4">
       <c r="A659" s="20" t="s">
         <v>154</v>
       </c>
@@ -32842,7 +32814,7 @@
         <v>4.1929133858267704</v>
       </c>
     </row>
-    <row r="660" spans="1:11" ht="14.5">
+    <row r="660" spans="1:11" ht="14.4">
       <c r="A660" s="20" t="s">
         <v>154</v>
       </c>
@@ -32864,7 +32836,7 @@
         <v>4.3503937007874001</v>
       </c>
     </row>
-    <row r="661" spans="1:11" ht="14.5">
+    <row r="661" spans="1:11" ht="14.4">
       <c r="A661" s="20" t="s">
         <v>155</v>
       </c>
@@ -32884,7 +32856,7 @@
       </c>
       <c r="K661" s="25"/>
     </row>
-    <row r="662" spans="1:11" ht="14.5">
+    <row r="662" spans="1:11" ht="14.4">
       <c r="A662" s="20" t="s">
         <v>155</v>
       </c>
@@ -32904,7 +32876,7 @@
       </c>
       <c r="K662" s="25"/>
     </row>
-    <row r="663" spans="1:11" ht="14.5">
+    <row r="663" spans="1:11" ht="14.4">
       <c r="A663" s="20" t="s">
         <v>155</v>
       </c>
@@ -32920,7 +32892,7 @@
         <v>3.6811023622047201</v>
       </c>
     </row>
-    <row r="664" spans="1:11" ht="14.5">
+    <row r="664" spans="1:11" ht="14.4">
       <c r="A664" s="20" t="s">
         <v>155</v>
       </c>
@@ -32942,7 +32914,7 @@
         <v>3.7795275590551101</v>
       </c>
     </row>
-    <row r="665" spans="1:11" ht="14.5">
+    <row r="665" spans="1:11" ht="14.4">
       <c r="A665" s="20" t="s">
         <v>155</v>
       </c>
@@ -32964,7 +32936,7 @@
         <v>4.0616797900262398</v>
       </c>
     </row>
-    <row r="666" spans="1:11" ht="14.5">
+    <row r="666" spans="1:11" ht="14.4">
       <c r="A666" s="20" t="s">
         <v>155</v>
       </c>
@@ -32986,7 +32958,7 @@
         <v>4.54724409448818</v>
       </c>
     </row>
-    <row r="667" spans="1:11" ht="14.5">
+    <row r="667" spans="1:11" ht="14.4">
       <c r="A667" s="20" t="s">
         <v>153</v>
       </c>
@@ -33006,7 +32978,7 @@
       </c>
       <c r="K667" s="25"/>
     </row>
-    <row r="668" spans="1:11" ht="14.5">
+    <row r="668" spans="1:11" ht="14.4">
       <c r="A668" s="20" t="s">
         <v>153</v>
       </c>
@@ -33026,7 +32998,7 @@
       </c>
       <c r="K668" s="25"/>
     </row>
-    <row r="669" spans="1:11" ht="14.5">
+    <row r="669" spans="1:11" ht="14.4">
       <c r="A669" s="20" t="s">
         <v>153</v>
       </c>
@@ -33042,7 +33014,7 @@
         <v>3.6154855643044601</v>
       </c>
     </row>
-    <row r="670" spans="1:11" ht="14.5">
+    <row r="670" spans="1:11" ht="14.4">
       <c r="A670" s="20" t="s">
         <v>153</v>
       </c>
@@ -33064,7 +33036,7 @@
         <v>3.6876640419947502</v>
       </c>
     </row>
-    <row r="671" spans="1:11" ht="14.5">
+    <row r="671" spans="1:11" ht="14.4">
       <c r="A671" s="20" t="s">
         <v>153</v>
       </c>
@@ -33086,7 +33058,7 @@
         <v>4.1732283464566899</v>
       </c>
     </row>
-    <row r="672" spans="1:11" ht="14.5">
+    <row r="672" spans="1:11" ht="14.4">
       <c r="A672" s="20" t="s">
         <v>153</v>
       </c>
@@ -33108,7 +33080,7 @@
         <v>4.4881889763779501</v>
       </c>
     </row>
-    <row r="673" spans="1:11" ht="14.5">
+    <row r="673" spans="1:11" ht="14.4">
       <c r="A673" s="20" t="s">
         <v>141</v>
       </c>
@@ -33130,7 +33102,7 @@
         <v>3.74109263657957</v>
       </c>
     </row>
-    <row r="674" spans="1:11" ht="14.5">
+    <row r="674" spans="1:11" ht="14.4">
       <c r="A674" s="20" t="s">
         <v>141</v>
       </c>
@@ -33146,7 +33118,7 @@
         <v>2.4821852731591401</v>
       </c>
     </row>
-    <row r="675" spans="1:11" ht="14.5">
+    <row r="675" spans="1:11" ht="14.4">
       <c r="A675" s="20" t="s">
         <v>141</v>
       </c>
@@ -33168,7 +33140,7 @@
         <v>3.2897862232779098</v>
       </c>
     </row>
-    <row r="676" spans="1:11" ht="14.5">
+    <row r="676" spans="1:11" ht="14.4">
       <c r="A676" s="20" t="s">
         <v>141</v>
       </c>
@@ -33190,7 +33162,7 @@
         <v>3.0581947743467901</v>
       </c>
     </row>
-    <row r="677" spans="1:11" ht="14.5">
+    <row r="677" spans="1:11" ht="14.4">
       <c r="A677" s="20" t="s">
         <v>141</v>
       </c>
@@ -33212,7 +33184,7 @@
         <v>3.0403800475059302</v>
       </c>
     </row>
-    <row r="678" spans="1:11" ht="14.5">
+    <row r="678" spans="1:11" ht="14.4">
       <c r="A678" s="20" t="s">
         <v>137</v>
       </c>
@@ -33234,7 +33206,7 @@
         <v>3.7672811059907798</v>
       </c>
     </row>
-    <row r="679" spans="1:11" ht="14.5">
+    <row r="679" spans="1:11" ht="14.4">
       <c r="A679" s="20" t="s">
         <v>137</v>
       </c>
@@ -33250,7 +33222,7 @@
         <v>2.62096774193548</v>
       </c>
     </row>
-    <row r="680" spans="1:11" ht="14.5">
+    <row r="680" spans="1:11" ht="14.4">
       <c r="A680" s="20" t="s">
         <v>137</v>
       </c>
@@ -33272,7 +33244,7 @@
         <v>3.5656682027649702</v>
       </c>
     </row>
-    <row r="681" spans="1:11" ht="14.5">
+    <row r="681" spans="1:11" ht="14.4">
       <c r="A681" s="20" t="s">
         <v>137</v>
       </c>
@@ -33294,7 +33266,7 @@
         <v>3.4792626728110498</v>
       </c>
     </row>
-    <row r="682" spans="1:11" ht="14.5">
+    <row r="682" spans="1:11" ht="14.4">
       <c r="A682" s="20" t="s">
         <v>137</v>
       </c>
@@ -33316,7 +33288,7 @@
         <v>3.21428571428571</v>
       </c>
     </row>
-    <row r="683" spans="1:11" ht="14.5">
+    <row r="683" spans="1:11" ht="14.4">
       <c r="A683" s="20" t="s">
         <v>144</v>
       </c>
@@ -33338,7 +33310,7 @@
         <v>4.16864608076009</v>
       </c>
     </row>
-    <row r="684" spans="1:11" ht="14.5">
+    <row r="684" spans="1:11" ht="14.4">
       <c r="A684" s="20" t="s">
         <v>144</v>
       </c>
@@ -33354,7 +33326,7 @@
         <v>2.8087885985748202</v>
       </c>
     </row>
-    <row r="685" spans="1:11" ht="14.5">
+    <row r="685" spans="1:11" ht="14.4">
       <c r="A685" s="20" t="s">
         <v>144</v>
       </c>
@@ -33376,7 +33348,7 @@
         <v>3.7292161520190001</v>
       </c>
     </row>
-    <row r="686" spans="1:11" ht="14.5">
+    <row r="686" spans="1:11" ht="14.4">
       <c r="A686" s="20" t="s">
         <v>144</v>
       </c>
@@ -33398,7 +33370,7 @@
         <v>3.3729216152018999</v>
       </c>
     </row>
-    <row r="687" spans="1:11" ht="14.5">
+    <row r="687" spans="1:11" ht="14.4">
       <c r="A687" s="20" t="s">
         <v>144</v>
       </c>
@@ -33420,7 +33392,7 @@
         <v>3.31353919239905</v>
       </c>
     </row>
-    <row r="688" spans="1:11" ht="14.5">
+    <row r="688" spans="1:11" ht="14.4">
       <c r="A688" s="20" t="s">
         <v>138</v>
       </c>
@@ -33442,7 +33414,7 @@
         <v>4.1762672811059902</v>
       </c>
     </row>
-    <row r="689" spans="1:11" ht="14.5">
+    <row r="689" spans="1:11" ht="14.4">
       <c r="A689" s="20" t="s">
         <v>138</v>
       </c>
@@ -33458,7 +33430,7 @@
         <v>2.75921658986175</v>
       </c>
     </row>
-    <row r="690" spans="1:11" ht="14.5">
+    <row r="690" spans="1:11" ht="14.4">
       <c r="A690" s="20" t="s">
         <v>138</v>
       </c>
@@ -33480,7 +33452,7 @@
         <v>3.7845622119815601</v>
       </c>
     </row>
-    <row r="691" spans="1:11" ht="14.5">
+    <row r="691" spans="1:11" ht="14.4">
       <c r="A691" s="20" t="s">
         <v>138</v>
       </c>
@@ -33502,7 +33474,7 @@
         <v>3.4850230414746499</v>
       </c>
     </row>
-    <row r="692" spans="1:11" ht="14.5">
+    <row r="692" spans="1:11" ht="14.4">
       <c r="A692" s="20" t="s">
         <v>138</v>
       </c>
@@ -33524,7 +33496,7 @@
         <v>3.1682027649769502</v>
       </c>
     </row>
-    <row r="693" spans="1:11" ht="14.5">
+    <row r="693" spans="1:11" ht="14.4">
       <c r="A693" s="20" t="s">
         <v>139</v>
       </c>
@@ -33546,7 +33518,7 @@
         <v>4.2165898617511504</v>
       </c>
     </row>
-    <row r="694" spans="1:11" ht="14.5">
+    <row r="694" spans="1:11" ht="14.4">
       <c r="A694" s="20" t="s">
         <v>139</v>
       </c>
@@ -33562,7 +33534,7 @@
         <v>2.6728110599078301</v>
       </c>
     </row>
-    <row r="695" spans="1:11" ht="14.5">
+    <row r="695" spans="1:11" ht="14.4">
       <c r="A695" s="20" t="s">
         <v>139</v>
       </c>
@@ -33584,7 +33556,7 @@
         <v>3.7442396313363999</v>
       </c>
     </row>
-    <row r="696" spans="1:11" ht="14.5">
+    <row r="696" spans="1:11" ht="14.4">
       <c r="A696" s="20" t="s">
         <v>139</v>
       </c>
@@ -33606,7 +33578,7 @@
         <v>3.26036866359446</v>
       </c>
     </row>
-    <row r="697" spans="1:11" ht="14.5">
+    <row r="697" spans="1:11" ht="14.4">
       <c r="A697" s="20" t="s">
         <v>139</v>
       </c>
@@ -33628,7 +33600,7 @@
         <v>3.3064516129032202</v>
       </c>
     </row>
-    <row r="698" spans="1:11" ht="14.5">
+    <row r="698" spans="1:11" ht="14.4">
       <c r="A698" s="20" t="s">
         <v>140</v>
       </c>
@@ -33650,7 +33622,7 @@
         <v>4.1705069124423897</v>
       </c>
     </row>
-    <row r="699" spans="1:11" ht="14.5">
+    <row r="699" spans="1:11" ht="14.4">
       <c r="A699" s="20" t="s">
         <v>140</v>
       </c>
@@ -33666,7 +33638,7 @@
         <v>2.8052995391705</v>
       </c>
     </row>
-    <row r="700" spans="1:11" ht="14.5">
+    <row r="700" spans="1:11" ht="14.4">
       <c r="A700" s="20" t="s">
         <v>140</v>
       </c>
@@ -33688,7 +33660,7 @@
         <v>3.72119815668202</v>
       </c>
     </row>
-    <row r="701" spans="1:11" ht="14.5">
+    <row r="701" spans="1:11" ht="14.4">
       <c r="A701" s="20" t="s">
         <v>140</v>
       </c>
@@ -33710,7 +33682,7 @@
         <v>3.3640552995391699</v>
       </c>
     </row>
-    <row r="702" spans="1:11" ht="14.5">
+    <row r="702" spans="1:11" ht="14.4">
       <c r="A702" s="20" t="s">
         <v>140</v>
       </c>
@@ -33732,7 +33704,7 @@
         <v>3.3064516129032202</v>
       </c>
     </row>
-    <row r="703" spans="1:11" ht="14.5">
+    <row r="703" spans="1:11" ht="14.4">
       <c r="A703" s="20" t="s">
         <v>142</v>
       </c>
@@ -33754,7 +33726,7 @@
         <v>3.6995249406175699</v>
       </c>
     </row>
-    <row r="704" spans="1:11" ht="14.5">
+    <row r="704" spans="1:11" ht="14.4">
       <c r="A704" s="20" t="s">
         <v>142</v>
       </c>
@@ -33770,7 +33742,7 @@
         <v>2.8206650831353901</v>
       </c>
     </row>
-    <row r="705" spans="1:11" ht="14.5">
+    <row r="705" spans="1:11" ht="14.4">
       <c r="A705" s="20" t="s">
         <v>142</v>
       </c>
@@ -33792,7 +33764,7 @@
         <v>3.5213776722090202</v>
       </c>
     </row>
-    <row r="706" spans="1:11" ht="14.5">
+    <row r="706" spans="1:11" ht="14.4">
       <c r="A706" s="20" t="s">
         <v>142</v>
       </c>
@@ -33814,7 +33786,7 @@
         <v>3.3491686460807601</v>
       </c>
     </row>
-    <row r="707" spans="1:11" ht="14.5">
+    <row r="707" spans="1:11" ht="14.4">
       <c r="A707" s="20" t="s">
         <v>142</v>
       </c>
@@ -33836,7 +33808,7 @@
         <v>3.1116389548693499</v>
       </c>
     </row>
-    <row r="708" spans="1:11" ht="14.5">
+    <row r="708" spans="1:11" ht="14.4">
       <c r="A708" s="20" t="s">
         <v>143</v>
       </c>
@@ -33858,7 +33830,7 @@
         <v>3.9667458432304001</v>
       </c>
     </row>
-    <row r="709" spans="1:11" ht="14.5">
+    <row r="709" spans="1:11" ht="14.4">
       <c r="A709" s="20" t="s">
         <v>143</v>
       </c>
@@ -33874,7 +33846,7 @@
         <v>2.7434679334916798</v>
       </c>
     </row>
-    <row r="710" spans="1:11" ht="14.5">
+    <row r="710" spans="1:11" ht="14.4">
       <c r="A710" s="20" t="s">
         <v>143</v>
       </c>
@@ -33896,7 +33868,7 @@
         <v>3.6579572446555799</v>
       </c>
     </row>
-    <row r="711" spans="1:11" ht="14.5">
+    <row r="711" spans="1:11" ht="14.4">
       <c r="A711" s="20" t="s">
         <v>143</v>
       </c>
@@ -33918,7 +33890,7 @@
         <v>3.2719714964370499</v>
       </c>
     </row>
-    <row r="712" spans="1:11" ht="14.5">
+    <row r="712" spans="1:11" ht="14.4">
       <c r="A712" s="20" t="s">
         <v>143</v>
       </c>
@@ -33940,7 +33912,7 @@
         <v>3.3313539192399002</v>
       </c>
     </row>
-    <row r="713" spans="1:11" ht="14.5">
+    <row r="713" spans="1:11" ht="14.4">
       <c r="A713" s="20" t="s">
         <v>160</v>
       </c>
@@ -33962,7 +33934,7 @@
         <v>4.0639809808818201</v>
       </c>
     </row>
-    <row r="714" spans="1:11" ht="14.5">
+    <row r="714" spans="1:11" ht="14.4">
       <c r="A714" s="20" t="s">
         <v>160</v>
       </c>
@@ -33978,7 +33950,7 @@
         <v>2.6471009921431401</v>
       </c>
     </row>
-    <row r="715" spans="1:11" ht="14.5">
+    <row r="715" spans="1:11" ht="14.4">
       <c r="A715" s="20" t="s">
         <v>160</v>
       </c>
@@ -34000,7 +33972,7 @@
         <v>3.6492541982305098</v>
       </c>
     </row>
-    <row r="716" spans="1:11" ht="14.5">
+    <row r="716" spans="1:11" ht="14.4">
       <c r="A716" s="20" t="s">
         <v>160</v>
       </c>
@@ -34022,7 +33994,7 @@
         <v>3.5007194732204701</v>
       </c>
     </row>
-    <row r="717" spans="1:11" ht="14.5">
+    <row r="717" spans="1:11" ht="14.4">
       <c r="A717" s="20" t="s">
         <v>160</v>
       </c>
@@ -34044,7 +34016,7 @@
         <v>3.1843597991731198</v>
       </c>
     </row>
-    <row r="718" spans="1:11" ht="14.5">
+    <row r="718" spans="1:11" ht="14.4">
       <c r="A718" s="20" t="s">
         <v>162</v>
       </c>
@@ -34066,7 +34038,7 @@
         <v>4.17394829177245</v>
       </c>
     </row>
-    <row r="719" spans="1:11" ht="14.5">
+    <row r="719" spans="1:11" ht="14.4">
       <c r="A719" s="20" t="s">
         <v>162</v>
       </c>
@@ -34082,7 +34054,7 @@
         <v>2.8207260423237899</v>
       </c>
     </row>
-    <row r="720" spans="1:11" ht="14.5">
+    <row r="720" spans="1:11" ht="14.4">
       <c r="A720" s="20" t="s">
         <v>162</v>
       </c>
@@ -34104,7 +34076,7 @@
         <v>3.7186990047287098</v>
       </c>
     </row>
-    <row r="721" spans="1:16" ht="14.5">
+    <row r="721" spans="1:16" ht="14.4">
       <c r="A721" s="20" t="s">
         <v>162</v>
       </c>
@@ -34126,7 +34098,7 @@
         <v>3.3734039946404399</v>
       </c>
     </row>
-    <row r="722" spans="1:16" ht="14.5">
+    <row r="722" spans="1:16" ht="14.4">
       <c r="A722" s="20" t="s">
         <v>162</v>
       </c>
@@ -34148,7 +34120,7 @@
         <v>3.3232624461046698</v>
       </c>
     </row>
-    <row r="723" spans="1:16" ht="14.5">
+    <row r="723" spans="1:16" ht="14.4">
       <c r="A723" s="20" t="s">
         <v>163</v>
       </c>
@@ -34170,7 +34142,7 @@
         <v>4.2086576610864004</v>
       </c>
     </row>
-    <row r="724" spans="1:16" ht="14.5">
+    <row r="724" spans="1:16" ht="14.4">
       <c r="A724" s="20" t="s">
         <v>163</v>
       </c>
@@ -34186,7 +34158,7 @@
         <v>2.8612485467162299</v>
       </c>
     </row>
-    <row r="725" spans="1:16" ht="14.5">
+    <row r="725" spans="1:16" ht="14.4">
       <c r="A725" s="20" t="s">
         <v>163</v>
       </c>
@@ -34208,7 +34180,7 @@
         <v>3.7707826096023598</v>
       </c>
     </row>
-    <row r="726" spans="1:16" ht="14.5">
+    <row r="726" spans="1:16" ht="14.4">
       <c r="A726" s="20" t="s">
         <v>163</v>
       </c>
@@ -34230,7 +34202,7 @@
         <v>3.5007194732204701</v>
       </c>
     </row>
-    <row r="727" spans="1:16" ht="14.5">
+    <row r="727" spans="1:16" ht="14.4">
       <c r="A727" s="20" t="s">
         <v>163</v>
       </c>
@@ -34252,7 +34224,7 @@
         <v>3.4737131595822799</v>
       </c>
     </row>
-    <row r="728" spans="1:16" ht="14.5">
+    <row r="728" spans="1:16" ht="14.4">
       <c r="A728" s="20" t="s">
         <v>161</v>
       </c>
@@ -34274,7 +34246,7 @@
         <v>4.1044774174039498</v>
       </c>
     </row>
-    <row r="729" spans="1:16" ht="14.5">
+    <row r="729" spans="1:16" ht="14.4">
       <c r="A729" s="20" t="s">
         <v>161</v>
       </c>
@@ -34290,7 +34262,7 @@
         <v>2.7454941686174101</v>
       </c>
     </row>
-    <row r="730" spans="1:16" ht="14.5">
+    <row r="730" spans="1:16" ht="14.4">
       <c r="A730" s="20" t="s">
         <v>161</v>
       </c>
@@ -34312,7 +34284,7 @@
         <v>3.7533953401075002</v>
       </c>
     </row>
-    <row r="731" spans="1:16" ht="14.5">
+    <row r="731" spans="1:16" ht="14.4">
       <c r="A731" s="20" t="s">
         <v>161</v>
       </c>
@@ -34334,7 +34306,7 @@
         <v>3.5527900441589702</v>
       </c>
     </row>
-    <row r="732" spans="1:16" ht="14.5">
+    <row r="732" spans="1:16" ht="14.4">
       <c r="A732" s="20" t="s">
         <v>161</v>
       </c>
@@ -34356,7 +34328,7 @@
         <v>3.33482354658589</v>
       </c>
     </row>
-    <row r="733" spans="1:16" ht="14.5">
+    <row r="733" spans="1:16" ht="14.4">
       <c r="A733" s="20" t="s">
         <v>147</v>
       </c>
@@ -34392,7 +34364,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="734" spans="1:16" ht="14.5">
+    <row r="734" spans="1:16" ht="14.4">
       <c r="A734" s="20" t="s">
         <v>147</v>
       </c>
@@ -34428,7 +34400,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="735" spans="1:16" ht="14.5">
+    <row r="735" spans="1:16" ht="14.4">
       <c r="A735" s="20" t="s">
         <v>147</v>
       </c>
@@ -34458,7 +34430,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="736" spans="1:16" ht="14.5">
+    <row r="736" spans="1:16" ht="14.4">
       <c r="A736" s="20" t="s">
         <v>146</v>
       </c>
@@ -34494,7 +34466,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="737" spans="1:16" ht="14.5">
+    <row r="737" spans="1:16" ht="14.4">
       <c r="A737" s="20" t="s">
         <v>146</v>
       </c>
@@ -34530,7 +34502,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="738" spans="1:16" ht="14.5">
+    <row r="738" spans="1:16" ht="14.4">
       <c r="A738" s="20" t="s">
         <v>146</v>
       </c>
@@ -34560,7 +34532,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="739" spans="1:16" ht="14.5">
+    <row r="739" spans="1:16" ht="14.4">
       <c r="A739" s="20" t="s">
         <v>145</v>
       </c>
@@ -34596,7 +34568,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="740" spans="1:16" ht="14.5">
+    <row r="740" spans="1:16" ht="14.4">
       <c r="A740" s="20" t="s">
         <v>145</v>
       </c>
@@ -34632,7 +34604,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="741" spans="1:16" ht="14.5">
+    <row r="741" spans="1:16" ht="14.4">
       <c r="A741" s="20" t="s">
         <v>145</v>
       </c>
@@ -34662,7 +34634,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="742" spans="1:16" ht="14.5">
+    <row r="742" spans="1:16" ht="14.4">
       <c r="A742" s="20" t="s">
         <v>66</v>
       </c>
@@ -34692,7 +34664,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="743" spans="1:16" ht="14.5">
+    <row r="743" spans="1:16" ht="14.4">
       <c r="A743" s="20" t="s">
         <v>66</v>
       </c>
@@ -34725,7 +34697,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="744" spans="1:16" ht="14.5">
+    <row r="744" spans="1:16" ht="14.4">
       <c r="A744" s="20" t="s">
         <v>66</v>
       </c>
@@ -34758,7 +34730,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="745" spans="1:16" ht="14.5">
+    <row r="745" spans="1:16" ht="14.4">
       <c r="A745" s="20" t="s">
         <v>66</v>
       </c>
@@ -34791,7 +34763,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="746" spans="1:16" ht="14.5">
+    <row r="746" spans="1:16" ht="14.4">
       <c r="A746" s="20" t="s">
         <v>66</v>
       </c>
@@ -34824,7 +34796,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="747" spans="1:16" ht="14.5">
+    <row r="747" spans="1:16" ht="14.4">
       <c r="A747" s="20" t="s">
         <v>66</v>
       </c>
@@ -34857,7 +34829,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="748" spans="1:16" ht="14.5">
+    <row r="748" spans="1:16" ht="14.4">
       <c r="A748" s="20" t="s">
         <v>66</v>
       </c>
@@ -34890,7 +34862,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="749" spans="1:16" ht="14.5">
+    <row r="749" spans="1:16" ht="14.4">
       <c r="A749" s="20" t="s">
         <v>66</v>
       </c>
@@ -34923,7 +34895,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="750" spans="1:16" ht="14.5">
+    <row r="750" spans="1:16" ht="14.4">
       <c r="A750" s="20" t="s">
         <v>66</v>
       </c>
@@ -34956,7 +34928,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="751" spans="1:16" ht="14.5">
+    <row r="751" spans="1:16" ht="14.4">
       <c r="A751" s="20" t="s">
         <v>66</v>
       </c>
@@ -34989,7 +34961,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="752" spans="1:16" ht="14.5">
+    <row r="752" spans="1:16" ht="14.4">
       <c r="A752" s="20" t="s">
         <v>66</v>
       </c>
@@ -35022,7 +34994,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="753" spans="1:12" ht="14.5">
+    <row r="753" spans="1:12" ht="14.4">
       <c r="A753" s="20" t="s">
         <v>66</v>
       </c>
@@ -35055,7 +35027,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="754" spans="1:12" ht="14.5">
+    <row r="754" spans="1:12" ht="14.4">
       <c r="A754" s="20" t="s">
         <v>66</v>
       </c>
@@ -35088,7 +35060,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="755" spans="1:12" ht="14.5">
+    <row r="755" spans="1:12" ht="14.4">
       <c r="A755" s="20" t="s">
         <v>66</v>
       </c>
@@ -35121,7 +35093,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="756" spans="1:12" ht="14.5">
+    <row r="756" spans="1:12" ht="14.4">
       <c r="A756" s="20" t="s">
         <v>66</v>
       </c>
@@ -35154,7 +35126,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="757" spans="1:12" ht="14.5">
+    <row r="757" spans="1:12" ht="14.4">
       <c r="A757" s="20" t="s">
         <v>66</v>
       </c>
@@ -35187,7 +35159,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="758" spans="1:12" ht="14.5">
+    <row r="758" spans="1:12" ht="14.4">
       <c r="A758" s="20" t="s">
         <v>66</v>
       </c>
@@ -35220,7 +35192,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="759" spans="1:12" ht="14.5">
+    <row r="759" spans="1:12" ht="14.4">
       <c r="A759" s="20" t="s">
         <v>66</v>
       </c>
@@ -35253,7 +35225,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="760" spans="1:12" ht="14.5">
+    <row r="760" spans="1:12" ht="14.4">
       <c r="A760" s="20" t="s">
         <v>66</v>
       </c>
@@ -35286,7 +35258,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="761" spans="1:12" ht="14.5">
+    <row r="761" spans="1:12" ht="14.4">
       <c r="A761" s="20" t="s">
         <v>66</v>
       </c>
@@ -35319,7 +35291,7 @@
         <v>4.6974999999999998</v>
       </c>
     </row>
-    <row r="762" spans="1:12" ht="14.5">
+    <row r="762" spans="1:12" ht="14.4">
       <c r="A762" s="20" t="s">
         <v>66</v>
       </c>
@@ -35352,7 +35324,7 @@
         <v>3.9375</v>
       </c>
     </row>
-    <row r="763" spans="1:12" ht="14.5">
+    <row r="763" spans="1:12" ht="14.4">
       <c r="A763" s="20" t="s">
         <v>66</v>
       </c>
@@ -35385,7 +35357,7 @@
         <v>3.2549999999999999</v>
       </c>
     </row>
-    <row r="764" spans="1:12" ht="14.5">
+    <row r="764" spans="1:12" ht="14.4">
       <c r="A764" s="20" t="s">
         <v>66</v>
       </c>
@@ -35418,7 +35390,7 @@
         <v>2.5912500000000001</v>
       </c>
     </row>
-    <row r="765" spans="1:12" ht="14.5">
+    <row r="765" spans="1:12" ht="14.4">
       <c r="A765" s="20" t="s">
         <v>66</v>
       </c>
@@ -35451,7 +35423,7 @@
         <v>4.7249999999999996</v>
       </c>
     </row>
-    <row r="766" spans="1:12" ht="14.5">
+    <row r="766" spans="1:12" ht="14.4">
       <c r="A766" s="20" t="s">
         <v>66</v>
       </c>
@@ -35484,7 +35456,7 @@
         <v>9.7912499999999998</v>
       </c>
     </row>
-    <row r="767" spans="1:12" ht="14.5">
+    <row r="767" spans="1:12" ht="14.4">
       <c r="A767" s="20" t="s">
         <v>66</v>
       </c>
@@ -35517,7 +35489,7 @@
         <v>22.162500000000001</v>
       </c>
     </row>
-    <row r="768" spans="1:12" ht="14.5">
+    <row r="768" spans="1:12" ht="14.4">
       <c r="A768" s="20" t="s">
         <v>66</v>
       </c>
@@ -35550,7 +35522,7 @@
         <v>61.645000000000003</v>
       </c>
     </row>
-    <row r="769" spans="1:12" ht="14.5">
+    <row r="769" spans="1:12" ht="14.4">
       <c r="A769" s="20" t="s">
         <v>66</v>
       </c>
@@ -35583,7 +35555,7 @@
         <v>92.452500000000001</v>
       </c>
     </row>
-    <row r="770" spans="1:12" ht="14.5">
+    <row r="770" spans="1:12" ht="14.4">
       <c r="A770" s="20" t="s">
         <v>66</v>
       </c>
@@ -35616,7 +35588,7 @@
         <v>93.298749999999998</v>
       </c>
     </row>
-    <row r="771" spans="1:12" ht="14.5">
+    <row r="771" spans="1:12" ht="14.4">
       <c r="A771" s="20" t="s">
         <v>66</v>
       </c>
@@ -35649,7 +35621,7 @@
         <v>72.283749999999998</v>
       </c>
     </row>
-    <row r="772" spans="1:12" ht="14.5">
+    <row r="772" spans="1:12" ht="14.4">
       <c r="A772" s="20" t="s">
         <v>66</v>
       </c>
@@ -35682,7 +35654,7 @@
         <v>40.366250000000001</v>
       </c>
     </row>
-    <row r="773" spans="1:12" ht="14.5">
+    <row r="773" spans="1:12" ht="14.4">
       <c r="A773" s="20" t="s">
         <v>66</v>
       </c>
@@ -35715,7 +35687,7 @@
         <v>32.152499999999996</v>
       </c>
     </row>
-    <row r="774" spans="1:12" ht="14.5">
+    <row r="774" spans="1:12" ht="14.4">
       <c r="A774" s="20" t="s">
         <v>66</v>
       </c>
@@ -35748,7 +35720,7 @@
         <v>21.231249999999999</v>
       </c>
     </row>
-    <row r="775" spans="1:12" ht="14.5">
+    <row r="775" spans="1:12" ht="14.4">
       <c r="A775" s="20" t="s">
         <v>66</v>
       </c>
@@ -35781,7 +35753,7 @@
         <v>10.017499999999998</v>
       </c>
     </row>
-    <row r="776" spans="1:12" ht="14.5">
+    <row r="776" spans="1:12" ht="14.4">
       <c r="A776" s="20" t="s">
         <v>66</v>
       </c>
@@ -35814,7 +35786,7 @@
         <v>6.3562500000000002</v>
       </c>
     </row>
-    <row r="777" spans="1:12" ht="14.5">
+    <row r="777" spans="1:12" ht="14.4">
       <c r="A777" s="20" t="s">
         <v>66</v>
       </c>
@@ -35847,7 +35819,7 @@
         <v>15.508749999999999</v>
       </c>
     </row>
-    <row r="778" spans="1:12" ht="14.5">
+    <row r="778" spans="1:12" ht="14.4">
       <c r="A778" s="20" t="s">
         <v>66</v>
       </c>
@@ -35880,7 +35852,7 @@
         <v>21.963749999999997</v>
       </c>
     </row>
-    <row r="779" spans="1:12" ht="14.5">
+    <row r="779" spans="1:12" ht="14.4">
       <c r="A779" s="20" t="s">
         <v>66</v>
       </c>
@@ -35913,7 +35885,7 @@
         <v>42.075000000000003</v>
       </c>
     </row>
-    <row r="780" spans="1:12" ht="14.5">
+    <row r="780" spans="1:12" ht="14.4">
       <c r="A780" s="20" t="s">
         <v>66</v>
       </c>
@@ -35946,7 +35918,7 @@
         <v>66.027500000000003</v>
       </c>
     </row>
-    <row r="781" spans="1:12" ht="14.5">
+    <row r="781" spans="1:12" ht="14.4">
       <c r="A781" s="20" t="s">
         <v>66</v>
       </c>
@@ -35979,7 +35951,7 @@
         <v>133.84375000000003</v>
       </c>
     </row>
-    <row r="782" spans="1:12" ht="14.5">
+    <row r="782" spans="1:12" ht="14.4">
       <c r="A782" s="20" t="s">
         <v>66</v>
       </c>
@@ -36012,7 +35984,7 @@
         <v>54.84</v>
       </c>
     </row>
-    <row r="783" spans="1:12" ht="14.5">
+    <row r="783" spans="1:12" ht="14.4">
       <c r="A783" s="20" t="s">
         <v>66</v>
       </c>
@@ -36045,7 +36017,7 @@
         <v>37.716250000000002</v>
       </c>
     </row>
-    <row r="784" spans="1:12" ht="14.5">
+    <row r="784" spans="1:12" ht="14.4">
       <c r="A784" s="20" t="s">
         <v>66</v>
       </c>
@@ -36078,7 +36050,7 @@
         <v>65.504999999999995</v>
       </c>
     </row>
-    <row r="785" spans="1:18" ht="14.5">
+    <row r="785" spans="1:18" ht="14.4">
       <c r="A785" s="20" t="s">
         <v>66</v>
       </c>
@@ -36111,7 +36083,7 @@
         <v>25.9925</v>
       </c>
     </row>
-    <row r="786" spans="1:18" ht="14.5">
+    <row r="786" spans="1:18" ht="14.4">
       <c r="A786" s="20" t="s">
         <v>66</v>
       </c>
@@ -36144,7 +36116,7 @@
         <v>20.493749999999999</v>
       </c>
     </row>
-    <row r="787" spans="1:18" ht="14.5">
+    <row r="787" spans="1:18" ht="14.4">
       <c r="A787" s="20" t="s">
         <v>66</v>
       </c>
@@ -36177,7 +36149,7 @@
         <v>11.873749999999998</v>
       </c>
     </row>
-    <row r="788" spans="1:18" ht="14.5">
+    <row r="788" spans="1:18" ht="14.4">
       <c r="A788" s="20" t="s">
         <v>66</v>
       </c>
@@ -36212,7 +36184,7 @@
     </row>
     <row r="789" spans="1:18">
       <c r="A789" s="20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B789" s="39">
         <v>34530</v>
@@ -36256,7 +36228,7 @@
     </row>
     <row r="790" spans="1:18">
       <c r="A790" s="20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B790" s="39">
         <v>34895.25</v>
@@ -36300,7 +36272,7 @@
     </row>
     <row r="791" spans="1:18">
       <c r="A791" s="20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B791" s="39">
         <v>35260.5</v>
@@ -36344,7 +36316,7 @@
     </row>
     <row r="792" spans="1:18">
       <c r="A792" s="20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B792" s="39">
         <v>35625.75</v>
@@ -36388,7 +36360,7 @@
     </row>
     <row r="793" spans="1:18">
       <c r="A793" s="20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B793" s="39">
         <v>35991</v>
@@ -36432,7 +36404,7 @@
     </row>
     <row r="794" spans="1:18">
       <c r="A794" s="20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B794" s="39">
         <v>36356.25</v>
@@ -36476,7 +36448,7 @@
     </row>
     <row r="795" spans="1:18">
       <c r="A795" s="20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B795" s="39">
         <v>34530</v>
@@ -36520,7 +36492,7 @@
     </row>
     <row r="796" spans="1:18">
       <c r="A796" s="20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B796" s="39">
         <v>34895.25</v>
@@ -36564,7 +36536,7 @@
     </row>
     <row r="797" spans="1:18">
       <c r="A797" s="20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B797" s="39">
         <v>35260.5</v>
@@ -36608,7 +36580,7 @@
     </row>
     <row r="798" spans="1:18">
       <c r="A798" s="20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B798" s="39">
         <v>35625.75</v>
@@ -36652,7 +36624,7 @@
     </row>
     <row r="799" spans="1:18">
       <c r="A799" s="20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B799" s="39">
         <v>35991</v>
@@ -36696,7 +36668,7 @@
     </row>
     <row r="800" spans="1:18">
       <c r="A800" s="20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B800" s="39">
         <v>36356.25</v>
@@ -36740,7 +36712,7 @@
     </row>
     <row r="801" spans="1:18">
       <c r="A801" s="20" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B801" s="39">
         <v>34530</v>
@@ -36784,7 +36756,7 @@
     </row>
     <row r="802" spans="1:18">
       <c r="A802" s="20" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B802" s="39">
         <v>34895.25</v>
@@ -36828,7 +36800,7 @@
     </row>
     <row r="803" spans="1:18">
       <c r="A803" s="20" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B803" s="39">
         <v>35260.5</v>
@@ -36872,7 +36844,7 @@
     </row>
     <row r="804" spans="1:18">
       <c r="A804" s="20" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B804" s="39">
         <v>35625.75</v>
@@ -36916,7 +36888,7 @@
     </row>
     <row r="805" spans="1:18">
       <c r="A805" s="20" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B805" s="39">
         <v>35991</v>
@@ -36960,7 +36932,7 @@
     </row>
     <row r="806" spans="1:18">
       <c r="A806" s="20" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B806" s="39">
         <v>36356.25</v>
@@ -37004,7 +36976,7 @@
     </row>
     <row r="807" spans="1:18">
       <c r="A807" s="20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B807" s="39">
         <v>34530</v>
@@ -37048,7 +37020,7 @@
     </row>
     <row r="808" spans="1:18">
       <c r="A808" s="20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B808" s="39">
         <v>34895.25</v>
@@ -37092,7 +37064,7 @@
     </row>
     <row r="809" spans="1:18">
       <c r="A809" s="20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B809" s="39">
         <v>35260.5</v>
@@ -37136,7 +37108,7 @@
     </row>
     <row r="810" spans="1:18">
       <c r="A810" s="20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B810" s="39">
         <v>35625.75</v>
@@ -37180,7 +37152,7 @@
     </row>
     <row r="811" spans="1:18">
       <c r="A811" s="20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B811" s="39">
         <v>35991</v>
@@ -37224,7 +37196,7 @@
     </row>
     <row r="812" spans="1:18">
       <c r="A812" s="20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B812" s="39">
         <v>36356.25</v>
@@ -37268,7 +37240,7 @@
     </row>
     <row r="813" spans="1:18">
       <c r="A813" s="20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B813" s="39">
         <v>29813.25</v>
@@ -37291,7 +37263,7 @@
     </row>
     <row r="814" spans="1:18">
       <c r="A814" s="20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B814" s="39">
         <v>30178.5</v>
@@ -37308,7 +37280,7 @@
     </row>
     <row r="815" spans="1:18">
       <c r="A815" s="20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B815" s="39">
         <v>30543.75</v>
@@ -37334,7 +37306,7 @@
     </row>
     <row r="816" spans="1:18">
       <c r="A816" s="20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B816" s="39">
         <v>30909</v>
@@ -37360,7 +37332,7 @@
     </row>
     <row r="817" spans="1:18">
       <c r="A817" s="20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B817" s="39">
         <v>30909</v>
@@ -37404,7 +37376,7 @@
     </row>
     <row r="818" spans="1:18">
       <c r="A818" s="20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B818" s="39">
         <v>31274.25</v>
@@ -37430,7 +37402,7 @@
     </row>
     <row r="819" spans="1:18">
       <c r="A819" s="20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B819" s="39">
         <v>32004.75</v>
@@ -37456,7 +37428,7 @@
     </row>
     <row r="820" spans="1:18">
       <c r="A820" s="20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B820" s="39">
         <v>32370</v>
@@ -37482,7 +37454,7 @@
     </row>
     <row r="821" spans="1:18">
       <c r="A821" s="20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B821" s="39">
         <v>32735.25</v>
@@ -37508,7 +37480,7 @@
     </row>
     <row r="822" spans="1:18">
       <c r="A822" s="20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B822" s="39">
         <v>33100.5</v>
@@ -37534,7 +37506,7 @@
     </row>
     <row r="823" spans="1:18">
       <c r="A823" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B823" s="39">
         <v>29813.25</v>
@@ -37557,7 +37529,7 @@
     </row>
     <row r="824" spans="1:18">
       <c r="A824" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B824" s="39">
         <v>30178.5</v>
@@ -37574,7 +37546,7 @@
     </row>
     <row r="825" spans="1:18">
       <c r="A825" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B825" s="39">
         <v>30543.75</v>
@@ -37600,7 +37572,7 @@
     </row>
     <row r="826" spans="1:18">
       <c r="A826" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B826" s="39">
         <v>30909</v>
@@ -37626,7 +37598,7 @@
     </row>
     <row r="827" spans="1:18">
       <c r="A827" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B827" s="39">
         <v>30909</v>
@@ -37670,7 +37642,7 @@
     </row>
     <row r="828" spans="1:18">
       <c r="A828" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B828" s="39">
         <v>31274.25</v>
@@ -37696,7 +37668,7 @@
     </row>
     <row r="829" spans="1:18">
       <c r="A829" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B829" s="39">
         <v>32004.75</v>
@@ -37722,7 +37694,7 @@
     </row>
     <row r="830" spans="1:18">
       <c r="A830" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B830" s="39">
         <v>32370</v>
@@ -37748,7 +37720,7 @@
     </row>
     <row r="831" spans="1:18">
       <c r="A831" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B831" s="39">
         <v>32735.25</v>
@@ -37774,7 +37746,7 @@
     </row>
     <row r="832" spans="1:18">
       <c r="A832" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B832" s="39">
         <v>33100.5</v>
@@ -37788,7 +37760,7 @@
     </row>
     <row r="833" spans="1:18">
       <c r="A833" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B833" s="39">
         <v>29813.25</v>
@@ -37811,7 +37783,7 @@
     </row>
     <row r="834" spans="1:18">
       <c r="A834" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B834" s="39">
         <v>30178.5</v>
@@ -37828,7 +37800,7 @@
     </row>
     <row r="835" spans="1:18">
       <c r="A835" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B835" s="39">
         <v>30543.75</v>
@@ -37854,7 +37826,7 @@
     </row>
     <row r="836" spans="1:18">
       <c r="A836" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B836" s="39">
         <v>30909</v>
@@ -37880,7 +37852,7 @@
     </row>
     <row r="837" spans="1:18">
       <c r="A837" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B837" s="39">
         <v>30909</v>
@@ -37924,7 +37896,7 @@
     </row>
     <row r="838" spans="1:18">
       <c r="A838" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B838" s="39">
         <v>31274.25</v>
@@ -37950,7 +37922,7 @@
     </row>
     <row r="839" spans="1:18">
       <c r="A839" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B839" s="39">
         <v>32004.75</v>
@@ -37976,7 +37948,7 @@
     </row>
     <row r="840" spans="1:18">
       <c r="A840" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B840" s="39">
         <v>32370</v>
@@ -38002,7 +37974,7 @@
     </row>
     <row r="841" spans="1:18">
       <c r="A841" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B841" s="39">
         <v>32735.25</v>
@@ -38028,7 +38000,7 @@
     </row>
     <row r="842" spans="1:18">
       <c r="A842" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B842" s="39">
         <v>33100.5</v>
@@ -38054,7 +38026,7 @@
     </row>
     <row r="843" spans="1:18">
       <c r="A843" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B843" s="39">
         <v>29813.25</v>
@@ -38077,7 +38049,7 @@
     </row>
     <row r="844" spans="1:18">
       <c r="A844" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B844" s="39">
         <v>30178.5</v>
@@ -38094,7 +38066,7 @@
     </row>
     <row r="845" spans="1:18">
       <c r="A845" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B845" s="39">
         <v>30543.75</v>
@@ -38120,7 +38092,7 @@
     </row>
     <row r="846" spans="1:18">
       <c r="A846" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B846" s="39">
         <v>30909</v>
@@ -38146,7 +38118,7 @@
     </row>
     <row r="847" spans="1:18">
       <c r="A847" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B847" s="39">
         <v>30909</v>
@@ -38190,7 +38162,7 @@
     </row>
     <row r="848" spans="1:18">
       <c r="A848" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B848" s="39">
         <v>31274.25</v>
@@ -38216,7 +38188,7 @@
     </row>
     <row r="849" spans="1:18">
       <c r="A849" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B849" s="39">
         <v>32004.75</v>
@@ -38242,7 +38214,7 @@
     </row>
     <row r="850" spans="1:18">
       <c r="A850" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B850" s="39">
         <v>32370</v>
@@ -38268,7 +38240,7 @@
     </row>
     <row r="851" spans="1:18">
       <c r="A851" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B851" s="39">
         <v>32735.25</v>
@@ -38294,7 +38266,7 @@
     </row>
     <row r="852" spans="1:18">
       <c r="A852" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B852" s="39">
         <v>33100.5</v>
@@ -38308,7 +38280,7 @@
     </row>
     <row r="853" spans="1:18">
       <c r="A853" s="20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B853" s="39">
         <v>31517</v>
@@ -38349,7 +38321,7 @@
     </row>
     <row r="854" spans="1:18">
       <c r="A854" s="20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B854" s="39">
         <v>31517</v>
@@ -38389,7 +38361,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A77:M691">
+  <sortState ref="A77:M691">
     <sortCondition ref="A77:A691"/>
     <sortCondition ref="C77:C691"/>
   </sortState>

--- a/Tests/Validation/Eucalyptus/Observed.xlsx
+++ b/Tests/Validation/Eucalyptus/Observed.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMxSourceTree\Tests\Validation\Eucalyptus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMx Temporary Work Area\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D379089-56E8-40D9-8FC0-F6E637502F9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2515ED-874C-4991-B9EE-FF87951551F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="653" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -966,7 +966,7 @@
     <numFmt numFmtId="165" formatCode="[$-C09]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
-    <numFmt numFmtId="169" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="d/mm/yyyy;@"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -1131,7 +1131,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1157,15 +1157,6 @@
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1180,6 +1171,15 @@
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -17563,18 +17563,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:12" ht="29.25" thickBot="1">
       <c r="B3" s="9" t="s">
@@ -17597,7 +17597,7 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="35" t="s">
         <v>83</v>
       </c>
       <c r="B4" s="11">
@@ -17620,7 +17620,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="30"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="12">
         <v>2</v>
       </c>
@@ -17644,7 +17644,7 @@
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="35" t="s">
         <v>84</v>
       </c>
       <c r="B6" s="13">
@@ -17661,7 +17661,7 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="30"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="13">
         <v>2</v>
       </c>
@@ -17676,7 +17676,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="30"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="13">
         <v>3</v>
       </c>
@@ -17691,7 +17691,7 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="37" t="s">
         <v>166</v>
       </c>
       <c r="B9" s="13">
@@ -17711,7 +17711,7 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="30"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="13">
         <v>2</v>
       </c>
@@ -17729,7 +17729,7 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="35" t="s">
         <v>85</v>
       </c>
       <c r="B11" s="13">
@@ -17746,7 +17746,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="30"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="13">
         <v>2</v>
       </c>
@@ -17761,7 +17761,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="30"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="13">
         <v>3</v>
       </c>
@@ -17776,7 +17776,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="35" t="s">
         <v>86</v>
       </c>
       <c r="B14" s="13">
@@ -17793,7 +17793,7 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="30"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="13">
         <v>2</v>
       </c>
@@ -17808,7 +17808,7 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="30"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="13">
         <v>3</v>
       </c>
@@ -17823,7 +17823,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="35" t="s">
         <v>87</v>
       </c>
       <c r="B17" s="13">
@@ -17840,7 +17840,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="30"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="13">
         <v>2</v>
       </c>
@@ -17855,7 +17855,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="30"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="13">
         <v>3</v>
       </c>
@@ -17870,7 +17870,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="35" t="s">
         <v>88</v>
       </c>
       <c r="B20" s="13">
@@ -17887,7 +17887,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15">
-      <c r="A21" s="30"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="13">
         <v>2</v>
       </c>
@@ -17902,7 +17902,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15">
-      <c r="A22" s="30"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="13">
         <v>3</v>
       </c>
@@ -17917,7 +17917,7 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="35" t="s">
         <v>89</v>
       </c>
       <c r="B23" s="13">
@@ -17943,7 +17943,7 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="30"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="13">
         <v>2</v>
       </c>
@@ -17967,7 +17967,7 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="30"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="13">
         <v>3</v>
       </c>
@@ -17991,7 +17991,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="35" t="s">
         <v>90</v>
       </c>
       <c r="B26" s="13">
@@ -18017,7 +18017,7 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="30"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="13">
         <v>2</v>
       </c>
@@ -18032,7 +18032,7 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="30"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="13">
         <v>3</v>
       </c>
@@ -18047,7 +18047,7 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="35" t="s">
         <v>91</v>
       </c>
       <c r="B29" s="13">
@@ -18064,7 +18064,7 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="30"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="13">
         <v>2</v>
       </c>
@@ -18079,7 +18079,7 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="30"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="13">
         <v>3</v>
       </c>
@@ -18094,7 +18094,7 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="35" t="s">
         <v>92</v>
       </c>
       <c r="B32" s="13">
@@ -18111,7 +18111,7 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="30"/>
+      <c r="A33" s="35"/>
       <c r="B33" s="13">
         <v>2</v>
       </c>
@@ -18126,7 +18126,7 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="30"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="13">
         <v>3</v>
       </c>
@@ -18165,10 +18165,10 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:BS2650"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="510" topLeftCell="A2" activePane="bottomLeft"/>
-      <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <pane ySplit="510" topLeftCell="A1250" activePane="bottomLeft"/>
+      <selection activeCell="AJ1" sqref="AJ1"/>
+      <selection pane="bottomLeft" activeCell="AJ1227" sqref="AJ1227:AJ1278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -24365,11 +24365,11 @@
         <v>6.2</v>
       </c>
       <c r="D173" s="28"/>
-      <c r="F173" s="33"/>
-      <c r="M173" s="34"/>
-      <c r="N173" s="34"/>
-      <c r="O173" s="34"/>
-      <c r="P173" s="34"/>
+      <c r="F173" s="30"/>
+      <c r="M173" s="31"/>
+      <c r="N173" s="31"/>
+      <c r="O173" s="31"/>
+      <c r="P173" s="31"/>
       <c r="W173" s="21">
         <v>8.27</v>
       </c>
@@ -24385,10 +24385,10 @@
         <v>7.05</v>
       </c>
       <c r="D174" s="28"/>
-      <c r="M174" s="34"/>
-      <c r="N174" s="34"/>
-      <c r="O174" s="34"/>
-      <c r="P174" s="34"/>
+      <c r="M174" s="31"/>
+      <c r="N174" s="31"/>
+      <c r="O174" s="31"/>
+      <c r="P174" s="31"/>
       <c r="W174" s="21">
         <v>7.17</v>
       </c>
@@ -24404,8 +24404,8 @@
         <v>7.44</v>
       </c>
       <c r="D175" s="28"/>
-      <c r="O175" s="34"/>
-      <c r="P175" s="34"/>
+      <c r="O175" s="31"/>
+      <c r="P175" s="31"/>
       <c r="W175" s="21">
         <v>7.02</v>
       </c>
@@ -24421,8 +24421,8 @@
         <v>7.87</v>
       </c>
       <c r="D176" s="28"/>
-      <c r="O176" s="34"/>
-      <c r="P176" s="34"/>
+      <c r="O176" s="31"/>
+      <c r="P176" s="31"/>
       <c r="W176" s="21">
         <v>7.19</v>
       </c>
@@ -24438,9 +24438,9 @@
         <v>5.58</v>
       </c>
       <c r="D177" s="28"/>
-      <c r="N177" s="34"/>
-      <c r="O177" s="34"/>
-      <c r="P177" s="34"/>
+      <c r="N177" s="31"/>
+      <c r="O177" s="31"/>
+      <c r="P177" s="31"/>
       <c r="W177" s="21">
         <v>8.31</v>
       </c>
@@ -24456,9 +24456,9 @@
         <v>6.2</v>
       </c>
       <c r="D178" s="28"/>
-      <c r="N178" s="34"/>
-      <c r="O178" s="34"/>
-      <c r="P178" s="34"/>
+      <c r="N178" s="31"/>
+      <c r="O178" s="31"/>
+      <c r="P178" s="31"/>
       <c r="W178" s="21">
         <v>8.41</v>
       </c>
@@ -24474,8 +24474,8 @@
         <v>7.05</v>
       </c>
       <c r="D179" s="28"/>
-      <c r="O179" s="34"/>
-      <c r="P179" s="34"/>
+      <c r="O179" s="31"/>
+      <c r="P179" s="31"/>
       <c r="W179" s="21">
         <v>7.2</v>
       </c>
@@ -24491,8 +24491,8 @@
         <v>7.44</v>
       </c>
       <c r="D180" s="28"/>
-      <c r="O180" s="34"/>
-      <c r="P180" s="34"/>
+      <c r="O180" s="31"/>
+      <c r="P180" s="31"/>
       <c r="W180" s="21">
         <v>7.2</v>
       </c>
@@ -24508,8 +24508,8 @@
         <v>7.87</v>
       </c>
       <c r="D181" s="28"/>
-      <c r="O181" s="34"/>
-      <c r="P181" s="34"/>
+      <c r="O181" s="31"/>
+      <c r="P181" s="31"/>
       <c r="W181" s="21">
         <v>7.34</v>
       </c>
@@ -24525,8 +24525,8 @@
         <v>0.24914442162902123</v>
       </c>
       <c r="D182" s="28"/>
-      <c r="O182" s="34"/>
-      <c r="P182" s="34"/>
+      <c r="O182" s="31"/>
+      <c r="P182" s="31"/>
       <c r="BH182" s="21">
         <v>3.3352009052827341</v>
       </c>
@@ -24542,9 +24542,9 @@
         <v>0.3613963039014374</v>
       </c>
       <c r="D183" s="28"/>
-      <c r="N183" s="34"/>
-      <c r="O183" s="34"/>
-      <c r="P183" s="34"/>
+      <c r="N183" s="31"/>
+      <c r="O183" s="31"/>
+      <c r="P183" s="31"/>
       <c r="BH183" s="21">
         <v>5.3378061780489672</v>
       </c>
@@ -24560,9 +24560,9 @@
         <v>0.47091033538672145</v>
       </c>
       <c r="D184" s="28"/>
-      <c r="N184" s="34"/>
-      <c r="O184" s="34"/>
-      <c r="P184" s="34"/>
+      <c r="N184" s="31"/>
+      <c r="O184" s="31"/>
+      <c r="P184" s="31"/>
       <c r="BH184" s="21">
         <v>8.0304225893924048</v>
       </c>
@@ -24578,8 +24578,8 @@
         <v>0.68446269678302529</v>
       </c>
       <c r="D185" s="28"/>
-      <c r="O185" s="34"/>
-      <c r="P185" s="34"/>
+      <c r="O185" s="31"/>
+      <c r="P185" s="31"/>
       <c r="BH185" s="21">
         <v>4.5584479475526019</v>
       </c>
@@ -24595,8 +24595,8 @@
         <v>0.84052019164955505</v>
       </c>
       <c r="D186" s="28"/>
-      <c r="O186" s="34"/>
-      <c r="P186" s="34"/>
+      <c r="O186" s="31"/>
+      <c r="P186" s="31"/>
       <c r="BH186" s="21">
         <v>3.1607358328057575</v>
       </c>
@@ -24612,8 +24612,8 @@
         <v>1.6427104722792607</v>
       </c>
       <c r="D187" s="28"/>
-      <c r="O187" s="34"/>
-      <c r="P187" s="34"/>
+      <c r="O187" s="31"/>
+      <c r="P187" s="31"/>
       <c r="BH187" s="21">
         <v>1.5050467837428154E-2</v>
       </c>
@@ -24629,8 +24629,8 @@
         <v>2.0314852840520192</v>
       </c>
       <c r="D188" s="28"/>
-      <c r="O188" s="34"/>
-      <c r="P188" s="34"/>
+      <c r="O188" s="31"/>
+      <c r="P188" s="31"/>
       <c r="BH188" s="21">
         <v>1.276506997960839E-2</v>
       </c>
@@ -24646,8 +24646,8 @@
         <v>2.1108829568788501</v>
       </c>
       <c r="D189" s="28"/>
-      <c r="O189" s="34"/>
-      <c r="P189" s="34"/>
+      <c r="O189" s="31"/>
+      <c r="P189" s="31"/>
       <c r="BH189" s="21">
         <v>2.20123697901893E-2</v>
       </c>
@@ -24663,10 +24663,10 @@
         <v>2.2450376454483232</v>
       </c>
       <c r="D190" s="28"/>
-      <c r="M190" s="34"/>
-      <c r="N190" s="34"/>
-      <c r="O190" s="34"/>
-      <c r="P190" s="34"/>
+      <c r="M190" s="31"/>
+      <c r="N190" s="31"/>
+      <c r="O190" s="31"/>
+      <c r="P190" s="31"/>
       <c r="BH190" s="21">
         <v>2.8262423511851147E-2</v>
       </c>
@@ -24682,10 +24682,10 @@
         <v>2.3764544832306638</v>
       </c>
       <c r="D191" s="28"/>
-      <c r="M191" s="34"/>
-      <c r="N191" s="34"/>
-      <c r="O191" s="34"/>
-      <c r="P191" s="34"/>
+      <c r="M191" s="31"/>
+      <c r="N191" s="31"/>
+      <c r="O191" s="31"/>
+      <c r="P191" s="31"/>
       <c r="BH191" s="21">
         <v>1.7682570570030833E-2</v>
       </c>
@@ -24701,8 +24701,8 @@
         <v>2.6064339493497606</v>
       </c>
       <c r="D192" s="28"/>
-      <c r="O192" s="34"/>
-      <c r="P192" s="34"/>
+      <c r="O192" s="31"/>
+      <c r="P192" s="31"/>
       <c r="BH192" s="21">
         <v>1.7421730850087128E-3</v>
       </c>
@@ -24718,8 +24718,8 @@
         <v>2.9322381930184807</v>
       </c>
       <c r="D193" s="28"/>
-      <c r="O193" s="34"/>
-      <c r="P193" s="34"/>
+      <c r="O193" s="31"/>
+      <c r="P193" s="31"/>
       <c r="BH193" s="21">
         <v>3.1491859124216435E-3</v>
       </c>
@@ -24735,10 +24735,10 @@
         <v>3.1759069130732374</v>
       </c>
       <c r="D194" s="28"/>
-      <c r="M194" s="35"/>
-      <c r="N194" s="35"/>
-      <c r="O194" s="34"/>
-      <c r="P194" s="34"/>
+      <c r="M194" s="32"/>
+      <c r="N194" s="32"/>
+      <c r="O194" s="31"/>
+      <c r="P194" s="31"/>
       <c r="BH194" s="21">
         <v>8.2719385594224161E-4</v>
       </c>
@@ -24754,10 +24754,10 @@
         <v>3.5208761122518824</v>
       </c>
       <c r="D195" s="28"/>
-      <c r="M195" s="35"/>
-      <c r="N195" s="35"/>
-      <c r="O195" s="34"/>
-      <c r="P195" s="34"/>
+      <c r="M195" s="32"/>
+      <c r="N195" s="32"/>
+      <c r="O195" s="31"/>
+      <c r="P195" s="31"/>
       <c r="BH195" s="21">
         <v>7.8821646033169299E-3</v>
       </c>
@@ -24773,10 +24773,10 @@
         <v>3.7563312799452429</v>
       </c>
       <c r="D196" s="28"/>
-      <c r="M196" s="35"/>
-      <c r="N196" s="35"/>
-      <c r="O196" s="34"/>
-      <c r="P196" s="34"/>
+      <c r="M196" s="32"/>
+      <c r="N196" s="32"/>
+      <c r="O196" s="31"/>
+      <c r="P196" s="31"/>
       <c r="BH196" s="21">
         <v>1.5767542127177923E-3</v>
       </c>
@@ -24792,10 +24792,10 @@
         <v>4.0958247775496233</v>
       </c>
       <c r="D197" s="28"/>
-      <c r="M197" s="35"/>
-      <c r="N197" s="34"/>
-      <c r="O197" s="34"/>
-      <c r="P197" s="34"/>
+      <c r="M197" s="32"/>
+      <c r="N197" s="31"/>
+      <c r="O197" s="31"/>
+      <c r="P197" s="31"/>
       <c r="BH197" s="21">
         <v>1.1673992232268322E-3</v>
       </c>
@@ -24811,10 +24811,10 @@
         <v>0.24914442162902123</v>
       </c>
       <c r="D198" s="28"/>
-      <c r="M198" s="35"/>
-      <c r="N198" s="34"/>
-      <c r="O198" s="34"/>
-      <c r="P198" s="34"/>
+      <c r="M198" s="32"/>
+      <c r="N198" s="31"/>
+      <c r="O198" s="31"/>
+      <c r="P198" s="31"/>
       <c r="BH198" s="21">
         <v>3.4278499267179461</v>
       </c>
@@ -24830,8 +24830,8 @@
         <v>0.3613963039014374</v>
       </c>
       <c r="D199" s="28"/>
-      <c r="O199" s="34"/>
-      <c r="P199" s="34"/>
+      <c r="O199" s="31"/>
+      <c r="P199" s="31"/>
       <c r="BH199" s="21">
         <v>5.2203160861809872</v>
       </c>
@@ -24847,8 +24847,8 @@
         <v>0.47091033538672145</v>
       </c>
       <c r="D200" s="28"/>
-      <c r="O200" s="34"/>
-      <c r="P200" s="34"/>
+      <c r="O200" s="31"/>
+      <c r="P200" s="31"/>
       <c r="BH200" s="21">
         <v>5.1297015705723767</v>
       </c>
@@ -24864,10 +24864,10 @@
         <v>0.84052019164955505</v>
       </c>
       <c r="D201" s="28"/>
-      <c r="M201" s="35"/>
-      <c r="N201" s="35"/>
-      <c r="O201" s="34"/>
-      <c r="P201" s="34"/>
+      <c r="M201" s="32"/>
+      <c r="N201" s="32"/>
+      <c r="O201" s="31"/>
+      <c r="P201" s="31"/>
       <c r="BH201" s="21">
         <v>1.4970510148410185</v>
       </c>
@@ -24883,10 +24883,10 @@
         <v>2.0314852840520192</v>
       </c>
       <c r="D202" s="28"/>
-      <c r="M202" s="35"/>
-      <c r="N202" s="35"/>
-      <c r="O202" s="34"/>
-      <c r="P202" s="34"/>
+      <c r="M202" s="32"/>
+      <c r="N202" s="32"/>
+      <c r="O202" s="31"/>
+      <c r="P202" s="31"/>
       <c r="BH202" s="21">
         <v>8.2476476678703843E-3</v>
       </c>
@@ -24902,11 +24902,11 @@
         <v>2.1108829568788501</v>
       </c>
       <c r="D203" s="28"/>
-      <c r="F203" s="33"/>
-      <c r="M203" s="34"/>
-      <c r="N203" s="34"/>
-      <c r="O203" s="34"/>
-      <c r="P203" s="34"/>
+      <c r="F203" s="30"/>
+      <c r="M203" s="31"/>
+      <c r="N203" s="31"/>
+      <c r="O203" s="31"/>
+      <c r="P203" s="31"/>
       <c r="BH203" s="21">
         <v>0.10537842420849793</v>
       </c>
@@ -24922,10 +24922,10 @@
         <v>2.2450376454483232</v>
       </c>
       <c r="D204" s="28"/>
-      <c r="M204" s="34"/>
-      <c r="N204" s="34"/>
-      <c r="O204" s="34"/>
-      <c r="P204" s="34"/>
+      <c r="M204" s="31"/>
+      <c r="N204" s="31"/>
+      <c r="O204" s="31"/>
+      <c r="P204" s="31"/>
       <c r="BH204" s="21">
         <v>0.18206283454524325</v>
       </c>
@@ -24941,8 +24941,8 @@
         <v>2.3764544832306638</v>
       </c>
       <c r="D205" s="28"/>
-      <c r="O205" s="34"/>
-      <c r="P205" s="34"/>
+      <c r="O205" s="31"/>
+      <c r="P205" s="31"/>
       <c r="BH205" s="21">
         <v>9.4621864181857699E-3</v>
       </c>
@@ -24958,9 +24958,9 @@
         <v>2.6064339493497606</v>
       </c>
       <c r="D206" s="28"/>
-      <c r="N206" s="34"/>
-      <c r="O206" s="34"/>
-      <c r="P206" s="34"/>
+      <c r="N206" s="31"/>
+      <c r="O206" s="31"/>
+      <c r="P206" s="31"/>
       <c r="BH206" s="21">
         <v>8.497981865892533E-4</v>
       </c>
@@ -24976,9 +24976,9 @@
         <v>2.9322381930184807</v>
       </c>
       <c r="D207" s="28"/>
-      <c r="N207" s="34"/>
-      <c r="O207" s="34"/>
-      <c r="P207" s="34"/>
+      <c r="N207" s="31"/>
+      <c r="O207" s="31"/>
+      <c r="P207" s="31"/>
       <c r="BH207" s="21">
         <v>1.8165397263731756E-3</v>
       </c>
@@ -24994,8 +24994,8 @@
         <v>3.1759069130732374</v>
       </c>
       <c r="D208" s="28"/>
-      <c r="O208" s="34"/>
-      <c r="P208" s="34"/>
+      <c r="O208" s="31"/>
+      <c r="P208" s="31"/>
       <c r="BH208" s="21">
         <v>8.3449588603376338E-4</v>
       </c>
@@ -25011,9 +25011,9 @@
         <v>3.5208761122518824</v>
       </c>
       <c r="D209" s="28"/>
-      <c r="M209" s="34"/>
-      <c r="O209" s="34"/>
-      <c r="P209" s="34"/>
+      <c r="M209" s="31"/>
+      <c r="O209" s="31"/>
+      <c r="P209" s="31"/>
       <c r="BH209" s="21">
         <v>5.6687186159300193E-3</v>
       </c>
@@ -25029,9 +25029,9 @@
         <v>3.7563312799452429</v>
       </c>
       <c r="D210" s="28"/>
-      <c r="M210" s="34"/>
-      <c r="O210" s="34"/>
-      <c r="P210" s="34"/>
+      <c r="M210" s="31"/>
+      <c r="O210" s="31"/>
+      <c r="P210" s="31"/>
       <c r="BH210" s="21">
         <v>8.3011889634349782E-4</v>
       </c>
@@ -25047,8 +25047,8 @@
         <v>4.0958247775496233</v>
       </c>
       <c r="D211" s="28"/>
-      <c r="O211" s="34"/>
-      <c r="P211" s="34"/>
+      <c r="O211" s="31"/>
+      <c r="P211" s="31"/>
       <c r="BH211" s="21">
         <v>8.1641918193268374E-4</v>
       </c>
@@ -25064,8 +25064,8 @@
         <v>0.24914442162902123</v>
       </c>
       <c r="D212" s="28"/>
-      <c r="O212" s="34"/>
-      <c r="P212" s="34"/>
+      <c r="O212" s="31"/>
+      <c r="P212" s="31"/>
       <c r="BH212" s="21">
         <v>2.6938648278388793</v>
       </c>
@@ -25081,9 +25081,9 @@
         <v>0.3613963039014374</v>
       </c>
       <c r="D213" s="28"/>
-      <c r="N213" s="34"/>
-      <c r="O213" s="34"/>
-      <c r="P213" s="34"/>
+      <c r="N213" s="31"/>
+      <c r="O213" s="31"/>
+      <c r="P213" s="31"/>
       <c r="BH213" s="21">
         <v>6.452122435962548</v>
       </c>
@@ -25099,9 +25099,9 @@
         <v>0.47091033538672145</v>
       </c>
       <c r="D214" s="28"/>
-      <c r="N214" s="34"/>
-      <c r="O214" s="34"/>
-      <c r="P214" s="34"/>
+      <c r="N214" s="31"/>
+      <c r="O214" s="31"/>
+      <c r="P214" s="31"/>
       <c r="BH214" s="21">
         <v>5.1018172749436133</v>
       </c>
@@ -25117,8 +25117,8 @@
         <v>0.84052019164955505</v>
       </c>
       <c r="D215" s="28"/>
-      <c r="O215" s="34"/>
-      <c r="P215" s="34"/>
+      <c r="O215" s="31"/>
+      <c r="P215" s="31"/>
       <c r="BH215" s="21">
         <v>1.7424952383830152</v>
       </c>
@@ -25134,8 +25134,8 @@
         <v>2.0314852840520192</v>
       </c>
       <c r="D216" s="28"/>
-      <c r="O216" s="34"/>
-      <c r="P216" s="34"/>
+      <c r="O216" s="31"/>
+      <c r="P216" s="31"/>
       <c r="BH216" s="21">
         <v>3.739454041136236E-3</v>
       </c>
@@ -25151,8 +25151,8 @@
         <v>2.1108829568788501</v>
       </c>
       <c r="D217" s="28"/>
-      <c r="O217" s="34"/>
-      <c r="P217" s="34"/>
+      <c r="O217" s="31"/>
+      <c r="P217" s="31"/>
       <c r="BH217" s="21">
         <v>9.7777313376750483E-2</v>
       </c>
@@ -25168,8 +25168,8 @@
         <v>2.2450376454483232</v>
       </c>
       <c r="D218" s="28"/>
-      <c r="O218" s="34"/>
-      <c r="P218" s="34"/>
+      <c r="O218" s="31"/>
+      <c r="P218" s="31"/>
       <c r="BH218" s="21">
         <v>0.20288923283812227</v>
       </c>
@@ -25185,10 +25185,10 @@
         <v>2.3764544832306638</v>
       </c>
       <c r="D219" s="28"/>
-      <c r="M219" s="34"/>
-      <c r="N219" s="34"/>
-      <c r="O219" s="34"/>
-      <c r="P219" s="34"/>
+      <c r="M219" s="31"/>
+      <c r="N219" s="31"/>
+      <c r="O219" s="31"/>
+      <c r="P219" s="31"/>
       <c r="BH219" s="21">
         <v>2.9056499987877918E-2</v>
       </c>
@@ -25204,10 +25204,10 @@
         <v>2.6064339493497606</v>
       </c>
       <c r="D220" s="28"/>
-      <c r="M220" s="34"/>
-      <c r="N220" s="34"/>
-      <c r="O220" s="34"/>
-      <c r="P220" s="34"/>
+      <c r="M220" s="31"/>
+      <c r="N220" s="31"/>
+      <c r="O220" s="31"/>
+      <c r="P220" s="31"/>
       <c r="BH220" s="21">
         <v>1.5482489708569375E-3</v>
       </c>
@@ -25223,8 +25223,8 @@
         <v>2.9322381930184807</v>
       </c>
       <c r="D221" s="28"/>
-      <c r="O221" s="34"/>
-      <c r="P221" s="34"/>
+      <c r="O221" s="31"/>
+      <c r="P221" s="31"/>
       <c r="BH221" s="21">
         <v>5.7773156985987386E-3</v>
       </c>
@@ -25240,8 +25240,8 @@
         <v>3.1759069130732374</v>
       </c>
       <c r="D222" s="28"/>
-      <c r="O222" s="34"/>
-      <c r="P222" s="34"/>
+      <c r="O222" s="31"/>
+      <c r="P222" s="31"/>
       <c r="BH222" s="21">
         <v>8.2153032670159742E-4</v>
       </c>
@@ -25257,10 +25257,10 @@
         <v>3.5208761122518824</v>
       </c>
       <c r="D223" s="28"/>
-      <c r="M223" s="35"/>
-      <c r="N223" s="35"/>
-      <c r="O223" s="34"/>
-      <c r="P223" s="34"/>
+      <c r="M223" s="32"/>
+      <c r="N223" s="32"/>
+      <c r="O223" s="31"/>
+      <c r="P223" s="31"/>
       <c r="BH223" s="21">
         <v>6.0908779903161292E-3</v>
       </c>
@@ -25276,10 +25276,10 @@
         <v>3.7563312799452429</v>
       </c>
       <c r="D224" s="28"/>
-      <c r="M224" s="35"/>
-      <c r="N224" s="35"/>
-      <c r="O224" s="34"/>
-      <c r="P224" s="34"/>
+      <c r="M224" s="32"/>
+      <c r="N224" s="32"/>
+      <c r="O224" s="31"/>
+      <c r="P224" s="31"/>
       <c r="BH224" s="21">
         <v>8.1727177398017818E-4</v>
       </c>
@@ -25295,10 +25295,10 @@
         <v>4.0958247775496233</v>
       </c>
       <c r="D225" s="28"/>
-      <c r="M225" s="35"/>
-      <c r="N225" s="35"/>
-      <c r="O225" s="34"/>
-      <c r="P225" s="34"/>
+      <c r="M225" s="32"/>
+      <c r="N225" s="32"/>
+      <c r="O225" s="31"/>
+      <c r="P225" s="31"/>
       <c r="BH225" s="21">
         <v>1.1679178605533773E-3</v>
       </c>
@@ -25314,10 +25314,10 @@
         <v>0.24914442162902123</v>
       </c>
       <c r="D226" s="28"/>
-      <c r="M226" s="35"/>
-      <c r="N226" s="35"/>
-      <c r="O226" s="34"/>
-      <c r="P226" s="34"/>
+      <c r="M226" s="32"/>
+      <c r="N226" s="32"/>
+      <c r="O226" s="31"/>
+      <c r="P226" s="31"/>
       <c r="BH226" s="21">
         <v>1.5960658302495594</v>
       </c>
@@ -25333,10 +25333,10 @@
         <v>0.3613963039014374</v>
       </c>
       <c r="D227" s="28"/>
-      <c r="M227" s="35"/>
-      <c r="N227" s="34"/>
-      <c r="O227" s="34"/>
-      <c r="P227" s="34"/>
+      <c r="M227" s="32"/>
+      <c r="N227" s="31"/>
+      <c r="O227" s="31"/>
+      <c r="P227" s="31"/>
       <c r="BH227" s="21">
         <v>2.0466595203545253</v>
       </c>
@@ -25352,10 +25352,10 @@
         <v>0.47091033538672145</v>
       </c>
       <c r="D228" s="28"/>
-      <c r="M228" s="35"/>
-      <c r="N228" s="34"/>
-      <c r="O228" s="34"/>
-      <c r="P228" s="34"/>
+      <c r="M228" s="32"/>
+      <c r="N228" s="31"/>
+      <c r="O228" s="31"/>
+      <c r="P228" s="31"/>
       <c r="BH228" s="21">
         <v>4.5401834369107927</v>
       </c>
@@ -25371,8 +25371,8 @@
         <v>0.84052019164955505</v>
       </c>
       <c r="D229" s="28"/>
-      <c r="O229" s="36"/>
-      <c r="P229" s="36"/>
+      <c r="O229" s="33"/>
+      <c r="P229" s="33"/>
       <c r="BH229" s="21">
         <v>2.5681216967828662</v>
       </c>
@@ -25388,8 +25388,8 @@
         <v>2.0314852840520192</v>
       </c>
       <c r="D230" s="28"/>
-      <c r="O230" s="36"/>
-      <c r="P230" s="36"/>
+      <c r="O230" s="33"/>
+      <c r="P230" s="33"/>
       <c r="BH230" s="21">
         <v>2.4229664463747817E-3</v>
       </c>
@@ -25405,8 +25405,8 @@
         <v>2.1108829568788501</v>
       </c>
       <c r="D231" s="28"/>
-      <c r="O231" s="36"/>
-      <c r="P231" s="36"/>
+      <c r="O231" s="33"/>
+      <c r="P231" s="33"/>
       <c r="BH231" s="21">
         <v>0.20927478286751297</v>
       </c>
@@ -25422,8 +25422,8 @@
         <v>2.2450376454483232</v>
       </c>
       <c r="D232" s="28"/>
-      <c r="O232" s="36"/>
-      <c r="P232" s="36"/>
+      <c r="O232" s="33"/>
+      <c r="P232" s="33"/>
       <c r="BH232" s="21">
         <v>1.3752510968520772</v>
       </c>
@@ -25439,8 +25439,8 @@
         <v>2.3764544832306638</v>
       </c>
       <c r="D233" s="28"/>
-      <c r="O233" s="36"/>
-      <c r="P233" s="36"/>
+      <c r="O233" s="33"/>
+      <c r="P233" s="33"/>
       <c r="BH233" s="21">
         <v>0.78560945201600973</v>
       </c>
@@ -25456,8 +25456,8 @@
         <v>2.6064339493497606</v>
       </c>
       <c r="D234" s="28"/>
-      <c r="O234" s="36"/>
-      <c r="P234" s="36"/>
+      <c r="O234" s="33"/>
+      <c r="P234" s="33"/>
       <c r="BH234" s="21">
         <v>6.7027095434819522E-2</v>
       </c>
@@ -25473,8 +25473,8 @@
         <v>2.9322381930184807</v>
       </c>
       <c r="D235" s="28"/>
-      <c r="O235" s="36"/>
-      <c r="P235" s="36"/>
+      <c r="O235" s="33"/>
+      <c r="P235" s="33"/>
       <c r="BH235" s="21">
         <v>0.18166936576272241</v>
       </c>
@@ -25490,8 +25490,8 @@
         <v>3.1759069130732374</v>
       </c>
       <c r="D236" s="28"/>
-      <c r="O236" s="36"/>
-      <c r="P236" s="36"/>
+      <c r="O236" s="33"/>
+      <c r="P236" s="33"/>
       <c r="BH236" s="21">
         <v>8.2968760106616446E-4</v>
       </c>
@@ -25507,8 +25507,8 @@
         <v>3.5208761122518824</v>
       </c>
       <c r="D237" s="28"/>
-      <c r="O237" s="36"/>
-      <c r="P237" s="36"/>
+      <c r="O237" s="33"/>
+      <c r="P237" s="33"/>
       <c r="BH237" s="21">
         <v>7.3985599974694671E-3</v>
       </c>
@@ -25524,8 +25524,8 @@
         <v>3.7563312799452429</v>
       </c>
       <c r="D238" s="28"/>
-      <c r="O238" s="36"/>
-      <c r="P238" s="36"/>
+      <c r="O238" s="33"/>
+      <c r="P238" s="33"/>
       <c r="BH238" s="21">
         <v>4.0576557604792646E-2</v>
       </c>
@@ -25541,8 +25541,8 @@
         <v>4.0958247775496233</v>
       </c>
       <c r="D239" s="28"/>
-      <c r="O239" s="36"/>
-      <c r="P239" s="36"/>
+      <c r="O239" s="33"/>
+      <c r="P239" s="33"/>
       <c r="BH239" s="21">
         <v>8.0342936321758105E-4</v>
       </c>
@@ -25558,8 +25558,8 @@
         <v>0.24914442162902123</v>
       </c>
       <c r="D240" s="28"/>
-      <c r="O240" s="36"/>
-      <c r="P240" s="36"/>
+      <c r="O240" s="33"/>
+      <c r="P240" s="33"/>
       <c r="BH240" s="21">
         <v>2.2402077740333182</v>
       </c>
@@ -25575,8 +25575,8 @@
         <v>0.3613963039014374</v>
       </c>
       <c r="D241" s="28"/>
-      <c r="O241" s="36"/>
-      <c r="P241" s="36"/>
+      <c r="O241" s="33"/>
+      <c r="P241" s="33"/>
       <c r="BH241" s="21">
         <v>4.5270824061718837</v>
       </c>
@@ -25592,8 +25592,8 @@
         <v>0.47091033538672145</v>
       </c>
       <c r="D242" s="28"/>
-      <c r="O242" s="36"/>
-      <c r="P242" s="36"/>
+      <c r="O242" s="33"/>
+      <c r="P242" s="33"/>
       <c r="BH242" s="21">
         <v>5.3324586936767862</v>
       </c>
@@ -25609,8 +25609,8 @@
         <v>0.68446269678302529</v>
       </c>
       <c r="D243" s="28"/>
-      <c r="O243" s="36"/>
-      <c r="P243" s="36"/>
+      <c r="O243" s="33"/>
+      <c r="P243" s="33"/>
       <c r="BH243" s="21">
         <v>3.16111430435034</v>
       </c>
@@ -25626,8 +25626,8 @@
         <v>0.84052019164955505</v>
       </c>
       <c r="D244" s="28"/>
-      <c r="O244" s="36"/>
-      <c r="P244" s="36"/>
+      <c r="O244" s="33"/>
+      <c r="P244" s="33"/>
       <c r="BH244" s="21">
         <v>2.2421145654773214</v>
       </c>
@@ -25643,8 +25643,8 @@
         <v>1.6427104722792607</v>
       </c>
       <c r="D245" s="28"/>
-      <c r="O245" s="36"/>
-      <c r="P245" s="36"/>
+      <c r="O245" s="33"/>
+      <c r="P245" s="33"/>
       <c r="BH245" s="21">
         <v>0.47433514051772585</v>
       </c>
@@ -25660,8 +25660,8 @@
         <v>2.0314852840520192</v>
       </c>
       <c r="D246" s="28"/>
-      <c r="O246" s="36"/>
-      <c r="P246" s="36"/>
+      <c r="O246" s="33"/>
+      <c r="P246" s="33"/>
       <c r="BH246" s="21">
         <v>0.10094030205784604</v>
       </c>
@@ -25677,8 +25677,8 @@
         <v>2.1108829568788501</v>
       </c>
       <c r="D247" s="28"/>
-      <c r="O247" s="36"/>
-      <c r="P247" s="36"/>
+      <c r="O247" s="33"/>
+      <c r="P247" s="33"/>
       <c r="BH247" s="21">
         <v>0.19913247885824009</v>
       </c>
@@ -25694,8 +25694,8 @@
         <v>2.2450376454483232</v>
       </c>
       <c r="D248" s="28"/>
-      <c r="O248" s="36"/>
-      <c r="P248" s="36"/>
+      <c r="O248" s="33"/>
+      <c r="P248" s="33"/>
       <c r="BH248" s="21">
         <v>2.0176712233537311</v>
       </c>
@@ -25711,8 +25711,8 @@
         <v>2.3764544832306638</v>
       </c>
       <c r="D249" s="28"/>
-      <c r="O249" s="36"/>
-      <c r="P249" s="36"/>
+      <c r="O249" s="33"/>
+      <c r="P249" s="33"/>
       <c r="BH249" s="21">
         <v>3.1035203683652046</v>
       </c>
@@ -25728,8 +25728,8 @@
         <v>2.6064339493497606</v>
       </c>
       <c r="D250" s="28"/>
-      <c r="O250" s="36"/>
-      <c r="P250" s="36"/>
+      <c r="O250" s="33"/>
+      <c r="P250" s="33"/>
       <c r="BH250" s="21">
         <v>1.2559729903044137</v>
       </c>
@@ -25745,8 +25745,8 @@
         <v>2.9322381930184807</v>
       </c>
       <c r="D251" s="28"/>
-      <c r="O251" s="36"/>
-      <c r="P251" s="36"/>
+      <c r="O251" s="33"/>
+      <c r="P251" s="33"/>
       <c r="BH251" s="21">
         <v>0.43528950873451477</v>
       </c>
@@ -25762,8 +25762,8 @@
         <v>3.1759069130732374</v>
       </c>
       <c r="D252" s="28"/>
-      <c r="O252" s="36"/>
-      <c r="P252" s="36"/>
+      <c r="O252" s="33"/>
+      <c r="P252" s="33"/>
       <c r="BH252" s="21">
         <v>0.44975707102981433</v>
       </c>
@@ -25779,8 +25779,8 @@
         <v>3.5208761122518824</v>
       </c>
       <c r="D253" s="28"/>
-      <c r="O253" s="36"/>
-      <c r="P253" s="36"/>
+      <c r="O253" s="33"/>
+      <c r="P253" s="33"/>
       <c r="BH253" s="21">
         <v>0.33009040459632483</v>
       </c>
@@ -25796,8 +25796,8 @@
         <v>3.7563312799452429</v>
       </c>
       <c r="D254" s="28"/>
-      <c r="O254" s="36"/>
-      <c r="P254" s="36"/>
+      <c r="O254" s="33"/>
+      <c r="P254" s="33"/>
       <c r="BH254" s="21">
         <v>0.61933810363663644</v>
       </c>
@@ -25813,8 +25813,8 @@
         <v>4.0958247775496233</v>
       </c>
       <c r="D255" s="28"/>
-      <c r="O255" s="36"/>
-      <c r="P255" s="36"/>
+      <c r="O255" s="33"/>
+      <c r="P255" s="33"/>
       <c r="BH255" s="21">
         <v>0.10517262170754198</v>
       </c>
@@ -25830,8 +25830,8 @@
         <v>0.24914442162902123</v>
       </c>
       <c r="D256" s="28"/>
-      <c r="O256" s="36"/>
-      <c r="P256" s="36"/>
+      <c r="O256" s="33"/>
+      <c r="P256" s="33"/>
       <c r="BH256" s="21">
         <v>2.7071361606441093</v>
       </c>
@@ -25847,8 +25847,8 @@
         <v>0.3613963039014374</v>
       </c>
       <c r="D257" s="28"/>
-      <c r="O257" s="36"/>
-      <c r="P257" s="36"/>
+      <c r="O257" s="33"/>
+      <c r="P257" s="33"/>
       <c r="BH257" s="21">
         <v>3.5658683072262058</v>
       </c>
@@ -25864,8 +25864,8 @@
         <v>0.47091033538672145</v>
       </c>
       <c r="D258" s="28"/>
-      <c r="O258" s="36"/>
-      <c r="P258" s="36"/>
+      <c r="O258" s="33"/>
+      <c r="P258" s="33"/>
       <c r="BH258" s="21">
         <v>3.1045502950758488</v>
       </c>
@@ -25881,8 +25881,8 @@
         <v>0.84052019164955505</v>
       </c>
       <c r="D259" s="28"/>
-      <c r="O259" s="36"/>
-      <c r="P259" s="36"/>
+      <c r="O259" s="33"/>
+      <c r="P259" s="33"/>
       <c r="BH259" s="21">
         <v>2.3436297375993616</v>
       </c>
@@ -25898,8 +25898,8 @@
         <v>1.6427104722792607</v>
       </c>
       <c r="D260" s="28"/>
-      <c r="O260" s="36"/>
-      <c r="P260" s="36"/>
+      <c r="O260" s="33"/>
+      <c r="P260" s="33"/>
       <c r="BH260" s="21">
         <v>0.52128376577422708</v>
       </c>
@@ -25915,8 +25915,8 @@
         <v>2.0314852840520192</v>
       </c>
       <c r="D261" s="28"/>
-      <c r="O261" s="36"/>
-      <c r="P261" s="36"/>
+      <c r="O261" s="33"/>
+      <c r="P261" s="33"/>
       <c r="BH261" s="21">
         <v>0.65220436338273735</v>
       </c>
@@ -25932,8 +25932,8 @@
         <v>2.1108829568788501</v>
       </c>
       <c r="D262" s="28"/>
-      <c r="O262" s="36"/>
-      <c r="P262" s="36"/>
+      <c r="O262" s="33"/>
+      <c r="P262" s="33"/>
       <c r="BH262" s="21">
         <v>0.72653811030800075</v>
       </c>
@@ -25949,8 +25949,8 @@
         <v>2.2450376454483232</v>
       </c>
       <c r="D263" s="28"/>
-      <c r="O263" s="36"/>
-      <c r="P263" s="36"/>
+      <c r="O263" s="33"/>
+      <c r="P263" s="33"/>
       <c r="BH263" s="21">
         <v>1.9010029902286769</v>
       </c>
@@ -25966,8 +25966,8 @@
         <v>2.3764544832306638</v>
       </c>
       <c r="D264" s="28"/>
-      <c r="O264" s="36"/>
-      <c r="P264" s="36"/>
+      <c r="O264" s="33"/>
+      <c r="P264" s="33"/>
       <c r="BH264" s="21">
         <v>2.2628423596942753</v>
       </c>
@@ -25983,8 +25983,8 @@
         <v>2.6064339493497606</v>
       </c>
       <c r="D265" s="28"/>
-      <c r="O265" s="36"/>
-      <c r="P265" s="36"/>
+      <c r="O265" s="33"/>
+      <c r="P265" s="33"/>
       <c r="BH265" s="21">
         <v>1.3363237898911655</v>
       </c>
@@ -26000,8 +26000,8 @@
         <v>2.9322381930184807</v>
       </c>
       <c r="D266" s="28"/>
-      <c r="O266" s="36"/>
-      <c r="P266" s="36"/>
+      <c r="O266" s="33"/>
+      <c r="P266" s="33"/>
       <c r="BH266" s="21">
         <v>0.7415113449173163</v>
       </c>
@@ -26017,8 +26017,8 @@
         <v>3.1759069130732374</v>
       </c>
       <c r="D267" s="28"/>
-      <c r="O267" s="36"/>
-      <c r="P267" s="36"/>
+      <c r="O267" s="33"/>
+      <c r="P267" s="33"/>
       <c r="BH267" s="21">
         <v>0.57678704859443375</v>
       </c>
@@ -26034,8 +26034,8 @@
         <v>3.5208761122518824</v>
       </c>
       <c r="D268" s="28"/>
-      <c r="O268" s="36"/>
-      <c r="P268" s="36"/>
+      <c r="O268" s="33"/>
+      <c r="P268" s="33"/>
       <c r="BH268" s="21">
         <v>0.6491992359076123</v>
       </c>
@@ -26051,8 +26051,8 @@
         <v>3.7563312799452429</v>
       </c>
       <c r="D269" s="28"/>
-      <c r="O269" s="36"/>
-      <c r="P269" s="36"/>
+      <c r="O269" s="33"/>
+      <c r="P269" s="33"/>
       <c r="BH269" s="21">
         <v>1.1749373235460279</v>
       </c>
@@ -26068,8 +26068,8 @@
         <v>4.0958247775496233</v>
       </c>
       <c r="D270" s="28"/>
-      <c r="O270" s="36"/>
-      <c r="P270" s="36"/>
+      <c r="O270" s="33"/>
+      <c r="P270" s="33"/>
       <c r="BH270" s="21">
         <v>0.41992922457391135</v>
       </c>
@@ -26085,8 +26085,8 @@
         <v>0</v>
       </c>
       <c r="D271" s="28"/>
-      <c r="O271" s="36"/>
-      <c r="P271" s="36"/>
+      <c r="O271" s="33"/>
+      <c r="P271" s="33"/>
     </row>
     <row r="272" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A272" s="6" t="s">
@@ -26102,8 +26102,8 @@
       <c r="E272" s="21">
         <v>963</v>
       </c>
-      <c r="O272" s="36"/>
-      <c r="P272" s="36"/>
+      <c r="O272" s="33"/>
+      <c r="P272" s="33"/>
       <c r="AB272" s="21">
         <v>16.2</v>
       </c>
@@ -26134,8 +26134,8 @@
       <c r="E273" s="21">
         <v>938</v>
       </c>
-      <c r="O273" s="36"/>
-      <c r="P273" s="36"/>
+      <c r="O273" s="33"/>
+      <c r="P273" s="33"/>
       <c r="AB273" s="21">
         <v>16.399999999999999</v>
       </c>
@@ -26166,8 +26166,8 @@
       <c r="E274" s="21">
         <v>938</v>
       </c>
-      <c r="O274" s="36"/>
-      <c r="P274" s="36"/>
+      <c r="O274" s="33"/>
+      <c r="P274" s="33"/>
       <c r="AB274" s="21">
         <v>17.5</v>
       </c>
@@ -26198,8 +26198,8 @@
       <c r="E275" s="21">
         <v>913</v>
       </c>
-      <c r="O275" s="36"/>
-      <c r="P275" s="36"/>
+      <c r="O275" s="33"/>
+      <c r="P275" s="33"/>
       <c r="AB275" s="21">
         <v>19.600000000000001</v>
       </c>
@@ -26233,8 +26233,8 @@
       <c r="E276" s="21">
         <v>424</v>
       </c>
-      <c r="O276" s="36"/>
-      <c r="P276" s="36"/>
+      <c r="O276" s="33"/>
+      <c r="P276" s="33"/>
       <c r="AB276" s="21">
         <v>41</v>
       </c>
@@ -26265,8 +26265,8 @@
       <c r="E277" s="21">
         <v>888</v>
       </c>
-      <c r="O277" s="36"/>
-      <c r="P277" s="36"/>
+      <c r="O277" s="33"/>
+      <c r="P277" s="33"/>
       <c r="AB277" s="21">
         <v>15.7</v>
       </c>
@@ -26297,8 +26297,8 @@
       <c r="E278" s="21">
         <v>438</v>
       </c>
-      <c r="O278" s="36"/>
-      <c r="P278" s="36"/>
+      <c r="O278" s="33"/>
+      <c r="P278" s="33"/>
       <c r="AB278" s="21">
         <v>17.2</v>
       </c>
@@ -26329,8 +26329,8 @@
       <c r="E279" s="21">
         <v>438</v>
       </c>
-      <c r="O279" s="36"/>
-      <c r="P279" s="36"/>
+      <c r="O279" s="33"/>
+      <c r="P279" s="33"/>
       <c r="AB279" s="21">
         <v>19.399999999999999</v>
       </c>
@@ -26361,8 +26361,8 @@
       <c r="E280" s="21">
         <v>209</v>
       </c>
-      <c r="O280" s="36"/>
-      <c r="P280" s="36"/>
+      <c r="O280" s="33"/>
+      <c r="P280" s="33"/>
       <c r="AB280" s="21">
         <v>41</v>
       </c>
@@ -26398,8 +26398,8 @@
       <c r="E281" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O281" s="36"/>
-      <c r="P281" s="36"/>
+      <c r="O281" s="33"/>
+      <c r="P281" s="33"/>
     </row>
     <row r="282" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A282" s="6" t="s">
@@ -26417,8 +26417,8 @@
       <c r="E282" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O282" s="36"/>
-      <c r="P282" s="36"/>
+      <c r="O282" s="33"/>
+      <c r="P282" s="33"/>
       <c r="AF282" s="21">
         <v>108</v>
       </c>
@@ -26442,8 +26442,8 @@
       <c r="E283" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O283" s="36"/>
-      <c r="P283" s="36"/>
+      <c r="O283" s="33"/>
+      <c r="P283" s="33"/>
       <c r="AF283" s="21">
         <v>128.63999999999999</v>
       </c>
@@ -26467,8 +26467,8 @@
       <c r="E284" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O284" s="36"/>
-      <c r="P284" s="36"/>
+      <c r="O284" s="33"/>
+      <c r="P284" s="33"/>
       <c r="AF284" s="21">
         <v>168</v>
       </c>
@@ -26492,8 +26492,8 @@
       <c r="E285" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O285" s="36"/>
-      <c r="P285" s="36"/>
+      <c r="O285" s="33"/>
+      <c r="P285" s="33"/>
       <c r="AF285" s="21">
         <v>202.08</v>
       </c>
@@ -26520,8 +26520,8 @@
       <c r="F286" s="21">
         <v>8060.0000000000009</v>
       </c>
-      <c r="O286" s="36"/>
-      <c r="P286" s="36"/>
+      <c r="O286" s="33"/>
+      <c r="P286" s="33"/>
       <c r="Q286" s="21">
         <v>2680</v>
       </c>
@@ -26554,8 +26554,8 @@
       <c r="F287" s="21">
         <v>11060</v>
       </c>
-      <c r="O287" s="36"/>
-      <c r="P287" s="36"/>
+      <c r="O287" s="33"/>
+      <c r="P287" s="33"/>
       <c r="Q287" s="21">
         <v>2580</v>
       </c>
@@ -26588,8 +26588,8 @@
       <c r="F288" s="21">
         <v>12900</v>
       </c>
-      <c r="O288" s="36"/>
-      <c r="P288" s="36"/>
+      <c r="O288" s="33"/>
+      <c r="P288" s="33"/>
       <c r="Q288" s="21">
         <v>3040</v>
       </c>
@@ -26622,8 +26622,8 @@
       <c r="F289" s="21">
         <v>15000</v>
       </c>
-      <c r="O289" s="36"/>
-      <c r="P289" s="36"/>
+      <c r="O289" s="33"/>
+      <c r="P289" s="33"/>
       <c r="Q289" s="21">
         <v>4420</v>
       </c>
@@ -26653,8 +26653,8 @@
       <c r="E290" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O290" s="36"/>
-      <c r="P290" s="36"/>
+      <c r="O290" s="33"/>
+      <c r="P290" s="33"/>
       <c r="W290" s="21">
         <v>0.9</v>
       </c>
@@ -26678,8 +26678,8 @@
       <c r="E291" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O291" s="36"/>
-      <c r="P291" s="36"/>
+      <c r="O291" s="33"/>
+      <c r="P291" s="33"/>
       <c r="W291" s="21">
         <v>1.6</v>
       </c>
@@ -26703,8 +26703,8 @@
       <c r="E292" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O292" s="36"/>
-      <c r="P292" s="36"/>
+      <c r="O292" s="33"/>
+      <c r="P292" s="33"/>
       <c r="W292" s="21">
         <v>2.2999999999999998</v>
       </c>
@@ -26728,8 +26728,8 @@
       <c r="E293" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O293" s="36"/>
-      <c r="P293" s="36"/>
+      <c r="O293" s="33"/>
+      <c r="P293" s="33"/>
       <c r="W293" s="21">
         <v>1.3</v>
       </c>
@@ -26753,8 +26753,8 @@
       <c r="E294" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O294" s="36"/>
-      <c r="P294" s="36"/>
+      <c r="O294" s="33"/>
+      <c r="P294" s="33"/>
       <c r="W294" s="21">
         <v>2.2000000000000002</v>
       </c>
@@ -26778,8 +26778,8 @@
       <c r="E295" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O295" s="36"/>
-      <c r="P295" s="36"/>
+      <c r="O295" s="33"/>
+      <c r="P295" s="33"/>
       <c r="W295" s="21">
         <v>2.8</v>
       </c>
@@ -26803,8 +26803,8 @@
       <c r="E296" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O296" s="36"/>
-      <c r="P296" s="36"/>
+      <c r="O296" s="33"/>
+      <c r="P296" s="33"/>
       <c r="W296" s="21">
         <v>1.8</v>
       </c>
@@ -26828,8 +26828,8 @@
       <c r="E297" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O297" s="36"/>
-      <c r="P297" s="36"/>
+      <c r="O297" s="33"/>
+      <c r="P297" s="33"/>
       <c r="W297" s="21">
         <v>2.2000000000000002</v>
       </c>
@@ -26853,8 +26853,8 @@
       <c r="E298" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O298" s="36"/>
-      <c r="P298" s="36"/>
+      <c r="O298" s="33"/>
+      <c r="P298" s="33"/>
       <c r="W298" s="21">
         <v>3</v>
       </c>
@@ -26878,8 +26878,8 @@
       <c r="E299" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O299" s="36"/>
-      <c r="P299" s="36"/>
+      <c r="O299" s="33"/>
+      <c r="P299" s="33"/>
       <c r="W299" s="21">
         <v>2.2000000000000002</v>
       </c>
@@ -26903,8 +26903,8 @@
       <c r="E300" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O300" s="36"/>
-      <c r="P300" s="36"/>
+      <c r="O300" s="33"/>
+      <c r="P300" s="33"/>
       <c r="W300" s="21">
         <v>3.4</v>
       </c>
@@ -26928,8 +26928,8 @@
       <c r="E301" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O301" s="36"/>
-      <c r="P301" s="36"/>
+      <c r="O301" s="33"/>
+      <c r="P301" s="33"/>
       <c r="W301" s="21">
         <v>3.8</v>
       </c>
@@ -26956,8 +26956,8 @@
       <c r="F302" s="21">
         <v>21</v>
       </c>
-      <c r="O302" s="36"/>
-      <c r="P302" s="36"/>
+      <c r="O302" s="33"/>
+      <c r="P302" s="33"/>
     </row>
     <row r="303" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A303" s="6" t="s">
@@ -26978,8 +26978,8 @@
       <c r="F303" s="21">
         <v>97</v>
       </c>
-      <c r="O303" s="36"/>
-      <c r="P303" s="36"/>
+      <c r="O303" s="33"/>
+      <c r="P303" s="33"/>
     </row>
     <row r="304" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A304" s="6" t="s">
@@ -27000,8 +27000,8 @@
       <c r="F304" s="21">
         <v>138</v>
       </c>
-      <c r="O304" s="36"/>
-      <c r="P304" s="36"/>
+      <c r="O304" s="33"/>
+      <c r="P304" s="33"/>
     </row>
     <row r="305" spans="1:22" s="21" customFormat="1" ht="15">
       <c r="A305" s="6" t="s">
@@ -27022,8 +27022,8 @@
       <c r="F305" s="21">
         <v>179</v>
       </c>
-      <c r="O305" s="36"/>
-      <c r="P305" s="36"/>
+      <c r="O305" s="33"/>
+      <c r="P305" s="33"/>
     </row>
     <row r="306" spans="1:22" s="21" customFormat="1" ht="15">
       <c r="A306" s="6" t="s">
@@ -27044,8 +27044,8 @@
       <c r="F306" s="21">
         <v>281</v>
       </c>
-      <c r="O306" s="36"/>
-      <c r="P306" s="36"/>
+      <c r="O306" s="33"/>
+      <c r="P306" s="33"/>
     </row>
     <row r="307" spans="1:22" s="21" customFormat="1" ht="15">
       <c r="A307" s="6" t="s">
@@ -27066,8 +27066,8 @@
       <c r="F307" s="21">
         <v>348</v>
       </c>
-      <c r="O307" s="36"/>
-      <c r="P307" s="36"/>
+      <c r="O307" s="33"/>
+      <c r="P307" s="33"/>
     </row>
     <row r="308" spans="1:22" s="21" customFormat="1" ht="15">
       <c r="A308" s="6" t="s">
@@ -27088,8 +27088,8 @@
       <c r="F308" s="21">
         <v>432</v>
       </c>
-      <c r="O308" s="36"/>
-      <c r="P308" s="36"/>
+      <c r="O308" s="33"/>
+      <c r="P308" s="33"/>
     </row>
     <row r="309" spans="1:22" s="21" customFormat="1" ht="15">
       <c r="A309" s="6" t="s">
@@ -27110,8 +27110,8 @@
       <c r="F309" s="21">
         <v>560</v>
       </c>
-      <c r="O309" s="36"/>
-      <c r="P309" s="36"/>
+      <c r="O309" s="33"/>
+      <c r="P309" s="33"/>
     </row>
     <row r="310" spans="1:22" s="21" customFormat="1" ht="15">
       <c r="A310" s="6" t="s">
@@ -27132,8 +27132,8 @@
       <c r="F310" s="21">
         <v>772</v>
       </c>
-      <c r="O310" s="36"/>
-      <c r="P310" s="36"/>
+      <c r="O310" s="33"/>
+      <c r="P310" s="33"/>
     </row>
     <row r="311" spans="1:22" s="21" customFormat="1" ht="15">
       <c r="A311" s="6" t="s">
@@ -27154,10 +27154,10 @@
       <c r="F311" s="21">
         <v>891</v>
       </c>
-      <c r="O311" s="36">
+      <c r="O311" s="33">
         <v>191.28813559322032</v>
       </c>
-      <c r="P311" s="36">
+      <c r="P311" s="33">
         <v>30.20338983050847</v>
       </c>
       <c r="Q311" s="21">
@@ -27186,8 +27186,8 @@
       <c r="F312" s="21">
         <v>1577</v>
       </c>
-      <c r="O312" s="36"/>
-      <c r="P312" s="36"/>
+      <c r="O312" s="33"/>
+      <c r="P312" s="33"/>
     </row>
     <row r="313" spans="1:22" s="21" customFormat="1" ht="15">
       <c r="A313" s="6" t="s">
@@ -27208,10 +27208,10 @@
       <c r="F313" s="21">
         <v>2572</v>
       </c>
-      <c r="O313" s="36">
+      <c r="O313" s="33">
         <v>482.58144329896908</v>
       </c>
-      <c r="P313" s="36">
+      <c r="P313" s="33">
         <v>10.606185567010309</v>
       </c>
       <c r="Q313" s="21">
@@ -27240,8 +27240,8 @@
       <c r="F314" s="21">
         <v>3420.0000000000005</v>
       </c>
-      <c r="O314" s="36"/>
-      <c r="P314" s="36"/>
+      <c r="O314" s="33"/>
+      <c r="P314" s="33"/>
     </row>
     <row r="315" spans="1:22" s="21" customFormat="1" ht="15">
       <c r="A315" s="6" t="s">
@@ -27262,8 +27262,8 @@
       <c r="F315" s="21">
         <v>3929</v>
       </c>
-      <c r="O315" s="36"/>
-      <c r="P315" s="36"/>
+      <c r="O315" s="33"/>
+      <c r="P315" s="33"/>
     </row>
     <row r="316" spans="1:22" s="21" customFormat="1" ht="15">
       <c r="A316" s="6" t="s">
@@ -27302,8 +27302,8 @@
       <c r="N316" s="21">
         <v>350</v>
       </c>
-      <c r="O316" s="36"/>
-      <c r="P316" s="36"/>
+      <c r="O316" s="33"/>
+      <c r="P316" s="33"/>
       <c r="S316" s="21">
         <v>2160.0021600021601</v>
       </c>
@@ -27345,8 +27345,8 @@
       <c r="N317" s="21">
         <v>260</v>
       </c>
-      <c r="O317" s="36"/>
-      <c r="P317" s="36"/>
+      <c r="O317" s="33"/>
+      <c r="P317" s="33"/>
       <c r="S317" s="21">
         <v>1530.0015300015302</v>
       </c>
@@ -27388,8 +27388,8 @@
       <c r="N318" s="21">
         <v>160</v>
       </c>
-      <c r="O318" s="36"/>
-      <c r="P318" s="36"/>
+      <c r="O318" s="33"/>
+      <c r="P318" s="33"/>
       <c r="S318" s="21">
         <v>900.00090000090006</v>
       </c>
@@ -27431,8 +27431,8 @@
       <c r="N319" s="21">
         <v>100</v>
       </c>
-      <c r="O319" s="36"/>
-      <c r="P319" s="36"/>
+      <c r="O319" s="33"/>
+      <c r="P319" s="33"/>
       <c r="S319" s="21">
         <v>540.00054000054001</v>
       </c>
@@ -27474,8 +27474,8 @@
       <c r="N320" s="21">
         <v>2080</v>
       </c>
-      <c r="O320" s="36"/>
-      <c r="P320" s="36"/>
+      <c r="O320" s="33"/>
+      <c r="P320" s="33"/>
       <c r="S320" s="21">
         <v>15120.015120015123</v>
       </c>
@@ -27523,8 +27523,8 @@
       <c r="N321" s="21">
         <v>1260</v>
       </c>
-      <c r="O321" s="36"/>
-      <c r="P321" s="36"/>
+      <c r="O321" s="33"/>
+      <c r="P321" s="33"/>
       <c r="S321" s="21">
         <v>9270.00927000927</v>
       </c>
@@ -27572,8 +27572,8 @@
       <c r="N322" s="21">
         <v>990</v>
       </c>
-      <c r="O322" s="36"/>
-      <c r="P322" s="36"/>
+      <c r="O322" s="33"/>
+      <c r="P322" s="33"/>
       <c r="S322" s="21">
         <v>6570.0065700065697</v>
       </c>
@@ -27621,8 +27621,8 @@
       <c r="N323" s="21">
         <v>690</v>
       </c>
-      <c r="O323" s="36"/>
-      <c r="P323" s="36"/>
+      <c r="O323" s="33"/>
+      <c r="P323" s="33"/>
       <c r="S323" s="21">
         <v>4860.0048600048603</v>
       </c>
@@ -27644,8 +27644,8 @@
         <v>0</v>
       </c>
       <c r="D324" s="28"/>
-      <c r="O324" s="36"/>
-      <c r="P324" s="36"/>
+      <c r="O324" s="33"/>
+      <c r="P324" s="33"/>
       <c r="AF324" s="21">
         <v>0</v>
       </c>
@@ -28282,9 +28282,9 @@
         <v>3.8960448710472115</v>
       </c>
       <c r="D365" s="28"/>
-      <c r="F365" s="37"/>
-      <c r="O365" s="34"/>
-      <c r="P365" s="34"/>
+      <c r="F365" s="34"/>
+      <c r="O365" s="31"/>
+      <c r="P365" s="31"/>
       <c r="AB365" s="21">
         <v>10.89</v>
       </c>
@@ -28303,8 +28303,8 @@
         <v>5.2020275860784976E-2</v>
       </c>
       <c r="D366" s="28"/>
-      <c r="O366" s="34"/>
-      <c r="P366" s="34"/>
+      <c r="O366" s="31"/>
+      <c r="P366" s="31"/>
       <c r="AB366" s="21">
         <v>0.31</v>
       </c>
@@ -28320,8 +28320,8 @@
         <v>0.34223865697884853</v>
       </c>
       <c r="D367" s="28"/>
-      <c r="O367" s="34"/>
-      <c r="P367" s="34"/>
+      <c r="O367" s="31"/>
+      <c r="P367" s="31"/>
       <c r="AB367" s="21">
         <v>0.72</v>
       </c>
@@ -28337,8 +28337,8 @@
         <v>0.72554595279515888</v>
       </c>
       <c r="D368" s="28"/>
-      <c r="O368" s="34"/>
-      <c r="P368" s="34"/>
+      <c r="O368" s="31"/>
+      <c r="P368" s="31"/>
       <c r="AB368" s="21">
         <v>0.91</v>
       </c>
@@ -28354,8 +28354,8 @@
         <v>0.81863486749340564</v>
       </c>
       <c r="D369" s="28"/>
-      <c r="O369" s="34"/>
-      <c r="P369" s="34"/>
+      <c r="O369" s="31"/>
+      <c r="P369" s="31"/>
       <c r="AB369" s="21">
         <v>0.94</v>
       </c>
@@ -28371,8 +28371,8 @@
         <v>0.91993750995914481</v>
       </c>
       <c r="D370" s="28"/>
-      <c r="O370" s="34"/>
-      <c r="P370" s="34"/>
+      <c r="O370" s="31"/>
+      <c r="P370" s="31"/>
       <c r="AB370" s="21">
         <v>0.98</v>
       </c>
@@ -28386,8 +28386,8 @@
         <v>1.00755060614573</v>
       </c>
       <c r="D371" s="28"/>
-      <c r="O371" s="34"/>
-      <c r="P371" s="34"/>
+      <c r="O371" s="31"/>
+      <c r="P371" s="31"/>
     </row>
     <row r="372" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A372" s="19" t="s">
@@ -28400,8 +28400,8 @@
         <v>1.0896878838206536</v>
       </c>
       <c r="D372" s="28"/>
-      <c r="O372" s="34"/>
-      <c r="P372" s="34"/>
+      <c r="O372" s="31"/>
+      <c r="P372" s="31"/>
       <c r="AB372" s="21">
         <v>1.24</v>
       </c>
@@ -28417,8 +28417,8 @@
         <v>1.149921887448931</v>
       </c>
       <c r="D373" s="28"/>
-      <c r="O373" s="34"/>
-      <c r="P373" s="34"/>
+      <c r="O373" s="31"/>
+      <c r="P373" s="31"/>
       <c r="AB373" s="21">
         <v>1.47</v>
       </c>
@@ -28434,8 +28434,8 @@
         <v>1.243010802147178</v>
       </c>
       <c r="D374" s="28"/>
-      <c r="O374" s="34"/>
-      <c r="P374" s="34"/>
+      <c r="O374" s="31"/>
+      <c r="P374" s="31"/>
       <c r="AB374" s="21">
         <v>1.77</v>
       </c>
@@ -28451,8 +28451,8 @@
         <v>1.3196722613104399</v>
       </c>
       <c r="D375" s="28"/>
-      <c r="O375" s="34"/>
-      <c r="P375" s="34"/>
+      <c r="O375" s="31"/>
+      <c r="P375" s="31"/>
       <c r="AB375" s="21">
         <v>2.0499999999999998</v>
       </c>
@@ -28468,8 +28468,8 @@
         <v>1.3990716297295327</v>
       </c>
       <c r="D376" s="28"/>
-      <c r="O376" s="34"/>
-      <c r="P376" s="34"/>
+      <c r="O376" s="31"/>
+      <c r="P376" s="31"/>
       <c r="AB376" s="21">
         <v>2.4</v>
       </c>
@@ -28483,8 +28483,8 @@
         <v>1.4948984536836103</v>
       </c>
       <c r="D377" s="28"/>
-      <c r="O377" s="34"/>
-      <c r="P377" s="34"/>
+      <c r="O377" s="31"/>
+      <c r="P377" s="31"/>
     </row>
     <row r="378" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A378" s="19" t="s">
@@ -28497,8 +28497,8 @@
         <v>1.5879873683818573</v>
       </c>
       <c r="D378" s="28"/>
-      <c r="O378" s="34"/>
-      <c r="P378" s="34"/>
+      <c r="O378" s="31"/>
+      <c r="P378" s="31"/>
       <c r="AB378" s="21">
         <v>2.84</v>
       </c>
@@ -28514,8 +28514,8 @@
         <v>1.7659514700108585</v>
       </c>
       <c r="D379" s="28"/>
-      <c r="O379" s="34"/>
-      <c r="P379" s="34"/>
+      <c r="O379" s="31"/>
+      <c r="P379" s="31"/>
       <c r="AB379" s="21">
         <v>2.93</v>
       </c>
@@ -28531,8 +28531,8 @@
         <v>1.9685567549423368</v>
       </c>
       <c r="D380" s="28"/>
-      <c r="O380" s="34"/>
-      <c r="P380" s="34"/>
+      <c r="O380" s="31"/>
+      <c r="P380" s="31"/>
       <c r="AB380" s="21">
         <v>2.92</v>
       </c>
@@ -28548,8 +28548,8 @@
         <v>2.094500580710553</v>
       </c>
       <c r="D381" s="28"/>
-      <c r="O381" s="34"/>
-      <c r="P381" s="34"/>
+      <c r="O381" s="31"/>
+      <c r="P381" s="31"/>
       <c r="AB381" s="21">
         <v>3.24</v>
       </c>
@@ -28568,8 +28568,8 @@
         <v>2.1930653139204614</v>
       </c>
       <c r="D382" s="28"/>
-      <c r="O382" s="34"/>
-      <c r="P382" s="34"/>
+      <c r="O382" s="31"/>
+      <c r="P382" s="31"/>
       <c r="AB382" s="21">
         <v>3.64</v>
       </c>
@@ -28588,8 +28588,8 @@
         <v>2.288892137874539</v>
       </c>
       <c r="D383" s="28"/>
-      <c r="O383" s="34"/>
-      <c r="P383" s="34"/>
+      <c r="O383" s="31"/>
+      <c r="P383" s="31"/>
       <c r="AB383" s="21">
         <v>4.32</v>
       </c>
@@ -28608,8 +28608,8 @@
         <v>2.3929326895961087</v>
       </c>
       <c r="D384" s="28"/>
-      <c r="O384" s="34"/>
-      <c r="P384" s="34"/>
+      <c r="O384" s="31"/>
+      <c r="P384" s="31"/>
       <c r="AB384" s="21">
         <v>4.8899999999999997</v>
       </c>
@@ -28628,8 +28628,8 @@
         <v>2.4805457857826942</v>
       </c>
       <c r="D385" s="28"/>
-      <c r="O385" s="34"/>
-      <c r="P385" s="34"/>
+      <c r="O385" s="31"/>
+      <c r="P385" s="31"/>
       <c r="AB385" s="21">
         <v>5.25</v>
       </c>
@@ -28648,8 +28648,8 @@
         <v>2.5517314264342947</v>
       </c>
       <c r="D386" s="28"/>
-      <c r="O386" s="34"/>
-      <c r="P386" s="34"/>
+      <c r="O386" s="31"/>
+      <c r="P386" s="31"/>
       <c r="AB386" s="21">
         <v>5.57</v>
       </c>
@@ -28666,8 +28666,8 @@
         <v>2.6475582503883723</v>
       </c>
       <c r="D387" s="28"/>
-      <c r="O387" s="34"/>
-      <c r="P387" s="34"/>
+      <c r="O387" s="31"/>
+      <c r="P387" s="31"/>
       <c r="AC387" s="21">
         <v>8.36</v>
       </c>
@@ -28683,8 +28683,8 @@
         <v>2.8748047186223276</v>
       </c>
       <c r="D388" s="28"/>
-      <c r="O388" s="34"/>
-      <c r="P388" s="34"/>
+      <c r="O388" s="31"/>
+      <c r="P388" s="31"/>
       <c r="AB388" s="21">
         <v>5.95</v>
       </c>
@@ -28703,8 +28703,8 @@
         <v>3.1239544609029295</v>
       </c>
       <c r="D389" s="28"/>
-      <c r="O389" s="34"/>
-      <c r="P389" s="34"/>
+      <c r="O389" s="31"/>
+      <c r="P389" s="31"/>
       <c r="AB389" s="21">
         <v>6.11</v>
       </c>
@@ -28723,8 +28723,8 @@
         <v>3.2991806532760997</v>
       </c>
       <c r="D390" s="28"/>
-      <c r="O390" s="34"/>
-      <c r="P390" s="34"/>
+      <c r="O390" s="31"/>
+      <c r="P390" s="31"/>
       <c r="AB390" s="21">
         <v>6.52</v>
       </c>
@@ -28743,8 +28743,8 @@
         <v>3.4689310271376086</v>
       </c>
       <c r="D391" s="28"/>
-      <c r="O391" s="34"/>
-      <c r="P391" s="34"/>
+      <c r="O391" s="31"/>
+      <c r="P391" s="31"/>
       <c r="AB391" s="21">
         <v>7.36</v>
       </c>
@@ -28763,8 +28763,8 @@
         <v>3.6222539454641329</v>
       </c>
       <c r="D392" s="28"/>
-      <c r="O392" s="34"/>
-      <c r="P392" s="34"/>
+      <c r="O392" s="31"/>
+      <c r="P392" s="31"/>
       <c r="AB392" s="21">
         <v>8.35</v>
       </c>
@@ -28783,8 +28783,8 @@
         <v>3.8960448710472115</v>
       </c>
       <c r="D393" s="28"/>
-      <c r="O393" s="34"/>
-      <c r="P393" s="34"/>
+      <c r="O393" s="31"/>
+      <c r="P393" s="31"/>
       <c r="AB393" s="21">
         <v>8.67</v>
       </c>
@@ -28808,8 +28808,8 @@
       <c r="E394" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O394" s="34"/>
-      <c r="P394" s="34"/>
+      <c r="O394" s="31"/>
+      <c r="P394" s="31"/>
       <c r="AB394" s="21">
         <v>4.81395348837209</v>
       </c>
@@ -28833,8 +28833,8 @@
       <c r="E395" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O395" s="34"/>
-      <c r="P395" s="34"/>
+      <c r="O395" s="31"/>
+      <c r="P395" s="31"/>
       <c r="AB395" s="21">
         <v>4.81395348837209</v>
       </c>
@@ -28858,8 +28858,8 @@
       <c r="E396" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O396" s="34"/>
-      <c r="P396" s="34"/>
+      <c r="O396" s="31"/>
+      <c r="P396" s="31"/>
       <c r="AB396" s="21">
         <v>6.9069767441860499</v>
       </c>
@@ -28883,8 +28883,8 @@
       <c r="E397" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O397" s="34"/>
-      <c r="P397" s="34"/>
+      <c r="O397" s="31"/>
+      <c r="P397" s="31"/>
       <c r="AB397" s="21">
         <v>9.3488372093023209</v>
       </c>
@@ -28908,8 +28908,8 @@
       <c r="E398" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O398" s="34"/>
-      <c r="P398" s="34"/>
+      <c r="O398" s="31"/>
+      <c r="P398" s="31"/>
       <c r="AB398" s="21">
         <v>10.5348837209302</v>
       </c>
@@ -28933,8 +28933,8 @@
       <c r="E399" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O399" s="34"/>
-      <c r="P399" s="34"/>
+      <c r="O399" s="31"/>
+      <c r="P399" s="31"/>
       <c r="AB399" s="21">
         <v>11.0930232558139</v>
       </c>
@@ -28958,8 +28958,8 @@
       <c r="E400" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O400" s="34"/>
-      <c r="P400" s="34"/>
+      <c r="O400" s="31"/>
+      <c r="P400" s="31"/>
       <c r="AB400" s="21">
         <v>11.7209302325581</v>
       </c>
@@ -28983,9 +28983,9 @@
       <c r="E401" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="F401" s="37"/>
-      <c r="O401" s="34"/>
-      <c r="P401" s="34"/>
+      <c r="F401" s="34"/>
+      <c r="O401" s="31"/>
+      <c r="P401" s="31"/>
       <c r="Q401" s="21">
         <v>247.74774774774701</v>
       </c>
@@ -29012,8 +29012,8 @@
       <c r="E402" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O402" s="34"/>
-      <c r="P402" s="34"/>
+      <c r="O402" s="31"/>
+      <c r="P402" s="31"/>
       <c r="AC402" s="21">
         <v>8.6666411746711507</v>
       </c>
@@ -29034,8 +29034,8 @@
       <c r="E403" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O403" s="34"/>
-      <c r="P403" s="34"/>
+      <c r="O403" s="31"/>
+      <c r="P403" s="31"/>
       <c r="AB403" s="21">
         <v>12.1395348837209</v>
       </c>
@@ -29059,8 +29059,8 @@
       <c r="E404" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O404" s="34"/>
-      <c r="P404" s="34"/>
+      <c r="O404" s="31"/>
+      <c r="P404" s="31"/>
       <c r="AB404" s="21">
         <v>13.5348837209302</v>
       </c>
@@ -29084,8 +29084,8 @@
       <c r="E405" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O405" s="34"/>
-      <c r="P405" s="34"/>
+      <c r="O405" s="31"/>
+      <c r="P405" s="31"/>
       <c r="AB405" s="21">
         <v>15.279069767441801</v>
       </c>
@@ -29109,8 +29109,8 @@
       <c r="E406" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O406" s="34"/>
-      <c r="P406" s="34"/>
+      <c r="O406" s="31"/>
+      <c r="P406" s="31"/>
       <c r="AB406" s="21">
         <v>16.1860465116279</v>
       </c>
@@ -29134,8 +29134,8 @@
       <c r="E407" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O407" s="34"/>
-      <c r="P407" s="34"/>
+      <c r="O407" s="31"/>
+      <c r="P407" s="31"/>
       <c r="AB407" s="21">
         <v>17.023255813953401</v>
       </c>
@@ -29159,8 +29159,8 @@
       <c r="E408" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O408" s="34"/>
-      <c r="P408" s="34"/>
+      <c r="O408" s="31"/>
+      <c r="P408" s="31"/>
       <c r="AB408" s="21">
         <v>18</v>
       </c>
@@ -29184,8 +29184,8 @@
       <c r="E409" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O409" s="34"/>
-      <c r="P409" s="34"/>
+      <c r="O409" s="31"/>
+      <c r="P409" s="31"/>
       <c r="AB409" s="21">
         <v>18.0697674418604</v>
       </c>
@@ -29209,8 +29209,8 @@
       <c r="E410" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O410" s="34"/>
-      <c r="P410" s="34"/>
+      <c r="O410" s="31"/>
+      <c r="P410" s="31"/>
       <c r="Q410" s="21">
         <v>803.30330330330264</v>
       </c>
@@ -29237,8 +29237,8 @@
       <c r="E411" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O411" s="34"/>
-      <c r="P411" s="34"/>
+      <c r="O411" s="31"/>
+      <c r="P411" s="31"/>
       <c r="AB411" s="21">
         <v>18.906976744186</v>
       </c>
@@ -29262,8 +29262,8 @@
       <c r="E412" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O412" s="34"/>
-      <c r="P412" s="34"/>
+      <c r="O412" s="31"/>
+      <c r="P412" s="31"/>
       <c r="AB412" s="21">
         <v>21.209302325581302</v>
       </c>
@@ -29287,8 +29287,8 @@
       <c r="E413" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O413" s="34"/>
-      <c r="P413" s="34"/>
+      <c r="O413" s="31"/>
+      <c r="P413" s="31"/>
       <c r="AB413" s="21">
         <v>21.697674418604599</v>
       </c>
@@ -29312,8 +29312,8 @@
       <c r="E414" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O414" s="34"/>
-      <c r="P414" s="34"/>
+      <c r="O414" s="31"/>
+      <c r="P414" s="31"/>
       <c r="AB414" s="21">
         <v>21.767441860465102</v>
       </c>
@@ -29337,8 +29337,8 @@
       <c r="E415" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O415" s="34"/>
-      <c r="P415" s="34"/>
+      <c r="O415" s="31"/>
+      <c r="P415" s="31"/>
       <c r="AB415" s="21">
         <v>21.906976744186</v>
       </c>
@@ -29362,8 +29362,8 @@
       <c r="E416" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O416" s="34"/>
-      <c r="P416" s="34"/>
+      <c r="O416" s="31"/>
+      <c r="P416" s="31"/>
       <c r="AB416" s="21">
         <v>21.906976744186</v>
       </c>
@@ -29387,8 +29387,8 @@
       <c r="E417" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O417" s="34"/>
-      <c r="P417" s="34"/>
+      <c r="O417" s="31"/>
+      <c r="P417" s="31"/>
       <c r="AB417" s="21">
         <v>22.2558139534883</v>
       </c>
@@ -29412,8 +29412,8 @@
       <c r="E418" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O418" s="34"/>
-      <c r="P418" s="34"/>
+      <c r="O418" s="31"/>
+      <c r="P418" s="31"/>
       <c r="AB418" s="21">
         <v>22.5348837209302</v>
       </c>
@@ -29437,8 +29437,8 @@
       <c r="E419" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O419" s="34"/>
-      <c r="P419" s="34"/>
+      <c r="O419" s="31"/>
+      <c r="P419" s="31"/>
       <c r="AB419" s="21">
         <v>22.5348837209302</v>
       </c>
@@ -29462,8 +29462,8 @@
       <c r="E420" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O420" s="34"/>
-      <c r="P420" s="34"/>
+      <c r="O420" s="31"/>
+      <c r="P420" s="31"/>
       <c r="AB420" s="21">
         <v>22.813953488372</v>
       </c>
@@ -29487,8 +29487,8 @@
       <c r="E421" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O421" s="34"/>
-      <c r="P421" s="34"/>
+      <c r="O421" s="31"/>
+      <c r="P421" s="31"/>
       <c r="AB421" s="21">
         <v>23.023255813953401</v>
       </c>
@@ -29512,8 +29512,8 @@
       <c r="E422" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O422" s="34"/>
-      <c r="P422" s="34"/>
+      <c r="O422" s="31"/>
+      <c r="P422" s="31"/>
       <c r="AB422" s="21">
         <v>23.0930232558139</v>
       </c>
@@ -29537,8 +29537,8 @@
       <c r="E423" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O423" s="34"/>
-      <c r="P423" s="34"/>
+      <c r="O423" s="31"/>
+      <c r="P423" s="31"/>
       <c r="Q423" s="21">
         <v>1227.4774774774701</v>
       </c>
@@ -29565,8 +29565,8 @@
       <c r="E424" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O424" s="34"/>
-      <c r="P424" s="34"/>
+      <c r="O424" s="31"/>
+      <c r="P424" s="31"/>
       <c r="AC424" s="21">
         <v>14.0769348424594</v>
       </c>
@@ -29587,8 +29587,8 @@
       <c r="E425" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O425" s="34"/>
-      <c r="P425" s="34"/>
+      <c r="O425" s="31"/>
+      <c r="P425" s="31"/>
       <c r="AC425" s="21">
         <v>14.278927041908799</v>
       </c>
@@ -29609,8 +29609,8 @@
       <c r="E426" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O426" s="34"/>
-      <c r="P426" s="34"/>
+      <c r="O426" s="31"/>
+      <c r="P426" s="31"/>
       <c r="AB426" s="21">
         <v>23.790697674418599</v>
       </c>
@@ -29634,8 +29634,8 @@
       <c r="E427" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O427" s="34"/>
-      <c r="P427" s="34"/>
+      <c r="O427" s="31"/>
+      <c r="P427" s="31"/>
       <c r="AB427" s="21">
         <v>23.581395348837201</v>
       </c>
@@ -29659,8 +29659,8 @@
       <c r="E428" s="21">
         <v>1111.1099999999999</v>
       </c>
-      <c r="O428" s="34"/>
-      <c r="P428" s="34"/>
+      <c r="O428" s="31"/>
+      <c r="P428" s="31"/>
       <c r="AB428" s="21">
         <v>24.209302325581302</v>
       </c>
@@ -52190,9 +52190,6 @@
       <c r="AI1227" s="21">
         <v>1.44</v>
       </c>
-      <c r="AJ1227" s="21">
-        <v>87676.027777777796</v>
-      </c>
     </row>
     <row r="1228" spans="1:67" s="21" customFormat="1">
       <c r="A1228" s="19" t="s">
@@ -52249,9 +52246,6 @@
       <c r="AI1228" s="21">
         <v>13.25</v>
       </c>
-      <c r="AJ1228" s="21">
-        <v>46286.473029045643</v>
-      </c>
     </row>
     <row r="1229" spans="1:67" s="21" customFormat="1">
       <c r="A1229" s="19" t="s">
@@ -52308,9 +52302,6 @@
       <c r="AI1229" s="21">
         <v>22.83</v>
       </c>
-      <c r="AJ1229" s="21">
-        <v>47189.004964953267</v>
-      </c>
     </row>
     <row r="1230" spans="1:67" s="21" customFormat="1">
       <c r="A1230" s="19" t="s">
@@ -52367,9 +52358,6 @@
       <c r="AI1230" s="21">
         <v>24.42</v>
       </c>
-      <c r="AJ1230" s="21">
-        <v>61916.403296815792</v>
-      </c>
     </row>
     <row r="1231" spans="1:67" s="21" customFormat="1">
       <c r="A1231" s="19" t="s">
@@ -52426,9 +52414,6 @@
       <c r="AI1231" s="21">
         <v>30.74</v>
       </c>
-      <c r="AJ1231" s="21">
-        <v>55662.544247787613</v>
-      </c>
     </row>
     <row r="1232" spans="1:67" s="21" customFormat="1">
       <c r="A1232" s="19" t="s">
@@ -52485,11 +52470,8 @@
       <c r="AI1232" s="21">
         <v>31.42</v>
       </c>
-      <c r="AJ1232" s="21">
-        <v>52931.843640606756</v>
-      </c>
-    </row>
-    <row r="1233" spans="1:36" s="21" customFormat="1">
+    </row>
+    <row r="1233" spans="1:35" s="21" customFormat="1">
       <c r="A1233" s="19" t="s">
         <v>178</v>
       </c>
@@ -52503,7 +52485,7 @@
         <v>226.69</v>
       </c>
     </row>
-    <row r="1234" spans="1:36" s="21" customFormat="1">
+    <row r="1234" spans="1:35" s="21" customFormat="1">
       <c r="A1234" s="19" t="s">
         <v>178</v>
       </c>
@@ -52517,7 +52499,7 @@
         <v>263.12</v>
       </c>
     </row>
-    <row r="1235" spans="1:36" s="21" customFormat="1">
+    <row r="1235" spans="1:35" s="21" customFormat="1">
       <c r="A1235" s="19" t="s">
         <v>178</v>
       </c>
@@ -52531,7 +52513,7 @@
         <v>301.10000000000002</v>
       </c>
     </row>
-    <row r="1236" spans="1:36" s="21" customFormat="1">
+    <row r="1236" spans="1:35" s="21" customFormat="1">
       <c r="A1236" s="19" t="s">
         <v>178</v>
       </c>
@@ -52545,7 +52527,7 @@
         <v>315.02</v>
       </c>
     </row>
-    <row r="1237" spans="1:36" s="21" customFormat="1">
+    <row r="1237" spans="1:35" s="21" customFormat="1">
       <c r="A1237" s="19" t="s">
         <v>179</v>
       </c>
@@ -52600,11 +52582,8 @@
       <c r="AI1237" s="21">
         <v>2.19</v>
       </c>
-      <c r="AJ1237" s="21">
-        <v>95179.908675799103</v>
-      </c>
-    </row>
-    <row r="1238" spans="1:36" s="21" customFormat="1">
+    </row>
+    <row r="1238" spans="1:35" s="21" customFormat="1">
       <c r="A1238" s="19" t="s">
         <v>179</v>
       </c>
@@ -52659,11 +52638,8 @@
       <c r="AI1238" s="21">
         <v>20.92</v>
       </c>
-      <c r="AJ1238" s="21">
-        <v>47723.455675029865</v>
-      </c>
-    </row>
-    <row r="1239" spans="1:36" s="21" customFormat="1">
+    </row>
+    <row r="1239" spans="1:35" s="21" customFormat="1">
       <c r="A1239" s="19" t="s">
         <v>179</v>
       </c>
@@ -52718,11 +52694,8 @@
       <c r="AI1239" s="21">
         <v>33.909999999999997</v>
       </c>
-      <c r="AJ1239" s="21">
-        <v>44098.253612503679</v>
-      </c>
-    </row>
-    <row r="1240" spans="1:36" s="21" customFormat="1">
+    </row>
+    <row r="1240" spans="1:35" s="21" customFormat="1">
       <c r="A1240" s="19" t="s">
         <v>179</v>
       </c>
@@ -52777,11 +52750,8 @@
       <c r="AI1240" s="21">
         <v>36.270000000000003</v>
       </c>
-      <c r="AJ1240" s="21">
-        <v>58169.059829059828</v>
-      </c>
-    </row>
-    <row r="1241" spans="1:36" s="21" customFormat="1">
+    </row>
+    <row r="1241" spans="1:35" s="21" customFormat="1">
       <c r="A1241" s="19" t="s">
         <v>179</v>
       </c>
@@ -52836,11 +52806,8 @@
       <c r="AI1241" s="21">
         <v>39.31</v>
       </c>
-      <c r="AJ1241" s="21">
-        <v>56864.448175851016</v>
-      </c>
-    </row>
-    <row r="1242" spans="1:36" s="21" customFormat="1">
+    </row>
+    <row r="1242" spans="1:35" s="21" customFormat="1">
       <c r="A1242" s="19" t="s">
         <v>179</v>
       </c>
@@ -52895,11 +52862,8 @@
       <c r="AI1242" s="21">
         <v>45.2</v>
       </c>
-      <c r="AJ1242" s="21">
-        <v>53875.654546795486</v>
-      </c>
-    </row>
-    <row r="1243" spans="1:36" s="21" customFormat="1">
+    </row>
+    <row r="1243" spans="1:35" s="21" customFormat="1">
       <c r="A1243" s="19" t="s">
         <v>179</v>
       </c>
@@ -52913,7 +52877,7 @@
         <v>251.86</v>
       </c>
     </row>
-    <row r="1244" spans="1:36" s="21" customFormat="1">
+    <row r="1244" spans="1:35" s="21" customFormat="1">
       <c r="A1244" s="19" t="s">
         <v>179</v>
       </c>
@@ -52927,7 +52891,7 @@
         <v>271.58</v>
       </c>
     </row>
-    <row r="1245" spans="1:36" s="21" customFormat="1">
+    <row r="1245" spans="1:35" s="21" customFormat="1">
       <c r="A1245" s="19" t="s">
         <v>179</v>
       </c>
@@ -52941,7 +52905,7 @@
         <v>308.68</v>
       </c>
     </row>
-    <row r="1246" spans="1:36" s="21" customFormat="1">
+    <row r="1246" spans="1:35" s="21" customFormat="1">
       <c r="A1246" s="19" t="s">
         <v>179</v>
       </c>
@@ -52955,7 +52919,7 @@
         <v>325.72000000000003</v>
       </c>
     </row>
-    <row r="1247" spans="1:36" s="21" customFormat="1">
+    <row r="1247" spans="1:35" s="21" customFormat="1">
       <c r="A1247" s="19" t="s">
         <v>180</v>
       </c>
@@ -53010,11 +52974,8 @@
       <c r="AI1247" s="21">
         <v>0.33</v>
       </c>
-      <c r="AJ1247" s="21">
-        <v>170888.12121212122</v>
-      </c>
-    </row>
-    <row r="1248" spans="1:36" s="21" customFormat="1">
+    </row>
+    <row r="1248" spans="1:35" s="21" customFormat="1">
       <c r="A1248" s="19" t="s">
         <v>180</v>
       </c>
@@ -53069,11 +53030,8 @@
       <c r="AI1248" s="21">
         <v>7.8</v>
       </c>
-      <c r="AJ1248" s="21">
-        <v>48020.615384615383</v>
-      </c>
-    </row>
-    <row r="1249" spans="1:36" s="21" customFormat="1">
+    </row>
+    <row r="1249" spans="1:35" s="21" customFormat="1">
       <c r="A1249" s="19" t="s">
         <v>180</v>
       </c>
@@ -53128,11 +53086,8 @@
       <c r="AI1249" s="21">
         <v>13.38</v>
       </c>
-      <c r="AJ1249" s="21">
-        <v>44173.261400448537</v>
-      </c>
-    </row>
-    <row r="1250" spans="1:36" s="21" customFormat="1">
+    </row>
+    <row r="1250" spans="1:35" s="21" customFormat="1">
       <c r="A1250" s="19" t="s">
         <v>180</v>
       </c>
@@ -53187,11 +53142,8 @@
       <c r="AI1250" s="21">
         <v>16.329999999999998</v>
       </c>
-      <c r="AJ1250" s="21">
-        <v>57159.614147909968</v>
-      </c>
-    </row>
-    <row r="1251" spans="1:36" s="21" customFormat="1">
+    </row>
+    <row r="1251" spans="1:35" s="21" customFormat="1">
       <c r="A1251" s="19" t="s">
         <v>180</v>
       </c>
@@ -53246,11 +53198,8 @@
       <c r="AI1251" s="21">
         <v>22.95</v>
       </c>
-      <c r="AJ1251" s="21">
-        <v>50439.036772394567</v>
-      </c>
-    </row>
-    <row r="1252" spans="1:36" s="21" customFormat="1">
+    </row>
+    <row r="1252" spans="1:35" s="21" customFormat="1">
       <c r="A1252" s="19" t="s">
         <v>180</v>
       </c>
@@ -53305,11 +53254,8 @@
       <c r="AI1252" s="21">
         <v>27.3</v>
       </c>
-      <c r="AJ1252" s="21">
-        <v>48707.942128075207</v>
-      </c>
-    </row>
-    <row r="1253" spans="1:36" s="21" customFormat="1">
+    </row>
+    <row r="1253" spans="1:35" s="21" customFormat="1">
       <c r="A1253" s="19" t="s">
         <v>180</v>
       </c>
@@ -53323,7 +53269,7 @@
         <v>187.92</v>
       </c>
     </row>
-    <row r="1254" spans="1:36" s="21" customFormat="1">
+    <row r="1254" spans="1:35" s="21" customFormat="1">
       <c r="A1254" s="19" t="s">
         <v>180</v>
       </c>
@@ -53337,7 +53283,7 @@
         <v>219.89</v>
       </c>
     </row>
-    <row r="1255" spans="1:36" s="21" customFormat="1">
+    <row r="1255" spans="1:35" s="21" customFormat="1">
       <c r="A1255" s="19" t="s">
         <v>180</v>
       </c>
@@ -53351,7 +53297,7 @@
         <v>234.71</v>
       </c>
     </row>
-    <row r="1256" spans="1:36" s="21" customFormat="1">
+    <row r="1256" spans="1:35" s="21" customFormat="1">
       <c r="A1256" s="19" t="s">
         <v>180</v>
       </c>
@@ -53365,7 +53311,7 @@
         <v>241.95</v>
       </c>
     </row>
-    <row r="1257" spans="1:36" s="21" customFormat="1">
+    <row r="1257" spans="1:35" s="21" customFormat="1">
       <c r="A1257" s="19" t="s">
         <v>181</v>
       </c>
@@ -53420,11 +53366,8 @@
       <c r="AI1257" s="21">
         <v>1.1100000000000001</v>
       </c>
-      <c r="AJ1257" s="21">
-        <v>108933.67567567567</v>
-      </c>
-    </row>
-    <row r="1258" spans="1:36" s="21" customFormat="1">
+    </row>
+    <row r="1258" spans="1:35" s="21" customFormat="1">
       <c r="A1258" s="19" t="s">
         <v>181</v>
       </c>
@@ -53479,11 +53422,8 @@
       <c r="AI1258" s="21">
         <v>12.36</v>
       </c>
-      <c r="AJ1258" s="21">
-        <v>47236.548726243433</v>
-      </c>
-    </row>
-    <row r="1259" spans="1:36" s="21" customFormat="1">
+    </row>
+    <row r="1259" spans="1:35" s="21" customFormat="1">
       <c r="A1259" s="19" t="s">
         <v>181</v>
       </c>
@@ -53538,11 +53478,8 @@
       <c r="AI1259" s="21">
         <v>19.27</v>
       </c>
-      <c r="AJ1259" s="21">
-        <v>38374.057083549575</v>
-      </c>
-    </row>
-    <row r="1260" spans="1:36" s="21" customFormat="1">
+    </row>
+    <row r="1260" spans="1:35" s="21" customFormat="1">
       <c r="A1260" s="19" t="s">
         <v>181</v>
       </c>
@@ -53597,11 +53534,8 @@
       <c r="AI1260" s="21">
         <v>24.47</v>
       </c>
-      <c r="AJ1260" s="21">
-        <v>58212.351895371416</v>
-      </c>
-    </row>
-    <row r="1261" spans="1:36" s="21" customFormat="1">
+    </row>
+    <row r="1261" spans="1:35" s="21" customFormat="1">
       <c r="A1261" s="19" t="s">
         <v>181</v>
       </c>
@@ -53656,11 +53590,8 @@
       <c r="AI1261" s="21">
         <v>31.82</v>
       </c>
-      <c r="AJ1261" s="21">
-        <v>47291.42282554046</v>
-      </c>
-    </row>
-    <row r="1262" spans="1:36" s="21" customFormat="1">
+    </row>
+    <row r="1262" spans="1:35" s="21" customFormat="1">
       <c r="A1262" s="19" t="s">
         <v>181</v>
       </c>
@@ -53715,11 +53646,8 @@
       <c r="AI1262" s="21">
         <v>38.270000000000003</v>
       </c>
-      <c r="AJ1262" s="21">
-        <v>46127.351916376305</v>
-      </c>
-    </row>
-    <row r="1263" spans="1:36" s="21" customFormat="1">
+    </row>
+    <row r="1263" spans="1:35" s="21" customFormat="1">
       <c r="A1263" s="19" t="s">
         <v>181</v>
       </c>
@@ -53733,7 +53661,7 @@
         <v>246.74</v>
       </c>
     </row>
-    <row r="1264" spans="1:36" s="21" customFormat="1">
+    <row r="1264" spans="1:35" s="21" customFormat="1">
       <c r="A1264" s="19" t="s">
         <v>181</v>
       </c>

--- a/Tests/Validation/Eucalyptus/Observed.xlsx
+++ b/Tests/Validation/Eucalyptus/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMxSourceTree\Tests\Validation\Eucalyptus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56135584-B23E-4FB1-BEAC-18268CFC19DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC44768-27DF-483D-8C8F-EB8EAFE6C0D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="653" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1115,7 +1115,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -1179,23 +1179,11 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1205,6 +1193,19 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -17589,18 +17590,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="1:12" ht="29.25" thickBot="1">
       <c r="B3" s="9" t="s">
@@ -17623,7 +17624,7 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="42" t="s">
         <v>83</v>
       </c>
       <c r="B4" s="11">
@@ -17646,7 +17647,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="35"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="12">
         <v>2</v>
       </c>
@@ -17670,7 +17671,7 @@
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="42" t="s">
         <v>84</v>
       </c>
       <c r="B6" s="13">
@@ -17687,7 +17688,7 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="35"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="13">
         <v>2</v>
       </c>
@@ -17702,7 +17703,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="35"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="13">
         <v>3</v>
       </c>
@@ -17717,7 +17718,7 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="44" t="s">
         <v>166</v>
       </c>
       <c r="B9" s="13">
@@ -17737,7 +17738,7 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="35"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="13">
         <v>2</v>
       </c>
@@ -17755,7 +17756,7 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="42" t="s">
         <v>85</v>
       </c>
       <c r="B11" s="13">
@@ -17772,7 +17773,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="35"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="13">
         <v>2</v>
       </c>
@@ -17787,7 +17788,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="35"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="13">
         <v>3</v>
       </c>
@@ -17802,7 +17803,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="42" t="s">
         <v>86</v>
       </c>
       <c r="B14" s="13">
@@ -17819,7 +17820,7 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="35"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="13">
         <v>2</v>
       </c>
@@ -17834,7 +17835,7 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="35"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="13">
         <v>3</v>
       </c>
@@ -17849,7 +17850,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="42" t="s">
         <v>87</v>
       </c>
       <c r="B17" s="13">
@@ -17866,7 +17867,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="35"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="13">
         <v>2</v>
       </c>
@@ -17881,7 +17882,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="35"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="13">
         <v>3</v>
       </c>
@@ -17896,7 +17897,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="42" t="s">
         <v>88</v>
       </c>
       <c r="B20" s="13">
@@ -17913,7 +17914,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15">
-      <c r="A21" s="35"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="13">
         <v>2</v>
       </c>
@@ -17928,7 +17929,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15">
-      <c r="A22" s="35"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="13">
         <v>3</v>
       </c>
@@ -17943,7 +17944,7 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="42" t="s">
         <v>89</v>
       </c>
       <c r="B23" s="13">
@@ -17969,7 +17970,7 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="35"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="13">
         <v>2</v>
       </c>
@@ -17993,7 +17994,7 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="35"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="13">
         <v>3</v>
       </c>
@@ -18017,7 +18018,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="42" t="s">
         <v>90</v>
       </c>
       <c r="B26" s="13">
@@ -18043,7 +18044,7 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="35"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="13">
         <v>2</v>
       </c>
@@ -18058,7 +18059,7 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="35"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="13">
         <v>3</v>
       </c>
@@ -18073,7 +18074,7 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="42" t="s">
         <v>91</v>
       </c>
       <c r="B29" s="13">
@@ -18090,7 +18091,7 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="35"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="13">
         <v>2</v>
       </c>
@@ -18105,7 +18106,7 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="35"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="13">
         <v>3</v>
       </c>
@@ -18120,7 +18121,7 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="42" t="s">
         <v>92</v>
       </c>
       <c r="B32" s="13">
@@ -18137,7 +18138,7 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="35"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="13">
         <v>2</v>
       </c>
@@ -18152,7 +18153,7 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="35"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="13">
         <v>3</v>
       </c>
@@ -18191,9 +18192,9 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:BV2654"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1470" topLeftCell="A1227" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="AB1247" sqref="AB1247:AI1248"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1335" topLeftCell="A1223" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="W1227" sqref="W1227:W1270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -18214,7 +18215,7 @@
     <col min="16" max="16" width="20" style="19" customWidth="1"/>
     <col min="17" max="17" width="10.42578125" style="19" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" style="19" customWidth="1"/>
     <col min="20" max="24" width="9.42578125" style="19" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="9.28515625" style="19"/>
     <col min="27" max="35" width="9.42578125" style="19" bestFit="1" customWidth="1"/>
@@ -18225,217 +18226,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:74" ht="66" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="S1" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="T1" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="U1" s="38" t="s">
+      <c r="U1" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="V1" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="W1" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="X1" s="38" t="s">
+      <c r="X1" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="Y1" s="38" t="s">
+      <c r="Y1" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="Z1" s="38" t="s">
+      <c r="Z1" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="AA1" s="38" t="s">
+      <c r="AA1" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AB1" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="AC1" s="38" t="s">
+      <c r="AC1" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="AD1" s="38" t="s">
+      <c r="AD1" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="AE1" s="39" t="s">
+      <c r="AE1" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="AF1" s="39" t="s">
+      <c r="AF1" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="AG1" s="39" t="s">
+      <c r="AG1" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="AH1" s="38" t="s">
+      <c r="AH1" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="AI1" s="38" t="s">
+      <c r="AI1" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="AJ1" s="39" t="s">
+      <c r="AJ1" s="36" t="s">
         <v>293</v>
       </c>
-      <c r="AK1" s="38" t="s">
+      <c r="AK1" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="AL1" s="38" t="s">
+      <c r="AL1" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="AM1" s="38" t="s">
+      <c r="AM1" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="AN1" s="38" t="s">
+      <c r="AN1" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="AO1" s="38" t="s">
+      <c r="AO1" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="AP1" s="38" t="s">
+      <c r="AP1" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="AQ1" s="38" t="s">
+      <c r="AQ1" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="AR1" s="38" t="s">
+      <c r="AR1" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="AS1" s="38" t="s">
+      <c r="AS1" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="AT1" s="38" t="s">
+      <c r="AT1" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="AU1" s="38" t="s">
+      <c r="AU1" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="AV1" s="38" t="s">
+      <c r="AV1" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="AW1" s="38" t="s">
+      <c r="AW1" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="AX1" s="38" t="s">
+      <c r="AX1" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="AY1" s="38" t="s">
+      <c r="AY1" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="AZ1" s="38" t="s">
+      <c r="AZ1" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="BA1" s="38" t="s">
+      <c r="BA1" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="BB1" s="38" t="s">
+      <c r="BB1" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="BC1" s="38" t="s">
+      <c r="BC1" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="BD1" s="38" t="s">
+      <c r="BD1" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="BE1" s="38" t="s">
+      <c r="BE1" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="BF1" s="38" t="s">
+      <c r="BF1" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="BG1" s="38" t="s">
+      <c r="BG1" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="BH1" s="38" t="s">
+      <c r="BH1" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="BI1" s="38" t="s">
+      <c r="BI1" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="BJ1" s="38" t="s">
+      <c r="BJ1" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="BK1" s="38" t="s">
+      <c r="BK1" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="BL1" s="38" t="s">
+      <c r="BL1" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="BM1" s="38" t="s">
+      <c r="BM1" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="BN1" s="38" t="s">
+      <c r="BN1" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="BO1" s="38" t="s">
+      <c r="BO1" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="BP1" s="38" t="s">
+      <c r="BP1" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="BQ1" s="38" t="s">
+      <c r="BQ1" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="BR1" s="38" t="s">
+      <c r="BR1" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="BS1" s="38" t="s">
+      <c r="BS1" s="35" t="s">
         <v>244</v>
       </c>
       <c r="BV1" s="6"/>
@@ -52160,6 +52161,7 @@
       <c r="E1226" s="21">
         <v>2667</v>
       </c>
+      <c r="M1226" s="41"/>
     </row>
     <row r="1227" spans="1:67" s="21" customFormat="1">
       <c r="A1227" s="19" t="s">
@@ -52178,31 +52180,35 @@
         <v>1226</v>
       </c>
       <c r="F1227" s="21">
-        <v>516.07578723404254</v>
-      </c>
-      <c r="H1227" s="21">
-        <v>183.82978723404256</v>
+        <v>526.74291462049428</v>
+      </c>
+      <c r="H1227" s="40">
+        <v>194.11992518822561</v>
       </c>
       <c r="J1227" s="21">
-        <v>183.26689359999995</v>
-      </c>
-      <c r="K1227" s="21">
-        <v>22.725626399999999</v>
+        <v>168.15141424804074</v>
+      </c>
+      <c r="K1227" s="40">
+        <v>29.155745573701449</v>
       </c>
       <c r="L1227" s="21">
-        <v>126.25348000000001</v>
-      </c>
-      <c r="M1227" s="21">
-        <v>148.97910640000001</v>
-      </c>
-      <c r="N1227" s="21">
-        <v>332.24599999999998</v>
+        <v>135.31582961052646</v>
+      </c>
+      <c r="M1227" s="40">
+        <v>164.47157518422793</v>
       </c>
       <c r="S1227" s="21">
-        <v>1215.1640000000002</v>
-      </c>
-      <c r="W1227" s="21">
-        <v>2.16</v>
+        <f>M1227/E1227*10000</f>
+        <v>1341.5299770328543</v>
+      </c>
+      <c r="U1227" s="21">
+        <v>11.174980355011282</v>
+      </c>
+      <c r="V1227" s="21">
+        <v>11.174980355011282</v>
+      </c>
+      <c r="W1227" s="8">
+        <v>2.1692863504946809</v>
       </c>
       <c r="AC1227" s="21">
         <v>2.88</v>
@@ -52217,7 +52223,7 @@
         <v>1.44</v>
       </c>
       <c r="AJ1227" s="21">
-        <v>876.7602777777779</v>
+        <v>506.76968766014971</v>
       </c>
     </row>
     <row r="1228" spans="1:67" s="21" customFormat="1">
@@ -52237,31 +52243,35 @@
         <v>1240</v>
       </c>
       <c r="F1228" s="21">
-        <v>2976.8552074966537</v>
-      </c>
-      <c r="H1228" s="21">
-        <v>617.13520749665327</v>
+        <v>3055.1694260702725</v>
+      </c>
+      <c r="H1228" s="40">
+        <v>642.10685879364507</v>
       </c>
       <c r="J1228" s="21">
-        <v>911.79580800000008</v>
-      </c>
-      <c r="K1228" s="21">
-        <v>220.86979200000002</v>
+        <v>906.79342918188831</v>
+      </c>
+      <c r="K1228" s="40">
+        <v>208.57654799891651</v>
       </c>
       <c r="L1228" s="21">
-        <v>1227.0544000000002</v>
-      </c>
-      <c r="M1228" s="21">
-        <v>1447.9241920000002</v>
-      </c>
-      <c r="N1228" s="21">
-        <v>2359.7200000000003</v>
+        <v>1244.5151900958231</v>
+      </c>
+      <c r="M1228" s="40">
+        <v>1453.0917380947396</v>
       </c>
       <c r="S1228" s="21">
-        <v>11676.808000000001</v>
-      </c>
-      <c r="W1228" s="21">
-        <v>4.6100000000000003</v>
+        <f t="shared" ref="S1228:S1232" si="0">M1228/E1228*10000</f>
+        <v>11718.481758828546</v>
+      </c>
+      <c r="U1228" s="21">
+        <v>10.350983643131695</v>
+      </c>
+      <c r="V1228" s="21">
+        <v>7.2363140561761758</v>
+      </c>
+      <c r="W1228" s="8">
+        <v>4.6464868878555849</v>
       </c>
       <c r="AC1228" s="21">
         <v>8.77</v>
@@ -52276,7 +52286,7 @@
         <v>13.25</v>
       </c>
       <c r="AJ1228" s="21">
-        <v>462.86473029045646</v>
+        <v>468.09591773257591</v>
       </c>
     </row>
     <row r="1229" spans="1:67" s="21" customFormat="1">
@@ -52296,31 +52306,35 @@
         <v>1226</v>
       </c>
       <c r="F1229" s="21">
-        <v>6022.8981126760573</v>
-      </c>
-      <c r="H1229" s="21">
-        <v>725.35211267605632</v>
+        <v>6193.5787203218288</v>
+      </c>
+      <c r="H1229" s="40">
+        <v>896.40178697528427</v>
       </c>
       <c r="J1229" s="21">
-        <v>1484.3723892000003</v>
-      </c>
-      <c r="K1229" s="21">
-        <v>581.6705508</v>
+        <v>1272.7576102422513</v>
+      </c>
+      <c r="K1229" s="40">
+        <v>537.366931215063</v>
       </c>
       <c r="L1229" s="21">
-        <v>3231.50306</v>
-      </c>
-      <c r="M1229" s="21">
-        <v>3813.1736108</v>
-      </c>
-      <c r="N1229" s="21">
-        <v>5297.5460000000003</v>
+        <v>3247.4669187019517</v>
+      </c>
+      <c r="M1229" s="40">
+        <v>3784.833849917014</v>
       </c>
       <c r="S1229" s="21">
-        <v>31102.558000000001</v>
-      </c>
-      <c r="W1229" s="21">
-        <v>5.15</v>
+        <f t="shared" si="0"/>
+        <v>30871.401712210554</v>
+      </c>
+      <c r="U1229" s="21">
+        <v>9.7679554160611151</v>
+      </c>
+      <c r="V1229" s="21">
+        <v>5.8544698364223926</v>
+      </c>
+      <c r="W1229" s="8">
+        <v>5.2479572231619329</v>
       </c>
       <c r="AC1229" s="21">
         <v>11.73</v>
@@ -52335,7 +52349,7 @@
         <v>22.83</v>
       </c>
       <c r="AJ1229" s="21">
-        <v>471.89004964953267</v>
+        <v>480.15176035014605</v>
       </c>
     </row>
     <row r="1230" spans="1:67" s="21" customFormat="1">
@@ -52355,31 +52369,32 @@
         <v>1213</v>
       </c>
       <c r="F1230" s="21">
-        <v>10162.869936936939</v>
-      </c>
-      <c r="H1230" s="21">
-        <v>1136.9369369369369</v>
+        <v>10215.835891106815</v>
+      </c>
+      <c r="H1230" s="40">
+        <v>1190.2759945179689</v>
       </c>
       <c r="J1230" s="21">
-        <v>1890.0303702000022</v>
-      </c>
-      <c r="K1230" s="21">
-        <v>1088.5275197999997</v>
+        <v>1574.9564520767021</v>
+      </c>
+      <c r="K1230" s="40">
+        <v>818.79073407050532</v>
       </c>
       <c r="L1230" s="21">
-        <v>6047.375109999999</v>
-      </c>
-      <c r="M1230" s="21">
-        <v>7135.902629799999</v>
-      </c>
-      <c r="N1230" s="21">
-        <v>9025.9330000000009</v>
+        <v>6243.6676681830922</v>
+      </c>
+      <c r="M1230" s="40">
+        <v>7062.4584022535973</v>
       </c>
       <c r="S1230" s="21">
-        <v>58828.545999999988</v>
-      </c>
-      <c r="W1230" s="21">
-        <v>6.31</v>
+        <f t="shared" si="0"/>
+        <v>58223.07009277492</v>
+      </c>
+      <c r="V1230" s="21">
+        <v>5.3147631686815888</v>
+      </c>
+      <c r="W1230" s="8">
+        <v>6.3260350162299499</v>
       </c>
       <c r="AC1230" s="21">
         <v>13.14</v>
@@ -52394,7 +52409,7 @@
         <v>24.42</v>
       </c>
       <c r="AJ1230" s="21">
-        <v>619.16403296815793</v>
+        <v>601.02328181344865</v>
       </c>
     </row>
     <row r="1231" spans="1:67" s="21" customFormat="1">
@@ -52414,31 +52429,32 @@
         <v>1173</v>
       </c>
       <c r="F1231" s="21">
-        <v>13629.695663113009</v>
-      </c>
-      <c r="H1231" s="21">
-        <v>1409.3816631130062</v>
+        <v>13612.295869516145</v>
+      </c>
+      <c r="H1231" s="40">
+        <v>1391.8877262213432</v>
       </c>
       <c r="J1231" s="21">
-        <v>2126.3346360000014</v>
-      </c>
-      <c r="K1231" s="21">
-        <v>1539.7595640000002</v>
+        <v>2017.6524161154005</v>
+      </c>
+      <c r="K1231" s="40">
+        <v>1158.6071339645075</v>
       </c>
       <c r="L1231" s="21">
-        <v>8554.2198000000008</v>
-      </c>
-      <c r="M1231" s="21">
-        <v>10093.979364000001</v>
-      </c>
-      <c r="N1231" s="21">
-        <v>12220.314000000002</v>
+        <v>8559.5368940078879</v>
+      </c>
+      <c r="M1231" s="40">
+        <v>9718.1440279723956</v>
       </c>
       <c r="S1231" s="21">
-        <v>86052.680000000008</v>
-      </c>
-      <c r="W1231" s="21">
-        <v>6.61</v>
+        <f t="shared" si="0"/>
+        <v>82848.627689449248</v>
+      </c>
+      <c r="V1231" s="21">
+        <v>4.6922922823081423</v>
+      </c>
+      <c r="W1231" s="8">
+        <v>6.531144035587837</v>
       </c>
       <c r="AC1231" s="21">
         <v>15.28</v>
@@ -52453,7 +52469,7 @@
         <v>30.74</v>
       </c>
       <c r="AJ1231" s="21">
-        <v>556.62544247787616</v>
+        <v>544.68857998263331</v>
       </c>
     </row>
     <row r="1232" spans="1:67" s="21" customFormat="1">
@@ -52473,31 +52489,35 @@
         <v>1106</v>
       </c>
       <c r="F1232" s="21">
-        <v>16742.63227149321</v>
-      </c>
-      <c r="H1232" s="21">
-        <v>1389.1402714932126</v>
+        <v>16570.806824590236</v>
+      </c>
+      <c r="H1232" s="40">
+        <v>1412.985870777132</v>
       </c>
       <c r="J1232" s="21">
-        <v>3577.3636360000005</v>
-      </c>
-      <c r="K1232" s="21">
-        <v>1796.3585639999997</v>
+        <v>2640.5622764597933</v>
+      </c>
+      <c r="K1232" s="40">
+        <v>1463.6039774953761</v>
       </c>
       <c r="L1232" s="21">
-        <v>9979.7697999999982</v>
-      </c>
-      <c r="M1232" s="21">
-        <v>11776.128363999998</v>
-      </c>
-      <c r="N1232" s="21">
-        <v>15353.491999999998</v>
+        <v>10268.477576721982</v>
+      </c>
+      <c r="M1232" s="40">
+        <v>11732.081554217362</v>
       </c>
       <c r="S1232" s="21">
-        <v>106474.93999999999</v>
-      </c>
-      <c r="W1232" s="21">
-        <v>6.14</v>
+        <f t="shared" si="0"/>
+        <v>106076.68674699243</v>
+      </c>
+      <c r="U1232" s="21">
+        <v>8.423758865248228</v>
+      </c>
+      <c r="V1232" s="21">
+        <v>4.7562440610857735</v>
+      </c>
+      <c r="W1232" s="8">
+        <v>6.7205056562818442</v>
       </c>
       <c r="AC1232" s="21">
         <v>16.63</v>
@@ -52512,7 +52532,7 @@
         <v>31.42</v>
       </c>
       <c r="AJ1232" s="21">
-        <v>529.31843640606758</v>
+        <v>549.56689167003162</v>
       </c>
     </row>
     <row r="1233" spans="1:36" s="21" customFormat="1">
@@ -52601,8 +52621,36 @@
       <c r="E1237" s="21">
         <v>817</v>
       </c>
-      <c r="W1237" s="21">
-        <v>2.92</v>
+      <c r="F1237" s="21">
+        <v>22182.257779899825</v>
+      </c>
+      <c r="H1237" s="40">
+        <v>839.18148677508566</v>
+      </c>
+      <c r="J1237" s="21">
+        <v>1169.302767747472</v>
+      </c>
+      <c r="K1237" s="40">
+        <v>2016.2476638682278</v>
+      </c>
+      <c r="L1237" s="21">
+        <v>17831.287428565833</v>
+      </c>
+      <c r="M1237" s="21">
+        <v>19847.535092434064</v>
+      </c>
+      <c r="S1237" s="21">
+        <f t="shared" ref="S1237" si="1">M1237/E1237*10000</f>
+        <v>242931.88607630433</v>
+      </c>
+      <c r="U1237" s="21">
+        <v>12.371186796661407</v>
+      </c>
+      <c r="V1237" s="21">
+        <v>3.4274249299992179</v>
+      </c>
+      <c r="W1237" s="8">
+        <v>2.8762315485667376</v>
       </c>
       <c r="AB1237" s="21">
         <v>27.9</v>
@@ -52612,6 +52660,9 @@
       </c>
       <c r="AF1237" s="21">
         <v>340.7</v>
+      </c>
+      <c r="AJ1237" s="21">
+        <v>565.58112016588268</v>
       </c>
     </row>
     <row r="1238" spans="1:36" s="21" customFormat="1">
@@ -52631,31 +52682,35 @@
         <v>2480</v>
       </c>
       <c r="F1238" s="21">
-        <v>809.67659574468075</v>
-      </c>
-      <c r="H1238" s="21">
-        <v>301.27659574468083</v>
+        <v>796.13419881810933</v>
+      </c>
+      <c r="H1238" s="40">
+        <v>287.3442779910057</v>
       </c>
       <c r="J1238" s="21">
-        <v>262.43607999999995</v>
-      </c>
-      <c r="K1238" s="21">
-        <v>37.519919999999999</v>
+        <v>249.28769415483038</v>
+      </c>
+      <c r="K1238" s="40">
+        <v>45.595626766380605</v>
       </c>
       <c r="L1238" s="21">
-        <v>208.44400000000002</v>
+        <v>213.90659990589256</v>
       </c>
       <c r="M1238" s="21">
-        <v>245.96392000000003</v>
-      </c>
-      <c r="N1238" s="21">
-        <v>508.4</v>
+        <v>259.5022266722732</v>
       </c>
       <c r="S1238" s="21">
-        <v>991.79000000000019</v>
-      </c>
-      <c r="W1238" s="21">
-        <v>3.54</v>
+        <f>M1238/E1238*10000</f>
+        <v>1046.379946259166</v>
+      </c>
+      <c r="U1238" s="21">
+        <v>10.085331828211656</v>
+      </c>
+      <c r="V1238" s="21">
+        <v>12.371186796661407</v>
+      </c>
+      <c r="W1238" s="8">
+        <v>3.5547897379785338</v>
       </c>
       <c r="AC1238" s="21">
         <v>2.5099999999999998</v>
@@ -52670,7 +52725,7 @@
         <v>2.19</v>
       </c>
       <c r="AJ1238" s="21">
-        <v>951.79908675799095</v>
+        <v>503.47236786582283</v>
       </c>
     </row>
     <row r="1239" spans="1:36" s="21" customFormat="1">
@@ -52690,31 +52745,35 @@
         <v>2507</v>
       </c>
       <c r="F1239" s="21">
-        <v>4233.9813574297195</v>
-      </c>
-      <c r="H1239" s="21">
-        <v>959.83935742971903</v>
+        <v>4175.084865705674</v>
+      </c>
+      <c r="H1239" s="40">
+        <v>801.62070022569583</v>
       </c>
       <c r="J1239" s="21">
-        <v>917.41458840000018</v>
-      </c>
-      <c r="K1239" s="21">
-        <v>359.50079160000001</v>
+        <v>956.05867171807643</v>
+      </c>
+      <c r="K1239" s="40">
+        <v>277.9978218998188</v>
       </c>
       <c r="L1239" s="21">
-        <v>1997.2266200000001</v>
+        <v>2039.7074156120839</v>
       </c>
       <c r="M1239" s="21">
-        <v>2356.7274116000003</v>
-      </c>
-      <c r="N1239" s="21">
-        <v>3274.1420000000007</v>
+        <v>2317.7052375119029</v>
       </c>
       <c r="S1239" s="21">
-        <v>9400.5880000000016</v>
-      </c>
-      <c r="W1239" s="21">
-        <v>7.17</v>
+        <f t="shared" ref="S1239:S1243" si="2">M1239/E1239*10000</f>
+        <v>9244.9351316789107</v>
+      </c>
+      <c r="U1239" s="21">
+        <v>8.8386680173312957</v>
+      </c>
+      <c r="V1239" s="21">
+        <v>7.6393513760080758</v>
+      </c>
+      <c r="W1239" s="8">
+        <v>6.1238621993057265</v>
       </c>
       <c r="AC1239" s="21">
         <v>7.46</v>
@@ -52729,7 +52788,7 @@
         <v>20.92</v>
       </c>
       <c r="AJ1239" s="21">
-        <v>477.23455675029868</v>
+        <v>490.05818512190257</v>
       </c>
     </row>
     <row r="1240" spans="1:36" s="21" customFormat="1">
@@ -52749,31 +52808,35 @@
         <v>2427</v>
       </c>
       <c r="F1240" s="21">
-        <v>8030.6771549295772</v>
-      </c>
-      <c r="H1240" s="21">
-        <v>909.85915492957758</v>
+        <v>8248.1398902297824</v>
+      </c>
+      <c r="H1240" s="40">
+        <v>1126.9174076483559</v>
       </c>
       <c r="J1240" s="21">
-        <v>1827.2018988</v>
-      </c>
-      <c r="K1240" s="21">
-        <v>807.50076119999983</v>
+        <v>1363.7024757591603</v>
+      </c>
+      <c r="K1240" s="40">
+        <v>664.92423762268027</v>
       </c>
       <c r="L1240" s="21">
-        <v>4486.1153399999994</v>
+        <v>4627.1452074493882</v>
       </c>
       <c r="M1240" s="21">
-        <v>5293.6161011999993</v>
-      </c>
-      <c r="N1240" s="21">
-        <v>7120.8179999999993</v>
+        <v>5292.0694450720694</v>
       </c>
       <c r="S1240" s="21">
-        <v>21811.355999999996</v>
-      </c>
-      <c r="W1240" s="21">
-        <v>6.46</v>
+        <f t="shared" si="2"/>
+        <v>21804.98329242715</v>
+      </c>
+      <c r="U1240" s="21">
+        <v>11.28416149068323</v>
+      </c>
+      <c r="V1240" s="21">
+        <v>6.5677797586241118</v>
+      </c>
+      <c r="W1240" s="8">
+        <v>7.4013453395940294</v>
       </c>
       <c r="AC1240" s="21">
         <v>9.77</v>
@@ -52788,7 +52851,7 @@
         <v>33.909999999999997</v>
       </c>
       <c r="AJ1240" s="21">
-        <v>440.98253612503675</v>
+        <v>457.94364001666446</v>
       </c>
     </row>
     <row r="1241" spans="1:36" s="21" customFormat="1">
@@ -52808,31 +52871,32 @@
         <v>2294</v>
       </c>
       <c r="F1241" s="21">
-        <v>13891.621081081083</v>
-      </c>
-      <c r="H1241" s="21">
-        <v>1481.0810810810813</v>
+        <v>13966.317607254774</v>
+      </c>
+      <c r="H1241" s="40">
+        <v>1556.2866065725998</v>
       </c>
       <c r="J1241" s="21">
-        <v>2452.3227040000011</v>
-      </c>
-      <c r="K1241" s="21">
-        <v>1519.0500959999999</v>
+        <v>1881.5258638281314</v>
+      </c>
+      <c r="K1241" s="40">
+        <v>1084.0711848419191</v>
       </c>
       <c r="L1241" s="21">
-        <v>8439.1671999999999</v>
+        <v>8760.1251721232311</v>
       </c>
       <c r="M1241" s="21">
-        <v>9958.2172959999989</v>
-      </c>
-      <c r="N1241" s="21">
-        <v>12410.54</v>
+        <v>9844.1963569651525</v>
       </c>
       <c r="S1241" s="21">
-        <v>43409.84</v>
-      </c>
-      <c r="W1241" s="21">
-        <v>8.2200000000000006</v>
+        <f t="shared" si="2"/>
+        <v>42912.800161138417</v>
+      </c>
+      <c r="V1241" s="21">
+        <v>5.5716942835598102</v>
+      </c>
+      <c r="W1241" s="8">
+        <v>8.6711531894212488</v>
       </c>
       <c r="AC1241" s="21">
         <v>11.13</v>
@@ -52847,7 +52911,7 @@
         <v>36.270000000000003</v>
       </c>
       <c r="AJ1241" s="21">
-        <v>581.69059829059825</v>
+        <v>601.38797839733422</v>
       </c>
     </row>
     <row r="1242" spans="1:36" s="21" customFormat="1">
@@ -52867,31 +52931,32 @@
         <v>2187</v>
       </c>
       <c r="F1242" s="21">
-        <v>17773.202345415779</v>
-      </c>
-      <c r="H1242" s="21">
-        <v>1808.1023454157785</v>
+        <v>17810.731686822699</v>
+      </c>
+      <c r="H1242" s="40">
+        <v>1846.0348570492883</v>
       </c>
       <c r="J1242" s="21">
-        <v>2777.9274000000005</v>
-      </c>
-      <c r="K1242" s="21">
-        <v>2011.6025999999999</v>
+        <v>2043.09869320805</v>
+      </c>
+      <c r="K1242" s="40">
+        <v>1622.4114273276568</v>
       </c>
       <c r="L1242" s="21">
-        <v>11175.57</v>
+        <v>11523.098923866593</v>
       </c>
       <c r="M1242" s="21">
-        <v>13187.1726</v>
-      </c>
-      <c r="N1242" s="21">
-        <v>15965.1</v>
+        <v>13145.510351194249</v>
       </c>
       <c r="S1242" s="21">
-        <v>60298</v>
-      </c>
-      <c r="W1242" s="21">
-        <v>8.48</v>
+        <f t="shared" si="2"/>
+        <v>60107.500462708042</v>
+      </c>
+      <c r="V1242" s="21">
+        <v>4.6959689346596356</v>
+      </c>
+      <c r="W1242" s="8">
+        <v>8.6689223410022986</v>
       </c>
       <c r="AC1242" s="21">
         <v>12.39</v>
@@ -52906,7 +52971,7 @@
         <v>39.31</v>
       </c>
       <c r="AJ1242" s="21">
-        <v>568.64448175851021</v>
+        <v>587.11772617647887</v>
       </c>
     </row>
     <row r="1243" spans="1:36" s="21" customFormat="1">
@@ -52926,31 +52991,32 @@
         <v>2000</v>
       </c>
       <c r="F1243" s="21">
-        <v>20975.475113122171</v>
-      </c>
-      <c r="H1243" s="21">
-        <v>1495.4751131221719</v>
+        <v>21049.996090919136</v>
+      </c>
+      <c r="H1243" s="40">
+        <v>1570.8279227914891</v>
       </c>
       <c r="J1243" s="21">
-        <v>2240.2000000000003</v>
-      </c>
-      <c r="K1243" s="21">
-        <v>2629.7999999999997</v>
+        <v>2195.4999582958449</v>
+      </c>
+      <c r="K1243" s="40">
+        <v>1868.0132058274346</v>
       </c>
       <c r="L1243" s="21">
-        <v>14610</v>
+        <v>14449.828838671456</v>
       </c>
       <c r="M1243" s="21">
-        <v>17239.8</v>
-      </c>
-      <c r="N1243" s="21">
-        <v>19480</v>
+        <v>16317.842044498891</v>
       </c>
       <c r="S1243" s="21">
-        <v>86199</v>
-      </c>
-      <c r="W1243" s="21">
-        <v>6.61</v>
+        <f t="shared" si="2"/>
+        <v>81589.210222494468</v>
+      </c>
+      <c r="V1243" s="21">
+        <v>4.217858616124051</v>
+      </c>
+      <c r="W1243" s="8">
+        <v>6.6255300885943278</v>
       </c>
       <c r="AC1243" s="21">
         <v>14.16</v>
@@ -52965,7 +53031,7 @@
         <v>45.2</v>
       </c>
       <c r="AJ1243" s="21">
-        <v>538.75654546795488</v>
+        <v>549.63457854127944</v>
       </c>
     </row>
     <row r="1244" spans="1:36" s="21" customFormat="1">
@@ -53024,19 +53090,18 @@
         <f>E1247/E$1224*100</f>
         <v>58.942632170978627</v>
       </c>
-      <c r="E1247" s="41">
+      <c r="E1247" s="37">
         <v>1572</v>
       </c>
-      <c r="W1247" s="40"/>
-      <c r="AB1247" s="42">
+      <c r="AB1247" s="38">
         <v>25.5</v>
       </c>
       <c r="AC1247" s="26"/>
       <c r="AD1247" s="26"/>
-      <c r="AE1247" s="43">
+      <c r="AE1247" s="39">
         <v>36.799999999999997</v>
       </c>
-      <c r="AF1247" s="42">
+      <c r="AF1247" s="38">
         <v>325.8</v>
       </c>
       <c r="AG1247" s="26"/>
@@ -53057,26 +53122,54 @@
         <f>E1248/E$1224*100</f>
         <v>48.106486689163852</v>
       </c>
-      <c r="E1248" s="41">
+      <c r="E1248" s="37">
         <v>1283</v>
       </c>
-      <c r="W1248" s="40">
-        <v>3.51</v>
-      </c>
-      <c r="AB1248" s="42">
+      <c r="F1248" s="21">
+        <v>25137.979916808876</v>
+      </c>
+      <c r="H1248" s="40">
+        <v>956.0297312438837</v>
+      </c>
+      <c r="J1248" s="21">
+        <v>1361.6994427464761</v>
+      </c>
+      <c r="K1248" s="40">
+        <v>2275.334735998139</v>
+      </c>
+      <c r="L1248" s="21">
+        <v>20344.27375207522</v>
+      </c>
+      <c r="M1248" s="21">
+        <v>22619.608488073354</v>
+      </c>
+      <c r="S1248" s="21">
+        <f t="shared" ref="S1248" si="3">M1248/E1248*10000</f>
+        <v>176302.48237001832</v>
+      </c>
+      <c r="V1248" s="21">
+        <v>3.6196047610589592</v>
+      </c>
+      <c r="W1248" s="8">
+        <v>3.4604497669242789</v>
+      </c>
+      <c r="AB1248" s="38">
         <v>27.8</v>
       </c>
       <c r="AC1248" s="26"/>
       <c r="AD1248" s="26"/>
-      <c r="AE1248" s="43">
+      <c r="AE1248" s="39">
         <v>34.99</v>
       </c>
-      <c r="AF1248" s="42">
+      <c r="AF1248" s="38">
         <v>350.2</v>
       </c>
       <c r="AG1248" s="26"/>
       <c r="AH1248" s="26"/>
       <c r="AI1248" s="26"/>
+      <c r="AJ1248" s="21">
+        <v>569.30912944743079</v>
+      </c>
     </row>
     <row r="1249" spans="1:36" s="21" customFormat="1">
       <c r="A1249" s="19" t="s">
@@ -53095,31 +53188,32 @@
         <v>1306</v>
       </c>
       <c r="F1249" s="21">
-        <v>281.51417391304346</v>
-      </c>
-      <c r="H1249" s="21">
-        <v>115.65217391304347</v>
+        <v>283.2828906599517</v>
+      </c>
+      <c r="H1249" s="40">
+        <v>117.10697713287516</v>
       </c>
       <c r="J1249" s="21">
-        <v>99.318165600000029</v>
-      </c>
-      <c r="K1249" s="21">
-        <v>10.150754399999999</v>
+        <v>100.24116699117697</v>
+      </c>
+      <c r="K1249" s="40">
+        <v>12.705224040593992</v>
       </c>
       <c r="L1249" s="21">
-        <v>56.393079999999998</v>
+        <v>53.229522495305574</v>
       </c>
       <c r="M1249" s="21">
-        <v>66.543834399999994</v>
-      </c>
-      <c r="N1249" s="21">
-        <v>165.86200000000002</v>
+        <v>65.934746535899563</v>
       </c>
       <c r="S1249" s="21">
-        <v>509.52399999999994</v>
-      </c>
-      <c r="W1249" s="21">
-        <v>1.33</v>
+        <f>M1249/E1249*10000</f>
+        <v>504.86023381240091</v>
+      </c>
+      <c r="V1249" s="21">
+        <v>11.191192335109776</v>
+      </c>
+      <c r="W1249" s="8">
+        <v>1.3105667048773082</v>
       </c>
       <c r="AC1249" s="21">
         <v>1.39</v>
@@ -53134,7 +53228,7 @@
         <v>0.33</v>
       </c>
       <c r="AJ1249" s="21">
-        <v>1708.881212121212</v>
+        <v>468.40332534174013</v>
       </c>
     </row>
     <row r="1250" spans="1:36" s="21" customFormat="1">
@@ -53154,31 +53248,32 @@
         <v>1306</v>
       </c>
       <c r="F1250" s="21">
-        <v>1992.5948826291078</v>
-      </c>
-      <c r="H1250" s="21">
-        <v>431.92488262910791</v>
+        <v>2069.9524142480641</v>
+      </c>
+      <c r="H1250" s="40">
+        <v>453.90837153419977</v>
       </c>
       <c r="J1250" s="21">
-        <v>676.70651199999998</v>
-      </c>
-      <c r="K1250" s="21">
-        <v>134.84188799999998</v>
+        <v>677.80031127484642</v>
+      </c>
+      <c r="K1250" s="40">
+        <v>148.97962077304874</v>
       </c>
       <c r="L1250" s="21">
-        <v>749.12159999999994</v>
+        <v>734.16723566596909</v>
       </c>
       <c r="M1250" s="21">
-        <v>883.96348799999987</v>
-      </c>
-      <c r="N1250" s="21">
-        <v>1560.6699999999998</v>
+        <v>883.14685643901771</v>
       </c>
       <c r="S1250" s="21">
-        <v>6768.4799999999987</v>
-      </c>
-      <c r="W1250" s="21">
-        <v>4.5999999999999996</v>
+        <f t="shared" ref="S1250:S1254" si="4">M1250/E1250*10000</f>
+        <v>6762.2270783998292</v>
+      </c>
+      <c r="V1250" s="21">
+        <v>10.370069281842165</v>
+      </c>
+      <c r="W1250" s="8">
+        <v>4.7070612604178059</v>
       </c>
       <c r="AC1250" s="21">
         <v>7.08</v>
@@ -53193,7 +53288,7 @@
         <v>7.8</v>
       </c>
       <c r="AJ1250" s="21">
-        <v>480.20615384615382</v>
+        <v>463.14434489386787</v>
       </c>
     </row>
     <row r="1251" spans="1:36" s="21" customFormat="1">
@@ -53213,31 +53308,32 @@
         <v>1306</v>
       </c>
       <c r="F1251" s="21">
-        <v>3819.0378592964821</v>
-      </c>
-      <c r="H1251" s="21">
-        <v>474.3718592964824</v>
+        <v>3913.6813143525214</v>
+      </c>
+      <c r="H1251" s="40">
+        <v>568.40805915747296</v>
       </c>
       <c r="J1251" s="21">
-        <v>1252.9118836</v>
-      </c>
-      <c r="K1251" s="21">
-        <v>319.08113639999993</v>
+        <v>999.76483068674281</v>
+      </c>
+      <c r="K1251" s="40">
+        <v>336.6931747110051</v>
       </c>
       <c r="L1251" s="21">
-        <v>1772.6729799999998</v>
+        <v>1746.5014080829965</v>
       </c>
       <c r="M1251" s="21">
-        <v>2091.7541163999999</v>
-      </c>
-      <c r="N1251" s="21">
-        <v>3344.6660000000002</v>
+        <v>2083.1945827940012</v>
       </c>
       <c r="S1251" s="21">
-        <v>16016.493999999999</v>
-      </c>
-      <c r="W1251" s="21">
-        <v>4.72</v>
+        <f t="shared" si="4"/>
+        <v>15950.953926447175</v>
+      </c>
+      <c r="V1251" s="21">
+        <v>8.219575587424556</v>
+      </c>
+      <c r="W1251" s="8">
+        <v>4.6720730067461371</v>
       </c>
       <c r="AC1251" s="21">
         <v>10.02</v>
@@ -53252,7 +53348,7 @@
         <v>13.38</v>
       </c>
       <c r="AJ1251" s="21">
-        <v>441.73261400448541</v>
+        <v>423.81728793341608</v>
       </c>
     </row>
     <row r="1252" spans="1:36" s="21" customFormat="1">
@@ -53272,31 +53368,32 @@
         <v>1280</v>
       </c>
       <c r="F1252" s="21">
-        <v>7355.5055367231635</v>
-      </c>
-      <c r="H1252" s="21">
-        <v>689.2655367231639</v>
+        <v>7396.9275475586446</v>
+      </c>
+      <c r="H1252" s="40">
+        <v>730.09301234488021</v>
       </c>
       <c r="J1252" s="21">
-        <v>2261.1886079999995</v>
-      </c>
-      <c r="K1252" s="21">
-        <v>671.95699200000001</v>
+        <v>1394.2539813440042</v>
+      </c>
+      <c r="K1252" s="40">
+        <v>698.17703361891347</v>
       </c>
       <c r="L1252" s="21">
-        <v>3733.0944000000004</v>
+        <v>3834.1595498804768</v>
       </c>
       <c r="M1252" s="21">
-        <v>4405.0513920000003</v>
-      </c>
-      <c r="N1252" s="21">
-        <v>6666.24</v>
+        <v>4532.3365834993901</v>
       </c>
       <c r="S1252" s="21">
-        <v>34414.464</v>
-      </c>
-      <c r="W1252" s="21">
-        <v>6.1</v>
+        <f t="shared" si="4"/>
+        <v>35408.879558588982</v>
+      </c>
+      <c r="V1252" s="21">
+        <v>8.8065628063669248</v>
+      </c>
+      <c r="W1252" s="8">
+        <v>6.4296099677048097</v>
       </c>
       <c r="AC1252" s="21">
         <v>11.73</v>
@@ -53311,7 +53408,7 @@
         <v>16.329999999999998</v>
       </c>
       <c r="AJ1252" s="21">
-        <v>571.59614147909974</v>
+        <v>575.5673026076156</v>
       </c>
     </row>
     <row r="1253" spans="1:36" s="21" customFormat="1">
@@ -53331,31 +53428,32 @@
         <v>1253</v>
       </c>
       <c r="F1253" s="21">
-        <v>10144.980928483354</v>
-      </c>
-      <c r="H1253" s="21">
-        <v>808.87792848335391</v>
+        <v>10143.684627849889</v>
+      </c>
+      <c r="H1253" s="40">
+        <v>807.77982677715113</v>
       </c>
       <c r="J1253" s="21">
-        <v>2505.8100451999999</v>
-      </c>
-      <c r="K1253" s="21">
-        <v>1041.9090948</v>
+        <v>1719.287472943126</v>
+      </c>
+      <c r="K1253" s="40">
+        <v>870.65814138016754</v>
       </c>
       <c r="L1253" s="21">
-        <v>5788.3838600000008</v>
+        <v>5682.8099028060815</v>
       </c>
       <c r="M1253" s="21">
-        <v>6830.2929548000011</v>
-      </c>
-      <c r="N1253" s="21">
-        <v>9336.103000000001</v>
+        <v>6553.4680441862492</v>
       </c>
       <c r="S1253" s="21">
-        <v>54511.516000000011</v>
-      </c>
-      <c r="W1253" s="21">
-        <v>6.56</v>
+        <f t="shared" si="4"/>
+        <v>52302.219027823223</v>
+      </c>
+      <c r="V1253" s="21">
+        <v>8.18813739333652</v>
+      </c>
+      <c r="W1253" s="8">
+        <v>6.6142122052168881</v>
       </c>
       <c r="AC1253" s="21">
         <v>13.73</v>
@@ -53370,7 +53468,7 @@
         <v>22.95</v>
       </c>
       <c r="AJ1253" s="21">
-        <v>504.39036772394564</v>
+        <v>500.03834893814286</v>
       </c>
     </row>
     <row r="1254" spans="1:36" s="21" customFormat="1">
@@ -53390,31 +53488,32 @@
         <v>1200</v>
       </c>
       <c r="F1254" s="21">
-        <v>12500.602518891686</v>
-      </c>
-      <c r="H1254" s="21">
-        <v>767.0025188916876</v>
+        <v>12546.882916130873</v>
+      </c>
+      <c r="H1254" s="40">
+        <v>813.2827732294611</v>
       </c>
       <c r="J1254" s="21">
-        <v>2318.5593600000002</v>
-      </c>
-      <c r="K1254" s="21">
-        <v>1436.19264</v>
+        <v>1982.2230343929677</v>
+      </c>
+      <c r="K1254" s="40">
+        <v>1165.6182291046428</v>
       </c>
       <c r="L1254" s="21">
-        <v>7978.848</v>
+        <v>7914.399847941766</v>
       </c>
       <c r="M1254" s="21">
-        <v>9415.0406399999993</v>
-      </c>
-      <c r="N1254" s="21">
-        <v>11733.599999999999</v>
+        <v>9080.0180770464085</v>
       </c>
       <c r="S1254" s="21">
-        <v>78458.671999999991</v>
-      </c>
-      <c r="W1254" s="21">
-        <v>6.09</v>
+        <f t="shared" si="4"/>
+        <v>75666.81730872007</v>
+      </c>
+      <c r="V1254" s="21">
+        <v>7.6289973784604044</v>
+      </c>
+      <c r="W1254" s="8">
+        <v>6.2045321449145669</v>
       </c>
       <c r="AC1254" s="21">
         <v>15.33</v>
@@ -53429,7 +53528,7 @@
         <v>27.3</v>
       </c>
       <c r="AJ1254" s="21">
-        <v>487.07942128075211</v>
+        <v>477.53443609356805</v>
       </c>
     </row>
     <row r="1255" spans="1:36" s="21" customFormat="1">
@@ -53485,7 +53584,7 @@
         <v>10</v>
       </c>
       <c r="D1258" s="21">
-        <f t="shared" ref="D1258:D1259" si="0">E1258/E$1223*100</f>
+        <f t="shared" ref="D1258:D1259" si="5">E1258/E$1223*100</f>
         <v>86.196549137284322</v>
       </c>
       <c r="E1258" s="21">
@@ -53512,14 +53611,39 @@
         <v>12.1</v>
       </c>
       <c r="D1259" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>83.195798949737437</v>
       </c>
       <c r="E1259" s="21">
         <v>1109</v>
       </c>
-      <c r="W1259" s="21">
-        <v>3.9</v>
+      <c r="F1259" s="21">
+        <v>18288.017002550907</v>
+      </c>
+      <c r="H1259" s="40">
+        <v>607.23513293637779</v>
+      </c>
+      <c r="J1259" s="21">
+        <v>1468.9588415041171</v>
+      </c>
+      <c r="K1259" s="40">
+        <v>1701.2025737315932</v>
+      </c>
+      <c r="L1259" s="21">
+        <v>14337.780447694739</v>
+      </c>
+      <c r="M1259" s="21">
+        <v>16038.983021426331</v>
+      </c>
+      <c r="S1259" s="21">
+        <f t="shared" ref="S1259" si="6">M1259/E1259*10000</f>
+        <v>144625.63590104898</v>
+      </c>
+      <c r="V1259" s="21">
+        <v>6.5590431741289974</v>
+      </c>
+      <c r="W1259" s="8">
+        <v>3.9828814537776633</v>
       </c>
       <c r="AB1259" s="21">
         <v>25.7</v>
@@ -53529,6 +53653,9 @@
       </c>
       <c r="AF1259" s="21">
         <v>283.5</v>
+      </c>
+      <c r="AJ1259" s="21">
+        <v>472.11050571400409</v>
       </c>
     </row>
     <row r="1260" spans="1:36" s="21" customFormat="1">
@@ -53548,31 +53675,32 @@
         <v>2587</v>
       </c>
       <c r="F1260" s="21">
-        <v>527.76621739130428</v>
-      </c>
-      <c r="H1260" s="21">
-        <v>209.56521739130434</v>
+        <v>520.68123630490857</v>
+      </c>
+      <c r="H1260" s="40">
+        <v>202.67396606078407</v>
       </c>
       <c r="J1260" s="21">
-        <v>175.51967159999995</v>
-      </c>
-      <c r="K1260" s="21">
-        <v>21.764948400000002</v>
+        <v>174.11098118602393</v>
+      </c>
+      <c r="K1260" s="40">
+        <v>26.950005150301241</v>
       </c>
       <c r="L1260" s="21">
-        <v>120.91638</v>
-      </c>
-      <c r="M1260" s="21">
-        <v>142.68132840000001</v>
-      </c>
-      <c r="N1260" s="21">
-        <v>318.20099999999996</v>
+        <v>116.94628390779914</v>
+      </c>
+      <c r="M1260" s="40">
+        <v>143.89628905810036</v>
       </c>
       <c r="S1260" s="21">
-        <v>551.53200000000004</v>
-      </c>
-      <c r="W1260" s="21">
-        <v>2.41</v>
+        <f>M1260/E1260*10000</f>
+        <v>556.22840764630985</v>
+      </c>
+      <c r="V1260" s="21">
+        <v>11.785788920556458</v>
+      </c>
+      <c r="W1260" s="8">
+        <v>2.3886725836844245</v>
       </c>
       <c r="AC1260" s="21">
         <v>1.75</v>
@@ -53587,7 +53715,7 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="AJ1260" s="21">
-        <v>1089.3367567567568</v>
+        <v>441.55989792000702</v>
       </c>
     </row>
     <row r="1261" spans="1:36" s="21" customFormat="1">
@@ -53607,31 +53735,32 @@
         <v>2587</v>
       </c>
       <c r="F1261" s="21">
-        <v>2643.1758262910798</v>
-      </c>
-      <c r="H1261" s="21">
-        <v>519.24882629107981</v>
+        <v>2786.0575992983813</v>
+      </c>
+      <c r="H1261" s="40">
+        <v>514.89112844469571</v>
       </c>
       <c r="J1261" s="21">
-        <v>745.49837699999989</v>
-      </c>
-      <c r="K1261" s="21">
-        <v>210.26877300000004</v>
+        <v>802.99049993501762</v>
+      </c>
+      <c r="K1261" s="40">
+        <v>198.40365252115882</v>
       </c>
       <c r="L1261" s="21">
-        <v>1168.1598500000002</v>
-      </c>
-      <c r="M1261" s="21">
-        <v>1378.4286230000002</v>
-      </c>
-      <c r="N1261" s="21">
-        <v>2123.9270000000001</v>
+        <v>1121.634230897509</v>
+      </c>
+      <c r="M1261" s="40">
+        <v>1320.0378834186677</v>
       </c>
       <c r="S1261" s="21">
-        <v>5328.2900000000009</v>
-      </c>
-      <c r="W1261" s="21">
-        <v>5.53</v>
+        <f t="shared" ref="S1261:S1265" si="7">M1261/E1261*10000</f>
+        <v>5102.5816908336592</v>
+      </c>
+      <c r="V1261" s="21">
+        <v>10.934185168451149</v>
+      </c>
+      <c r="W1261" s="8">
+        <v>5.629914940007068</v>
       </c>
       <c r="AC1261" s="21">
         <v>6.39</v>
@@ -53646,7 +53775,7 @@
         <v>12.36</v>
       </c>
       <c r="AJ1261" s="21">
-        <v>472.36548726243433</v>
+        <v>445.84073527246449</v>
       </c>
     </row>
     <row r="1262" spans="1:36" s="21" customFormat="1">
@@ -53666,31 +53795,32 @@
         <v>2587</v>
       </c>
       <c r="F1262" s="21">
-        <v>4703.13087437186</v>
-      </c>
-      <c r="H1262" s="21">
-        <v>594.97487437185941</v>
+        <v>4638.3856261325236</v>
+      </c>
+      <c r="H1262" s="40">
+        <v>531.42539482538973</v>
       </c>
       <c r="J1262" s="21">
-        <v>1490.4389968</v>
-      </c>
-      <c r="K1262" s="21">
-        <v>399.31276320000012</v>
+        <v>979.92074536884377</v>
+      </c>
+      <c r="K1262" s="40">
+        <v>450.02353246819092</v>
       </c>
       <c r="L1262" s="21">
-        <v>2218.4042400000008</v>
+        <v>2218.5038090836033</v>
       </c>
       <c r="M1262" s="21">
-        <v>2617.7170032000008</v>
-      </c>
-      <c r="N1262" s="21">
-        <v>4108.1560000000009</v>
+        <v>2668.5273415517941</v>
       </c>
       <c r="S1262" s="21">
-        <v>10118.736000000004</v>
-      </c>
-      <c r="W1262" s="21">
-        <v>5.92</v>
+        <f t="shared" si="7"/>
+        <v>10315.14241032777</v>
+      </c>
+      <c r="V1262" s="21">
+        <v>11.678241029741246</v>
+      </c>
+      <c r="W1262" s="8">
+        <v>6.2061138500963065</v>
       </c>
       <c r="AC1262" s="21">
         <v>8.25</v>
@@ -53705,7 +53835,7 @@
         <v>19.27</v>
       </c>
       <c r="AJ1262" s="21">
-        <v>383.74057083549576</v>
+        <v>379.19104831750309</v>
       </c>
     </row>
     <row r="1263" spans="1:36" s="21" customFormat="1">
@@ -53725,31 +53855,32 @@
         <v>2534</v>
       </c>
       <c r="F1263" s="21">
-        <v>9561.8290056497171</v>
-      </c>
-      <c r="H1263" s="21">
-        <v>659.88700564971748</v>
+        <v>9603.6985191886088</v>
+      </c>
+      <c r="H1263" s="40">
+        <v>701.17916615403988</v>
       </c>
       <c r="J1263" s="21">
-        <v>2179.1954016</v>
-      </c>
-      <c r="K1263" s="21">
-        <v>1025.5037184</v>
+        <v>1314.5836947150185</v>
+      </c>
+      <c r="K1263" s="40">
+        <v>975.733141027957</v>
       </c>
       <c r="L1263" s="21">
-        <v>5697.2428800000007</v>
+        <v>5717.3041098982003</v>
       </c>
       <c r="M1263" s="21">
-        <v>6722.7465984000009</v>
-      </c>
-      <c r="N1263" s="21">
-        <v>8901.9420000000009</v>
+        <v>6693.037250926156</v>
       </c>
       <c r="S1263" s="21">
-        <v>26530.176000000007</v>
-      </c>
-      <c r="W1263" s="21">
-        <v>5.84</v>
+        <f t="shared" si="7"/>
+        <v>26412.933113362888</v>
+      </c>
+      <c r="V1263" s="21">
+        <v>8.8957007061080251</v>
+      </c>
+      <c r="W1263" s="8">
+        <v>6.2374800034647286</v>
       </c>
       <c r="AC1263" s="21">
         <v>9.67</v>
@@ -53764,7 +53895,7 @@
         <v>24.47</v>
       </c>
       <c r="AJ1263" s="21">
-        <v>582.1235189537141</v>
+        <v>557.92905150830984</v>
       </c>
     </row>
     <row r="1264" spans="1:36" s="21" customFormat="1">
@@ -53784,31 +53915,32 @@
         <v>2507</v>
       </c>
       <c r="F1264" s="21">
-        <v>12029.140517879161</v>
-      </c>
-      <c r="H1264" s="21">
-        <v>797.78051787916161</v>
+        <v>12051.562939216363</v>
+      </c>
+      <c r="H1264" s="40">
+        <v>820.56092448270863</v>
       </c>
       <c r="J1264" s="21">
-        <v>2351.8467840000012</v>
-      </c>
-      <c r="K1264" s="21">
-        <v>1354.5020159999997</v>
+        <v>1537.7752534552669</v>
+      </c>
+      <c r="K1264" s="40">
+        <v>1182.6247651576682</v>
       </c>
       <c r="L1264" s="21">
-        <v>7525.0111999999981</v>
+        <v>7616.554374555014</v>
       </c>
       <c r="M1264" s="21">
-        <v>8879.5132159999976</v>
-      </c>
-      <c r="N1264" s="21">
-        <v>11231.359999999999</v>
+        <v>8799.1791397126835</v>
       </c>
       <c r="S1264" s="21">
-        <v>35418.87999999999</v>
-      </c>
-      <c r="W1264" s="21">
-        <v>6.47</v>
+        <f t="shared" si="7"/>
+        <v>35098.440924262795</v>
+      </c>
+      <c r="V1264" s="21">
+        <v>8.029950485580498</v>
+      </c>
+      <c r="W1264" s="8">
+        <v>6.5890635939983087</v>
       </c>
       <c r="AC1264" s="21">
         <v>11.2</v>
@@ -53823,7 +53955,7 @@
         <v>31.82</v>
       </c>
       <c r="AJ1264" s="21">
-        <v>472.91422825540457</v>
+        <v>467.34892911637525</v>
       </c>
     </row>
     <row r="1265" spans="1:40" s="21" customFormat="1">
@@ -53843,31 +53975,32 @@
         <v>2400</v>
       </c>
       <c r="F1265" s="21">
-        <v>15443.768261964735</v>
-      </c>
-      <c r="H1265" s="21">
-        <v>935.76826196473542</v>
+        <v>15452.044968947168</v>
+      </c>
+      <c r="H1265" s="40">
+        <v>943.99994503011874</v>
       </c>
       <c r="J1265" s="21">
-        <v>2010.8087999999998</v>
-      </c>
-      <c r="K1265" s="21">
-        <v>1906.3512000000001</v>
+        <v>1870.5044821957986</v>
+      </c>
+      <c r="K1265" s="40">
+        <v>1443.8031912797117</v>
       </c>
       <c r="L1265" s="21">
-        <v>10590.84</v>
+        <v>10642.992749214887</v>
       </c>
       <c r="M1265" s="21">
-        <v>12497.191200000001</v>
-      </c>
-      <c r="N1265" s="21">
-        <v>14508</v>
+        <v>12086.795940494598</v>
       </c>
       <c r="S1265" s="21">
-        <v>52071.630000000005</v>
-      </c>
-      <c r="W1265" s="21">
-        <v>7.43</v>
+        <f t="shared" si="7"/>
+        <v>50361.649752060825</v>
+      </c>
+      <c r="V1265" s="21">
+        <v>8.2540818268601672</v>
+      </c>
+      <c r="W1265" s="8">
+        <v>7.7918527908300996</v>
       </c>
       <c r="AC1265" s="21">
         <v>12.4</v>
@@ -53882,7 +54015,7 @@
         <v>38.270000000000003</v>
       </c>
       <c r="AJ1265" s="21">
-        <v>461.27351916376307</v>
+        <v>469.40400058236759</v>
       </c>
     </row>
     <row r="1266" spans="1:40" s="21" customFormat="1">
@@ -53938,7 +54071,7 @@
         <v>10</v>
       </c>
       <c r="D1269" s="21">
-        <f t="shared" ref="D1269:D1270" si="1">E1269/E$1224*100</f>
+        <f t="shared" ref="D1269:D1270" si="8">E1269/E$1224*100</f>
         <v>82.977127859017614</v>
       </c>
       <c r="E1269" s="21">
@@ -53965,14 +54098,39 @@
         <v>12.1</v>
       </c>
       <c r="D1270" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>76.565429321334832</v>
       </c>
       <c r="E1270" s="21">
         <v>2042</v>
       </c>
-      <c r="W1270" s="21">
-        <v>5.17</v>
+      <c r="F1270" s="21">
+        <v>23164.872472455547</v>
+      </c>
+      <c r="H1270" s="40">
+        <v>835.54684055961354</v>
+      </c>
+      <c r="J1270" s="21">
+        <v>1608.340800316932</v>
+      </c>
+      <c r="K1270" s="40">
+        <v>2020.9847800742148</v>
+      </c>
+      <c r="L1270" s="21">
+        <v>18654.887457717843</v>
+      </c>
+      <c r="M1270" s="21">
+        <v>20675.87223779206</v>
+      </c>
+      <c r="S1270" s="21">
+        <f t="shared" ref="S1270" si="9">M1270/E1270*10000</f>
+        <v>101253.04719780637</v>
+      </c>
+      <c r="V1270" s="21">
+        <v>6.3017114135926491</v>
+      </c>
+      <c r="W1270" s="8">
+        <v>5.2653750617457939</v>
       </c>
       <c r="AB1270" s="21">
         <v>24.4</v>
@@ -53982,6 +54140,9 @@
       </c>
       <c r="AF1270" s="21">
         <v>344.1</v>
+      </c>
+      <c r="AJ1270" s="21">
+        <v>455.92587459915711</v>
       </c>
     </row>
     <row r="1271" spans="1:40" s="21" customFormat="1">
@@ -54000,6 +54161,7 @@
       <c r="E1271" s="21">
         <v>2169</v>
       </c>
+      <c r="M1271" s="40"/>
     </row>
     <row r="1272" spans="1:40" s="21" customFormat="1">
       <c r="A1272" s="19" t="s">
@@ -54023,6 +54185,7 @@
       <c r="H1272" s="21">
         <v>290</v>
       </c>
+      <c r="I1272" s="40"/>
       <c r="J1272" s="21">
         <v>230.00000000000003</v>
       </c>
@@ -77743,6 +77906,7 @@
       <c r="C2653" s="21">
         <v>15.272057829024137</v>
       </c>
+      <c r="X2653" s="19"/>
       <c r="BR2653" s="21">
         <v>0.16972954683333338</v>
       </c>
@@ -77760,6 +77924,7 @@
       <c r="C2654" s="21">
         <v>15.825115498701956</v>
       </c>
+      <c r="X2654" s="19"/>
       <c r="BR2654" s="21">
         <v>0.10353060400000001</v>
       </c>

--- a/Tests/Validation/Eucalyptus/Observed.xlsx
+++ b/Tests/Validation/Eucalyptus/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMxSourceTree\Tests\Validation\Eucalyptus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC44768-27DF-483D-8C8F-EB8EAFE6C0D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DF2EBB-2127-4FAB-8DD4-72D032E23A4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="653" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18192,9 +18192,9 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:BV2654"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1335" topLeftCell="A1223" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="W1227" sqref="W1227:W1270"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1335" topLeftCell="A1212" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E1238" sqref="E1238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -54389,7 +54389,7 @@
         <v>0</v>
       </c>
       <c r="E1277" s="21">
-        <v>300</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1278" spans="1:40" s="21" customFormat="1">
@@ -54403,7 +54403,7 @@
         <v>0</v>
       </c>
       <c r="E1278" s="21">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1279" spans="1:40" s="21" customFormat="1">
@@ -54431,7 +54431,7 @@
         <v>0</v>
       </c>
       <c r="E1280" s="21">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1281" spans="1:32" s="21" customFormat="1">
@@ -54459,7 +54459,7 @@
         <v>0</v>
       </c>
       <c r="E1282" s="21">
-        <v>300</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1283" spans="1:32" s="21" customFormat="1">
@@ -54473,7 +54473,7 @@
         <v>0</v>
       </c>
       <c r="E1283" s="21">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1284" spans="1:32" s="21" customFormat="1">
@@ -54501,7 +54501,7 @@
         <v>0</v>
       </c>
       <c r="E1285" s="21">
-        <v>600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1286" spans="1:32" s="21" customFormat="1">

--- a/Tests/Validation/Eucalyptus/Observed.xlsx
+++ b/Tests/Validation/Eucalyptus/Observed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMxSourceTree\Tests\Validation\Eucalyptus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144F369E-FB7A-4575-B639-C8D1D2E5DF0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380A22C7-79A9-42C5-A212-9597CC54F5A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="653" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18198,10 +18198,10 @@
   <dimension ref="A1:BV2656"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5720" ySplit="1420" topLeftCell="N744" activePane="bottomRight"/>
+      <pane xSplit="5720" ySplit="1420" topLeftCell="C44" activePane="bottomRight"/>
       <selection pane="topRight" activeCell="BO1" sqref="BO1"/>
       <selection pane="bottomLeft" activeCell="A671" sqref="A671:E718"/>
-      <selection pane="bottomRight" activeCell="S719" sqref="S719:S758"/>
+      <selection pane="bottomRight" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="12.5"/>
@@ -18648,12 +18648,7 @@
       <c r="C8" s="28">
         <v>3.67</v>
       </c>
-      <c r="D8" s="28">
-        <v>95</v>
-      </c>
-      <c r="E8" s="21">
-        <v>1358.5</v>
-      </c>
+      <c r="D8" s="28"/>
       <c r="F8" s="21">
         <v>5524.9583865037248</v>
       </c>
@@ -18681,12 +18676,8 @@
       <c r="C9" s="28">
         <v>4.67</v>
       </c>
-      <c r="D9" s="28">
-        <v>94.166666666666671</v>
-      </c>
-      <c r="E9" s="28">
-        <v>1346.5833333333333</v>
-      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="21">
         <v>8246.2511632895439</v>
       </c>
@@ -18714,11 +18705,9 @@
       <c r="C10" s="28">
         <v>5.75</v>
       </c>
-      <c r="D10" s="28">
-        <v>93.333333333333329</v>
-      </c>
-      <c r="E10" s="28">
-        <v>1334.6666666666667</v>
+      <c r="D10" s="28"/>
+      <c r="E10" s="21">
+        <v>1430</v>
       </c>
       <c r="F10" s="21">
         <v>11405.035163989576</v>
@@ -18746,11 +18735,9 @@
       <c r="C11" s="28">
         <v>6.83</v>
       </c>
-      <c r="D11" s="28">
-        <v>92.5</v>
-      </c>
-      <c r="E11" s="28">
-        <v>1322.75</v>
+      <c r="D11" s="28"/>
+      <c r="E11" s="21">
+        <v>1418.0833333333335</v>
       </c>
       <c r="F11" s="21">
         <v>13895.85102605342</v>
@@ -18779,11 +18766,9 @@
       <c r="C12" s="28">
         <v>7.75</v>
       </c>
-      <c r="D12" s="28">
-        <v>77.585307781892809</v>
-      </c>
+      <c r="D12" s="28"/>
       <c r="E12" s="21">
-        <v>1109.8779999999999</v>
+        <v>1418.0833333333335</v>
       </c>
       <c r="F12" s="21">
         <v>15810.975455905455</v>
@@ -18843,6 +18828,9 @@
         <v>8.83</v>
       </c>
       <c r="D13" s="28"/>
+      <c r="E13" s="21">
+        <v>1418.0833333333335</v>
+      </c>
       <c r="F13" s="21">
         <v>17854.722043530433</v>
       </c>
@@ -18951,12 +18939,7 @@
       <c r="C17" s="28">
         <v>3.67</v>
       </c>
-      <c r="D17" s="28">
-        <v>95</v>
-      </c>
-      <c r="E17" s="21">
-        <v>1358.5</v>
-      </c>
+      <c r="D17" s="28"/>
       <c r="F17" s="21">
         <v>5212.444893285955</v>
       </c>
@@ -18984,12 +18967,8 @@
       <c r="C18" s="28">
         <v>4.67</v>
       </c>
-      <c r="D18" s="28">
-        <v>94.166666666666671</v>
-      </c>
-      <c r="E18" s="28">
-        <v>1346.5833333333333</v>
-      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="21">
         <v>7630.6674303207665</v>
       </c>
@@ -19017,11 +18996,9 @@
       <c r="C19" s="28">
         <v>5.75</v>
       </c>
-      <c r="D19" s="28">
-        <v>93.333333333333329</v>
-      </c>
+      <c r="D19" s="28"/>
       <c r="E19" s="28">
-        <v>1334.6666666666667</v>
+        <v>1358.5</v>
       </c>
       <c r="F19" s="21">
         <v>10003.546535546151</v>
@@ -19050,11 +19027,9 @@
       <c r="C20" s="28">
         <v>6.83</v>
       </c>
-      <c r="D20" s="28">
-        <v>93.333333333333329</v>
-      </c>
+      <c r="D20" s="28"/>
       <c r="E20" s="28">
-        <v>1334.6666666666667</v>
+        <v>1358.5</v>
       </c>
       <c r="F20" s="21">
         <v>11893.24907598501</v>
@@ -19083,11 +19058,9 @@
       <c r="C21" s="28">
         <v>7.75</v>
       </c>
-      <c r="D21" s="28">
-        <v>77.585307781892809</v>
-      </c>
+      <c r="D21" s="28"/>
       <c r="E21" s="21">
-        <v>1109.8779999999999</v>
+        <v>1358.5</v>
       </c>
       <c r="F21" s="21">
         <v>14014.328069578958</v>
@@ -19138,6 +19111,9 @@
         <v>8.83</v>
       </c>
       <c r="D22" s="28"/>
+      <c r="E22" s="21">
+        <v>1334.6666666666667</v>
+      </c>
       <c r="F22" s="21">
         <v>16080.422567432726</v>
       </c>
@@ -19218,12 +19194,7 @@
       <c r="C25" s="28">
         <v>2.75</v>
       </c>
-      <c r="D25" s="28">
-        <v>100</v>
-      </c>
-      <c r="E25" s="21">
-        <v>1430</v>
-      </c>
+      <c r="D25" s="28"/>
       <c r="F25" s="21">
         <v>2461.9500145108891</v>
       </c>
@@ -19251,12 +19222,7 @@
       <c r="C26" s="28">
         <v>3.67</v>
       </c>
-      <c r="D26" s="28">
-        <v>99.166666666666686</v>
-      </c>
-      <c r="E26" s="21">
-        <v>1418.0833333333335</v>
-      </c>
+      <c r="D26" s="28"/>
       <c r="F26" s="21">
         <v>6625.9230218877183</v>
       </c>
@@ -19284,12 +19250,7 @@
       <c r="C27" s="28">
         <v>4.67</v>
       </c>
-      <c r="D27" s="28">
-        <v>99.166666666666686</v>
-      </c>
-      <c r="E27" s="21">
-        <v>1418.0833333333335</v>
-      </c>
+      <c r="D27" s="28"/>
       <c r="F27" s="21">
         <v>9201.6754466831935</v>
       </c>
@@ -19317,11 +19278,9 @@
       <c r="C28" s="28">
         <v>5.75</v>
       </c>
-      <c r="D28" s="28">
-        <v>99.166666666666686</v>
-      </c>
+      <c r="D28" s="28"/>
       <c r="E28" s="21">
-        <v>1418.0833333333335</v>
+        <v>1382.3333333333333</v>
       </c>
       <c r="F28" s="21">
         <v>11873.361597578867</v>
@@ -19351,6 +19310,9 @@
         <v>6.83</v>
       </c>
       <c r="D29" s="28"/>
+      <c r="E29" s="21">
+        <v>1382.3333333333333</v>
+      </c>
       <c r="F29" s="21">
         <v>13585.618332417442</v>
       </c>
@@ -19378,11 +19340,9 @@
       <c r="C30" s="28">
         <v>7.75</v>
       </c>
-      <c r="D30" s="28">
-        <v>77.585307781892809</v>
-      </c>
+      <c r="D30" s="28"/>
       <c r="E30" s="21">
-        <v>1109.8779999999999</v>
+        <v>1382.3333333333333</v>
       </c>
       <c r="F30" s="21">
         <v>14983.847038686019</v>
@@ -19433,7 +19393,9 @@
         <v>8.83</v>
       </c>
       <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
+      <c r="E31" s="28">
+        <v>1382.3333333333333</v>
+      </c>
       <c r="F31" s="21">
         <v>16504.983712588109</v>
       </c>
@@ -19516,12 +19478,7 @@
       <c r="C34" s="28">
         <v>2.75</v>
       </c>
-      <c r="D34" s="28">
-        <v>95</v>
-      </c>
-      <c r="E34" s="21">
-        <v>1358.5</v>
-      </c>
+      <c r="D34" s="28"/>
       <c r="F34" s="21">
         <v>2816.6244066038712</v>
       </c>
@@ -19549,12 +19506,7 @@
       <c r="C35" s="28">
         <v>3.67</v>
       </c>
-      <c r="D35" s="28">
-        <v>95</v>
-      </c>
-      <c r="E35" s="21">
-        <v>1358.5</v>
-      </c>
+      <c r="D35" s="28"/>
       <c r="F35" s="21">
         <v>7425.9276045451097</v>
       </c>
@@ -19582,12 +19534,7 @@
       <c r="C36" s="28">
         <v>4.67</v>
       </c>
-      <c r="D36" s="28">
-        <v>95</v>
-      </c>
-      <c r="E36" s="21">
-        <v>1358.5</v>
-      </c>
+      <c r="D36" s="28"/>
       <c r="F36" s="21">
         <v>11005.887935097315</v>
       </c>
@@ -19615,11 +19562,9 @@
       <c r="C37" s="28">
         <v>5.75</v>
       </c>
-      <c r="D37" s="28">
-        <v>93.333333333333329</v>
-      </c>
+      <c r="D37" s="28"/>
       <c r="E37" s="21">
-        <v>1334.6666666666667</v>
+        <v>1406.1666666666665</v>
       </c>
       <c r="F37" s="21">
         <v>14618.667045628205</v>
@@ -19649,6 +19594,9 @@
         <v>6.83</v>
       </c>
       <c r="D38" s="28"/>
+      <c r="E38" s="21">
+        <v>1406.1666666666665</v>
+      </c>
       <c r="F38" s="21">
         <v>17066.403986702626</v>
       </c>
@@ -19676,11 +19624,9 @@
       <c r="C39" s="28">
         <v>7.75</v>
       </c>
-      <c r="D39" s="28">
-        <v>77.585307781892809</v>
-      </c>
+      <c r="D39" s="28"/>
       <c r="E39" s="21">
-        <v>1109.8779999999999</v>
+        <v>1406.1666666666665</v>
       </c>
       <c r="F39" s="21">
         <v>19153.612742048346</v>
@@ -19731,6 +19677,9 @@
         <v>8.83</v>
       </c>
       <c r="D40" s="28"/>
+      <c r="E40" s="21">
+        <v>1406.1666666666665</v>
+      </c>
       <c r="F40" s="21">
         <v>21050.282403902969</v>
       </c>
@@ -19811,12 +19760,8 @@
       <c r="C43" s="28">
         <v>2.75</v>
       </c>
-      <c r="D43" s="28">
-        <v>96.666666666666657</v>
-      </c>
-      <c r="E43" s="28">
-        <v>1382.3333333333333</v>
-      </c>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
       <c r="F43" s="21">
         <v>2576.5161955259723</v>
       </c>
@@ -19844,12 +19789,7 @@
       <c r="C44" s="28">
         <v>3.67</v>
       </c>
-      <c r="D44" s="28">
-        <v>96.666666666666657</v>
-      </c>
-      <c r="E44" s="21">
-        <v>1382.3333333333333</v>
-      </c>
+      <c r="D44" s="28"/>
       <c r="F44" s="21">
         <v>6928.0417055094249</v>
       </c>
@@ -19877,12 +19817,7 @@
       <c r="C45" s="28">
         <v>4.67</v>
       </c>
-      <c r="D45" s="28">
-        <v>96.666666666666657</v>
-      </c>
-      <c r="E45" s="21">
-        <v>1382.3333333333333</v>
-      </c>
+      <c r="D45" s="28"/>
       <c r="F45" s="21">
         <v>10175.281192318567</v>
       </c>
@@ -19910,11 +19845,9 @@
       <c r="C46" s="28">
         <v>5.75</v>
       </c>
-      <c r="D46" s="28">
-        <v>96.666666666666657</v>
-      </c>
+      <c r="D46" s="28"/>
       <c r="E46" s="21">
-        <v>1382.3333333333333</v>
+        <v>1358.5</v>
       </c>
       <c r="F46" s="21">
         <v>13800.203556211975</v>
@@ -19944,6 +19877,9 @@
         <v>6.83</v>
       </c>
       <c r="D47" s="28"/>
+      <c r="E47" s="21">
+        <v>1346.5833333333333</v>
+      </c>
       <c r="F47" s="21">
         <v>16083.126345739644</v>
       </c>
@@ -19971,11 +19907,9 @@
       <c r="C48" s="28">
         <v>7.75</v>
       </c>
-      <c r="D48" s="28">
-        <v>77.585307781892809</v>
-      </c>
+      <c r="D48" s="28"/>
       <c r="E48" s="21">
-        <v>1109.8779999999999</v>
+        <v>1334.6666666666667</v>
       </c>
       <c r="F48" s="21">
         <v>17830.838828209064</v>
@@ -20034,6 +19968,9 @@
         <v>8.83</v>
       </c>
       <c r="D49" s="28"/>
+      <c r="E49" s="21">
+        <v>1322.75</v>
+      </c>
       <c r="F49" s="21">
         <v>19478.992489987824</v>
       </c>
@@ -20114,12 +20051,7 @@
       <c r="C52" s="28">
         <v>2.75</v>
       </c>
-      <c r="D52" s="28">
-        <v>98.333333333333329</v>
-      </c>
-      <c r="E52" s="21">
-        <v>1406.1666666666665</v>
-      </c>
+      <c r="D52" s="28"/>
       <c r="F52" s="21">
         <v>2739.5403278341009</v>
       </c>
@@ -20147,12 +20079,7 @@
       <c r="C53" s="28">
         <v>3.67</v>
       </c>
-      <c r="D53" s="28">
-        <v>98.333333333333329</v>
-      </c>
-      <c r="E53" s="21">
-        <v>1406.1666666666665</v>
-      </c>
+      <c r="D53" s="28"/>
       <c r="F53" s="21">
         <v>6719.4405699830622</v>
       </c>
@@ -20180,12 +20107,7 @@
       <c r="C54" s="28">
         <v>4.67</v>
       </c>
-      <c r="D54" s="28">
-        <v>98.333333333333329</v>
-      </c>
-      <c r="E54" s="21">
-        <v>1406.1666666666665</v>
-      </c>
+      <c r="D54" s="28"/>
       <c r="F54" s="21">
         <v>9948.0058011851997</v>
       </c>
@@ -20213,11 +20135,9 @@
       <c r="C55" s="28">
         <v>5.75</v>
       </c>
-      <c r="D55" s="28">
-        <v>98.333333333333329</v>
-      </c>
+      <c r="D55" s="28"/>
       <c r="E55" s="21">
-        <v>1406.1666666666665</v>
+        <v>1358.5</v>
       </c>
       <c r="F55" s="21">
         <v>13379.955949576595</v>
@@ -20247,6 +20167,9 @@
         <v>6.83</v>
       </c>
       <c r="D56" s="28"/>
+      <c r="E56" s="21">
+        <v>1346.5833333333333</v>
+      </c>
       <c r="F56" s="21">
         <v>16192.485349000926</v>
       </c>
@@ -20274,11 +20197,9 @@
       <c r="C57" s="28">
         <v>7.75</v>
       </c>
-      <c r="D57" s="28">
-        <v>77.585307781892809</v>
-      </c>
+      <c r="D57" s="28"/>
       <c r="E57" s="21">
-        <v>1109.8779999999999</v>
+        <v>1334.6666666666667</v>
       </c>
       <c r="F57" s="21">
         <v>18356.171857481932</v>
@@ -20329,6 +20250,9 @@
         <v>8.83</v>
       </c>
       <c r="D58" s="28"/>
+      <c r="E58" s="21">
+        <v>1334.6666666666667</v>
+      </c>
       <c r="F58" s="21">
         <v>20310.18939754961</v>
       </c>
@@ -35352,10 +35276,10 @@
         <v>1.83</v>
       </c>
       <c r="D630" s="28">
-        <v>94.604992620810577</v>
+        <v>89.198993042478548</v>
       </c>
       <c r="E630" s="42">
-        <v>1050</v>
+        <v>990</v>
       </c>
       <c r="G630" s="29"/>
       <c r="AB630" s="21">
@@ -35376,10 +35300,10 @@
         <v>2.08</v>
       </c>
       <c r="D631" s="28">
-        <v>94.604992620810577</v>
+        <v>89.198993042478548</v>
       </c>
       <c r="E631" s="42">
-        <v>1050</v>
+        <v>990</v>
       </c>
       <c r="G631" s="29"/>
       <c r="AB631" s="21">
@@ -35901,10 +35825,10 @@
         <v>1.83</v>
       </c>
       <c r="D654" s="28">
-        <v>94.604992620810577</v>
+        <v>89.198993042478548</v>
       </c>
       <c r="E654" s="42">
-        <v>1050</v>
+        <v>990</v>
       </c>
       <c r="G654" s="29"/>
       <c r="AB654" s="21">
@@ -35925,10 +35849,10 @@
         <v>2.08</v>
       </c>
       <c r="D655" s="28">
-        <v>94.604992620810577</v>
+        <v>89.198993042478548</v>
       </c>
       <c r="E655" s="42">
-        <v>1050</v>
+        <v>990</v>
       </c>
       <c r="G655" s="29"/>
       <c r="AB655" s="21">
@@ -36450,10 +36374,10 @@
         <v>1.83</v>
       </c>
       <c r="D678" s="28">
-        <v>94.604992620810577</v>
+        <v>89.198993042478548</v>
       </c>
       <c r="E678" s="42">
-        <v>1050</v>
+        <v>990</v>
       </c>
       <c r="G678" s="29"/>
       <c r="AB678" s="21">
@@ -36474,10 +36398,10 @@
         <v>2.08</v>
       </c>
       <c r="D679" s="28">
-        <v>94.604992620810577</v>
+        <v>89.198993042478548</v>
       </c>
       <c r="E679" s="42">
-        <v>1050</v>
+        <v>990</v>
       </c>
       <c r="G679" s="29"/>
       <c r="AB679" s="21">
@@ -36991,7 +36915,7 @@
         <v>1.58</v>
       </c>
       <c r="D701" s="28">
-        <v>81.089993674980505</v>
+        <v>72.079994377760443</v>
       </c>
       <c r="E701" s="42">
         <v>900</v>
@@ -37413,9 +37337,7 @@
         <v>0.66</v>
       </c>
       <c r="D719" s="28"/>
-      <c r="E719" s="42">
-        <v>1109.8779999999999</v>
-      </c>
+      <c r="E719" s="42"/>
       <c r="F719" s="21">
         <v>609</v>
       </c>
@@ -37439,7 +37361,6 @@
         <v>366</v>
       </c>
       <c r="S719" s="21">
-        <f>M719/E719*10000</f>
         <v>1153.2799100441671</v>
       </c>
       <c r="W719" s="21">
@@ -37460,9 +37381,7 @@
         <v>1.04</v>
       </c>
       <c r="D720" s="28"/>
-      <c r="E720" s="42">
-        <v>900</v>
-      </c>
+      <c r="E720" s="42"/>
       <c r="F720" s="21">
         <v>1944.0000000000002</v>
       </c>
@@ -37486,7 +37405,6 @@
         <v>1479.0000000000002</v>
       </c>
       <c r="S720" s="21">
-        <f t="shared" ref="S720:S758" si="0">M720/E720*10000</f>
         <v>9111.1111111111113</v>
       </c>
       <c r="W720" s="21">
@@ -37507,9 +37425,7 @@
         <v>1.44</v>
       </c>
       <c r="D721" s="28"/>
-      <c r="E721" s="42">
-        <v>900</v>
-      </c>
+      <c r="E721" s="42"/>
       <c r="F721" s="21">
         <v>2437</v>
       </c>
@@ -37533,7 +37449,6 @@
         <v>1969</v>
       </c>
       <c r="S721" s="21">
-        <f t="shared" si="0"/>
         <v>13822.222222222223</v>
       </c>
       <c r="W721" s="21">
@@ -37554,9 +37469,7 @@
         <v>1.81</v>
       </c>
       <c r="D722" s="28"/>
-      <c r="E722" s="42">
-        <v>800</v>
-      </c>
+      <c r="E722" s="42"/>
       <c r="F722" s="21">
         <v>3062</v>
       </c>
@@ -37580,7 +37493,6 @@
         <v>2602</v>
       </c>
       <c r="S722" s="21">
-        <f t="shared" si="0"/>
         <v>23250</v>
       </c>
       <c r="W722" s="21">
@@ -37601,9 +37513,7 @@
         <v>2.4</v>
       </c>
       <c r="D723" s="28"/>
-      <c r="E723" s="42">
-        <v>800</v>
-      </c>
+      <c r="E723" s="42"/>
       <c r="F723" s="21">
         <v>3888.0000000000005</v>
       </c>
@@ -37627,7 +37537,6 @@
         <v>3492.0000000000005</v>
       </c>
       <c r="S723" s="21">
-        <f t="shared" si="0"/>
         <v>35937.5</v>
       </c>
       <c r="W723" s="21">
@@ -37648,9 +37557,7 @@
         <v>3.1</v>
       </c>
       <c r="D724" s="28"/>
-      <c r="E724" s="42">
-        <v>694</v>
-      </c>
+      <c r="E724" s="42"/>
       <c r="F724" s="21">
         <v>6311</v>
       </c>
@@ -37674,7 +37581,6 @@
         <v>5711</v>
       </c>
       <c r="S724" s="21">
-        <f t="shared" si="0"/>
         <v>67103.746397694529</v>
       </c>
       <c r="W724" s="21">
@@ -37695,9 +37601,7 @@
         <v>3.6</v>
       </c>
       <c r="D725" s="28"/>
-      <c r="E725" s="42">
-        <v>694</v>
-      </c>
+      <c r="E725" s="42"/>
       <c r="F725" s="21">
         <v>7158</v>
       </c>
@@ -37721,7 +37625,6 @@
         <v>6527</v>
       </c>
       <c r="S725" s="21">
-        <f t="shared" si="0"/>
         <v>76743.515850144089</v>
       </c>
       <c r="W725" s="21">
@@ -37742,9 +37645,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="D726" s="28"/>
-      <c r="E726" s="42">
-        <v>694</v>
-      </c>
+      <c r="E726" s="42"/>
       <c r="F726" s="21">
         <v>8083</v>
       </c>
@@ -37768,7 +37669,6 @@
         <v>7418</v>
       </c>
       <c r="S726" s="21">
-        <f t="shared" si="0"/>
         <v>86657.060518731989</v>
       </c>
       <c r="W726" s="21">
@@ -37789,9 +37689,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="D727" s="28"/>
-      <c r="E727" s="42">
-        <v>694</v>
-      </c>
+      <c r="E727" s="42"/>
       <c r="F727" s="21">
         <v>9853</v>
       </c>
@@ -37815,7 +37713,6 @@
         <v>9096</v>
       </c>
       <c r="S727" s="21">
-        <f t="shared" si="0"/>
         <v>105706.05187319883</v>
       </c>
       <c r="W727" s="21">
@@ -37836,9 +37733,7 @@
         <v>5.6</v>
       </c>
       <c r="D728" s="28"/>
-      <c r="E728" s="42">
-        <v>694</v>
-      </c>
+      <c r="E728" s="42"/>
       <c r="F728" s="21">
         <v>13702.000000000002</v>
       </c>
@@ -37862,7 +37757,6 @@
         <v>12765.000000000002</v>
       </c>
       <c r="S728" s="21">
-        <f t="shared" si="0"/>
         <v>146959.65417867436</v>
       </c>
       <c r="W728" s="21">
@@ -37883,9 +37777,7 @@
         <v>0.66</v>
       </c>
       <c r="D729" s="28"/>
-      <c r="E729" s="42">
-        <v>1050</v>
-      </c>
+      <c r="E729" s="42"/>
       <c r="F729" s="21">
         <v>36</v>
       </c>
@@ -37909,7 +37801,6 @@
         <v>17</v>
       </c>
       <c r="S729" s="21">
-        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
       <c r="W729" s="21">
@@ -37930,9 +37821,7 @@
         <v>1.04</v>
       </c>
       <c r="D730" s="28"/>
-      <c r="E730" s="42">
-        <v>1050</v>
-      </c>
+      <c r="E730" s="42"/>
       <c r="F730" s="21">
         <v>438.99999999999994</v>
       </c>
@@ -37956,7 +37845,6 @@
         <v>260.99999999999994</v>
       </c>
       <c r="S730" s="21">
-        <f t="shared" si="0"/>
         <v>885.71428571428567</v>
       </c>
       <c r="W730" s="21">
@@ -37977,9 +37865,7 @@
         <v>1.44</v>
       </c>
       <c r="D731" s="28"/>
-      <c r="E731" s="42">
-        <v>990</v>
-      </c>
+      <c r="E731" s="42"/>
       <c r="F731" s="21">
         <v>438.99999999999994</v>
       </c>
@@ -38003,7 +37889,6 @@
         <v>296.99999999999994</v>
       </c>
       <c r="S731" s="21">
-        <f t="shared" si="0"/>
         <v>1585.8585858585859</v>
       </c>
       <c r="W731" s="21">
@@ -38024,9 +37909,7 @@
         <v>1.81</v>
       </c>
       <c r="D732" s="28"/>
-      <c r="E732" s="42">
-        <v>990</v>
-      </c>
+      <c r="E732" s="42"/>
       <c r="F732" s="21">
         <v>501</v>
       </c>
@@ -38050,7 +37933,6 @@
         <v>401</v>
       </c>
       <c r="S732" s="21">
-        <f t="shared" si="0"/>
         <v>3141.4141414141418</v>
       </c>
       <c r="W732" s="21">
@@ -38071,9 +37953,7 @@
         <v>2.4</v>
       </c>
       <c r="D733" s="28"/>
-      <c r="E733" s="42">
-        <v>972</v>
-      </c>
+      <c r="E733" s="42"/>
       <c r="F733" s="21">
         <v>713</v>
       </c>
@@ -38097,7 +37977,6 @@
         <v>598</v>
       </c>
       <c r="S733" s="21">
-        <f t="shared" si="0"/>
         <v>5051.4403292181069</v>
       </c>
       <c r="W733" s="21">
@@ -38118,9 +37997,7 @@
         <v>3.1</v>
       </c>
       <c r="D734" s="28"/>
-      <c r="E734" s="42">
-        <v>694</v>
-      </c>
+      <c r="E734" s="42"/>
       <c r="F734" s="21">
         <v>1257</v>
       </c>
@@ -38144,7 +38021,6 @@
         <v>1123</v>
       </c>
       <c r="S734" s="21">
-        <f t="shared" si="0"/>
         <v>14077.809798270893</v>
       </c>
       <c r="W734" s="21">
@@ -38165,9 +38041,7 @@
         <v>3.6</v>
       </c>
       <c r="D735" s="28"/>
-      <c r="E735" s="42">
-        <v>694</v>
-      </c>
+      <c r="E735" s="42"/>
       <c r="F735" s="21">
         <v>1544</v>
       </c>
@@ -38190,7 +38064,6 @@
         <v>1392</v>
       </c>
       <c r="S735" s="21">
-        <f t="shared" si="0"/>
         <v>16945.244956772334</v>
       </c>
       <c r="W735" s="21">
@@ -38211,9 +38084,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="D736" s="28"/>
-      <c r="E736" s="42">
-        <v>694</v>
-      </c>
+      <c r="E736" s="42"/>
       <c r="F736" s="21">
         <v>1960.0000000000002</v>
       </c>
@@ -38236,7 +38107,6 @@
         <v>1780.0000000000002</v>
       </c>
       <c r="S736" s="21">
-        <f t="shared" si="0"/>
         <v>21123.919308357348</v>
       </c>
       <c r="W736" s="21">
@@ -38257,9 +38127,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="D737" s="28"/>
-      <c r="E737" s="42">
-        <v>694</v>
-      </c>
+      <c r="E737" s="42"/>
       <c r="F737" s="21">
         <v>2785</v>
       </c>
@@ -38282,7 +38150,6 @@
         <v>2546</v>
       </c>
       <c r="S737" s="21">
-        <f t="shared" si="0"/>
         <v>29495.677233429396</v>
       </c>
       <c r="W737" s="21">
@@ -38303,9 +38170,7 @@
         <v>5.6</v>
       </c>
       <c r="D738" s="28"/>
-      <c r="E738" s="42">
-        <v>694</v>
-      </c>
+      <c r="E738" s="42"/>
       <c r="F738" s="21">
         <v>4184</v>
       </c>
@@ -38328,7 +38193,6 @@
         <v>3862</v>
       </c>
       <c r="S738" s="21">
-        <f t="shared" si="0"/>
         <v>43587.89625360231</v>
       </c>
       <c r="W738" s="21">
@@ -38349,9 +38213,7 @@
         <v>0.66</v>
       </c>
       <c r="D739" s="28"/>
-      <c r="E739" s="42">
-        <v>1050</v>
-      </c>
+      <c r="E739" s="42"/>
       <c r="F739" s="21">
         <v>508</v>
       </c>
@@ -38374,7 +38236,6 @@
         <v>301</v>
       </c>
       <c r="S739" s="21">
-        <f t="shared" si="0"/>
         <v>1019.047619047619</v>
       </c>
       <c r="W739" s="21">
@@ -38395,9 +38256,7 @@
         <v>1.04</v>
       </c>
       <c r="D740" s="28"/>
-      <c r="E740" s="42">
-        <v>1050</v>
-      </c>
+      <c r="E740" s="42"/>
       <c r="F740" s="21">
         <v>1687</v>
       </c>
@@ -38420,7 +38279,6 @@
         <v>1262</v>
       </c>
       <c r="S740" s="21">
-        <f t="shared" si="0"/>
         <v>6466.6666666666661</v>
       </c>
       <c r="W740" s="21">
@@ -38441,9 +38299,7 @@
         <v>1.44</v>
       </c>
       <c r="D741" s="28"/>
-      <c r="E741" s="42">
-        <v>990</v>
-      </c>
+      <c r="E741" s="42"/>
       <c r="F741" s="21">
         <v>2581</v>
       </c>
@@ -38466,7 +38322,6 @@
         <v>2089</v>
       </c>
       <c r="S741" s="21">
-        <f t="shared" si="0"/>
         <v>13727.272727272728</v>
       </c>
       <c r="W741" s="21">
@@ -38487,9 +38342,7 @@
         <v>1.81</v>
       </c>
       <c r="D742" s="28"/>
-      <c r="E742" s="42">
-        <v>990</v>
-      </c>
+      <c r="E742" s="42"/>
       <c r="F742" s="21">
         <v>3347</v>
       </c>
@@ -38512,7 +38365,6 @@
         <v>2891</v>
       </c>
       <c r="S742" s="21">
-        <f t="shared" si="0"/>
         <v>22707.070707070707</v>
       </c>
       <c r="W742" s="21">
@@ -38533,9 +38385,7 @@
         <v>2.4</v>
       </c>
       <c r="D743" s="28"/>
-      <c r="E743" s="42">
-        <v>972</v>
-      </c>
+      <c r="E743" s="42"/>
       <c r="F743" s="21">
         <v>4990</v>
       </c>
@@ -38558,7 +38408,6 @@
         <v>4474</v>
       </c>
       <c r="S743" s="21">
-        <f t="shared" si="0"/>
         <v>38179.01234567901</v>
       </c>
       <c r="W743" s="21">
@@ -38579,9 +38428,7 @@
         <v>3.1</v>
       </c>
       <c r="D744" s="28"/>
-      <c r="E744" s="42">
-        <v>694</v>
-      </c>
+      <c r="E744" s="42"/>
       <c r="F744" s="21">
         <v>7203</v>
       </c>
@@ -38604,7 +38451,6 @@
         <v>6493</v>
       </c>
       <c r="S744" s="21">
-        <f t="shared" si="0"/>
         <v>75936.599423631123</v>
       </c>
       <c r="W744" s="21">
@@ -38625,9 +38471,7 @@
         <v>3.6</v>
       </c>
       <c r="D745" s="28"/>
-      <c r="E745" s="42">
-        <v>694</v>
-      </c>
+      <c r="E745" s="42"/>
       <c r="F745" s="21">
         <v>8305</v>
       </c>
@@ -38650,7 +38494,6 @@
         <v>7548</v>
       </c>
       <c r="S745" s="21">
-        <f t="shared" si="0"/>
         <v>87723.34293948127</v>
       </c>
       <c r="W745" s="21">
@@ -38671,9 +38514,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="D746" s="28"/>
-      <c r="E746" s="42">
-        <v>694</v>
-      </c>
+      <c r="E746" s="42"/>
       <c r="F746" s="21">
         <v>9295</v>
       </c>
@@ -38696,7 +38537,6 @@
         <v>8504</v>
       </c>
       <c r="S746" s="21">
-        <f t="shared" si="0"/>
         <v>98242.074927953901</v>
       </c>
       <c r="W746" s="21">
@@ -38717,9 +38557,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="D747" s="28"/>
-      <c r="E747" s="42">
-        <v>694</v>
-      </c>
+      <c r="E747" s="42"/>
       <c r="F747" s="21">
         <v>10620</v>
       </c>
@@ -38742,7 +38580,6 @@
         <v>9769</v>
       </c>
       <c r="S747" s="21">
-        <f t="shared" si="0"/>
         <v>112853.02593659944</v>
       </c>
       <c r="W747" s="21">
@@ -38763,9 +38600,7 @@
         <v>5.6</v>
       </c>
       <c r="D748" s="28"/>
-      <c r="E748" s="42">
-        <v>694</v>
-      </c>
+      <c r="E748" s="42"/>
       <c r="F748" s="21">
         <v>13559</v>
       </c>
@@ -38788,7 +38623,6 @@
         <v>12589</v>
       </c>
       <c r="S748" s="21">
-        <f t="shared" si="0"/>
         <v>143083.57348703171</v>
       </c>
       <c r="W748" s="21">
@@ -38809,9 +38643,7 @@
         <v>0.66</v>
       </c>
       <c r="D749" s="28"/>
-      <c r="E749" s="42">
-        <v>1050</v>
-      </c>
+      <c r="E749" s="42"/>
       <c r="F749" s="21">
         <v>17</v>
       </c>
@@ -38834,7 +38666,6 @@
         <v>8</v>
       </c>
       <c r="S749" s="21">
-        <f t="shared" si="0"/>
         <v>38.095238095238095</v>
       </c>
       <c r="W749" s="21">
@@ -38855,9 +38686,7 @@
         <v>1.04</v>
       </c>
       <c r="D750" s="28"/>
-      <c r="E750" s="42">
-        <v>1050</v>
-      </c>
+      <c r="E750" s="42"/>
       <c r="F750" s="21">
         <v>208</v>
       </c>
@@ -38880,7 +38709,6 @@
         <v>119</v>
       </c>
       <c r="S750" s="21">
-        <f t="shared" si="0"/>
         <v>428.57142857142856</v>
       </c>
       <c r="W750" s="21">
@@ -38901,9 +38729,7 @@
         <v>1.44</v>
       </c>
       <c r="D751" s="28"/>
-      <c r="E751" s="42">
-        <v>990</v>
-      </c>
+      <c r="E751" s="42"/>
       <c r="F751" s="21">
         <v>271</v>
       </c>
@@ -38926,7 +38752,6 @@
         <v>172</v>
       </c>
       <c r="S751" s="21">
-        <f t="shared" si="0"/>
         <v>808.0808080808082</v>
       </c>
       <c r="W751" s="21">
@@ -38947,9 +38772,7 @@
         <v>1.81</v>
       </c>
       <c r="D752" s="28"/>
-      <c r="E752" s="42">
-        <v>990</v>
-      </c>
+      <c r="E752" s="42"/>
       <c r="F752" s="21">
         <v>432</v>
       </c>
@@ -38972,7 +38795,6 @@
         <v>330</v>
       </c>
       <c r="S752" s="21">
-        <f t="shared" si="0"/>
         <v>2313.1313131313132</v>
       </c>
       <c r="W752" s="21">
@@ -38993,9 +38815,7 @@
         <v>2.4</v>
       </c>
       <c r="D753" s="28"/>
-      <c r="E753" s="42">
-        <v>972</v>
-      </c>
+      <c r="E753" s="42"/>
       <c r="F753" s="21">
         <v>818</v>
       </c>
@@ -39018,7 +38838,6 @@
         <v>666</v>
       </c>
       <c r="S753" s="21">
-        <f t="shared" si="0"/>
         <v>5061.7283950617284</v>
       </c>
       <c r="W753" s="21">
@@ -39039,9 +38858,7 @@
         <v>3.1</v>
       </c>
       <c r="D754" s="28"/>
-      <c r="E754" s="42">
-        <v>694</v>
-      </c>
+      <c r="E754" s="42"/>
       <c r="F754" s="21">
         <v>1443</v>
       </c>
@@ -39064,7 +38881,6 @@
         <v>1294</v>
       </c>
       <c r="S754" s="21">
-        <f t="shared" si="0"/>
         <v>16123.919308357348</v>
       </c>
       <c r="W754" s="21">
@@ -39085,9 +38901,7 @@
         <v>3.6</v>
       </c>
       <c r="D755" s="28"/>
-      <c r="E755" s="42">
-        <v>694</v>
-      </c>
+      <c r="E755" s="42"/>
       <c r="F755" s="21">
         <v>1847</v>
       </c>
@@ -39110,7 +38924,6 @@
         <v>1670</v>
       </c>
       <c r="S755" s="21">
-        <f t="shared" si="0"/>
         <v>20230.547550432275</v>
       </c>
       <c r="W755" s="21">
@@ -39131,9 +38944,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="D756" s="28"/>
-      <c r="E756" s="42">
-        <v>694</v>
-      </c>
+      <c r="E756" s="42"/>
       <c r="F756" s="21">
         <v>2287</v>
       </c>
@@ -39156,7 +38967,6 @@
         <v>2083</v>
       </c>
       <c r="S756" s="21">
-        <f t="shared" si="0"/>
         <v>24726.224783861671</v>
       </c>
       <c r="W756" s="21">
@@ -39177,9 +38987,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="D757" s="28"/>
-      <c r="E757" s="42">
-        <v>694</v>
-      </c>
+      <c r="E757" s="42"/>
       <c r="F757" s="21">
         <v>3025</v>
       </c>
@@ -39202,7 +39010,6 @@
         <v>2772</v>
       </c>
       <c r="S757" s="21">
-        <f t="shared" si="0"/>
         <v>32276.657060518733</v>
       </c>
       <c r="W757" s="21">
@@ -39223,9 +39030,7 @@
         <v>5.6</v>
       </c>
       <c r="D758" s="28"/>
-      <c r="E758" s="42">
-        <v>694</v>
-      </c>
+      <c r="E758" s="42"/>
       <c r="F758" s="21">
         <v>4188</v>
       </c>
@@ -39248,7 +39053,6 @@
         <v>3874</v>
       </c>
       <c r="S758" s="21">
-        <f t="shared" si="0"/>
         <v>44077.809798270893</v>
       </c>
       <c r="W758" s="21">
@@ -52352,7 +52156,7 @@
         <v>1453.0917380947396</v>
       </c>
       <c r="S1230" s="21">
-        <f t="shared" ref="S1230:S1234" si="1">M1230/E1230*10000</f>
+        <f t="shared" ref="S1230:S1234" si="0">M1230/E1230*10000</f>
         <v>11718.481758828546</v>
       </c>
       <c r="U1230" s="21">
@@ -52416,7 +52220,7 @@
         <v>3784.833849917014</v>
       </c>
       <c r="S1231" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30871.401712210554</v>
       </c>
       <c r="U1231" s="21">
@@ -52480,7 +52284,7 @@
         <v>7062.4584022535973</v>
       </c>
       <c r="S1232" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>58223.07009277492</v>
       </c>
       <c r="V1232" s="43">
@@ -52541,7 +52345,7 @@
         <v>9718.1440279723956</v>
       </c>
       <c r="S1233" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>82848.627689449248</v>
       </c>
       <c r="V1233" s="43">
@@ -52602,7 +52406,7 @@
         <v>11732.081554217362</v>
       </c>
       <c r="S1234" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>106076.68674699243</v>
       </c>
       <c r="U1234" s="21">
@@ -52740,7 +52544,7 @@
         <v>19847.535092434064</v>
       </c>
       <c r="S1239" s="21">
-        <f t="shared" ref="S1239" si="2">M1239/E1239*10000</f>
+        <f t="shared" ref="S1239" si="1">M1239/E1239*10000</f>
         <v>242931.88607630433</v>
       </c>
       <c r="U1239" s="21">
@@ -52865,7 +52669,7 @@
         <v>2317.7052375119029</v>
       </c>
       <c r="S1241" s="21">
-        <f t="shared" ref="S1241:S1245" si="3">M1241/E1241*10000</f>
+        <f t="shared" ref="S1241:S1245" si="2">M1241/E1241*10000</f>
         <v>9244.9351316789107</v>
       </c>
       <c r="U1241" s="21">
@@ -52929,7 +52733,7 @@
         <v>5292.0694450720694</v>
       </c>
       <c r="S1242" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>21804.98329242715</v>
       </c>
       <c r="U1242" s="21">
@@ -52993,7 +52797,7 @@
         <v>9844.1963569651525</v>
       </c>
       <c r="S1243" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>42912.800161138417</v>
       </c>
       <c r="V1243" s="43">
@@ -53054,7 +52858,7 @@
         <v>13145.510351194249</v>
       </c>
       <c r="S1244" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60107.500462708042</v>
       </c>
       <c r="V1244" s="43">
@@ -53115,7 +52919,7 @@
         <v>16317.842044498891</v>
       </c>
       <c r="S1245" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>81589.210222494468</v>
       </c>
       <c r="V1245" s="43">
@@ -53255,7 +53059,7 @@
         <v>22619.608488073354</v>
       </c>
       <c r="S1250" s="21">
-        <f t="shared" ref="S1250" si="4">M1250/E1250*10000</f>
+        <f t="shared" ref="S1250" si="3">M1250/E1250*10000</f>
         <v>176302.48237001832</v>
       </c>
       <c r="V1250" s="43">
@@ -53379,7 +53183,7 @@
         <v>883.14685643901771</v>
       </c>
       <c r="S1252" s="21">
-        <f t="shared" ref="S1252:S1256" si="5">M1252/E1252*10000</f>
+        <f t="shared" ref="S1252:S1256" si="4">M1252/E1252*10000</f>
         <v>6762.2270783998292</v>
       </c>
       <c r="V1252" s="43">
@@ -53440,7 +53244,7 @@
         <v>2083.1945827940012</v>
       </c>
       <c r="S1253" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15950.953926447175</v>
       </c>
       <c r="V1253" s="43">
@@ -53501,7 +53305,7 @@
         <v>4532.3365834993901</v>
       </c>
       <c r="S1254" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>35408.879558588982</v>
       </c>
       <c r="V1254" s="43">
@@ -53562,7 +53366,7 @@
         <v>6553.4680441862492</v>
       </c>
       <c r="S1255" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>52302.219027823223</v>
       </c>
       <c r="V1255" s="43">
@@ -53623,7 +53427,7 @@
         <v>9080.0180770464085</v>
       </c>
       <c r="S1256" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>75666.81730872007</v>
       </c>
       <c r="V1256" s="43">
@@ -53705,7 +53509,7 @@
         <v>10</v>
       </c>
       <c r="D1260" s="21">
-        <f t="shared" ref="D1260:D1261" si="6">E1260/E$1225*100</f>
+        <f t="shared" ref="D1260:D1261" si="5">E1260/E$1225*100</f>
         <v>86.196549137284322</v>
       </c>
       <c r="E1260" s="21">
@@ -53733,7 +53537,7 @@
         <v>12.1</v>
       </c>
       <c r="D1261" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>83.195798949737437</v>
       </c>
       <c r="E1261" s="21">
@@ -53758,7 +53562,7 @@
         <v>16038.983021426331</v>
       </c>
       <c r="S1261" s="21">
-        <f t="shared" ref="S1261" si="7">M1261/E1261*10000</f>
+        <f t="shared" ref="S1261" si="6">M1261/E1261*10000</f>
         <v>144625.63590104898</v>
       </c>
       <c r="V1261" s="43">
@@ -53877,7 +53681,7 @@
         <v>1320.0378834186677</v>
       </c>
       <c r="S1263" s="21">
-        <f t="shared" ref="S1263:S1267" si="8">M1263/E1263*10000</f>
+        <f t="shared" ref="S1263:S1267" si="7">M1263/E1263*10000</f>
         <v>5102.5816908336592</v>
       </c>
       <c r="V1263" s="43">
@@ -53938,7 +53742,7 @@
         <v>2668.5273415517941</v>
       </c>
       <c r="S1264" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>10315.14241032777</v>
       </c>
       <c r="V1264" s="43">
@@ -53999,7 +53803,7 @@
         <v>6693.037250926156</v>
       </c>
       <c r="S1265" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>26412.933113362888</v>
       </c>
       <c r="V1265" s="43">
@@ -54060,7 +53864,7 @@
         <v>8799.1791397126835</v>
       </c>
       <c r="S1266" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>35098.440924262795</v>
       </c>
       <c r="V1266" s="43">
@@ -54121,7 +53925,7 @@
         <v>12086.795940494598</v>
       </c>
       <c r="S1267" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>50361.649752060825</v>
       </c>
       <c r="V1267" s="43">
@@ -54203,7 +54007,7 @@
         <v>10</v>
       </c>
       <c r="D1271" s="21">
-        <f t="shared" ref="D1271:D1272" si="9">E1271/E$1226*100</f>
+        <f t="shared" ref="D1271:D1272" si="8">E1271/E$1226*100</f>
         <v>82.977127859017614</v>
       </c>
       <c r="E1271" s="21">
@@ -54231,7 +54035,7 @@
         <v>12.1</v>
       </c>
       <c r="D1272" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>76.565429321334832</v>
       </c>
       <c r="E1272" s="21">
@@ -54256,7 +54060,7 @@
         <v>20675.87223779206</v>
       </c>
       <c r="S1272" s="21">
-        <f t="shared" ref="S1272" si="10">M1272/E1272*10000</f>
+        <f t="shared" ref="S1272" si="9">M1272/E1272*10000</f>
         <v>101253.04719780637</v>
       </c>
       <c r="V1272" s="43">

--- a/Tests/Validation/Eucalyptus/Observed.xlsx
+++ b/Tests/Validation/Eucalyptus/Observed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMxSourceTree\Tests\Validation\Eucalyptus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380A22C7-79A9-42C5-A212-9597CC54F5A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E42446-0A1D-4E57-B26F-881FB8C3AA54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="653" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17670" tabRatio="653" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GympieBiomass" sheetId="1" r:id="rId1"/>
@@ -5619,11 +5619,11 @@
       <selection activeCell="Y2" sqref="Y2:Y41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="5" max="5" width="28.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -9403,7 +9403,7 @@
       <selection activeCell="H2" sqref="H2:H97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -12744,11 +12744,11 @@
       <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -14394,12 +14394,12 @@
       <selection activeCell="C2" sqref="C2:C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.54296875" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -16571,9 +16571,9 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="17" max="17" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -17589,7 +17589,7 @@
       <selection activeCell="E9" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
   </cols>
@@ -17608,7 +17608,7 @@
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
     </row>
-    <row r="3" spans="1:12" ht="28.5" thickBot="1">
+    <row r="3" spans="1:12" ht="29.25" thickBot="1">
       <c r="B3" s="9" t="s">
         <v>78</v>
       </c>
@@ -17901,7 +17901,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.5">
+    <row r="20" spans="1:8" ht="15">
       <c r="A20" s="45" t="s">
         <v>86</v>
       </c>
@@ -17918,7 +17918,7 @@
         <v>17.676767676767678</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.5">
+    <row r="21" spans="1:8" ht="15">
       <c r="A21" s="45"/>
       <c r="B21" s="13">
         <v>2</v>
@@ -17933,7 +17933,7 @@
         <v>122.14452214452214</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.5">
+    <row r="22" spans="1:8" ht="15">
       <c r="A22" s="45"/>
       <c r="B22" s="13">
         <v>3</v>
@@ -18198,38 +18198,38 @@
   <dimension ref="A1:BV2656"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5720" ySplit="1420" topLeftCell="C44" activePane="bottomRight"/>
+      <pane xSplit="5715" ySplit="1425" topLeftCell="F1" activePane="bottomRight"/>
       <selection pane="topRight" activeCell="BO1" sqref="BO1"/>
       <selection pane="bottomLeft" activeCell="A671" sqref="A671:E718"/>
-      <selection pane="bottomRight" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="28" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" style="19" customWidth="1"/>
-    <col min="3" max="4" width="9.453125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7265625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="20.26953125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="25.26953125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="22.453125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="21.7265625" style="19" customWidth="1"/>
-    <col min="10" max="10" width="23.7265625" style="19" customWidth="1"/>
-    <col min="11" max="11" width="17.7265625" style="19" customWidth="1"/>
-    <col min="12" max="12" width="15.7265625" style="19" customWidth="1"/>
-    <col min="13" max="14" width="25.54296875" style="19" customWidth="1"/>
-    <col min="15" max="15" width="20.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="19" customWidth="1"/>
+    <col min="3" max="4" width="9.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="19" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="19" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="19" customWidth="1"/>
+    <col min="13" max="14" width="25.5703125" style="19" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" style="19" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" style="19" customWidth="1"/>
-    <col min="17" max="17" width="10.453125" style="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.453125" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" style="19" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" style="19" customWidth="1"/>
-    <col min="20" max="24" width="9.453125" style="19" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="9.26953125" style="19"/>
-    <col min="27" max="35" width="9.453125" style="19" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.54296875" style="19" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="9.26953125" style="19"/>
-    <col min="40" max="71" width="9.453125" style="19" bestFit="1" customWidth="1"/>
-    <col min="72" max="16384" width="9.26953125" style="19"/>
+    <col min="20" max="24" width="9.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="9.28515625" style="19"/>
+    <col min="27" max="35" width="9.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="9.28515625" style="19"/>
+    <col min="40" max="71" width="9.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="72" max="16384" width="9.28515625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:74" ht="66" customHeight="1">
@@ -18448,7 +18448,7 @@
       </c>
       <c r="BV1" s="6"/>
     </row>
-    <row r="2" spans="1:74" s="21" customFormat="1" ht="14.5">
+    <row r="2" spans="1:74" s="21" customFormat="1" ht="15">
       <c r="A2" s="19" t="s">
         <v>241</v>
       </c>
@@ -18468,6 +18468,10 @@
       <c r="J2" s="21">
         <v>9</v>
       </c>
+      <c r="M2" s="21">
+        <f>N2-J2</f>
+        <v>1</v>
+      </c>
       <c r="N2" s="21">
         <v>10</v>
       </c>
@@ -18487,7 +18491,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:74" s="21" customFormat="1" ht="14.5">
+    <row r="3" spans="1:74" s="21" customFormat="1" ht="15">
       <c r="A3" s="19" t="s">
         <v>241</v>
       </c>
@@ -18507,6 +18511,10 @@
       <c r="J3" s="21">
         <v>218.00000000000003</v>
       </c>
+      <c r="M3" s="21">
+        <f t="shared" ref="M3:M4" si="0">N3-J3</f>
+        <v>78.999999999999972</v>
+      </c>
       <c r="N3" s="21">
         <v>297</v>
       </c>
@@ -18526,7 +18534,7 @@
         <v>0.39273927392739272</v>
       </c>
     </row>
-    <row r="4" spans="1:74" s="21" customFormat="1" ht="14.5">
+    <row r="4" spans="1:74" s="21" customFormat="1" ht="15">
       <c r="A4" s="19" t="s">
         <v>241</v>
       </c>
@@ -18546,6 +18554,10 @@
       <c r="J4" s="21">
         <v>796</v>
       </c>
+      <c r="M4" s="21">
+        <f t="shared" si="0"/>
+        <v>333</v>
+      </c>
       <c r="N4" s="21">
         <v>1129</v>
       </c>
@@ -18565,7 +18577,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="5" spans="1:74" s="21" customFormat="1" ht="14.5">
+    <row r="5" spans="1:74" s="21" customFormat="1" ht="15">
       <c r="A5" s="19" t="s">
         <v>242</v>
       </c>
@@ -18582,7 +18594,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:74" s="21" customFormat="1" ht="14.5">
+    <row r="6" spans="1:74" s="21" customFormat="1" ht="15">
       <c r="A6" s="19" t="s">
         <v>241</v>
       </c>
@@ -18610,7 +18622,7 @@
         <v>1.9426789277633443</v>
       </c>
     </row>
-    <row r="7" spans="1:74" s="21" customFormat="1" ht="14.5">
+    <row r="7" spans="1:74" s="21" customFormat="1" ht="15">
       <c r="A7" s="19" t="s">
         <v>241</v>
       </c>
@@ -18638,7 +18650,7 @@
         <v>15.096521210599681</v>
       </c>
     </row>
-    <row r="8" spans="1:74" s="21" customFormat="1" ht="14.5">
+    <row r="8" spans="1:74" s="21" customFormat="1" ht="15">
       <c r="A8" s="19" t="s">
         <v>241</v>
       </c>
@@ -18666,7 +18678,7 @@
         <v>39.388727951357751</v>
       </c>
     </row>
-    <row r="9" spans="1:74" s="21" customFormat="1" ht="14.5">
+    <row r="9" spans="1:74" s="21" customFormat="1" ht="15">
       <c r="A9" s="19" t="s">
         <v>241</v>
       </c>
@@ -18695,7 +18707,7 @@
         <v>101.31660809576069</v>
       </c>
     </row>
-    <row r="10" spans="1:74" s="21" customFormat="1" ht="14.5">
+    <row r="10" spans="1:74" s="21" customFormat="1" ht="15">
       <c r="A10" s="19" t="s">
         <v>241</v>
       </c>
@@ -18725,7 +18737,7 @@
         <v>139.40667447566162</v>
       </c>
     </row>
-    <row r="11" spans="1:74" s="21" customFormat="1" ht="14.5">
+    <row r="11" spans="1:74" s="21" customFormat="1" ht="15">
       <c r="A11" s="19" t="s">
         <v>241</v>
       </c>
@@ -18756,7 +18768,7 @@
         <v>167.36501331721334</v>
       </c>
     </row>
-    <row r="12" spans="1:74" s="21" customFormat="1" ht="14.5">
+    <row r="12" spans="1:74" s="21" customFormat="1" ht="15">
       <c r="A12" s="19" t="s">
         <v>241</v>
       </c>
@@ -18817,7 +18829,7 @@
         <v>188.96612069258379</v>
       </c>
     </row>
-    <row r="13" spans="1:74" s="21" customFormat="1" ht="14.5">
+    <row r="13" spans="1:74" s="21" customFormat="1" ht="15">
       <c r="A13" s="19" t="s">
         <v>241</v>
       </c>
@@ -18848,7 +18860,7 @@
         <v>248.97227764592799</v>
       </c>
     </row>
-    <row r="14" spans="1:74" s="21" customFormat="1" ht="14.5">
+    <row r="14" spans="1:74" s="21" customFormat="1" ht="15">
       <c r="A14" s="19" t="s">
         <v>241</v>
       </c>
@@ -18873,7 +18885,7 @@
         <v>18.850270588614894</v>
       </c>
     </row>
-    <row r="15" spans="1:74" s="21" customFormat="1" ht="14.5">
+    <row r="15" spans="1:74" s="21" customFormat="1" ht="15">
       <c r="A15" s="19" t="s">
         <v>243</v>
       </c>
@@ -18901,7 +18913,7 @@
         <v>2.0061805909191119</v>
       </c>
     </row>
-    <row r="16" spans="1:74" s="21" customFormat="1" ht="14.5">
+    <row r="16" spans="1:74" s="21" customFormat="1" ht="15">
       <c r="A16" s="19" t="s">
         <v>243</v>
       </c>
@@ -18929,7 +18941,7 @@
         <v>16.329298745839893</v>
       </c>
     </row>
-    <row r="17" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="17" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A17" s="19" t="s">
         <v>243</v>
       </c>
@@ -18957,7 +18969,7 @@
         <v>41.848533805687921</v>
       </c>
     </row>
-    <row r="18" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="18" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A18" s="19" t="s">
         <v>243</v>
       </c>
@@ -18986,7 +18998,7 @@
         <v>101.24735095649916</v>
       </c>
     </row>
-    <row r="19" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="19" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A19" s="19" t="s">
         <v>243</v>
       </c>
@@ -19017,7 +19029,7 @@
         <v>133.06600086229204</v>
       </c>
     </row>
-    <row r="20" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="20" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A20" s="19" t="s">
         <v>243</v>
       </c>
@@ -19048,7 +19060,7 @@
         <v>156.14235211034324</v>
       </c>
     </row>
-    <row r="21" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="21" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A21" s="19" t="s">
         <v>243</v>
       </c>
@@ -19100,7 +19112,7 @@
         <v>181.34308150337998</v>
       </c>
     </row>
-    <row r="22" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="22" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A22" s="19" t="s">
         <v>243</v>
       </c>
@@ -19131,7 +19143,7 @@
         <v>231.87330532112117</v>
       </c>
     </row>
-    <row r="23" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="23" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A23" s="19" t="s">
         <v>243</v>
       </c>
@@ -19156,7 +19168,7 @@
         <v>18.837776752138385</v>
       </c>
     </row>
-    <row r="24" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="24" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A24" s="19" t="s">
         <v>244</v>
       </c>
@@ -19184,7 +19196,7 @@
         <v>2.3603427067052385</v>
       </c>
     </row>
-    <row r="25" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="25" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A25" s="19" t="s">
         <v>244</v>
       </c>
@@ -19212,7 +19224,7 @@
         <v>18.977072034048113</v>
       </c>
     </row>
-    <row r="26" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="26" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A26" s="19" t="s">
         <v>244</v>
       </c>
@@ -19240,7 +19252,7 @@
         <v>50.602214951578482</v>
       </c>
     </row>
-    <row r="27" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="27" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A27" s="19" t="s">
         <v>244</v>
       </c>
@@ -19268,7 +19280,7 @@
         <v>117.79171282145163</v>
       </c>
     </row>
-    <row r="28" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="28" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A28" s="19" t="s">
         <v>244</v>
       </c>
@@ -19299,7 +19311,7 @@
         <v>152.14512203795954</v>
       </c>
     </row>
-    <row r="29" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="29" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A29" s="19" t="s">
         <v>244</v>
       </c>
@@ -19330,7 +19342,7 @@
         <v>172.45436399035779</v>
       </c>
     </row>
-    <row r="30" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="30" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A30" s="19" t="s">
         <v>244</v>
       </c>
@@ -19382,7 +19394,7 @@
         <v>189.88003773962174</v>
       </c>
     </row>
-    <row r="31" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="31" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A31" s="19" t="s">
         <v>244</v>
       </c>
@@ -19413,7 +19425,7 @@
         <v>255.56229942687821</v>
       </c>
     </row>
-    <row r="32" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="32" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A32" s="19" t="s">
         <v>244</v>
       </c>
@@ -19439,7 +19451,7 @@
         <v>18.498659772256818</v>
       </c>
     </row>
-    <row r="33" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="33" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A33" s="19" t="s">
         <v>245</v>
       </c>
@@ -19468,7 +19480,7 @@
         <v>2.6730136476891326</v>
       </c>
     </row>
-    <row r="34" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="34" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A34" s="19" t="s">
         <v>245</v>
       </c>
@@ -19496,7 +19508,7 @@
         <v>21.35403136519728</v>
       </c>
     </row>
-    <row r="35" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="35" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A35" s="19" t="s">
         <v>245</v>
       </c>
@@ -19524,7 +19536,7 @@
         <v>57.370120538373406</v>
       </c>
     </row>
-    <row r="36" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="36" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A36" s="19" t="s">
         <v>245</v>
       </c>
@@ -19552,7 +19564,7 @@
         <v>136.81665797034844</v>
       </c>
     </row>
-    <row r="37" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="37" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A37" s="19" t="s">
         <v>245</v>
       </c>
@@ -19583,7 +19595,7 @@
         <v>178.67833141737816</v>
       </c>
     </row>
-    <row r="38" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="38" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A38" s="19" t="s">
         <v>245</v>
       </c>
@@ -19614,7 +19626,7 @@
         <v>206.74798515350881</v>
       </c>
     </row>
-    <row r="39" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="39" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A39" s="19" t="s">
         <v>245</v>
       </c>
@@ -19666,7 +19678,7 @@
         <v>230.55640351483257</v>
       </c>
     </row>
-    <row r="40" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="40" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A40" s="19" t="s">
         <v>245</v>
       </c>
@@ -19697,7 +19709,7 @@
         <v>295.85786034175953</v>
       </c>
     </row>
-    <row r="41" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="41" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A41" s="19" t="s">
         <v>245</v>
       </c>
@@ -19722,7 +19734,7 @@
         <v>20.603287199210108</v>
       </c>
     </row>
-    <row r="42" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="42" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A42" s="19" t="s">
         <v>242</v>
       </c>
@@ -19750,7 +19762,7 @@
         <v>2.6281742649772797</v>
       </c>
     </row>
-    <row r="43" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="43" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A43" s="19" t="s">
         <v>242</v>
       </c>
@@ -19779,7 +19791,7 @@
         <v>20.837178308871835</v>
       </c>
     </row>
-    <row r="44" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="44" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A44" s="19" t="s">
         <v>242</v>
       </c>
@@ -19807,7 +19819,7 @@
         <v>51.203598398793382</v>
       </c>
     </row>
-    <row r="45" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="45" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A45" s="19" t="s">
         <v>242</v>
       </c>
@@ -19835,7 +19847,7 @@
         <v>130.97195857944882</v>
       </c>
     </row>
-    <row r="46" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="46" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A46" s="19" t="s">
         <v>242</v>
       </c>
@@ -19866,7 +19878,7 @@
         <v>174.67622931527399</v>
       </c>
     </row>
-    <row r="47" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="47" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A47" s="19" t="s">
         <v>242</v>
       </c>
@@ -19897,7 +19909,7 @@
         <v>202.43265843502064</v>
       </c>
     </row>
-    <row r="48" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="48" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A48" s="19" t="s">
         <v>242</v>
       </c>
@@ -19957,7 +19969,7 @@
         <v>223.07697055604172</v>
       </c>
     </row>
-    <row r="49" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="49" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A49" s="19" t="s">
         <v>242</v>
       </c>
@@ -19988,7 +20000,7 @@
         <v>285.36972760037713</v>
       </c>
     </row>
-    <row r="50" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="50" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A50" s="19" t="s">
         <v>242</v>
       </c>
@@ -20013,7 +20025,7 @@
         <v>20.516115178551352</v>
       </c>
     </row>
-    <row r="51" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="51" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A51" s="19" t="s">
         <v>246</v>
       </c>
@@ -20041,7 +20053,7 @@
         <v>2.5744859936703226</v>
       </c>
     </row>
-    <row r="52" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="52" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A52" s="19" t="s">
         <v>246</v>
       </c>
@@ -20069,7 +20081,7 @@
         <v>21.018709680981864</v>
       </c>
     </row>
-    <row r="53" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="53" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A53" s="19" t="s">
         <v>246</v>
       </c>
@@ -20097,7 +20109,7 @@
         <v>54.57772816814456</v>
       </c>
     </row>
-    <row r="54" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="54" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A54" s="19" t="s">
         <v>246</v>
       </c>
@@ -20125,7 +20137,7 @@
         <v>131.42271201340924</v>
       </c>
     </row>
-    <row r="55" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="55" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A55" s="19" t="s">
         <v>246</v>
       </c>
@@ -20156,7 +20168,7 @@
         <v>174.88425810987945</v>
       </c>
     </row>
-    <row r="56" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="56" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A56" s="19" t="s">
         <v>246</v>
       </c>
@@ -20187,7 +20199,7 @@
         <v>209.78832425820914</v>
       </c>
     </row>
-    <row r="57" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="57" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A57" s="19" t="s">
         <v>246</v>
       </c>
@@ -20239,7 +20251,7 @@
         <v>236.09137477941377</v>
       </c>
     </row>
-    <row r="58" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="58" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A58" s="19" t="s">
         <v>246</v>
       </c>
@@ -20270,7 +20282,7 @@
         <v>306.37150583325547</v>
       </c>
     </row>
-    <row r="59" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="59" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A59" s="19" t="s">
         <v>246</v>
       </c>
@@ -20295,7 +20307,7 @@
         <v>21.156096144900317</v>
       </c>
     </row>
-    <row r="60" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="60" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A60" s="19" t="s">
         <v>241</v>
       </c>
@@ -20345,7 +20357,7 @@
         <v>10.079000718259762</v>
       </c>
     </row>
-    <row r="61" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="61" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A61" s="19" t="s">
         <v>241</v>
       </c>
@@ -20395,7 +20407,7 @@
         <v>11.685911391252626</v>
       </c>
     </row>
-    <row r="62" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="62" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A62" s="19" t="s">
         <v>241</v>
       </c>
@@ -20445,7 +20457,7 @@
         <v>14.90033072662361</v>
       </c>
     </row>
-    <row r="63" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="63" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A63" s="19" t="s">
         <v>241</v>
       </c>
@@ -20459,7 +20471,7 @@
       <c r="O63" s="28"/>
       <c r="P63" s="28"/>
     </row>
-    <row r="64" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="64" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A64" s="19" t="s">
         <v>241</v>
       </c>
@@ -20512,7 +20524,7 @@
         <v>17.363172459910153</v>
       </c>
     </row>
-    <row r="65" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="65" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A65" s="19" t="s">
         <v>241</v>
       </c>
@@ -20562,7 +20574,7 @@
         <v>6.6696169470532949</v>
       </c>
     </row>
-    <row r="66" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="66" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A66" s="19" t="s">
         <v>241</v>
       </c>
@@ -20615,7 +20627,7 @@
         <v>7.3747252013804259</v>
       </c>
     </row>
-    <row r="67" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="67" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A67" s="19" t="s">
         <v>241</v>
       </c>
@@ -20641,7 +20653,7 @@
         <v>0.94628397024125499</v>
       </c>
     </row>
-    <row r="68" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="68" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A68" s="19" t="s">
         <v>241</v>
       </c>
@@ -20685,7 +20697,7 @@
         <v>0.66714995201648453</v>
       </c>
     </row>
-    <row r="69" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="69" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A69" s="19" t="s">
         <v>241</v>
       </c>
@@ -20735,7 +20747,7 @@
         <v>0.47054538010569125</v>
       </c>
     </row>
-    <row r="70" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="70" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A70" s="19" t="s">
         <v>241</v>
       </c>
@@ -20785,7 +20797,7 @@
         <v>5.873094944210324E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="71" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A71" s="19" t="s">
         <v>241</v>
       </c>
@@ -20838,7 +20850,7 @@
         <v>6.930677577094177E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="72" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A72" s="19" t="s">
         <v>241</v>
       </c>
@@ -20888,7 +20900,7 @@
         <v>9.5329369149928761E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="73" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A73" s="19" t="s">
         <v>241</v>
       </c>
@@ -20938,7 +20950,7 @@
         <v>6.1856425819963964E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="74" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A74" s="19" t="s">
         <v>241</v>
       </c>
@@ -20988,7 +21000,7 @@
         <v>0.6474670718136859</v>
       </c>
     </row>
-    <row r="75" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="75" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A75" s="19" t="s">
         <v>241</v>
       </c>
@@ -21038,7 +21050,7 @@
         <v>9.4374642346713056E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="76" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A76" s="19" t="s">
         <v>241</v>
       </c>
@@ -21087,7 +21099,7 @@
         <v>7.0984950535457489E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="77" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A77" s="19" t="s">
         <v>243</v>
       </c>
@@ -21135,7 +21147,7 @@
         <v>9.7844584893901576</v>
       </c>
     </row>
-    <row r="78" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="78" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A78" s="19" t="s">
         <v>243</v>
       </c>
@@ -21183,7 +21195,7 @@
         <v>34.521570229862277</v>
       </c>
     </row>
-    <row r="79" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="79" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A79" s="19" t="s">
         <v>243</v>
       </c>
@@ -21231,7 +21243,7 @@
         <v>11.637578349736559</v>
       </c>
     </row>
-    <row r="80" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="80" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A80" s="19" t="s">
         <v>243</v>
       </c>
@@ -21279,7 +21291,7 @@
         <v>11.3261155006106</v>
       </c>
     </row>
-    <row r="81" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="81" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A81" s="19" t="s">
         <v>243</v>
       </c>
@@ -21303,7 +21315,7 @@
         <v>0.75387806706770966</v>
       </c>
     </row>
-    <row r="82" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="82" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A82" s="19" t="s">
         <v>243</v>
       </c>
@@ -21327,7 +21339,7 @@
         <v>27.671030396613546</v>
       </c>
     </row>
-    <row r="83" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="83" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A83" s="19" t="s">
         <v>243</v>
       </c>
@@ -21351,7 +21363,7 @@
         <v>5.1358307616612207</v>
       </c>
     </row>
-    <row r="84" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="84" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A84" s="19" t="s">
         <v>243</v>
       </c>
@@ -21375,7 +21387,7 @@
         <v>1.0371591709278634</v>
       </c>
     </row>
-    <row r="85" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="85" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A85" s="19" t="s">
         <v>243</v>
       </c>
@@ -21399,7 +21411,7 @@
         <v>6.1784425593939124E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="86" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A86" s="19" t="s">
         <v>243</v>
       </c>
@@ -21423,7 +21435,7 @@
         <v>0.33500762160335079</v>
       </c>
     </row>
-    <row r="87" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="87" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A87" s="19" t="s">
         <v>243</v>
       </c>
@@ -21447,7 +21459,7 @@
         <v>6.6501004475052056E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="88" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A88" s="19" t="s">
         <v>243</v>
       </c>
@@ -21471,7 +21483,7 @@
         <v>3.0747952270142642</v>
       </c>
     </row>
-    <row r="89" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="89" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A89" s="19" t="s">
         <v>243</v>
       </c>
@@ -21495,7 +21507,7 @@
         <v>0.33685495944262428</v>
       </c>
     </row>
-    <row r="90" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="90" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A90" s="19" t="s">
         <v>243</v>
       </c>
@@ -21519,7 +21531,7 @@
         <v>0.92258896837337045</v>
       </c>
     </row>
-    <row r="91" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="91" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A91" s="19" t="s">
         <v>244</v>
       </c>
@@ -21567,7 +21579,7 @@
         <v>9.4406077618685842</v>
       </c>
     </row>
-    <row r="92" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="92" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A92" s="19" t="s">
         <v>244</v>
       </c>
@@ -21615,7 +21627,7 @@
         <v>11.43368036542992</v>
       </c>
     </row>
-    <row r="93" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="93" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A93" s="19" t="s">
         <v>244</v>
       </c>
@@ -21663,7 +21675,7 @@
         <v>11.839809086398784</v>
       </c>
     </row>
-    <row r="94" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="94" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A94" s="19" t="s">
         <v>244</v>
       </c>
@@ -21711,7 +21723,7 @@
         <v>16.828118242794741</v>
       </c>
     </row>
-    <row r="95" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="95" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A95" s="19" t="s">
         <v>244</v>
       </c>
@@ -21735,7 +21747,7 @@
         <v>0.83161547040279671</v>
       </c>
     </row>
-    <row r="96" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="96" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A96" s="19" t="s">
         <v>244</v>
       </c>
@@ -21759,7 +21771,7 @@
         <v>65.893438932903237</v>
       </c>
     </row>
-    <row r="97" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="97" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A97" s="19" t="s">
         <v>244</v>
       </c>
@@ -21807,7 +21819,7 @@
         <v>3.7846121844010248</v>
       </c>
     </row>
-    <row r="98" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="98" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A98" s="19" t="s">
         <v>244</v>
       </c>
@@ -21855,7 +21867,7 @@
         <v>0.18713490291496748</v>
       </c>
     </row>
-    <row r="99" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="99" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A99" s="19" t="s">
         <v>244</v>
       </c>
@@ -21903,7 +21915,7 @@
         <v>0.10066774698231512</v>
       </c>
     </row>
-    <row r="100" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="100" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A100" s="19" t="s">
         <v>244</v>
       </c>
@@ -21951,7 +21963,7 @@
         <v>0.35968099359058575</v>
       </c>
     </row>
-    <row r="101" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="101" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A101" s="19" t="s">
         <v>244</v>
       </c>
@@ -21999,7 +22011,7 @@
         <v>5.7847173807302171E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="102" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A102" s="19" t="s">
         <v>244</v>
       </c>
@@ -22047,7 +22059,7 @@
         <v>0.67552003968153784</v>
       </c>
     </row>
-    <row r="103" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="103" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A103" s="19" t="s">
         <v>244</v>
       </c>
@@ -22095,7 +22107,7 @@
         <v>6.2749639444376462E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="104" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A104" s="19" t="s">
         <v>244</v>
       </c>
@@ -22143,7 +22155,7 @@
         <v>0.41249979106525086</v>
       </c>
     </row>
-    <row r="105" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="105" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A105" s="19" t="s">
         <v>245</v>
       </c>
@@ -22191,7 +22203,7 @@
         <v>9.419450236258287</v>
       </c>
     </row>
-    <row r="106" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="106" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A106" s="19" t="s">
         <v>245</v>
       </c>
@@ -22239,7 +22251,7 @@
         <v>9.3401334531631885</v>
       </c>
     </row>
-    <row r="107" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="107" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A107" s="19" t="s">
         <v>245</v>
       </c>
@@ -22287,7 +22299,7 @@
         <v>10.298741742609275</v>
       </c>
     </row>
-    <row r="108" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="108" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A108" s="19" t="s">
         <v>245</v>
       </c>
@@ -22335,7 +22347,7 @@
         <v>14.521193298851429</v>
       </c>
     </row>
-    <row r="109" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="109" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A109" s="19" t="s">
         <v>245</v>
       </c>
@@ -22359,7 +22371,7 @@
         <v>0.86621470930413214</v>
       </c>
     </row>
-    <row r="110" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="110" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A110" s="19" t="s">
         <v>245</v>
       </c>
@@ -22383,7 +22395,7 @@
         <v>338.34705500248157</v>
       </c>
     </row>
-    <row r="111" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="111" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A111" s="19" t="s">
         <v>245</v>
       </c>
@@ -22407,7 +22419,7 @@
         <v>55.965755088271692</v>
       </c>
     </row>
-    <row r="112" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="112" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A112" s="19" t="s">
         <v>245</v>
       </c>
@@ -22431,7 +22443,7 @@
         <v>78.190293745097165</v>
       </c>
     </row>
-    <row r="113" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="113" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A113" s="19" t="s">
         <v>245</v>
       </c>
@@ -22455,7 +22467,7 @@
         <v>22.172038119143828</v>
       </c>
     </row>
-    <row r="114" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="114" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A114" s="19" t="s">
         <v>245</v>
       </c>
@@ -22479,7 +22491,7 @@
         <v>4.844112771007425</v>
       </c>
     </row>
-    <row r="115" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="115" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A115" s="19" t="s">
         <v>245</v>
       </c>
@@ -22503,7 +22515,7 @@
         <v>6.7844556958524288E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="116" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A116" s="19" t="s">
         <v>245</v>
       </c>
@@ -22527,7 +22539,7 @@
         <v>4.7924236291972679</v>
       </c>
     </row>
-    <row r="117" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="117" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A117" s="19" t="s">
         <v>245</v>
       </c>
@@ -22551,7 +22563,7 @@
         <v>1.450364750864239</v>
       </c>
     </row>
-    <row r="118" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="118" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A118" s="19" t="s">
         <v>245</v>
       </c>
@@ -22575,7 +22587,7 @@
         <v>0.84430898847258262</v>
       </c>
     </row>
-    <row r="119" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="119" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A119" s="19" t="s">
         <v>242</v>
       </c>
@@ -22623,7 +22635,7 @@
         <v>41.234905544025544</v>
       </c>
     </row>
-    <row r="120" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="120" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A120" s="19" t="s">
         <v>242</v>
       </c>
@@ -22671,7 +22683,7 @@
         <v>12.86863384147083</v>
       </c>
     </row>
-    <row r="121" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="121" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A121" s="19" t="s">
         <v>242</v>
       </c>
@@ -22719,7 +22731,7 @@
         <v>16.640169619293061</v>
       </c>
     </row>
-    <row r="122" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="122" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A122" s="19" t="s">
         <v>242</v>
       </c>
@@ -22731,7 +22743,7 @@
       </c>
       <c r="D122" s="28"/>
     </row>
-    <row r="123" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="123" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A123" s="19" t="s">
         <v>242</v>
       </c>
@@ -22779,7 +22791,7 @@
         <v>24.983449722927972</v>
       </c>
     </row>
-    <row r="124" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="124" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A124" s="19" t="s">
         <v>242</v>
       </c>
@@ -22827,7 +22839,7 @@
         <v>31.002288544297926</v>
       </c>
     </row>
-    <row r="125" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="125" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A125" s="19" t="s">
         <v>242</v>
       </c>
@@ -22875,7 +22887,7 @@
         <v>29.347517228375082</v>
       </c>
     </row>
-    <row r="126" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="126" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A126" s="19" t="s">
         <v>242</v>
       </c>
@@ -22890,7 +22902,7 @@
         <v>0.39530500000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="127" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A127" s="19" t="s">
         <v>242</v>
       </c>
@@ -22938,7 +22950,7 @@
         <v>6.6499907252767079</v>
       </c>
     </row>
-    <row r="128" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="128" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A128" s="19" t="s">
         <v>242</v>
       </c>
@@ -22986,7 +22998,7 @@
         <v>49.115818820025908</v>
       </c>
     </row>
-    <row r="129" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="129" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A129" s="19" t="s">
         <v>242</v>
       </c>
@@ -23034,7 +23046,7 @@
         <v>15.944970493800742</v>
       </c>
     </row>
-    <row r="130" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="130" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A130" s="19" t="s">
         <v>242</v>
       </c>
@@ -23082,7 +23094,7 @@
         <v>23.063030447917374</v>
       </c>
     </row>
-    <row r="131" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="131" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A131" s="19" t="s">
         <v>242</v>
       </c>
@@ -23130,7 +23142,7 @@
         <v>560.74127563131651</v>
       </c>
     </row>
-    <row r="132" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="132" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A132" s="19" t="s">
         <v>242</v>
       </c>
@@ -23178,7 +23190,7 @@
         <v>15.719066857918317</v>
       </c>
     </row>
-    <row r="133" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="133" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A133" s="19" t="s">
         <v>242</v>
       </c>
@@ -23226,7 +23238,7 @@
         <v>11.047987638645038</v>
       </c>
     </row>
-    <row r="134" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="134" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A134" s="19" t="s">
         <v>242</v>
       </c>
@@ -23274,7 +23286,7 @@
         <v>9.7634331557268386</v>
       </c>
     </row>
-    <row r="135" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="135" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A135" s="19" t="s">
         <v>242</v>
       </c>
@@ -23322,7 +23334,7 @@
         <v>4.3355429376293726</v>
       </c>
     </row>
-    <row r="136" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="136" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A136" s="19" t="s">
         <v>246</v>
       </c>
@@ -23370,7 +23382,7 @@
         <v>824.93629836659761</v>
       </c>
     </row>
-    <row r="137" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="137" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A137" s="19" t="s">
         <v>246</v>
       </c>
@@ -23409,7 +23421,7 @@
         <v>21.436412385817388</v>
       </c>
     </row>
-    <row r="138" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="138" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A138" s="19" t="s">
         <v>246</v>
       </c>
@@ -23457,7 +23469,7 @@
         <v>6.926323083632699</v>
       </c>
     </row>
-    <row r="139" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="139" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A139" s="19" t="s">
         <v>246</v>
       </c>
@@ -23505,7 +23517,7 @@
         <v>14.789109548005701</v>
       </c>
     </row>
-    <row r="140" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="140" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A140" s="19" t="s">
         <v>246</v>
       </c>
@@ -23553,7 +23565,7 @@
         <v>111.28373574953551</v>
       </c>
     </row>
-    <row r="141" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="141" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A141" s="19" t="s">
         <v>246</v>
       </c>
@@ -23577,7 +23589,7 @@
         <v>90.67307079961229</v>
       </c>
     </row>
-    <row r="142" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="142" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A142" s="19" t="s">
         <v>246</v>
       </c>
@@ -23601,7 +23613,7 @@
         <v>25.061850304553186</v>
       </c>
     </row>
-    <row r="143" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="143" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A143" s="19" t="s">
         <v>246</v>
       </c>
@@ -23625,7 +23637,7 @@
         <v>82.057972369569185</v>
       </c>
     </row>
-    <row r="144" spans="1:66" s="21" customFormat="1" ht="14.5">
+    <row r="144" spans="1:66" s="21" customFormat="1" ht="15">
       <c r="A144" s="19" t="s">
         <v>246</v>
       </c>
@@ -23673,7 +23685,7 @@
         <v>9.3868670445946698</v>
       </c>
     </row>
-    <row r="145" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="145" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A145" s="19" t="s">
         <v>246</v>
       </c>
@@ -23721,7 +23733,7 @@
         <v>23.756789819906544</v>
       </c>
     </row>
-    <row r="146" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="146" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A146" s="19" t="s">
         <v>246</v>
       </c>
@@ -23769,7 +23781,7 @@
         <v>13.918261615639144</v>
       </c>
     </row>
-    <row r="147" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="147" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A147" s="19" t="s">
         <v>246</v>
       </c>
@@ -23817,7 +23829,7 @@
         <v>14.354537477166136</v>
       </c>
     </row>
-    <row r="148" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="148" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A148" s="19" t="s">
         <v>246</v>
       </c>
@@ -23865,7 +23877,7 @@
         <v>7.9824216336980545</v>
       </c>
     </row>
-    <row r="149" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="149" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A149" s="19" t="s">
         <v>246</v>
       </c>
@@ -23913,7 +23925,7 @@
         <v>13.542938876157567</v>
       </c>
     </row>
-    <row r="150" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="150" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A150" s="19" t="s">
         <v>246</v>
       </c>
@@ -23961,7 +23973,7 @@
         <v>15.976011964873859</v>
       </c>
     </row>
-    <row r="151" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="151" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A151" s="19" t="s">
         <v>246</v>
       </c>
@@ -24009,7 +24021,7 @@
         <v>11.092706096821301</v>
       </c>
     </row>
-    <row r="152" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="152" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A152" s="19" t="s">
         <v>241</v>
       </c>
@@ -24024,7 +24036,7 @@
         <v>5.84</v>
       </c>
     </row>
-    <row r="153" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="153" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A153" s="19" t="s">
         <v>241</v>
       </c>
@@ -24036,7 +24048,7 @@
       </c>
       <c r="D153" s="28"/>
     </row>
-    <row r="154" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="154" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A154" s="19" t="s">
         <v>241</v>
       </c>
@@ -24051,7 +24063,7 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="155" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="155" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A155" s="19" t="s">
         <v>241</v>
       </c>
@@ -24066,7 +24078,7 @@
         <v>5.54</v>
       </c>
     </row>
-    <row r="156" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="156" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A156" s="19" t="s">
         <v>241</v>
       </c>
@@ -24078,7 +24090,7 @@
       </c>
       <c r="D156" s="28"/>
     </row>
-    <row r="157" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="157" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A157" s="19" t="s">
         <v>243</v>
       </c>
@@ -24093,7 +24105,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="158" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="158" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A158" s="19" t="s">
         <v>243</v>
       </c>
@@ -24108,7 +24120,7 @@
         <v>5.47</v>
       </c>
     </row>
-    <row r="159" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="159" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A159" s="19" t="s">
         <v>243</v>
       </c>
@@ -24123,7 +24135,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="160" spans="1:63" s="21" customFormat="1" ht="14.5">
+    <row r="160" spans="1:63" s="21" customFormat="1" ht="15">
       <c r="A160" s="19" t="s">
         <v>243</v>
       </c>
@@ -24138,7 +24150,7 @@
         <v>6.11</v>
       </c>
     </row>
-    <row r="161" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="161" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A161" s="19" t="s">
         <v>243</v>
       </c>
@@ -24153,7 +24165,7 @@
         <v>5.69</v>
       </c>
     </row>
-    <row r="162" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="162" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A162" s="19" t="s">
         <v>244</v>
       </c>
@@ -24168,7 +24180,7 @@
         <v>5.59</v>
       </c>
     </row>
-    <row r="163" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="163" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A163" s="19" t="s">
         <v>244</v>
       </c>
@@ -24183,7 +24195,7 @@
         <v>5.96</v>
       </c>
     </row>
-    <row r="164" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="164" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A164" s="19" t="s">
         <v>244</v>
       </c>
@@ -24198,7 +24210,7 @@
         <v>4.8499999999999899</v>
       </c>
     </row>
-    <row r="165" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="165" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A165" s="19" t="s">
         <v>244</v>
       </c>
@@ -24213,7 +24225,7 @@
         <v>5.3499999999999899</v>
       </c>
     </row>
-    <row r="166" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="166" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A166" s="19" t="s">
         <v>244</v>
       </c>
@@ -24228,7 +24240,7 @@
         <v>5.12</v>
       </c>
     </row>
-    <row r="167" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="167" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A167" s="19" t="s">
         <v>244</v>
       </c>
@@ -24243,7 +24255,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="168" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="168" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A168" s="19" t="s">
         <v>244</v>
       </c>
@@ -24255,7 +24267,7 @@
       </c>
       <c r="D168" s="28"/>
     </row>
-    <row r="169" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="169" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A169" s="19" t="s">
         <v>244</v>
       </c>
@@ -24270,7 +24282,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="170" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="170" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A170" s="19" t="s">
         <v>244</v>
       </c>
@@ -24285,7 +24297,7 @@
         <v>6.21</v>
       </c>
     </row>
-    <row r="171" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="171" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A171" s="19" t="s">
         <v>244</v>
       </c>
@@ -24300,7 +24312,7 @@
         <v>5.87</v>
       </c>
     </row>
-    <row r="172" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="172" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A172" s="19" t="s">
         <v>242</v>
       </c>
@@ -24315,7 +24327,7 @@
         <v>7.74</v>
       </c>
     </row>
-    <row r="173" spans="1:23" s="21" customFormat="1" ht="15.5">
+    <row r="173" spans="1:23" s="21" customFormat="1" ht="15.75">
       <c r="A173" s="19" t="s">
         <v>242</v>
       </c>
@@ -24335,7 +24347,7 @@
         <v>8.27</v>
       </c>
     </row>
-    <row r="174" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="174" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A174" s="19" t="s">
         <v>242</v>
       </c>
@@ -24354,7 +24366,7 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="175" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="175" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A175" s="19" t="s">
         <v>242</v>
       </c>
@@ -24371,7 +24383,7 @@
         <v>7.02</v>
       </c>
     </row>
-    <row r="176" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="176" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A176" s="19" t="s">
         <v>242</v>
       </c>
@@ -24385,7 +24397,7 @@
       <c r="O176" s="31"/>
       <c r="P176" s="31"/>
     </row>
-    <row r="177" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="177" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A177" s="19" t="s">
         <v>246</v>
       </c>
@@ -24403,7 +24415,7 @@
         <v>8.31</v>
       </c>
     </row>
-    <row r="178" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="178" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A178" s="19" t="s">
         <v>246</v>
       </c>
@@ -24421,7 +24433,7 @@
         <v>8.41</v>
       </c>
     </row>
-    <row r="179" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="179" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A179" s="19" t="s">
         <v>246</v>
       </c>
@@ -24438,7 +24450,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="180" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="180" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A180" s="19" t="s">
         <v>246</v>
       </c>
@@ -24455,7 +24467,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="181" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="181" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A181" s="19" t="s">
         <v>246</v>
       </c>
@@ -24472,7 +24484,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="182" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="182" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A182" s="19" t="s">
         <v>241</v>
       </c>
@@ -24489,7 +24501,7 @@
         <v>3.3352009052827341</v>
       </c>
     </row>
-    <row r="183" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="183" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A183" s="19" t="s">
         <v>241</v>
       </c>
@@ -24507,7 +24519,7 @@
         <v>5.3378061780489672</v>
       </c>
     </row>
-    <row r="184" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="184" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A184" s="19" t="s">
         <v>241</v>
       </c>
@@ -24525,7 +24537,7 @@
         <v>8.0304225893924048</v>
       </c>
     </row>
-    <row r="185" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="185" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A185" s="19" t="s">
         <v>241</v>
       </c>
@@ -24542,7 +24554,7 @@
         <v>4.5584479475526019</v>
       </c>
     </row>
-    <row r="186" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="186" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A186" s="19" t="s">
         <v>241</v>
       </c>
@@ -24559,7 +24571,7 @@
         <v>3.1607358328057575</v>
       </c>
     </row>
-    <row r="187" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="187" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A187" s="19" t="s">
         <v>241</v>
       </c>
@@ -24576,7 +24588,7 @@
         <v>1.5050467837428154E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="188" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A188" s="19" t="s">
         <v>241</v>
       </c>
@@ -24593,7 +24605,7 @@
         <v>1.276506997960839E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="189" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A189" s="19" t="s">
         <v>241</v>
       </c>
@@ -24610,7 +24622,7 @@
         <v>2.20123697901893E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="190" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A190" s="19" t="s">
         <v>241</v>
       </c>
@@ -24629,7 +24641,7 @@
         <v>2.8262423511851147E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="191" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A191" s="19" t="s">
         <v>241</v>
       </c>
@@ -24648,7 +24660,7 @@
         <v>1.7682570570030833E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="192" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A192" s="19" t="s">
         <v>241</v>
       </c>
@@ -24665,7 +24677,7 @@
         <v>1.7421730850087128E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="193" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A193" s="19" t="s">
         <v>241</v>
       </c>
@@ -24682,7 +24694,7 @@
         <v>3.1491859124216435E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="194" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A194" s="19" t="s">
         <v>241</v>
       </c>
@@ -24701,7 +24713,7 @@
         <v>8.2719385594224161E-4</v>
       </c>
     </row>
-    <row r="195" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="195" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A195" s="19" t="s">
         <v>241</v>
       </c>
@@ -24720,7 +24732,7 @@
         <v>7.8821646033169299E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="196" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A196" s="19" t="s">
         <v>241</v>
       </c>
@@ -24739,7 +24751,7 @@
         <v>1.5767542127177923E-3</v>
       </c>
     </row>
-    <row r="197" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="197" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A197" s="19" t="s">
         <v>241</v>
       </c>
@@ -24758,7 +24770,7 @@
         <v>1.1673992232268322E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="198" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A198" s="19" t="s">
         <v>243</v>
       </c>
@@ -24777,7 +24789,7 @@
         <v>3.4278499267179461</v>
       </c>
     </row>
-    <row r="199" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="199" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A199" s="19" t="s">
         <v>243</v>
       </c>
@@ -24794,7 +24806,7 @@
         <v>5.2203160861809872</v>
       </c>
     </row>
-    <row r="200" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="200" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A200" s="19" t="s">
         <v>243</v>
       </c>
@@ -24811,7 +24823,7 @@
         <v>5.1297015705723767</v>
       </c>
     </row>
-    <row r="201" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="201" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A201" s="19" t="s">
         <v>243</v>
       </c>
@@ -24830,7 +24842,7 @@
         <v>1.4970510148410185</v>
       </c>
     </row>
-    <row r="202" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="202" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A202" s="19" t="s">
         <v>243</v>
       </c>
@@ -24849,7 +24861,7 @@
         <v>8.2476476678703843E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:60" s="21" customFormat="1" ht="15.5">
+    <row r="203" spans="1:60" s="21" customFormat="1" ht="15.75">
       <c r="A203" s="19" t="s">
         <v>243</v>
       </c>
@@ -24869,7 +24881,7 @@
         <v>0.10537842420849793</v>
       </c>
     </row>
-    <row r="204" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="204" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A204" s="19" t="s">
         <v>243</v>
       </c>
@@ -24888,7 +24900,7 @@
         <v>0.18206283454524325</v>
       </c>
     </row>
-    <row r="205" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="205" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A205" s="19" t="s">
         <v>243</v>
       </c>
@@ -24905,7 +24917,7 @@
         <v>9.4621864181857699E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="206" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A206" s="19" t="s">
         <v>243</v>
       </c>
@@ -24923,7 +24935,7 @@
         <v>8.497981865892533E-4</v>
       </c>
     </row>
-    <row r="207" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="207" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A207" s="19" t="s">
         <v>243</v>
       </c>
@@ -24941,7 +24953,7 @@
         <v>1.8165397263731756E-3</v>
       </c>
     </row>
-    <row r="208" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="208" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A208" s="19" t="s">
         <v>243</v>
       </c>
@@ -24958,7 +24970,7 @@
         <v>8.3449588603376338E-4</v>
       </c>
     </row>
-    <row r="209" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="209" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A209" s="19" t="s">
         <v>243</v>
       </c>
@@ -24976,7 +24988,7 @@
         <v>5.6687186159300193E-3</v>
       </c>
     </row>
-    <row r="210" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="210" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A210" s="19" t="s">
         <v>243</v>
       </c>
@@ -24994,7 +25006,7 @@
         <v>8.3011889634349782E-4</v>
       </c>
     </row>
-    <row r="211" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="211" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A211" s="19" t="s">
         <v>243</v>
       </c>
@@ -25011,7 +25023,7 @@
         <v>8.1641918193268374E-4</v>
       </c>
     </row>
-    <row r="212" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="212" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A212" s="19" t="s">
         <v>244</v>
       </c>
@@ -25028,7 +25040,7 @@
         <v>2.6938648278388793</v>
       </c>
     </row>
-    <row r="213" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="213" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A213" s="19" t="s">
         <v>244</v>
       </c>
@@ -25046,7 +25058,7 @@
         <v>6.452122435962548</v>
       </c>
     </row>
-    <row r="214" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="214" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A214" s="19" t="s">
         <v>244</v>
       </c>
@@ -25064,7 +25076,7 @@
         <v>5.1018172749436133</v>
       </c>
     </row>
-    <row r="215" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="215" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A215" s="19" t="s">
         <v>244</v>
       </c>
@@ -25081,7 +25093,7 @@
         <v>1.7424952383830152</v>
       </c>
     </row>
-    <row r="216" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="216" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A216" s="19" t="s">
         <v>244</v>
       </c>
@@ -25098,7 +25110,7 @@
         <v>3.739454041136236E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="217" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A217" s="19" t="s">
         <v>244</v>
       </c>
@@ -25115,7 +25127,7 @@
         <v>9.7777313376750483E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="218" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A218" s="19" t="s">
         <v>244</v>
       </c>
@@ -25132,7 +25144,7 @@
         <v>0.20288923283812227</v>
       </c>
     </row>
-    <row r="219" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="219" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A219" s="19" t="s">
         <v>244</v>
       </c>
@@ -25151,7 +25163,7 @@
         <v>2.9056499987877918E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="220" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A220" s="19" t="s">
         <v>244</v>
       </c>
@@ -25170,7 +25182,7 @@
         <v>1.5482489708569375E-3</v>
       </c>
     </row>
-    <row r="221" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="221" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A221" s="19" t="s">
         <v>244</v>
       </c>
@@ -25187,7 +25199,7 @@
         <v>5.7773156985987386E-3</v>
       </c>
     </row>
-    <row r="222" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="222" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A222" s="19" t="s">
         <v>244</v>
       </c>
@@ -25204,7 +25216,7 @@
         <v>8.2153032670159742E-4</v>
       </c>
     </row>
-    <row r="223" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="223" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A223" s="19" t="s">
         <v>244</v>
       </c>
@@ -25223,7 +25235,7 @@
         <v>6.0908779903161292E-3</v>
       </c>
     </row>
-    <row r="224" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="224" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A224" s="19" t="s">
         <v>244</v>
       </c>
@@ -25242,7 +25254,7 @@
         <v>8.1727177398017818E-4</v>
       </c>
     </row>
-    <row r="225" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="225" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A225" s="19" t="s">
         <v>244</v>
       </c>
@@ -25261,7 +25273,7 @@
         <v>1.1679178605533773E-3</v>
       </c>
     </row>
-    <row r="226" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="226" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A226" s="19" t="s">
         <v>245</v>
       </c>
@@ -25280,7 +25292,7 @@
         <v>1.5960658302495594</v>
       </c>
     </row>
-    <row r="227" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="227" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A227" s="19" t="s">
         <v>245</v>
       </c>
@@ -25299,7 +25311,7 @@
         <v>2.0466595203545253</v>
       </c>
     </row>
-    <row r="228" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="228" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A228" s="19" t="s">
         <v>245</v>
       </c>
@@ -25318,7 +25330,7 @@
         <v>4.5401834369107927</v>
       </c>
     </row>
-    <row r="229" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="229" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A229" s="6" t="s">
         <v>245</v>
       </c>
@@ -25335,7 +25347,7 @@
         <v>2.5681216967828662</v>
       </c>
     </row>
-    <row r="230" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="230" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A230" s="6" t="s">
         <v>245</v>
       </c>
@@ -25352,7 +25364,7 @@
         <v>2.4229664463747817E-3</v>
       </c>
     </row>
-    <row r="231" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="231" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A231" s="6" t="s">
         <v>245</v>
       </c>
@@ -25369,7 +25381,7 @@
         <v>0.20927478286751297</v>
       </c>
     </row>
-    <row r="232" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="232" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A232" s="6" t="s">
         <v>245</v>
       </c>
@@ -25386,7 +25398,7 @@
         <v>1.3752510968520772</v>
       </c>
     </row>
-    <row r="233" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="233" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A233" s="6" t="s">
         <v>245</v>
       </c>
@@ -25403,7 +25415,7 @@
         <v>0.78560945201600973</v>
       </c>
     </row>
-    <row r="234" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="234" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A234" s="6" t="s">
         <v>245</v>
       </c>
@@ -25420,7 +25432,7 @@
         <v>6.7027095434819522E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="235" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A235" s="6" t="s">
         <v>245</v>
       </c>
@@ -25437,7 +25449,7 @@
         <v>0.18166936576272241</v>
       </c>
     </row>
-    <row r="236" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="236" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A236" s="6" t="s">
         <v>245</v>
       </c>
@@ -25454,7 +25466,7 @@
         <v>8.2968760106616446E-4</v>
       </c>
     </row>
-    <row r="237" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="237" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A237" s="6" t="s">
         <v>245</v>
       </c>
@@ -25471,7 +25483,7 @@
         <v>7.3985599974694671E-3</v>
       </c>
     </row>
-    <row r="238" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="238" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A238" s="6" t="s">
         <v>245</v>
       </c>
@@ -25488,7 +25500,7 @@
         <v>4.0576557604792646E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="239" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A239" s="6" t="s">
         <v>245</v>
       </c>
@@ -25505,7 +25517,7 @@
         <v>8.0342936321758105E-4</v>
       </c>
     </row>
-    <row r="240" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="240" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A240" s="6" t="s">
         <v>242</v>
       </c>
@@ -25522,7 +25534,7 @@
         <v>2.2402077740333182</v>
       </c>
     </row>
-    <row r="241" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="241" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A241" s="6" t="s">
         <v>242</v>
       </c>
@@ -25539,7 +25551,7 @@
         <v>4.5270824061718837</v>
       </c>
     </row>
-    <row r="242" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="242" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A242" s="6" t="s">
         <v>242</v>
       </c>
@@ -25556,7 +25568,7 @@
         <v>5.3324586936767862</v>
       </c>
     </row>
-    <row r="243" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="243" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A243" s="6" t="s">
         <v>242</v>
       </c>
@@ -25573,7 +25585,7 @@
         <v>3.16111430435034</v>
       </c>
     </row>
-    <row r="244" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="244" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A244" s="6" t="s">
         <v>242</v>
       </c>
@@ -25590,7 +25602,7 @@
         <v>2.2421145654773214</v>
       </c>
     </row>
-    <row r="245" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="245" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A245" s="6" t="s">
         <v>242</v>
       </c>
@@ -25607,7 +25619,7 @@
         <v>0.47433514051772585</v>
       </c>
     </row>
-    <row r="246" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="246" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A246" s="6" t="s">
         <v>242</v>
       </c>
@@ -25624,7 +25636,7 @@
         <v>0.10094030205784604</v>
       </c>
     </row>
-    <row r="247" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="247" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A247" s="6" t="s">
         <v>242</v>
       </c>
@@ -25641,7 +25653,7 @@
         <v>0.19913247885824009</v>
       </c>
     </row>
-    <row r="248" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="248" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A248" s="6" t="s">
         <v>242</v>
       </c>
@@ -25658,7 +25670,7 @@
         <v>2.0176712233537311</v>
       </c>
     </row>
-    <row r="249" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="249" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A249" s="6" t="s">
         <v>242</v>
       </c>
@@ -25675,7 +25687,7 @@
         <v>3.1035203683652046</v>
       </c>
     </row>
-    <row r="250" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="250" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A250" s="6" t="s">
         <v>242</v>
       </c>
@@ -25692,7 +25704,7 @@
         <v>1.2559729903044137</v>
       </c>
     </row>
-    <row r="251" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="251" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A251" s="6" t="s">
         <v>242</v>
       </c>
@@ -25709,7 +25721,7 @@
         <v>0.43528950873451477</v>
       </c>
     </row>
-    <row r="252" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="252" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A252" s="6" t="s">
         <v>242</v>
       </c>
@@ -25726,7 +25738,7 @@
         <v>0.44975707102981433</v>
       </c>
     </row>
-    <row r="253" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="253" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A253" s="6" t="s">
         <v>242</v>
       </c>
@@ -25743,7 +25755,7 @@
         <v>0.33009040459632483</v>
       </c>
     </row>
-    <row r="254" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="254" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A254" s="6" t="s">
         <v>242</v>
       </c>
@@ -25760,7 +25772,7 @@
         <v>0.61933810363663644</v>
       </c>
     </row>
-    <row r="255" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="255" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A255" s="6" t="s">
         <v>242</v>
       </c>
@@ -25777,7 +25789,7 @@
         <v>0.10517262170754198</v>
       </c>
     </row>
-    <row r="256" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="256" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A256" s="6" t="s">
         <v>246</v>
       </c>
@@ -25794,7 +25806,7 @@
         <v>2.7071361606441093</v>
       </c>
     </row>
-    <row r="257" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="257" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A257" s="6" t="s">
         <v>246</v>
       </c>
@@ -25811,7 +25823,7 @@
         <v>3.5658683072262058</v>
       </c>
     </row>
-    <row r="258" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="258" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A258" s="6" t="s">
         <v>246</v>
       </c>
@@ -25828,7 +25840,7 @@
         <v>3.1045502950758488</v>
       </c>
     </row>
-    <row r="259" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="259" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A259" s="6" t="s">
         <v>246</v>
       </c>
@@ -25845,7 +25857,7 @@
         <v>2.3436297375993616</v>
       </c>
     </row>
-    <row r="260" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="260" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A260" s="6" t="s">
         <v>246</v>
       </c>
@@ -25862,7 +25874,7 @@
         <v>0.52128376577422708</v>
       </c>
     </row>
-    <row r="261" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="261" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A261" s="6" t="s">
         <v>246</v>
       </c>
@@ -25879,7 +25891,7 @@
         <v>0.65220436338273735</v>
       </c>
     </row>
-    <row r="262" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="262" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A262" s="6" t="s">
         <v>246</v>
       </c>
@@ -25896,7 +25908,7 @@
         <v>0.72653811030800075</v>
       </c>
     </row>
-    <row r="263" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="263" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A263" s="6" t="s">
         <v>246</v>
       </c>
@@ -25913,7 +25925,7 @@
         <v>1.9010029902286769</v>
       </c>
     </row>
-    <row r="264" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="264" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A264" s="6" t="s">
         <v>246</v>
       </c>
@@ -25930,7 +25942,7 @@
         <v>2.2628423596942753</v>
       </c>
     </row>
-    <row r="265" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="265" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A265" s="6" t="s">
         <v>246</v>
       </c>
@@ -25947,7 +25959,7 @@
         <v>1.3363237898911655</v>
       </c>
     </row>
-    <row r="266" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="266" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A266" s="6" t="s">
         <v>246</v>
       </c>
@@ -25964,7 +25976,7 @@
         <v>0.7415113449173163</v>
       </c>
     </row>
-    <row r="267" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="267" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A267" s="6" t="s">
         <v>246</v>
       </c>
@@ -25981,7 +25993,7 @@
         <v>0.57678704859443375</v>
       </c>
     </row>
-    <row r="268" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="268" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A268" s="6" t="s">
         <v>246</v>
       </c>
@@ -25998,7 +26010,7 @@
         <v>0.6491992359076123</v>
       </c>
     </row>
-    <row r="269" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="269" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A269" s="6" t="s">
         <v>246</v>
       </c>
@@ -26015,7 +26027,7 @@
         <v>1.1749373235460279</v>
       </c>
     </row>
-    <row r="270" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="270" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A270" s="6" t="s">
         <v>246</v>
       </c>
@@ -26032,7 +26044,7 @@
         <v>0.41992922457391135</v>
       </c>
     </row>
-    <row r="271" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="271" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A271" s="6" t="s">
         <v>247</v>
       </c>
@@ -26046,7 +26058,7 @@
       <c r="O271" s="33"/>
       <c r="P271" s="33"/>
     </row>
-    <row r="272" spans="1:60" s="21" customFormat="1" ht="14.5">
+    <row r="272" spans="1:60" s="21" customFormat="1" ht="15">
       <c r="A272" s="6" t="s">
         <v>247</v>
       </c>
@@ -26078,7 +26090,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="273" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A273" s="6" t="s">
         <v>248</v>
       </c>
@@ -26110,7 +26122,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="274" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="274" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A274" s="6" t="s">
         <v>248</v>
       </c>
@@ -26142,7 +26154,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="275" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="275" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A275" s="6" t="s">
         <v>248</v>
       </c>
@@ -26177,7 +26189,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="276" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="276" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A276" s="6" t="s">
         <v>248</v>
       </c>
@@ -26209,7 +26221,7 @@
         <v>55.869905942594535</v>
       </c>
     </row>
-    <row r="277" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="277" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A277" s="6" t="s">
         <v>249</v>
       </c>
@@ -26241,7 +26253,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="278" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="278" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A278" s="6" t="s">
         <v>249</v>
       </c>
@@ -26273,7 +26285,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="279" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="279" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A279" s="6" t="s">
         <v>249</v>
       </c>
@@ -26305,7 +26317,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="280" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="280" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A280" s="6" t="s">
         <v>249</v>
       </c>
@@ -26340,7 +26352,7 @@
         <v>48.299994540753168</v>
       </c>
     </row>
-    <row r="281" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="281" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A281" s="6" t="s">
         <v>250</v>
       </c>
@@ -26359,7 +26371,7 @@
       <c r="O281" s="33"/>
       <c r="P281" s="33"/>
     </row>
-    <row r="282" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="282" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A282" s="6" t="s">
         <v>250</v>
       </c>
@@ -26384,7 +26396,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="283" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="283" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A283" s="6" t="s">
         <v>251</v>
       </c>
@@ -26409,7 +26421,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="284" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="284" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A284" s="6" t="s">
         <v>252</v>
       </c>
@@ -26434,7 +26446,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="285" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="285" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A285" s="6" t="s">
         <v>253</v>
       </c>
@@ -26459,7 +26471,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="286" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="286" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A286" s="6" t="s">
         <v>250</v>
       </c>
@@ -26493,7 +26505,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="287" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="287" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A287" s="6" t="s">
         <v>251</v>
       </c>
@@ -26527,7 +26539,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="288" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="288" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A288" s="6" t="s">
         <v>252</v>
       </c>
@@ -26561,7 +26573,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="289" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="289" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A289" s="6" t="s">
         <v>253</v>
       </c>
@@ -26595,7 +26607,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="290" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="290" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A290" s="6" t="s">
         <v>250</v>
       </c>
@@ -26620,7 +26632,7 @@
         <v>0.95238095238095233</v>
       </c>
     </row>
-    <row r="291" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="291" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A291" s="6" t="s">
         <v>250</v>
       </c>
@@ -26645,7 +26657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="292" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A292" s="6" t="s">
         <v>250</v>
       </c>
@@ -26670,7 +26682,7 @@
         <v>2.8571428571428572</v>
       </c>
     </row>
-    <row r="293" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="293" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A293" s="6" t="s">
         <v>251</v>
       </c>
@@ -26695,7 +26707,7 @@
         <v>0.93457943925233644</v>
       </c>
     </row>
-    <row r="294" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="294" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A294" s="6" t="s">
         <v>251</v>
       </c>
@@ -26720,7 +26732,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="295" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="295" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A295" s="6" t="s">
         <v>251</v>
       </c>
@@ -26745,7 +26757,7 @@
         <v>2.1276595744680851</v>
       </c>
     </row>
-    <row r="296" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="296" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A296" s="6" t="s">
         <v>252</v>
       </c>
@@ -26770,7 +26782,7 @@
         <v>1.075268817204301</v>
       </c>
     </row>
-    <row r="297" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="297" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A297" s="6" t="s">
         <v>252</v>
       </c>
@@ -26795,7 +26807,7 @@
         <v>1.0204081632653061</v>
       </c>
     </row>
-    <row r="298" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="298" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A298" s="6" t="s">
         <v>252</v>
       </c>
@@ -26820,7 +26832,7 @@
         <v>2.3809523809523809</v>
       </c>
     </row>
-    <row r="299" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="299" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A299" s="6" t="s">
         <v>253</v>
       </c>
@@ -26845,7 +26857,7 @@
         <v>0.84033613445378152</v>
       </c>
     </row>
-    <row r="300" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="300" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A300" s="6" t="s">
         <v>253</v>
       </c>
@@ -26870,7 +26882,7 @@
         <v>1.0309278350515465</v>
       </c>
     </row>
-    <row r="301" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="301" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A301" s="6" t="s">
         <v>253</v>
       </c>
@@ -26895,7 +26907,7 @@
         <v>2.0833333333333335</v>
       </c>
     </row>
-    <row r="302" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="302" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A302" s="6" t="s">
         <v>250</v>
       </c>
@@ -26917,7 +26929,7 @@
       <c r="O302" s="33"/>
       <c r="P302" s="33"/>
     </row>
-    <row r="303" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="303" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A303" s="6" t="s">
         <v>250</v>
       </c>
@@ -26939,7 +26951,7 @@
       <c r="O303" s="33"/>
       <c r="P303" s="33"/>
     </row>
-    <row r="304" spans="1:41" s="21" customFormat="1" ht="14.5">
+    <row r="304" spans="1:41" s="21" customFormat="1" ht="15">
       <c r="A304" s="6" t="s">
         <v>250</v>
       </c>
@@ -26961,7 +26973,7 @@
       <c r="O304" s="33"/>
       <c r="P304" s="33"/>
     </row>
-    <row r="305" spans="1:22" s="21" customFormat="1" ht="14.5">
+    <row r="305" spans="1:22" s="21" customFormat="1" ht="15">
       <c r="A305" s="6" t="s">
         <v>250</v>
       </c>
@@ -26983,7 +26995,7 @@
       <c r="O305" s="33"/>
       <c r="P305" s="33"/>
     </row>
-    <row r="306" spans="1:22" s="21" customFormat="1" ht="14.5">
+    <row r="306" spans="1:22" s="21" customFormat="1" ht="15">
       <c r="A306" s="6" t="s">
         <v>250</v>
       </c>
@@ -27005,7 +27017,7 @@
       <c r="O306" s="33"/>
       <c r="P306" s="33"/>
     </row>
-    <row r="307" spans="1:22" s="21" customFormat="1" ht="14.5">
+    <row r="307" spans="1:22" s="21" customFormat="1" ht="15">
       <c r="A307" s="6" t="s">
         <v>250</v>
       </c>
@@ -27027,7 +27039,7 @@
       <c r="O307" s="33"/>
       <c r="P307" s="33"/>
     </row>
-    <row r="308" spans="1:22" s="21" customFormat="1" ht="14.5">
+    <row r="308" spans="1:22" s="21" customFormat="1" ht="15">
       <c r="A308" s="6" t="s">
         <v>250</v>
       </c>
@@ -27049,7 +27061,7 @@
       <c r="O308" s="33"/>
       <c r="P308" s="33"/>
     </row>
-    <row r="309" spans="1:22" s="21" customFormat="1" ht="14.5">
+    <row r="309" spans="1:22" s="21" customFormat="1" ht="15">
       <c r="A309" s="6" t="s">
         <v>250</v>
       </c>
@@ -27071,7 +27083,7 @@
       <c r="O309" s="33"/>
       <c r="P309" s="33"/>
     </row>
-    <row r="310" spans="1:22" s="21" customFormat="1" ht="14.5">
+    <row r="310" spans="1:22" s="21" customFormat="1" ht="15">
       <c r="A310" s="6" t="s">
         <v>250</v>
       </c>
@@ -27093,7 +27105,7 @@
       <c r="O310" s="33"/>
       <c r="P310" s="33"/>
     </row>
-    <row r="311" spans="1:22" s="21" customFormat="1" ht="14.5">
+    <row r="311" spans="1:22" s="21" customFormat="1" ht="15">
       <c r="A311" s="6" t="s">
         <v>250</v>
       </c>
@@ -27125,7 +27137,7 @@
         <v>0.24293785310734467</v>
       </c>
     </row>
-    <row r="312" spans="1:22" s="21" customFormat="1" ht="14.5">
+    <row r="312" spans="1:22" s="21" customFormat="1" ht="15">
       <c r="A312" s="6" t="s">
         <v>250</v>
       </c>
@@ -27147,7 +27159,7 @@
       <c r="O312" s="33"/>
       <c r="P312" s="33"/>
     </row>
-    <row r="313" spans="1:22" s="21" customFormat="1" ht="14.5">
+    <row r="313" spans="1:22" s="21" customFormat="1" ht="15">
       <c r="A313" s="6" t="s">
         <v>250</v>
       </c>
@@ -27179,7 +27191,7 @@
         <v>0.19175257731958764</v>
       </c>
     </row>
-    <row r="314" spans="1:22" s="21" customFormat="1" ht="14.5">
+    <row r="314" spans="1:22" s="21" customFormat="1" ht="15">
       <c r="A314" s="6" t="s">
         <v>250</v>
       </c>
@@ -27201,7 +27213,7 @@
       <c r="O314" s="33"/>
       <c r="P314" s="33"/>
     </row>
-    <row r="315" spans="1:22" s="21" customFormat="1" ht="14.5">
+    <row r="315" spans="1:22" s="21" customFormat="1" ht="15">
       <c r="A315" s="6" t="s">
         <v>250</v>
       </c>
@@ -27223,7 +27235,7 @@
       <c r="O315" s="33"/>
       <c r="P315" s="33"/>
     </row>
-    <row r="316" spans="1:22" s="21" customFormat="1" ht="14.5">
+    <row r="316" spans="1:22" s="21" customFormat="1" ht="15">
       <c r="A316" s="6" t="s">
         <v>253</v>
       </c>
@@ -27266,7 +27278,7 @@
         <v>2160.0021600021601</v>
       </c>
     </row>
-    <row r="317" spans="1:22" s="21" customFormat="1" ht="14.5">
+    <row r="317" spans="1:22" s="21" customFormat="1" ht="15">
       <c r="A317" s="6" t="s">
         <v>252</v>
       </c>
@@ -27309,7 +27321,7 @@
         <v>1530.0015300015302</v>
       </c>
     </row>
-    <row r="318" spans="1:22" s="21" customFormat="1" ht="14.5">
+    <row r="318" spans="1:22" s="21" customFormat="1" ht="15">
       <c r="A318" s="6" t="s">
         <v>251</v>
       </c>
@@ -27352,7 +27364,7 @@
         <v>900.00090000090006</v>
       </c>
     </row>
-    <row r="319" spans="1:22" s="21" customFormat="1" ht="14.5">
+    <row r="319" spans="1:22" s="21" customFormat="1" ht="15">
       <c r="A319" s="6" t="s">
         <v>250</v>
       </c>
@@ -27395,7 +27407,7 @@
         <v>540.00054000054001</v>
       </c>
     </row>
-    <row r="320" spans="1:22" s="21" customFormat="1" ht="14.5">
+    <row r="320" spans="1:22" s="21" customFormat="1" ht="15">
       <c r="A320" s="6" t="s">
         <v>253</v>
       </c>
@@ -27444,7 +27456,7 @@
         <v>5.5199999999999997E-3</v>
       </c>
     </row>
-    <row r="321" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="321" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A321" s="6" t="s">
         <v>252</v>
       </c>
@@ -27493,7 +27505,7 @@
         <v>5.3400000000000001E-3</v>
       </c>
     </row>
-    <row r="322" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="322" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A322" s="6" t="s">
         <v>251</v>
       </c>
@@ -27542,7 +27554,7 @@
         <v>5.2500000000000003E-3</v>
       </c>
     </row>
-    <row r="323" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="323" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A323" s="6" t="s">
         <v>250</v>
       </c>
@@ -27591,7 +27603,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="324" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="324" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A324" s="6" t="s">
         <v>254</v>
       </c>
@@ -27608,7 +27620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="325" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A325" s="6" t="s">
         <v>254</v>
       </c>
@@ -27623,7 +27635,7 @@
         <v>2.7276019047619052E-4</v>
       </c>
     </row>
-    <row r="326" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="326" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A326" s="6" t="s">
         <v>254</v>
       </c>
@@ -27638,7 +27650,7 @@
         <v>3.6881506730956103E-3</v>
       </c>
     </row>
-    <row r="327" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="327" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A327" s="6" t="s">
         <v>254</v>
       </c>
@@ -27653,7 +27665,7 @@
         <v>27.203688150673095</v>
       </c>
     </row>
-    <row r="328" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="328" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A328" s="6" t="s">
         <v>254</v>
       </c>
@@ -27668,7 +27680,7 @@
         <v>70.503688150673099</v>
       </c>
     </row>
-    <row r="329" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="329" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A329" s="6" t="s">
         <v>254</v>
       </c>
@@ -27683,7 +27695,7 @@
         <v>122.10368815067309</v>
       </c>
     </row>
-    <row r="330" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="330" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A330" s="6" t="s">
         <v>254</v>
       </c>
@@ -27698,7 +27710,7 @@
         <v>174.60368815067309</v>
       </c>
     </row>
-    <row r="331" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="331" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A331" s="6" t="s">
         <v>254</v>
       </c>
@@ -27734,7 +27746,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="332" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="332" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A332" s="6" t="s">
         <v>255</v>
       </c>
@@ -27752,7 +27764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="333" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A333" s="6" t="s">
         <v>255</v>
       </c>
@@ -27770,7 +27782,7 @@
         <v>1.4458724761904756E-4</v>
       </c>
     </row>
-    <row r="334" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="334" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A334" s="6" t="s">
         <v>255</v>
       </c>
@@ -27788,7 +27800,7 @@
         <v>1.4659505842200501E-3</v>
       </c>
     </row>
-    <row r="335" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="335" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A335" s="6" t="s">
         <v>255</v>
       </c>
@@ -27806,7 +27818,7 @@
         <v>23.80146595058422</v>
       </c>
     </row>
-    <row r="336" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="336" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A336" s="6" t="s">
         <v>255</v>
       </c>
@@ -27824,7 +27836,7 @@
         <v>66.601465950584213</v>
       </c>
     </row>
-    <row r="337" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="337" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A337" s="6" t="s">
         <v>255</v>
       </c>
@@ -27842,7 +27854,7 @@
         <v>110.30146595058422</v>
       </c>
     </row>
-    <row r="338" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="338" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A338" s="6" t="s">
         <v>255</v>
       </c>
@@ -27860,7 +27872,7 @@
         <v>163.35146595058421</v>
       </c>
     </row>
-    <row r="339" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="339" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A339" s="6" t="s">
         <v>255</v>
       </c>
@@ -27895,7 +27907,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="340" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="340" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A340" s="6" t="s">
         <v>254</v>
       </c>
@@ -27910,7 +27922,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="341" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="341" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A341" s="6" t="s">
         <v>254</v>
       </c>
@@ -27925,7 +27937,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="342" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="342" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A342" s="6" t="s">
         <v>254</v>
       </c>
@@ -27940,7 +27952,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="343" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A343" s="6" t="s">
         <v>254</v>
       </c>
@@ -27955,7 +27967,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="344" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="344" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A344" s="6" t="s">
         <v>254</v>
       </c>
@@ -27970,7 +27982,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="345" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="345" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A345" s="6" t="s">
         <v>254</v>
       </c>
@@ -27983,7 +27995,7 @@
       </c>
       <c r="D345" s="28"/>
     </row>
-    <row r="346" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="346" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A346" s="6" t="s">
         <v>254</v>
       </c>
@@ -27998,7 +28010,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="347" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="347" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A347" s="6" t="s">
         <v>254</v>
       </c>
@@ -28013,7 +28025,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="348" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="348" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A348" s="6" t="s">
         <v>254</v>
       </c>
@@ -28028,7 +28040,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="349" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="349" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A349" s="6" t="s">
         <v>254</v>
       </c>
@@ -28043,7 +28055,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="350" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="350" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A350" s="6" t="s">
         <v>254</v>
       </c>
@@ -28058,7 +28070,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="351" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="351" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A351" s="6" t="s">
         <v>254</v>
       </c>
@@ -28071,7 +28083,7 @@
       </c>
       <c r="D351" s="28"/>
     </row>
-    <row r="352" spans="1:32" s="21" customFormat="1" ht="14.5">
+    <row r="352" spans="1:32" s="21" customFormat="1" ht="15">
       <c r="A352" s="6" t="s">
         <v>254</v>
       </c>
@@ -28086,7 +28098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="353" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A353" s="6" t="s">
         <v>254</v>
       </c>
@@ -28101,7 +28113,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="354" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="354" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A354" s="6" t="s">
         <v>254</v>
       </c>
@@ -28116,7 +28128,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="355" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="355" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A355" s="6" t="s">
         <v>254</v>
       </c>
@@ -28134,7 +28146,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="356" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="356" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A356" s="6" t="s">
         <v>254</v>
       </c>
@@ -28152,7 +28164,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="357" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="357" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A357" s="6" t="s">
         <v>254</v>
       </c>
@@ -28170,7 +28182,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="358" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="358" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A358" s="6" t="s">
         <v>254</v>
       </c>
@@ -28188,7 +28200,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="359" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="359" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A359" s="6" t="s">
         <v>254</v>
       </c>
@@ -28206,7 +28218,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="360" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="360" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A360" s="6" t="s">
         <v>254</v>
       </c>
@@ -28224,7 +28236,7 @@
         <v>6.68</v>
       </c>
     </row>
-    <row r="361" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="361" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A361" s="6" t="s">
         <v>254</v>
       </c>
@@ -28240,7 +28252,7 @@
         <v>6.87</v>
       </c>
     </row>
-    <row r="362" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="362" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A362" s="6" t="s">
         <v>254</v>
       </c>
@@ -28258,7 +28270,7 @@
         <v>7.24</v>
       </c>
     </row>
-    <row r="363" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="363" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A363" s="6" t="s">
         <v>254</v>
       </c>
@@ -28276,7 +28288,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="364" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="364" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A364" s="6" t="s">
         <v>254</v>
       </c>
@@ -28294,7 +28306,7 @@
         <v>8.4600000000000009</v>
       </c>
     </row>
-    <row r="365" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="365" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A365" s="6" t="s">
         <v>254</v>
       </c>
@@ -28312,7 +28324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="366" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="366" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A366" s="6" t="s">
         <v>254</v>
       </c>
@@ -28330,7 +28342,7 @@
         <v>9.32</v>
       </c>
     </row>
-    <row r="367" spans="1:29" s="21" customFormat="1" ht="15.5">
+    <row r="367" spans="1:29" s="21" customFormat="1" ht="15.75">
       <c r="A367" s="19" t="s">
         <v>254</v>
       </c>
@@ -28351,7 +28363,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="368" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="368" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A368" s="19" t="s">
         <v>255</v>
       </c>
@@ -28368,7 +28380,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="369" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="369" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A369" s="19" t="s">
         <v>255</v>
       </c>
@@ -28385,7 +28397,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="370" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="370" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A370" s="19" t="s">
         <v>255</v>
       </c>
@@ -28402,7 +28414,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="371" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="371" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A371" s="19" t="s">
         <v>255</v>
       </c>
@@ -28419,7 +28431,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="372" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="372" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A372" s="19" t="s">
         <v>255</v>
       </c>
@@ -28436,7 +28448,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="373" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="373" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A373" s="19" t="s">
         <v>255</v>
       </c>
@@ -28451,7 +28463,7 @@
       <c r="O373" s="31"/>
       <c r="P373" s="31"/>
     </row>
-    <row r="374" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="374" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A374" s="19" t="s">
         <v>255</v>
       </c>
@@ -28468,7 +28480,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="375" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="375" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A375" s="19" t="s">
         <v>255</v>
       </c>
@@ -28485,7 +28497,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="376" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="376" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A376" s="19" t="s">
         <v>255</v>
       </c>
@@ -28502,7 +28514,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="377" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="377" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A377" s="19" t="s">
         <v>255</v>
       </c>
@@ -28519,7 +28531,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="378" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="378" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A378" s="19" t="s">
         <v>255</v>
       </c>
@@ -28536,7 +28548,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="379" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="379" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A379" s="19" t="s">
         <v>255</v>
       </c>
@@ -28551,7 +28563,7 @@
       <c r="O379" s="31"/>
       <c r="P379" s="31"/>
     </row>
-    <row r="380" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="380" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A380" s="19" t="s">
         <v>255</v>
       </c>
@@ -28568,7 +28580,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="381" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="381" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A381" s="19" t="s">
         <v>255</v>
       </c>
@@ -28585,7 +28597,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="382" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="382" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A382" s="19" t="s">
         <v>255</v>
       </c>
@@ -28602,7 +28614,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="383" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="383" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A383" s="19" t="s">
         <v>255</v>
       </c>
@@ -28622,7 +28634,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="384" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="384" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A384" s="19" t="s">
         <v>255</v>
       </c>
@@ -28642,7 +28654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="385" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A385" s="19" t="s">
         <v>255</v>
       </c>
@@ -28662,7 +28674,7 @@
         <v>4.7300000000000004</v>
       </c>
     </row>
-    <row r="386" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="386" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A386" s="19" t="s">
         <v>255</v>
       </c>
@@ -28682,7 +28694,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="387" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="387" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A387" s="19" t="s">
         <v>255</v>
       </c>
@@ -28702,7 +28714,7 @@
         <v>6.89</v>
       </c>
     </row>
-    <row r="388" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="388" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A388" s="19" t="s">
         <v>255</v>
       </c>
@@ -28722,7 +28734,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="389" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="389" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A389" s="19" t="s">
         <v>255</v>
       </c>
@@ -28740,7 +28752,7 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="390" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="390" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A390" s="19" t="s">
         <v>255</v>
       </c>
@@ -28760,7 +28772,7 @@
         <v>8.91</v>
       </c>
     </row>
-    <row r="391" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="391" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A391" s="19" t="s">
         <v>255</v>
       </c>
@@ -28780,7 +28792,7 @@
         <v>9.5399999999999991</v>
       </c>
     </row>
-    <row r="392" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="392" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A392" s="19" t="s">
         <v>255</v>
       </c>
@@ -28800,7 +28812,7 @@
         <v>10.36</v>
       </c>
     </row>
-    <row r="393" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="393" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A393" s="19" t="s">
         <v>255</v>
       </c>
@@ -28820,7 +28832,7 @@
         <v>11.21</v>
       </c>
     </row>
-    <row r="394" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="394" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A394" s="19" t="s">
         <v>255</v>
       </c>
@@ -28840,7 +28852,7 @@
         <v>11.84</v>
       </c>
     </row>
-    <row r="395" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="395" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A395" s="19" t="s">
         <v>255</v>
       </c>
@@ -28860,7 +28872,7 @@
         <v>12.37</v>
       </c>
     </row>
-    <row r="396" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="396" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A396" s="19" t="s">
         <v>185</v>
       </c>
@@ -28885,7 +28897,7 @@
         <v>3.9552424288773298</v>
       </c>
     </row>
-    <row r="397" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="397" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A397" s="19" t="s">
         <v>185</v>
       </c>
@@ -28910,7 +28922,7 @@
         <v>4.5111272560415996</v>
       </c>
     </row>
-    <row r="398" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="398" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A398" s="19" t="s">
         <v>185</v>
       </c>
@@ -28935,7 +28947,7 @@
         <v>5.6261471397980998</v>
       </c>
     </row>
-    <row r="399" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="399" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A399" s="19" t="s">
         <v>185</v>
       </c>
@@ -28960,7 +28972,7 @@
         <v>6.8932586417864696</v>
       </c>
     </row>
-    <row r="400" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="400" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A400" s="19" t="s">
         <v>185</v>
       </c>
@@ -28985,7 +28997,7 @@
         <v>7.6539079229122002</v>
       </c>
     </row>
-    <row r="401" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="401" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A401" s="19" t="s">
         <v>185</v>
       </c>
@@ -29010,7 +29022,7 @@
         <v>8.0592306515753993</v>
       </c>
     </row>
-    <row r="402" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="402" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A402" s="19" t="s">
         <v>185</v>
       </c>
@@ -29035,7 +29047,7 @@
         <v>7.4999999999999902</v>
       </c>
     </row>
-    <row r="403" spans="1:29" s="21" customFormat="1" ht="15.5">
+    <row r="403" spans="1:29" s="21" customFormat="1" ht="15.75">
       <c r="A403" s="19" t="s">
         <v>185</v>
       </c>
@@ -29064,7 +29076,7 @@
         <v>6.9417252982563404</v>
       </c>
     </row>
-    <row r="404" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="404" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A404" s="19" t="s">
         <v>185</v>
       </c>
@@ -29086,7 +29098,7 @@
         <v>8.6666411746711507</v>
       </c>
     </row>
-    <row r="405" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="405" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A405" s="19" t="s">
         <v>185</v>
       </c>
@@ -29111,7 +29123,7 @@
         <v>8.9703464362190193</v>
       </c>
     </row>
-    <row r="406" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="406" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A406" s="19" t="s">
         <v>185</v>
       </c>
@@ -29136,7 +29148,7 @@
         <v>9.8306056898133907</v>
       </c>
     </row>
-    <row r="407" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="407" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A407" s="19" t="s">
         <v>185</v>
       </c>
@@ -29161,7 +29173,7 @@
         <v>10.5904902110737</v>
       </c>
     </row>
-    <row r="408" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="408" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A408" s="19" t="s">
         <v>185</v>
       </c>
@@ -29186,7 +29198,7 @@
         <v>10.9956217497705</v>
       </c>
     </row>
-    <row r="409" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="409" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A409" s="19" t="s">
         <v>185</v>
       </c>
@@ -29211,7 +29223,7 @@
         <v>11.4011356684001</v>
       </c>
     </row>
-    <row r="410" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="410" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A410" s="19" t="s">
         <v>185</v>
       </c>
@@ -29236,7 +29248,7 @@
         <v>11.7553150810645</v>
       </c>
     </row>
-    <row r="411" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="411" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A411" s="19" t="s">
         <v>185</v>
       </c>
@@ -29261,7 +29273,7 @@
         <v>11.856072193331199</v>
       </c>
     </row>
-    <row r="412" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="412" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A412" s="19" t="s">
         <v>185</v>
       </c>
@@ -29289,7 +29301,7 @@
         <v>11.956733710614801</v>
       </c>
     </row>
-    <row r="413" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="413" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A413" s="19" t="s">
         <v>185</v>
       </c>
@@ -29314,7 +29326,7 @@
         <v>12.4642474762924</v>
       </c>
     </row>
-    <row r="414" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="414" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A414" s="19" t="s">
         <v>185</v>
       </c>
@@ -29339,7 +29351,7 @@
         <v>12.6656661058427</v>
       </c>
     </row>
-    <row r="415" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="415" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A415" s="19" t="s">
         <v>185</v>
       </c>
@@ -29364,7 +29376,7 @@
         <v>12.6648057509941</v>
       </c>
     </row>
-    <row r="416" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="416" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A416" s="19" t="s">
         <v>185</v>
       </c>
@@ -29389,7 +29401,7 @@
         <v>13.070128479657299</v>
       </c>
     </row>
-    <row r="417" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="417" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A417" s="19" t="s">
         <v>185</v>
       </c>
@@ -29414,7 +29426,7 @@
         <v>13.1199334658917</v>
       </c>
     </row>
-    <row r="418" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="418" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A418" s="19" t="s">
         <v>185</v>
       </c>
@@ -29439,7 +29451,7 @@
         <v>13.3729733863566</v>
       </c>
     </row>
-    <row r="419" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="419" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A419" s="19" t="s">
         <v>185</v>
       </c>
@@ -29464,7 +29476,7 @@
         <v>13.473826093606601</v>
       </c>
     </row>
-    <row r="420" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="420" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A420" s="19" t="s">
         <v>185</v>
       </c>
@@ -29489,7 +29501,7 @@
         <v>13.726674824105199</v>
       </c>
     </row>
-    <row r="421" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="421" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A421" s="19" t="s">
         <v>185</v>
       </c>
@@ -29514,7 +29526,7 @@
         <v>13.776575405322699</v>
       </c>
     </row>
-    <row r="422" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="422" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A422" s="19" t="s">
         <v>185</v>
       </c>
@@ -29539,7 +29551,7 @@
         <v>13.775715050474099</v>
       </c>
     </row>
-    <row r="423" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="423" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A423" s="19" t="s">
         <v>185</v>
       </c>
@@ -29564,7 +29576,7 @@
         <v>13.774759100642299</v>
       </c>
     </row>
-    <row r="424" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="424" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A424" s="19" t="s">
         <v>185</v>
       </c>
@@ -29589,7 +29601,7 @@
         <v>13.9263727439583</v>
       </c>
     </row>
-    <row r="425" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="425" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A425" s="19" t="s">
         <v>185</v>
       </c>
@@ -29617,7 +29629,7 @@
         <v>13.925607984092901</v>
       </c>
     </row>
-    <row r="426" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="426" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A426" s="19" t="s">
         <v>185</v>
       </c>
@@ -29639,7 +29651,7 @@
         <v>14.0769348424594</v>
       </c>
     </row>
-    <row r="427" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="427" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A427" s="19" t="s">
         <v>185</v>
       </c>
@@ -29661,7 +29673,7 @@
         <v>14.278927041908799</v>
       </c>
     </row>
-    <row r="428" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="428" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A428" s="19" t="s">
         <v>185</v>
       </c>
@@ -29686,7 +29698,7 @@
         <v>14.329018813092601</v>
       </c>
     </row>
-    <row r="429" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="429" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A429" s="19" t="s">
         <v>185</v>
       </c>
@@ -29711,7 +29723,7 @@
         <v>14.531106607525199</v>
       </c>
     </row>
-    <row r="430" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="430" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A430" s="19" t="s">
         <v>185</v>
       </c>
@@ -29736,7 +29748,7 @@
         <v>14.5303418476598</v>
       </c>
     </row>
-    <row r="431" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="431" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A431" s="19" t="s">
         <v>185</v>
       </c>
@@ -29760,7 +29772,7 @@
         <v>14.529577087794401</v>
       </c>
     </row>
-    <row r="432" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="432" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A432" s="19" t="s">
         <v>185</v>
       </c>
@@ -29784,7 +29796,7 @@
         <v>14.6303342000611</v>
       </c>
     </row>
-    <row r="433" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="433" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A433" s="19" t="s">
         <v>185</v>
       </c>
@@ -29808,7 +29820,7 @@
         <v>14.679852401345901</v>
       </c>
     </row>
-    <row r="434" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="434" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A434" s="19" t="s">
         <v>185</v>
       </c>
@@ -29832,7 +29844,7 @@
         <v>14.679278831446901</v>
       </c>
     </row>
-    <row r="435" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="435" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A435" s="19" t="s">
         <v>185</v>
       </c>
@@ -29856,7 +29868,7 @@
         <v>14.729179412664401</v>
       </c>
     </row>
-    <row r="436" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="436" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A436" s="19" t="s">
         <v>185</v>
       </c>
@@ -29880,7 +29892,7 @@
         <v>14.8807930559804</v>
       </c>
     </row>
-    <row r="437" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="437" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A437" s="19" t="s">
         <v>185</v>
       </c>
@@ -29907,7 +29919,7 @@
         <v>15.0310683695319</v>
       </c>
     </row>
-    <row r="438" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="438" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A438" s="19" t="s">
         <v>186</v>
       </c>
@@ -29931,7 +29943,7 @@
         <v>6.0846206791067496</v>
       </c>
     </row>
-    <row r="439" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="439" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A439" s="19" t="s">
         <v>186</v>
       </c>
@@ -29955,7 +29967,7 @@
         <v>7.45344524319363</v>
       </c>
     </row>
-    <row r="440" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="440" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A440" s="19" t="s">
         <v>186</v>
       </c>
@@ -29979,7 +29991,7 @@
         <v>8.1117122973386309</v>
       </c>
     </row>
-    <row r="441" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="441" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A441" s="19" t="s">
         <v>186</v>
       </c>
@@ -30003,7 +30015,7 @@
         <v>8.4153219639033292</v>
       </c>
     </row>
-    <row r="442" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="442" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A442" s="19" t="s">
         <v>186</v>
       </c>
@@ -30024,7 +30036,7 @@
         <v>8.6176009483022291</v>
       </c>
     </row>
-    <row r="443" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="443" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A443" s="19" t="s">
         <v>186</v>
       </c>
@@ -30051,7 +30063,7 @@
         <v>7.9568484245946696</v>
       </c>
     </row>
-    <row r="444" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="444" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A444" s="19" t="s">
         <v>186</v>
       </c>
@@ -30075,7 +30087,7 @@
         <v>9.1750152951972996</v>
       </c>
     </row>
-    <row r="445" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="445" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A445" s="19" t="s">
         <v>186</v>
       </c>
@@ -30099,7 +30111,7 @@
         <v>9.4788161517283491</v>
       </c>
     </row>
-    <row r="446" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="446" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A446" s="19" t="s">
         <v>186</v>
       </c>
@@ -30123,7 +30135,7 @@
         <v>10.0869914346895</v>
       </c>
     </row>
-    <row r="447" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="447" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A447" s="19" t="s">
         <v>186</v>
       </c>
@@ -30147,7 +30159,7 @@
         <v>10.795063475068799</v>
       </c>
     </row>
-    <row r="448" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="448" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A448" s="19" t="s">
         <v>186</v>
       </c>
@@ -30171,7 +30183,7 @@
         <v>11.148860507800499</v>
       </c>
     </row>
-    <row r="449" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="449" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A449" s="19" t="s">
         <v>186</v>
       </c>
@@ -30195,7 +30207,7 @@
         <v>11.5033267054145</v>
       </c>
     </row>
-    <row r="450" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="450" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A450" s="19" t="s">
         <v>186</v>
       </c>
@@ -30219,7 +30231,7 @@
         <v>11.807127561945499</v>
       </c>
     </row>
-    <row r="451" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="451" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A451" s="19" t="s">
         <v>186</v>
       </c>
@@ -30243,7 +30255,7 @@
         <v>11.907502294279499</v>
       </c>
     </row>
-    <row r="452" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="452" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A452" s="19" t="s">
         <v>186</v>
       </c>
@@ -30267,7 +30279,7 @@
         <v>11.906833129397301</v>
       </c>
     </row>
-    <row r="453" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="453" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A453" s="19" t="s">
         <v>186</v>
       </c>
@@ -30294,7 +30306,7 @@
         <v>11.905685989599201</v>
       </c>
     </row>
-    <row r="454" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="454" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A454" s="19" t="s">
         <v>186</v>
       </c>
@@ -30318,7 +30330,7 @@
         <v>12.2605345671459</v>
       </c>
     </row>
-    <row r="455" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="455" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A455" s="19" t="s">
         <v>186</v>
       </c>
@@ -30342,7 +30354,7 @@
         <v>12.158056745182</v>
       </c>
     </row>
-    <row r="456" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="456" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A456" s="19" t="s">
         <v>186</v>
       </c>
@@ -30369,7 +30381,7 @@
         <v>13.367237687366099</v>
       </c>
     </row>
-    <row r="457" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="457" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A457" s="19" t="s">
         <v>186</v>
       </c>
@@ -30393,7 +30405,7 @@
         <v>13.7721780360966</v>
       </c>
     </row>
-    <row r="458" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="458" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A458" s="19" t="s">
         <v>186</v>
       </c>
@@ -30417,7 +30429,7 @@
         <v>13.8729351483634</v>
       </c>
     </row>
-    <row r="459" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="459" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A459" s="19" t="s">
         <v>186</v>
       </c>
@@ -30441,7 +30453,7 @@
         <v>14.0244531966962</v>
       </c>
     </row>
-    <row r="460" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="460" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A460" s="19" t="s">
         <v>186</v>
       </c>
@@ -30465,7 +30477,7 @@
         <v>14.124923524013401</v>
       </c>
     </row>
-    <row r="461" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="461" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A461" s="19" t="s">
         <v>186</v>
       </c>
@@ -30489,7 +30501,7 @@
         <v>14.0734934230651</v>
       </c>
     </row>
-    <row r="462" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="462" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A462" s="19" t="s">
         <v>186</v>
       </c>
@@ -30513,7 +30525,7 @@
         <v>14.072633068216501</v>
       </c>
     </row>
-    <row r="463" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="463" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A463" s="19" t="s">
         <v>186</v>
       </c>
@@ -30537,7 +30549,7 @@
         <v>14.2748164576323</v>
       </c>
     </row>
-    <row r="464" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="464" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A464" s="19" t="s">
         <v>186</v>
       </c>
@@ -30561,7 +30573,7 @@
         <v>14.3247170388497</v>
       </c>
     </row>
-    <row r="465" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="465" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A465" s="19" t="s">
         <v>186</v>
       </c>
@@ -30585,7 +30597,7 @@
         <v>14.4254741511165</v>
       </c>
     </row>
-    <row r="466" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="466" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A466" s="19" t="s">
         <v>186</v>
       </c>
@@ -30609,7 +30621,7 @@
         <v>14.4752791373508</v>
       </c>
     </row>
-    <row r="467" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="467" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A467" s="19" t="s">
         <v>186</v>
       </c>
@@ -30633,7 +30645,7 @@
         <v>14.474609972468601</v>
       </c>
     </row>
-    <row r="468" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="468" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A468" s="19" t="s">
         <v>186</v>
       </c>
@@ -30660,7 +30672,7 @@
         <v>14.421666284286699</v>
       </c>
     </row>
-    <row r="469" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="469" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A469" s="19" t="s">
         <v>186</v>
       </c>
@@ -30684,7 +30696,7 @@
         <v>14.717692082186099</v>
       </c>
     </row>
-    <row r="470" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="470" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A470" s="19" t="s">
         <v>186</v>
       </c>
@@ -30705,7 +30717,7 @@
         <v>14.929195982461501</v>
       </c>
     </row>
-    <row r="471" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="471" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A471" s="19" t="s">
         <v>185</v>
       </c>
@@ -30726,7 +30738,7 @@
         <v>0.58524173027989701</v>
       </c>
     </row>
-    <row r="472" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="472" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A472" s="19" t="s">
         <v>185</v>
       </c>
@@ -30747,7 +30759,7 @@
         <v>1.1959287531806599</v>
       </c>
     </row>
-    <row r="473" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="473" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A473" s="19" t="s">
         <v>185</v>
       </c>
@@ -30768,7 +30780,7 @@
         <v>1.5267175572519001</v>
       </c>
     </row>
-    <row r="474" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="474" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A474" s="19" t="s">
         <v>185</v>
       </c>
@@ -30789,7 +30801,7 @@
         <v>2.35368956743002</v>
       </c>
     </row>
-    <row r="475" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="475" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A475" s="19" t="s">
         <v>185</v>
       </c>
@@ -30810,7 +30822,7 @@
         <v>2.8753180661577602</v>
       </c>
     </row>
-    <row r="476" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="476" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A476" s="19" t="s">
         <v>185</v>
       </c>
@@ -30831,7 +30843,7 @@
         <v>3.3333333333333299</v>
       </c>
     </row>
-    <row r="477" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="477" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A477" s="19" t="s">
         <v>185</v>
       </c>
@@ -30855,7 +30867,7 @@
         <v>0.16285225937281522</v>
       </c>
     </row>
-    <row r="478" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="478" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A478" s="19" t="s">
         <v>185</v>
       </c>
@@ -30876,7 +30888,7 @@
         <v>3.1806615776081402</v>
       </c>
     </row>
-    <row r="479" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="479" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A479" s="19" t="s">
         <v>185</v>
       </c>
@@ -30897,7 +30909,7 @@
         <v>3.4987277353689499</v>
       </c>
     </row>
-    <row r="480" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="480" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A480" s="19" t="s">
         <v>185</v>
       </c>
@@ -30918,7 +30930,7 @@
         <v>3.46055979643765</v>
       </c>
     </row>
-    <row r="481" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="481" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A481" s="19" t="s">
         <v>185</v>
       </c>
@@ -30939,7 +30951,7 @@
         <v>3.1933842239185699</v>
       </c>
     </row>
-    <row r="482" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="482" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A482" s="19" t="s">
         <v>185</v>
       </c>
@@ -30960,7 +30972,7 @@
         <v>3.21882951653944</v>
       </c>
     </row>
-    <row r="483" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="483" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A483" s="19" t="s">
         <v>185</v>
       </c>
@@ -30981,7 +30993,7 @@
         <v>3.0534351145038099</v>
       </c>
     </row>
-    <row r="484" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="484" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A484" s="19" t="s">
         <v>185</v>
       </c>
@@ -31002,7 +31014,7 @@
         <v>3.9949109414758199</v>
       </c>
     </row>
-    <row r="485" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="485" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A485" s="19" t="s">
         <v>185</v>
       </c>
@@ -31023,7 +31035,7 @@
         <v>3.7022900763358702</v>
       </c>
     </row>
-    <row r="486" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="486" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A486" s="19" t="s">
         <v>185</v>
       </c>
@@ -31044,7 +31056,7 @@
         <v>3.8422391857506302</v>
       </c>
     </row>
-    <row r="487" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="487" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A487" s="19" t="s">
         <v>185</v>
       </c>
@@ -31065,7 +31077,7 @@
         <v>3.68956743002544</v>
       </c>
     </row>
-    <row r="488" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="488" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A488" s="19" t="s">
         <v>185</v>
       </c>
@@ -31086,7 +31098,7 @@
       </c>
       <c r="G488" s="29"/>
     </row>
-    <row r="489" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="489" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A489" s="19" t="s">
         <v>185</v>
       </c>
@@ -31110,7 +31122,7 @@
         <v>0.14620414942598853</v>
       </c>
     </row>
-    <row r="490" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="490" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A490" s="19" t="s">
         <v>185</v>
       </c>
@@ -31131,7 +31143,7 @@
       </c>
       <c r="G490" s="29"/>
     </row>
-    <row r="491" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="491" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A491" s="19" t="s">
         <v>185</v>
       </c>
@@ -31152,7 +31164,7 @@
         <v>3.2442748091603</v>
       </c>
     </row>
-    <row r="492" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="492" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A492" s="19" t="s">
         <v>185</v>
       </c>
@@ -31173,7 +31185,7 @@
         <v>2.4681933842239099</v>
       </c>
     </row>
-    <row r="493" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="493" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A493" s="19" t="s">
         <v>185</v>
       </c>
@@ -31194,7 +31206,7 @@
         <v>3.15521628498727</v>
       </c>
     </row>
-    <row r="494" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="494" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A494" s="19" t="s">
         <v>185</v>
       </c>
@@ -31215,7 +31227,7 @@
         <v>2.79898218829516</v>
       </c>
     </row>
-    <row r="495" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="495" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A495" s="19" t="s">
         <v>185</v>
       </c>
@@ -31236,7 +31248,7 @@
         <v>3.1170483460559701</v>
       </c>
     </row>
-    <row r="496" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="496" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A496" s="19" t="s">
         <v>185</v>
       </c>
@@ -31257,7 +31269,7 @@
         <v>3.46055979643765</v>
       </c>
     </row>
-    <row r="497" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="497" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A497" s="19" t="s">
         <v>185</v>
       </c>
@@ -31278,7 +31290,7 @@
         <v>2.9770992366412199</v>
       </c>
     </row>
-    <row r="498" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="498" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A498" s="19" t="s">
         <v>185</v>
       </c>
@@ -31299,7 +31311,7 @@
         <v>2.8880407124681899</v>
       </c>
     </row>
-    <row r="499" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="499" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A499" s="19" t="s">
         <v>185</v>
       </c>
@@ -31320,7 +31332,7 @@
         <v>2.5445292620865101</v>
       </c>
     </row>
-    <row r="500" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="500" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A500" s="19" t="s">
         <v>185</v>
       </c>
@@ -31341,7 +31353,7 @@
         <v>2.2773536895674198</v>
       </c>
     </row>
-    <row r="501" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="501" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A501" s="19" t="s">
         <v>185</v>
       </c>
@@ -31365,7 +31377,7 @@
         <v>0.13167754321612643</v>
       </c>
     </row>
-    <row r="502" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="502" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A502" s="19" t="s">
         <v>185</v>
       </c>
@@ -31386,7 +31398,7 @@
       </c>
       <c r="G502" s="29"/>
     </row>
-    <row r="503" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="503" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A503" s="19" t="s">
         <v>185</v>
       </c>
@@ -31407,7 +31419,7 @@
       </c>
       <c r="G503" s="29"/>
     </row>
-    <row r="504" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="504" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A504" s="19" t="s">
         <v>185</v>
       </c>
@@ -31428,7 +31440,7 @@
         <v>1.8702290076335799</v>
       </c>
     </row>
-    <row r="505" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="505" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A505" s="19" t="s">
         <v>185</v>
       </c>
@@ -31449,7 +31461,7 @@
         <v>2.2646310432569901</v>
       </c>
     </row>
-    <row r="506" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="506" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A506" s="19" t="s">
         <v>185</v>
       </c>
@@ -31470,7 +31482,7 @@
         <v>2.3027989821882899</v>
       </c>
     </row>
-    <row r="507" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="507" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A507" s="19" t="s">
         <v>185</v>
       </c>
@@ -31491,7 +31503,7 @@
         <v>2.4300254452926202</v>
       </c>
     </row>
-    <row r="508" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="508" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A508" s="19" t="s">
         <v>185</v>
       </c>
@@ -31512,7 +31524,7 @@
         <v>1.97201017811704</v>
       </c>
     </row>
-    <row r="509" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="509" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A509" s="19" t="s">
         <v>185</v>
       </c>
@@ -31536,7 +31548,7 @@
         <v>0.10352259943637081</v>
       </c>
     </row>
-    <row r="510" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="510" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A510" s="19" t="s">
         <v>185</v>
       </c>
@@ -31557,7 +31569,7 @@
       </c>
       <c r="G510" s="29"/>
     </row>
-    <row r="511" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="511" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A511" s="19" t="s">
         <v>185</v>
       </c>
@@ -31578,7 +31590,7 @@
       </c>
       <c r="G511" s="29"/>
     </row>
-    <row r="512" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="512" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A512" s="19" t="s">
         <v>186</v>
       </c>
@@ -31599,7 +31611,7 @@
         <v>0.48223350253807001</v>
       </c>
     </row>
-    <row r="513" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="513" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A513" s="19" t="s">
         <v>186</v>
       </c>
@@ -31620,7 +31632,7 @@
         <v>0.87563451776649703</v>
       </c>
     </row>
-    <row r="514" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="514" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A514" s="19" t="s">
         <v>186</v>
       </c>
@@ -31641,7 +31653,7 @@
         <v>1.0279187817258799</v>
       </c>
     </row>
-    <row r="515" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="515" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A515" s="19" t="s">
         <v>186</v>
       </c>
@@ -31662,7 +31674,7 @@
         <v>1.3071065989847701</v>
       </c>
     </row>
-    <row r="516" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="516" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A516" s="19" t="s">
         <v>186</v>
       </c>
@@ -31683,7 +31695,7 @@
         <v>2.14467005076142</v>
       </c>
     </row>
-    <row r="517" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="517" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A517" s="19" t="s">
         <v>186</v>
       </c>
@@ -31704,7 +31716,7 @@
         <v>2.41116751269035</v>
       </c>
     </row>
-    <row r="518" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="518" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A518" s="19" t="s">
         <v>186</v>
       </c>
@@ -31728,7 +31740,7 @@
         <v>0.22663536676595794</v>
       </c>
     </row>
-    <row r="519" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="519" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A519" s="19" t="s">
         <v>186</v>
       </c>
@@ -31749,7 +31761,7 @@
       </c>
       <c r="G519" s="29"/>
     </row>
-    <row r="520" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="520" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A520" s="19" t="s">
         <v>186</v>
       </c>
@@ -31770,7 +31782,7 @@
       </c>
       <c r="G520" s="29"/>
     </row>
-    <row r="521" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="521" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A521" s="19" t="s">
         <v>186</v>
       </c>
@@ -31791,7 +31803,7 @@
         <v>2.1954314720812098</v>
       </c>
     </row>
-    <row r="522" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="522" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A522" s="19" t="s">
         <v>186</v>
       </c>
@@ -31812,7 +31824,7 @@
         <v>2.5253807106598898</v>
       </c>
     </row>
-    <row r="523" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="523" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A523" s="19" t="s">
         <v>186</v>
       </c>
@@ -31833,7 +31845,7 @@
         <v>2.5634517766497402</v>
       </c>
     </row>
-    <row r="524" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="524" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A524" s="19" t="s">
         <v>186</v>
       </c>
@@ -31854,7 +31866,7 @@
         <v>2.2208121827411098</v>
       </c>
     </row>
-    <row r="525" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="525" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A525" s="19" t="s">
         <v>186</v>
       </c>
@@ -31875,7 +31887,7 @@
         <v>1.7258883248730901</v>
       </c>
     </row>
-    <row r="526" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="526" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A526" s="19" t="s">
         <v>186</v>
       </c>
@@ -31896,7 +31908,7 @@
         <v>2.2461928934010098</v>
       </c>
     </row>
-    <row r="527" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="527" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A527" s="19" t="s">
         <v>186</v>
       </c>
@@ -31917,7 +31929,7 @@
         <v>3.2233502538071002</v>
       </c>
     </row>
-    <row r="528" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="528" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A528" s="19" t="s">
         <v>186</v>
       </c>
@@ -31938,7 +31950,7 @@
         <v>2.75380710659898</v>
       </c>
     </row>
-    <row r="529" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="529" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A529" s="19" t="s">
         <v>186</v>
       </c>
@@ -31959,7 +31971,7 @@
         <v>2.9822335025380702</v>
       </c>
     </row>
-    <row r="530" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="530" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A530" s="19" t="s">
         <v>186</v>
       </c>
@@ -31980,7 +31992,7 @@
         <v>2.9060913705583702</v>
       </c>
     </row>
-    <row r="531" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="531" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A531" s="19" t="s">
         <v>186</v>
       </c>
@@ -32001,7 +32013,7 @@
       </c>
       <c r="G531" s="29"/>
     </row>
-    <row r="532" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="532" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A532" s="19" t="s">
         <v>186</v>
       </c>
@@ -32025,7 +32037,7 @@
         <v>0.27432798145386789</v>
       </c>
     </row>
-    <row r="533" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="533" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A533" s="19" t="s">
         <v>186</v>
       </c>
@@ -32046,7 +32058,7 @@
       </c>
       <c r="G533" s="29"/>
     </row>
-    <row r="534" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="534" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A534" s="19" t="s">
         <v>186</v>
       </c>
@@ -32067,7 +32079,7 @@
         <v>2.6522842639593902</v>
       </c>
     </row>
-    <row r="535" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="535" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A535" s="19" t="s">
         <v>186</v>
       </c>
@@ -32088,7 +32100,7 @@
         <v>2.2969543147208098</v>
       </c>
     </row>
-    <row r="536" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="536" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A536" s="19" t="s">
         <v>186</v>
       </c>
@@ -32109,7 +32121,7 @@
         <v>2.2081218274111598</v>
       </c>
     </row>
-    <row r="537" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="537" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A537" s="19" t="s">
         <v>186</v>
       </c>
@@ -32130,7 +32142,7 @@
         <v>1.6243654822335001</v>
       </c>
     </row>
-    <row r="538" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="538" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A538" s="19" t="s">
         <v>186</v>
       </c>
@@ -32151,7 +32163,7 @@
         <v>2.2335025380710598</v>
       </c>
     </row>
-    <row r="539" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="539" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A539" s="19" t="s">
         <v>186</v>
       </c>
@@ -32172,7 +32184,7 @@
         <v>2.4746192893401</v>
       </c>
     </row>
-    <row r="540" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="540" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A540" s="19" t="s">
         <v>186</v>
       </c>
@@ -32193,7 +32205,7 @@
         <v>2.2081218274111598</v>
       </c>
     </row>
-    <row r="541" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="541" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A541" s="19" t="s">
         <v>186</v>
       </c>
@@ -32214,7 +32226,7 @@
         <v>2.01776649746192</v>
       </c>
     </row>
-    <row r="542" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="542" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A542" s="19" t="s">
         <v>186</v>
       </c>
@@ -32235,7 +32247,7 @@
         <v>1.8147208121827401</v>
       </c>
     </row>
-    <row r="543" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="543" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A543" s="19" t="s">
         <v>186</v>
       </c>
@@ -32256,7 +32268,7 @@
         <v>1.7131979695431401</v>
       </c>
     </row>
-    <row r="544" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="544" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A544" s="19" t="s">
         <v>186</v>
       </c>
@@ -32277,7 +32289,7 @@
       </c>
       <c r="G544" s="29"/>
     </row>
-    <row r="545" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="545" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A545" s="19" t="s">
         <v>186</v>
       </c>
@@ -32298,7 +32310,7 @@
       </c>
       <c r="G545" s="29"/>
     </row>
-    <row r="546" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="546" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A546" s="19" t="s">
         <v>186</v>
       </c>
@@ -32322,7 +32334,7 @@
         <v>0.20354056631801984</v>
       </c>
     </row>
-    <row r="547" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="547" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A547" s="19" t="s">
         <v>186</v>
       </c>
@@ -32343,7 +32355,7 @@
         <v>1.5609137055837501</v>
       </c>
     </row>
-    <row r="548" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="548" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A548" s="19" t="s">
         <v>186</v>
       </c>
@@ -32364,7 +32376,7 @@
         <v>1.7131979695431401</v>
       </c>
     </row>
-    <row r="549" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="549" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A549" s="19" t="s">
         <v>186</v>
       </c>
@@ -32385,7 +32397,7 @@
         <v>1.4847715736040601</v>
       </c>
     </row>
-    <row r="550" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="550" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A550" s="19" t="s">
         <v>186</v>
       </c>
@@ -32406,7 +32418,7 @@
         <v>1.99238578680203</v>
       </c>
     </row>
-    <row r="551" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="551" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A551" s="24" t="s">
         <v>186</v>
       </c>
@@ -32427,7 +32439,7 @@
         <v>1.6116751269035501</v>
       </c>
     </row>
-    <row r="552" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="552" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A552" s="24" t="s">
         <v>186</v>
       </c>
@@ -32451,7 +32463,7 @@
         <v>0.17850707562176141</v>
       </c>
     </row>
-    <row r="553" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="553" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A553" s="24" t="s">
         <v>186</v>
       </c>
@@ -32472,7 +32484,7 @@
       </c>
       <c r="G553" s="29"/>
     </row>
-    <row r="554" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="554" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A554" s="24" t="s">
         <v>186</v>
       </c>
@@ -32493,7 +32505,7 @@
       </c>
       <c r="G554" s="29"/>
     </row>
-    <row r="555" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="555" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A555" s="24" t="s">
         <v>59</v>
       </c>
@@ -32535,7 +32547,7 @@
         <v>7605.007605007605</v>
       </c>
     </row>
-    <row r="556" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="556" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A556" s="24" t="s">
         <v>59</v>
       </c>
@@ -32577,7 +32589,7 @@
         <v>32908.532908532907</v>
       </c>
     </row>
-    <row r="557" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="557" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A557" s="24" t="s">
         <v>59</v>
       </c>
@@ -32619,7 +32631,7 @@
         <v>30357.030357030359</v>
       </c>
     </row>
-    <row r="558" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="558" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A558" s="24" t="s">
         <v>59</v>
       </c>
@@ -32661,7 +32673,7 @@
         <v>89180.189180189176</v>
       </c>
     </row>
-    <row r="559" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="559" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A559" s="24" t="s">
         <v>59</v>
       </c>
@@ -32703,7 +32715,7 @@
         <v>64570.56457056458</v>
       </c>
     </row>
-    <row r="560" spans="1:23" s="21" customFormat="1" ht="14.5">
+    <row r="560" spans="1:23" s="21" customFormat="1" ht="15">
       <c r="A560" s="24" t="s">
         <v>59</v>
       </c>
@@ -32745,7 +32757,7 @@
         <v>159390.15939015939</v>
       </c>
     </row>
-    <row r="561" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="561" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A561" s="24" t="s">
         <v>59</v>
       </c>
@@ -32787,7 +32799,7 @@
         <v>108922.60892260892</v>
       </c>
     </row>
-    <row r="562" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="562" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A562" s="24" t="s">
         <v>59</v>
       </c>
@@ -32829,7 +32841,7 @@
         <v>147537.14753714754</v>
       </c>
     </row>
-    <row r="563" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="563" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A563" s="24" t="s">
         <v>59</v>
       </c>
@@ -32871,7 +32883,7 @@
         <v>187020.18702018706</v>
       </c>
     </row>
-    <row r="564" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="564" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A564" s="24" t="s">
         <v>59</v>
       </c>
@@ -32892,7 +32904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="565" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A565" s="24" t="s">
         <v>59</v>
       </c>
@@ -32934,7 +32946,7 @@
         <v>330309.33030933037</v>
       </c>
     </row>
-    <row r="566" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="566" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A566" s="24" t="s">
         <v>59</v>
       </c>
@@ -32976,7 +32988,7 @@
         <v>389223.38922338921</v>
       </c>
     </row>
-    <row r="567" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="567" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A567" s="24" t="s">
         <v>187</v>
       </c>
@@ -33021,7 +33033,7 @@
         <v>161.90000000000003</v>
       </c>
     </row>
-    <row r="568" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="568" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A568" s="24" t="s">
         <v>187</v>
       </c>
@@ -33066,7 +33078,7 @@
         <v>154.5</v>
       </c>
     </row>
-    <row r="569" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="569" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A569" s="24" t="s">
         <v>187</v>
       </c>
@@ -33108,7 +33120,7 @@
         <v>138.49999999999997</v>
       </c>
     </row>
-    <row r="570" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="570" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A570" s="24" t="s">
         <v>187</v>
       </c>
@@ -33150,7 +33162,7 @@
         <v>151.69999999999999</v>
       </c>
     </row>
-    <row r="571" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="571" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A571" s="24" t="s">
         <v>187</v>
       </c>
@@ -33171,7 +33183,7 @@
         <v>273.88888888888886</v>
       </c>
     </row>
-    <row r="572" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="572" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A572" s="24" t="s">
         <v>187</v>
       </c>
@@ -33192,7 +33204,7 @@
         <v>274.44444444444451</v>
       </c>
     </row>
-    <row r="573" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="573" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A573" s="24" t="s">
         <v>187</v>
       </c>
@@ -33234,7 +33246,7 @@
         <v>80.999999999999972</v>
       </c>
     </row>
-    <row r="574" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="574" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A574" s="24" t="s">
         <v>187</v>
       </c>
@@ -33276,7 +33288,7 @@
         <v>64.600000000000009</v>
       </c>
     </row>
-    <row r="575" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="575" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A575" s="24" t="s">
         <v>187</v>
       </c>
@@ -33318,7 +33330,7 @@
         <v>78.40000000000002</v>
       </c>
     </row>
-    <row r="576" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="576" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A576" s="24" t="s">
         <v>187</v>
       </c>
@@ -33360,7 +33372,7 @@
         <v>89.90000000000002</v>
       </c>
     </row>
-    <row r="577" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="577" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A577" s="24" t="s">
         <v>187</v>
       </c>
@@ -33381,7 +33393,7 @@
         <v>791.88888888888891</v>
       </c>
     </row>
-    <row r="578" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="578" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A578" s="24" t="s">
         <v>187</v>
       </c>
@@ -33402,7 +33414,7 @@
         <v>619.22222222222229</v>
       </c>
     </row>
-    <row r="579" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="579" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A579" s="24" t="s">
         <v>187</v>
       </c>
@@ -33444,7 +33456,7 @@
         <v>80.7</v>
       </c>
     </row>
-    <row r="580" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="580" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A580" s="24" t="s">
         <v>187</v>
       </c>
@@ -33486,7 +33498,7 @@
         <v>82.4</v>
       </c>
     </row>
-    <row r="581" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="581" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A581" s="24" t="s">
         <v>187</v>
       </c>
@@ -33528,7 +33540,7 @@
         <v>79.600000000000023</v>
       </c>
     </row>
-    <row r="582" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="582" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A582" s="24" t="s">
         <v>187</v>
       </c>
@@ -33570,7 +33582,7 @@
         <v>87.4</v>
       </c>
     </row>
-    <row r="583" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="583" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A583" s="24" t="s">
         <v>187</v>
       </c>
@@ -33612,7 +33624,7 @@
         <v>75.800000000000011</v>
       </c>
     </row>
-    <row r="584" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="584" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A584" s="24" t="s">
         <v>187</v>
       </c>
@@ -33657,7 +33669,7 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="585" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="585" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A585" s="24" t="s">
         <v>187</v>
       </c>
@@ -33702,7 +33714,7 @@
         <v>72.099999999999994</v>
       </c>
     </row>
-    <row r="586" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="586" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A586" s="24" t="s">
         <v>187</v>
       </c>
@@ -33744,7 +33756,7 @@
         <v>74.400000000000006</v>
       </c>
     </row>
-    <row r="587" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="587" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A587" s="24" t="s">
         <v>187</v>
       </c>
@@ -33786,7 +33798,7 @@
         <v>63.300000000000004</v>
       </c>
     </row>
-    <row r="588" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="588" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A588" s="24" t="s">
         <v>187</v>
       </c>
@@ -33828,7 +33840,7 @@
         <v>69.3</v>
       </c>
     </row>
-    <row r="589" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="589" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A589" s="24" t="s">
         <v>187</v>
       </c>
@@ -33870,7 +33882,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="590" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="590" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A590" s="24" t="s">
         <v>187</v>
       </c>
@@ -33912,7 +33924,7 @@
         <v>70.099999999999994</v>
       </c>
     </row>
-    <row r="591" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="591" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A591" s="19" t="s">
         <v>187</v>
       </c>
@@ -33936,7 +33948,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="592" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="592" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A592" s="19" t="s">
         <v>187</v>
       </c>
@@ -33960,7 +33972,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="593" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="593" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A593" s="19" t="s">
         <v>187</v>
       </c>
@@ -34002,7 +34014,7 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="594" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="594" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A594" s="19" t="s">
         <v>187</v>
       </c>
@@ -34044,7 +34056,7 @@
         <v>55.899999999999991</v>
       </c>
     </row>
-    <row r="595" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="595" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A595" s="19" t="s">
         <v>187</v>
       </c>
@@ -34086,7 +34098,7 @@
         <v>68.399999999999991</v>
       </c>
     </row>
-    <row r="596" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="596" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A596" s="19" t="s">
         <v>187</v>
       </c>
@@ -34128,7 +34140,7 @@
         <v>51.800000000000004</v>
       </c>
     </row>
-    <row r="597" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="597" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A597" s="19" t="s">
         <v>188</v>
       </c>
@@ -34173,7 +34185,7 @@
         <v>134.60000000000002</v>
       </c>
     </row>
-    <row r="598" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="598" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A598" s="19" t="s">
         <v>188</v>
       </c>
@@ -34218,7 +34230,7 @@
         <v>113.39999999999999</v>
       </c>
     </row>
-    <row r="599" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="599" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A599" s="19" t="s">
         <v>188</v>
       </c>
@@ -34260,7 +34272,7 @@
         <v>119.70000000000002</v>
       </c>
     </row>
-    <row r="600" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="600" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A600" s="19" t="s">
         <v>188</v>
       </c>
@@ -34281,7 +34293,7 @@
         <v>219.2222222222222</v>
       </c>
     </row>
-    <row r="601" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="601" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A601" s="19" t="s">
         <v>188</v>
       </c>
@@ -34302,7 +34314,7 @@
         <v>322.11111111111109</v>
       </c>
     </row>
-    <row r="602" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="602" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A602" s="19" t="s">
         <v>188</v>
       </c>
@@ -34344,7 +34356,7 @@
         <v>139.79999999999998</v>
       </c>
     </row>
-    <row r="603" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="603" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A603" s="19" t="s">
         <v>188</v>
       </c>
@@ -34386,7 +34398,7 @@
         <v>86.8</v>
       </c>
     </row>
-    <row r="604" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="604" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A604" s="19" t="s">
         <v>188</v>
       </c>
@@ -34428,7 +34440,7 @@
         <v>87.300000000000011</v>
       </c>
     </row>
-    <row r="605" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="605" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A605" s="19" t="s">
         <v>188</v>
       </c>
@@ -34470,7 +34482,7 @@
         <v>80.500000000000014</v>
       </c>
     </row>
-    <row r="606" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="606" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A606" s="19" t="s">
         <v>188</v>
       </c>
@@ -34512,7 +34524,7 @@
         <v>93.000000000000014</v>
       </c>
     </row>
-    <row r="607" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="607" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A607" s="19" t="s">
         <v>188</v>
       </c>
@@ -34533,7 +34545,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="608" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="608" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A608" s="19" t="s">
         <v>188</v>
       </c>
@@ -34554,7 +34566,7 @@
         <v>630.33333333333326</v>
       </c>
     </row>
-    <row r="609" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="609" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A609" s="19" t="s">
         <v>188</v>
       </c>
@@ -34596,7 +34608,7 @@
         <v>81.199999999999989</v>
       </c>
     </row>
-    <row r="610" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="610" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A610" s="19" t="s">
         <v>188</v>
       </c>
@@ -34638,7 +34650,7 @@
         <v>88.100000000000023</v>
       </c>
     </row>
-    <row r="611" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="611" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A611" s="19" t="s">
         <v>188</v>
       </c>
@@ -34680,7 +34692,7 @@
         <v>86.999999999999972</v>
       </c>
     </row>
-    <row r="612" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="612" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A612" s="19" t="s">
         <v>188</v>
       </c>
@@ -34722,7 +34734,7 @@
         <v>72.400000000000006</v>
       </c>
     </row>
-    <row r="613" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="613" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A613" s="19" t="s">
         <v>188</v>
       </c>
@@ -34767,7 +34779,7 @@
         <v>86.8</v>
       </c>
     </row>
-    <row r="614" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="614" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A614" s="19" t="s">
         <v>188</v>
       </c>
@@ -34812,7 +34824,7 @@
         <v>83.90000000000002</v>
       </c>
     </row>
-    <row r="615" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="615" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A615" s="19" t="s">
         <v>188</v>
       </c>
@@ -34854,7 +34866,7 @@
         <v>82.200000000000017</v>
       </c>
     </row>
-    <row r="616" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="616" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A616" s="19" t="s">
         <v>188</v>
       </c>
@@ -34896,7 +34908,7 @@
         <v>85.800000000000011</v>
       </c>
     </row>
-    <row r="617" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="617" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A617" s="19" t="s">
         <v>188</v>
       </c>
@@ -34938,7 +34950,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="618" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="618" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A618" s="19" t="s">
         <v>188</v>
       </c>
@@ -34980,7 +34992,7 @@
         <v>87.7</v>
       </c>
     </row>
-    <row r="619" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="619" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A619" s="19" t="s">
         <v>188</v>
       </c>
@@ -35022,7 +35034,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="620" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="620" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A620" s="19" t="s">
         <v>188</v>
       </c>
@@ -35064,7 +35076,7 @@
         <v>80.099999999999994</v>
       </c>
     </row>
-    <row r="621" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="621" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A621" s="19" t="s">
         <v>188</v>
       </c>
@@ -35085,7 +35097,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="622" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="622" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A622" s="19" t="s">
         <v>188</v>
       </c>
@@ -35106,7 +35118,7 @@
         <v>2078.6666666666665</v>
       </c>
     </row>
-    <row r="623" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="623" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A623" s="19" t="s">
         <v>169</v>
       </c>
@@ -35127,7 +35139,7 @@
         <v>0.3671875</v>
       </c>
     </row>
-    <row r="624" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="624" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A624" s="19" t="s">
         <v>169</v>
       </c>
@@ -35148,7 +35160,7 @@
         <v>0.55249999999999999</v>
       </c>
     </row>
-    <row r="625" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="625" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A625" s="19" t="s">
         <v>169</v>
       </c>
@@ -35169,7 +35181,7 @@
         <v>0.74156250000000001</v>
       </c>
     </row>
-    <row r="626" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="626" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A626" s="19" t="s">
         <v>169</v>
       </c>
@@ -35193,7 +35205,7 @@
         <v>0.30312499999999998</v>
       </c>
     </row>
-    <row r="627" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="627" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A627" s="19" t="s">
         <v>169</v>
       </c>
@@ -35217,7 +35229,7 @@
         <v>1.2124999999999999</v>
       </c>
     </row>
-    <row r="628" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="628" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A628" s="19" t="s">
         <v>169</v>
       </c>
@@ -35241,7 +35253,7 @@
         <v>2.3187500000000001</v>
       </c>
     </row>
-    <row r="629" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="629" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A629" s="19" t="s">
         <v>169</v>
       </c>
@@ -35265,7 +35277,7 @@
         <v>3.078125</v>
       </c>
     </row>
-    <row r="630" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="630" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A630" s="19" t="s">
         <v>169</v>
       </c>
@@ -35289,7 +35301,7 @@
         <v>4.203125</v>
       </c>
     </row>
-    <row r="631" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="631" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A631" s="19" t="s">
         <v>169</v>
       </c>
@@ -35313,7 +35325,7 @@
         <v>4.984375</v>
       </c>
     </row>
-    <row r="632" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="632" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A632" s="19" t="s">
         <v>169</v>
       </c>
@@ -35337,7 +35349,7 @@
         <v>5.4645161290322584</v>
       </c>
     </row>
-    <row r="633" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="633" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A633" s="19" t="s">
         <v>169</v>
       </c>
@@ -35361,7 +35373,7 @@
         <v>6.1032258064516141</v>
       </c>
     </row>
-    <row r="634" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="634" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A634" s="19" t="s">
         <v>169</v>
       </c>
@@ -35385,7 +35397,7 @@
         <v>6.6645161290322577</v>
       </c>
     </row>
-    <row r="635" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="635" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A635" s="19" t="s">
         <v>169</v>
       </c>
@@ -35409,7 +35421,7 @@
         <v>6.9419354838709673</v>
       </c>
     </row>
-    <row r="636" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="636" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A636" s="19" t="s">
         <v>169</v>
       </c>
@@ -35430,7 +35442,7 @@
         <v>7.058064516129031</v>
       </c>
     </row>
-    <row r="637" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="637" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A637" s="19" t="s">
         <v>169</v>
       </c>
@@ -35454,7 +35466,7 @@
         <v>7.4225806451612915</v>
       </c>
     </row>
-    <row r="638" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="638" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A638" s="19" t="s">
         <v>169</v>
       </c>
@@ -35475,7 +35487,7 @@
         <v>7.6935483870967722</v>
       </c>
     </row>
-    <row r="639" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="639" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A639" s="19" t="s">
         <v>169</v>
       </c>
@@ -35496,7 +35508,7 @@
         <v>7.8903225806451607</v>
       </c>
     </row>
-    <row r="640" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="640" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A640" s="19" t="s">
         <v>169</v>
       </c>
@@ -35517,7 +35529,7 @@
         <v>8.3935483870967698</v>
       </c>
     </row>
-    <row r="641" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="641" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A641" s="19" t="s">
         <v>169</v>
       </c>
@@ -35541,7 +35553,7 @@
         <v>8.6741935483870964</v>
       </c>
     </row>
-    <row r="642" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="642" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A642" s="19" t="s">
         <v>169</v>
       </c>
@@ -35562,7 +35574,7 @@
         <v>9.5483870967741939</v>
       </c>
     </row>
-    <row r="643" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="643" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A643" s="19" t="s">
         <v>169</v>
       </c>
@@ -35583,7 +35595,7 @@
         <v>9.7709677419354808</v>
       </c>
     </row>
-    <row r="644" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="644" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A644" s="19" t="s">
         <v>169</v>
       </c>
@@ -35607,7 +35619,7 @@
         <v>10.583333333333336</v>
       </c>
     </row>
-    <row r="645" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="645" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A645" s="19" t="s">
         <v>169</v>
       </c>
@@ -35631,7 +35643,7 @@
         <v>11.053333333333335</v>
       </c>
     </row>
-    <row r="646" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="646" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A646" s="19" t="s">
         <v>169</v>
       </c>
@@ -35655,7 +35667,7 @@
         <v>12.255172413793105</v>
       </c>
     </row>
-    <row r="647" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="647" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A647" s="19" t="s">
         <v>170</v>
       </c>
@@ -35676,7 +35688,7 @@
         <v>0.36343750000000002</v>
       </c>
     </row>
-    <row r="648" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="648" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A648" s="19" t="s">
         <v>170</v>
       </c>
@@ -35697,7 +35709,7 @@
         <v>1.1825000000000001</v>
       </c>
     </row>
-    <row r="649" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="649" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A649" s="19" t="s">
         <v>170</v>
       </c>
@@ -35718,7 +35730,7 @@
         <v>2.3565624999999999</v>
       </c>
     </row>
-    <row r="650" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="650" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A650" s="19" t="s">
         <v>170</v>
       </c>
@@ -35742,7 +35754,7 @@
         <v>4.78125</v>
       </c>
     </row>
-    <row r="651" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="651" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A651" s="19" t="s">
         <v>170</v>
       </c>
@@ -35766,7 +35778,7 @@
         <v>6.9718749999999998</v>
       </c>
     </row>
-    <row r="652" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="652" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A652" s="19" t="s">
         <v>170</v>
       </c>
@@ -35790,7 +35802,7 @@
         <v>8.7281250000000004</v>
       </c>
     </row>
-    <row r="653" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="653" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A653" s="19" t="s">
         <v>170</v>
       </c>
@@ -35814,7 +35826,7 @@
         <v>9.9406250000000007</v>
       </c>
     </row>
-    <row r="654" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="654" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A654" s="19" t="s">
         <v>170</v>
       </c>
@@ -35838,7 +35850,7 @@
         <v>11.493548387096775</v>
       </c>
     </row>
-    <row r="655" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="655" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A655" s="19" t="s">
         <v>170</v>
       </c>
@@ -35862,7 +35874,7 @@
         <v>12.612903225806452</v>
       </c>
     </row>
-    <row r="656" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="656" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A656" s="19" t="s">
         <v>170</v>
       </c>
@@ -35886,7 +35898,7 @@
         <v>13.319354838709677</v>
       </c>
     </row>
-    <row r="657" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="657" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A657" s="19" t="s">
         <v>170</v>
       </c>
@@ -35910,7 +35922,7 @@
         <v>14.087096774193546</v>
       </c>
     </row>
-    <row r="658" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="658" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A658" s="19" t="s">
         <v>170</v>
       </c>
@@ -35934,7 +35946,7 @@
         <v>14.50322580645161</v>
       </c>
     </row>
-    <row r="659" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="659" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A659" s="19" t="s">
         <v>170</v>
       </c>
@@ -35958,7 +35970,7 @@
         <v>15.046666666666665</v>
       </c>
     </row>
-    <row r="660" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="660" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A660" s="19" t="s">
         <v>170</v>
       </c>
@@ -35979,7 +35991,7 @@
         <v>15.15</v>
       </c>
     </row>
-    <row r="661" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="661" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A661" s="19" t="s">
         <v>170</v>
       </c>
@@ -36003,7 +36015,7 @@
         <v>15.51</v>
       </c>
     </row>
-    <row r="662" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="662" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A662" s="19" t="s">
         <v>170</v>
       </c>
@@ -36024,7 +36036,7 @@
         <v>15.69</v>
       </c>
     </row>
-    <row r="663" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="663" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A663" s="19" t="s">
         <v>170</v>
       </c>
@@ -36045,7 +36057,7 @@
         <v>15.81</v>
       </c>
     </row>
-    <row r="664" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="664" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A664" s="19" t="s">
         <v>170</v>
       </c>
@@ -36066,7 +36078,7 @@
         <v>16.260000000000002</v>
       </c>
     </row>
-    <row r="665" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="665" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A665" s="19" t="s">
         <v>170</v>
       </c>
@@ -36090,7 +36102,7 @@
         <v>16.356666666666669</v>
       </c>
     </row>
-    <row r="666" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="666" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A666" s="19" t="s">
         <v>170</v>
       </c>
@@ -36111,7 +36123,7 @@
         <v>17.383333333333329</v>
       </c>
     </row>
-    <row r="667" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="667" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A667" s="19" t="s">
         <v>170</v>
       </c>
@@ -36132,7 +36144,7 @@
         <v>17.616666666666664</v>
       </c>
     </row>
-    <row r="668" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="668" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A668" s="19" t="s">
         <v>170</v>
       </c>
@@ -36156,7 +36168,7 @@
         <v>17.89</v>
       </c>
     </row>
-    <row r="669" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="669" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A669" s="19" t="s">
         <v>170</v>
       </c>
@@ -36180,7 +36192,7 @@
         <v>18.306666666666665</v>
       </c>
     </row>
-    <row r="670" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="670" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A670" s="19" t="s">
         <v>170</v>
       </c>
@@ -36204,7 +36216,7 @@
         <v>19.013793103448272</v>
       </c>
     </row>
-    <row r="671" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="671" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A671" s="19" t="s">
         <v>171</v>
       </c>
@@ -36225,7 +36237,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="672" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="672" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A672" s="19" t="s">
         <v>171</v>
       </c>
@@ -36246,7 +36258,7 @@
         <v>0.55625000000000002</v>
       </c>
     </row>
-    <row r="673" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="673" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A673" s="19" t="s">
         <v>171</v>
       </c>
@@ -36267,7 +36279,7 @@
         <v>0.81562500000000004</v>
       </c>
     </row>
-    <row r="674" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="674" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A674" s="19" t="s">
         <v>171</v>
       </c>
@@ -36291,7 +36303,7 @@
         <v>0.67812499999999998</v>
       </c>
     </row>
-    <row r="675" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="675" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A675" s="19" t="s">
         <v>171</v>
       </c>
@@ -36315,7 +36327,7 @@
         <v>2.2312500000000002</v>
       </c>
     </row>
-    <row r="676" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="676" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A676" s="19" t="s">
         <v>171</v>
       </c>
@@ -36339,7 +36351,7 @@
         <v>3.4281250000000001</v>
       </c>
     </row>
-    <row r="677" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="677" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A677" s="19" t="s">
         <v>171</v>
       </c>
@@ -36363,7 +36375,7 @@
         <v>4.0718750000000004</v>
       </c>
     </row>
-    <row r="678" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="678" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A678" s="19" t="s">
         <v>171</v>
       </c>
@@ -36387,7 +36399,7 @@
         <v>5.0281250000000002</v>
       </c>
     </row>
-    <row r="679" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="679" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A679" s="19" t="s">
         <v>171</v>
       </c>
@@ -36411,7 +36423,7 @@
         <v>5.6124999999999998</v>
       </c>
     </row>
-    <row r="680" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="680" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A680" s="19" t="s">
         <v>171</v>
       </c>
@@ -36436,7 +36448,7 @@
         <v>6.0687499999999996</v>
       </c>
     </row>
-    <row r="681" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="681" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A681" s="19" t="s">
         <v>171</v>
       </c>
@@ -36461,7 +36473,7 @@
         <v>6.35</v>
       </c>
     </row>
-    <row r="682" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="682" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A682" s="19" t="s">
         <v>171</v>
       </c>
@@ -36486,7 +36498,7 @@
         <v>6.6624999999999996</v>
       </c>
     </row>
-    <row r="683" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="683" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A683" s="19" t="s">
         <v>171</v>
       </c>
@@ -36511,7 +36523,7 @@
         <v>6.8624999999999998</v>
       </c>
     </row>
-    <row r="684" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="684" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A684" s="19" t="s">
         <v>171</v>
       </c>
@@ -36533,7 +36545,7 @@
         <v>7.0125000000000002</v>
       </c>
     </row>
-    <row r="685" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="685" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A685" s="19" t="s">
         <v>171</v>
       </c>
@@ -36557,7 +36569,7 @@
         <v>7.2218749999999998</v>
       </c>
     </row>
-    <row r="686" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="686" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A686" s="19" t="s">
         <v>171</v>
       </c>
@@ -36578,7 +36590,7 @@
         <v>7.3375000000000004</v>
       </c>
     </row>
-    <row r="687" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="687" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A687" s="19" t="s">
         <v>171</v>
       </c>
@@ -36599,7 +36611,7 @@
         <v>7.7374999999999998</v>
       </c>
     </row>
-    <row r="688" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="688" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A688" s="19" t="s">
         <v>171</v>
       </c>
@@ -36620,7 +36632,7 @@
         <v>8.3874999999999993</v>
       </c>
     </row>
-    <row r="689" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="689" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A689" s="19" t="s">
         <v>171</v>
       </c>
@@ -36644,7 +36656,7 @@
         <v>8.7281250000000004</v>
       </c>
     </row>
-    <row r="690" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="690" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A690" s="19" t="s">
         <v>171</v>
       </c>
@@ -36666,7 +36678,7 @@
         <v>9.9312500000000004</v>
       </c>
     </row>
-    <row r="691" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="691" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A691" s="19" t="s">
         <v>171</v>
       </c>
@@ -36688,7 +36700,7 @@
         <v>10.125</v>
       </c>
     </row>
-    <row r="692" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="692" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A692" s="19" t="s">
         <v>171</v>
       </c>
@@ -36713,7 +36725,7 @@
         <v>10.69375</v>
       </c>
     </row>
-    <row r="693" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="693" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A693" s="19" t="s">
         <v>171</v>
       </c>
@@ -36738,7 +36750,7 @@
         <v>11.246874999999999</v>
       </c>
     </row>
-    <row r="694" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="694" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A694" s="19" t="s">
         <v>171</v>
       </c>
@@ -36763,7 +36775,7 @@
         <v>11.909375000000001</v>
       </c>
     </row>
-    <row r="695" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="695" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A695" s="19" t="s">
         <v>172</v>
       </c>
@@ -36785,7 +36797,7 @@
         <v>0.36749999999999999</v>
       </c>
     </row>
-    <row r="696" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="696" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A696" s="19" t="s">
         <v>172</v>
       </c>
@@ -36807,7 +36819,7 @@
         <v>1.34375</v>
       </c>
     </row>
-    <row r="697" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="697" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A697" s="19" t="s">
         <v>172</v>
       </c>
@@ -36829,7 +36841,7 @@
         <v>2.5812499999999998</v>
       </c>
     </row>
-    <row r="698" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="698" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A698" s="19" t="s">
         <v>172</v>
       </c>
@@ -36854,7 +36866,7 @@
         <v>5.5966666666666667</v>
       </c>
     </row>
-    <row r="699" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="699" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A699" s="19" t="s">
         <v>172</v>
       </c>
@@ -36879,7 +36891,7 @@
         <v>8.144827586206894</v>
       </c>
     </row>
-    <row r="700" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="700" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A700" s="19" t="s">
         <v>172</v>
       </c>
@@ -36904,7 +36916,7 @@
         <v>10.004545454545454</v>
       </c>
     </row>
-    <row r="701" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="701" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A701" s="19" t="s">
         <v>172</v>
       </c>
@@ -36929,7 +36941,7 @@
         <v>11.272727272727273</v>
       </c>
     </row>
-    <row r="702" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="702" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A702" s="19" t="s">
         <v>172</v>
       </c>
@@ -36954,7 +36966,7 @@
         <v>12.945</v>
       </c>
     </row>
-    <row r="703" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="703" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A703" s="19" t="s">
         <v>172</v>
       </c>
@@ -36979,7 +36991,7 @@
         <v>14.175000000000001</v>
       </c>
     </row>
-    <row r="704" spans="1:29" s="21" customFormat="1" ht="14.5">
+    <row r="704" spans="1:29" s="21" customFormat="1" ht="15">
       <c r="A704" s="19" t="s">
         <v>172</v>
       </c>
@@ -37004,7 +37016,7 @@
         <v>14.99</v>
       </c>
     </row>
-    <row r="705" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="705" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A705" s="19" t="s">
         <v>172</v>
       </c>
@@ -37028,7 +37040,7 @@
         <v>15.82</v>
       </c>
     </row>
-    <row r="706" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="706" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A706" s="19" t="s">
         <v>172</v>
       </c>
@@ -37052,7 +37064,7 @@
         <v>16.64</v>
       </c>
     </row>
-    <row r="707" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="707" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A707" s="19" t="s">
         <v>172</v>
       </c>
@@ -37076,7 +37088,7 @@
         <v>16.965</v>
       </c>
     </row>
-    <row r="708" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="708" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A708" s="19" t="s">
         <v>172</v>
       </c>
@@ -37097,7 +37109,7 @@
         <v>17.135000000000002</v>
       </c>
     </row>
-    <row r="709" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="709" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A709" s="19" t="s">
         <v>172</v>
       </c>
@@ -37121,7 +37133,7 @@
         <v>17.344999999999999</v>
       </c>
     </row>
-    <row r="710" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="710" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A710" s="19" t="s">
         <v>172</v>
       </c>
@@ -37142,7 +37154,7 @@
         <v>17.52</v>
       </c>
     </row>
-    <row r="711" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="711" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A711" s="19" t="s">
         <v>172</v>
       </c>
@@ -37163,7 +37175,7 @@
         <v>17.79</v>
       </c>
     </row>
-    <row r="712" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="712" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A712" s="19" t="s">
         <v>172</v>
       </c>
@@ -37184,7 +37196,7 @@
         <v>18.579999999999998</v>
       </c>
     </row>
-    <row r="713" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="713" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A713" s="19" t="s">
         <v>172</v>
       </c>
@@ -37208,7 +37220,7 @@
         <v>18.89</v>
       </c>
     </row>
-    <row r="714" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="714" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A714" s="19" t="s">
         <v>172</v>
       </c>
@@ -37229,7 +37241,7 @@
         <v>20.994736842105265</v>
       </c>
     </row>
-    <row r="715" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="715" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A715" s="19" t="s">
         <v>172</v>
       </c>
@@ -37251,7 +37263,7 @@
         <v>21.378947368421056</v>
       </c>
     </row>
-    <row r="716" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="716" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A716" s="19" t="s">
         <v>172</v>
       </c>
@@ -37276,7 +37288,7 @@
         <v>21.93684210526316</v>
       </c>
     </row>
-    <row r="717" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="717" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A717" s="19" t="s">
         <v>172</v>
       </c>
@@ -37301,7 +37313,7 @@
         <v>22.252631578947362</v>
       </c>
     </row>
-    <row r="718" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="718" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A718" s="19" t="s">
         <v>172</v>
       </c>
@@ -37326,7 +37338,7 @@
         <v>22.484210526315788</v>
       </c>
     </row>
-    <row r="719" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="719" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A719" s="19" t="s">
         <v>172</v>
       </c>
@@ -37370,7 +37382,7 @@
         <v>82.716049382716022</v>
       </c>
     </row>
-    <row r="720" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="720" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A720" s="19" t="s">
         <v>172</v>
       </c>
@@ -37414,7 +37426,7 @@
         <v>106.45161290322581</v>
       </c>
     </row>
-    <row r="721" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="721" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A721" s="19" t="s">
         <v>172</v>
       </c>
@@ -37458,7 +37470,7 @@
         <v>96.15384615384616</v>
       </c>
     </row>
-    <row r="722" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="722" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A722" s="19" t="s">
         <v>172</v>
       </c>
@@ -37502,7 +37514,7 @@
         <v>93.260869565217405</v>
       </c>
     </row>
-    <row r="723" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="723" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A723" s="19" t="s">
         <v>172</v>
       </c>
@@ -37546,7 +37558,7 @@
         <v>97.727272727272734</v>
       </c>
     </row>
-    <row r="724" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="724" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A724" s="19" t="s">
         <v>172</v>
       </c>
@@ -37590,7 +37602,7 @@
         <v>61.442915733214505</v>
       </c>
     </row>
-    <row r="725" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="725" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A725" s="19" t="s">
         <v>172</v>
       </c>
@@ -37634,7 +37646,7 @@
         <v>59.992738621386081</v>
       </c>
     </row>
-    <row r="726" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="726" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A726" s="19" t="s">
         <v>172</v>
       </c>
@@ -37678,7 +37690,7 @@
         <v>59.984620057361866</v>
       </c>
     </row>
-    <row r="727" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="727" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A727" s="19" t="s">
         <v>172</v>
       </c>
@@ -37722,7 +37734,7 @@
         <v>59.9089234523274</v>
       </c>
     </row>
-    <row r="728" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="728" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A728" s="19" t="s">
         <v>172</v>
       </c>
@@ -37766,7 +37778,7 @@
         <v>57.547536656280826</v>
       </c>
     </row>
-    <row r="729" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="729" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A729" s="19" t="s">
         <v>171</v>
       </c>
@@ -37810,7 +37822,7 @@
         <v>84.210526315789465</v>
       </c>
     </row>
-    <row r="730" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="730" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A730" s="19" t="s">
         <v>171</v>
       </c>
@@ -37854,7 +37866,7 @@
         <v>37.640449438202246</v>
       </c>
     </row>
-    <row r="731" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="731" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A731" s="19" t="s">
         <v>171</v>
       </c>
@@ -37898,7 +37910,7 @@
         <v>96.478873239436624</v>
       </c>
     </row>
-    <row r="732" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="732" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A732" s="19" t="s">
         <v>171</v>
       </c>
@@ -37942,7 +37954,7 @@
         <v>102.00000000000001</v>
       </c>
     </row>
-    <row r="733" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="733" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A733" s="19" t="s">
         <v>171</v>
       </c>
@@ -37986,7 +37998,7 @@
         <v>101.73913043478262</v>
       </c>
     </row>
-    <row r="734" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="734" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A734" s="19" t="s">
         <v>171</v>
       </c>
@@ -38030,7 +38042,7 @@
         <v>64.487962471556543</v>
       </c>
     </row>
-    <row r="735" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="735" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A735" s="19" t="s">
         <v>171</v>
       </c>
@@ -38073,7 +38085,7 @@
         <v>60.938416298404768</v>
       </c>
     </row>
-    <row r="736" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="736" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A736" s="19" t="s">
         <v>171</v>
       </c>
@@ -38116,7 +38128,7 @@
         <v>60.662254679692836</v>
       </c>
     </row>
-    <row r="737" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="737" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A737" s="19" t="s">
         <v>171</v>
       </c>
@@ -38159,7 +38171,7 @@
         <v>60.532472626658461</v>
       </c>
     </row>
-    <row r="738" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="738" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A738" s="19" t="s">
         <v>171</v>
       </c>
@@ -38202,7 +38214,7 @@
         <v>60.307004358320533</v>
       </c>
     </row>
-    <row r="739" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="739" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A739" s="19" t="s">
         <v>170</v>
       </c>
@@ -38245,7 +38257,7 @@
         <v>87.922705314009676</v>
       </c>
     </row>
-    <row r="740" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="740" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A740" s="19" t="s">
         <v>170</v>
       </c>
@@ -38288,7 +38300,7 @@
         <v>104.94117647058825</v>
       </c>
     </row>
-    <row r="741" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="741" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A741" s="19" t="s">
         <v>170</v>
       </c>
@@ -38331,7 +38343,7 @@
         <v>97.76422764227641</v>
       </c>
     </row>
-    <row r="742" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="742" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A742" s="19" t="s">
         <v>170</v>
       </c>
@@ -38374,7 +38386,7 @@
         <v>105.04385964912282</v>
       </c>
     </row>
-    <row r="743" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="743" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A743" s="19" t="s">
         <v>170</v>
       </c>
@@ -38417,7 +38429,7 @@
         <v>100.1937984496124</v>
       </c>
     </row>
-    <row r="744" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="744" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A744" s="19" t="s">
         <v>170</v>
       </c>
@@ -38460,7 +38472,7 @@
         <v>60.635193134974074</v>
       </c>
     </row>
-    <row r="745" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="745" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A745" s="19" t="s">
         <v>170</v>
       </c>
@@ -38503,7 +38515,7 @@
         <v>59.908670806839915</v>
       </c>
     </row>
-    <row r="746" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="746" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A746" s="19" t="s">
         <v>170</v>
       </c>
@@ -38546,7 +38558,7 @@
         <v>59.881844578474187</v>
       </c>
     </row>
-    <row r="747" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="747" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A747" s="19" t="s">
         <v>170</v>
       </c>
@@ -38589,7 +38601,7 @@
         <v>59.900377511143951</v>
       </c>
     </row>
-    <row r="748" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="748" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A748" s="19" t="s">
         <v>170</v>
       </c>
@@ -38632,7 +38644,7 @@
         <v>59.873661419716925</v>
       </c>
     </row>
-    <row r="749" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="749" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A749" s="19" t="s">
         <v>169</v>
       </c>
@@ -38675,7 +38687,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="750" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="750" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A750" s="19" t="s">
         <v>169</v>
       </c>
@@ -38718,7 +38730,7 @@
         <v>46.067415730337075</v>
       </c>
     </row>
-    <row r="751" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="751" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A751" s="19" t="s">
         <v>169</v>
       </c>
@@ -38761,7 +38773,7 @@
         <v>103.03030303030303</v>
       </c>
     </row>
-    <row r="752" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="752" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A752" s="19" t="s">
         <v>169</v>
       </c>
@@ -38804,7 +38816,7 @@
         <v>92.156862745098024</v>
       </c>
     </row>
-    <row r="753" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="753" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A753" s="19" t="s">
         <v>169</v>
       </c>
@@ -38847,7 +38859,7 @@
         <v>81.578947368421055</v>
       </c>
     </row>
-    <row r="754" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="754" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A754" s="19" t="s">
         <v>169</v>
       </c>
@@ -38890,7 +38902,7 @@
         <v>63.836150711215744</v>
       </c>
     </row>
-    <row r="755" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="755" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A755" s="19" t="s">
         <v>169</v>
       </c>
@@ -38933,7 +38945,7 @@
         <v>60.516619948717498</v>
       </c>
     </row>
-    <row r="756" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="756" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A756" s="19" t="s">
         <v>169</v>
       </c>
@@ -38976,7 +38988,7 @@
         <v>60.523115209098847</v>
       </c>
     </row>
-    <row r="757" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="757" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A757" s="19" t="s">
         <v>169</v>
       </c>
@@ -39019,7 +39031,7 @@
         <v>60.365353940663141</v>
       </c>
     </row>
-    <row r="758" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="758" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A758" s="19" t="s">
         <v>169</v>
       </c>
@@ -39062,7 +39074,7 @@
         <v>60.282201119467167</v>
       </c>
     </row>
-    <row r="759" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="759" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A759" s="19" t="s">
         <v>189</v>
       </c>
@@ -39104,7 +39116,7 @@
         <v>138.20000000000002</v>
       </c>
     </row>
-    <row r="760" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="760" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A760" s="19" t="s">
         <v>189</v>
       </c>
@@ -39146,7 +39158,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="761" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="761" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A761" s="19" t="s">
         <v>189</v>
       </c>
@@ -39188,7 +39200,7 @@
         <v>135.30000000000001</v>
       </c>
     </row>
-    <row r="762" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="762" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A762" s="19" t="s">
         <v>189</v>
       </c>
@@ -39230,7 +39242,7 @@
         <v>143.20000000000002</v>
       </c>
     </row>
-    <row r="763" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="763" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A763" s="19" t="s">
         <v>189</v>
       </c>
@@ -39251,7 +39263,7 @@
         <v>5.2222222222222223</v>
       </c>
     </row>
-    <row r="764" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="764" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A764" s="19" t="s">
         <v>189</v>
       </c>
@@ -39272,7 +39284,7 @@
         <v>6.2222222222222223</v>
       </c>
     </row>
-    <row r="765" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="765" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A765" s="19" t="s">
         <v>189</v>
       </c>
@@ -39293,7 +39305,7 @@
         <v>398.77777777777777</v>
       </c>
     </row>
-    <row r="766" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="766" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A766" s="19" t="s">
         <v>189</v>
       </c>
@@ -39314,7 +39326,7 @@
         <v>347.44444444444446</v>
       </c>
     </row>
-    <row r="767" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="767" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A767" s="19" t="s">
         <v>189</v>
       </c>
@@ -39356,7 +39368,7 @@
         <v>107.8</v>
       </c>
     </row>
-    <row r="768" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="768" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A768" s="19" t="s">
         <v>189</v>
       </c>
@@ -39398,7 +39410,7 @@
         <v>106.5</v>
       </c>
     </row>
-    <row r="769" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="769" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A769" s="19" t="s">
         <v>189</v>
       </c>
@@ -39440,7 +39452,7 @@
         <v>99.800000000000011</v>
       </c>
     </row>
-    <row r="770" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="770" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A770" s="19" t="s">
         <v>189</v>
       </c>
@@ -39482,7 +39494,7 @@
         <v>103.6</v>
       </c>
     </row>
-    <row r="771" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="771" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A771" s="19" t="s">
         <v>189</v>
       </c>
@@ -39503,7 +39515,7 @@
         <v>874.66666666666663</v>
       </c>
     </row>
-    <row r="772" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="772" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A772" s="19" t="s">
         <v>189</v>
       </c>
@@ -39524,7 +39536,7 @@
         <v>822.33333333333326</v>
       </c>
     </row>
-    <row r="773" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="773" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A773" s="19" t="s">
         <v>189</v>
       </c>
@@ -39566,7 +39578,7 @@
         <v>84.399999999999991</v>
       </c>
     </row>
-    <row r="774" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="774" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A774" s="19" t="s">
         <v>189</v>
       </c>
@@ -39608,7 +39620,7 @@
         <v>88.2</v>
       </c>
     </row>
-    <row r="775" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="775" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A775" s="19" t="s">
         <v>189</v>
       </c>
@@ -39650,7 +39662,7 @@
         <v>91.300000000000011</v>
       </c>
     </row>
-    <row r="776" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="776" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A776" s="19" t="s">
         <v>189</v>
       </c>
@@ -39692,7 +39704,7 @@
         <v>84.700000000000017</v>
       </c>
     </row>
-    <row r="777" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="777" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A777" s="19" t="s">
         <v>189</v>
       </c>
@@ -39713,7 +39725,7 @@
         <v>970.1111111111112</v>
       </c>
     </row>
-    <row r="778" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="778" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A778" s="19" t="s">
         <v>189</v>
       </c>
@@ -39734,7 +39746,7 @@
         <v>1412.2222222222222</v>
       </c>
     </row>
-    <row r="779" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="779" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A779" s="19" t="s">
         <v>189</v>
       </c>
@@ -39776,7 +39788,7 @@
         <v>69.7</v>
       </c>
     </row>
-    <row r="780" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="780" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A780" s="19" t="s">
         <v>189</v>
       </c>
@@ -39818,7 +39830,7 @@
         <v>64.600000000000009</v>
       </c>
     </row>
-    <row r="781" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="781" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A781" s="19" t="s">
         <v>189</v>
       </c>
@@ -39860,7 +39872,7 @@
         <v>78.3</v>
       </c>
     </row>
-    <row r="782" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="782" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A782" s="19" t="s">
         <v>189</v>
       </c>
@@ -39902,7 +39914,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="783" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="783" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A783" s="19" t="s">
         <v>189</v>
       </c>
@@ -39923,7 +39935,7 @@
         <v>1943.3333333333333</v>
       </c>
     </row>
-    <row r="784" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="784" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A784" s="19" t="s">
         <v>189</v>
       </c>
@@ -39944,7 +39956,7 @@
         <v>1870.7777777777776</v>
       </c>
     </row>
-    <row r="785" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="785" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A785" s="19" t="s">
         <v>189</v>
       </c>
@@ -39986,7 +39998,7 @@
         <v>64.199999999999989</v>
       </c>
     </row>
-    <row r="786" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="786" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A786" s="19" t="s">
         <v>189</v>
       </c>
@@ -40028,7 +40040,7 @@
         <v>68.800000000000011</v>
       </c>
     </row>
-    <row r="787" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="787" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A787" s="19" t="s">
         <v>189</v>
       </c>
@@ -40070,7 +40082,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="788" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="788" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A788" s="19" t="s">
         <v>189</v>
       </c>
@@ -40112,7 +40124,7 @@
         <v>68.399999999999991</v>
       </c>
     </row>
-    <row r="789" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="789" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A789" s="19" t="s">
         <v>189</v>
       </c>
@@ -40154,7 +40166,7 @@
         <v>66.399999999999991</v>
       </c>
     </row>
-    <row r="790" spans="1:69" s="21" customFormat="1" ht="14.5">
+    <row r="790" spans="1:69" s="21" customFormat="1" ht="15">
       <c r="A790" s="19" t="s">
         <v>189</v>
       </c>
@@ -52156,7 +52168,7 @@
         <v>1453.0917380947396</v>
       </c>
       <c r="S1230" s="21">
-        <f t="shared" ref="S1230:S1234" si="0">M1230/E1230*10000</f>
+        <f t="shared" ref="S1230:S1234" si="1">M1230/E1230*10000</f>
         <v>11718.481758828546</v>
       </c>
       <c r="U1230" s="21">
@@ -52220,7 +52232,7 @@
         <v>3784.833849917014</v>
       </c>
       <c r="S1231" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30871.401712210554</v>
       </c>
       <c r="U1231" s="21">
@@ -52284,7 +52296,7 @@
         <v>7062.4584022535973</v>
       </c>
       <c r="S1232" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58223.07009277492</v>
       </c>
       <c r="V1232" s="43">
@@ -52345,7 +52357,7 @@
         <v>9718.1440279723956</v>
       </c>
       <c r="S1233" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>82848.627689449248</v>
       </c>
       <c r="V1233" s="43">
@@ -52406,7 +52418,7 @@
         <v>11732.081554217362</v>
       </c>
       <c r="S1234" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>106076.68674699243</v>
       </c>
       <c r="U1234" s="21">
@@ -52544,7 +52556,7 @@
         <v>19847.535092434064</v>
       </c>
       <c r="S1239" s="21">
-        <f t="shared" ref="S1239" si="1">M1239/E1239*10000</f>
+        <f t="shared" ref="S1239" si="2">M1239/E1239*10000</f>
         <v>242931.88607630433</v>
       </c>
       <c r="U1239" s="21">
@@ -52669,7 +52681,7 @@
         <v>2317.7052375119029</v>
       </c>
       <c r="S1241" s="21">
-        <f t="shared" ref="S1241:S1245" si="2">M1241/E1241*10000</f>
+        <f t="shared" ref="S1241:S1245" si="3">M1241/E1241*10000</f>
         <v>9244.9351316789107</v>
       </c>
       <c r="U1241" s="21">
@@ -52733,7 +52745,7 @@
         <v>5292.0694450720694</v>
       </c>
       <c r="S1242" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21804.98329242715</v>
       </c>
       <c r="U1242" s="21">
@@ -52797,7 +52809,7 @@
         <v>9844.1963569651525</v>
       </c>
       <c r="S1243" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42912.800161138417</v>
       </c>
       <c r="V1243" s="43">
@@ -52858,7 +52870,7 @@
         <v>13145.510351194249</v>
       </c>
       <c r="S1244" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60107.500462708042</v>
       </c>
       <c r="V1244" s="43">
@@ -52919,7 +52931,7 @@
         <v>16317.842044498891</v>
       </c>
       <c r="S1245" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>81589.210222494468</v>
       </c>
       <c r="V1245" s="43">
@@ -53059,7 +53071,7 @@
         <v>22619.608488073354</v>
       </c>
       <c r="S1250" s="21">
-        <f t="shared" ref="S1250" si="3">M1250/E1250*10000</f>
+        <f t="shared" ref="S1250" si="4">M1250/E1250*10000</f>
         <v>176302.48237001832</v>
       </c>
       <c r="V1250" s="43">
@@ -53183,7 +53195,7 @@
         <v>883.14685643901771</v>
       </c>
       <c r="S1252" s="21">
-        <f t="shared" ref="S1252:S1256" si="4">M1252/E1252*10000</f>
+        <f t="shared" ref="S1252:S1256" si="5">M1252/E1252*10000</f>
         <v>6762.2270783998292</v>
       </c>
       <c r="V1252" s="43">
@@ -53244,7 +53256,7 @@
         <v>2083.1945827940012</v>
       </c>
       <c r="S1253" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15950.953926447175</v>
       </c>
       <c r="V1253" s="43">
@@ -53305,7 +53317,7 @@
         <v>4532.3365834993901</v>
       </c>
       <c r="S1254" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35408.879558588982</v>
       </c>
       <c r="V1254" s="43">
@@ -53366,7 +53378,7 @@
         <v>6553.4680441862492</v>
       </c>
       <c r="S1255" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52302.219027823223</v>
       </c>
       <c r="V1255" s="43">
@@ -53427,7 +53439,7 @@
         <v>9080.0180770464085</v>
       </c>
       <c r="S1256" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75666.81730872007</v>
       </c>
       <c r="V1256" s="43">
@@ -53509,7 +53521,7 @@
         <v>10</v>
       </c>
       <c r="D1260" s="21">
-        <f t="shared" ref="D1260:D1261" si="5">E1260/E$1225*100</f>
+        <f t="shared" ref="D1260:D1261" si="6">E1260/E$1225*100</f>
         <v>86.196549137284322</v>
       </c>
       <c r="E1260" s="21">
@@ -53537,7 +53549,7 @@
         <v>12.1</v>
       </c>
       <c r="D1261" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>83.195798949737437</v>
       </c>
       <c r="E1261" s="21">
@@ -53562,7 +53574,7 @@
         <v>16038.983021426331</v>
       </c>
       <c r="S1261" s="21">
-        <f t="shared" ref="S1261" si="6">M1261/E1261*10000</f>
+        <f t="shared" ref="S1261" si="7">M1261/E1261*10000</f>
         <v>144625.63590104898</v>
       </c>
       <c r="V1261" s="43">
@@ -53681,7 +53693,7 @@
         <v>1320.0378834186677</v>
       </c>
       <c r="S1263" s="21">
-        <f t="shared" ref="S1263:S1267" si="7">M1263/E1263*10000</f>
+        <f t="shared" ref="S1263:S1267" si="8">M1263/E1263*10000</f>
         <v>5102.5816908336592</v>
       </c>
       <c r="V1263" s="43">
@@ -53742,7 +53754,7 @@
         <v>2668.5273415517941</v>
       </c>
       <c r="S1264" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10315.14241032777</v>
       </c>
       <c r="V1264" s="43">
@@ -53803,7 +53815,7 @@
         <v>6693.037250926156</v>
       </c>
       <c r="S1265" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26412.933113362888</v>
       </c>
       <c r="V1265" s="43">
@@ -53864,7 +53876,7 @@
         <v>8799.1791397126835</v>
       </c>
       <c r="S1266" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35098.440924262795</v>
       </c>
       <c r="V1266" s="43">
@@ -53925,7 +53937,7 @@
         <v>12086.795940494598</v>
       </c>
       <c r="S1267" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50361.649752060825</v>
       </c>
       <c r="V1267" s="43">
@@ -54007,7 +54019,7 @@
         <v>10</v>
       </c>
       <c r="D1271" s="21">
-        <f t="shared" ref="D1271:D1272" si="8">E1271/E$1226*100</f>
+        <f t="shared" ref="D1271:D1272" si="9">E1271/E$1226*100</f>
         <v>82.977127859017614</v>
       </c>
       <c r="E1271" s="21">
@@ -54035,7 +54047,7 @@
         <v>12.1</v>
       </c>
       <c r="D1272" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>76.565429321334832</v>
       </c>
       <c r="E1272" s="21">
@@ -54060,7 +54072,7 @@
         <v>20675.87223779206</v>
       </c>
       <c r="S1272" s="21">
-        <f t="shared" ref="S1272" si="9">M1272/E1272*10000</f>
+        <f t="shared" ref="S1272" si="10">M1272/E1272*10000</f>
         <v>101253.04719780637</v>
       </c>
       <c r="V1272" s="43">

--- a/Tests/Validation/Eucalyptus/Observed.xlsx
+++ b/Tests/Validation/Eucalyptus/Observed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMxSourceTree\Tests\Validation\Eucalyptus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E42446-0A1D-4E57-B26F-881FB8C3AA54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AAA965-C5E4-4180-92D2-A9116ECE848F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17670" tabRatio="653" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="653" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GympieBiomass" sheetId="1" r:id="rId1"/>
@@ -18198,10 +18198,10 @@
   <dimension ref="A1:BV2656"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5715" ySplit="1425" topLeftCell="F1" activePane="bottomRight"/>
-      <selection pane="topRight" activeCell="BO1" sqref="BO1"/>
-      <selection pane="bottomLeft" activeCell="A671" sqref="A671:E718"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
+      <pane xSplit="5715" ySplit="1425" topLeftCell="S42" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="AD1" sqref="AD1"/>
+      <selection pane="bottomLeft" activeCell="A271" sqref="A271"/>
+      <selection pane="bottomRight" activeCell="AD43" sqref="AD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -18733,6 +18733,10 @@
       <c r="AC10" s="21">
         <v>15.096934120374524</v>
       </c>
+      <c r="AE10" s="21">
+        <f t="shared" ref="AE10:AE13" si="1">(AC10/2)^2*3.14159*E10/10000</f>
+        <v>25.597825359506864</v>
+      </c>
       <c r="AF10" s="21">
         <v>139.40667447566162</v>
       </c>
@@ -18764,6 +18768,10 @@
       <c r="AC11" s="21">
         <v>16.509725318135974</v>
       </c>
+      <c r="AE11" s="21">
+        <f t="shared" si="1"/>
+        <v>30.357846645437739</v>
+      </c>
       <c r="AF11" s="21">
         <v>167.36501331721334</v>
       </c>
@@ -18825,6 +18833,10 @@
       <c r="AC12" s="21">
         <v>17.443425799782354</v>
       </c>
+      <c r="AE12" s="21">
+        <f t="shared" si="1"/>
+        <v>33.888693951392931</v>
+      </c>
       <c r="AF12" s="21">
         <v>188.96612069258379</v>
       </c>
@@ -18855,6 +18867,10 @@
       </c>
       <c r="AC13" s="21">
         <v>18.311062929457375</v>
+      </c>
+      <c r="AE13" s="21">
+        <f t="shared" si="1"/>
+        <v>37.343788756064804</v>
       </c>
       <c r="AF13" s="21">
         <v>248.97227764592799</v>
@@ -19025,6 +19041,10 @@
       <c r="AC19" s="21">
         <v>14.556162118903666</v>
       </c>
+      <c r="AE19" s="21">
+        <f t="shared" ref="AE19:AE22" si="2">(AC19/2)^2*3.14159*E19/10000</f>
+        <v>22.606999518410785</v>
+      </c>
       <c r="AF19" s="21">
         <v>133.06600086229204</v>
       </c>
@@ -19056,6 +19076,10 @@
       <c r="AC20" s="21">
         <v>15.638772707027496</v>
       </c>
+      <c r="AE20" s="21">
+        <f t="shared" si="2"/>
+        <v>26.094831246816685</v>
+      </c>
       <c r="AF20" s="21">
         <v>156.14235211034324</v>
       </c>
@@ -19108,6 +19132,10 @@
       <c r="AC21" s="21">
         <v>16.710648581455018</v>
       </c>
+      <c r="AE21" s="21">
+        <f t="shared" si="2"/>
+        <v>29.794477233631902</v>
+      </c>
       <c r="AF21" s="21">
         <v>181.34308150337998</v>
       </c>
@@ -19139,6 +19167,10 @@
       <c r="AC22" s="21">
         <v>17.813362946552196</v>
       </c>
+      <c r="AE22" s="21">
+        <f t="shared" si="2"/>
+        <v>33.262444435291087</v>
+      </c>
       <c r="AF22" s="21">
         <v>231.87330532112117</v>
       </c>
@@ -19307,6 +19339,10 @@
       <c r="AC28" s="21">
         <v>15.799840697795641</v>
       </c>
+      <c r="AE28" s="21">
+        <f t="shared" ref="AE28:AE31" si="3">(AC28/2)^2*3.14159*E28/10000</f>
+        <v>27.102397559309413</v>
+      </c>
       <c r="AF28" s="21">
         <v>152.14512203795954</v>
       </c>
@@ -19338,6 +19374,10 @@
       <c r="AC29" s="21">
         <v>16.682044554674004</v>
       </c>
+      <c r="AE29" s="21">
+        <f t="shared" si="3"/>
+        <v>30.21348684446761</v>
+      </c>
       <c r="AF29" s="21">
         <v>172.45436399035779</v>
       </c>
@@ -19390,6 +19430,10 @@
       <c r="AC30" s="21">
         <v>17.389385727672199</v>
       </c>
+      <c r="AE30" s="21">
+        <f t="shared" si="3"/>
+        <v>32.829992023043076</v>
+      </c>
       <c r="AF30" s="21">
         <v>189.88003773962174</v>
       </c>
@@ -19420,6 +19464,10 @@
       </c>
       <c r="AC31" s="21">
         <v>18.073908139830067</v>
+      </c>
+      <c r="AE31" s="21">
+        <f t="shared" si="3"/>
+        <v>35.465528540624199</v>
       </c>
       <c r="AF31" s="21">
         <v>255.56229942687821</v>
@@ -19591,6 +19639,10 @@
       <c r="AC37" s="21">
         <v>17.299435715182405</v>
       </c>
+      <c r="AE37" s="21">
+        <f t="shared" ref="AE37:AE40" si="4">(AC37/2)^2*3.14159*E37/10000</f>
+        <v>33.051424929693333</v>
+      </c>
       <c r="AF37" s="21">
         <v>178.67833141737816</v>
       </c>
@@ -19622,6 +19674,10 @@
       <c r="AC38" s="21">
         <v>18.461590681769689</v>
       </c>
+      <c r="AE38" s="21">
+        <f t="shared" si="4"/>
+        <v>37.641294358499749</v>
+      </c>
       <c r="AF38" s="21">
         <v>206.74798515350881</v>
       </c>
@@ -19674,6 +19730,10 @@
       <c r="AC39" s="21">
         <v>19.356684438140658</v>
       </c>
+      <c r="AE39" s="21">
+        <f t="shared" si="4"/>
+        <v>41.379787239167626</v>
+      </c>
       <c r="AF39" s="21">
         <v>230.55640351483257</v>
       </c>
@@ -19704,6 +19764,10 @@
       </c>
       <c r="AC40" s="21">
         <v>20.124669089803589</v>
+      </c>
+      <c r="AE40" s="21">
+        <f t="shared" si="4"/>
+        <v>44.72844594735448</v>
       </c>
       <c r="AF40" s="21">
         <v>295.85786034175953</v>
@@ -19874,6 +19938,10 @@
       <c r="AC46" s="21">
         <v>17.023328553681235</v>
       </c>
+      <c r="AE46" s="21">
+        <f t="shared" ref="AE46:AE49" si="5">(AC46/2)^2*3.14159*E46/10000</f>
+        <v>30.919902777711187</v>
+      </c>
       <c r="AF46" s="21">
         <v>174.67622931527399</v>
       </c>
@@ -19905,6 +19973,10 @@
       <c r="AC47" s="21">
         <v>18.253356303356615</v>
       </c>
+      <c r="AE47" s="21">
+        <f t="shared" si="5"/>
+        <v>35.237753398669867</v>
+      </c>
       <c r="AF47" s="21">
         <v>202.43265843502064</v>
       </c>
@@ -19965,6 +20037,10 @@
       <c r="AC48" s="21">
         <v>19.104696190382281</v>
       </c>
+      <c r="AE48" s="21">
+        <f t="shared" si="5"/>
+        <v>38.259791605583956</v>
+      </c>
       <c r="AF48" s="21">
         <v>223.07697055604172</v>
       </c>
@@ -19996,6 +20072,10 @@
       <c r="AC49" s="21">
         <v>19.884966429748559</v>
       </c>
+      <c r="AE49" s="21">
+        <f t="shared" si="5"/>
+        <v>41.078730059765689</v>
+      </c>
       <c r="AF49" s="21">
         <v>285.36972760037713</v>
       </c>
@@ -20164,6 +20244,10 @@
       <c r="AC55" s="21">
         <v>16.846321915196516</v>
       </c>
+      <c r="AE55" s="21">
+        <f t="shared" ref="AE55:AE58" si="6">(AC55/2)^2*3.14159*E55/10000</f>
+        <v>30.280242434731619</v>
+      </c>
       <c r="AF55" s="21">
         <v>174.88425810987945</v>
       </c>
@@ -20195,6 +20279,10 @@
       <c r="AC56" s="21">
         <v>18.36049183127454</v>
       </c>
+      <c r="AE56" s="21">
+        <f t="shared" si="6"/>
+        <v>35.652613471507259</v>
+      </c>
       <c r="AF56" s="21">
         <v>209.78832425820914</v>
       </c>
@@ -20247,6 +20335,10 @@
       <c r="AC57" s="21">
         <v>19.416361867341777</v>
       </c>
+      <c r="AE57" s="21">
+        <f t="shared" si="6"/>
+        <v>39.518280863914207</v>
+      </c>
       <c r="AF57" s="21">
         <v>236.09137477941377</v>
       </c>
@@ -20277,6 +20369,10 @@
       </c>
       <c r="AC58" s="21">
         <v>20.221372277641578</v>
+      </c>
+      <c r="AE58" s="21">
+        <f t="shared" si="6"/>
+        <v>42.86310005042224</v>
       </c>
       <c r="AF58" s="21">
         <v>306.37150583325547</v>
@@ -27728,16 +27824,11 @@
       <c r="O331" s="42">
         <v>7600</v>
       </c>
-      <c r="P331" s="42">
-        <v>1000</v>
-      </c>
-      <c r="Q331" s="42">
-        <f>O331+P331</f>
-        <v>8600</v>
-      </c>
+      <c r="P331" s="42"/>
+      <c r="Q331" s="42"/>
       <c r="T331" s="21">
         <f>Q331/F331</f>
-        <v>0.34959349593495936</v>
+        <v>0</v>
       </c>
       <c r="W331" s="21">
         <v>5.8</v>
@@ -27889,16 +27980,11 @@
       <c r="O339" s="42">
         <v>2700</v>
       </c>
-      <c r="P339" s="42">
-        <v>3200</v>
-      </c>
-      <c r="Q339" s="42">
-        <f>O339+P339</f>
-        <v>5900</v>
-      </c>
+      <c r="P339" s="42"/>
+      <c r="Q339" s="42"/>
       <c r="T339" s="21">
         <f>Q339/F339</f>
-        <v>0.24380165289256198</v>
+        <v>0</v>
       </c>
       <c r="W339" s="21">
         <v>4.5</v>
@@ -50824,6 +50910,10 @@
       <c r="AC1184" s="21">
         <v>6</v>
       </c>
+      <c r="AE1184" s="21">
+        <f t="shared" ref="AE1184:AE1186" si="7">(AC1184/2)^2*3.14159*E1184/10000</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="1185" spans="1:67" s="21" customFormat="1">
       <c r="A1185" s="19" t="s">
@@ -50853,6 +50943,10 @@
       <c r="AC1185" s="21">
         <v>10.9</v>
       </c>
+      <c r="AE1185" s="21">
+        <f t="shared" si="7"/>
+        <v>13.390426545912499</v>
+      </c>
     </row>
     <row r="1186" spans="1:67" s="21" customFormat="1">
       <c r="A1186" s="19" t="s">
@@ -50882,6 +50976,10 @@
       <c r="AC1186" s="21">
         <v>12.6</v>
       </c>
+      <c r="AE1186" s="21">
+        <f t="shared" si="7"/>
+        <v>17.119896784830001</v>
+      </c>
     </row>
     <row r="1187" spans="1:67" s="21" customFormat="1">
       <c r="A1187" s="19" t="s">
@@ -50958,6 +51056,10 @@
       <c r="AC1188" s="21">
         <v>14.4</v>
       </c>
+      <c r="AE1188" s="21">
+        <f t="shared" ref="AE1188:AE1192" si="8">(AC1188/2)^2*3.14159*E1188/10000</f>
+        <v>21.85581543552</v>
+      </c>
     </row>
     <row r="1189" spans="1:67" s="21" customFormat="1">
       <c r="A1189" s="19" t="s">
@@ -50987,6 +51089,10 @@
       <c r="AC1189" s="21">
         <v>17.100000000000001</v>
       </c>
+      <c r="AE1189" s="21">
+        <f t="shared" si="8"/>
+        <v>30.820114735244999</v>
+      </c>
     </row>
     <row r="1190" spans="1:67" s="21" customFormat="1">
       <c r="A1190" s="19" t="s">
@@ -51016,6 +51122,10 @@
       <c r="AC1190" s="21">
         <v>17.899999999999999</v>
       </c>
+      <c r="AE1190" s="21">
+        <f t="shared" si="8"/>
+        <v>33.393850561782493</v>
+      </c>
     </row>
     <row r="1191" spans="1:67" s="21" customFormat="1">
       <c r="A1191" s="19" t="s">
@@ -51045,6 +51155,10 @@
       <c r="AC1191" s="21">
         <v>18.899999999999999</v>
       </c>
+      <c r="AE1191" s="21">
+        <f t="shared" si="8"/>
+        <v>37.229229297382496</v>
+      </c>
     </row>
     <row r="1192" spans="1:67" s="21" customFormat="1">
       <c r="A1192" s="19" t="s">
@@ -51074,6 +51188,10 @@
       <c r="AC1192" s="21">
         <v>19.5</v>
       </c>
+      <c r="AE1192" s="21">
+        <f t="shared" si="8"/>
+        <v>39.182538797999996</v>
+      </c>
     </row>
     <row r="1193" spans="1:67" s="21" customFormat="1">
       <c r="A1193" s="19" t="s">
@@ -51117,6 +51235,10 @@
       <c r="AC1194" s="21">
         <v>6.5</v>
       </c>
+      <c r="AE1194" s="21">
+        <f t="shared" ref="AE1194:AE1196" si="9">(AC1194/2)^2*3.14159*E1194/10000</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="1195" spans="1:67" s="21" customFormat="1">
       <c r="A1195" s="19" t="s">
@@ -51146,6 +51268,10 @@
       <c r="AC1195" s="21">
         <v>10.6</v>
       </c>
+      <c r="AE1195" s="21">
+        <f t="shared" si="9"/>
+        <v>15.390322684640001</v>
+      </c>
     </row>
     <row r="1196" spans="1:67" s="21" customFormat="1">
       <c r="A1196" s="19" t="s">
@@ -51175,6 +51301,10 @@
       <c r="AC1196" s="21">
         <v>12.2</v>
       </c>
+      <c r="AE1196" s="21">
+        <f t="shared" si="9"/>
+        <v>20.200071841919996</v>
+      </c>
     </row>
     <row r="1197" spans="1:67" s="21" customFormat="1">
       <c r="A1197" s="19" t="s">
@@ -51251,6 +51381,10 @@
       <c r="AC1198" s="21">
         <v>14.4</v>
       </c>
+      <c r="AE1198" s="21">
+        <f t="shared" ref="AE1198:AE1224" si="10">(AC1198/2)^2*3.14159*E1198/10000</f>
+        <v>28.14221242368</v>
+      </c>
     </row>
     <row r="1199" spans="1:67" s="21" customFormat="1">
       <c r="A1199" s="19" t="s">
@@ -51280,6 +51414,10 @@
       <c r="AC1199" s="21">
         <v>15.3</v>
       </c>
+      <c r="AE1199" s="21">
+        <f t="shared" si="10"/>
+        <v>31.494138942757505</v>
+      </c>
     </row>
     <row r="1200" spans="1:67" s="21" customFormat="1">
       <c r="A1200" s="19" t="s">
@@ -51309,6 +51447,10 @@
       <c r="AC1200" s="21">
         <v>16.100000000000001</v>
       </c>
+      <c r="AE1200" s="21">
+        <f t="shared" si="10"/>
+        <v>34.8737483675175</v>
+      </c>
     </row>
     <row r="1201" spans="1:67" s="21" customFormat="1">
       <c r="A1201" s="19" t="s">
@@ -51338,6 +51480,10 @@
       <c r="AC1201" s="21">
         <v>16.600000000000001</v>
       </c>
+      <c r="AE1201" s="21">
+        <f t="shared" si="10"/>
+        <v>36.402539523820003</v>
+      </c>
     </row>
     <row r="1202" spans="1:67" s="21" customFormat="1">
       <c r="A1202" s="19" t="s">
@@ -51395,6 +51541,10 @@
       <c r="AC1204" s="21">
         <v>6</v>
       </c>
+      <c r="AE1204" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1205" spans="1:67" s="21" customFormat="1">
       <c r="A1205" s="19" t="s">
@@ -51424,6 +51574,10 @@
       <c r="AC1205" s="21">
         <v>10.9</v>
       </c>
+      <c r="AE1205" s="21">
+        <f t="shared" si="10"/>
+        <v>13.390426545912499</v>
+      </c>
     </row>
     <row r="1206" spans="1:67" s="21" customFormat="1">
       <c r="A1206" s="19" t="s">
@@ -51453,6 +51607,10 @@
       <c r="AC1206" s="21">
         <v>12.6</v>
       </c>
+      <c r="AE1206" s="21">
+        <f t="shared" si="10"/>
+        <v>17.119896784830001</v>
+      </c>
     </row>
     <row r="1207" spans="1:67" s="21" customFormat="1">
       <c r="A1207" s="19" t="s">
@@ -51529,6 +51687,10 @@
       <c r="AC1208" s="21">
         <v>14.4</v>
       </c>
+      <c r="AE1208" s="21">
+        <f t="shared" si="10"/>
+        <v>21.85581543552</v>
+      </c>
     </row>
     <row r="1209" spans="1:67" s="21" customFormat="1">
       <c r="A1209" s="19" t="s">
@@ -51558,6 +51720,10 @@
       <c r="AC1209" s="21">
         <v>17.100000000000001</v>
       </c>
+      <c r="AE1209" s="21">
+        <f t="shared" si="10"/>
+        <v>30.820114735244999</v>
+      </c>
     </row>
     <row r="1210" spans="1:67" s="21" customFormat="1">
       <c r="A1210" s="19" t="s">
@@ -51587,6 +51753,10 @@
       <c r="AC1210" s="21">
         <v>17.899999999999999</v>
       </c>
+      <c r="AE1210" s="21">
+        <f t="shared" si="10"/>
+        <v>33.393850561782493</v>
+      </c>
     </row>
     <row r="1211" spans="1:67" s="21" customFormat="1">
       <c r="A1211" s="19" t="s">
@@ -51616,6 +51786,10 @@
       <c r="AC1211" s="21">
         <v>18.899999999999999</v>
       </c>
+      <c r="AE1211" s="21">
+        <f t="shared" si="10"/>
+        <v>37.229229297382496</v>
+      </c>
     </row>
     <row r="1212" spans="1:67" s="21" customFormat="1">
       <c r="A1212" s="19" t="s">
@@ -51645,6 +51819,10 @@
       <c r="AC1212" s="21">
         <v>19.5</v>
       </c>
+      <c r="AE1212" s="21">
+        <f t="shared" si="10"/>
+        <v>39.182538797999996</v>
+      </c>
     </row>
     <row r="1213" spans="1:67" s="21" customFormat="1">
       <c r="A1213" s="19" t="s">
@@ -51688,6 +51866,10 @@
       <c r="AC1214" s="21">
         <v>6.5</v>
       </c>
+      <c r="AE1214" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1215" spans="1:67" s="21" customFormat="1">
       <c r="A1215" s="19" t="s">
@@ -51717,6 +51899,10 @@
       <c r="AC1215" s="21">
         <v>10.6</v>
       </c>
+      <c r="AE1215" s="21">
+        <f t="shared" si="10"/>
+        <v>15.390322684640001</v>
+      </c>
     </row>
     <row r="1216" spans="1:67" s="21" customFormat="1">
       <c r="A1216" s="19" t="s">
@@ -51746,6 +51932,10 @@
       <c r="AC1216" s="21">
         <v>12.2</v>
       </c>
+      <c r="AE1216" s="21">
+        <f t="shared" si="10"/>
+        <v>20.200071841919996</v>
+      </c>
     </row>
     <row r="1217" spans="1:67" s="21" customFormat="1">
       <c r="A1217" s="19" t="s">
@@ -51822,6 +52012,10 @@
       <c r="AC1218" s="21">
         <v>14.4</v>
       </c>
+      <c r="AE1218" s="21">
+        <f t="shared" si="10"/>
+        <v>28.14221242368</v>
+      </c>
     </row>
     <row r="1219" spans="1:67" s="21" customFormat="1">
       <c r="A1219" s="19" t="s">
@@ -51851,6 +52045,10 @@
       <c r="AC1219" s="21">
         <v>15.3</v>
       </c>
+      <c r="AE1219" s="21">
+        <f t="shared" si="10"/>
+        <v>31.494138942757505</v>
+      </c>
     </row>
     <row r="1220" spans="1:67" s="21" customFormat="1">
       <c r="A1220" s="19" t="s">
@@ -51880,6 +52078,10 @@
       <c r="AC1220" s="21">
         <v>16.100000000000001</v>
       </c>
+      <c r="AE1220" s="21">
+        <f t="shared" si="10"/>
+        <v>34.8737483675175</v>
+      </c>
     </row>
     <row r="1221" spans="1:67" s="21" customFormat="1">
       <c r="A1221" s="19" t="s">
@@ -51909,6 +52111,10 @@
       <c r="AC1221" s="21">
         <v>16.600000000000001</v>
       </c>
+      <c r="AE1221" s="21">
+        <f t="shared" si="10"/>
+        <v>36.402539523820003</v>
+      </c>
     </row>
     <row r="1222" spans="1:67" s="21" customFormat="1">
       <c r="A1222" s="19" t="s">
@@ -51964,6 +52170,10 @@
       <c r="AC1223" s="21">
         <v>21.4</v>
       </c>
+      <c r="AE1223" s="21">
+        <f t="shared" si="10"/>
+        <v>31.903672688169994</v>
+      </c>
       <c r="BO1223" s="21">
         <v>20208</v>
       </c>
@@ -52008,6 +52218,10 @@
       <c r="AC1224" s="21">
         <v>18.399999999999999</v>
       </c>
+      <c r="AE1224" s="21">
+        <f t="shared" si="10"/>
+        <v>20.84688752384</v>
+      </c>
       <c r="BO1224" s="21">
         <v>5854.2</v>
       </c>
@@ -52120,6 +52334,10 @@
       <c r="AC1229" s="21">
         <v>2.88</v>
       </c>
+      <c r="AE1229" s="21">
+        <f t="shared" ref="AE1229" si="11">(AC1229/2)^2*3.14159*E1229/10000</f>
+        <v>0.79866556554239998</v>
+      </c>
       <c r="AF1229" s="21">
         <v>2.79</v>
       </c>
@@ -52168,7 +52386,7 @@
         <v>1453.0917380947396</v>
       </c>
       <c r="S1230" s="21">
-        <f t="shared" ref="S1230:S1234" si="1">M1230/E1230*10000</f>
+        <f t="shared" ref="S1230:S1234" si="12">M1230/E1230*10000</f>
         <v>11718.481758828546</v>
       </c>
       <c r="U1230" s="21">
@@ -52184,6 +52402,10 @@
       <c r="AC1230" s="21">
         <v>8.77</v>
       </c>
+      <c r="AE1230" s="21">
+        <f t="shared" ref="AE1230:AE1234" si="13">(AC1230/2)^2*3.14159*E1230/10000</f>
+        <v>7.4904927228409983</v>
+      </c>
       <c r="AF1230" s="21">
         <v>24.28</v>
       </c>
@@ -52232,7 +52454,7 @@
         <v>3784.833849917014</v>
       </c>
       <c r="S1231" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>30871.401712210554</v>
       </c>
       <c r="U1231" s="21">
@@ -52248,6 +52470,10 @@
       <c r="AC1231" s="21">
         <v>11.73</v>
       </c>
+      <c r="AE1231" s="21">
+        <f t="shared" si="13"/>
+        <v>13.24878367249215</v>
+      </c>
       <c r="AF1231" s="21">
         <v>66.95</v>
       </c>
@@ -52296,7 +52522,7 @@
         <v>7062.4584022535973</v>
       </c>
       <c r="S1232" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>58223.07009277492</v>
       </c>
       <c r="V1232" s="43">
@@ -52309,6 +52535,10 @@
       <c r="AC1232" s="21">
         <v>13.14</v>
       </c>
+      <c r="AE1232" s="21">
+        <f t="shared" si="13"/>
+        <v>16.449058526568301</v>
+      </c>
       <c r="AF1232" s="21">
         <v>110.06</v>
       </c>
@@ -52357,7 +52587,7 @@
         <v>9718.1440279723956</v>
       </c>
       <c r="S1233" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>82848.627689449248</v>
       </c>
       <c r="V1233" s="43">
@@ -52370,6 +52600,10 @@
       <c r="AC1233" s="21">
         <v>15.28</v>
       </c>
+      <c r="AE1233" s="21">
+        <f t="shared" si="13"/>
+        <v>21.509694150187197</v>
+      </c>
       <c r="AF1233" s="21">
         <v>153.4</v>
       </c>
@@ -52418,7 +52652,7 @@
         <v>11732.081554217362</v>
       </c>
       <c r="S1234" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>106076.68674699243</v>
       </c>
       <c r="U1234" s="21">
@@ -52434,6 +52668,10 @@
       <c r="AC1234" s="21">
         <v>16.63</v>
       </c>
+      <c r="AE1234" s="21">
+        <f t="shared" si="13"/>
+        <v>24.023105024173148</v>
+      </c>
       <c r="AF1234" s="21">
         <v>204.3</v>
       </c>
@@ -52556,7 +52794,7 @@
         <v>19847.535092434064</v>
       </c>
       <c r="S1239" s="21">
-        <f t="shared" ref="S1239" si="2">M1239/E1239*10000</f>
+        <f t="shared" ref="S1239" si="14">M1239/E1239*10000</f>
         <v>242931.88607630433</v>
       </c>
       <c r="U1239" s="21">
@@ -52633,6 +52871,10 @@
       <c r="AC1240" s="21">
         <v>2.5099999999999998</v>
       </c>
+      <c r="AE1240" s="21">
+        <f>(AC1240/2)^2*3.14159*E1240/10000</f>
+        <v>1.2271245318579997</v>
+      </c>
       <c r="AF1240" s="21">
         <v>3.46</v>
       </c>
@@ -52681,7 +52923,7 @@
         <v>2317.7052375119029</v>
       </c>
       <c r="S1241" s="21">
-        <f t="shared" ref="S1241:S1245" si="3">M1241/E1241*10000</f>
+        <f t="shared" ref="S1241:S1245" si="15">M1241/E1241*10000</f>
         <v>9244.9351316789107</v>
       </c>
       <c r="U1241" s="21">
@@ -52697,6 +52939,10 @@
       <c r="AC1241" s="21">
         <v>7.46</v>
       </c>
+      <c r="AE1241" s="21">
+        <f t="shared" ref="AE1241:AE1245" si="16">(AC1241/2)^2*3.14159*E1241/10000</f>
+        <v>10.957752917007701</v>
+      </c>
       <c r="AF1241" s="21">
         <v>38.54</v>
       </c>
@@ -52745,7 +52991,7 @@
         <v>5292.0694450720694</v>
       </c>
       <c r="S1242" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>21804.98329242715</v>
       </c>
       <c r="U1242" s="21">
@@ -52761,6 +53007,10 @@
       <c r="AC1242" s="21">
         <v>9.77</v>
       </c>
+      <c r="AE1242" s="21">
+        <f t="shared" si="16"/>
+        <v>18.194847433034923</v>
+      </c>
       <c r="AF1242" s="21">
         <v>99.7</v>
       </c>
@@ -52809,7 +53059,7 @@
         <v>9844.1963569651525</v>
       </c>
       <c r="S1243" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>42912.800161138417</v>
       </c>
       <c r="V1243" s="43">
@@ -52822,6 +53072,10 @@
       <c r="AC1243" s="21">
         <v>11.13</v>
       </c>
+      <c r="AE1243" s="21">
+        <f t="shared" si="16"/>
+        <v>22.31892417604185</v>
+      </c>
       <c r="AF1243" s="21">
         <v>141.69999999999999</v>
       </c>
@@ -52870,7 +53124,7 @@
         <v>13145.510351194249</v>
       </c>
       <c r="S1244" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>60107.500462708042</v>
       </c>
       <c r="V1244" s="43">
@@ -52883,6 +53137,10 @@
       <c r="AC1244" s="21">
         <v>12.39</v>
       </c>
+      <c r="AE1244" s="21">
+        <f t="shared" si="16"/>
+        <v>26.368225877717325</v>
+      </c>
       <c r="AF1244" s="21">
         <v>191.72</v>
       </c>
@@ -52931,7 +53189,7 @@
         <v>16317.842044498891</v>
       </c>
       <c r="S1245" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>81589.210222494468</v>
       </c>
       <c r="V1245" s="43">
@@ -52943,6 +53201,10 @@
       <c r="Z1245" s="43"/>
       <c r="AC1245" s="21">
         <v>14.16</v>
+      </c>
+      <c r="AE1245" s="21">
+        <f t="shared" si="16"/>
+        <v>31.495319395199999</v>
       </c>
       <c r="AF1245" s="21">
         <v>233.71</v>
@@ -53071,7 +53333,7 @@
         <v>22619.608488073354</v>
       </c>
       <c r="S1250" s="21">
-        <f t="shared" ref="S1250" si="4">M1250/E1250*10000</f>
+        <f t="shared" ref="S1250" si="17">M1250/E1250*10000</f>
         <v>176302.48237001832</v>
       </c>
       <c r="V1250" s="43">
@@ -53147,6 +53409,10 @@
       <c r="AC1251" s="21">
         <v>1.39</v>
       </c>
+      <c r="AE1251" s="21">
+        <f>(AC1251/2)^2*3.14159*E1251/10000</f>
+        <v>0.19818112617334996</v>
+      </c>
       <c r="AF1251" s="21">
         <v>0.78</v>
       </c>
@@ -53195,7 +53461,7 @@
         <v>883.14685643901771</v>
       </c>
       <c r="S1252" s="21">
-        <f t="shared" ref="S1252:S1256" si="5">M1252/E1252*10000</f>
+        <f t="shared" ref="S1252:S1256" si="18">M1252/E1252*10000</f>
         <v>6762.2270783998292</v>
       </c>
       <c r="V1252" s="43">
@@ -53208,6 +53474,10 @@
       <c r="AC1252" s="21">
         <v>7.08</v>
       </c>
+      <c r="AE1252" s="21">
+        <f t="shared" ref="AE1252:AE1256" si="19">(AC1252/2)^2*3.14159*E1252/10000</f>
+        <v>5.1416108912664003</v>
+      </c>
       <c r="AF1252" s="21">
         <v>14.7</v>
       </c>
@@ -53256,7 +53526,7 @@
         <v>2083.1945827940012</v>
       </c>
       <c r="S1253" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>15950.953926447175</v>
       </c>
       <c r="V1253" s="43">
@@ -53269,6 +53539,10 @@
       <c r="AC1253" s="21">
         <v>10.02</v>
       </c>
+      <c r="AE1253" s="21">
+        <f t="shared" si="19"/>
+        <v>10.298361544565399</v>
+      </c>
       <c r="AF1253" s="21">
         <v>41.33</v>
       </c>
@@ -53317,7 +53591,7 @@
         <v>4532.3365834993901</v>
       </c>
       <c r="S1254" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>35408.879558588982</v>
       </c>
       <c r="V1254" s="43">
@@ -53330,6 +53604,10 @@
       <c r="AC1254" s="21">
         <v>11.73</v>
       </c>
+      <c r="AE1254" s="21">
+        <f t="shared" si="19"/>
+        <v>13.832335318752</v>
+      </c>
       <c r="AF1254" s="21">
         <v>76.42</v>
       </c>
@@ -53378,7 +53656,7 @@
         <v>6553.4680441862492</v>
       </c>
       <c r="S1255" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>52302.219027823223</v>
       </c>
       <c r="V1255" s="43">
@@ -53391,6 +53669,10 @@
       <c r="AC1255" s="21">
         <v>13.73</v>
       </c>
+      <c r="AE1255" s="21">
+        <f t="shared" si="19"/>
+        <v>18.551612315332076</v>
+      </c>
       <c r="AF1255" s="21">
         <v>118.19</v>
       </c>
@@ -53439,7 +53721,7 @@
         <v>9080.0180770464085</v>
       </c>
       <c r="S1256" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>75666.81730872007</v>
       </c>
       <c r="V1256" s="43">
@@ -53452,6 +53734,10 @@
       <c r="AC1256" s="21">
         <v>15.33</v>
       </c>
+      <c r="AE1256" s="21">
+        <f t="shared" si="19"/>
+        <v>22.149048304530002</v>
+      </c>
       <c r="AF1256" s="21">
         <v>162.19</v>
       </c>
@@ -53521,7 +53807,7 @@
         <v>10</v>
       </c>
       <c r="D1260" s="21">
-        <f t="shared" ref="D1260:D1261" si="6">E1260/E$1225*100</f>
+        <f t="shared" ref="D1260:D1261" si="20">E1260/E$1225*100</f>
         <v>86.196549137284322</v>
       </c>
       <c r="E1260" s="21">
@@ -53549,7 +53835,7 @@
         <v>12.1</v>
       </c>
       <c r="D1261" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>83.195798949737437</v>
       </c>
       <c r="E1261" s="21">
@@ -53574,7 +53860,7 @@
         <v>16038.983021426331</v>
       </c>
       <c r="S1261" s="21">
-        <f t="shared" ref="S1261" si="7">M1261/E1261*10000</f>
+        <f t="shared" ref="S1261" si="21">M1261/E1261*10000</f>
         <v>144625.63590104898</v>
       </c>
       <c r="V1261" s="43">
@@ -53645,6 +53931,10 @@
       <c r="AC1262" s="21">
         <v>1.75</v>
       </c>
+      <c r="AE1262" s="21">
+        <f>(AC1262/2)^2*3.14159*E1262/10000</f>
+        <v>0.62224589557812493</v>
+      </c>
       <c r="AF1262" s="21">
         <v>2.12</v>
       </c>
@@ -53693,7 +53983,7 @@
         <v>1320.0378834186677</v>
       </c>
       <c r="S1263" s="21">
-        <f t="shared" ref="S1263:S1267" si="8">M1263/E1263*10000</f>
+        <f t="shared" ref="S1263:S1267" si="22">M1263/E1263*10000</f>
         <v>5102.5816908336592</v>
       </c>
       <c r="V1263" s="43">
@@ -53706,6 +53996,10 @@
       <c r="AC1263" s="21">
         <v>6.39</v>
       </c>
+      <c r="AE1263" s="21">
+        <f t="shared" ref="AE1263:AE1267" si="23">(AC1263/2)^2*3.14159*E1263/10000</f>
+        <v>8.2963613494973245</v>
+      </c>
       <c r="AF1263" s="21">
         <v>23.84</v>
       </c>
@@ -53754,7 +54048,7 @@
         <v>2668.5273415517941</v>
       </c>
       <c r="S1264" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>10315.14241032777</v>
       </c>
       <c r="V1264" s="43">
@@ -53767,6 +54061,10 @@
       <c r="AC1264" s="21">
         <v>8.25</v>
       </c>
+      <c r="AE1264" s="21">
+        <f t="shared" si="23"/>
+        <v>13.829097556828122</v>
+      </c>
       <c r="AF1264" s="21">
         <v>59.15</v>
       </c>
@@ -53815,7 +54113,7 @@
         <v>6693.037250926156</v>
       </c>
       <c r="S1265" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>26412.933113362888</v>
       </c>
       <c r="V1265" s="43">
@@ -53828,6 +54126,10 @@
       <c r="AC1265" s="21">
         <v>9.67</v>
       </c>
+      <c r="AE1265" s="21">
+        <f t="shared" si="23"/>
+        <v>18.610115703315849</v>
+      </c>
       <c r="AF1265" s="21">
         <v>105.61</v>
       </c>
@@ -53876,7 +54178,7 @@
         <v>8799.1791397126835</v>
       </c>
       <c r="S1266" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>35098.440924262795</v>
       </c>
       <c r="V1266" s="43">
@@ -53889,6 +54191,10 @@
       <c r="AC1266" s="21">
         <v>11.2</v>
       </c>
+      <c r="AE1266" s="21">
+        <f t="shared" si="23"/>
+        <v>24.699029783679997</v>
+      </c>
       <c r="AF1266" s="21">
         <v>158.74</v>
       </c>
@@ -53937,7 +54243,7 @@
         <v>12086.795940494598</v>
       </c>
       <c r="S1267" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="22"/>
         <v>50361.649752060825</v>
       </c>
       <c r="V1267" s="43">
@@ -53950,6 +54256,10 @@
       <c r="AC1267" s="21">
         <v>12.4</v>
       </c>
+      <c r="AE1267" s="21">
+        <f t="shared" si="23"/>
+        <v>28.983052704000002</v>
+      </c>
       <c r="AF1267" s="21">
         <v>220.34</v>
       </c>
@@ -54019,7 +54329,7 @@
         <v>10</v>
       </c>
       <c r="D1271" s="21">
-        <f t="shared" ref="D1271:D1272" si="9">E1271/E$1226*100</f>
+        <f t="shared" ref="D1271:D1272" si="24">E1271/E$1226*100</f>
         <v>82.977127859017614</v>
       </c>
       <c r="E1271" s="21">
@@ -54047,7 +54357,7 @@
         <v>12.1</v>
       </c>
       <c r="D1272" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>76.565429321334832</v>
       </c>
       <c r="E1272" s="21">
@@ -54072,7 +54382,7 @@
         <v>20675.87223779206</v>
       </c>
       <c r="S1272" s="21">
-        <f t="shared" ref="S1272" si="10">M1272/E1272*10000</f>
+        <f t="shared" ref="S1272" si="25">M1272/E1272*10000</f>
         <v>101253.04719780637</v>
       </c>
       <c r="V1272" s="43">
@@ -54160,6 +54470,10 @@
       <c r="AC1274" s="21">
         <v>3.6</v>
       </c>
+      <c r="AE1274" s="21">
+        <f>(AC1274/2)^2*3.14159*E1274/10000</f>
+        <v>2.2077712220399999</v>
+      </c>
       <c r="AN1274" s="21">
         <v>53</v>
       </c>
@@ -54210,6 +54524,10 @@
       <c r="AC1275" s="21">
         <v>7.16</v>
       </c>
+      <c r="AE1275" s="21">
+        <f t="shared" ref="AE1275:AE1277" si="26">(AC1275/2)^2*3.14159*E1275/10000</f>
+        <v>8.7332342870844002</v>
+      </c>
       <c r="AN1275" s="21">
         <v>92.1</v>
       </c>
@@ -54260,6 +54578,10 @@
       <c r="AC1276" s="21">
         <v>8.59</v>
       </c>
+      <c r="AE1276" s="21">
+        <f t="shared" si="26"/>
+        <v>12.570003372608774</v>
+      </c>
       <c r="AN1276" s="21">
         <v>125.3</v>
       </c>
@@ -54309,6 +54631,10 @@
       </c>
       <c r="AC1277" s="21">
         <v>10.74</v>
+      </c>
+      <c r="AE1277" s="21">
+        <f t="shared" si="26"/>
+        <v>19.6497771459399</v>
       </c>
       <c r="AN1277" s="21">
         <v>153.19999999999999</v>

--- a/Tests/Validation/Eucalyptus/Observed.xlsx
+++ b/Tests/Validation/Eucalyptus/Observed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMxSourceTree\Tests\Validation\Eucalyptus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AAA965-C5E4-4180-92D2-A9116ECE848F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE02FF68-1742-49F0-BBC6-AC21B9E40B1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="653" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="653" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GympieBiomass" sheetId="1" r:id="rId1"/>
@@ -5619,11 +5619,11 @@
       <selection activeCell="Y2" sqref="Y2:Y41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -9403,7 +9403,7 @@
       <selection activeCell="H2" sqref="H2:H97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -12744,11 +12744,11 @@
       <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -14394,12 +14394,12 @@
       <selection activeCell="C2" sqref="C2:C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -16571,9 +16571,9 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -17589,7 +17589,7 @@
       <selection activeCell="E9" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
   </cols>
@@ -17608,7 +17608,7 @@
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
     </row>
-    <row r="3" spans="1:12" ht="29.25" thickBot="1">
+    <row r="3" spans="1:12" ht="28.5" thickBot="1">
       <c r="B3" s="9" t="s">
         <v>78</v>
       </c>
@@ -17901,7 +17901,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15">
+    <row r="20" spans="1:8" ht="14.5">
       <c r="A20" s="45" t="s">
         <v>86</v>
       </c>
@@ -17918,7 +17918,7 @@
         <v>17.676767676767678</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15">
+    <row r="21" spans="1:8" ht="14.5">
       <c r="A21" s="45"/>
       <c r="B21" s="13">
         <v>2</v>
@@ -17933,7 +17933,7 @@
         <v>122.14452214452214</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15">
+    <row r="22" spans="1:8" ht="14.5">
       <c r="A22" s="45"/>
       <c r="B22" s="13">
         <v>3</v>
@@ -18198,38 +18198,38 @@
   <dimension ref="A1:BV2656"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5715" ySplit="1425" topLeftCell="S42" activePane="bottomRight"/>
+      <pane xSplit="5720" ySplit="1420" topLeftCell="S1252" activePane="bottomRight"/>
       <selection pane="topRight" activeCell="AD1" sqref="AD1"/>
       <selection pane="bottomLeft" activeCell="A271" sqref="A271"/>
-      <selection pane="bottomRight" activeCell="AD43" sqref="AD43"/>
+      <selection pane="bottomRight" activeCell="AD1273" sqref="AD1273"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="28" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="19" customWidth="1"/>
-    <col min="3" max="4" width="9.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="19" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" style="19" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="19" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="19" customWidth="1"/>
-    <col min="13" max="14" width="25.5703125" style="19" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" style="19" customWidth="1"/>
+    <col min="3" max="4" width="9.453125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7265625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="20.26953125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="25.26953125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="21.7265625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="23.7265625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="17.7265625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="15.7265625" style="19" customWidth="1"/>
+    <col min="13" max="14" width="25.54296875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="20.1796875" style="19" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" style="19" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" style="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.453125" style="19" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" style="19" customWidth="1"/>
-    <col min="20" max="24" width="9.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="9.28515625" style="19"/>
-    <col min="27" max="35" width="9.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="9.28515625" style="19"/>
-    <col min="40" max="71" width="9.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="72" max="16384" width="9.28515625" style="19"/>
+    <col min="20" max="24" width="9.453125" style="19" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="9.26953125" style="19"/>
+    <col min="27" max="35" width="9.453125" style="19" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.54296875" style="19" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="9.26953125" style="19"/>
+    <col min="40" max="71" width="9.453125" style="19" bestFit="1" customWidth="1"/>
+    <col min="72" max="16384" width="9.26953125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:74" ht="66" customHeight="1">
@@ -18448,7 +18448,7 @@
       </c>
       <c r="BV1" s="6"/>
     </row>
-    <row r="2" spans="1:74" s="21" customFormat="1" ht="15">
+    <row r="2" spans="1:74" s="21" customFormat="1" ht="14.5">
       <c r="A2" s="19" t="s">
         <v>241</v>
       </c>
@@ -18491,7 +18491,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:74" s="21" customFormat="1" ht="15">
+    <row r="3" spans="1:74" s="21" customFormat="1" ht="14.5">
       <c r="A3" s="19" t="s">
         <v>241</v>
       </c>
@@ -18534,7 +18534,7 @@
         <v>0.39273927392739272</v>
       </c>
     </row>
-    <row r="4" spans="1:74" s="21" customFormat="1" ht="15">
+    <row r="4" spans="1:74" s="21" customFormat="1" ht="14.5">
       <c r="A4" s="19" t="s">
         <v>241</v>
       </c>
@@ -18577,7 +18577,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="5" spans="1:74" s="21" customFormat="1" ht="15">
+    <row r="5" spans="1:74" s="21" customFormat="1" ht="14.5">
       <c r="A5" s="19" t="s">
         <v>242</v>
       </c>
@@ -18594,7 +18594,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:74" s="21" customFormat="1" ht="15">
+    <row r="6" spans="1:74" s="21" customFormat="1" ht="14.5">
       <c r="A6" s="19" t="s">
         <v>241</v>
       </c>
@@ -18622,7 +18622,7 @@
         <v>1.9426789277633443</v>
       </c>
     </row>
-    <row r="7" spans="1:74" s="21" customFormat="1" ht="15">
+    <row r="7" spans="1:74" s="21" customFormat="1" ht="14.5">
       <c r="A7" s="19" t="s">
         <v>241</v>
       </c>
@@ -18650,7 +18650,7 @@
         <v>15.096521210599681</v>
       </c>
     </row>
-    <row r="8" spans="1:74" s="21" customFormat="1" ht="15">
+    <row r="8" spans="1:74" s="21" customFormat="1" ht="14.5">
       <c r="A8" s="19" t="s">
         <v>241</v>
       </c>
@@ -18678,7 +18678,7 @@
         <v>39.388727951357751</v>
       </c>
     </row>
-    <row r="9" spans="1:74" s="21" customFormat="1" ht="15">
+    <row r="9" spans="1:74" s="21" customFormat="1" ht="14.5">
       <c r="A9" s="19" t="s">
         <v>241</v>
       </c>
@@ -18707,7 +18707,7 @@
         <v>101.31660809576069</v>
       </c>
     </row>
-    <row r="10" spans="1:74" s="21" customFormat="1" ht="15">
+    <row r="10" spans="1:74" s="21" customFormat="1" ht="14.5">
       <c r="A10" s="19" t="s">
         <v>241</v>
       </c>
@@ -18741,7 +18741,7 @@
         <v>139.40667447566162</v>
       </c>
     </row>
-    <row r="11" spans="1:74" s="21" customFormat="1" ht="15">
+    <row r="11" spans="1:74" s="21" customFormat="1" ht="14.5">
       <c r="A11" s="19" t="s">
         <v>241</v>
       </c>
@@ -18776,7 +18776,7 @@
         <v>167.36501331721334</v>
       </c>
     </row>
-    <row r="12" spans="1:74" s="21" customFormat="1" ht="15">
+    <row r="12" spans="1:74" s="21" customFormat="1" ht="14.5">
       <c r="A12" s="19" t="s">
         <v>241</v>
       </c>
@@ -18841,7 +18841,7 @@
         <v>188.96612069258379</v>
       </c>
     </row>
-    <row r="13" spans="1:74" s="21" customFormat="1" ht="15">
+    <row r="13" spans="1:74" s="21" customFormat="1" ht="14.5">
       <c r="A13" s="19" t="s">
         <v>241</v>
       </c>
@@ -18876,7 +18876,7 @@
         <v>248.97227764592799</v>
       </c>
     </row>
-    <row r="14" spans="1:74" s="21" customFormat="1" ht="15">
+    <row r="14" spans="1:74" s="21" customFormat="1" ht="14.5">
       <c r="A14" s="19" t="s">
         <v>241</v>
       </c>
@@ -18901,7 +18901,7 @@
         <v>18.850270588614894</v>
       </c>
     </row>
-    <row r="15" spans="1:74" s="21" customFormat="1" ht="15">
+    <row r="15" spans="1:74" s="21" customFormat="1" ht="14.5">
       <c r="A15" s="19" t="s">
         <v>243</v>
       </c>
@@ -18929,7 +18929,7 @@
         <v>2.0061805909191119</v>
       </c>
     </row>
-    <row r="16" spans="1:74" s="21" customFormat="1" ht="15">
+    <row r="16" spans="1:74" s="21" customFormat="1" ht="14.5">
       <c r="A16" s="19" t="s">
         <v>243</v>
       </c>
@@ -18957,7 +18957,7 @@
         <v>16.329298745839893</v>
       </c>
     </row>
-    <row r="17" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="17" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A17" s="19" t="s">
         <v>243</v>
       </c>
@@ -18985,7 +18985,7 @@
         <v>41.848533805687921</v>
       </c>
     </row>
-    <row r="18" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="18" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A18" s="19" t="s">
         <v>243</v>
       </c>
@@ -19014,7 +19014,7 @@
         <v>101.24735095649916</v>
       </c>
     </row>
-    <row r="19" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="19" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A19" s="19" t="s">
         <v>243</v>
       </c>
@@ -19049,7 +19049,7 @@
         <v>133.06600086229204</v>
       </c>
     </row>
-    <row r="20" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="20" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A20" s="19" t="s">
         <v>243</v>
       </c>
@@ -19084,7 +19084,7 @@
         <v>156.14235211034324</v>
       </c>
     </row>
-    <row r="21" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="21" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A21" s="19" t="s">
         <v>243</v>
       </c>
@@ -19140,7 +19140,7 @@
         <v>181.34308150337998</v>
       </c>
     </row>
-    <row r="22" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="22" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A22" s="19" t="s">
         <v>243</v>
       </c>
@@ -19175,7 +19175,7 @@
         <v>231.87330532112117</v>
       </c>
     </row>
-    <row r="23" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="23" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A23" s="19" t="s">
         <v>243</v>
       </c>
@@ -19200,7 +19200,7 @@
         <v>18.837776752138385</v>
       </c>
     </row>
-    <row r="24" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="24" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A24" s="19" t="s">
         <v>244</v>
       </c>
@@ -19228,7 +19228,7 @@
         <v>2.3603427067052385</v>
       </c>
     </row>
-    <row r="25" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="25" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A25" s="19" t="s">
         <v>244</v>
       </c>
@@ -19256,7 +19256,7 @@
         <v>18.977072034048113</v>
       </c>
     </row>
-    <row r="26" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="26" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A26" s="19" t="s">
         <v>244</v>
       </c>
@@ -19284,7 +19284,7 @@
         <v>50.602214951578482</v>
       </c>
     </row>
-    <row r="27" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="27" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A27" s="19" t="s">
         <v>244</v>
       </c>
@@ -19312,7 +19312,7 @@
         <v>117.79171282145163</v>
       </c>
     </row>
-    <row r="28" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="28" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A28" s="19" t="s">
         <v>244</v>
       </c>
@@ -19347,7 +19347,7 @@
         <v>152.14512203795954</v>
       </c>
     </row>
-    <row r="29" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="29" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A29" s="19" t="s">
         <v>244</v>
       </c>
@@ -19382,7 +19382,7 @@
         <v>172.45436399035779</v>
       </c>
     </row>
-    <row r="30" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="30" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A30" s="19" t="s">
         <v>244</v>
       </c>
@@ -19438,7 +19438,7 @@
         <v>189.88003773962174</v>
       </c>
     </row>
-    <row r="31" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="31" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A31" s="19" t="s">
         <v>244</v>
       </c>
@@ -19473,7 +19473,7 @@
         <v>255.56229942687821</v>
       </c>
     </row>
-    <row r="32" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="32" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A32" s="19" t="s">
         <v>244</v>
       </c>
@@ -19499,7 +19499,7 @@
         <v>18.498659772256818</v>
       </c>
     </row>
-    <row r="33" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="33" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A33" s="19" t="s">
         <v>245</v>
       </c>
@@ -19528,7 +19528,7 @@
         <v>2.6730136476891326</v>
       </c>
     </row>
-    <row r="34" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="34" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A34" s="19" t="s">
         <v>245</v>
       </c>
@@ -19556,7 +19556,7 @@
         <v>21.35403136519728</v>
       </c>
     </row>
-    <row r="35" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="35" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A35" s="19" t="s">
         <v>245</v>
       </c>
@@ -19584,7 +19584,7 @@
         <v>57.370120538373406</v>
       </c>
     </row>
-    <row r="36" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="36" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A36" s="19" t="s">
         <v>245</v>
       </c>
@@ -19612,7 +19612,7 @@
         <v>136.81665797034844</v>
       </c>
     </row>
-    <row r="37" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="37" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A37" s="19" t="s">
         <v>245</v>
       </c>
@@ -19647,7 +19647,7 @@
         <v>178.67833141737816</v>
       </c>
     </row>
-    <row r="38" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="38" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A38" s="19" t="s">
         <v>245</v>
       </c>
@@ -19682,7 +19682,7 @@
         <v>206.74798515350881</v>
       </c>
     </row>
-    <row r="39" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="39" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A39" s="19" t="s">
         <v>245</v>
       </c>
@@ -19738,7 +19738,7 @@
         <v>230.55640351483257</v>
       </c>
     </row>
-    <row r="40" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="40" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A40" s="19" t="s">
         <v>245</v>
       </c>
@@ -19773,7 +19773,7 @@
         <v>295.85786034175953</v>
       </c>
     </row>
-    <row r="41" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="41" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A41" s="19" t="s">
         <v>245</v>
       </c>
@@ -19798,7 +19798,7 @@
         <v>20.603287199210108</v>
       </c>
     </row>
-    <row r="42" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="42" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A42" s="19" t="s">
         <v>242</v>
       </c>
@@ -19826,7 +19826,7 @@
         <v>2.6281742649772797</v>
       </c>
     </row>
-    <row r="43" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="43" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A43" s="19" t="s">
         <v>242</v>
       </c>
@@ -19855,7 +19855,7 @@
         <v>20.837178308871835</v>
       </c>
     </row>
-    <row r="44" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="44" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A44" s="19" t="s">
         <v>242</v>
       </c>
@@ -19883,7 +19883,7 @@
         <v>51.203598398793382</v>
       </c>
     </row>
-    <row r="45" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="45" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A45" s="19" t="s">
         <v>242</v>
       </c>
@@ -19911,7 +19911,7 @@
         <v>130.97195857944882</v>
       </c>
     </row>
-    <row r="46" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="46" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A46" s="19" t="s">
         <v>242</v>
       </c>
@@ -19946,7 +19946,7 @@
         <v>174.67622931527399</v>
       </c>
     </row>
-    <row r="47" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="47" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A47" s="19" t="s">
         <v>242</v>
       </c>
@@ -19981,7 +19981,7 @@
         <v>202.43265843502064</v>
       </c>
     </row>
-    <row r="48" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="48" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A48" s="19" t="s">
         <v>242</v>
       </c>
@@ -20045,7 +20045,7 @@
         <v>223.07697055604172</v>
       </c>
     </row>
-    <row r="49" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="49" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A49" s="19" t="s">
         <v>242</v>
       </c>
@@ -20080,7 +20080,7 @@
         <v>285.36972760037713</v>
       </c>
     </row>
-    <row r="50" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="50" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A50" s="19" t="s">
         <v>242</v>
       </c>
@@ -20105,7 +20105,7 @@
         <v>20.516115178551352</v>
       </c>
     </row>
-    <row r="51" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="51" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A51" s="19" t="s">
         <v>246</v>
       </c>
@@ -20133,7 +20133,7 @@
         <v>2.5744859936703226</v>
       </c>
     </row>
-    <row r="52" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="52" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A52" s="19" t="s">
         <v>246</v>
       </c>
@@ -20161,7 +20161,7 @@
         <v>21.018709680981864</v>
       </c>
     </row>
-    <row r="53" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="53" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A53" s="19" t="s">
         <v>246</v>
       </c>
@@ -20189,7 +20189,7 @@
         <v>54.57772816814456</v>
       </c>
     </row>
-    <row r="54" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="54" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A54" s="19" t="s">
         <v>246</v>
       </c>
@@ -20217,7 +20217,7 @@
         <v>131.42271201340924</v>
       </c>
     </row>
-    <row r="55" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="55" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A55" s="19" t="s">
         <v>246</v>
       </c>
@@ -20252,7 +20252,7 @@
         <v>174.88425810987945</v>
       </c>
     </row>
-    <row r="56" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="56" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A56" s="19" t="s">
         <v>246</v>
       </c>
@@ -20287,7 +20287,7 @@
         <v>209.78832425820914</v>
       </c>
     </row>
-    <row r="57" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="57" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A57" s="19" t="s">
         <v>246</v>
       </c>
@@ -20343,7 +20343,7 @@
         <v>236.09137477941377</v>
       </c>
     </row>
-    <row r="58" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="58" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A58" s="19" t="s">
         <v>246</v>
       </c>
@@ -20378,7 +20378,7 @@
         <v>306.37150583325547</v>
       </c>
     </row>
-    <row r="59" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="59" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A59" s="19" t="s">
         <v>246</v>
       </c>
@@ -20403,7 +20403,7 @@
         <v>21.156096144900317</v>
       </c>
     </row>
-    <row r="60" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="60" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A60" s="19" t="s">
         <v>241</v>
       </c>
@@ -20453,7 +20453,7 @@
         <v>10.079000718259762</v>
       </c>
     </row>
-    <row r="61" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="61" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A61" s="19" t="s">
         <v>241</v>
       </c>
@@ -20503,7 +20503,7 @@
         <v>11.685911391252626</v>
       </c>
     </row>
-    <row r="62" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="62" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A62" s="19" t="s">
         <v>241</v>
       </c>
@@ -20553,7 +20553,7 @@
         <v>14.90033072662361</v>
       </c>
     </row>
-    <row r="63" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="63" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A63" s="19" t="s">
         <v>241</v>
       </c>
@@ -20567,7 +20567,7 @@
       <c r="O63" s="28"/>
       <c r="P63" s="28"/>
     </row>
-    <row r="64" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="64" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A64" s="19" t="s">
         <v>241</v>
       </c>
@@ -20620,7 +20620,7 @@
         <v>17.363172459910153</v>
       </c>
     </row>
-    <row r="65" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="65" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A65" s="19" t="s">
         <v>241</v>
       </c>
@@ -20670,7 +20670,7 @@
         <v>6.6696169470532949</v>
       </c>
     </row>
-    <row r="66" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="66" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A66" s="19" t="s">
         <v>241</v>
       </c>
@@ -20723,7 +20723,7 @@
         <v>7.3747252013804259</v>
       </c>
     </row>
-    <row r="67" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="67" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A67" s="19" t="s">
         <v>241</v>
       </c>
@@ -20749,7 +20749,7 @@
         <v>0.94628397024125499</v>
       </c>
     </row>
-    <row r="68" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="68" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A68" s="19" t="s">
         <v>241</v>
       </c>
@@ -20793,7 +20793,7 @@
         <v>0.66714995201648453</v>
       </c>
     </row>
-    <row r="69" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="69" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A69" s="19" t="s">
         <v>241</v>
       </c>
@@ -20843,7 +20843,7 @@
         <v>0.47054538010569125</v>
       </c>
     </row>
-    <row r="70" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="70" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A70" s="19" t="s">
         <v>241</v>
       </c>
@@ -20893,7 +20893,7 @@
         <v>5.873094944210324E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="71" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A71" s="19" t="s">
         <v>241</v>
       </c>
@@ -20946,7 +20946,7 @@
         <v>6.930677577094177E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="72" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A72" s="19" t="s">
         <v>241</v>
       </c>
@@ -20996,7 +20996,7 @@
         <v>9.5329369149928761E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="73" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A73" s="19" t="s">
         <v>241</v>
       </c>
@@ -21046,7 +21046,7 @@
         <v>6.1856425819963964E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="74" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A74" s="19" t="s">
         <v>241</v>
       </c>
@@ -21096,7 +21096,7 @@
         <v>0.6474670718136859</v>
       </c>
     </row>
-    <row r="75" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="75" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A75" s="19" t="s">
         <v>241</v>
       </c>
@@ -21146,7 +21146,7 @@
         <v>9.4374642346713056E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="76" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A76" s="19" t="s">
         <v>241</v>
       </c>
@@ -21195,7 +21195,7 @@
         <v>7.0984950535457489E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="77" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A77" s="19" t="s">
         <v>243</v>
       </c>
@@ -21243,7 +21243,7 @@
         <v>9.7844584893901576</v>
       </c>
     </row>
-    <row r="78" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="78" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A78" s="19" t="s">
         <v>243</v>
       </c>
@@ -21291,7 +21291,7 @@
         <v>34.521570229862277</v>
       </c>
     </row>
-    <row r="79" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="79" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A79" s="19" t="s">
         <v>243</v>
       </c>
@@ -21339,7 +21339,7 @@
         <v>11.637578349736559</v>
       </c>
     </row>
-    <row r="80" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="80" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A80" s="19" t="s">
         <v>243</v>
       </c>
@@ -21387,7 +21387,7 @@
         <v>11.3261155006106</v>
       </c>
     </row>
-    <row r="81" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="81" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A81" s="19" t="s">
         <v>243</v>
       </c>
@@ -21411,7 +21411,7 @@
         <v>0.75387806706770966</v>
       </c>
     </row>
-    <row r="82" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="82" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A82" s="19" t="s">
         <v>243</v>
       </c>
@@ -21435,7 +21435,7 @@
         <v>27.671030396613546</v>
       </c>
     </row>
-    <row r="83" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="83" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A83" s="19" t="s">
         <v>243</v>
       </c>
@@ -21459,7 +21459,7 @@
         <v>5.1358307616612207</v>
       </c>
     </row>
-    <row r="84" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="84" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A84" s="19" t="s">
         <v>243</v>
       </c>
@@ -21483,7 +21483,7 @@
         <v>1.0371591709278634</v>
       </c>
     </row>
-    <row r="85" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="85" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A85" s="19" t="s">
         <v>243</v>
       </c>
@@ -21507,7 +21507,7 @@
         <v>6.1784425593939124E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="86" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A86" s="19" t="s">
         <v>243</v>
       </c>
@@ -21531,7 +21531,7 @@
         <v>0.33500762160335079</v>
       </c>
     </row>
-    <row r="87" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="87" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A87" s="19" t="s">
         <v>243</v>
       </c>
@@ -21555,7 +21555,7 @@
         <v>6.6501004475052056E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="88" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A88" s="19" t="s">
         <v>243</v>
       </c>
@@ -21579,7 +21579,7 @@
         <v>3.0747952270142642</v>
       </c>
     </row>
-    <row r="89" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="89" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A89" s="19" t="s">
         <v>243</v>
       </c>
@@ -21603,7 +21603,7 @@
         <v>0.33685495944262428</v>
       </c>
     </row>
-    <row r="90" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="90" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A90" s="19" t="s">
         <v>243</v>
       </c>
@@ -21627,7 +21627,7 @@
         <v>0.92258896837337045</v>
       </c>
     </row>
-    <row r="91" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="91" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A91" s="19" t="s">
         <v>244</v>
       </c>
@@ -21675,7 +21675,7 @@
         <v>9.4406077618685842</v>
       </c>
     </row>
-    <row r="92" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="92" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A92" s="19" t="s">
         <v>244</v>
       </c>
@@ -21723,7 +21723,7 @@
         <v>11.43368036542992</v>
       </c>
     </row>
-    <row r="93" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="93" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A93" s="19" t="s">
         <v>244</v>
       </c>
@@ -21771,7 +21771,7 @@
         <v>11.839809086398784</v>
       </c>
     </row>
-    <row r="94" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="94" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A94" s="19" t="s">
         <v>244</v>
       </c>
@@ -21819,7 +21819,7 @@
         <v>16.828118242794741</v>
       </c>
     </row>
-    <row r="95" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="95" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A95" s="19" t="s">
         <v>244</v>
       </c>
@@ -21843,7 +21843,7 @@
         <v>0.83161547040279671</v>
       </c>
     </row>
-    <row r="96" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="96" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A96" s="19" t="s">
         <v>244</v>
       </c>
@@ -21867,7 +21867,7 @@
         <v>65.893438932903237</v>
       </c>
     </row>
-    <row r="97" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="97" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A97" s="19" t="s">
         <v>244</v>
       </c>
@@ -21915,7 +21915,7 @@
         <v>3.7846121844010248</v>
       </c>
     </row>
-    <row r="98" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="98" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A98" s="19" t="s">
         <v>244</v>
       </c>
@@ -21963,7 +21963,7 @@
         <v>0.18713490291496748</v>
       </c>
     </row>
-    <row r="99" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="99" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A99" s="19" t="s">
         <v>244</v>
       </c>
@@ -22011,7 +22011,7 @@
         <v>0.10066774698231512</v>
       </c>
     </row>
-    <row r="100" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="100" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A100" s="19" t="s">
         <v>244</v>
       </c>
@@ -22059,7 +22059,7 @@
         <v>0.35968099359058575</v>
       </c>
     </row>
-    <row r="101" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="101" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A101" s="19" t="s">
         <v>244</v>
       </c>
@@ -22107,7 +22107,7 @@
         <v>5.7847173807302171E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="102" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A102" s="19" t="s">
         <v>244</v>
       </c>
@@ -22155,7 +22155,7 @@
         <v>0.67552003968153784</v>
       </c>
     </row>
-    <row r="103" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="103" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A103" s="19" t="s">
         <v>244</v>
       </c>
@@ -22203,7 +22203,7 @@
         <v>6.2749639444376462E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="104" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A104" s="19" t="s">
         <v>244</v>
       </c>
@@ -22251,7 +22251,7 @@
         <v>0.41249979106525086</v>
       </c>
     </row>
-    <row r="105" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="105" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A105" s="19" t="s">
         <v>245</v>
       </c>
@@ -22299,7 +22299,7 @@
         <v>9.419450236258287</v>
       </c>
     </row>
-    <row r="106" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="106" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A106" s="19" t="s">
         <v>245</v>
       </c>
@@ -22347,7 +22347,7 @@
         <v>9.3401334531631885</v>
       </c>
     </row>
-    <row r="107" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="107" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A107" s="19" t="s">
         <v>245</v>
       </c>
@@ -22395,7 +22395,7 @@
         <v>10.298741742609275</v>
       </c>
     </row>
-    <row r="108" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="108" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A108" s="19" t="s">
         <v>245</v>
       </c>
@@ -22443,7 +22443,7 @@
         <v>14.521193298851429</v>
       </c>
     </row>
-    <row r="109" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="109" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A109" s="19" t="s">
         <v>245</v>
       </c>
@@ -22467,7 +22467,7 @@
         <v>0.86621470930413214</v>
       </c>
     </row>
-    <row r="110" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="110" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A110" s="19" t="s">
         <v>245</v>
       </c>
@@ -22491,7 +22491,7 @@
         <v>338.34705500248157</v>
       </c>
     </row>
-    <row r="111" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="111" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A111" s="19" t="s">
         <v>245</v>
       </c>
@@ -22515,7 +22515,7 @@
         <v>55.965755088271692</v>
       </c>
     </row>
-    <row r="112" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="112" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A112" s="19" t="s">
         <v>245</v>
       </c>
@@ -22539,7 +22539,7 @@
         <v>78.190293745097165</v>
       </c>
     </row>
-    <row r="113" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="113" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A113" s="19" t="s">
         <v>245</v>
       </c>
@@ -22563,7 +22563,7 @@
         <v>22.172038119143828</v>
       </c>
     </row>
-    <row r="114" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="114" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A114" s="19" t="s">
         <v>245</v>
       </c>
@@ -22587,7 +22587,7 @@
         <v>4.844112771007425</v>
       </c>
     </row>
-    <row r="115" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="115" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A115" s="19" t="s">
         <v>245</v>
       </c>
@@ -22611,7 +22611,7 @@
         <v>6.7844556958524288E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="116" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A116" s="19" t="s">
         <v>245</v>
       </c>
@@ -22635,7 +22635,7 @@
         <v>4.7924236291972679</v>
       </c>
     </row>
-    <row r="117" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="117" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A117" s="19" t="s">
         <v>245</v>
       </c>
@@ -22659,7 +22659,7 @@
         <v>1.450364750864239</v>
       </c>
     </row>
-    <row r="118" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="118" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A118" s="19" t="s">
         <v>245</v>
       </c>
@@ -22683,7 +22683,7 @@
         <v>0.84430898847258262</v>
       </c>
     </row>
-    <row r="119" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="119" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A119" s="19" t="s">
         <v>242</v>
       </c>
@@ -22731,7 +22731,7 @@
         <v>41.234905544025544</v>
       </c>
     </row>
-    <row r="120" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="120" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A120" s="19" t="s">
         <v>242</v>
       </c>
@@ -22779,7 +22779,7 @@
         <v>12.86863384147083</v>
       </c>
     </row>
-    <row r="121" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="121" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A121" s="19" t="s">
         <v>242</v>
       </c>
@@ -22827,7 +22827,7 @@
         <v>16.640169619293061</v>
       </c>
     </row>
-    <row r="122" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="122" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A122" s="19" t="s">
         <v>242</v>
       </c>
@@ -22839,7 +22839,7 @@
       </c>
       <c r="D122" s="28"/>
     </row>
-    <row r="123" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="123" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A123" s="19" t="s">
         <v>242</v>
       </c>
@@ -22887,7 +22887,7 @@
         <v>24.983449722927972</v>
       </c>
     </row>
-    <row r="124" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="124" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A124" s="19" t="s">
         <v>242</v>
       </c>
@@ -22935,7 +22935,7 @@
         <v>31.002288544297926</v>
       </c>
     </row>
-    <row r="125" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="125" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A125" s="19" t="s">
         <v>242</v>
       </c>
@@ -22983,7 +22983,7 @@
         <v>29.347517228375082</v>
       </c>
     </row>
-    <row r="126" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="126" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A126" s="19" t="s">
         <v>242</v>
       </c>
@@ -22998,7 +22998,7 @@
         <v>0.39530500000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="127" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A127" s="19" t="s">
         <v>242</v>
       </c>
@@ -23046,7 +23046,7 @@
         <v>6.6499907252767079</v>
       </c>
     </row>
-    <row r="128" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="128" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A128" s="19" t="s">
         <v>242</v>
       </c>
@@ -23094,7 +23094,7 @@
         <v>49.115818820025908</v>
       </c>
     </row>
-    <row r="129" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="129" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A129" s="19" t="s">
         <v>242</v>
       </c>
@@ -23142,7 +23142,7 @@
         <v>15.944970493800742</v>
       </c>
     </row>
-    <row r="130" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="130" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A130" s="19" t="s">
         <v>242</v>
       </c>
@@ -23190,7 +23190,7 @@
         <v>23.063030447917374</v>
       </c>
     </row>
-    <row r="131" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="131" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A131" s="19" t="s">
         <v>242</v>
       </c>
@@ -23238,7 +23238,7 @@
         <v>560.74127563131651</v>
       </c>
     </row>
-    <row r="132" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="132" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A132" s="19" t="s">
         <v>242</v>
       </c>
@@ -23286,7 +23286,7 @@
         <v>15.719066857918317</v>
       </c>
     </row>
-    <row r="133" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="133" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A133" s="19" t="s">
         <v>242</v>
       </c>
@@ -23334,7 +23334,7 @@
         <v>11.047987638645038</v>
       </c>
     </row>
-    <row r="134" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="134" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A134" s="19" t="s">
         <v>242</v>
       </c>
@@ -23382,7 +23382,7 @@
         <v>9.7634331557268386</v>
       </c>
     </row>
-    <row r="135" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="135" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A135" s="19" t="s">
         <v>242</v>
       </c>
@@ -23430,7 +23430,7 @@
         <v>4.3355429376293726</v>
       </c>
     </row>
-    <row r="136" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="136" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A136" s="19" t="s">
         <v>246</v>
       </c>
@@ -23478,7 +23478,7 @@
         <v>824.93629836659761</v>
       </c>
     </row>
-    <row r="137" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="137" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A137" s="19" t="s">
         <v>246</v>
       </c>
@@ -23517,7 +23517,7 @@
         <v>21.436412385817388</v>
       </c>
     </row>
-    <row r="138" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="138" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A138" s="19" t="s">
         <v>246</v>
       </c>
@@ -23565,7 +23565,7 @@
         <v>6.926323083632699</v>
       </c>
     </row>
-    <row r="139" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="139" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A139" s="19" t="s">
         <v>246</v>
       </c>
@@ -23613,7 +23613,7 @@
         <v>14.789109548005701</v>
       </c>
     </row>
-    <row r="140" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="140" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A140" s="19" t="s">
         <v>246</v>
       </c>
@@ -23661,7 +23661,7 @@
         <v>111.28373574953551</v>
       </c>
     </row>
-    <row r="141" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="141" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A141" s="19" t="s">
         <v>246</v>
       </c>
@@ -23685,7 +23685,7 @@
         <v>90.67307079961229</v>
       </c>
     </row>
-    <row r="142" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="142" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A142" s="19" t="s">
         <v>246</v>
       </c>
@@ -23709,7 +23709,7 @@
         <v>25.061850304553186</v>
       </c>
     </row>
-    <row r="143" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="143" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A143" s="19" t="s">
         <v>246</v>
       </c>
@@ -23733,7 +23733,7 @@
         <v>82.057972369569185</v>
       </c>
     </row>
-    <row r="144" spans="1:66" s="21" customFormat="1" ht="15">
+    <row r="144" spans="1:66" s="21" customFormat="1" ht="14.5">
       <c r="A144" s="19" t="s">
         <v>246</v>
       </c>
@@ -23781,7 +23781,7 @@
         <v>9.3868670445946698</v>
       </c>
     </row>
-    <row r="145" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="145" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A145" s="19" t="s">
         <v>246</v>
       </c>
@@ -23829,7 +23829,7 @@
         <v>23.756789819906544</v>
       </c>
     </row>
-    <row r="146" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="146" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A146" s="19" t="s">
         <v>246</v>
       </c>
@@ -23877,7 +23877,7 @@
         <v>13.918261615639144</v>
       </c>
     </row>
-    <row r="147" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="147" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A147" s="19" t="s">
         <v>246</v>
       </c>
@@ -23925,7 +23925,7 @@
         <v>14.354537477166136</v>
       </c>
     </row>
-    <row r="148" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="148" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A148" s="19" t="s">
         <v>246</v>
       </c>
@@ -23973,7 +23973,7 @@
         <v>7.9824216336980545</v>
       </c>
     </row>
-    <row r="149" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="149" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A149" s="19" t="s">
         <v>246</v>
       </c>
@@ -24021,7 +24021,7 @@
         <v>13.542938876157567</v>
       </c>
     </row>
-    <row r="150" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="150" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A150" s="19" t="s">
         <v>246</v>
       </c>
@@ -24069,7 +24069,7 @@
         <v>15.976011964873859</v>
       </c>
     </row>
-    <row r="151" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="151" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A151" s="19" t="s">
         <v>246</v>
       </c>
@@ -24117,7 +24117,7 @@
         <v>11.092706096821301</v>
       </c>
     </row>
-    <row r="152" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="152" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A152" s="19" t="s">
         <v>241</v>
       </c>
@@ -24132,7 +24132,7 @@
         <v>5.84</v>
       </c>
     </row>
-    <row r="153" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="153" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A153" s="19" t="s">
         <v>241</v>
       </c>
@@ -24144,7 +24144,7 @@
       </c>
       <c r="D153" s="28"/>
     </row>
-    <row r="154" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="154" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A154" s="19" t="s">
         <v>241</v>
       </c>
@@ -24159,7 +24159,7 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="155" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="155" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A155" s="19" t="s">
         <v>241</v>
       </c>
@@ -24174,7 +24174,7 @@
         <v>5.54</v>
       </c>
     </row>
-    <row r="156" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="156" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A156" s="19" t="s">
         <v>241</v>
       </c>
@@ -24186,7 +24186,7 @@
       </c>
       <c r="D156" s="28"/>
     </row>
-    <row r="157" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="157" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A157" s="19" t="s">
         <v>243</v>
       </c>
@@ -24201,7 +24201,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="158" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="158" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A158" s="19" t="s">
         <v>243</v>
       </c>
@@ -24216,7 +24216,7 @@
         <v>5.47</v>
       </c>
     </row>
-    <row r="159" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="159" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A159" s="19" t="s">
         <v>243</v>
       </c>
@@ -24231,7 +24231,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="160" spans="1:63" s="21" customFormat="1" ht="15">
+    <row r="160" spans="1:63" s="21" customFormat="1" ht="14.5">
       <c r="A160" s="19" t="s">
         <v>243</v>
       </c>
@@ -24246,7 +24246,7 @@
         <v>6.11</v>
       </c>
     </row>
-    <row r="161" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="161" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A161" s="19" t="s">
         <v>243</v>
       </c>
@@ -24261,7 +24261,7 @@
         <v>5.69</v>
       </c>
     </row>
-    <row r="162" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="162" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A162" s="19" t="s">
         <v>244</v>
       </c>
@@ -24276,7 +24276,7 @@
         <v>5.59</v>
       </c>
     </row>
-    <row r="163" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="163" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A163" s="19" t="s">
         <v>244</v>
       </c>
@@ -24291,7 +24291,7 @@
         <v>5.96</v>
       </c>
     </row>
-    <row r="164" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="164" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A164" s="19" t="s">
         <v>244</v>
       </c>
@@ -24306,7 +24306,7 @@
         <v>4.8499999999999899</v>
       </c>
     </row>
-    <row r="165" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="165" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A165" s="19" t="s">
         <v>244</v>
       </c>
@@ -24321,7 +24321,7 @@
         <v>5.3499999999999899</v>
       </c>
     </row>
-    <row r="166" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="166" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A166" s="19" t="s">
         <v>244</v>
       </c>
@@ -24336,7 +24336,7 @@
         <v>5.12</v>
       </c>
     </row>
-    <row r="167" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="167" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A167" s="19" t="s">
         <v>244</v>
       </c>
@@ -24351,7 +24351,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="168" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="168" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A168" s="19" t="s">
         <v>244</v>
       </c>
@@ -24363,7 +24363,7 @@
       </c>
       <c r="D168" s="28"/>
     </row>
-    <row r="169" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="169" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A169" s="19" t="s">
         <v>244</v>
       </c>
@@ -24378,7 +24378,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="170" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="170" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A170" s="19" t="s">
         <v>244</v>
       </c>
@@ -24393,7 +24393,7 @@
         <v>6.21</v>
       </c>
     </row>
-    <row r="171" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="171" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A171" s="19" t="s">
         <v>244</v>
       </c>
@@ -24408,7 +24408,7 @@
         <v>5.87</v>
       </c>
     </row>
-    <row r="172" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="172" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A172" s="19" t="s">
         <v>242</v>
       </c>
@@ -24423,7 +24423,7 @@
         <v>7.74</v>
       </c>
     </row>
-    <row r="173" spans="1:23" s="21" customFormat="1" ht="15.75">
+    <row r="173" spans="1:23" s="21" customFormat="1" ht="15.5">
       <c r="A173" s="19" t="s">
         <v>242</v>
       </c>
@@ -24443,7 +24443,7 @@
         <v>8.27</v>
       </c>
     </row>
-    <row r="174" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="174" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A174" s="19" t="s">
         <v>242</v>
       </c>
@@ -24462,7 +24462,7 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="175" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="175" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A175" s="19" t="s">
         <v>242</v>
       </c>
@@ -24479,7 +24479,7 @@
         <v>7.02</v>
       </c>
     </row>
-    <row r="176" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="176" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A176" s="19" t="s">
         <v>242</v>
       </c>
@@ -24493,7 +24493,7 @@
       <c r="O176" s="31"/>
       <c r="P176" s="31"/>
     </row>
-    <row r="177" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="177" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A177" s="19" t="s">
         <v>246</v>
       </c>
@@ -24511,7 +24511,7 @@
         <v>8.31</v>
       </c>
     </row>
-    <row r="178" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="178" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A178" s="19" t="s">
         <v>246</v>
       </c>
@@ -24529,7 +24529,7 @@
         <v>8.41</v>
       </c>
     </row>
-    <row r="179" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="179" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A179" s="19" t="s">
         <v>246</v>
       </c>
@@ -24546,7 +24546,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="180" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="180" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A180" s="19" t="s">
         <v>246</v>
       </c>
@@ -24563,7 +24563,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="181" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="181" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A181" s="19" t="s">
         <v>246</v>
       </c>
@@ -24580,7 +24580,7 @@
         <v>7.34</v>
       </c>
     </row>
-    <row r="182" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="182" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A182" s="19" t="s">
         <v>241</v>
       </c>
@@ -24597,7 +24597,7 @@
         <v>3.3352009052827341</v>
       </c>
     </row>
-    <row r="183" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="183" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A183" s="19" t="s">
         <v>241</v>
       </c>
@@ -24615,7 +24615,7 @@
         <v>5.3378061780489672</v>
       </c>
     </row>
-    <row r="184" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="184" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A184" s="19" t="s">
         <v>241</v>
       </c>
@@ -24633,7 +24633,7 @@
         <v>8.0304225893924048</v>
       </c>
     </row>
-    <row r="185" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="185" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A185" s="19" t="s">
         <v>241</v>
       </c>
@@ -24650,7 +24650,7 @@
         <v>4.5584479475526019</v>
       </c>
     </row>
-    <row r="186" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="186" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A186" s="19" t="s">
         <v>241</v>
       </c>
@@ -24667,7 +24667,7 @@
         <v>3.1607358328057575</v>
       </c>
     </row>
-    <row r="187" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="187" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A187" s="19" t="s">
         <v>241</v>
       </c>
@@ -24684,7 +24684,7 @@
         <v>1.5050467837428154E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="188" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A188" s="19" t="s">
         <v>241</v>
       </c>
@@ -24701,7 +24701,7 @@
         <v>1.276506997960839E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="189" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A189" s="19" t="s">
         <v>241</v>
       </c>
@@ -24718,7 +24718,7 @@
         <v>2.20123697901893E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="190" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A190" s="19" t="s">
         <v>241</v>
       </c>
@@ -24737,7 +24737,7 @@
         <v>2.8262423511851147E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="191" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A191" s="19" t="s">
         <v>241</v>
       </c>
@@ -24756,7 +24756,7 @@
         <v>1.7682570570030833E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="192" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A192" s="19" t="s">
         <v>241</v>
       </c>
@@ -24773,7 +24773,7 @@
         <v>1.7421730850087128E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="193" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A193" s="19" t="s">
         <v>241</v>
       </c>
@@ -24790,7 +24790,7 @@
         <v>3.1491859124216435E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="194" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A194" s="19" t="s">
         <v>241</v>
       </c>
@@ -24809,7 +24809,7 @@
         <v>8.2719385594224161E-4</v>
       </c>
     </row>
-    <row r="195" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="195" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A195" s="19" t="s">
         <v>241</v>
       </c>
@@ -24828,7 +24828,7 @@
         <v>7.8821646033169299E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="196" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A196" s="19" t="s">
         <v>241</v>
       </c>
@@ -24847,7 +24847,7 @@
         <v>1.5767542127177923E-3</v>
       </c>
     </row>
-    <row r="197" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="197" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A197" s="19" t="s">
         <v>241</v>
       </c>
@@ -24866,7 +24866,7 @@
         <v>1.1673992232268322E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="198" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A198" s="19" t="s">
         <v>243</v>
       </c>
@@ -24885,7 +24885,7 @@
         <v>3.4278499267179461</v>
       </c>
     </row>
-    <row r="199" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="199" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A199" s="19" t="s">
         <v>243</v>
       </c>
@@ -24902,7 +24902,7 @@
         <v>5.2203160861809872</v>
       </c>
     </row>
-    <row r="200" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="200" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A200" s="19" t="s">
         <v>243</v>
       </c>
@@ -24919,7 +24919,7 @@
         <v>5.1297015705723767</v>
       </c>
     </row>
-    <row r="201" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="201" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A201" s="19" t="s">
         <v>243</v>
       </c>
@@ -24938,7 +24938,7 @@
         <v>1.4970510148410185</v>
       </c>
     </row>
-    <row r="202" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="202" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A202" s="19" t="s">
         <v>243</v>
       </c>
@@ -24957,7 +24957,7 @@
         <v>8.2476476678703843E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:60" s="21" customFormat="1" ht="15.75">
+    <row r="203" spans="1:60" s="21" customFormat="1" ht="15.5">
       <c r="A203" s="19" t="s">
         <v>243</v>
       </c>
@@ -24977,7 +24977,7 @@
         <v>0.10537842420849793</v>
       </c>
     </row>
-    <row r="204" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="204" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A204" s="19" t="s">
         <v>243</v>
       </c>
@@ -24996,7 +24996,7 @@
         <v>0.18206283454524325</v>
       </c>
     </row>
-    <row r="205" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="205" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A205" s="19" t="s">
         <v>243</v>
       </c>
@@ -25013,7 +25013,7 @@
         <v>9.4621864181857699E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="206" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A206" s="19" t="s">
         <v>243</v>
       </c>
@@ -25031,7 +25031,7 @@
         <v>8.497981865892533E-4</v>
       </c>
     </row>
-    <row r="207" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="207" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A207" s="19" t="s">
         <v>243</v>
       </c>
@@ -25049,7 +25049,7 @@
         <v>1.8165397263731756E-3</v>
       </c>
     </row>
-    <row r="208" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="208" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A208" s="19" t="s">
         <v>243</v>
       </c>
@@ -25066,7 +25066,7 @@
         <v>8.3449588603376338E-4</v>
       </c>
     </row>
-    <row r="209" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="209" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A209" s="19" t="s">
         <v>243</v>
       </c>
@@ -25084,7 +25084,7 @@
         <v>5.6687186159300193E-3</v>
       </c>
     </row>
-    <row r="210" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="210" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A210" s="19" t="s">
         <v>243</v>
       </c>
@@ -25102,7 +25102,7 @@
         <v>8.3011889634349782E-4</v>
       </c>
     </row>
-    <row r="211" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="211" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A211" s="19" t="s">
         <v>243</v>
       </c>
@@ -25119,7 +25119,7 @@
         <v>8.1641918193268374E-4</v>
       </c>
     </row>
-    <row r="212" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="212" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A212" s="19" t="s">
         <v>244</v>
       </c>
@@ -25136,7 +25136,7 @@
         <v>2.6938648278388793</v>
       </c>
     </row>
-    <row r="213" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="213" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A213" s="19" t="s">
         <v>244</v>
       </c>
@@ -25154,7 +25154,7 @@
         <v>6.452122435962548</v>
       </c>
     </row>
-    <row r="214" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="214" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A214" s="19" t="s">
         <v>244</v>
       </c>
@@ -25172,7 +25172,7 @@
         <v>5.1018172749436133</v>
       </c>
     </row>
-    <row r="215" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="215" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A215" s="19" t="s">
         <v>244</v>
       </c>
@@ -25189,7 +25189,7 @@
         <v>1.7424952383830152</v>
       </c>
     </row>
-    <row r="216" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="216" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A216" s="19" t="s">
         <v>244</v>
       </c>
@@ -25206,7 +25206,7 @@
         <v>3.739454041136236E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="217" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A217" s="19" t="s">
         <v>244</v>
       </c>
@@ -25223,7 +25223,7 @@
         <v>9.7777313376750483E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="218" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A218" s="19" t="s">
         <v>244</v>
       </c>
@@ -25240,7 +25240,7 @@
         <v>0.20288923283812227</v>
       </c>
     </row>
-    <row r="219" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="219" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A219" s="19" t="s">
         <v>244</v>
       </c>
@@ -25259,7 +25259,7 @@
         <v>2.9056499987877918E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="220" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A220" s="19" t="s">
         <v>244</v>
       </c>
@@ -25278,7 +25278,7 @@
         <v>1.5482489708569375E-3</v>
       </c>
     </row>
-    <row r="221" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="221" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A221" s="19" t="s">
         <v>244</v>
       </c>
@@ -25295,7 +25295,7 @@
         <v>5.7773156985987386E-3</v>
       </c>
     </row>
-    <row r="222" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="222" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A222" s="19" t="s">
         <v>244</v>
       </c>
@@ -25312,7 +25312,7 @@
         <v>8.2153032670159742E-4</v>
       </c>
     </row>
-    <row r="223" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="223" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A223" s="19" t="s">
         <v>244</v>
       </c>
@@ -25331,7 +25331,7 @@
         <v>6.0908779903161292E-3</v>
       </c>
     </row>
-    <row r="224" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="224" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A224" s="19" t="s">
         <v>244</v>
       </c>
@@ -25350,7 +25350,7 @@
         <v>8.1727177398017818E-4</v>
       </c>
     </row>
-    <row r="225" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="225" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A225" s="19" t="s">
         <v>244</v>
       </c>
@@ -25369,7 +25369,7 @@
         <v>1.1679178605533773E-3</v>
       </c>
     </row>
-    <row r="226" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="226" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A226" s="19" t="s">
         <v>245</v>
       </c>
@@ -25388,7 +25388,7 @@
         <v>1.5960658302495594</v>
       </c>
     </row>
-    <row r="227" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="227" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A227" s="19" t="s">
         <v>245</v>
       </c>
@@ -25407,7 +25407,7 @@
         <v>2.0466595203545253</v>
       </c>
     </row>
-    <row r="228" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="228" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A228" s="19" t="s">
         <v>245</v>
       </c>
@@ -25426,7 +25426,7 @@
         <v>4.5401834369107927</v>
       </c>
     </row>
-    <row r="229" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="229" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A229" s="6" t="s">
         <v>245</v>
       </c>
@@ -25443,7 +25443,7 @@
         <v>2.5681216967828662</v>
       </c>
     </row>
-    <row r="230" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="230" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A230" s="6" t="s">
         <v>245</v>
       </c>
@@ -25460,7 +25460,7 @@
         <v>2.4229664463747817E-3</v>
       </c>
     </row>
-    <row r="231" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="231" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A231" s="6" t="s">
         <v>245</v>
       </c>
@@ -25477,7 +25477,7 @@
         <v>0.20927478286751297</v>
       </c>
     </row>
-    <row r="232" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="232" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A232" s="6" t="s">
         <v>245</v>
       </c>
@@ -25494,7 +25494,7 @@
         <v>1.3752510968520772</v>
       </c>
     </row>
-    <row r="233" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="233" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A233" s="6" t="s">
         <v>245</v>
       </c>
@@ -25511,7 +25511,7 @@
         <v>0.78560945201600973</v>
       </c>
     </row>
-    <row r="234" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="234" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A234" s="6" t="s">
         <v>245</v>
       </c>
@@ -25528,7 +25528,7 @@
         <v>6.7027095434819522E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="235" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A235" s="6" t="s">
         <v>245</v>
       </c>
@@ -25545,7 +25545,7 @@
         <v>0.18166936576272241</v>
       </c>
     </row>
-    <row r="236" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="236" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A236" s="6" t="s">
         <v>245</v>
       </c>
@@ -25562,7 +25562,7 @@
         <v>8.2968760106616446E-4</v>
       </c>
     </row>
-    <row r="237" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="237" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A237" s="6" t="s">
         <v>245</v>
       </c>
@@ -25579,7 +25579,7 @@
         <v>7.3985599974694671E-3</v>
       </c>
     </row>
-    <row r="238" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="238" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A238" s="6" t="s">
         <v>245</v>
       </c>
@@ -25596,7 +25596,7 @@
         <v>4.0576557604792646E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="239" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A239" s="6" t="s">
         <v>245</v>
       </c>
@@ -25613,7 +25613,7 @@
         <v>8.0342936321758105E-4</v>
       </c>
     </row>
-    <row r="240" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="240" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A240" s="6" t="s">
         <v>242</v>
       </c>
@@ -25630,7 +25630,7 @@
         <v>2.2402077740333182</v>
       </c>
     </row>
-    <row r="241" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="241" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A241" s="6" t="s">
         <v>242</v>
       </c>
@@ -25647,7 +25647,7 @@
         <v>4.5270824061718837</v>
       </c>
     </row>
-    <row r="242" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="242" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A242" s="6" t="s">
         <v>242</v>
       </c>
@@ -25664,7 +25664,7 @@
         <v>5.3324586936767862</v>
       </c>
     </row>
-    <row r="243" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="243" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A243" s="6" t="s">
         <v>242</v>
       </c>
@@ -25681,7 +25681,7 @@
         <v>3.16111430435034</v>
       </c>
     </row>
-    <row r="244" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="244" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A244" s="6" t="s">
         <v>242</v>
       </c>
@@ -25698,7 +25698,7 @@
         <v>2.2421145654773214</v>
       </c>
     </row>
-    <row r="245" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="245" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A245" s="6" t="s">
         <v>242</v>
       </c>
@@ -25715,7 +25715,7 @@
         <v>0.47433514051772585</v>
       </c>
     </row>
-    <row r="246" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="246" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A246" s="6" t="s">
         <v>242</v>
       </c>
@@ -25732,7 +25732,7 @@
         <v>0.10094030205784604</v>
       </c>
     </row>
-    <row r="247" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="247" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A247" s="6" t="s">
         <v>242</v>
       </c>
@@ -25749,7 +25749,7 @@
         <v>0.19913247885824009</v>
       </c>
     </row>
-    <row r="248" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="248" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A248" s="6" t="s">
         <v>242</v>
       </c>
@@ -25766,7 +25766,7 @@
         <v>2.0176712233537311</v>
       </c>
     </row>
-    <row r="249" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="249" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A249" s="6" t="s">
         <v>242</v>
       </c>
@@ -25783,7 +25783,7 @@
         <v>3.1035203683652046</v>
       </c>
     </row>
-    <row r="250" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="250" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A250" s="6" t="s">
         <v>242</v>
       </c>
@@ -25800,7 +25800,7 @@
         <v>1.2559729903044137</v>
       </c>
     </row>
-    <row r="251" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="251" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A251" s="6" t="s">
         <v>242</v>
       </c>
@@ -25817,7 +25817,7 @@
         <v>0.43528950873451477</v>
       </c>
     </row>
-    <row r="252" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="252" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A252" s="6" t="s">
         <v>242</v>
       </c>
@@ -25834,7 +25834,7 @@
         <v>0.44975707102981433</v>
       </c>
     </row>
-    <row r="253" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="253" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A253" s="6" t="s">
         <v>242</v>
       </c>
@@ -25851,7 +25851,7 @@
         <v>0.33009040459632483</v>
       </c>
     </row>
-    <row r="254" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="254" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A254" s="6" t="s">
         <v>242</v>
       </c>
@@ -25868,7 +25868,7 @@
         <v>0.61933810363663644</v>
       </c>
     </row>
-    <row r="255" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="255" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A255" s="6" t="s">
         <v>242</v>
       </c>
@@ -25885,7 +25885,7 @@
         <v>0.10517262170754198</v>
       </c>
     </row>
-    <row r="256" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="256" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A256" s="6" t="s">
         <v>246</v>
       </c>
@@ -25902,7 +25902,7 @@
         <v>2.7071361606441093</v>
       </c>
     </row>
-    <row r="257" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="257" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A257" s="6" t="s">
         <v>246</v>
       </c>
@@ -25919,7 +25919,7 @@
         <v>3.5658683072262058</v>
       </c>
     </row>
-    <row r="258" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="258" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A258" s="6" t="s">
         <v>246</v>
       </c>
@@ -25936,7 +25936,7 @@
         <v>3.1045502950758488</v>
       </c>
     </row>
-    <row r="259" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="259" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A259" s="6" t="s">
         <v>246</v>
       </c>
@@ -25953,7 +25953,7 @@
         <v>2.3436297375993616</v>
       </c>
     </row>
-    <row r="260" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="260" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A260" s="6" t="s">
         <v>246</v>
       </c>
@@ -25970,7 +25970,7 @@
         <v>0.52128376577422708</v>
       </c>
     </row>
-    <row r="261" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="261" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A261" s="6" t="s">
         <v>246</v>
       </c>
@@ -25987,7 +25987,7 @@
         <v>0.65220436338273735</v>
       </c>
     </row>
-    <row r="262" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="262" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A262" s="6" t="s">
         <v>246</v>
       </c>
@@ -26004,7 +26004,7 @@
         <v>0.72653811030800075</v>
       </c>
     </row>
-    <row r="263" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="263" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A263" s="6" t="s">
         <v>246</v>
       </c>
@@ -26021,7 +26021,7 @@
         <v>1.9010029902286769</v>
       </c>
     </row>
-    <row r="264" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="264" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A264" s="6" t="s">
         <v>246</v>
       </c>
@@ -26038,7 +26038,7 @@
         <v>2.2628423596942753</v>
       </c>
     </row>
-    <row r="265" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="265" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A265" s="6" t="s">
         <v>246</v>
       </c>
@@ -26055,7 +26055,7 @@
         <v>1.3363237898911655</v>
       </c>
     </row>
-    <row r="266" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="266" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A266" s="6" t="s">
         <v>246</v>
       </c>
@@ -26072,7 +26072,7 @@
         <v>0.7415113449173163</v>
       </c>
     </row>
-    <row r="267" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="267" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A267" s="6" t="s">
         <v>246</v>
       </c>
@@ -26089,7 +26089,7 @@
         <v>0.57678704859443375</v>
       </c>
     </row>
-    <row r="268" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="268" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A268" s="6" t="s">
         <v>246</v>
       </c>
@@ -26106,7 +26106,7 @@
         <v>0.6491992359076123</v>
       </c>
     </row>
-    <row r="269" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="269" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A269" s="6" t="s">
         <v>246</v>
       </c>
@@ -26123,7 +26123,7 @@
         <v>1.1749373235460279</v>
       </c>
     </row>
-    <row r="270" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="270" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A270" s="6" t="s">
         <v>246</v>
       </c>
@@ -26140,7 +26140,7 @@
         <v>0.41992922457391135</v>
       </c>
     </row>
-    <row r="271" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="271" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A271" s="6" t="s">
         <v>247</v>
       </c>
@@ -26154,7 +26154,7 @@
       <c r="O271" s="33"/>
       <c r="P271" s="33"/>
     </row>
-    <row r="272" spans="1:60" s="21" customFormat="1" ht="15">
+    <row r="272" spans="1:60" s="21" customFormat="1" ht="14.5">
       <c r="A272" s="6" t="s">
         <v>247</v>
       </c>
@@ -26186,7 +26186,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="273" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A273" s="6" t="s">
         <v>248</v>
       </c>
@@ -26218,7 +26218,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="274" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="274" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A274" s="6" t="s">
         <v>248</v>
       </c>
@@ -26250,7 +26250,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="275" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="275" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A275" s="6" t="s">
         <v>248</v>
       </c>
@@ -26285,7 +26285,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="276" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="276" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A276" s="6" t="s">
         <v>248</v>
       </c>
@@ -26317,7 +26317,7 @@
         <v>55.869905942594535</v>
       </c>
     </row>
-    <row r="277" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="277" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A277" s="6" t="s">
         <v>249</v>
       </c>
@@ -26349,7 +26349,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="278" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="278" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A278" s="6" t="s">
         <v>249</v>
       </c>
@@ -26381,7 +26381,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="279" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="279" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A279" s="6" t="s">
         <v>249</v>
       </c>
@@ -26413,7 +26413,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="280" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="280" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A280" s="6" t="s">
         <v>249</v>
       </c>
@@ -26448,7 +26448,7 @@
         <v>48.299994540753168</v>
       </c>
     </row>
-    <row r="281" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="281" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A281" s="6" t="s">
         <v>250</v>
       </c>
@@ -26467,7 +26467,7 @@
       <c r="O281" s="33"/>
       <c r="P281" s="33"/>
     </row>
-    <row r="282" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="282" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A282" s="6" t="s">
         <v>250</v>
       </c>
@@ -26492,7 +26492,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="283" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="283" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A283" s="6" t="s">
         <v>251</v>
       </c>
@@ -26517,7 +26517,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="284" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="284" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A284" s="6" t="s">
         <v>252</v>
       </c>
@@ -26542,7 +26542,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="285" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="285" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A285" s="6" t="s">
         <v>253</v>
       </c>
@@ -26567,7 +26567,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="286" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="286" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A286" s="6" t="s">
         <v>250</v>
       </c>
@@ -26601,7 +26601,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="287" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="287" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A287" s="6" t="s">
         <v>251</v>
       </c>
@@ -26635,7 +26635,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="288" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="288" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A288" s="6" t="s">
         <v>252</v>
       </c>
@@ -26669,7 +26669,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="289" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="289" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A289" s="6" t="s">
         <v>253</v>
       </c>
@@ -26703,7 +26703,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="290" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="290" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A290" s="6" t="s">
         <v>250</v>
       </c>
@@ -26728,7 +26728,7 @@
         <v>0.95238095238095233</v>
       </c>
     </row>
-    <row r="291" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="291" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A291" s="6" t="s">
         <v>250</v>
       </c>
@@ -26753,7 +26753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="292" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A292" s="6" t="s">
         <v>250</v>
       </c>
@@ -26778,7 +26778,7 @@
         <v>2.8571428571428572</v>
       </c>
     </row>
-    <row r="293" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="293" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A293" s="6" t="s">
         <v>251</v>
       </c>
@@ -26803,7 +26803,7 @@
         <v>0.93457943925233644</v>
       </c>
     </row>
-    <row r="294" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="294" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A294" s="6" t="s">
         <v>251</v>
       </c>
@@ -26828,7 +26828,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="295" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="295" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A295" s="6" t="s">
         <v>251</v>
       </c>
@@ -26853,7 +26853,7 @@
         <v>2.1276595744680851</v>
       </c>
     </row>
-    <row r="296" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="296" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A296" s="6" t="s">
         <v>252</v>
       </c>
@@ -26878,7 +26878,7 @@
         <v>1.075268817204301</v>
       </c>
     </row>
-    <row r="297" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="297" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A297" s="6" t="s">
         <v>252</v>
       </c>
@@ -26903,7 +26903,7 @@
         <v>1.0204081632653061</v>
       </c>
     </row>
-    <row r="298" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="298" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A298" s="6" t="s">
         <v>252</v>
       </c>
@@ -26928,7 +26928,7 @@
         <v>2.3809523809523809</v>
       </c>
     </row>
-    <row r="299" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="299" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A299" s="6" t="s">
         <v>253</v>
       </c>
@@ -26953,7 +26953,7 @@
         <v>0.84033613445378152</v>
       </c>
     </row>
-    <row r="300" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="300" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A300" s="6" t="s">
         <v>253</v>
       </c>
@@ -26978,7 +26978,7 @@
         <v>1.0309278350515465</v>
       </c>
     </row>
-    <row r="301" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="301" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A301" s="6" t="s">
         <v>253</v>
       </c>
@@ -27003,7 +27003,7 @@
         <v>2.0833333333333335</v>
       </c>
     </row>
-    <row r="302" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="302" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A302" s="6" t="s">
         <v>250</v>
       </c>
@@ -27025,7 +27025,7 @@
       <c r="O302" s="33"/>
       <c r="P302" s="33"/>
     </row>
-    <row r="303" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="303" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A303" s="6" t="s">
         <v>250</v>
       </c>
@@ -27047,7 +27047,7 @@
       <c r="O303" s="33"/>
       <c r="P303" s="33"/>
     </row>
-    <row r="304" spans="1:41" s="21" customFormat="1" ht="15">
+    <row r="304" spans="1:41" s="21" customFormat="1" ht="14.5">
       <c r="A304" s="6" t="s">
         <v>250</v>
       </c>
@@ -27069,7 +27069,7 @@
       <c r="O304" s="33"/>
       <c r="P304" s="33"/>
     </row>
-    <row r="305" spans="1:22" s="21" customFormat="1" ht="15">
+    <row r="305" spans="1:22" s="21" customFormat="1" ht="14.5">
       <c r="A305" s="6" t="s">
         <v>250</v>
       </c>
@@ -27091,7 +27091,7 @@
       <c r="O305" s="33"/>
       <c r="P305" s="33"/>
     </row>
-    <row r="306" spans="1:22" s="21" customFormat="1" ht="15">
+    <row r="306" spans="1:22" s="21" customFormat="1" ht="14.5">
       <c r="A306" s="6" t="s">
         <v>250</v>
       </c>
@@ -27113,7 +27113,7 @@
       <c r="O306" s="33"/>
       <c r="P306" s="33"/>
     </row>
-    <row r="307" spans="1:22" s="21" customFormat="1" ht="15">
+    <row r="307" spans="1:22" s="21" customFormat="1" ht="14.5">
       <c r="A307" s="6" t="s">
         <v>250</v>
       </c>
@@ -27135,7 +27135,7 @@
       <c r="O307" s="33"/>
       <c r="P307" s="33"/>
     </row>
-    <row r="308" spans="1:22" s="21" customFormat="1" ht="15">
+    <row r="308" spans="1:22" s="21" customFormat="1" ht="14.5">
       <c r="A308" s="6" t="s">
         <v>250</v>
       </c>
@@ -27157,7 +27157,7 @@
       <c r="O308" s="33"/>
       <c r="P308" s="33"/>
     </row>
-    <row r="309" spans="1:22" s="21" customFormat="1" ht="15">
+    <row r="309" spans="1:22" s="21" customFormat="1" ht="14.5">
       <c r="A309" s="6" t="s">
         <v>250</v>
       </c>
@@ -27179,7 +27179,7 @@
       <c r="O309" s="33"/>
       <c r="P309" s="33"/>
     </row>
-    <row r="310" spans="1:22" s="21" customFormat="1" ht="15">
+    <row r="310" spans="1:22" s="21" customFormat="1" ht="14.5">
       <c r="A310" s="6" t="s">
         <v>250</v>
       </c>
@@ -27201,7 +27201,7 @@
       <c r="O310" s="33"/>
       <c r="P310" s="33"/>
     </row>
-    <row r="311" spans="1:22" s="21" customFormat="1" ht="15">
+    <row r="311" spans="1:22" s="21" customFormat="1" ht="14.5">
       <c r="A311" s="6" t="s">
         <v>250</v>
       </c>
@@ -27233,7 +27233,7 @@
         <v>0.24293785310734467</v>
       </c>
     </row>
-    <row r="312" spans="1:22" s="21" customFormat="1" ht="15">
+    <row r="312" spans="1:22" s="21" customFormat="1" ht="14.5">
       <c r="A312" s="6" t="s">
         <v>250</v>
       </c>
@@ -27255,7 +27255,7 @@
       <c r="O312" s="33"/>
       <c r="P312" s="33"/>
     </row>
-    <row r="313" spans="1:22" s="21" customFormat="1" ht="15">
+    <row r="313" spans="1:22" s="21" customFormat="1" ht="14.5">
       <c r="A313" s="6" t="s">
         <v>250</v>
       </c>
@@ -27287,7 +27287,7 @@
         <v>0.19175257731958764</v>
       </c>
     </row>
-    <row r="314" spans="1:22" s="21" customFormat="1" ht="15">
+    <row r="314" spans="1:22" s="21" customFormat="1" ht="14.5">
       <c r="A314" s="6" t="s">
         <v>250</v>
       </c>
@@ -27309,7 +27309,7 @@
       <c r="O314" s="33"/>
       <c r="P314" s="33"/>
     </row>
-    <row r="315" spans="1:22" s="21" customFormat="1" ht="15">
+    <row r="315" spans="1:22" s="21" customFormat="1" ht="14.5">
       <c r="A315" s="6" t="s">
         <v>250</v>
       </c>
@@ -27331,7 +27331,7 @@
       <c r="O315" s="33"/>
       <c r="P315" s="33"/>
     </row>
-    <row r="316" spans="1:22" s="21" customFormat="1" ht="15">
+    <row r="316" spans="1:22" s="21" customFormat="1" ht="14.5">
       <c r="A316" s="6" t="s">
         <v>253</v>
       </c>
@@ -27374,7 +27374,7 @@
         <v>2160.0021600021601</v>
       </c>
     </row>
-    <row r="317" spans="1:22" s="21" customFormat="1" ht="15">
+    <row r="317" spans="1:22" s="21" customFormat="1" ht="14.5">
       <c r="A317" s="6" t="s">
         <v>252</v>
       </c>
@@ -27417,7 +27417,7 @@
         <v>1530.0015300015302</v>
       </c>
     </row>
-    <row r="318" spans="1:22" s="21" customFormat="1" ht="15">
+    <row r="318" spans="1:22" s="21" customFormat="1" ht="14.5">
       <c r="A318" s="6" t="s">
         <v>251</v>
       </c>
@@ -27460,7 +27460,7 @@
         <v>900.00090000090006</v>
       </c>
     </row>
-    <row r="319" spans="1:22" s="21" customFormat="1" ht="15">
+    <row r="319" spans="1:22" s="21" customFormat="1" ht="14.5">
       <c r="A319" s="6" t="s">
         <v>250</v>
       </c>
@@ -27503,7 +27503,7 @@
         <v>540.00054000054001</v>
       </c>
     </row>
-    <row r="320" spans="1:22" s="21" customFormat="1" ht="15">
+    <row r="320" spans="1:22" s="21" customFormat="1" ht="14.5">
       <c r="A320" s="6" t="s">
         <v>253</v>
       </c>
@@ -27552,7 +27552,7 @@
         <v>5.5199999999999997E-3</v>
       </c>
     </row>
-    <row r="321" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="321" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A321" s="6" t="s">
         <v>252</v>
       </c>
@@ -27601,7 +27601,7 @@
         <v>5.3400000000000001E-3</v>
       </c>
     </row>
-    <row r="322" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="322" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A322" s="6" t="s">
         <v>251</v>
       </c>
@@ -27650,7 +27650,7 @@
         <v>5.2500000000000003E-3</v>
       </c>
     </row>
-    <row r="323" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="323" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A323" s="6" t="s">
         <v>250</v>
       </c>
@@ -27699,7 +27699,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="324" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="324" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A324" s="6" t="s">
         <v>254</v>
       </c>
@@ -27716,7 +27716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="325" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A325" s="6" t="s">
         <v>254</v>
       </c>
@@ -27731,7 +27731,7 @@
         <v>2.7276019047619052E-4</v>
       </c>
     </row>
-    <row r="326" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="326" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A326" s="6" t="s">
         <v>254</v>
       </c>
@@ -27746,7 +27746,7 @@
         <v>3.6881506730956103E-3</v>
       </c>
     </row>
-    <row r="327" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="327" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A327" s="6" t="s">
         <v>254</v>
       </c>
@@ -27761,7 +27761,7 @@
         <v>27.203688150673095</v>
       </c>
     </row>
-    <row r="328" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="328" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A328" s="6" t="s">
         <v>254</v>
       </c>
@@ -27776,7 +27776,7 @@
         <v>70.503688150673099</v>
       </c>
     </row>
-    <row r="329" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="329" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A329" s="6" t="s">
         <v>254</v>
       </c>
@@ -27791,7 +27791,7 @@
         <v>122.10368815067309</v>
       </c>
     </row>
-    <row r="330" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="330" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A330" s="6" t="s">
         <v>254</v>
       </c>
@@ -27806,7 +27806,7 @@
         <v>174.60368815067309</v>
       </c>
     </row>
-    <row r="331" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="331" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A331" s="6" t="s">
         <v>254</v>
       </c>
@@ -27837,7 +27837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="332" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="332" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A332" s="6" t="s">
         <v>255</v>
       </c>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="333" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A333" s="6" t="s">
         <v>255</v>
       </c>
@@ -27873,7 +27873,7 @@
         <v>1.4458724761904756E-4</v>
       </c>
     </row>
-    <row r="334" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="334" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A334" s="6" t="s">
         <v>255</v>
       </c>
@@ -27891,7 +27891,7 @@
         <v>1.4659505842200501E-3</v>
       </c>
     </row>
-    <row r="335" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="335" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A335" s="6" t="s">
         <v>255</v>
       </c>
@@ -27909,7 +27909,7 @@
         <v>23.80146595058422</v>
       </c>
     </row>
-    <row r="336" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="336" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A336" s="6" t="s">
         <v>255</v>
       </c>
@@ -27927,7 +27927,7 @@
         <v>66.601465950584213</v>
       </c>
     </row>
-    <row r="337" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="337" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A337" s="6" t="s">
         <v>255</v>
       </c>
@@ -27945,7 +27945,7 @@
         <v>110.30146595058422</v>
       </c>
     </row>
-    <row r="338" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="338" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A338" s="6" t="s">
         <v>255</v>
       </c>
@@ -27963,7 +27963,7 @@
         <v>163.35146595058421</v>
       </c>
     </row>
-    <row r="339" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="339" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A339" s="6" t="s">
         <v>255</v>
       </c>
@@ -27993,7 +27993,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="340" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="340" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A340" s="6" t="s">
         <v>254</v>
       </c>
@@ -28008,7 +28008,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="341" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="341" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A341" s="6" t="s">
         <v>254</v>
       </c>
@@ -28023,7 +28023,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="342" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="342" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A342" s="6" t="s">
         <v>254</v>
       </c>
@@ -28038,7 +28038,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="343" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A343" s="6" t="s">
         <v>254</v>
       </c>
@@ -28053,7 +28053,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="344" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="344" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A344" s="6" t="s">
         <v>254</v>
       </c>
@@ -28068,7 +28068,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="345" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="345" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A345" s="6" t="s">
         <v>254</v>
       </c>
@@ -28081,7 +28081,7 @@
       </c>
       <c r="D345" s="28"/>
     </row>
-    <row r="346" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="346" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A346" s="6" t="s">
         <v>254</v>
       </c>
@@ -28096,7 +28096,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="347" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="347" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A347" s="6" t="s">
         <v>254</v>
       </c>
@@ -28111,7 +28111,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="348" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="348" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A348" s="6" t="s">
         <v>254</v>
       </c>
@@ -28126,7 +28126,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="349" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="349" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A349" s="6" t="s">
         <v>254</v>
       </c>
@@ -28141,7 +28141,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="350" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="350" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A350" s="6" t="s">
         <v>254</v>
       </c>
@@ -28156,7 +28156,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="351" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="351" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A351" s="6" t="s">
         <v>254</v>
       </c>
@@ -28169,7 +28169,7 @@
       </c>
       <c r="D351" s="28"/>
     </row>
-    <row r="352" spans="1:32" s="21" customFormat="1" ht="15">
+    <row r="352" spans="1:32" s="21" customFormat="1" ht="14.5">
       <c r="A352" s="6" t="s">
         <v>254</v>
       </c>
@@ -28184,7 +28184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="353" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A353" s="6" t="s">
         <v>254</v>
       </c>
@@ -28199,7 +28199,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="354" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="354" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A354" s="6" t="s">
         <v>254</v>
       </c>
@@ -28214,7 +28214,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="355" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="355" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A355" s="6" t="s">
         <v>254</v>
       </c>
@@ -28232,7 +28232,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="356" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="356" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A356" s="6" t="s">
         <v>254</v>
       </c>
@@ -28250,7 +28250,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="357" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="357" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A357" s="6" t="s">
         <v>254</v>
       </c>
@@ -28268,7 +28268,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="358" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="358" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A358" s="6" t="s">
         <v>254</v>
       </c>
@@ -28286,7 +28286,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="359" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="359" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A359" s="6" t="s">
         <v>254</v>
       </c>
@@ -28304,7 +28304,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="360" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="360" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A360" s="6" t="s">
         <v>254</v>
       </c>
@@ -28322,7 +28322,7 @@
         <v>6.68</v>
       </c>
     </row>
-    <row r="361" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="361" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A361" s="6" t="s">
         <v>254</v>
       </c>
@@ -28338,7 +28338,7 @@
         <v>6.87</v>
       </c>
     </row>
-    <row r="362" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="362" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A362" s="6" t="s">
         <v>254</v>
       </c>
@@ -28356,7 +28356,7 @@
         <v>7.24</v>
       </c>
     </row>
-    <row r="363" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="363" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A363" s="6" t="s">
         <v>254</v>
       </c>
@@ -28374,7 +28374,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="364" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="364" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A364" s="6" t="s">
         <v>254</v>
       </c>
@@ -28392,7 +28392,7 @@
         <v>8.4600000000000009</v>
       </c>
     </row>
-    <row r="365" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="365" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A365" s="6" t="s">
         <v>254</v>
       </c>
@@ -28410,7 +28410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="366" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="366" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A366" s="6" t="s">
         <v>254</v>
       </c>
@@ -28428,7 +28428,7 @@
         <v>9.32</v>
       </c>
     </row>
-    <row r="367" spans="1:29" s="21" customFormat="1" ht="15.75">
+    <row r="367" spans="1:29" s="21" customFormat="1" ht="15.5">
       <c r="A367" s="19" t="s">
         <v>254</v>
       </c>
@@ -28449,7 +28449,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="368" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="368" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A368" s="19" t="s">
         <v>255</v>
       </c>
@@ -28466,7 +28466,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="369" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="369" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A369" s="19" t="s">
         <v>255</v>
       </c>
@@ -28483,7 +28483,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="370" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="370" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A370" s="19" t="s">
         <v>255</v>
       </c>
@@ -28500,7 +28500,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="371" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="371" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A371" s="19" t="s">
         <v>255</v>
       </c>
@@ -28517,7 +28517,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="372" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="372" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A372" s="19" t="s">
         <v>255</v>
       </c>
@@ -28534,7 +28534,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="373" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="373" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A373" s="19" t="s">
         <v>255</v>
       </c>
@@ -28549,7 +28549,7 @@
       <c r="O373" s="31"/>
       <c r="P373" s="31"/>
     </row>
-    <row r="374" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="374" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A374" s="19" t="s">
         <v>255</v>
       </c>
@@ -28566,7 +28566,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="375" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="375" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A375" s="19" t="s">
         <v>255</v>
       </c>
@@ -28583,7 +28583,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="376" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="376" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A376" s="19" t="s">
         <v>255</v>
       </c>
@@ -28600,7 +28600,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="377" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="377" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A377" s="19" t="s">
         <v>255</v>
       </c>
@@ -28617,7 +28617,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="378" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="378" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A378" s="19" t="s">
         <v>255</v>
       </c>
@@ -28634,7 +28634,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="379" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="379" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A379" s="19" t="s">
         <v>255</v>
       </c>
@@ -28649,7 +28649,7 @@
       <c r="O379" s="31"/>
       <c r="P379" s="31"/>
     </row>
-    <row r="380" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="380" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A380" s="19" t="s">
         <v>255</v>
       </c>
@@ -28666,7 +28666,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="381" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="381" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A381" s="19" t="s">
         <v>255</v>
       </c>
@@ -28683,7 +28683,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="382" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="382" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A382" s="19" t="s">
         <v>255</v>
       </c>
@@ -28700,7 +28700,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="383" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="383" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A383" s="19" t="s">
         <v>255</v>
       </c>
@@ -28720,7 +28720,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="384" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="384" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A384" s="19" t="s">
         <v>255</v>
       </c>
@@ -28740,7 +28740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="385" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A385" s="19" t="s">
         <v>255</v>
       </c>
@@ -28760,7 +28760,7 @@
         <v>4.7300000000000004</v>
       </c>
     </row>
-    <row r="386" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="386" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A386" s="19" t="s">
         <v>255</v>
       </c>
@@ -28780,7 +28780,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="387" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="387" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A387" s="19" t="s">
         <v>255</v>
       </c>
@@ -28800,7 +28800,7 @@
         <v>6.89</v>
       </c>
     </row>
-    <row r="388" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="388" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A388" s="19" t="s">
         <v>255</v>
       </c>
@@ -28820,7 +28820,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="389" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="389" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A389" s="19" t="s">
         <v>255</v>
       </c>
@@ -28838,7 +28838,7 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="390" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="390" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A390" s="19" t="s">
         <v>255</v>
       </c>
@@ -28858,7 +28858,7 @@
         <v>8.91</v>
       </c>
     </row>
-    <row r="391" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="391" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A391" s="19" t="s">
         <v>255</v>
       </c>
@@ -28878,7 +28878,7 @@
         <v>9.5399999999999991</v>
       </c>
     </row>
-    <row r="392" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="392" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A392" s="19" t="s">
         <v>255</v>
       </c>
@@ -28898,7 +28898,7 @@
         <v>10.36</v>
       </c>
     </row>
-    <row r="393" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="393" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A393" s="19" t="s">
         <v>255</v>
       </c>
@@ -28918,7 +28918,7 @@
         <v>11.21</v>
       </c>
     </row>
-    <row r="394" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="394" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A394" s="19" t="s">
         <v>255</v>
       </c>
@@ -28938,7 +28938,7 @@
         <v>11.84</v>
       </c>
     </row>
-    <row r="395" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="395" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A395" s="19" t="s">
         <v>255</v>
       </c>
@@ -28958,7 +28958,7 @@
         <v>12.37</v>
       </c>
     </row>
-    <row r="396" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="396" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A396" s="19" t="s">
         <v>185</v>
       </c>
@@ -28983,7 +28983,7 @@
         <v>3.9552424288773298</v>
       </c>
     </row>
-    <row r="397" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="397" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A397" s="19" t="s">
         <v>185</v>
       </c>
@@ -29008,7 +29008,7 @@
         <v>4.5111272560415996</v>
       </c>
     </row>
-    <row r="398" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="398" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A398" s="19" t="s">
         <v>185</v>
       </c>
@@ -29033,7 +29033,7 @@
         <v>5.6261471397980998</v>
       </c>
     </row>
-    <row r="399" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="399" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A399" s="19" t="s">
         <v>185</v>
       </c>
@@ -29058,7 +29058,7 @@
         <v>6.8932586417864696</v>
       </c>
     </row>
-    <row r="400" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="400" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A400" s="19" t="s">
         <v>185</v>
       </c>
@@ -29083,7 +29083,7 @@
         <v>7.6539079229122002</v>
       </c>
     </row>
-    <row r="401" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="401" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A401" s="19" t="s">
         <v>185</v>
       </c>
@@ -29108,7 +29108,7 @@
         <v>8.0592306515753993</v>
       </c>
     </row>
-    <row r="402" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="402" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A402" s="19" t="s">
         <v>185</v>
       </c>
@@ -29133,7 +29133,7 @@
         <v>7.4999999999999902</v>
       </c>
     </row>
-    <row r="403" spans="1:29" s="21" customFormat="1" ht="15.75">
+    <row r="403" spans="1:29" s="21" customFormat="1" ht="15.5">
       <c r="A403" s="19" t="s">
         <v>185</v>
       </c>
@@ -29162,7 +29162,7 @@
         <v>6.9417252982563404</v>
       </c>
     </row>
-    <row r="404" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="404" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A404" s="19" t="s">
         <v>185</v>
       </c>
@@ -29184,7 +29184,7 @@
         <v>8.6666411746711507</v>
       </c>
     </row>
-    <row r="405" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="405" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A405" s="19" t="s">
         <v>185</v>
       </c>
@@ -29209,7 +29209,7 @@
         <v>8.9703464362190193</v>
       </c>
     </row>
-    <row r="406" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="406" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A406" s="19" t="s">
         <v>185</v>
       </c>
@@ -29234,7 +29234,7 @@
         <v>9.8306056898133907</v>
       </c>
     </row>
-    <row r="407" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="407" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A407" s="19" t="s">
         <v>185</v>
       </c>
@@ -29259,7 +29259,7 @@
         <v>10.5904902110737</v>
       </c>
     </row>
-    <row r="408" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="408" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A408" s="19" t="s">
         <v>185</v>
       </c>
@@ -29284,7 +29284,7 @@
         <v>10.9956217497705</v>
       </c>
     </row>
-    <row r="409" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="409" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A409" s="19" t="s">
         <v>185</v>
       </c>
@@ -29309,7 +29309,7 @@
         <v>11.4011356684001</v>
       </c>
     </row>
-    <row r="410" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="410" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A410" s="19" t="s">
         <v>185</v>
       </c>
@@ -29334,7 +29334,7 @@
         <v>11.7553150810645</v>
       </c>
     </row>
-    <row r="411" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="411" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A411" s="19" t="s">
         <v>185</v>
       </c>
@@ -29359,7 +29359,7 @@
         <v>11.856072193331199</v>
       </c>
     </row>
-    <row r="412" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="412" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A412" s="19" t="s">
         <v>185</v>
       </c>
@@ -29387,7 +29387,7 @@
         <v>11.956733710614801</v>
       </c>
     </row>
-    <row r="413" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="413" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A413" s="19" t="s">
         <v>185</v>
       </c>
@@ -29412,7 +29412,7 @@
         <v>12.4642474762924</v>
       </c>
     </row>
-    <row r="414" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="414" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A414" s="19" t="s">
         <v>185</v>
       </c>
@@ -29437,7 +29437,7 @@
         <v>12.6656661058427</v>
       </c>
     </row>
-    <row r="415" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="415" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A415" s="19" t="s">
         <v>185</v>
       </c>
@@ -29462,7 +29462,7 @@
         <v>12.6648057509941</v>
       </c>
     </row>
-    <row r="416" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="416" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A416" s="19" t="s">
         <v>185</v>
       </c>
@@ -29487,7 +29487,7 @@
         <v>13.070128479657299</v>
       </c>
     </row>
-    <row r="417" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="417" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A417" s="19" t="s">
         <v>185</v>
       </c>
@@ -29512,7 +29512,7 @@
         <v>13.1199334658917</v>
       </c>
     </row>
-    <row r="418" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="418" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A418" s="19" t="s">
         <v>185</v>
       </c>
@@ -29537,7 +29537,7 @@
         <v>13.3729733863566</v>
       </c>
     </row>
-    <row r="419" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="419" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A419" s="19" t="s">
         <v>185</v>
       </c>
@@ -29562,7 +29562,7 @@
         <v>13.473826093606601</v>
       </c>
     </row>
-    <row r="420" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="420" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A420" s="19" t="s">
         <v>185</v>
       </c>
@@ -29587,7 +29587,7 @@
         <v>13.726674824105199</v>
       </c>
     </row>
-    <row r="421" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="421" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A421" s="19" t="s">
         <v>185</v>
       </c>
@@ -29612,7 +29612,7 @@
         <v>13.776575405322699</v>
       </c>
     </row>
-    <row r="422" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="422" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A422" s="19" t="s">
         <v>185</v>
       </c>
@@ -29637,7 +29637,7 @@
         <v>13.775715050474099</v>
       </c>
     </row>
-    <row r="423" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="423" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A423" s="19" t="s">
         <v>185</v>
       </c>
@@ -29662,7 +29662,7 @@
         <v>13.774759100642299</v>
       </c>
     </row>
-    <row r="424" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="424" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A424" s="19" t="s">
         <v>185</v>
       </c>
@@ -29687,7 +29687,7 @@
         <v>13.9263727439583</v>
       </c>
     </row>
-    <row r="425" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="425" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A425" s="19" t="s">
         <v>185</v>
       </c>
@@ -29715,7 +29715,7 @@
         <v>13.925607984092901</v>
       </c>
     </row>
-    <row r="426" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="426" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A426" s="19" t="s">
         <v>185</v>
       </c>
@@ -29737,7 +29737,7 @@
         <v>14.0769348424594</v>
       </c>
     </row>
-    <row r="427" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="427" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A427" s="19" t="s">
         <v>185</v>
       </c>
@@ -29759,7 +29759,7 @@
         <v>14.278927041908799</v>
       </c>
     </row>
-    <row r="428" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="428" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A428" s="19" t="s">
         <v>185</v>
       </c>
@@ -29784,7 +29784,7 @@
         <v>14.329018813092601</v>
       </c>
     </row>
-    <row r="429" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="429" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A429" s="19" t="s">
         <v>185</v>
       </c>
@@ -29809,7 +29809,7 @@
         <v>14.531106607525199</v>
       </c>
     </row>
-    <row r="430" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="430" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A430" s="19" t="s">
         <v>185</v>
       </c>
@@ -29834,7 +29834,7 @@
         <v>14.5303418476598</v>
       </c>
     </row>
-    <row r="431" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="431" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A431" s="19" t="s">
         <v>185</v>
       </c>
@@ -29858,7 +29858,7 @@
         <v>14.529577087794401</v>
       </c>
     </row>
-    <row r="432" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="432" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A432" s="19" t="s">
         <v>185</v>
       </c>
@@ -29882,7 +29882,7 @@
         <v>14.6303342000611</v>
       </c>
     </row>
-    <row r="433" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="433" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A433" s="19" t="s">
         <v>185</v>
       </c>
@@ -29906,7 +29906,7 @@
         <v>14.679852401345901</v>
       </c>
     </row>
-    <row r="434" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="434" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A434" s="19" t="s">
         <v>185</v>
       </c>
@@ -29930,7 +29930,7 @@
         <v>14.679278831446901</v>
       </c>
     </row>
-    <row r="435" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="435" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A435" s="19" t="s">
         <v>185</v>
       </c>
@@ -29954,7 +29954,7 @@
         <v>14.729179412664401</v>
       </c>
     </row>
-    <row r="436" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="436" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A436" s="19" t="s">
         <v>185</v>
       </c>
@@ -29978,7 +29978,7 @@
         <v>14.8807930559804</v>
       </c>
     </row>
-    <row r="437" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="437" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A437" s="19" t="s">
         <v>185</v>
       </c>
@@ -30005,7 +30005,7 @@
         <v>15.0310683695319</v>
       </c>
     </row>
-    <row r="438" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="438" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A438" s="19" t="s">
         <v>186</v>
       </c>
@@ -30029,7 +30029,7 @@
         <v>6.0846206791067496</v>
       </c>
     </row>
-    <row r="439" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="439" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A439" s="19" t="s">
         <v>186</v>
       </c>
@@ -30053,7 +30053,7 @@
         <v>7.45344524319363</v>
       </c>
     </row>
-    <row r="440" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="440" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A440" s="19" t="s">
         <v>186</v>
       </c>
@@ -30077,7 +30077,7 @@
         <v>8.1117122973386309</v>
       </c>
     </row>
-    <row r="441" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="441" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A441" s="19" t="s">
         <v>186</v>
       </c>
@@ -30101,7 +30101,7 @@
         <v>8.4153219639033292</v>
       </c>
     </row>
-    <row r="442" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="442" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A442" s="19" t="s">
         <v>186</v>
       </c>
@@ -30122,7 +30122,7 @@
         <v>8.6176009483022291</v>
       </c>
     </row>
-    <row r="443" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="443" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A443" s="19" t="s">
         <v>186</v>
       </c>
@@ -30149,7 +30149,7 @@
         <v>7.9568484245946696</v>
       </c>
     </row>
-    <row r="444" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="444" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A444" s="19" t="s">
         <v>186</v>
       </c>
@@ -30173,7 +30173,7 @@
         <v>9.1750152951972996</v>
       </c>
     </row>
-    <row r="445" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="445" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A445" s="19" t="s">
         <v>186</v>
       </c>
@@ -30197,7 +30197,7 @@
         <v>9.4788161517283491</v>
       </c>
     </row>
-    <row r="446" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="446" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A446" s="19" t="s">
         <v>186</v>
       </c>
@@ -30221,7 +30221,7 @@
         <v>10.0869914346895</v>
       </c>
     </row>
-    <row r="447" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="447" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A447" s="19" t="s">
         <v>186</v>
       </c>
@@ -30245,7 +30245,7 @@
         <v>10.795063475068799</v>
       </c>
     </row>
-    <row r="448" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="448" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A448" s="19" t="s">
         <v>186</v>
       </c>
@@ -30269,7 +30269,7 @@
         <v>11.148860507800499</v>
       </c>
     </row>
-    <row r="449" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="449" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A449" s="19" t="s">
         <v>186</v>
       </c>
@@ -30293,7 +30293,7 @@
         <v>11.5033267054145</v>
       </c>
     </row>
-    <row r="450" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="450" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A450" s="19" t="s">
         <v>186</v>
       </c>
@@ -30317,7 +30317,7 @@
         <v>11.807127561945499</v>
       </c>
     </row>
-    <row r="451" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="451" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A451" s="19" t="s">
         <v>186</v>
       </c>
@@ -30341,7 +30341,7 @@
         <v>11.907502294279499</v>
       </c>
     </row>
-    <row r="452" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="452" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A452" s="19" t="s">
         <v>186</v>
       </c>
@@ -30365,7 +30365,7 @@
         <v>11.906833129397301</v>
       </c>
     </row>
-    <row r="453" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="453" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A453" s="19" t="s">
         <v>186</v>
       </c>
@@ -30392,7 +30392,7 @@
         <v>11.905685989599201</v>
       </c>
     </row>
-    <row r="454" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="454" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A454" s="19" t="s">
         <v>186</v>
       </c>
@@ -30416,7 +30416,7 @@
         <v>12.2605345671459</v>
       </c>
     </row>
-    <row r="455" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="455" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A455" s="19" t="s">
         <v>186</v>
       </c>
@@ -30440,7 +30440,7 @@
         <v>12.158056745182</v>
       </c>
     </row>
-    <row r="456" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="456" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A456" s="19" t="s">
         <v>186</v>
       </c>
@@ -30467,7 +30467,7 @@
         <v>13.367237687366099</v>
       </c>
     </row>
-    <row r="457" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="457" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A457" s="19" t="s">
         <v>186</v>
       </c>
@@ -30491,7 +30491,7 @@
         <v>13.7721780360966</v>
       </c>
     </row>
-    <row r="458" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="458" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A458" s="19" t="s">
         <v>186</v>
       </c>
@@ -30515,7 +30515,7 @@
         <v>13.8729351483634</v>
       </c>
     </row>
-    <row r="459" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="459" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A459" s="19" t="s">
         <v>186</v>
       </c>
@@ -30539,7 +30539,7 @@
         <v>14.0244531966962</v>
       </c>
     </row>
-    <row r="460" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="460" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A460" s="19" t="s">
         <v>186</v>
       </c>
@@ -30563,7 +30563,7 @@
         <v>14.124923524013401</v>
       </c>
     </row>
-    <row r="461" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="461" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A461" s="19" t="s">
         <v>186</v>
       </c>
@@ -30587,7 +30587,7 @@
         <v>14.0734934230651</v>
       </c>
     </row>
-    <row r="462" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="462" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A462" s="19" t="s">
         <v>186</v>
       </c>
@@ -30611,7 +30611,7 @@
         <v>14.072633068216501</v>
       </c>
     </row>
-    <row r="463" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="463" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A463" s="19" t="s">
         <v>186</v>
       </c>
@@ -30635,7 +30635,7 @@
         <v>14.2748164576323</v>
       </c>
     </row>
-    <row r="464" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="464" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A464" s="19" t="s">
         <v>186</v>
       </c>
@@ -30659,7 +30659,7 @@
         <v>14.3247170388497</v>
       </c>
     </row>
-    <row r="465" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="465" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A465" s="19" t="s">
         <v>186</v>
       </c>
@@ -30683,7 +30683,7 @@
         <v>14.4254741511165</v>
       </c>
     </row>
-    <row r="466" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="466" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A466" s="19" t="s">
         <v>186</v>
       </c>
@@ -30707,7 +30707,7 @@
         <v>14.4752791373508</v>
       </c>
     </row>
-    <row r="467" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="467" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A467" s="19" t="s">
         <v>186</v>
       </c>
@@ -30731,7 +30731,7 @@
         <v>14.474609972468601</v>
       </c>
     </row>
-    <row r="468" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="468" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A468" s="19" t="s">
         <v>186</v>
       </c>
@@ -30758,7 +30758,7 @@
         <v>14.421666284286699</v>
       </c>
     </row>
-    <row r="469" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="469" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A469" s="19" t="s">
         <v>186</v>
       </c>
@@ -30782,7 +30782,7 @@
         <v>14.717692082186099</v>
       </c>
     </row>
-    <row r="470" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="470" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A470" s="19" t="s">
         <v>186</v>
       </c>
@@ -30803,7 +30803,7 @@
         <v>14.929195982461501</v>
       </c>
     </row>
-    <row r="471" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="471" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A471" s="19" t="s">
         <v>185</v>
       </c>
@@ -30824,7 +30824,7 @@
         <v>0.58524173027989701</v>
       </c>
     </row>
-    <row r="472" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="472" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A472" s="19" t="s">
         <v>185</v>
       </c>
@@ -30845,7 +30845,7 @@
         <v>1.1959287531806599</v>
       </c>
     </row>
-    <row r="473" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="473" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A473" s="19" t="s">
         <v>185</v>
       </c>
@@ -30866,7 +30866,7 @@
         <v>1.5267175572519001</v>
       </c>
     </row>
-    <row r="474" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="474" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A474" s="19" t="s">
         <v>185</v>
       </c>
@@ -30887,7 +30887,7 @@
         <v>2.35368956743002</v>
       </c>
     </row>
-    <row r="475" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="475" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A475" s="19" t="s">
         <v>185</v>
       </c>
@@ -30908,7 +30908,7 @@
         <v>2.8753180661577602</v>
       </c>
     </row>
-    <row r="476" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="476" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A476" s="19" t="s">
         <v>185</v>
       </c>
@@ -30929,7 +30929,7 @@
         <v>3.3333333333333299</v>
       </c>
     </row>
-    <row r="477" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="477" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A477" s="19" t="s">
         <v>185</v>
       </c>
@@ -30953,7 +30953,7 @@
         <v>0.16285225937281522</v>
       </c>
     </row>
-    <row r="478" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="478" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A478" s="19" t="s">
         <v>185</v>
       </c>
@@ -30974,7 +30974,7 @@
         <v>3.1806615776081402</v>
       </c>
     </row>
-    <row r="479" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="479" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A479" s="19" t="s">
         <v>185</v>
       </c>
@@ -30995,7 +30995,7 @@
         <v>3.4987277353689499</v>
       </c>
     </row>
-    <row r="480" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="480" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A480" s="19" t="s">
         <v>185</v>
       </c>
@@ -31016,7 +31016,7 @@
         <v>3.46055979643765</v>
       </c>
     </row>
-    <row r="481" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="481" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A481" s="19" t="s">
         <v>185</v>
       </c>
@@ -31037,7 +31037,7 @@
         <v>3.1933842239185699</v>
       </c>
     </row>
-    <row r="482" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="482" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A482" s="19" t="s">
         <v>185</v>
       </c>
@@ -31058,7 +31058,7 @@
         <v>3.21882951653944</v>
       </c>
     </row>
-    <row r="483" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="483" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A483" s="19" t="s">
         <v>185</v>
       </c>
@@ -31079,7 +31079,7 @@
         <v>3.0534351145038099</v>
       </c>
     </row>
-    <row r="484" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="484" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A484" s="19" t="s">
         <v>185</v>
       </c>
@@ -31100,7 +31100,7 @@
         <v>3.9949109414758199</v>
       </c>
     </row>
-    <row r="485" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="485" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A485" s="19" t="s">
         <v>185</v>
       </c>
@@ -31121,7 +31121,7 @@
         <v>3.7022900763358702</v>
       </c>
     </row>
-    <row r="486" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="486" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A486" s="19" t="s">
         <v>185</v>
       </c>
@@ -31142,7 +31142,7 @@
         <v>3.8422391857506302</v>
       </c>
     </row>
-    <row r="487" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="487" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A487" s="19" t="s">
         <v>185</v>
       </c>
@@ -31163,7 +31163,7 @@
         <v>3.68956743002544</v>
       </c>
     </row>
-    <row r="488" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="488" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A488" s="19" t="s">
         <v>185</v>
       </c>
@@ -31184,7 +31184,7 @@
       </c>
       <c r="G488" s="29"/>
     </row>
-    <row r="489" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="489" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A489" s="19" t="s">
         <v>185</v>
       </c>
@@ -31208,7 +31208,7 @@
         <v>0.14620414942598853</v>
       </c>
     </row>
-    <row r="490" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="490" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A490" s="19" t="s">
         <v>185</v>
       </c>
@@ -31229,7 +31229,7 @@
       </c>
       <c r="G490" s="29"/>
     </row>
-    <row r="491" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="491" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A491" s="19" t="s">
         <v>185</v>
       </c>
@@ -31250,7 +31250,7 @@
         <v>3.2442748091603</v>
       </c>
     </row>
-    <row r="492" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="492" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A492" s="19" t="s">
         <v>185</v>
       </c>
@@ -31271,7 +31271,7 @@
         <v>2.4681933842239099</v>
       </c>
     </row>
-    <row r="493" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="493" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A493" s="19" t="s">
         <v>185</v>
       </c>
@@ -31292,7 +31292,7 @@
         <v>3.15521628498727</v>
       </c>
     </row>
-    <row r="494" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="494" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A494" s="19" t="s">
         <v>185</v>
       </c>
@@ -31313,7 +31313,7 @@
         <v>2.79898218829516</v>
       </c>
     </row>
-    <row r="495" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="495" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A495" s="19" t="s">
         <v>185</v>
       </c>
@@ -31334,7 +31334,7 @@
         <v>3.1170483460559701</v>
       </c>
     </row>
-    <row r="496" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="496" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A496" s="19" t="s">
         <v>185</v>
       </c>
@@ -31355,7 +31355,7 @@
         <v>3.46055979643765</v>
       </c>
     </row>
-    <row r="497" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="497" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A497" s="19" t="s">
         <v>185</v>
       </c>
@@ -31376,7 +31376,7 @@
         <v>2.9770992366412199</v>
       </c>
     </row>
-    <row r="498" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="498" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A498" s="19" t="s">
         <v>185</v>
       </c>
@@ -31397,7 +31397,7 @@
         <v>2.8880407124681899</v>
       </c>
     </row>
-    <row r="499" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="499" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A499" s="19" t="s">
         <v>185</v>
       </c>
@@ -31418,7 +31418,7 @@
         <v>2.5445292620865101</v>
       </c>
     </row>
-    <row r="500" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="500" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A500" s="19" t="s">
         <v>185</v>
       </c>
@@ -31439,7 +31439,7 @@
         <v>2.2773536895674198</v>
       </c>
     </row>
-    <row r="501" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="501" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A501" s="19" t="s">
         <v>185</v>
       </c>
@@ -31463,7 +31463,7 @@
         <v>0.13167754321612643</v>
       </c>
     </row>
-    <row r="502" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="502" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A502" s="19" t="s">
         <v>185</v>
       </c>
@@ -31484,7 +31484,7 @@
       </c>
       <c r="G502" s="29"/>
     </row>
-    <row r="503" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="503" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A503" s="19" t="s">
         <v>185</v>
       </c>
@@ -31505,7 +31505,7 @@
       </c>
       <c r="G503" s="29"/>
     </row>
-    <row r="504" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="504" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A504" s="19" t="s">
         <v>185</v>
       </c>
@@ -31526,7 +31526,7 @@
         <v>1.8702290076335799</v>
       </c>
     </row>
-    <row r="505" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="505" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A505" s="19" t="s">
         <v>185</v>
       </c>
@@ -31547,7 +31547,7 @@
         <v>2.2646310432569901</v>
       </c>
     </row>
-    <row r="506" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="506" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A506" s="19" t="s">
         <v>185</v>
       </c>
@@ -31568,7 +31568,7 @@
         <v>2.3027989821882899</v>
       </c>
     </row>
-    <row r="507" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="507" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A507" s="19" t="s">
         <v>185</v>
       </c>
@@ -31589,7 +31589,7 @@
         <v>2.4300254452926202</v>
       </c>
     </row>
-    <row r="508" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="508" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A508" s="19" t="s">
         <v>185</v>
       </c>
@@ -31610,7 +31610,7 @@
         <v>1.97201017811704</v>
       </c>
     </row>
-    <row r="509" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="509" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A509" s="19" t="s">
         <v>185</v>
       </c>
@@ -31634,7 +31634,7 @@
         <v>0.10352259943637081</v>
       </c>
     </row>
-    <row r="510" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="510" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A510" s="19" t="s">
         <v>185</v>
       </c>
@@ -31655,7 +31655,7 @@
       </c>
       <c r="G510" s="29"/>
     </row>
-    <row r="511" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="511" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A511" s="19" t="s">
         <v>185</v>
       </c>
@@ -31676,7 +31676,7 @@
       </c>
       <c r="G511" s="29"/>
     </row>
-    <row r="512" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="512" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A512" s="19" t="s">
         <v>186</v>
       </c>
@@ -31697,7 +31697,7 @@
         <v>0.48223350253807001</v>
       </c>
     </row>
-    <row r="513" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="513" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A513" s="19" t="s">
         <v>186</v>
       </c>
@@ -31718,7 +31718,7 @@
         <v>0.87563451776649703</v>
       </c>
     </row>
-    <row r="514" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="514" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A514" s="19" t="s">
         <v>186</v>
       </c>
@@ -31739,7 +31739,7 @@
         <v>1.0279187817258799</v>
       </c>
     </row>
-    <row r="515" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="515" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A515" s="19" t="s">
         <v>186</v>
       </c>
@@ -31760,7 +31760,7 @@
         <v>1.3071065989847701</v>
       </c>
     </row>
-    <row r="516" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="516" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A516" s="19" t="s">
         <v>186</v>
       </c>
@@ -31781,7 +31781,7 @@
         <v>2.14467005076142</v>
       </c>
     </row>
-    <row r="517" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="517" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A517" s="19" t="s">
         <v>186</v>
       </c>
@@ -31802,7 +31802,7 @@
         <v>2.41116751269035</v>
       </c>
     </row>
-    <row r="518" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="518" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A518" s="19" t="s">
         <v>186</v>
       </c>
@@ -31826,7 +31826,7 @@
         <v>0.22663536676595794</v>
       </c>
     </row>
-    <row r="519" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="519" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A519" s="19" t="s">
         <v>186</v>
       </c>
@@ -31847,7 +31847,7 @@
       </c>
       <c r="G519" s="29"/>
     </row>
-    <row r="520" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="520" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A520" s="19" t="s">
         <v>186</v>
       </c>
@@ -31868,7 +31868,7 @@
       </c>
       <c r="G520" s="29"/>
     </row>
-    <row r="521" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="521" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A521" s="19" t="s">
         <v>186</v>
       </c>
@@ -31889,7 +31889,7 @@
         <v>2.1954314720812098</v>
       </c>
     </row>
-    <row r="522" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="522" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A522" s="19" t="s">
         <v>186</v>
       </c>
@@ -31910,7 +31910,7 @@
         <v>2.5253807106598898</v>
       </c>
     </row>
-    <row r="523" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="523" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A523" s="19" t="s">
         <v>186</v>
       </c>
@@ -31931,7 +31931,7 @@
         <v>2.5634517766497402</v>
       </c>
     </row>
-    <row r="524" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="524" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A524" s="19" t="s">
         <v>186</v>
       </c>
@@ -31952,7 +31952,7 @@
         <v>2.2208121827411098</v>
       </c>
     </row>
-    <row r="525" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="525" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A525" s="19" t="s">
         <v>186</v>
       </c>
@@ -31973,7 +31973,7 @@
         <v>1.7258883248730901</v>
       </c>
     </row>
-    <row r="526" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="526" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A526" s="19" t="s">
         <v>186</v>
       </c>
@@ -31994,7 +31994,7 @@
         <v>2.2461928934010098</v>
       </c>
     </row>
-    <row r="527" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="527" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A527" s="19" t="s">
         <v>186</v>
       </c>
@@ -32015,7 +32015,7 @@
         <v>3.2233502538071002</v>
       </c>
     </row>
-    <row r="528" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="528" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A528" s="19" t="s">
         <v>186</v>
       </c>
@@ -32036,7 +32036,7 @@
         <v>2.75380710659898</v>
       </c>
     </row>
-    <row r="529" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="529" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A529" s="19" t="s">
         <v>186</v>
       </c>
@@ -32057,7 +32057,7 @@
         <v>2.9822335025380702</v>
       </c>
     </row>
-    <row r="530" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="530" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A530" s="19" t="s">
         <v>186</v>
       </c>
@@ -32078,7 +32078,7 @@
         <v>2.9060913705583702</v>
       </c>
     </row>
-    <row r="531" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="531" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A531" s="19" t="s">
         <v>186</v>
       </c>
@@ -32099,7 +32099,7 @@
       </c>
       <c r="G531" s="29"/>
     </row>
-    <row r="532" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="532" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A532" s="19" t="s">
         <v>186</v>
       </c>
@@ -32123,7 +32123,7 @@
         <v>0.27432798145386789</v>
       </c>
     </row>
-    <row r="533" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="533" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A533" s="19" t="s">
         <v>186</v>
       </c>
@@ -32144,7 +32144,7 @@
       </c>
       <c r="G533" s="29"/>
     </row>
-    <row r="534" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="534" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A534" s="19" t="s">
         <v>186</v>
       </c>
@@ -32165,7 +32165,7 @@
         <v>2.6522842639593902</v>
       </c>
     </row>
-    <row r="535" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="535" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A535" s="19" t="s">
         <v>186</v>
       </c>
@@ -32186,7 +32186,7 @@
         <v>2.2969543147208098</v>
       </c>
     </row>
-    <row r="536" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="536" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A536" s="19" t="s">
         <v>186</v>
       </c>
@@ -32207,7 +32207,7 @@
         <v>2.2081218274111598</v>
       </c>
     </row>
-    <row r="537" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="537" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A537" s="19" t="s">
         <v>186</v>
       </c>
@@ -32228,7 +32228,7 @@
         <v>1.6243654822335001</v>
       </c>
     </row>
-    <row r="538" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="538" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A538" s="19" t="s">
         <v>186</v>
       </c>
@@ -32249,7 +32249,7 @@
         <v>2.2335025380710598</v>
       </c>
     </row>
-    <row r="539" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="539" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A539" s="19" t="s">
         <v>186</v>
       </c>
@@ -32270,7 +32270,7 @@
         <v>2.4746192893401</v>
       </c>
     </row>
-    <row r="540" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="540" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A540" s="19" t="s">
         <v>186</v>
       </c>
@@ -32291,7 +32291,7 @@
         <v>2.2081218274111598</v>
       </c>
     </row>
-    <row r="541" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="541" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A541" s="19" t="s">
         <v>186</v>
       </c>
@@ -32312,7 +32312,7 @@
         <v>2.01776649746192</v>
       </c>
     </row>
-    <row r="542" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="542" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A542" s="19" t="s">
         <v>186</v>
       </c>
@@ -32333,7 +32333,7 @@
         <v>1.8147208121827401</v>
       </c>
     </row>
-    <row r="543" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="543" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A543" s="19" t="s">
         <v>186</v>
       </c>
@@ -32354,7 +32354,7 @@
         <v>1.7131979695431401</v>
       </c>
     </row>
-    <row r="544" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="544" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A544" s="19" t="s">
         <v>186</v>
       </c>
@@ -32375,7 +32375,7 @@
       </c>
       <c r="G544" s="29"/>
     </row>
-    <row r="545" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="545" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A545" s="19" t="s">
         <v>186</v>
       </c>
@@ -32396,7 +32396,7 @@
       </c>
       <c r="G545" s="29"/>
     </row>
-    <row r="546" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="546" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A546" s="19" t="s">
         <v>186</v>
       </c>
@@ -32420,7 +32420,7 @@
         <v>0.20354056631801984</v>
       </c>
     </row>
-    <row r="547" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="547" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A547" s="19" t="s">
         <v>186</v>
       </c>
@@ -32441,7 +32441,7 @@
         <v>1.5609137055837501</v>
       </c>
     </row>
-    <row r="548" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="548" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A548" s="19" t="s">
         <v>186</v>
       </c>
@@ -32462,7 +32462,7 @@
         <v>1.7131979695431401</v>
       </c>
     </row>
-    <row r="549" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="549" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A549" s="19" t="s">
         <v>186</v>
       </c>
@@ -32483,7 +32483,7 @@
         <v>1.4847715736040601</v>
       </c>
     </row>
-    <row r="550" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="550" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A550" s="19" t="s">
         <v>186</v>
       </c>
@@ -32504,7 +32504,7 @@
         <v>1.99238578680203</v>
       </c>
     </row>
-    <row r="551" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="551" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A551" s="24" t="s">
         <v>186</v>
       </c>
@@ -32525,7 +32525,7 @@
         <v>1.6116751269035501</v>
       </c>
     </row>
-    <row r="552" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="552" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A552" s="24" t="s">
         <v>186</v>
       </c>
@@ -32549,7 +32549,7 @@
         <v>0.17850707562176141</v>
       </c>
     </row>
-    <row r="553" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="553" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A553" s="24" t="s">
         <v>186</v>
       </c>
@@ -32570,7 +32570,7 @@
       </c>
       <c r="G553" s="29"/>
     </row>
-    <row r="554" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="554" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A554" s="24" t="s">
         <v>186</v>
       </c>
@@ -32591,7 +32591,7 @@
       </c>
       <c r="G554" s="29"/>
     </row>
-    <row r="555" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="555" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A555" s="24" t="s">
         <v>59</v>
       </c>
@@ -32633,7 +32633,7 @@
         <v>7605.007605007605</v>
       </c>
     </row>
-    <row r="556" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="556" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A556" s="24" t="s">
         <v>59</v>
       </c>
@@ -32675,7 +32675,7 @@
         <v>32908.532908532907</v>
       </c>
     </row>
-    <row r="557" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="557" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A557" s="24" t="s">
         <v>59</v>
       </c>
@@ -32717,7 +32717,7 @@
         <v>30357.030357030359</v>
       </c>
     </row>
-    <row r="558" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="558" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A558" s="24" t="s">
         <v>59</v>
       </c>
@@ -32759,7 +32759,7 @@
         <v>89180.189180189176</v>
       </c>
     </row>
-    <row r="559" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="559" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A559" s="24" t="s">
         <v>59</v>
       </c>
@@ -32801,7 +32801,7 @@
         <v>64570.56457056458</v>
       </c>
     </row>
-    <row r="560" spans="1:23" s="21" customFormat="1" ht="15">
+    <row r="560" spans="1:23" s="21" customFormat="1" ht="14.5">
       <c r="A560" s="24" t="s">
         <v>59</v>
       </c>
@@ -32843,7 +32843,7 @@
         <v>159390.15939015939</v>
       </c>
     </row>
-    <row r="561" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="561" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A561" s="24" t="s">
         <v>59</v>
       </c>
@@ -32885,7 +32885,7 @@
         <v>108922.60892260892</v>
       </c>
     </row>
-    <row r="562" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="562" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A562" s="24" t="s">
         <v>59</v>
       </c>
@@ -32927,7 +32927,7 @@
         <v>147537.14753714754</v>
       </c>
     </row>
-    <row r="563" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="563" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A563" s="24" t="s">
         <v>59</v>
       </c>
@@ -32969,7 +32969,7 @@
         <v>187020.18702018706</v>
       </c>
     </row>
-    <row r="564" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="564" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A564" s="24" t="s">
         <v>59</v>
       </c>
@@ -32990,7 +32990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="565" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A565" s="24" t="s">
         <v>59</v>
       </c>
@@ -33032,7 +33032,7 @@
         <v>330309.33030933037</v>
       </c>
     </row>
-    <row r="566" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="566" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A566" s="24" t="s">
         <v>59</v>
       </c>
@@ -33074,7 +33074,7 @@
         <v>389223.38922338921</v>
       </c>
     </row>
-    <row r="567" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="567" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A567" s="24" t="s">
         <v>187</v>
       </c>
@@ -33119,7 +33119,7 @@
         <v>161.90000000000003</v>
       </c>
     </row>
-    <row r="568" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="568" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A568" s="24" t="s">
         <v>187</v>
       </c>
@@ -33164,7 +33164,7 @@
         <v>154.5</v>
       </c>
     </row>
-    <row r="569" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="569" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A569" s="24" t="s">
         <v>187</v>
       </c>
@@ -33206,7 +33206,7 @@
         <v>138.49999999999997</v>
       </c>
     </row>
-    <row r="570" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="570" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A570" s="24" t="s">
         <v>187</v>
       </c>
@@ -33248,7 +33248,7 @@
         <v>151.69999999999999</v>
       </c>
     </row>
-    <row r="571" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="571" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A571" s="24" t="s">
         <v>187</v>
       </c>
@@ -33269,7 +33269,7 @@
         <v>273.88888888888886</v>
       </c>
     </row>
-    <row r="572" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="572" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A572" s="24" t="s">
         <v>187</v>
       </c>
@@ -33290,7 +33290,7 @@
         <v>274.44444444444451</v>
       </c>
     </row>
-    <row r="573" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="573" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A573" s="24" t="s">
         <v>187</v>
       </c>
@@ -33332,7 +33332,7 @@
         <v>80.999999999999972</v>
       </c>
     </row>
-    <row r="574" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="574" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A574" s="24" t="s">
         <v>187</v>
       </c>
@@ -33374,7 +33374,7 @@
         <v>64.600000000000009</v>
       </c>
     </row>
-    <row r="575" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="575" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A575" s="24" t="s">
         <v>187</v>
       </c>
@@ -33416,7 +33416,7 @@
         <v>78.40000000000002</v>
       </c>
     </row>
-    <row r="576" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="576" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A576" s="24" t="s">
         <v>187</v>
       </c>
@@ -33458,7 +33458,7 @@
         <v>89.90000000000002</v>
       </c>
     </row>
-    <row r="577" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="577" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A577" s="24" t="s">
         <v>187</v>
       </c>
@@ -33479,7 +33479,7 @@
         <v>791.88888888888891</v>
       </c>
     </row>
-    <row r="578" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="578" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A578" s="24" t="s">
         <v>187</v>
       </c>
@@ -33500,7 +33500,7 @@
         <v>619.22222222222229</v>
       </c>
     </row>
-    <row r="579" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="579" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A579" s="24" t="s">
         <v>187</v>
       </c>
@@ -33542,7 +33542,7 @@
         <v>80.7</v>
       </c>
     </row>
-    <row r="580" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="580" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A580" s="24" t="s">
         <v>187</v>
       </c>
@@ -33584,7 +33584,7 @@
         <v>82.4</v>
       </c>
     </row>
-    <row r="581" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="581" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A581" s="24" t="s">
         <v>187</v>
       </c>
@@ -33626,7 +33626,7 @@
         <v>79.600000000000023</v>
       </c>
     </row>
-    <row r="582" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="582" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A582" s="24" t="s">
         <v>187</v>
       </c>
@@ -33668,7 +33668,7 @@
         <v>87.4</v>
       </c>
     </row>
-    <row r="583" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="583" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A583" s="24" t="s">
         <v>187</v>
       </c>
@@ -33710,7 +33710,7 @@
         <v>75.800000000000011</v>
       </c>
     </row>
-    <row r="584" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="584" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A584" s="24" t="s">
         <v>187</v>
       </c>
@@ -33755,7 +33755,7 @@
         <v>70.5</v>
       </c>
     </row>
-    <row r="585" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="585" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A585" s="24" t="s">
         <v>187</v>
       </c>
@@ -33800,7 +33800,7 @@
         <v>72.099999999999994</v>
       </c>
     </row>
-    <row r="586" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="586" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A586" s="24" t="s">
         <v>187</v>
       </c>
@@ -33842,7 +33842,7 @@
         <v>74.400000000000006</v>
       </c>
     </row>
-    <row r="587" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="587" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A587" s="24" t="s">
         <v>187</v>
       </c>
@@ -33884,7 +33884,7 @@
         <v>63.300000000000004</v>
       </c>
     </row>
-    <row r="588" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="588" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A588" s="24" t="s">
         <v>187</v>
       </c>
@@ -33926,7 +33926,7 @@
         <v>69.3</v>
       </c>
     </row>
-    <row r="589" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="589" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A589" s="24" t="s">
         <v>187</v>
       </c>
@@ -33968,7 +33968,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="590" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="590" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A590" s="24" t="s">
         <v>187</v>
       </c>
@@ -34010,7 +34010,7 @@
         <v>70.099999999999994</v>
       </c>
     </row>
-    <row r="591" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="591" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A591" s="19" t="s">
         <v>187</v>
       </c>
@@ -34034,7 +34034,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="592" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="592" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A592" s="19" t="s">
         <v>187</v>
       </c>
@@ -34058,7 +34058,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="593" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="593" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A593" s="19" t="s">
         <v>187</v>
       </c>
@@ -34100,7 +34100,7 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="594" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="594" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A594" s="19" t="s">
         <v>187</v>
       </c>
@@ -34142,7 +34142,7 @@
         <v>55.899999999999991</v>
       </c>
     </row>
-    <row r="595" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="595" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A595" s="19" t="s">
         <v>187</v>
       </c>
@@ -34184,7 +34184,7 @@
         <v>68.399999999999991</v>
       </c>
     </row>
-    <row r="596" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="596" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A596" s="19" t="s">
         <v>187</v>
       </c>
@@ -34226,7 +34226,7 @@
         <v>51.800000000000004</v>
       </c>
     </row>
-    <row r="597" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="597" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A597" s="19" t="s">
         <v>188</v>
       </c>
@@ -34271,7 +34271,7 @@
         <v>134.60000000000002</v>
       </c>
     </row>
-    <row r="598" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="598" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A598" s="19" t="s">
         <v>188</v>
       </c>
@@ -34316,7 +34316,7 @@
         <v>113.39999999999999</v>
       </c>
     </row>
-    <row r="599" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="599" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A599" s="19" t="s">
         <v>188</v>
       </c>
@@ -34358,7 +34358,7 @@
         <v>119.70000000000002</v>
       </c>
     </row>
-    <row r="600" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="600" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A600" s="19" t="s">
         <v>188</v>
       </c>
@@ -34379,7 +34379,7 @@
         <v>219.2222222222222</v>
       </c>
     </row>
-    <row r="601" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="601" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A601" s="19" t="s">
         <v>188</v>
       </c>
@@ -34400,7 +34400,7 @@
         <v>322.11111111111109</v>
       </c>
     </row>
-    <row r="602" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="602" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A602" s="19" t="s">
         <v>188</v>
       </c>
@@ -34442,7 +34442,7 @@
         <v>139.79999999999998</v>
       </c>
     </row>
-    <row r="603" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="603" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A603" s="19" t="s">
         <v>188</v>
       </c>
@@ -34484,7 +34484,7 @@
         <v>86.8</v>
       </c>
     </row>
-    <row r="604" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="604" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A604" s="19" t="s">
         <v>188</v>
       </c>
@@ -34526,7 +34526,7 @@
         <v>87.300000000000011</v>
       </c>
     </row>
-    <row r="605" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="605" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A605" s="19" t="s">
         <v>188</v>
       </c>
@@ -34568,7 +34568,7 @@
         <v>80.500000000000014</v>
       </c>
     </row>
-    <row r="606" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="606" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A606" s="19" t="s">
         <v>188</v>
       </c>
@@ -34610,7 +34610,7 @@
         <v>93.000000000000014</v>
       </c>
     </row>
-    <row r="607" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="607" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A607" s="19" t="s">
         <v>188</v>
       </c>
@@ -34631,7 +34631,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="608" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="608" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A608" s="19" t="s">
         <v>188</v>
       </c>
@@ -34652,7 +34652,7 @@
         <v>630.33333333333326</v>
       </c>
     </row>
-    <row r="609" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="609" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A609" s="19" t="s">
         <v>188</v>
       </c>
@@ -34694,7 +34694,7 @@
         <v>81.199999999999989</v>
       </c>
     </row>
-    <row r="610" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="610" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A610" s="19" t="s">
         <v>188</v>
       </c>
@@ -34736,7 +34736,7 @@
         <v>88.100000000000023</v>
       </c>
     </row>
-    <row r="611" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="611" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A611" s="19" t="s">
         <v>188</v>
       </c>
@@ -34778,7 +34778,7 @@
         <v>86.999999999999972</v>
       </c>
     </row>
-    <row r="612" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="612" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A612" s="19" t="s">
         <v>188</v>
       </c>
@@ -34820,7 +34820,7 @@
         <v>72.400000000000006</v>
       </c>
     </row>
-    <row r="613" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="613" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A613" s="19" t="s">
         <v>188</v>
       </c>
@@ -34865,7 +34865,7 @@
         <v>86.8</v>
       </c>
     </row>
-    <row r="614" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="614" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A614" s="19" t="s">
         <v>188</v>
       </c>
@@ -34910,7 +34910,7 @@
         <v>83.90000000000002</v>
       </c>
     </row>
-    <row r="615" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="615" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A615" s="19" t="s">
         <v>188</v>
       </c>
@@ -34952,7 +34952,7 @@
         <v>82.200000000000017</v>
       </c>
     </row>
-    <row r="616" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="616" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A616" s="19" t="s">
         <v>188</v>
       </c>
@@ -34994,7 +34994,7 @@
         <v>85.800000000000011</v>
       </c>
     </row>
-    <row r="617" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="617" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A617" s="19" t="s">
         <v>188</v>
       </c>
@@ -35036,7 +35036,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="618" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="618" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A618" s="19" t="s">
         <v>188</v>
       </c>
@@ -35078,7 +35078,7 @@
         <v>87.7</v>
       </c>
     </row>
-    <row r="619" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="619" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A619" s="19" t="s">
         <v>188</v>
       </c>
@@ -35120,7 +35120,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="620" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="620" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A620" s="19" t="s">
         <v>188</v>
       </c>
@@ -35162,7 +35162,7 @@
         <v>80.099999999999994</v>
       </c>
     </row>
-    <row r="621" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="621" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A621" s="19" t="s">
         <v>188</v>
       </c>
@@ -35183,7 +35183,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="622" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="622" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A622" s="19" t="s">
         <v>188</v>
       </c>
@@ -35204,7 +35204,7 @@
         <v>2078.6666666666665</v>
       </c>
     </row>
-    <row r="623" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="623" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A623" s="19" t="s">
         <v>169</v>
       </c>
@@ -35225,7 +35225,7 @@
         <v>0.3671875</v>
       </c>
     </row>
-    <row r="624" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="624" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A624" s="19" t="s">
         <v>169</v>
       </c>
@@ -35246,7 +35246,7 @@
         <v>0.55249999999999999</v>
       </c>
     </row>
-    <row r="625" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="625" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A625" s="19" t="s">
         <v>169</v>
       </c>
@@ -35267,7 +35267,7 @@
         <v>0.74156250000000001</v>
       </c>
     </row>
-    <row r="626" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="626" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A626" s="19" t="s">
         <v>169</v>
       </c>
@@ -35291,7 +35291,7 @@
         <v>0.30312499999999998</v>
       </c>
     </row>
-    <row r="627" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="627" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A627" s="19" t="s">
         <v>169</v>
       </c>
@@ -35315,7 +35315,7 @@
         <v>1.2124999999999999</v>
       </c>
     </row>
-    <row r="628" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="628" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A628" s="19" t="s">
         <v>169</v>
       </c>
@@ -35339,7 +35339,7 @@
         <v>2.3187500000000001</v>
       </c>
     </row>
-    <row r="629" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="629" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A629" s="19" t="s">
         <v>169</v>
       </c>
@@ -35363,7 +35363,7 @@
         <v>3.078125</v>
       </c>
     </row>
-    <row r="630" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="630" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A630" s="19" t="s">
         <v>169</v>
       </c>
@@ -35387,7 +35387,7 @@
         <v>4.203125</v>
       </c>
     </row>
-    <row r="631" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="631" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A631" s="19" t="s">
         <v>169</v>
       </c>
@@ -35411,7 +35411,7 @@
         <v>4.984375</v>
       </c>
     </row>
-    <row r="632" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="632" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A632" s="19" t="s">
         <v>169</v>
       </c>
@@ -35435,7 +35435,7 @@
         <v>5.4645161290322584</v>
       </c>
     </row>
-    <row r="633" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="633" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A633" s="19" t="s">
         <v>169</v>
       </c>
@@ -35459,7 +35459,7 @@
         <v>6.1032258064516141</v>
       </c>
     </row>
-    <row r="634" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="634" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A634" s="19" t="s">
         <v>169</v>
       </c>
@@ -35483,7 +35483,7 @@
         <v>6.6645161290322577</v>
       </c>
     </row>
-    <row r="635" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="635" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A635" s="19" t="s">
         <v>169</v>
       </c>
@@ -35507,7 +35507,7 @@
         <v>6.9419354838709673</v>
       </c>
     </row>
-    <row r="636" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="636" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A636" s="19" t="s">
         <v>169</v>
       </c>
@@ -35528,7 +35528,7 @@
         <v>7.058064516129031</v>
       </c>
     </row>
-    <row r="637" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="637" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A637" s="19" t="s">
         <v>169</v>
       </c>
@@ -35552,7 +35552,7 @@
         <v>7.4225806451612915</v>
       </c>
     </row>
-    <row r="638" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="638" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A638" s="19" t="s">
         <v>169</v>
       </c>
@@ -35573,7 +35573,7 @@
         <v>7.6935483870967722</v>
       </c>
     </row>
-    <row r="639" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="639" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A639" s="19" t="s">
         <v>169</v>
       </c>
@@ -35594,7 +35594,7 @@
         <v>7.8903225806451607</v>
       </c>
     </row>
-    <row r="640" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="640" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A640" s="19" t="s">
         <v>169</v>
       </c>
@@ -35615,7 +35615,7 @@
         <v>8.3935483870967698</v>
       </c>
     </row>
-    <row r="641" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="641" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A641" s="19" t="s">
         <v>169</v>
       </c>
@@ -35639,7 +35639,7 @@
         <v>8.6741935483870964</v>
       </c>
     </row>
-    <row r="642" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="642" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A642" s="19" t="s">
         <v>169</v>
       </c>
@@ -35660,7 +35660,7 @@
         <v>9.5483870967741939</v>
       </c>
     </row>
-    <row r="643" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="643" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A643" s="19" t="s">
         <v>169</v>
       </c>
@@ -35681,7 +35681,7 @@
         <v>9.7709677419354808</v>
       </c>
     </row>
-    <row r="644" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="644" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A644" s="19" t="s">
         <v>169</v>
       </c>
@@ -35705,7 +35705,7 @@
         <v>10.583333333333336</v>
       </c>
     </row>
-    <row r="645" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="645" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A645" s="19" t="s">
         <v>169</v>
       </c>
@@ -35729,7 +35729,7 @@
         <v>11.053333333333335</v>
       </c>
     </row>
-    <row r="646" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="646" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A646" s="19" t="s">
         <v>169</v>
       </c>
@@ -35753,7 +35753,7 @@
         <v>12.255172413793105</v>
       </c>
     </row>
-    <row r="647" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="647" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A647" s="19" t="s">
         <v>170</v>
       </c>
@@ -35774,7 +35774,7 @@
         <v>0.36343750000000002</v>
       </c>
     </row>
-    <row r="648" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="648" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A648" s="19" t="s">
         <v>170</v>
       </c>
@@ -35795,7 +35795,7 @@
         <v>1.1825000000000001</v>
       </c>
     </row>
-    <row r="649" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="649" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A649" s="19" t="s">
         <v>170</v>
       </c>
@@ -35816,7 +35816,7 @@
         <v>2.3565624999999999</v>
       </c>
     </row>
-    <row r="650" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="650" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A650" s="19" t="s">
         <v>170</v>
       </c>
@@ -35840,7 +35840,7 @@
         <v>4.78125</v>
       </c>
     </row>
-    <row r="651" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="651" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A651" s="19" t="s">
         <v>170</v>
       </c>
@@ -35864,7 +35864,7 @@
         <v>6.9718749999999998</v>
       </c>
     </row>
-    <row r="652" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="652" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A652" s="19" t="s">
         <v>170</v>
       </c>
@@ -35888,7 +35888,7 @@
         <v>8.7281250000000004</v>
       </c>
     </row>
-    <row r="653" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="653" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A653" s="19" t="s">
         <v>170</v>
       </c>
@@ -35912,7 +35912,7 @@
         <v>9.9406250000000007</v>
       </c>
     </row>
-    <row r="654" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="654" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A654" s="19" t="s">
         <v>170</v>
       </c>
@@ -35936,7 +35936,7 @@
         <v>11.493548387096775</v>
       </c>
     </row>
-    <row r="655" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="655" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A655" s="19" t="s">
         <v>170</v>
       </c>
@@ -35960,7 +35960,7 @@
         <v>12.612903225806452</v>
       </c>
     </row>
-    <row r="656" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="656" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A656" s="19" t="s">
         <v>170</v>
       </c>
@@ -35984,7 +35984,7 @@
         <v>13.319354838709677</v>
       </c>
     </row>
-    <row r="657" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="657" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A657" s="19" t="s">
         <v>170</v>
       </c>
@@ -36008,7 +36008,7 @@
         <v>14.087096774193546</v>
       </c>
     </row>
-    <row r="658" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="658" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A658" s="19" t="s">
         <v>170</v>
       </c>
@@ -36032,7 +36032,7 @@
         <v>14.50322580645161</v>
       </c>
     </row>
-    <row r="659" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="659" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A659" s="19" t="s">
         <v>170</v>
       </c>
@@ -36056,7 +36056,7 @@
         <v>15.046666666666665</v>
       </c>
     </row>
-    <row r="660" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="660" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A660" s="19" t="s">
         <v>170</v>
       </c>
@@ -36077,7 +36077,7 @@
         <v>15.15</v>
       </c>
     </row>
-    <row r="661" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="661" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A661" s="19" t="s">
         <v>170</v>
       </c>
@@ -36101,7 +36101,7 @@
         <v>15.51</v>
       </c>
     </row>
-    <row r="662" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="662" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A662" s="19" t="s">
         <v>170</v>
       </c>
@@ -36122,7 +36122,7 @@
         <v>15.69</v>
       </c>
     </row>
-    <row r="663" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="663" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A663" s="19" t="s">
         <v>170</v>
       </c>
@@ -36143,7 +36143,7 @@
         <v>15.81</v>
       </c>
     </row>
-    <row r="664" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="664" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A664" s="19" t="s">
         <v>170</v>
       </c>
@@ -36164,7 +36164,7 @@
         <v>16.260000000000002</v>
       </c>
     </row>
-    <row r="665" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="665" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A665" s="19" t="s">
         <v>170</v>
       </c>
@@ -36188,7 +36188,7 @@
         <v>16.356666666666669</v>
       </c>
     </row>
-    <row r="666" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="666" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A666" s="19" t="s">
         <v>170</v>
       </c>
@@ -36209,7 +36209,7 @@
         <v>17.383333333333329</v>
       </c>
     </row>
-    <row r="667" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="667" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A667" s="19" t="s">
         <v>170</v>
       </c>
@@ -36230,7 +36230,7 @@
         <v>17.616666666666664</v>
       </c>
     </row>
-    <row r="668" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="668" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A668" s="19" t="s">
         <v>170</v>
       </c>
@@ -36254,7 +36254,7 @@
         <v>17.89</v>
       </c>
     </row>
-    <row r="669" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="669" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A669" s="19" t="s">
         <v>170</v>
       </c>
@@ -36278,7 +36278,7 @@
         <v>18.306666666666665</v>
       </c>
     </row>
-    <row r="670" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="670" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A670" s="19" t="s">
         <v>170</v>
       </c>
@@ -36302,7 +36302,7 @@
         <v>19.013793103448272</v>
       </c>
     </row>
-    <row r="671" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="671" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A671" s="19" t="s">
         <v>171</v>
       </c>
@@ -36323,7 +36323,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="672" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="672" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A672" s="19" t="s">
         <v>171</v>
       </c>
@@ -36344,7 +36344,7 @@
         <v>0.55625000000000002</v>
       </c>
     </row>
-    <row r="673" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="673" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A673" s="19" t="s">
         <v>171</v>
       </c>
@@ -36365,7 +36365,7 @@
         <v>0.81562500000000004</v>
       </c>
     </row>
-    <row r="674" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="674" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A674" s="19" t="s">
         <v>171</v>
       </c>
@@ -36389,7 +36389,7 @@
         <v>0.67812499999999998</v>
       </c>
     </row>
-    <row r="675" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="675" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A675" s="19" t="s">
         <v>171</v>
       </c>
@@ -36413,7 +36413,7 @@
         <v>2.2312500000000002</v>
       </c>
     </row>
-    <row r="676" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="676" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A676" s="19" t="s">
         <v>171</v>
       </c>
@@ -36437,7 +36437,7 @@
         <v>3.4281250000000001</v>
       </c>
     </row>
-    <row r="677" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="677" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A677" s="19" t="s">
         <v>171</v>
       </c>
@@ -36461,7 +36461,7 @@
         <v>4.0718750000000004</v>
       </c>
     </row>
-    <row r="678" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="678" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A678" s="19" t="s">
         <v>171</v>
       </c>
@@ -36485,7 +36485,7 @@
         <v>5.0281250000000002</v>
       </c>
     </row>
-    <row r="679" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="679" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A679" s="19" t="s">
         <v>171</v>
       </c>
@@ -36509,7 +36509,7 @@
         <v>5.6124999999999998</v>
       </c>
     </row>
-    <row r="680" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="680" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A680" s="19" t="s">
         <v>171</v>
       </c>
@@ -36534,7 +36534,7 @@
         <v>6.0687499999999996</v>
       </c>
     </row>
-    <row r="681" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="681" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A681" s="19" t="s">
         <v>171</v>
       </c>
@@ -36559,7 +36559,7 @@
         <v>6.35</v>
       </c>
     </row>
-    <row r="682" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="682" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A682" s="19" t="s">
         <v>171</v>
       </c>
@@ -36584,7 +36584,7 @@
         <v>6.6624999999999996</v>
       </c>
     </row>
-    <row r="683" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="683" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A683" s="19" t="s">
         <v>171</v>
       </c>
@@ -36609,7 +36609,7 @@
         <v>6.8624999999999998</v>
       </c>
     </row>
-    <row r="684" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="684" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A684" s="19" t="s">
         <v>171</v>
       </c>
@@ -36631,7 +36631,7 @@
         <v>7.0125000000000002</v>
       </c>
     </row>
-    <row r="685" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="685" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A685" s="19" t="s">
         <v>171</v>
       </c>
@@ -36655,7 +36655,7 @@
         <v>7.2218749999999998</v>
       </c>
     </row>
-    <row r="686" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="686" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A686" s="19" t="s">
         <v>171</v>
       </c>
@@ -36676,7 +36676,7 @@
         <v>7.3375000000000004</v>
       </c>
     </row>
-    <row r="687" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="687" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A687" s="19" t="s">
         <v>171</v>
       </c>
@@ -36697,7 +36697,7 @@
         <v>7.7374999999999998</v>
       </c>
     </row>
-    <row r="688" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="688" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A688" s="19" t="s">
         <v>171</v>
       </c>
@@ -36718,7 +36718,7 @@
         <v>8.3874999999999993</v>
       </c>
     </row>
-    <row r="689" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="689" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A689" s="19" t="s">
         <v>171</v>
       </c>
@@ -36742,7 +36742,7 @@
         <v>8.7281250000000004</v>
       </c>
     </row>
-    <row r="690" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="690" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A690" s="19" t="s">
         <v>171</v>
       </c>
@@ -36764,7 +36764,7 @@
         <v>9.9312500000000004</v>
       </c>
     </row>
-    <row r="691" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="691" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A691" s="19" t="s">
         <v>171</v>
       </c>
@@ -36786,7 +36786,7 @@
         <v>10.125</v>
       </c>
     </row>
-    <row r="692" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="692" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A692" s="19" t="s">
         <v>171</v>
       </c>
@@ -36811,7 +36811,7 @@
         <v>10.69375</v>
       </c>
     </row>
-    <row r="693" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="693" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A693" s="19" t="s">
         <v>171</v>
       </c>
@@ -36836,7 +36836,7 @@
         <v>11.246874999999999</v>
       </c>
     </row>
-    <row r="694" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="694" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A694" s="19" t="s">
         <v>171</v>
       </c>
@@ -36861,7 +36861,7 @@
         <v>11.909375000000001</v>
       </c>
     </row>
-    <row r="695" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="695" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A695" s="19" t="s">
         <v>172</v>
       </c>
@@ -36883,7 +36883,7 @@
         <v>0.36749999999999999</v>
       </c>
     </row>
-    <row r="696" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="696" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A696" s="19" t="s">
         <v>172</v>
       </c>
@@ -36905,7 +36905,7 @@
         <v>1.34375</v>
       </c>
     </row>
-    <row r="697" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="697" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A697" s="19" t="s">
         <v>172</v>
       </c>
@@ -36927,7 +36927,7 @@
         <v>2.5812499999999998</v>
       </c>
     </row>
-    <row r="698" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="698" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A698" s="19" t="s">
         <v>172</v>
       </c>
@@ -36952,7 +36952,7 @@
         <v>5.5966666666666667</v>
       </c>
     </row>
-    <row r="699" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="699" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A699" s="19" t="s">
         <v>172</v>
       </c>
@@ -36977,7 +36977,7 @@
         <v>8.144827586206894</v>
       </c>
     </row>
-    <row r="700" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="700" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A700" s="19" t="s">
         <v>172</v>
       </c>
@@ -37002,7 +37002,7 @@
         <v>10.004545454545454</v>
       </c>
     </row>
-    <row r="701" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="701" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A701" s="19" t="s">
         <v>172</v>
       </c>
@@ -37027,7 +37027,7 @@
         <v>11.272727272727273</v>
       </c>
     </row>
-    <row r="702" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="702" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A702" s="19" t="s">
         <v>172</v>
       </c>
@@ -37052,7 +37052,7 @@
         <v>12.945</v>
       </c>
     </row>
-    <row r="703" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="703" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A703" s="19" t="s">
         <v>172</v>
       </c>
@@ -37077,7 +37077,7 @@
         <v>14.175000000000001</v>
       </c>
     </row>
-    <row r="704" spans="1:29" s="21" customFormat="1" ht="15">
+    <row r="704" spans="1:29" s="21" customFormat="1" ht="14.5">
       <c r="A704" s="19" t="s">
         <v>172</v>
       </c>
@@ -37102,7 +37102,7 @@
         <v>14.99</v>
       </c>
     </row>
-    <row r="705" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="705" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A705" s="19" t="s">
         <v>172</v>
       </c>
@@ -37126,7 +37126,7 @@
         <v>15.82</v>
       </c>
     </row>
-    <row r="706" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="706" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A706" s="19" t="s">
         <v>172</v>
       </c>
@@ -37150,7 +37150,7 @@
         <v>16.64</v>
       </c>
     </row>
-    <row r="707" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="707" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A707" s="19" t="s">
         <v>172</v>
       </c>
@@ -37174,7 +37174,7 @@
         <v>16.965</v>
       </c>
     </row>
-    <row r="708" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="708" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A708" s="19" t="s">
         <v>172</v>
       </c>
@@ -37195,7 +37195,7 @@
         <v>17.135000000000002</v>
       </c>
     </row>
-    <row r="709" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="709" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A709" s="19" t="s">
         <v>172</v>
       </c>
@@ -37219,7 +37219,7 @@
         <v>17.344999999999999</v>
       </c>
     </row>
-    <row r="710" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="710" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A710" s="19" t="s">
         <v>172</v>
       </c>
@@ -37240,7 +37240,7 @@
         <v>17.52</v>
       </c>
     </row>
-    <row r="711" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="711" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A711" s="19" t="s">
         <v>172</v>
       </c>
@@ -37261,7 +37261,7 @@
         <v>17.79</v>
       </c>
     </row>
-    <row r="712" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="712" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A712" s="19" t="s">
         <v>172</v>
       </c>
@@ -37282,7 +37282,7 @@
         <v>18.579999999999998</v>
       </c>
     </row>
-    <row r="713" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="713" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A713" s="19" t="s">
         <v>172</v>
       </c>
@@ -37306,7 +37306,7 @@
         <v>18.89</v>
       </c>
     </row>
-    <row r="714" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="714" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A714" s="19" t="s">
         <v>172</v>
       </c>
@@ -37327,7 +37327,7 @@
         <v>20.994736842105265</v>
       </c>
     </row>
-    <row r="715" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="715" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A715" s="19" t="s">
         <v>172</v>
       </c>
@@ -37349,7 +37349,7 @@
         <v>21.378947368421056</v>
       </c>
     </row>
-    <row r="716" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="716" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A716" s="19" t="s">
         <v>172</v>
       </c>
@@ -37374,7 +37374,7 @@
         <v>21.93684210526316</v>
       </c>
     </row>
-    <row r="717" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="717" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A717" s="19" t="s">
         <v>172</v>
       </c>
@@ -37399,7 +37399,7 @@
         <v>22.252631578947362</v>
       </c>
     </row>
-    <row r="718" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="718" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A718" s="19" t="s">
         <v>172</v>
       </c>
@@ -37424,7 +37424,7 @@
         <v>22.484210526315788</v>
       </c>
     </row>
-    <row r="719" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="719" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A719" s="19" t="s">
         <v>172</v>
       </c>
@@ -37468,7 +37468,7 @@
         <v>82.716049382716022</v>
       </c>
     </row>
-    <row r="720" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="720" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A720" s="19" t="s">
         <v>172</v>
       </c>
@@ -37512,7 +37512,7 @@
         <v>106.45161290322581</v>
       </c>
     </row>
-    <row r="721" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="721" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A721" s="19" t="s">
         <v>172</v>
       </c>
@@ -37556,7 +37556,7 @@
         <v>96.15384615384616</v>
       </c>
     </row>
-    <row r="722" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="722" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A722" s="19" t="s">
         <v>172</v>
       </c>
@@ -37600,7 +37600,7 @@
         <v>93.260869565217405</v>
       </c>
     </row>
-    <row r="723" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="723" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A723" s="19" t="s">
         <v>172</v>
       </c>
@@ -37644,7 +37644,7 @@
         <v>97.727272727272734</v>
       </c>
     </row>
-    <row r="724" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="724" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A724" s="19" t="s">
         <v>172</v>
       </c>
@@ -37688,7 +37688,7 @@
         <v>61.442915733214505</v>
       </c>
     </row>
-    <row r="725" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="725" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A725" s="19" t="s">
         <v>172</v>
       </c>
@@ -37732,7 +37732,7 @@
         <v>59.992738621386081</v>
       </c>
     </row>
-    <row r="726" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="726" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A726" s="19" t="s">
         <v>172</v>
       </c>
@@ -37776,7 +37776,7 @@
         <v>59.984620057361866</v>
       </c>
     </row>
-    <row r="727" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="727" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A727" s="19" t="s">
         <v>172</v>
       </c>
@@ -37820,7 +37820,7 @@
         <v>59.9089234523274</v>
       </c>
     </row>
-    <row r="728" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="728" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A728" s="19" t="s">
         <v>172</v>
       </c>
@@ -37864,7 +37864,7 @@
         <v>57.547536656280826</v>
       </c>
     </row>
-    <row r="729" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="729" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A729" s="19" t="s">
         <v>171</v>
       </c>
@@ -37908,7 +37908,7 @@
         <v>84.210526315789465</v>
       </c>
     </row>
-    <row r="730" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="730" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A730" s="19" t="s">
         <v>171</v>
       </c>
@@ -37952,7 +37952,7 @@
         <v>37.640449438202246</v>
       </c>
     </row>
-    <row r="731" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="731" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A731" s="19" t="s">
         <v>171</v>
       </c>
@@ -37996,7 +37996,7 @@
         <v>96.478873239436624</v>
       </c>
     </row>
-    <row r="732" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="732" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A732" s="19" t="s">
         <v>171</v>
       </c>
@@ -38040,7 +38040,7 @@
         <v>102.00000000000001</v>
       </c>
     </row>
-    <row r="733" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="733" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A733" s="19" t="s">
         <v>171</v>
       </c>
@@ -38084,7 +38084,7 @@
         <v>101.73913043478262</v>
       </c>
     </row>
-    <row r="734" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="734" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A734" s="19" t="s">
         <v>171</v>
       </c>
@@ -38128,7 +38128,7 @@
         <v>64.487962471556543</v>
       </c>
     </row>
-    <row r="735" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="735" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A735" s="19" t="s">
         <v>171</v>
       </c>
@@ -38171,7 +38171,7 @@
         <v>60.938416298404768</v>
       </c>
     </row>
-    <row r="736" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="736" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A736" s="19" t="s">
         <v>171</v>
       </c>
@@ -38214,7 +38214,7 @@
         <v>60.662254679692836</v>
       </c>
     </row>
-    <row r="737" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="737" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A737" s="19" t="s">
         <v>171</v>
       </c>
@@ -38257,7 +38257,7 @@
         <v>60.532472626658461</v>
       </c>
     </row>
-    <row r="738" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="738" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A738" s="19" t="s">
         <v>171</v>
       </c>
@@ -38300,7 +38300,7 @@
         <v>60.307004358320533</v>
       </c>
     </row>
-    <row r="739" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="739" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A739" s="19" t="s">
         <v>170</v>
       </c>
@@ -38343,7 +38343,7 @@
         <v>87.922705314009676</v>
       </c>
     </row>
-    <row r="740" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="740" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A740" s="19" t="s">
         <v>170</v>
       </c>
@@ -38386,7 +38386,7 @@
         <v>104.94117647058825</v>
       </c>
     </row>
-    <row r="741" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="741" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A741" s="19" t="s">
         <v>170</v>
       </c>
@@ -38429,7 +38429,7 @@
         <v>97.76422764227641</v>
       </c>
     </row>
-    <row r="742" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="742" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A742" s="19" t="s">
         <v>170</v>
       </c>
@@ -38472,7 +38472,7 @@
         <v>105.04385964912282</v>
       </c>
     </row>
-    <row r="743" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="743" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A743" s="19" t="s">
         <v>170</v>
       </c>
@@ -38515,7 +38515,7 @@
         <v>100.1937984496124</v>
       </c>
     </row>
-    <row r="744" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="744" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A744" s="19" t="s">
         <v>170</v>
       </c>
@@ -38558,7 +38558,7 @@
         <v>60.635193134974074</v>
       </c>
     </row>
-    <row r="745" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="745" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A745" s="19" t="s">
         <v>170</v>
       </c>
@@ -38601,7 +38601,7 @@
         <v>59.908670806839915</v>
       </c>
     </row>
-    <row r="746" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="746" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A746" s="19" t="s">
         <v>170</v>
       </c>
@@ -38644,7 +38644,7 @@
         <v>59.881844578474187</v>
       </c>
     </row>
-    <row r="747" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="747" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A747" s="19" t="s">
         <v>170</v>
       </c>
@@ -38687,7 +38687,7 @@
         <v>59.900377511143951</v>
       </c>
     </row>
-    <row r="748" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="748" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A748" s="19" t="s">
         <v>170</v>
       </c>
@@ -38730,7 +38730,7 @@
         <v>59.873661419716925</v>
       </c>
     </row>
-    <row r="749" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="749" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A749" s="19" t="s">
         <v>169</v>
       </c>
@@ -38773,7 +38773,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="750" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="750" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A750" s="19" t="s">
         <v>169</v>
       </c>
@@ -38816,7 +38816,7 @@
         <v>46.067415730337075</v>
       </c>
     </row>
-    <row r="751" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="751" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A751" s="19" t="s">
         <v>169</v>
       </c>
@@ -38859,7 +38859,7 @@
         <v>103.03030303030303</v>
       </c>
     </row>
-    <row r="752" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="752" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A752" s="19" t="s">
         <v>169</v>
       </c>
@@ -38902,7 +38902,7 @@
         <v>92.156862745098024</v>
       </c>
     </row>
-    <row r="753" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="753" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A753" s="19" t="s">
         <v>169</v>
       </c>
@@ -38945,7 +38945,7 @@
         <v>81.578947368421055</v>
       </c>
     </row>
-    <row r="754" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="754" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A754" s="19" t="s">
         <v>169</v>
       </c>
@@ -38988,7 +38988,7 @@
         <v>63.836150711215744</v>
       </c>
     </row>
-    <row r="755" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="755" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A755" s="19" t="s">
         <v>169</v>
       </c>
@@ -39031,7 +39031,7 @@
         <v>60.516619948717498</v>
       </c>
     </row>
-    <row r="756" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="756" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A756" s="19" t="s">
         <v>169</v>
       </c>
@@ -39074,7 +39074,7 @@
         <v>60.523115209098847</v>
       </c>
     </row>
-    <row r="757" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="757" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A757" s="19" t="s">
         <v>169</v>
       </c>
@@ -39117,7 +39117,7 @@
         <v>60.365353940663141</v>
       </c>
     </row>
-    <row r="758" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="758" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A758" s="19" t="s">
         <v>169</v>
       </c>
@@ -39160,7 +39160,7 @@
         <v>60.282201119467167</v>
       </c>
     </row>
-    <row r="759" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="759" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A759" s="19" t="s">
         <v>189</v>
       </c>
@@ -39202,7 +39202,7 @@
         <v>138.20000000000002</v>
       </c>
     </row>
-    <row r="760" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="760" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A760" s="19" t="s">
         <v>189</v>
       </c>
@@ -39244,7 +39244,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="761" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="761" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A761" s="19" t="s">
         <v>189</v>
       </c>
@@ -39286,7 +39286,7 @@
         <v>135.30000000000001</v>
       </c>
     </row>
-    <row r="762" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="762" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A762" s="19" t="s">
         <v>189</v>
       </c>
@@ -39328,7 +39328,7 @@
         <v>143.20000000000002</v>
       </c>
     </row>
-    <row r="763" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="763" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A763" s="19" t="s">
         <v>189</v>
       </c>
@@ -39349,7 +39349,7 @@
         <v>5.2222222222222223</v>
       </c>
     </row>
-    <row r="764" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="764" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A764" s="19" t="s">
         <v>189</v>
       </c>
@@ -39370,7 +39370,7 @@
         <v>6.2222222222222223</v>
       </c>
     </row>
-    <row r="765" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="765" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A765" s="19" t="s">
         <v>189</v>
       </c>
@@ -39391,7 +39391,7 @@
         <v>398.77777777777777</v>
       </c>
     </row>
-    <row r="766" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="766" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A766" s="19" t="s">
         <v>189</v>
       </c>
@@ -39412,7 +39412,7 @@
         <v>347.44444444444446</v>
       </c>
     </row>
-    <row r="767" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="767" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A767" s="19" t="s">
         <v>189</v>
       </c>
@@ -39454,7 +39454,7 @@
         <v>107.8</v>
       </c>
     </row>
-    <row r="768" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="768" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A768" s="19" t="s">
         <v>189</v>
       </c>
@@ -39496,7 +39496,7 @@
         <v>106.5</v>
       </c>
     </row>
-    <row r="769" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="769" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A769" s="19" t="s">
         <v>189</v>
       </c>
@@ -39538,7 +39538,7 @@
         <v>99.800000000000011</v>
       </c>
     </row>
-    <row r="770" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="770" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A770" s="19" t="s">
         <v>189</v>
       </c>
@@ -39580,7 +39580,7 @@
         <v>103.6</v>
       </c>
     </row>
-    <row r="771" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="771" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A771" s="19" t="s">
         <v>189</v>
       </c>
@@ -39601,7 +39601,7 @@
         <v>874.66666666666663</v>
       </c>
     </row>
-    <row r="772" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="772" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A772" s="19" t="s">
         <v>189</v>
       </c>
@@ -39622,7 +39622,7 @@
         <v>822.33333333333326</v>
       </c>
     </row>
-    <row r="773" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="773" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A773" s="19" t="s">
         <v>189</v>
       </c>
@@ -39664,7 +39664,7 @@
         <v>84.399999999999991</v>
       </c>
     </row>
-    <row r="774" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="774" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A774" s="19" t="s">
         <v>189</v>
       </c>
@@ -39706,7 +39706,7 @@
         <v>88.2</v>
       </c>
     </row>
-    <row r="775" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="775" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A775" s="19" t="s">
         <v>189</v>
       </c>
@@ -39748,7 +39748,7 @@
         <v>91.300000000000011</v>
       </c>
     </row>
-    <row r="776" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="776" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A776" s="19" t="s">
         <v>189</v>
       </c>
@@ -39790,7 +39790,7 @@
         <v>84.700000000000017</v>
       </c>
     </row>
-    <row r="777" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="777" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A777" s="19" t="s">
         <v>189</v>
       </c>
@@ -39811,7 +39811,7 @@
         <v>970.1111111111112</v>
       </c>
     </row>
-    <row r="778" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="778" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A778" s="19" t="s">
         <v>189</v>
       </c>
@@ -39832,7 +39832,7 @@
         <v>1412.2222222222222</v>
       </c>
     </row>
-    <row r="779" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="779" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A779" s="19" t="s">
         <v>189</v>
       </c>
@@ -39874,7 +39874,7 @@
         <v>69.7</v>
       </c>
     </row>
-    <row r="780" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="780" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A780" s="19" t="s">
         <v>189</v>
       </c>
@@ -39916,7 +39916,7 @@
         <v>64.600000000000009</v>
       </c>
     </row>
-    <row r="781" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="781" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A781" s="19" t="s">
         <v>189</v>
       </c>
@@ -39958,7 +39958,7 @@
         <v>78.3</v>
       </c>
     </row>
-    <row r="782" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="782" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A782" s="19" t="s">
         <v>189</v>
       </c>
@@ -40000,7 +40000,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="783" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="783" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A783" s="19" t="s">
         <v>189</v>
       </c>
@@ -40021,7 +40021,7 @@
         <v>1943.3333333333333</v>
       </c>
     </row>
-    <row r="784" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="784" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A784" s="19" t="s">
         <v>189</v>
       </c>
@@ -40042,7 +40042,7 @@
         <v>1870.7777777777776</v>
       </c>
     </row>
-    <row r="785" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="785" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A785" s="19" t="s">
         <v>189</v>
       </c>
@@ -40084,7 +40084,7 @@
         <v>64.199999999999989</v>
       </c>
     </row>
-    <row r="786" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="786" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A786" s="19" t="s">
         <v>189</v>
       </c>
@@ -40126,7 +40126,7 @@
         <v>68.800000000000011</v>
       </c>
     </row>
-    <row r="787" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="787" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A787" s="19" t="s">
         <v>189</v>
       </c>
@@ -40168,7 +40168,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="788" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="788" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A788" s="19" t="s">
         <v>189</v>
       </c>
@@ -40210,7 +40210,7 @@
         <v>68.399999999999991</v>
       </c>
     </row>
-    <row r="789" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="789" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A789" s="19" t="s">
         <v>189</v>
       </c>
@@ -40252,7 +40252,7 @@
         <v>66.399999999999991</v>
       </c>
     </row>
-    <row r="790" spans="1:69" s="21" customFormat="1" ht="15">
+    <row r="790" spans="1:69" s="21" customFormat="1" ht="14.5">
       <c r="A790" s="19" t="s">
         <v>189</v>
       </c>
@@ -52334,6 +52334,9 @@
       <c r="AC1229" s="21">
         <v>2.88</v>
       </c>
+      <c r="AD1229" s="21">
+        <v>0.22047929899050089</v>
+      </c>
       <c r="AE1229" s="21">
         <f t="shared" ref="AE1229" si="11">(AC1229/2)^2*3.14159*E1229/10000</f>
         <v>0.79866556554239998</v>
@@ -52402,6 +52405,9 @@
       <c r="AC1230" s="21">
         <v>8.77</v>
       </c>
+      <c r="AD1230" s="21">
+        <v>0.37375000000000025</v>
+      </c>
       <c r="AE1230" s="21">
         <f t="shared" ref="AE1230:AE1234" si="13">(AC1230/2)^2*3.14159*E1230/10000</f>
         <v>7.4904927228409983</v>
@@ -52470,6 +52476,9 @@
       <c r="AC1231" s="21">
         <v>11.73</v>
       </c>
+      <c r="AD1231" s="21">
+        <v>0.51249999999999929</v>
+      </c>
       <c r="AE1231" s="21">
         <f t="shared" si="13"/>
         <v>13.24878367249215</v>
@@ -52535,6 +52544,9 @@
       <c r="AC1232" s="21">
         <v>13.14</v>
       </c>
+      <c r="AD1232" s="21">
+        <v>0.5291666666666659</v>
+      </c>
       <c r="AE1232" s="21">
         <f t="shared" si="13"/>
         <v>16.449058526568301</v>
@@ -52600,6 +52612,9 @@
       <c r="AC1233" s="21">
         <v>15.28</v>
       </c>
+      <c r="AD1233" s="21">
+        <v>0.61250000000000071</v>
+      </c>
       <c r="AE1233" s="21">
         <f t="shared" si="13"/>
         <v>21.509694150187197</v>
@@ -52668,6 +52683,9 @@
       <c r="AC1234" s="21">
         <v>16.63</v>
       </c>
+      <c r="AD1234" s="21">
+        <v>0.58333333333333304</v>
+      </c>
       <c r="AE1234" s="21">
         <f t="shared" si="13"/>
         <v>24.023105024173148</v>
@@ -52810,6 +52828,9 @@
       <c r="AB1239" s="21">
         <v>27.9</v>
       </c>
+      <c r="AD1239" s="21">
+        <v>0.83333333333333393</v>
+      </c>
       <c r="AE1239" s="21">
         <v>33.28</v>
       </c>
@@ -52871,6 +52892,9 @@
       <c r="AC1240" s="21">
         <v>2.5099999999999998</v>
       </c>
+      <c r="AD1240" s="21">
+        <v>0.1875</v>
+      </c>
       <c r="AE1240" s="21">
         <f>(AC1240/2)^2*3.14159*E1240/10000</f>
         <v>1.2271245318579997</v>
@@ -52939,6 +52963,9 @@
       <c r="AC1241" s="21">
         <v>7.46</v>
       </c>
+      <c r="AD1241" s="21">
+        <v>0.32500000000000018</v>
+      </c>
       <c r="AE1241" s="21">
         <f t="shared" ref="AE1241:AE1245" si="16">(AC1241/2)^2*3.14159*E1241/10000</f>
         <v>10.957752917007701</v>
@@ -53007,6 +53034,9 @@
       <c r="AC1242" s="21">
         <v>9.77</v>
       </c>
+      <c r="AD1242" s="21">
+        <v>0.38750000000000018</v>
+      </c>
       <c r="AE1242" s="21">
         <f t="shared" si="16"/>
         <v>18.194847433034923</v>
@@ -53072,6 +53102,9 @@
       <c r="AC1243" s="21">
         <v>11.13</v>
       </c>
+      <c r="AD1243" s="21">
+        <v>0.42083333333333339</v>
+      </c>
       <c r="AE1243" s="21">
         <f t="shared" si="16"/>
         <v>22.31892417604185</v>
@@ -53137,6 +53170,9 @@
       <c r="AC1244" s="21">
         <v>12.39</v>
       </c>
+      <c r="AD1244" s="21">
+        <v>0.52083333333333393</v>
+      </c>
       <c r="AE1244" s="21">
         <f t="shared" si="16"/>
         <v>26.368225877717325</v>
@@ -53202,6 +53238,9 @@
       <c r="AC1245" s="21">
         <v>14.16</v>
       </c>
+      <c r="AD1245" s="21">
+        <v>0.5749999999999984</v>
+      </c>
       <c r="AE1245" s="21">
         <f t="shared" si="16"/>
         <v>31.495319395199999</v>
@@ -53286,7 +53325,6 @@
         <v>25.5</v>
       </c>
       <c r="AC1249" s="26"/>
-      <c r="AD1249" s="26"/>
       <c r="AE1249" s="39">
         <v>36.799999999999997</v>
       </c>
@@ -53347,7 +53385,9 @@
         <v>27.8</v>
       </c>
       <c r="AC1250" s="26"/>
-      <c r="AD1250" s="26"/>
+      <c r="AD1250" s="21">
+        <v>0.75833333333333286</v>
+      </c>
       <c r="AE1250" s="39">
         <v>34.99</v>
       </c>
@@ -53409,6 +53449,9 @@
       <c r="AC1251" s="21">
         <v>1.39</v>
       </c>
+      <c r="AD1251" s="21">
+        <v>9.4669407257942262E-2</v>
+      </c>
       <c r="AE1251" s="21">
         <f>(AC1251/2)^2*3.14159*E1251/10000</f>
         <v>0.19818112617334996</v>
@@ -53474,6 +53517,9 @@
       <c r="AC1252" s="21">
         <v>7.08</v>
       </c>
+      <c r="AD1252" s="21">
+        <v>0.36249999999999982</v>
+      </c>
       <c r="AE1252" s="21">
         <f t="shared" ref="AE1252:AE1256" si="19">(AC1252/2)^2*3.14159*E1252/10000</f>
         <v>5.1416108912664003</v>
@@ -53539,6 +53585,9 @@
       <c r="AC1253" s="21">
         <v>10.02</v>
       </c>
+      <c r="AD1253" s="21">
+        <v>0.45833333333333393</v>
+      </c>
       <c r="AE1253" s="21">
         <f t="shared" si="19"/>
         <v>10.298361544565399</v>
@@ -53604,6 +53653,9 @@
       <c r="AC1254" s="21">
         <v>11.73</v>
       </c>
+      <c r="AD1254" s="21">
+        <v>0.68333333333333357</v>
+      </c>
       <c r="AE1254" s="21">
         <f t="shared" si="19"/>
         <v>13.832335318752</v>
@@ -53669,6 +53721,9 @@
       <c r="AC1255" s="21">
         <v>13.73</v>
       </c>
+      <c r="AD1255" s="21">
+        <v>0.60416666666666696</v>
+      </c>
       <c r="AE1255" s="21">
         <f t="shared" si="19"/>
         <v>18.551612315332076</v>
@@ -53734,6 +53789,9 @@
       <c r="AC1256" s="21">
         <v>15.33</v>
       </c>
+      <c r="AD1256" s="21">
+        <v>0.74166666666666714</v>
+      </c>
       <c r="AE1256" s="21">
         <f t="shared" si="19"/>
         <v>22.149048304530002</v>
@@ -53873,6 +53931,9 @@
       <c r="AB1261" s="21">
         <v>25.7</v>
       </c>
+      <c r="AD1261" s="21">
+        <v>0.82500000000000284</v>
+      </c>
       <c r="AE1261" s="21">
         <v>30.58</v>
       </c>
@@ -53931,6 +53992,9 @@
       <c r="AC1262" s="21">
         <v>1.75</v>
       </c>
+      <c r="AD1262" s="21">
+        <v>0.11082219827589435</v>
+      </c>
       <c r="AE1262" s="21">
         <f>(AC1262/2)^2*3.14159*E1262/10000</f>
         <v>0.62224589557812493</v>
@@ -53996,6 +54060,9 @@
       <c r="AC1263" s="21">
         <v>6.39</v>
       </c>
+      <c r="AD1263" s="21">
+        <v>0.29999999999999982</v>
+      </c>
       <c r="AE1263" s="21">
         <f t="shared" ref="AE1263:AE1267" si="23">(AC1263/2)^2*3.14159*E1263/10000</f>
         <v>8.2963613494973245</v>
@@ -54061,6 +54128,9 @@
       <c r="AC1264" s="21">
         <v>8.25</v>
       </c>
+      <c r="AD1264" s="21">
+        <v>0.37916666666666643</v>
+      </c>
       <c r="AE1264" s="21">
         <f t="shared" si="23"/>
         <v>13.829097556828122</v>
@@ -54126,6 +54196,9 @@
       <c r="AC1265" s="21">
         <v>9.67</v>
       </c>
+      <c r="AD1265" s="21">
+        <v>0.45416666666666661</v>
+      </c>
       <c r="AE1265" s="21">
         <f t="shared" si="23"/>
         <v>18.610115703315849</v>
@@ -54191,6 +54264,9 @@
       <c r="AC1266" s="21">
         <v>11.2</v>
       </c>
+      <c r="AD1266" s="21">
+        <v>0.5166666666666675</v>
+      </c>
       <c r="AE1266" s="21">
         <f t="shared" si="23"/>
         <v>24.699029783679997</v>
@@ -54256,6 +54332,9 @@
       <c r="AC1267" s="21">
         <v>12.4</v>
       </c>
+      <c r="AD1267" s="21">
+        <v>0.47500000000000142</v>
+      </c>
       <c r="AE1267" s="21">
         <f t="shared" si="23"/>
         <v>28.983052704000002</v>
@@ -54394,6 +54473,9 @@
       <c r="Z1272" s="43"/>
       <c r="AB1272" s="21">
         <v>24.4</v>
+      </c>
+      <c r="AD1272" s="21">
+        <v>0.45</v>
       </c>
       <c r="AE1272" s="21">
         <v>39.049999999999997</v>

--- a/Tests/Validation/Eucalyptus/Observed.xlsx
+++ b/Tests/Validation/Eucalyptus/Observed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APSIMxSourceTree\Tests\Validation\Eucalyptus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B76D46-1F85-408E-BD5C-74C550B98AEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A4294A-144A-4BFC-A483-258A91EA32D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" tabRatio="653" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18223,10 +18223,10 @@
   <dimension ref="A1:BZ2742"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6330" ySplit="1575" topLeftCell="AA718" activePane="bottomRight"/>
+      <pane xSplit="6330" ySplit="1575" topLeftCell="A1504" activePane="bottomRight"/>
       <selection pane="topRight" activeCell="AC1" sqref="AC1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AF626" sqref="AF626:AF746"/>
+      <selection pane="bottomRight" activeCell="C1532" sqref="C1532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
@@ -55544,7 +55544,7 @@
         <v>0</v>
       </c>
       <c r="E1278" s="21">
-        <v>1200</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1279" spans="1:40" s="21" customFormat="1">
@@ -55558,7 +55558,7 @@
         <v>0</v>
       </c>
       <c r="E1279" s="21">
-        <v>1200</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1280" spans="1:40" s="21" customFormat="1">
@@ -55572,7 +55572,7 @@
         <v>0</v>
       </c>
       <c r="E1280" s="21">
-        <v>1200</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1281" spans="1:34" s="21" customFormat="1">
@@ -55586,7 +55586,7 @@
         <v>0</v>
       </c>
       <c r="E1281" s="21">
-        <v>1200</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1282" spans="1:34" s="21" customFormat="1">
@@ -55600,7 +55600,7 @@
         <v>0</v>
       </c>
       <c r="E1282" s="21">
-        <v>1200</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1283" spans="1:34" s="21" customFormat="1">
@@ -55614,7 +55614,7 @@
         <v>0</v>
       </c>
       <c r="E1283" s="21">
-        <v>1200</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1284" spans="1:34" s="21" customFormat="1">
@@ -55628,7 +55628,7 @@
         <v>0</v>
       </c>
       <c r="E1284" s="21">
-        <v>1200</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1285" spans="1:34" s="21" customFormat="1">
@@ -55642,7 +55642,7 @@
         <v>0</v>
       </c>
       <c r="E1285" s="21">
-        <v>1200</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1286" spans="1:34" s="21" customFormat="1">
@@ -55656,7 +55656,7 @@
         <v>0</v>
       </c>
       <c r="E1286" s="21">
-        <v>1200</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1287" spans="1:34" s="21" customFormat="1">
@@ -55670,7 +55670,7 @@
         <v>0</v>
       </c>
       <c r="E1287" s="21">
-        <v>1200</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1288" spans="1:34" s="21" customFormat="1">
@@ -55684,7 +55684,7 @@
         <v>0</v>
       </c>
       <c r="E1288" s="21">
-        <v>1200</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1289" spans="1:34" s="21" customFormat="1">
@@ -58906,7 +58906,7 @@
         <v>0</v>
       </c>
       <c r="E1443" s="21">
-        <v>1200</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1444" spans="1:34" s="21" customFormat="1">
@@ -58920,7 +58920,7 @@
         <v>0</v>
       </c>
       <c r="E1444" s="21">
-        <v>300</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1445" spans="1:34" s="21" customFormat="1">
@@ -58934,7 +58934,7 @@
         <v>0</v>
       </c>
       <c r="E1445" s="21">
-        <v>600</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1446" spans="1:34" s="21" customFormat="1">
@@ -58948,7 +58948,7 @@
         <v>0</v>
       </c>
       <c r="E1446" s="21">
-        <v>1200</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1447" spans="1:34" s="21" customFormat="1">
@@ -58962,7 +58962,7 @@
         <v>0</v>
       </c>
       <c r="E1447" s="21">
-        <v>600</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1448" spans="1:34" s="21" customFormat="1">
@@ -58976,7 +58976,7 @@
         <v>0</v>
       </c>
       <c r="E1448" s="21">
-        <v>1200</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1449" spans="1:34" s="21" customFormat="1">
@@ -58990,7 +58990,7 @@
         <v>0</v>
       </c>
       <c r="E1449" s="21">
-        <v>300</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1450" spans="1:34" s="21" customFormat="1">
@@ -59004,7 +59004,7 @@
         <v>0</v>
       </c>
       <c r="E1450" s="21">
-        <v>600</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1451" spans="1:34" s="21" customFormat="1">
@@ -59018,7 +59018,7 @@
         <v>0</v>
       </c>
       <c r="E1451" s="21">
-        <v>1200</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1452" spans="1:34" s="21" customFormat="1">
@@ -59032,7 +59032,7 @@
         <v>0</v>
       </c>
       <c r="E1452" s="21">
-        <v>600</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1453" spans="1:34" s="21" customFormat="1">
@@ -59046,7 +59046,7 @@
         <v>0</v>
       </c>
       <c r="E1453" s="21">
-        <v>1200</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1454" spans="1:34" s="21" customFormat="1">
@@ -63067,7 +63067,7 @@
         <v>0</v>
       </c>
       <c r="E1619" s="21">
-        <v>1200</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1620" spans="1:34" s="21" customFormat="1">
@@ -63081,7 +63081,7 @@
         <v>0</v>
       </c>
       <c r="E1620" s="21">
-        <v>300</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1621" spans="1:34" s="21" customFormat="1">
@@ -63095,7 +63095,7 @@
         <v>0</v>
       </c>
       <c r="E1621" s="21">
-        <v>600</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1622" spans="1:34" s="21" customFormat="1">
@@ -63109,7 +63109,7 @@
         <v>0</v>
       </c>
       <c r="E1622" s="21">
-        <v>1200</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1623" spans="1:34" s="21" customFormat="1">
@@ -63123,7 +63123,7 @@
         <v>0</v>
       </c>
       <c r="E1623" s="21">
-        <v>600</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1624" spans="1:34" s="21" customFormat="1">
@@ -63137,7 +63137,7 @@
         <v>0</v>
       </c>
       <c r="E1624" s="21">
-        <v>1200</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1625" spans="1:34" s="21" customFormat="1">
@@ -63151,7 +63151,7 @@
         <v>0</v>
       </c>
       <c r="E1625" s="21">
-        <v>300</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1626" spans="1:34" s="21" customFormat="1">
@@ -63165,7 +63165,7 @@
         <v>0</v>
       </c>
       <c r="E1626" s="21">
-        <v>600</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1627" spans="1:34" s="21" customFormat="1">
@@ -63179,7 +63179,7 @@
         <v>0</v>
       </c>
       <c r="E1627" s="21">
-        <v>1200</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1628" spans="1:34" s="21" customFormat="1">
@@ -63193,7 +63193,7 @@
         <v>0</v>
       </c>
       <c r="E1628" s="21">
-        <v>600</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1629" spans="1:34" s="21" customFormat="1">
